--- a/Reports/API_Excel_Report/API_excel_report.xlsx
+++ b/Reports/API_Excel_Report/API_excel_report.xlsx
@@ -3,14 +3,17 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="1" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Test_Results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Login_Test_Results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Users_Test_Results" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="User_Role_Test_Results" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Enrollment_Group_Test_Results" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test_Results'!$G$1:$G$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Login_Test_Results'!$G$1:$G$116</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,10 +22,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -72,7 +96,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -111,12 +135,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0000FF00"/>
         <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -125,27 +179,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -157,38 +200,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -295,15 +310,73 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -314,10 +387,8 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -326,19 +397,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
@@ -350,9 +430,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -361,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -369,81 +447,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,7 +924,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -798,77 +936,80 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Module Name</t>
         </is>
       </c>
-      <c r="B1" s="13" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>No of API</t>
         </is>
       </c>
-      <c r="C1" s="13" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>API_PASS</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>API_FAIL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="inlineStr">
-        <is>
-          <t>Registor API</t>
-        </is>
-      </c>
-      <c r="B2" s="16">
-        <f>ROWS(Test_Results!B2:B2)</f>
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>Login API</t>
+        </is>
+      </c>
+      <c r="B2" s="10">
+        <f>ROWS(Login_Test_Results!B2:B6)</f>
         <v/>
       </c>
-      <c r="C2" s="16">
-        <f>COUNTIF(Test_Results!G2:G2,"PASS")</f>
+      <c r="C2" s="10">
+        <f>COUNTIF(Login_Test_Results!G2:G6,"PASS")</f>
         <v/>
       </c>
-      <c r="D2" s="17">
-        <f>COUNTIF(Test_Results!G2:G2,"FAIL")</f>
+      <c r="D2" s="11">
+        <f>COUNTIF(Login_Test_Results!G2:G6,"FAIL")</f>
         <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="18" t="inlineStr">
-        <is>
-          <t>Login</t>
-        </is>
-      </c>
-      <c r="B3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="20" t="n">
-        <v>0</v>
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>User API</t>
+        </is>
+      </c>
+      <c r="B3" s="13">
+        <f>ROWS(Users_Test_Results!B2:B7)</f>
+        <v/>
+      </c>
+      <c r="C3" s="13">
+        <f>COUNTIF(Users_Test_Results!G2:G6,"PASS")</f>
+        <v/>
+      </c>
+      <c r="D3" s="11">
+        <f>COUNTIF(Users_Test_Results!G2:G6,"FAIL")</f>
+        <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="21" t="inlineStr">
+      <c r="A4" s="14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="15">
         <f>SUM(B2:B3)</f>
         <v/>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="15">
         <f>SUM(C2:C3)</f>
         <v/>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="16">
         <f>SUM(D2:D3)</f>
         <v/>
       </c>
@@ -886,8 +1027,8 @@
   </sheetPr>
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -900,61 +1041,61 @@
     <col width="25.5546875" customWidth="1" style="2" min="8" max="8"/>
     <col width="15.44140625" customWidth="1" style="1" min="9" max="9"/>
     <col width="12.6640625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="17.33203125" customWidth="1" style="1" min="11" max="11"/>
+    <col width="17.33203125" customWidth="1" style="2" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="21" t="inlineStr">
         <is>
           <t>Test No</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>TestCase</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="23" t="inlineStr">
         <is>
           <t>TestCase Description</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>Request Body</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="23" t="inlineStr">
         <is>
           <t>Check_Point/Test_Condition</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="23" t="inlineStr">
         <is>
           <t>Result (Pass/Fail)</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="23" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="I1" s="24" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="J1" s="24" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="25" t="inlineStr">
         <is>
           <t>Total Duration
 (Seconds)</t>
@@ -962,126 +1103,269 @@
       </c>
     </row>
     <row r="2" ht="58.2" customHeight="1">
-      <c r="A2" s="31" t="inlineStr">
+      <c r="A2" s="43" t="inlineStr">
         <is>
           <t>Login</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="24" t="inlineStr">
+      <c r="C2" s="17" t="inlineStr">
         <is>
           <t>To verify the Login API with valid data.</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>{'username': 'shubham', 'password': 'Right_1r1s', 'lat': 'undefined', 'lon': 'undefined'}</t>
-        </is>
-      </c>
-      <c r="E2" s="7" t="inlineStr">
-        <is>
-          <t>{'result': {'cookies': 'CGISESSID=41abc053a6f5cf43788e1cb6ab4e3417', 'status': 'ok', 'message': 'You have been logged in.'}}</t>
-        </is>
-      </c>
-      <c r="F2" s="25" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>{'username': 'core', 'password': 'Right_1r1s', 'lat': 'undefined', 'lon': 'undefined'}</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>{'result': {'cookies': 'CGISESSID=30bf8bf411b747c5bdf296a6ed665588', 'message': 'You have been logged in.', 'status': 'ok', 'token': 'EAAAADUxnCHO/Xz3/hu5RzhkFPLAkcmpsrnwOZMCo/rQGRnn0cxamRe09roF884c2Viq344146daDbl7YkBxc6ixDcO7vFSJQjPSUGOG2VHZyligFxD7vj/u2ETM2/Oxa0yHqU3nJsk5szYu0dHQez7xzwi91IGkgI/o3Oy3jKxkJSTaQLCoZu+B1aLQV8tXAhMvTkMm45vanXqqfeKWS4RGzzy9x9sSCSLZdPSyoQkvfxRPSkIBzR8Bx2j6cECZc6Ajyzw903IRatvjy9qpsJVsUwtl+q9f7sr0GI4v8uvDv2mIIx1F3rRiNfoFTuiHR+AVH3O+DaOJOe2MB6393vxohL+D62fHFm/1cM31WJaVGnRVLY+7vFaIZt6fY7B7jXIuUDEfhWsMl7Fe23P17nrwj/htfRAZYi7J5M2Of9cbXOWxEYeFT3DW38v0bo+FJBtbC96UXD1D2GWeNpVJKPAFezkGVY94MWjq3u86fK0z0YmuQwsbs4CATBHvP4JXJJZCYkpk3GhgnN4DqQFfDlcF7Z0mRxYyk4K0XDPGmX9sprqCQsZH+kp90NijFLY5/6S2oh5d7TT/dN7KpxnfLon3e1Qw89QLDsGKM+qvvUQpAJlRjUq4NaHRzFPS9WIvASph6OnYXB7M2dwvP8GSE9snqV7qua3k57og595hriHUZImQM9DEWBz3NqvhYq9kNLxldF09XkBY0LXgQYz2iHcJrl/7yq1+0g8XKoSZDa3jCX1ncoS8fIPEEv76QCDzuLR0ZNaLiPdC40IjWKHHgGdSxsXUHDKglDlp812WEaxQ0GdDRdnGo5xUQ/m5UqM6nhoG9xhTwZnD+9zWgxLQXopS7KoBGbU0DG5dpyxzT7oGZc6+AWoWtnS+lmb77l/ps34lh8AWeKzI7EIsvT8l86QG7/4tQUUTgFWjc5A5ix3NzM0hqIr69yuqEtX/2mYDWKtnUjTxBZy53jRsRoPK8ueCEL8i/RX9X40OUb9xVN3kB5ZPwOvstXvNRfEh+jZaEzm0S8pyZIixSVgHb9awv/6YAbNUxcnKlPR9zue1KzbVibPDoyhrf4TGDnvl0+x2evlNR2mzxVWoAvmCGGZzQyt+0n9aQvHDDdgjMIgvG89emHk3W7xMIxylVeElAdpZ1rSMZcUFTJbLPX0nptFrgo6gX9QVCUHr4HqTRNuAurjZkbRJdCyplfAhedFPfOXtVbN6ogEg/Tc63CWkzH1QurxZQ7qGr7PrC5VQkYr5Ht73nvYPR5BGnW5DOz07Q0qFU/IxF0hmXub7HRdn/RiFsvtDFPg3CmhAudEc3FIvdmbWyCx/I6mv0469kvrdWaG4awvO5S+pNa1nxXamXbtUKljeCSWG4Wnk74WWdxiL1Qsga5YnP7YyF4RhNs2DONLN2q1QEYoEyLA+8UPFTH6yHIbKT6yLu1Y02FzmCR/vknAwTuKtMQmJnmRC/NtuG76KtdO6m4PWAUL0IMCmVUwnubPYmdsn+vCJtk9DwOI+EnSCGSyjff72j8ddbw85TnmhoXevYYHBQs0H2qlGluaC5odPZozUXONOccw7noiV4ODF8E8lJpB7O5jy10Y93XVujhNWpfFhGFBLZkyifDRU4UYofSePJR389efc/q/3vbi8J9q9Jo6T0gDsFkwX76QtSHyDIRm4tbBcZsVCiBCes1wvxiqfPeqtYlPKmt00BIwH0Ro+l588EV60ttCR1/DEtH4ZbVwTJlRgF18H4Zl2pxYok0myXP2wMj3pxbn+gCH7L5u7PF/cbyiXySApTBnNQHLyfmScp+Y5A2AcXPD7s0Ka3QOg5pukr0qtd/YecFbQ25OYgg+467716Ppei5+h7BVKKAKeiEYNAsoasxx4cOMMC8HCE2Un7Rn+bXx0Rc4JLfNCeMLm0Ld305xSIhWb2NO+CM5SX+hEKT4gz6M1/R3Ky9LjtgBbXZTKHNRSJ7XgSbLEeY3dKGqveYBJHElVOqtvOt2NJucHikuXyJYESlqkUdz51v97Nr6n5/xS/aVxVLhcBasrtkR5u28fu0pZ5KS4pJEjrfNt0s26nV7NfImJ1Z91+1+grdOLkOPyRQ8ELHvYO8zabK/2gebEHlqCAkTXwRDDb3Vs3qKeT/XtE4/d2Eg='}}</t>
+        </is>
+      </c>
+      <c r="F2" s="17" t="inlineStr">
         <is>
           <t>Validate Status Code : 200 &amp; Message : You have been logged in.</t>
         </is>
       </c>
-      <c r="G2" s="33" t="inlineStr">
+      <c r="G2" s="54" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H2" s="8" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : You have been logged in.</t>
         </is>
       </c>
-      <c r="I2" s="10" t="inlineStr">
-        <is>
-          <t>13:26:44</t>
-        </is>
-      </c>
-      <c r="J2" s="11" t="inlineStr">
-        <is>
-          <t>13:26:46</t>
-        </is>
-      </c>
-      <c r="K2" s="11" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>19:10:37</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>19:10:39</t>
+        </is>
+      </c>
+      <c r="K2" s="26" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="3" ht="62.4" customHeight="1">
-      <c r="A3" s="32" t="n"/>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="A3" s="44" t="n"/>
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="27" t="inlineStr">
+      <c r="C3" s="19" t="inlineStr">
         <is>
           <t>To verify the Login API with invalid data.</t>
         </is>
       </c>
-      <c r="D3" s="26" t="inlineStr">
-        <is>
-          <t>{'username': 'shubham', 'password': 'Right_1r1', 'lat': 'undefined', 'lon': 'undefined'}</t>
-        </is>
-      </c>
-      <c r="E3" s="26" t="inlineStr">
-        <is>
-          <t>{'result': {'status': 'error', 'message': 'Invalid password'}}</t>
-        </is>
-      </c>
-      <c r="F3" s="26" t="inlineStr">
+      <c r="D3" s="18" t="inlineStr">
+        <is>
+          <t>{'username': ' wrongUsername', 'password': 'Right_1r1s', 'lat': 'undefined', 'lon': 'undefined'}</t>
+        </is>
+      </c>
+      <c r="E3" s="18" t="inlineStr">
+        <is>
+          <t>{'result': {'cookies': '', 'message': "Invalid username ' wrongUsername'"}}</t>
+        </is>
+      </c>
+      <c r="F3" s="18" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Invalid password</t>
         </is>
       </c>
-      <c r="G3" s="34" t="inlineStr">
+      <c r="G3" s="54" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H3" s="26" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : Invalid password</t>
-        </is>
-      </c>
-      <c r="I3" s="28" t="inlineStr">
-        <is>
-          <t>13:26:46</t>
-        </is>
-      </c>
-      <c r="J3" s="28" t="inlineStr">
-        <is>
-          <t>13:26:47</t>
-        </is>
-      </c>
-      <c r="K3" s="28" t="inlineStr">
+      <c r="H3" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Invalid username ' wrongUsername'</t>
+        </is>
+      </c>
+      <c r="I3" s="20" t="inlineStr">
+        <is>
+          <t>19:10:39</t>
+        </is>
+      </c>
+      <c r="J3" s="20" t="inlineStr">
+        <is>
+          <t>19:10:40</t>
+        </is>
+      </c>
+      <c r="K3" s="27" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
+    <row r="4" ht="43.2" customHeight="1">
+      <c r="A4" s="44" t="n"/>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Test_03</t>
+        </is>
+      </c>
+      <c r="C4" s="18" t="n"/>
+      <c r="D4" s="18" t="inlineStr">
+        <is>
+          <t>{'username': 'core', 'password': ' wrongPassowrd', 'lat': 'undefined', 'lon': 'undefined'}</t>
+        </is>
+      </c>
+      <c r="E4" s="18" t="inlineStr">
+        <is>
+          <t>{'result': {'cookies': '', 'message': "Password didn't matched"}}</t>
+        </is>
+      </c>
+      <c r="F4" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Password didn't matched</t>
+        </is>
+      </c>
+      <c r="G4" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Password didn't matched</t>
+        </is>
+      </c>
+      <c r="I4" s="20" t="inlineStr">
+        <is>
+          <t>19:10:41</t>
+        </is>
+      </c>
+      <c r="J4" s="20" t="inlineStr">
+        <is>
+          <t>19:10:42</t>
+        </is>
+      </c>
+      <c r="K4" s="27" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="43.2" customHeight="1">
+      <c r="A5" s="44" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Test_04</t>
+        </is>
+      </c>
+      <c r="C5" s="18" t="n"/>
+      <c r="D5" s="18" t="inlineStr">
+        <is>
+          <t>{'username': ' wrongUsername', 'password': ' wrongPassowrd', 'lat': 'undefined', 'lon': 'undefined'}</t>
+        </is>
+      </c>
+      <c r="E5" s="18" t="inlineStr">
+        <is>
+          <t>{'result': {'cookies': '', 'message': "Invalid username ' wrongUsername'"}}</t>
+        </is>
+      </c>
+      <c r="F5" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Invalid username ' wrongUsername'</t>
+        </is>
+      </c>
+      <c r="G5" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Invalid username ' wrongUsername'</t>
+        </is>
+      </c>
+      <c r="I5" s="20" t="inlineStr">
+        <is>
+          <t>19:10:42</t>
+        </is>
+      </c>
+      <c r="J5" s="20" t="inlineStr">
+        <is>
+          <t>19:10:44</t>
+        </is>
+      </c>
+      <c r="K5" s="27" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="163.2" customHeight="1" thickBot="1">
+      <c r="A6" s="45" t="n"/>
+      <c r="B6" s="28" t="inlineStr">
+        <is>
+          <t>Test_05</t>
+        </is>
+      </c>
+      <c r="C6" s="29" t="n"/>
+      <c r="D6" s="29" t="inlineStr">
+        <is>
+          <t>{'username': None, 'password': None, 'lat': 'undefined', 'lon': 'undefined'}</t>
+        </is>
+      </c>
+      <c r="E6" s="29" t="inlineStr">
+        <is>
+          <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Username: Missing Username Severity: Error\r\n -- Username: Missing Username Severity: Error\r\n -- Password: Missing Password Severity: Error\r\n -- Password: Missing Password Severity: Error', 'innerException': None, 'requestId': '00-88d3a45f033cf5adeb15f0b7267c7221-223dd93beffe9c38-00', 'requestPath': '/api/login', 'connectionId': '0HMTUBVM2V1KP'}}</t>
+        </is>
+      </c>
+      <c r="F6" s="29" t="inlineStr">
+        <is>
+          <t>Response Status Code : 500 &amp; Message : Validation failed: 
+ -- Username: Missing Username Severity: Error
+ -- Username: Missing Username Severity: Error
+ -- Password: Missing Password Severity: Error
+ -- Password: Missing Password Severity: Error</t>
+        </is>
+      </c>
+      <c r="G6" s="55" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" s="29" t="inlineStr">
+        <is>
+          <t>Response Status Code : 500 &amp; Message : Validation failed: 
+ -- Username: Missing Username Severity: Error
+ -- Username: Missing Username Severity: Error
+ -- Password: Missing Password Severity: Error
+ -- Password: Missing Password Severity: Error</t>
+        </is>
+      </c>
+      <c r="I6" s="30" t="inlineStr">
+        <is>
+          <t>19:10:44</t>
+        </is>
+      </c>
+      <c r="J6" s="30" t="inlineStr">
+        <is>
+          <t>19:10:46</t>
+        </is>
+      </c>
+      <c r="K6" s="31" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
@@ -1526,9 +1810,1912 @@
   </sheetData>
   <autoFilter ref="G1:G116"/>
   <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="14.6640625" customWidth="1" min="1" max="1"/>
+    <col width="14.77734375" customWidth="1" min="2" max="2"/>
+    <col width="20.44140625" customWidth="1" min="3" max="3"/>
+    <col width="20.33203125" customWidth="1" style="2" min="4" max="4"/>
+    <col width="24.44140625" customWidth="1" style="2" min="5" max="5"/>
+    <col width="29" customWidth="1" style="2" min="6" max="6"/>
+    <col width="16.88671875" customWidth="1" style="2" min="7" max="8"/>
+    <col width="10.109375" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
+    <col width="8.88671875" customWidth="1" style="2" min="10" max="10"/>
+    <col width="14.33203125" customWidth="1" style="2" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.8" customHeight="1">
+      <c r="A1" s="21" t="inlineStr">
+        <is>
+          <t>Test No</t>
+        </is>
+      </c>
+      <c r="B1" s="22" t="inlineStr">
+        <is>
+          <t>TestCase</t>
+        </is>
+      </c>
+      <c r="C1" s="23" t="inlineStr">
+        <is>
+          <t>TestCase Description</t>
+        </is>
+      </c>
+      <c r="D1" s="22" t="inlineStr">
+        <is>
+          <t>Request Body</t>
+        </is>
+      </c>
+      <c r="E1" s="22" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="F1" s="23" t="inlineStr">
+        <is>
+          <t>Check_Point/Test_Condition</t>
+        </is>
+      </c>
+      <c r="G1" s="23" t="inlineStr">
+        <is>
+          <t>Result (Pass/Fail)</t>
+        </is>
+      </c>
+      <c r="H1" s="23" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="I1" s="23" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="J1" s="23" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="K1" s="25" t="inlineStr">
+        <is>
+          <t>Total Duration
+(Seconds)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="117" customHeight="1">
+      <c r="A2" s="46" t="inlineStr">
+        <is>
+          <t>Users</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Test_01</t>
+        </is>
+      </c>
+      <c r="C2" s="32" t="inlineStr">
+        <is>
+          <t>Verify create user API</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>{'auth_params': ' ', 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': ' ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Chile/EasterIsland', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'username': 'Demo_user1432', 'password': 'Right_1r1s'}</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>{'username': 'Demo_user1432', 'userID': '65154a68be1891535e3c0487', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : ok</t>
+        </is>
+      </c>
+      <c r="G2" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : ok</t>
+        </is>
+      </c>
+      <c r="I2" s="38" t="inlineStr">
+        <is>
+          <t>15:11:48</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>15:12:00</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="96" customHeight="1">
+      <c r="A3" s="47" t="n"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test_02</t>
+        </is>
+      </c>
+      <c r="C3" s="19" t="n"/>
+      <c r="D3" s="18" t="inlineStr">
+        <is>
+          <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': True, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'username': 'test409613', 'password': 'Right_1r1s'}</t>
+        </is>
+      </c>
+      <c r="E3" s="18" t="inlineStr">
+        <is>
+          <t>{'username': 'test409613', 'userID': '65154a72be1891535e3c04aa', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
+        </is>
+      </c>
+      <c r="F3" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : ok</t>
+        </is>
+      </c>
+      <c r="G3" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : ok</t>
+        </is>
+      </c>
+      <c r="I3" s="18" t="inlineStr">
+        <is>
+          <t>15:12:00</t>
+        </is>
+      </c>
+      <c r="J3" s="18" t="inlineStr">
+        <is>
+          <t>15:12:10</t>
+        </is>
+      </c>
+      <c r="K3" s="18" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="72" customHeight="1">
+      <c r="A4" s="47" t="n"/>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Test_03</t>
+        </is>
+      </c>
+      <c r="C4" s="18" t="n"/>
+      <c r="D4" s="18" t="inlineStr">
+        <is>
+          <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': False, 'fname': 'testFname', 'mname': None, 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'username': 'Demo_user1992', 'password': 'Right_1r1s'}</t>
+        </is>
+      </c>
+      <c r="E4" s="18" t="inlineStr">
+        <is>
+          <t>{'username': 'Demo_user1992', 'userID': '65154a7fbe1891535e3c04cd', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
+        </is>
+      </c>
+      <c r="F4" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : ok</t>
+        </is>
+      </c>
+      <c r="G4" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : ok</t>
+        </is>
+      </c>
+      <c r="I4" s="18" t="inlineStr">
+        <is>
+          <t>15:12:11</t>
+        </is>
+      </c>
+      <c r="J4" s="18" t="inlineStr">
+        <is>
+          <t>15:12:22</t>
+        </is>
+      </c>
+      <c r="K4" s="18" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="86.40000000000001" customHeight="1">
+      <c r="A5" s="47" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Test_04</t>
+        </is>
+      </c>
+      <c r="C5" s="18" t="n"/>
+      <c r="D5" s="18" t="inlineStr">
+        <is>
+          <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': False, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'username': 'test409776', 'password': 'Right_1r1s'}</t>
+        </is>
+      </c>
+      <c r="E5" s="18" t="inlineStr">
+        <is>
+          <t>{'username': 'test409776', 'userID': '65154a86be1891535e3c04f0', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
+        </is>
+      </c>
+      <c r="F5" s="18" t="n"/>
+      <c r="G5" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : ok</t>
+        </is>
+      </c>
+      <c r="I5" s="18" t="inlineStr">
+        <is>
+          <t>15:12:22</t>
+        </is>
+      </c>
+      <c r="J5" s="18" t="inlineStr">
+        <is>
+          <t>15:12:30</t>
+        </is>
+      </c>
+      <c r="K5" s="18" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="47" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Test_05</t>
+        </is>
+      </c>
+      <c r="C6" s="36" t="n"/>
+      <c r="D6" s="36" t="n"/>
+      <c r="E6" s="36" t="n"/>
+      <c r="F6" s="36" t="n"/>
+      <c r="G6" s="36" t="n"/>
+      <c r="H6" s="36" t="n"/>
+      <c r="I6" s="36" t="n"/>
+      <c r="J6" s="36" t="n"/>
+      <c r="K6" s="36" t="n"/>
+    </row>
+    <row r="7" ht="124.8" customHeight="1">
+      <c r="A7" s="47" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Test_06</t>
+        </is>
+      </c>
+      <c r="C7" s="36" t="n"/>
+      <c r="D7" s="18" t="inlineStr">
+        <is>
+          <t>{'userId': '6512826fe3534b7b91f740d0', 'alertEnabled': True, 'sendSms': True, 'sendMms': True, 'sendEmail': True, 'sendInappNotification': False, 'scheduleDetail': [{'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': False}, {'enabled': False}]}</t>
+        </is>
+      </c>
+      <c r="E7" s="18" t="inlineStr">
+        <is>
+          <t>{'data': 'Alert information has been updated.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F7" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : User  650acb81cd16ba5d940931f1 is updated.</t>
+        </is>
+      </c>
+      <c r="G7" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H7" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Alert information has been updated.</t>
+        </is>
+      </c>
+      <c r="I7" s="18" t="inlineStr">
+        <is>
+          <t>15:12:31</t>
+        </is>
+      </c>
+      <c r="J7" s="18" t="inlineStr">
+        <is>
+          <t>15:12:45</t>
+        </is>
+      </c>
+      <c r="K7" s="18" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="87.59999999999999" customHeight="1">
+      <c r="A8" s="47" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Test_07</t>
+        </is>
+      </c>
+      <c r="C8" s="36" t="n"/>
+      <c r="D8" s="18" t="inlineStr">
+        <is>
+          <t>{'accountId': '6512825db5505c9518c38e90', 'addr1': None, 'addr2': None, 'aemail': 'user@gmail.com', 'aphone': None, 'auth_params': None, 'city': None, 'company': None, 'department': None, 'email': 'user@gmail.com', 'enabled': True, 'fname': None, 'fphone': None, 'hphone': None, 'isServiceUser': False, 'lname': None, 'mname': None, 'password': 'Password@123', 'phone_type': 0, 'provider': None, 'pw_current': None, 'pw_new1': None, 'pw_new2': None, 'region_id': '6512825eb5505c9518c38e94', 'state': None, 'timezone': 'Asia/Kolkata', 'title': 'test_title', 'url': None, 'urole_id': '6512825eb5505c9518c38e91', 'user_id': '6512826fe3534b7b91f740d0', 'userName': 'TestUser11', 'wphone': None, 'zip': None}</t>
+        </is>
+      </c>
+      <c r="E8" s="18" t="inlineStr">
+        <is>
+          <t>{'username': 'TestUser11', 'userID': '65154aa0be1891535e3c053c', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
+        </is>
+      </c>
+      <c r="F8" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="G8" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H8" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : ok</t>
+        </is>
+      </c>
+      <c r="I8" s="18" t="inlineStr">
+        <is>
+          <t>15:12:45</t>
+        </is>
+      </c>
+      <c r="J8" s="18" t="inlineStr">
+        <is>
+          <t>15:12:55</t>
+        </is>
+      </c>
+      <c r="K8" s="18" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="98.40000000000001" customHeight="1">
+      <c r="A9" s="47" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Test_08</t>
+        </is>
+      </c>
+      <c r="C9" s="36" t="n"/>
+      <c r="D9" s="18" t="inlineStr">
+        <is>
+          <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': '  ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'user_id': '65154aa9be1891535e3c055f', 'pw_current': 'Right_1r1s', 'pw_new1': 'Right_1r1', 'pw_new2': 'Right_1r1'}</t>
+        </is>
+      </c>
+      <c r="E9" s="18" t="inlineStr">
+        <is>
+          <t>{'data': '65154aa9be1891535e3c055f', 'message': 'User  65154aa9be1891535e3c055f is updated.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F9" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="G9" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H9" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : User  65154aa9be1891535e3c055f is updated.</t>
+        </is>
+      </c>
+      <c r="I9" s="18" t="inlineStr">
+        <is>
+          <t>15:12:55</t>
+        </is>
+      </c>
+      <c r="J9" s="18" t="inlineStr">
+        <is>
+          <t>15:13:13</t>
+        </is>
+      </c>
+      <c r="K9" s="18" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="111" customHeight="1">
+      <c r="A10" s="47" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Test_08</t>
+        </is>
+      </c>
+      <c r="C10" s="36" t="n"/>
+      <c r="D10" s="18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E10" s="18" t="inlineStr">
+        <is>
+          <t>{'userInfo': {'users': [{'id': '65094909790679132325377c', 'userID': '65094909790679132325377c', 'username': 'deployment.client', 'serviceUser': False, 'roleId': '65094909790679132325377b', 'userRoleId': '65094909790679132325377b', 'enabled': 1, 'accountId': '6509490800b0398858000031', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6509490800b0398858000035', 'regionName': 'Dmart', 'roleName': 'deployment.client'}]}}</t>
+        </is>
+      </c>
+      <c r="F10" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="G10" s="37" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H10" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I10" s="18" t="inlineStr">
+        <is>
+          <t>19:47:17</t>
+        </is>
+      </c>
+      <c r="J10" s="18" t="inlineStr">
+        <is>
+          <t>19:47:23</t>
+        </is>
+      </c>
+      <c r="K10" s="18" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="137.4" customHeight="1">
+      <c r="A11" s="47" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Test_10</t>
+        </is>
+      </c>
+      <c r="C11" s="36" t="n"/>
+      <c r="D11" s="18" t="inlineStr">
+        <is>
+          <t>{'Addr1': None, 'Addr2': None, 'Zip': None, 'Enabled': True, 'Pw_current': None, 'Region_id': '6512825eb5505c9518c38e94', 'Hphone': None, 'AccountId': '6512825db5505c9518c38e90', 'Fphone': None, 'Pw_new1': None, 'Pw_new2': None, 'City': None, 'Phone_type': None, 'Aphone': None, 'Url': None, 'User_id': '65154abcbe1891535e3c05a8', 'Urole_id': '6512825eb5505c9518c38e91', 'State': None, 'Provider': None, 'Fname': None, 'Department': None, 'IsServiceUser': False, 'UserName': None, 'Lname': None, 'Wphone': None, 'Mname': None, 'Title': None, 'Timezone': 'Asia/Kolkata', 'Password': 'Password@123', 'Aemail': 'user@gmail.com', 'Email': 'user@gmail.com', 'Company': None, 'Auth_params': None}</t>
+        </is>
+      </c>
+      <c r="E11" s="18" t="inlineStr">
+        <is>
+          <t>{'data': '65154abcbe1891535e3c05a8', 'message': 'User  65154abcbe1891535e3c05a8 is updated.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F11" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Alert information has been updated.</t>
+        </is>
+      </c>
+      <c r="G11" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H11" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : User  65154abcbe1891535e3c05a8 is updated.</t>
+        </is>
+      </c>
+      <c r="I11" s="18" t="inlineStr">
+        <is>
+          <t>15:13:13</t>
+        </is>
+      </c>
+      <c r="J11" s="18" t="inlineStr">
+        <is>
+          <t>15:13:38</t>
+        </is>
+      </c>
+      <c r="K11" s="18" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="109.8" customHeight="1">
+      <c r="A12" s="47" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Test_11</t>
+        </is>
+      </c>
+      <c r="C12" s="36" t="n"/>
+      <c r="D12" s="18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E12" s="18" t="inlineStr">
+        <is>
+          <t>[{'id': '65128268d86a782fa5f5baeb', 'userID': '65128268d86a782fa5f5baeb', 'username': 'deployment.client', 'serviceUser': False, 'roleId': '65128268d86a782fa5f5baea', 'userRoleId': '65128268d86a782fa5f5baea', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '65128303f174a38fadf060ce', 'userID': '65128303f174a38fadf060ce', 'username': 'deployment.server', 'serviceUser': False, 'roleId': '65128303f174a38fadf060cd', 'userRoleId': '65128303f174a38fadf060cd', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '651548d8be1891535e3c015f', 'userID': '651548d8be1891535e3c015f', 'username': 'Demo_user1983', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893720000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548debe1891535e3c0182', 'userID': '651548debe1891535e3c0182', 'username': 'test409515', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893726000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548e4be1891535e3c01a5', 'userID': '651548e4be1891535e3c01a5', 'username': 'Demo_user1679', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893732000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ebbe1891535e3c01c8', 'userID': '651548ebbe1891535e3c01c8', 'username': 'test409431', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893739000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548f8be1891535e3c0214', 'userID': '651548f8be1891535e3c0214', 'username': 'TestUser419', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893752000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ffbe1891535e3c0237', 'userID': '651548ffbe1891535e3c0237', 'username': 'Demo_user1360', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893759000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515490dbe1891535e3c028d', 'userID': '6515490dbe1891535e3c028d', 'username': 'Demo_user120', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893773000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515491cbe1891535e3c02bd', 'userID': '6515491cbe1891535e3c02bd', 'username': 'Demo_user1273', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893788000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515498ebe1891535e3c041a', 'userID': '6515498ebe1891535e3c041a', 'username': 'Demo_user1260', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893902000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651549f3be1891535e3c0457', 'userID': '651549f3be1891535e3c0457', 'username': 'Demo_user1747', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894003000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a68be1891535e3c0487', 'userID': '65154a68be1891535e3c0487', 'username': 'Demo_user1432', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894120000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a72be1891535e3c04aa', 'userID': '65154a72be1891535e3c04aa', 'username': 'test409613', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894130000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a7fbe1891535e3c04cd', 'userID': '65154a7fbe1891535e3c04cd', 'username': 'Demo_user1992', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894143000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a86be1891535e3c04f0', 'userID': '65154a86be1891535e3c04f0', 'username': 'test409776', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894150000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa0be1891535e3c053c', 'userID': '65154aa0be1891535e3c053c', 'username': 'TestUser11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894176000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa9be1891535e3c055f', 'userID': '65154aa9be1891535e3c055f', 'username': 'Demo_user11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894185000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154abcbe1891535e3c05a8', 'userID': '65154abcbe1891535e3c05a8', 'username': 'Demo_user1767', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894204000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}]</t>
+        </is>
+      </c>
+      <c r="F12" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : ok</t>
+        </is>
+      </c>
+      <c r="G12" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H12" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I12" s="18" t="inlineStr">
+        <is>
+          <t>15:13:38</t>
+        </is>
+      </c>
+      <c r="J12" s="18" t="inlineStr">
+        <is>
+          <t>15:13:43</t>
+        </is>
+      </c>
+      <c r="K12" s="18" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="112.8" customHeight="1">
+      <c r="A13" s="47" t="n"/>
+      <c r="B13" s="18" t="inlineStr">
+        <is>
+          <t>Test_12</t>
+        </is>
+      </c>
+      <c r="C13" s="18" t="n"/>
+      <c r="D13" s="18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E13" s="18" t="inlineStr">
+        <is>
+          <t>{'userInfo': {'users': [{'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [{'agroupID': '651545bdbe1891535e3bf164', 'desc': 'test description', 'enrollmentGroupIds': ['651545bbbe1891535e3bf145'], 'name': 'Test_notification_Api531', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}, {'agroupID': '651545dcbe1891535e3bf23f', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api641', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}], 'regionId': '6512825eb5505c9518c38e92', 'regionName': 'Dmart', 'roleName': 'facefirst-user-role'}, {'id': '651548d8be1891535e3c015f', 'userID': '651548d8be1891535e3c015f', 'username': 'Demo_user1983', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893720000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548debe1891535e3c0182', 'userID': '651548debe1891535e3c0182', 'username': 'test409515', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893726000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548e4be1891535e3c01a5', 'userID': '651548e4be1891535e3c01a5', 'username': 'Demo_user1679', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893732000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548ebbe1891535e3c01c8', 'userID': '651548ebbe1891535e3c01c8', 'username': 'test409431', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893739000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548f8be1891535e3c0214', 'userID': '651548f8be1891535e3c0214', 'username': 'TestUser419', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893752000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548ffbe1891535e3c0237', 'userID': '651548ffbe1891535e3c0237', 'username': 'Demo_user1360', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893759000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '6515490dbe1891535e3c028d', 'userID': '6515490dbe1891535e3c028d', 'username': 'Demo_user120', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893773000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '6515491cbe1891535e3c02bd', 'userID': '6515491cbe1891535e3c02bd', 'username': 'Demo_user1273', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893788000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '6515498ebe1891535e3c041a', 'userID': '6515498ebe1891535e3c041a', 'username': 'Demo_user1260', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893902000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651549f3be1891535e3c0457', 'userID': '651549f3be1891535e3c0457', 'username': 'Demo_user1747', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894003000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a68be1891535e3c0487', 'userID': '65154a68be1891535e3c0487', 'username': 'Demo_user1432', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894120000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a72be1891535e3c04aa', 'userID': '65154a72be1891535e3c04aa', 'username': 'test409613', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894130000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a7fbe1891535e3c04cd', 'userID': '65154a7fbe1891535e3c04cd', 'username': 'Demo_user1992', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894143000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a86be1891535e3c04f0', 'userID': '65154a86be1891535e3c04f0', 'username': 'test409776', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894150000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154aa0be1891535e3c053c', 'userID': '65154aa0be1891535e3c053c', 'username': 'TestUser11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894176000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154aa9be1891535e3c055f', 'userID': '65154aa9be1891535e3c055f', 'username': 'Demo_user11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894185000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154abcbe1891535e3c05a8', 'userID': '65154abcbe1891535e3c05a8', 'username': 'Demo_user1767', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894204000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}]}}</t>
+        </is>
+      </c>
+      <c r="F13" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : User  650d6aaa327ea63edec3d38b is updated.</t>
+        </is>
+      </c>
+      <c r="G13" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H13" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I13" s="18" t="inlineStr">
+        <is>
+          <t>15:13:43</t>
+        </is>
+      </c>
+      <c r="J13" s="18" t="inlineStr">
+        <is>
+          <t>15:13:55</t>
+        </is>
+      </c>
+      <c r="K13" s="18" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="101.4" customHeight="1">
+      <c r="A14" s="47" t="n"/>
+      <c r="B14" s="18" t="inlineStr">
+        <is>
+          <t>Test_13</t>
+        </is>
+      </c>
+      <c r="C14" s="18" t="n"/>
+      <c r="D14" s="18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E14" s="18" t="inlineStr">
+        <is>
+          <t>{'userInfo': {'users': [{'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [{'agroupID': '651545bdbe1891535e3bf164', 'desc': 'test description', 'enrollmentGroupIds': ['651545bbbe1891535e3bf145'], 'name': 'Test_notification_Api531', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}, {'agroupID': '651545dcbe1891535e3bf23f', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api641', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}], 'regionId': '6512825eb5505c9518c38e92', 'regionName': 'Dmart', 'roleName': 'facefirst-user-role'}]}}</t>
+        </is>
+      </c>
+      <c r="F14" s="18" t="n"/>
+      <c r="G14" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H14" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I14" s="18" t="inlineStr">
+        <is>
+          <t>15:13:55</t>
+        </is>
+      </c>
+      <c r="J14" s="18" t="inlineStr">
+        <is>
+          <t>15:14:05</t>
+        </is>
+      </c>
+      <c r="K14" s="18" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="74.40000000000001" customHeight="1">
+      <c r="A15" s="47" t="n"/>
+      <c r="B15" s="18" t="inlineStr">
+        <is>
+          <t>Test_14</t>
+        </is>
+      </c>
+      <c r="C15" s="18" t="n"/>
+      <c r="D15" s="18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E15" s="18" t="inlineStr">
+        <is>
+          <t>{'accountId': '6512825db5505c9518c38e90', 'regionId': '6512825eb5505c9518c38e92', 'userName': 'core', 'userId': '6512826fe3534b7b91f740d0', 'userRoleId': '6512825eb5505c9518c38e91'}</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="n"/>
+      <c r="G15" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H15" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I15" s="18" t="inlineStr">
+        <is>
+          <t>15:14:05</t>
+        </is>
+      </c>
+      <c r="J15" s="18" t="inlineStr">
+        <is>
+          <t>15:14:09</t>
+        </is>
+      </c>
+      <c r="K15" s="18" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="71.40000000000001" customHeight="1">
+      <c r="A16" s="47" t="n"/>
+      <c r="B16" s="18" t="inlineStr">
+        <is>
+          <t>Test_15</t>
+        </is>
+      </c>
+      <c r="C16" s="18" t="n"/>
+      <c r="D16" s="18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E16" s="18" t="inlineStr">
+        <is>
+          <t>[{'id': '6512826ee3534b7b91f740b2', 'userID': '6512826ee3534b7b91f740b2', 'username': 'facefirst-service-user', 'serviceUser': True, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'support@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711854000, 'secureLogin': 0, 'prefs': {'alertEMail': 'support@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}]</t>
+        </is>
+      </c>
+      <c r="F16" s="18" t="n"/>
+      <c r="G16" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H16" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I16" s="18" t="inlineStr">
+        <is>
+          <t>15:14:09</t>
+        </is>
+      </c>
+      <c r="J16" s="18" t="inlineStr">
+        <is>
+          <t>15:14:14</t>
+        </is>
+      </c>
+      <c r="K16" s="18" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="76.8" customHeight="1">
+      <c r="A17" s="47" t="n"/>
+      <c r="B17" s="18" t="inlineStr">
+        <is>
+          <t>Test_16</t>
+        </is>
+      </c>
+      <c r="C17" s="18" t="n"/>
+      <c r="D17" s="18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E17" s="18" t="inlineStr">
+        <is>
+          <t>[{'id': '65128268d86a782fa5f5baeb', 'userID': '65128268d86a782fa5f5baeb', 'username': 'deployment.client', 'serviceUser': False, 'roleId': '65128268d86a782fa5f5baea', 'userRoleId': '65128268d86a782fa5f5baea', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '65128303f174a38fadf060ce', 'userID': '65128303f174a38fadf060ce', 'username': 'deployment.server', 'serviceUser': False, 'roleId': '65128303f174a38fadf060cd', 'userRoleId': '65128303f174a38fadf060cd', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '651548d8be1891535e3c015f', 'userID': '651548d8be1891535e3c015f', 'username': 'Demo_user1983', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893720000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548debe1891535e3c0182', 'userID': '651548debe1891535e3c0182', 'username': 'test409515', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893726000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548e4be1891535e3c01a5', 'userID': '651548e4be1891535e3c01a5', 'username': 'Demo_user1679', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893732000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ebbe1891535e3c01c8', 'userID': '651548ebbe1891535e3c01c8', 'username': 'test409431', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893739000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548f8be1891535e3c0214', 'userID': '651548f8be1891535e3c0214', 'username': 'TestUser419', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893752000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ffbe1891535e3c0237', 'userID': '651548ffbe1891535e3c0237', 'username': 'Demo_user1360', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893759000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515490dbe1891535e3c028d', 'userID': '6515490dbe1891535e3c028d', 'username': 'Demo_user120', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893773000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515491cbe1891535e3c02bd', 'userID': '6515491cbe1891535e3c02bd', 'username': 'Demo_user1273', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893788000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515498ebe1891535e3c041a', 'userID': '6515498ebe1891535e3c041a', 'username': 'Demo_user1260', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893902000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651549f3be1891535e3c0457', 'userID': '651549f3be1891535e3c0457', 'username': 'Demo_user1747', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894003000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a68be1891535e3c0487', 'userID': '65154a68be1891535e3c0487', 'username': 'Demo_user1432', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894120000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a72be1891535e3c04aa', 'userID': '65154a72be1891535e3c04aa', 'username': 'test409613', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894130000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a7fbe1891535e3c04cd', 'userID': '65154a7fbe1891535e3c04cd', 'username': 'Demo_user1992', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894143000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a86be1891535e3c04f0', 'userID': '65154a86be1891535e3c04f0', 'username': 'test409776', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894150000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa0be1891535e3c053c', 'userID': '65154aa0be1891535e3c053c', 'username': 'TestUser11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894176000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa9be1891535e3c055f', 'userID': '65154aa9be1891535e3c055f', 'username': 'Demo_user11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894185000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154abcbe1891535e3c05a8', 'userID': '65154abcbe1891535e3c05a8', 'username': 'Demo_user1767', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894204000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}]</t>
+        </is>
+      </c>
+      <c r="F17" s="18" t="n"/>
+      <c r="G17" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H17" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I17" s="18" t="inlineStr">
+        <is>
+          <t>15:14:15</t>
+        </is>
+      </c>
+      <c r="J17" s="18" t="inlineStr">
+        <is>
+          <t>15:14:21</t>
+        </is>
+      </c>
+      <c r="K17" s="18" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="105" customHeight="1">
+      <c r="A18" s="47" t="n"/>
+      <c r="B18" s="18" t="inlineStr">
+        <is>
+          <t>Test_17</t>
+        </is>
+      </c>
+      <c r="C18" s="18" t="n"/>
+      <c r="D18" s="18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E18" s="18" t="inlineStr">
+        <is>
+          <t>{'alerts': [], 'sendInAppNotifications': False, 'userID': '65128268d86a782fa5f5baeb', 'sendSMS': False, 'sendMMS': False, 'sendEmail': False, 'enabledAlert': False, 'sendXMLRPC': False}</t>
+        </is>
+      </c>
+      <c r="F18" s="18" t="n"/>
+      <c r="G18" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H18" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I18" s="18" t="inlineStr">
+        <is>
+          <t>15:14:22</t>
+        </is>
+      </c>
+      <c r="J18" s="18" t="inlineStr">
+        <is>
+          <t>15:14:33</t>
+        </is>
+      </c>
+      <c r="K18" s="18" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="86.40000000000001" customHeight="1">
+      <c r="A19" s="47" t="n"/>
+      <c r="B19" s="18" t="inlineStr">
+        <is>
+          <t>Test_18</t>
+        </is>
+      </c>
+      <c r="C19" s="18" t="n"/>
+      <c r="D19" s="18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E19" s="18" t="inlineStr">
+        <is>
+          <t>{'data': '65154b0cbe1891535e3c0695', 'message': 'User with UserId: 65154b0cbe1891535e3c0695 was removed.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F19" s="18" t="n"/>
+      <c r="G19" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H19" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I19" s="18" t="inlineStr">
+        <is>
+          <t>15:14:33</t>
+        </is>
+      </c>
+      <c r="J19" s="18" t="inlineStr">
+        <is>
+          <t>15:14:46</t>
+        </is>
+      </c>
+      <c r="K19" s="18" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="86.40000000000001" customHeight="1">
+      <c r="A20" s="48" t="n"/>
+      <c r="B20" s="18" t="inlineStr">
+        <is>
+          <t>Test_19</t>
+        </is>
+      </c>
+      <c r="C20" s="18" t="n"/>
+      <c r="D20" s="18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E20" s="18" t="inlineStr">
+        <is>
+          <t>{'data': '65154b18be1891535e3c06cb', 'message': 'User with UserId: 65154b18be1891535e3c06cb was removed.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F20" s="18" t="n"/>
+      <c r="G20" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H20" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I20" s="18" t="inlineStr">
+        <is>
+          <t>15:14:46</t>
+        </is>
+      </c>
+      <c r="J20" s="18" t="inlineStr">
+        <is>
+          <t>15:14:59</t>
+        </is>
+      </c>
+      <c r="K20" s="18" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="14.88671875" customWidth="1" min="1" max="1"/>
+    <col width="10.44140625" customWidth="1" min="2" max="2"/>
+    <col width="21.5546875" customWidth="1" min="3" max="3"/>
+    <col width="21.77734375" customWidth="1" min="4" max="4"/>
+    <col width="21.6640625" customWidth="1" min="5" max="5"/>
+    <col width="16.88671875" customWidth="1" min="6" max="6"/>
+    <col width="12.5546875" customWidth="1" min="7" max="7"/>
+    <col width="16.109375" customWidth="1" min="8" max="8"/>
+    <col width="14.21875" customWidth="1" min="9" max="9"/>
+    <col width="12.6640625" customWidth="1" min="10" max="10"/>
+    <col width="11.88671875" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="43.2" customHeight="1">
+      <c r="A1" s="21" t="inlineStr">
+        <is>
+          <t>Test No</t>
+        </is>
+      </c>
+      <c r="B1" s="22" t="inlineStr">
+        <is>
+          <t>TestCase</t>
+        </is>
+      </c>
+      <c r="C1" s="23" t="inlineStr">
+        <is>
+          <t>TestCase Description</t>
+        </is>
+      </c>
+      <c r="D1" s="22" t="inlineStr">
+        <is>
+          <t>Request Body</t>
+        </is>
+      </c>
+      <c r="E1" s="22" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="F1" s="23" t="inlineStr">
+        <is>
+          <t>Check_Point/Test_Condition</t>
+        </is>
+      </c>
+      <c r="G1" s="23" t="inlineStr">
+        <is>
+          <t>Result (Pass/Fail)</t>
+        </is>
+      </c>
+      <c r="H1" s="23" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="I1" s="23" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="J1" s="23" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="K1" s="25" t="inlineStr">
+        <is>
+          <t>Total Duration
+(Seconds)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="151.8" customHeight="1">
+      <c r="A2" s="46" t="inlineStr">
+        <is>
+          <t>Users Role</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Test_01</t>
+        </is>
+      </c>
+      <c r="C2" s="39" t="inlineStr">
+        <is>
+          <t>Verify create user role</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>{"rolename": "RoleName58", "enabled": true, "description": "Test Description", "permissions": {"user": 15, "alert": 15, "alertGroup": 15, "station": 15, "blob": 15, "case": 15, "caseGroup": 15, "subscription": 15, "investigation": 15, "publication": 15, "userRole": 15, "visionAware": 15, "notifier": 15, "analytics": 15, "enrollmentReview": 15, "auditLog": 15, "account": 15, "devices": 15, "zone": 15, "notes": 15, "alien": 15, "profile": 15, "tag": 15, "face": 15}}</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>{'id': '650f077a327ea63edec3e171', 'roleName': 'RoleName58', 'description': 'Test Description', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650f077a327ea63edec3e171'}</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Dynamic57</t>
+        </is>
+      </c>
+      <c r="G2" s="42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : RoleName58</t>
+        </is>
+      </c>
+      <c r="I2" s="38" t="inlineStr">
+        <is>
+          <t>19:30:17</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>21:12:50</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="115.8" customHeight="1">
+      <c r="A3" s="47" t="n"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Test_02</t>
+        </is>
+      </c>
+      <c r="C3" s="40" t="inlineStr">
+        <is>
+          <t>Verify get all users</t>
+        </is>
+      </c>
+      <c r="D3" s="18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E3" s="18" t="inlineStr">
+        <is>
+          <t>{'userRoleInfo': {'userRoles': [{'id': '6509490800b0398858000033', 'roleName': 'facefirst-user-role', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '6509490800b0398858000033'}, {'id': '650dcf09327ea63edec3df4d', 'roleName': 'role', 'description': 'desc', 'enabled': True, 'rights': {'alertGroup': 0, 'profile': 0, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650dcf09327ea63edec3df4d'}, {'id': '650f077a327ea63edec3e171', 'roleName': 'RoleName58', 'description': 'Test Description', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650f077a327ea63edec3e171'}, {'id': '650f0793327ea63edec3e191', 'roleName': 'RoleName55', 'description': 'Test Description', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650f0793327ea63edec3e191'}]}}</t>
+        </is>
+      </c>
+      <c r="F3" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : 650d7918327ea63edec3d6ac</t>
+        </is>
+      </c>
+      <c r="G3" s="42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : 650f0793327ea63edec3e191</t>
+        </is>
+      </c>
+      <c r="I3" s="18" t="inlineStr">
+        <is>
+          <t>19:30:22</t>
+        </is>
+      </c>
+      <c r="J3" s="18" t="inlineStr">
+        <is>
+          <t>21:13:18</t>
+        </is>
+      </c>
+      <c r="K3" s="18" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="94.8" customHeight="1">
+      <c r="A4" s="48" t="n"/>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Test_03</t>
+        </is>
+      </c>
+      <c r="C4" s="40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Verify get users id </t>
+        </is>
+      </c>
+      <c r="D4" s="18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" s="18" t="inlineStr">
+        <is>
+          <t>{'userRoleInfo': {'userRoles': [{'id': '650f07a5327ea63edec3e1b3', 'roleName': 'RoleName10', 'description': 'Test Description', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650f07a5327ea63edec3e1b3'}]}}</t>
+        </is>
+      </c>
+      <c r="F4" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : 650d7e2e327ea63edec3d7f0</t>
+        </is>
+      </c>
+      <c r="G4" s="42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : 650f07a5327ea63edec3e1b3</t>
+        </is>
+      </c>
+      <c r="I4" s="18" t="inlineStr">
+        <is>
+          <t>19:30:30</t>
+        </is>
+      </c>
+      <c r="J4" s="18" t="inlineStr">
+        <is>
+          <t>21:13:35</t>
+        </is>
+      </c>
+      <c r="K4" s="18" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="21.77734375" customWidth="1" min="1" max="1"/>
+    <col width="9.88671875" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="26.6640625" customWidth="1" min="4" max="4"/>
+    <col width="32.33203125" customWidth="1" min="5" max="5"/>
+    <col width="27.5546875" customWidth="1" min="6" max="6"/>
+    <col width="15.5546875" customWidth="1" min="7" max="7"/>
+    <col width="17.88671875" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="22.44140625" customWidth="1" min="10" max="10"/>
+    <col width="23.33203125" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.8" customHeight="1">
+      <c r="A1" s="21" t="inlineStr">
+        <is>
+          <t>Test No</t>
+        </is>
+      </c>
+      <c r="B1" s="22" t="inlineStr">
+        <is>
+          <t>TestCase</t>
+        </is>
+      </c>
+      <c r="C1" s="23" t="inlineStr">
+        <is>
+          <t>TestCase Description</t>
+        </is>
+      </c>
+      <c r="D1" s="22" t="inlineStr">
+        <is>
+          <t>Request Body</t>
+        </is>
+      </c>
+      <c r="E1" s="22" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="F1" s="23" t="inlineStr">
+        <is>
+          <t>Check_Point/Test_Condition</t>
+        </is>
+      </c>
+      <c r="G1" s="23" t="inlineStr">
+        <is>
+          <t>Result (Pass/Fail)</t>
+        </is>
+      </c>
+      <c r="H1" s="23" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="I1" s="23" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="J1" s="23" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="K1" s="25" t="inlineStr">
+        <is>
+          <t>Total Duration
+(Seconds)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="62.4" customHeight="1">
+      <c r="A2" s="18" t="inlineStr">
+        <is>
+          <t>Enrollment Group</t>
+        </is>
+      </c>
+      <c r="B2" s="18" t="inlineStr">
+        <is>
+          <t>Test_01</t>
+        </is>
+      </c>
+      <c r="C2" s="50" t="inlineStr">
+        <is>
+          <t>verify the get all enrollment group</t>
+        </is>
+      </c>
+      <c r="D2" s="18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E2" s="18" t="inlineStr">
+        <is>
+          <t>[{'id': '6512826ee3534b7b91f740c0', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '6512a2a9be1891535e3b8703', '6512a24dbe1891535e3b8702', '6512a215be1891535e3b8701'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8a4be1891535e3b87cb', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512bef9be1891535e3b9b10', 'desc': 'b', 'enrollmentGroupIds': ['6512a8a4be1891535e3b87cb'], 'name': 'bb', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512a8aabe1891535e3b87ec', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8b2be1891535e3b8810', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8c1be1891535e3b8859', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8f0be1891535e3b8889', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a985be1891535e3b88a2', 'name': 'test renrollment updated', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aa60be1891535e3b88cd', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aac4be1891535e3b8901', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aafebe1891535e3b8931', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ab92be1891535e3b8a55', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ad95be1891535e3b8ac2', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512adadbe1891535e3b8af2', 'name': 'test enrollment454', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512add9be1891535e3b8b41', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae09be1891535e3b8b71', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae73be1891535e3b8bd8', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae73be1891535e3b8bdb', 'name': 'test enrollment784', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae79be1891535e3b8c0f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae81be1891535e3b8c33', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae90be1891535e3b8c7c', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae9bbe1891535e3b8cb3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b203be1891535e3b8ee7', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b443be1891535e3b9113', 'name': 'test enrollment173', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b797be1891535e3b9589', 'name': 'test enrollment254', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b799be1891535e3b959d', 'desc': 'test description', 'enrollmentGroupIds': ['6512b797be1891535e3b9589'], 'name': 'Test_notification_Api846', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512b7b3be1891535e3b95cc', 'name': 'test enrollment260', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b7b6be1891535e3b95e0', 'desc': 'test description', 'enrollmentGroupIds': ['6512b7b3be1891535e3b95cc'], 'name': 'Test_notification_Api738', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512b8b3be1891535e3b97bd', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b92dbe1891535e3b97ed', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b974be1891535e3b9836', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b9cdbe1891535e3b9886', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ba12be1891535e3b98d3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ba5cbe1891535e3b9920', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bc6ebe1891535e3b997f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bcc5be1891535e3b99d5', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bd1dbe1891535e3b9a36', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bd8dbe1891535e3b9a88', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bf31be1891535e3b9b6d', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c011be1891535e3b9c0e', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c7d2be1891535e3b9dfb', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c7e9be1891535e3b9e56', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c85abe1891535e3b9eb1', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c87fbe1891535e3b9f14', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c92cbe1891535e3b9f76', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ca00be1891535e3b9fe9', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cbfdbe1891535e3ba274', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ce25be1891535e3ba302', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cf13be1891535e3ba37b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cffbbe1891535e3ba410', 'name': 'test enrollment577', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512cfffbe1891535e3ba433', 'desc': 'test description', 'enrollmentGroupIds': ['6512cffbbe1891535e3ba410'], 'name': 'Test_notification_Api231', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d022be1891535e3ba458', 'name': 'test enrollment696', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d027be1891535e3ba47b', 'desc': 'test description', 'enrollmentGroupIds': ['6512d022be1891535e3ba458'], 'name': 'Test_notification_Api831', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d0abbe1891535e3ba4d1', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d0dabe1891535e3ba55f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d150be1891535e3ba683', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d1d9be1891535e3ba75e', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d280be1891535e3ba7cf', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d780be1891535e3ba964', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d7a0be1891535e3ba9d7', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d888be1891535e3baa4a', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d88ebe1891535e3baa6b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d895be1891535e3baa8f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8a5be1891535e3baad8', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8b0be1891535e3bab0f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8b9be1891535e3bab48', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8c6be1891535e3bab95', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8d3be1891535e3babe3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b5d7be1891535e3b935d', 'desc': 'random', 'enrollmentGroupIds': ['6512d8d3be1891535e3babe3'], 'name': 'AA', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d8dfbe1891535e3bac51', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8e5be1891535e3baca6', 'name': 'test enrollment360', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d8e9be1891535e3bacc9', 'desc': 'test description', 'enrollmentGroupIds': ['6512d8e5be1891535e3baca6'], 'name': 'Test_notification_Api580', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d916be1891535e3bad19', 'name': 'test enrollment172', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d919be1891535e3bad2d', 'desc': 'test description', 'enrollmentGroupIds': ['6512d916be1891535e3bad19'], 'name': 'Test_notification_Api631', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d965be1891535e3baf73', 'name': 'test enrollment190', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d969be1891535e3baf96', 'desc': 'test description', 'enrollmentGroupIds': ['6512d965be1891535e3baf73'], 'name': 'Test_notification_Api255', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512fb01be1891535e3bb9cc', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb07be1891535e3bb9e9', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb0fbe1891535e3bba09', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb21be1891535e3bba4a', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb2bbe1891535e3bba7b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb38be1891535e3bbaae', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb45be1891535e3bbaf3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65132350be1891535e3bbed3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}]</t>
+        </is>
+      </c>
+      <c r="F2" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="G2" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I2" s="18" t="inlineStr">
+        <is>
+          <t>19:58:57</t>
+        </is>
+      </c>
+      <c r="J2" s="18" t="inlineStr">
+        <is>
+          <t>19:59:01</t>
+        </is>
+      </c>
+      <c r="K2" s="18" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="65.40000000000001" customHeight="1">
+      <c r="A3" s="47" t="n"/>
+      <c r="B3" s="18" t="inlineStr">
+        <is>
+          <t>Test_02</t>
+        </is>
+      </c>
+      <c r="C3" s="50" t="inlineStr">
+        <is>
+          <t>verify the enrollment groups is created with valid data.</t>
+        </is>
+      </c>
+      <c r="D3" s="18" t="inlineStr">
+        <is>
+          <t>{'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'eventsSuppressionInterval': 0, 'priority': 'Low', 'seriousOffender': 'Low', 'alertHexColor': '#FFFFFF', 'activeThreat': False}</t>
+        </is>
+      </c>
+      <c r="E3" s="18" t="inlineStr">
+        <is>
+          <t>{'data': '65143c32be1891535e3bdbd4', 'message': 'Enrollment Group 65143c32be1891535e3bdbd4 is created.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F3" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Enrollment Group 6512d888be1891535e3baa4a is created.</t>
+        </is>
+      </c>
+      <c r="G3" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Enrollment Group 65143c32be1891535e3bdbd4 is created.</t>
+        </is>
+      </c>
+      <c r="I3" s="18" t="inlineStr">
+        <is>
+          <t>19:59:02</t>
+        </is>
+      </c>
+      <c r="J3" s="18" t="inlineStr">
+        <is>
+          <t>19:59:07</t>
+        </is>
+      </c>
+      <c r="K3" s="18" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="87.59999999999999" customHeight="1">
+      <c r="A4" s="47" t="n"/>
+      <c r="B4" s="18" t="inlineStr">
+        <is>
+          <t>Test_03</t>
+        </is>
+      </c>
+      <c r="C4" s="50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">verify the get single enrollment group </t>
+        </is>
+      </c>
+      <c r="D4" s="18" t="inlineStr">
+        <is>
+          <t>{'id': '65143c38be1891535e3bdbf1'}</t>
+        </is>
+      </c>
+      <c r="E4" s="18" t="inlineStr">
+        <is>
+          <t>[{'id': '6512826ee3534b7b91f740c0', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '6512a2a9be1891535e3b8703', '6512a24dbe1891535e3b8702', '6512a215be1891535e3b8701'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8a4be1891535e3b87cb', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512bef9be1891535e3b9b10', 'desc': 'b', 'enrollmentGroupIds': ['6512a8a4be1891535e3b87cb'], 'name': 'bb', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512a8aabe1891535e3b87ec', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8b2be1891535e3b8810', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8c1be1891535e3b8859', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8f0be1891535e3b8889', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a985be1891535e3b88a2', 'name': 'test renrollment updated', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aa60be1891535e3b88cd', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aac4be1891535e3b8901', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aafebe1891535e3b8931', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ab92be1891535e3b8a55', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ad95be1891535e3b8ac2', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512adadbe1891535e3b8af2', 'name': 'test enrollment454', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512add9be1891535e3b8b41', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae09be1891535e3b8b71', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae73be1891535e3b8bd8', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae73be1891535e3b8bdb', 'name': 'test enrollment784', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae79be1891535e3b8c0f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae81be1891535e3b8c33', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae90be1891535e3b8c7c', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae9bbe1891535e3b8cb3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b203be1891535e3b8ee7', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b443be1891535e3b9113', 'name': 'test enrollment173', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b797be1891535e3b9589', 'name': 'test enrollment254', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b799be1891535e3b959d', 'desc': 'test description', 'enrollmentGroupIds': ['6512b797be1891535e3b9589'], 'name': 'Test_notification_Api846', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512b7b3be1891535e3b95cc', 'name': 'test enrollment260', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b7b6be1891535e3b95e0', 'desc': 'test description', 'enrollmentGroupIds': ['6512b7b3be1891535e3b95cc'], 'name': 'Test_notification_Api738', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512b8b3be1891535e3b97bd', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b92dbe1891535e3b97ed', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b974be1891535e3b9836', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b9cdbe1891535e3b9886', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ba12be1891535e3b98d3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ba5cbe1891535e3b9920', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bc6ebe1891535e3b997f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bcc5be1891535e3b99d5', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bd1dbe1891535e3b9a36', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bd8dbe1891535e3b9a88', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bf31be1891535e3b9b6d', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c011be1891535e3b9c0e', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c7d2be1891535e3b9dfb', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c7e9be1891535e3b9e56', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c85abe1891535e3b9eb1', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c87fbe1891535e3b9f14', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c92cbe1891535e3b9f76', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ca00be1891535e3b9fe9', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cbfdbe1891535e3ba274', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ce25be1891535e3ba302', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cf13be1891535e3ba37b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cffbbe1891535e3ba410', 'name': 'test enrollment577', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512cfffbe1891535e3ba433', 'desc': 'test description', 'enrollmentGroupIds': ['6512cffbbe1891535e3ba410'], 'name': 'Test_notification_Api231', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d022be1891535e3ba458', 'name': 'test enrollment696', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d027be1891535e3ba47b', 'desc': 'test description', 'enrollmentGroupIds': ['6512d022be1891535e3ba458'], 'name': 'Test_notification_Api831', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d0abbe1891535e3ba4d1', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d0dabe1891535e3ba55f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d150be1891535e3ba683', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d1d9be1891535e3ba75e', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d280be1891535e3ba7cf', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d780be1891535e3ba964', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d7a0be1891535e3ba9d7', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d888be1891535e3baa4a', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d88ebe1891535e3baa6b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d895be1891535e3baa8f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8a5be1891535e3baad8', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8b0be1891535e3bab0f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8b9be1891535e3bab48', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8c6be1891535e3bab95', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8d3be1891535e3babe3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b5d7be1891535e3b935d', 'desc': 'random', 'enrollmentGroupIds': ['6512d8d3be1891535e3babe3'], 'name': 'AA', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d8dfbe1891535e3bac51', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8e5be1891535e3baca6', 'name': 'test enrollment360', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d8e9be1891535e3bacc9', 'desc': 'test description', 'enrollmentGroupIds': ['6512d8e5be1891535e3baca6'], 'name': 'Test_notification_Api580', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d916be1891535e3bad19', 'name': 'test enrollment172', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d919be1891535e3bad2d', 'desc': 'test description', 'enrollmentGroupIds': ['6512d916be1891535e3bad19'], 'name': 'Test_notification_Api631', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d965be1891535e3baf73', 'name': 'test enrollment190', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d969be1891535e3baf96', 'desc': 'test description', 'enrollmentGroupIds': ['6512d965be1891535e3baf73'], 'name': 'Test_notification_Api255', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512fb01be1891535e3bb9cc', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb07be1891535e3bb9e9', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb0fbe1891535e3bba09', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb21be1891535e3bba4a', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb2bbe1891535e3bba7b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb38be1891535e3bbaae', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb45be1891535e3bbaf3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65132350be1891535e3bbed3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65143c32be1891535e3bdbd4', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65143c38be1891535e3bdbf1', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}]</t>
+        </is>
+      </c>
+      <c r="F4" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="G4" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I4" s="18" t="inlineStr">
+        <is>
+          <t>19:59:07</t>
+        </is>
+      </c>
+      <c r="J4" s="18" t="inlineStr">
+        <is>
+          <t>19:59:14</t>
+        </is>
+      </c>
+      <c r="K4" s="18" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="89.40000000000001" customHeight="1">
+      <c r="A5" s="47" t="n"/>
+      <c r="B5" s="18" t="inlineStr">
+        <is>
+          <t>Test_04</t>
+        </is>
+      </c>
+      <c r="C5" s="50" t="inlineStr">
+        <is>
+          <t>verify the update enrollnment group</t>
+        </is>
+      </c>
+      <c r="D5" s="18" t="inlineStr">
+        <is>
+          <t>{'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'eventsSuppressionInterval': 0, 'priority': 'Low', 'seriousOffender': 'Low', 'alertHexColor': '#FFFFFF', 'activeThreat': False}</t>
+        </is>
+      </c>
+      <c r="E5" s="18" t="inlineStr">
+        <is>
+          <t>{'data': '65143c3fbe1891535e3bdc11', 'message': 'Enrollment Group is updated', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F5" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Enrollment Group is updated</t>
+        </is>
+      </c>
+      <c r="G5" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Enrollment Group is updated</t>
+        </is>
+      </c>
+      <c r="I5" s="18" t="inlineStr">
+        <is>
+          <t>19:59:14</t>
+        </is>
+      </c>
+      <c r="J5" s="18" t="inlineStr">
+        <is>
+          <t>19:59:22</t>
+        </is>
+      </c>
+      <c r="K5" s="18" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="66.59999999999999" customHeight="1">
+      <c r="A6" s="47" t="n"/>
+      <c r="B6" s="18" t="inlineStr">
+        <is>
+          <t>Test_05</t>
+        </is>
+      </c>
+      <c r="C6" s="50" t="inlineStr">
+        <is>
+          <t>verify remove a single Enrollment Group from collection</t>
+        </is>
+      </c>
+      <c r="D6" s="18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E6" s="18" t="inlineStr">
+        <is>
+          <t>{'data': True, 'message': 'Enrollment Group 65143c47be1891535e3bdc31 is removed.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F6" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Enrollment Group 6512d89dbe1891535e3baab3 is removed.</t>
+        </is>
+      </c>
+      <c r="G6" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Enrollment Group 65143c47be1891535e3bdc31 is removed.</t>
+        </is>
+      </c>
+      <c r="I6" s="18" t="inlineStr">
+        <is>
+          <t>19:59:22</t>
+        </is>
+      </c>
+      <c r="J6" s="18" t="inlineStr">
+        <is>
+          <t>19:59:29</t>
+        </is>
+      </c>
+      <c r="K6" s="18" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="87.59999999999999" customHeight="1">
+      <c r="A7" s="47" t="n"/>
+      <c r="B7" s="18" t="inlineStr">
+        <is>
+          <t>Test_06</t>
+        </is>
+      </c>
+      <c r="C7" s="50" t="inlineStr">
+        <is>
+          <t>verify create enrollment group with addCaseGroupZone</t>
+        </is>
+      </c>
+      <c r="D7" s="18" t="inlineStr">
+        <is>
+          <t>{'cGroupId': '65143c4ebe1891535e3bdc52', 'zoneIds': ['65128303f174a38fadf060cf']}</t>
+        </is>
+      </c>
+      <c r="E7" s="18" t="inlineStr">
+        <is>
+          <t>{'result': {'message': "Zones added to enrollment group id '65143c4ebe1891535e3bdc52' for account 6512825db5505c9518c38e90.", 'status': 'ok'}}</t>
+        </is>
+      </c>
+      <c r="F7" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Zones added to enrollment group id '6512d8a5be1891535e3baad8' for account 6512825db5505c9518c38e90.</t>
+        </is>
+      </c>
+      <c r="G7" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H7" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Zones added to enrollment group id '65143c4ebe1891535e3bdc52' for account 6512825db5505c9518c38e90.</t>
+        </is>
+      </c>
+      <c r="I7" s="18" t="inlineStr">
+        <is>
+          <t>19:59:29</t>
+        </is>
+      </c>
+      <c r="J7" s="18" t="inlineStr">
+        <is>
+          <t>19:59:38</t>
+        </is>
+      </c>
+      <c r="K7" s="18" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="106.2" customHeight="1">
+      <c r="A8" s="47" t="n"/>
+      <c r="B8" s="18" t="inlineStr">
+        <is>
+          <t>Test_07</t>
+        </is>
+      </c>
+      <c r="C8" s="50" t="inlineStr">
+        <is>
+          <t>verify removeCaseGroupZone</t>
+        </is>
+      </c>
+      <c r="D8" s="18" t="inlineStr">
+        <is>
+          <t>{'cGroupId': '65143c58be1891535e3bdc83', 'zoneIds': ['65128303f174a38fadf060cf']}</t>
+        </is>
+      </c>
+      <c r="E8" s="18" t="inlineStr">
+        <is>
+          <t>{'result': {'message': "Zones removed to case group id '65143c58be1891535e3bdc83' for account 6512825db5505c9518c38e90.", 'status': 'ok'}}</t>
+        </is>
+      </c>
+      <c r="F8" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Zones removed to case group id '6512d8b0be1891535e3bab0f' for account 6512825db5505c9518c38e90.</t>
+        </is>
+      </c>
+      <c r="G8" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H8" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Zones removed to case group id '65143c58be1891535e3bdc83' for account 6512825db5505c9518c38e90.</t>
+        </is>
+      </c>
+      <c r="I8" s="18" t="inlineStr">
+        <is>
+          <t>19:59:39</t>
+        </is>
+      </c>
+      <c r="J8" s="18" t="inlineStr">
+        <is>
+          <t>19:59:48</t>
+        </is>
+      </c>
+      <c r="K8" s="18" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="77.40000000000001" customHeight="1">
+      <c r="A9" s="47" t="n"/>
+      <c r="B9" s="18" t="inlineStr">
+        <is>
+          <t>Test_08</t>
+        </is>
+      </c>
+      <c r="C9" s="50" t="inlineStr">
+        <is>
+          <t>verify update enrollment group using addCaseGroupCase</t>
+        </is>
+      </c>
+      <c r="D9" s="18" t="inlineStr">
+        <is>
+          <t>{'id': ['6512825db5505c9518c38e90'], 'case_id': '6512b0acbe1891535e3b8ddc', 'cgroup_id': '65143c62be1891535e3bdcb6'}</t>
+        </is>
+      </c>
+      <c r="E9" s="18" t="inlineStr">
+        <is>
+          <t>{'result': {'message': "Enrollment added to enrollment group id '65143c62be1891535e3bdcb6' for account 6512825db5505c9518c38e90.", 'status': 'ok'}}</t>
+        </is>
+      </c>
+      <c r="F9" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Enrollment added to enrollment group id '6512d8b9be1891535e3bab48' for account 6512825db5505c9518c38e90.</t>
+        </is>
+      </c>
+      <c r="G9" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H9" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Enrollment added to enrollment group id '65143c62be1891535e3bdcb6' for account 6512825db5505c9518c38e90.</t>
+        </is>
+      </c>
+      <c r="I9" s="18" t="inlineStr">
+        <is>
+          <t>19:59:49</t>
+        </is>
+      </c>
+      <c r="J9" s="18" t="inlineStr">
+        <is>
+          <t>20:00:01</t>
+        </is>
+      </c>
+      <c r="K9" s="18" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="99.59999999999999" customHeight="1">
+      <c r="A10" s="47" t="n"/>
+      <c r="B10" s="18" t="inlineStr">
+        <is>
+          <t>Test_09</t>
+        </is>
+      </c>
+      <c r="C10" s="50" t="inlineStr">
+        <is>
+          <t>verify removeCaseGroupCase</t>
+        </is>
+      </c>
+      <c r="D10" s="18" t="inlineStr">
+        <is>
+          <t>{'id': ['6512825db5505c9518c38e90'], 'case_id': '6512b0acbe1891535e3b8ddc', 'cgroup_id': '65143c6ebe1891535e3bdcfb'}</t>
+        </is>
+      </c>
+      <c r="E10" s="18" t="inlineStr">
+        <is>
+          <t>{'result': {'message': "Enrollment removed from enrollment group id '65143c6ebe1891535e3bdcfb' for account 6512825db5505c9518c38e90.", 'status': 'ok'}}</t>
+        </is>
+      </c>
+      <c r="F10" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Enrollment removed from enrollment group id '6512d8c6be1891535e3bab95' for account 6512825db5505c9518c38e90.</t>
+        </is>
+      </c>
+      <c r="G10" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H10" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Enrollment removed from enrollment group id '65143c6ebe1891535e3bdcfb' for account 6512825db5505c9518c38e90.</t>
+        </is>
+      </c>
+      <c r="I10" s="18" t="inlineStr">
+        <is>
+          <t>20:00:01</t>
+        </is>
+      </c>
+      <c r="J10" s="18" t="inlineStr">
+        <is>
+          <t>20:00:13</t>
+        </is>
+      </c>
+      <c r="K10" s="18" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="94.2" customHeight="1">
+      <c r="A11" s="47" t="n"/>
+      <c r="B11" s="18" t="inlineStr">
+        <is>
+          <t>Test_10</t>
+        </is>
+      </c>
+      <c r="C11" s="50" t="inlineStr">
+        <is>
+          <t>verify update enrollment group using addAlertGroupCase</t>
+        </is>
+      </c>
+      <c r="D11" s="18" t="inlineStr">
+        <is>
+          <t>{'CGroupID': '65143c7abe1891535e3bdd40', 'AGroupID': '6512b5d7be1891535e3b935d'}</t>
+        </is>
+      </c>
+      <c r="E11" s="18" t="inlineStr">
+        <is>
+          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been added to the alert group with id = 65143c7abe1891535e3bdd40'}}</t>
+        </is>
+      </c>
+      <c r="F11" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been added to the alert group with id = 6512d8d3be1891535e3babe3</t>
+        </is>
+      </c>
+      <c r="G11" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H11" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been added to the alert group with id = 65143c7abe1891535e3bdd40</t>
+        </is>
+      </c>
+      <c r="I11" s="18" t="inlineStr">
+        <is>
+          <t>20:00:13</t>
+        </is>
+      </c>
+      <c r="J11" s="18" t="inlineStr">
+        <is>
+          <t>20:00:22</t>
+        </is>
+      </c>
+      <c r="K11" s="18" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="94.2" customHeight="1">
+      <c r="A12" s="48" t="n"/>
+      <c r="B12" s="18" t="inlineStr">
+        <is>
+          <t>Test_11</t>
+        </is>
+      </c>
+      <c r="C12" s="50" t="inlineStr">
+        <is>
+          <t>verify removeAlertGroupCase</t>
+        </is>
+      </c>
+      <c r="D12" s="18" t="inlineStr">
+        <is>
+          <t>{'CGroupID': '65143c85be1891535e3bddb6', 'AGroupID': '6512b5d7be1891535e3b935d'}</t>
+        </is>
+      </c>
+      <c r="E12" s="18" t="inlineStr">
+        <is>
+          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been removed from the alert group with id = 65143c85be1891535e3bddb6'}}</t>
+        </is>
+      </c>
+      <c r="F12" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been removed from the alert group with id = 6512d8dfbe1891535e3bac51</t>
+        </is>
+      </c>
+      <c r="G12" s="54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H12" s="18" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been removed from the alert group with id = 65143c85be1891535e3bddb6</t>
+        </is>
+      </c>
+      <c r="I12" s="18" t="inlineStr">
+        <is>
+          <t>20:00:23</t>
+        </is>
+      </c>
+      <c r="J12" s="18" t="inlineStr">
+        <is>
+          <t>20:00:34</t>
+        </is>
+      </c>
+      <c r="K12" s="18" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Reports/API_Excel_Report/API_excel_report.xlsx
+++ b/Reports/API_Excel_Report/API_excel_report.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="1" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="2" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Login_Test_Results" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Users_Test_Results" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="User_Role_Test_Results" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Enrollment_Group_Test_Results" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Identify_Enroll_Test_Results" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="User_Role_Test_Results" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Enrollment_Group_Test_Results" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Login_Test_Results'!$G$1:$G$116</definedName>
@@ -22,10 +23,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -96,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -129,18 +137,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
       </patternFill>
@@ -163,14 +159,8 @@
         <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -415,6 +405,15 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -439,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -456,48 +455,48 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -518,69 +517,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1034,14 +1024,14 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col width="21.77734375" customWidth="1" style="1" min="1" max="2"/>
-    <col width="28.33203125" customWidth="1" style="2" min="3" max="3"/>
-    <col width="40" customWidth="1" style="2" min="4" max="4"/>
-    <col width="37.6640625" customWidth="1" style="2" min="5" max="6"/>
-    <col width="15.21875" customWidth="1" style="2" min="7" max="7"/>
-    <col width="25.5546875" customWidth="1" style="2" min="8" max="8"/>
+    <col width="28.33203125" customWidth="1" style="51" min="3" max="3"/>
+    <col width="40" customWidth="1" style="51" min="4" max="4"/>
+    <col width="37.6640625" customWidth="1" style="51" min="5" max="6"/>
+    <col width="15.21875" customWidth="1" style="51" min="7" max="7"/>
+    <col width="25.5546875" customWidth="1" style="51" min="8" max="8"/>
     <col width="15.44140625" customWidth="1" style="1" min="9" max="9"/>
     <col width="12.6640625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="17.33203125" customWidth="1" style="2" min="11" max="11"/>
+    <col width="17.33203125" customWidth="1" style="51" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1">
@@ -1125,7 +1115,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>{'result': {'cookies': 'CGISESSID=30bf8bf411b747c5bdf296a6ed665588', 'message': 'You have been logged in.', 'status': 'ok', 'token': 'EAAAADUxnCHO/Xz3/hu5RzhkFPLAkcmpsrnwOZMCo/rQGRnn0cxamRe09roF884c2Viq344146daDbl7YkBxc6ixDcO7vFSJQjPSUGOG2VHZyligFxD7vj/u2ETM2/Oxa0yHqU3nJsk5szYu0dHQez7xzwi91IGkgI/o3Oy3jKxkJSTaQLCoZu+B1aLQV8tXAhMvTkMm45vanXqqfeKWS4RGzzy9x9sSCSLZdPSyoQkvfxRPSkIBzR8Bx2j6cECZc6Ajyzw903IRatvjy9qpsJVsUwtl+q9f7sr0GI4v8uvDv2mIIx1F3rRiNfoFTuiHR+AVH3O+DaOJOe2MB6393vxohL+D62fHFm/1cM31WJaVGnRVLY+7vFaIZt6fY7B7jXIuUDEfhWsMl7Fe23P17nrwj/htfRAZYi7J5M2Of9cbXOWxEYeFT3DW38v0bo+FJBtbC96UXD1D2GWeNpVJKPAFezkGVY94MWjq3u86fK0z0YmuQwsbs4CATBHvP4JXJJZCYkpk3GhgnN4DqQFfDlcF7Z0mRxYyk4K0XDPGmX9sprqCQsZH+kp90NijFLY5/6S2oh5d7TT/dN7KpxnfLon3e1Qw89QLDsGKM+qvvUQpAJlRjUq4NaHRzFPS9WIvASph6OnYXB7M2dwvP8GSE9snqV7qua3k57og595hriHUZImQM9DEWBz3NqvhYq9kNLxldF09XkBY0LXgQYz2iHcJrl/7yq1+0g8XKoSZDa3jCX1ncoS8fIPEEv76QCDzuLR0ZNaLiPdC40IjWKHHgGdSxsXUHDKglDlp812WEaxQ0GdDRdnGo5xUQ/m5UqM6nhoG9xhTwZnD+9zWgxLQXopS7KoBGbU0DG5dpyxzT7oGZc6+AWoWtnS+lmb77l/ps34lh8AWeKzI7EIsvT8l86QG7/4tQUUTgFWjc5A5ix3NzM0hqIr69yuqEtX/2mYDWKtnUjTxBZy53jRsRoPK8ueCEL8i/RX9X40OUb9xVN3kB5ZPwOvstXvNRfEh+jZaEzm0S8pyZIixSVgHb9awv/6YAbNUxcnKlPR9zue1KzbVibPDoyhrf4TGDnvl0+x2evlNR2mzxVWoAvmCGGZzQyt+0n9aQvHDDdgjMIgvG89emHk3W7xMIxylVeElAdpZ1rSMZcUFTJbLPX0nptFrgo6gX9QVCUHr4HqTRNuAurjZkbRJdCyplfAhedFPfOXtVbN6ogEg/Tc63CWkzH1QurxZQ7qGr7PrC5VQkYr5Ht73nvYPR5BGnW5DOz07Q0qFU/IxF0hmXub7HRdn/RiFsvtDFPg3CmhAudEc3FIvdmbWyCx/I6mv0469kvrdWaG4awvO5S+pNa1nxXamXbtUKljeCSWG4Wnk74WWdxiL1Qsga5YnP7YyF4RhNs2DONLN2q1QEYoEyLA+8UPFTH6yHIbKT6yLu1Y02FzmCR/vknAwTuKtMQmJnmRC/NtuG76KtdO6m4PWAUL0IMCmVUwnubPYmdsn+vCJtk9DwOI+EnSCGSyjff72j8ddbw85TnmhoXevYYHBQs0H2qlGluaC5odPZozUXONOccw7noiV4ODF8E8lJpB7O5jy10Y93XVujhNWpfFhGFBLZkyifDRU4UYofSePJR389efc/q/3vbi8J9q9Jo6T0gDsFkwX76QtSHyDIRm4tbBcZsVCiBCes1wvxiqfPeqtYlPKmt00BIwH0Ro+l588EV60ttCR1/DEtH4ZbVwTJlRgF18H4Zl2pxYok0myXP2wMj3pxbn+gCH7L5u7PF/cbyiXySApTBnNQHLyfmScp+Y5A2AcXPD7s0Ka3QOg5pukr0qtd/YecFbQ25OYgg+467716Ppei5+h7BVKKAKeiEYNAsoasxx4cOMMC8HCE2Un7Rn+bXx0Rc4JLfNCeMLm0Ld305xSIhWb2NO+CM5SX+hEKT4gz6M1/R3Ky9LjtgBbXZTKHNRSJ7XgSbLEeY3dKGqveYBJHElVOqtvOt2NJucHikuXyJYESlqkUdz51v97Nr6n5/xS/aVxVLhcBasrtkR5u28fu0pZ5KS4pJEjrfNt0s26nV7NfImJ1Z91+1+grdOLkOPyRQ8ELHvYO8zabK/2gebEHlqCAkTXwRDDb3Vs3qKeT/XtE4/d2Eg='}}</t>
+          <t>{'result': {'cookies': 'CGISESSID=820f1d59fe6645a5ac51e8dc07658917', 'message': 'You have been logged in.', 'status': 'ok', 'token': 'EAAAACx8S4PBuVtkXOTrh1+4B4sHrcuDkIV6BFJ88NKy+R257NF5HGuzJE4gKhZq8O1z+bBFXqE52vthVjB7W8RuSSaRhyksXmq1m4Msnx6SYLQ9X/DviYzYNUjw8WJ7IbiBSww6ld4gXMMAUeaNser2R1Fe/PAeIuBsUTZc8vGSoM4NPXAE2FUCJzcIWr1vuCpyk2ZxEefEqNB+c3s0wX8I63U2xBcMUM0t93xYpskjTeie038fwGXol64NMfVBdpkDo0ngyXED+GX5y2zQ8SDYbXbgo2SQQpEdODKZHXD7T1JeiqJlwuf1KStygusLBDdmofroi5PZ6vpEvDOQZuEleyXXmtFoLn03GYf3UCkiIVM7FmCA6VokK2HseTdLgUGMXRIM7gji1HlNibmKQ7N8EasEgEB6y08ySRJ5Ffj/0uaGdNA45gUx08NffSYpPV0qXzG/m3jPBhHy4UO563+HZ/N5Y2f05CAxri681fLjoFoDPo8HeUhYtzLPvu/hNzW2DMGFXiLeAYfE8NLH7OCMW6n4hkBl7r6ibR2iwjM1sEg7e0l0Dy4gfRQjasDH/yYuZ1o/Z+wnvVMhq7EJ7heyimfOviVfgfNzAIvZQFCxJv7G698XaLKj1JfS0WTKUKCGcbROxOmMKOZjvY4u3D/ak/C9UTTsIU+BelwimZ7yC022Tp0mEznsSlYlyBD8GJsqXnOilkV1I/3qK/bGkHDsvoyek6efWW4bINaKqWFMfEHLFyx1MHdFza9rJcIbSoxPpbTod30Uu0qmcXw1PUpBER1C33S+f2k2FmOuqQTWh0PJr7x7uKPCYr+kkWWHv7r+AcTZesvWYz4gHmQZeKbYPHNs1akjfa8ci6a0KN5xuPwLV+dha0zIxBlYWdxdL3fvIcr0t+D1zyqzqbDbZHyyxghMl8Pq8wGn2CxeqHnVjQfh9m3YgCAt3i/P5LplGrsgp+5kATd0RTQglr/mcrNCfw66VThaC8yKpENGl2L1PQM1sFJBKRF1QOwbeUnm5L09AWuevI/njwHCPPMkyRn3aiKN41x3yyc5b/o2oycgBvn4nNxq3H3vjoDlkV/GTWmY4DFr9SkeEAn/wXVLn5yQFrIHwJzbHUVc/06LkA7SMPvJAKzuwjGnXz2GnlC2k+4ZHt69qZQH1X1AnRUVecbCedFWlBfLbEtooGabRM03APFpjfWhFEtnwP4MVAl7mwGeyyOhI5MFzoHuISKwBfaHbnGeimzzn609qkxvfUZs41XDg6mhcbU1JAzdk7UqqHRfafp/ZzGmqCiA2wN9m2znQfR1Jwah7Pxq35ovlojS34qOvA3zcPZ+VdvSrAM/pnMza5H3ebLRB0pu6OG8Q/em+anJWWkC7986unMzIjdNwQX+mgBPQwOg/DxpPziPriRH3d8vfzDJjLhovXkDmf7dkwsXXHOC2uHHF0EZXpI22exWolnc0sBt48Zaguo89VjJOAM9gqImh41E/ohtasxxL/8U5ecSpjidT/Foz8Zg79kMYYlnxHjuzPam11LyEuQKD5fqaKfo4+Qf7WjOCyxHIPLw4ZqQNb5FEyWSUgPJsey2CDus2t5GTdeqatiKpSYajqPaLM757T2/AX6aVr7lXueLAD4hWLksevqfbs49KXz34LBgNPgvBzwuyMtjV28lscMPk+aEvHpRbeaJWfl1viCt7aAsBmZ13r9EnewXdnoqabBlXCsZ0LJzobg5A72cJ6zepiCik4/1xOUwG+S7rWNWYFptMYmh190ayxbMWyH+T3KiZzqEiFPb3OtKaQs6GGhrLEVwnGlKeqhiOcyCG4Pk8kAGWuMMEN9fYcXxh+EZHbTSIcZUdtbTEqorlhGCaRPjs2H0XRXKyT0ZofYk9iohkjusSQgU8xxZRwjxLmCPr4kdUNcgqCKjQMG1SaYgKL/5ncw3VtyFw5fji0CBnzWx7P5V0ewETI/4ZRmAK+dMcOwqBLbMGxJjBH1c3I8JaAu0HLi5b+S7hIMWN1T0ks6xEkKuWwBfejze0dBZ8lWMLK2qqziz2kyU6933RYFrIHV9OyXjbCbxkR6xigaXL1kQi03Ep370PD+NMaotQD9AIyMirKFmIdND+/+kb9D3H5W3ZaNrrtKrQbJ2Zjk2cqI='}}</t>
         </is>
       </c>
       <c r="F2" s="17" t="inlineStr">
@@ -1133,7 +1123,7 @@
           <t>Validate Status Code : 200 &amp; Message : You have been logged in.</t>
         </is>
       </c>
-      <c r="G2" s="54" t="inlineStr">
+      <c r="G2" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1145,17 +1135,17 @@
       </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
-          <t>19:10:37</t>
+          <t>13:54:09</t>
         </is>
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>19:10:39</t>
+          <t>13:54:10</t>
         </is>
       </c>
       <c r="K2" s="26" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -1171,44 +1161,44 @@
           <t>To verify the Login API with invalid data.</t>
         </is>
       </c>
-      <c r="D3" s="18" t="inlineStr">
+      <c r="D3" s="49" t="inlineStr">
         <is>
           <t>{'username': ' wrongUsername', 'password': 'Right_1r1s', 'lat': 'undefined', 'lon': 'undefined'}</t>
         </is>
       </c>
-      <c r="E3" s="18" t="inlineStr">
+      <c r="E3" s="49" t="inlineStr">
         <is>
           <t>{'result': {'cookies': '', 'message': "Invalid username ' wrongUsername'"}}</t>
         </is>
       </c>
-      <c r="F3" s="18" t="inlineStr">
+      <c r="F3" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Invalid password</t>
         </is>
       </c>
-      <c r="G3" s="54" t="inlineStr">
+      <c r="G3" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Invalid username ' wrongUsername'</t>
         </is>
       </c>
       <c r="I3" s="20" t="inlineStr">
         <is>
-          <t>19:10:39</t>
+          <t>13:54:10</t>
         </is>
       </c>
       <c r="J3" s="20" t="inlineStr">
         <is>
-          <t>19:10:40</t>
+          <t>13:54:12</t>
         </is>
       </c>
       <c r="K3" s="27" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -1219,45 +1209,45 @@
           <t>Test_03</t>
         </is>
       </c>
-      <c r="C4" s="18" t="n"/>
-      <c r="D4" s="18" t="inlineStr">
+      <c r="C4" s="49" t="n"/>
+      <c r="D4" s="49" t="inlineStr">
         <is>
           <t>{'username': 'core', 'password': ' wrongPassowrd', 'lat': 'undefined', 'lon': 'undefined'}</t>
         </is>
       </c>
-      <c r="E4" s="18" t="inlineStr">
+      <c r="E4" s="49" t="inlineStr">
         <is>
           <t>{'result': {'cookies': '', 'message': "Password didn't matched"}}</t>
         </is>
       </c>
-      <c r="F4" s="18" t="inlineStr">
+      <c r="F4" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Password didn't matched</t>
         </is>
       </c>
-      <c r="G4" s="54" t="inlineStr">
+      <c r="G4" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H4" s="18" t="inlineStr">
+      <c r="H4" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Password didn't matched</t>
         </is>
       </c>
       <c r="I4" s="20" t="inlineStr">
         <is>
-          <t>19:10:41</t>
+          <t>13:54:12</t>
         </is>
       </c>
       <c r="J4" s="20" t="inlineStr">
         <is>
-          <t>19:10:42</t>
+          <t>13:54:14</t>
         </is>
       </c>
       <c r="K4" s="27" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -1268,45 +1258,45 @@
           <t>Test_04</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
-      <c r="D5" s="18" t="inlineStr">
+      <c r="C5" s="49" t="n"/>
+      <c r="D5" s="49" t="inlineStr">
         <is>
           <t>{'username': ' wrongUsername', 'password': ' wrongPassowrd', 'lat': 'undefined', 'lon': 'undefined'}</t>
         </is>
       </c>
-      <c r="E5" s="18" t="inlineStr">
+      <c r="E5" s="49" t="inlineStr">
         <is>
           <t>{'result': {'cookies': '', 'message': "Invalid username ' wrongUsername'"}}</t>
         </is>
       </c>
-      <c r="F5" s="18" t="inlineStr">
+      <c r="F5" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Invalid username ' wrongUsername'</t>
         </is>
       </c>
-      <c r="G5" s="54" t="inlineStr">
+      <c r="G5" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H5" s="18" t="inlineStr">
+      <c r="H5" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Invalid username ' wrongUsername'</t>
         </is>
       </c>
       <c r="I5" s="20" t="inlineStr">
         <is>
-          <t>19:10:42</t>
+          <t>13:54:14</t>
         </is>
       </c>
       <c r="J5" s="20" t="inlineStr">
         <is>
-          <t>19:10:44</t>
+          <t>13:54:15</t>
         </is>
       </c>
       <c r="K5" s="27" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1315,7 @@
       </c>
       <c r="E6" s="29" t="inlineStr">
         <is>
-          <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Username: Missing Username Severity: Error\r\n -- Username: Missing Username Severity: Error\r\n -- Password: Missing Password Severity: Error\r\n -- Password: Missing Password Severity: Error', 'innerException': None, 'requestId': '00-88d3a45f033cf5adeb15f0b7267c7221-223dd93beffe9c38-00', 'requestPath': '/api/login', 'connectionId': '0HMTUBVM2V1KP'}}</t>
+          <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Username: Missing Username Severity: Error\r\n -- Username: Missing Username Severity: Error\r\n -- Password: Missing Password Severity: Error\r\n -- Password: Missing Password Severity: Error', 'innerException': None, 'requestId': '00-172eda5b848f499643a8173978521abb-dd969d1758779fe8-00', 'requestPath': '/api/login', 'connectionId': '0HMU0MJPNPAQQ'}}</t>
         </is>
       </c>
       <c r="F6" s="29" t="inlineStr">
@@ -1337,7 +1327,7 @@
  -- Password: Missing Password Severity: Error</t>
         </is>
       </c>
-      <c r="G6" s="55" t="inlineStr">
+      <c r="G6" s="41" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1353,12 +1343,12 @@
       </c>
       <c r="I6" s="30" t="inlineStr">
         <is>
-          <t>19:10:44</t>
+          <t>13:54:15</t>
         </is>
       </c>
       <c r="J6" s="30" t="inlineStr">
         <is>
-          <t>19:10:46</t>
+          <t>13:54:17</t>
         </is>
       </c>
       <c r="K6" s="31" t="inlineStr">
@@ -1368,444 +1358,444 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
+      <c r="A7" s="51" t="n"/>
+      <c r="B7" s="51" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
+      <c r="A8" s="51" t="n"/>
+      <c r="B8" s="51" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
+      <c r="A9" s="51" t="n"/>
+      <c r="B9" s="51" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
+      <c r="A10" s="51" t="n"/>
+      <c r="B10" s="51" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
+      <c r="A11" s="51" t="n"/>
+      <c r="B11" s="51" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
+      <c r="A12" s="51" t="n"/>
+      <c r="B12" s="51" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="n"/>
+      <c r="A13" s="51" t="n"/>
+      <c r="B13" s="51" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="n"/>
+      <c r="A14" s="51" t="n"/>
+      <c r="B14" s="51" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="2" t="n"/>
+      <c r="A15" s="51" t="n"/>
+      <c r="B15" s="51" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n"/>
-      <c r="B16" s="2" t="n"/>
+      <c r="A16" s="51" t="n"/>
+      <c r="B16" s="51" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="2" t="n"/>
+      <c r="A17" s="51" t="n"/>
+      <c r="B17" s="51" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="n"/>
+      <c r="A18" s="51" t="n"/>
+      <c r="B18" s="51" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="51" t="n"/>
+      <c r="B19" s="51" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="51" t="n"/>
+      <c r="B20" s="51" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="B21" s="2" t="n"/>
+      <c r="A21" s="51" t="n"/>
+      <c r="B21" s="51" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n"/>
-      <c r="B22" s="2" t="n"/>
+      <c r="A22" s="51" t="n"/>
+      <c r="B22" s="51" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="51" t="n"/>
+      <c r="B23" s="51" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="51" t="n"/>
+      <c r="B24" s="51" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n"/>
-      <c r="B25" s="2" t="n"/>
+      <c r="A25" s="51" t="n"/>
+      <c r="B25" s="51" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n"/>
-      <c r="B26" s="2" t="n"/>
+      <c r="A26" s="51" t="n"/>
+      <c r="B26" s="51" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
+      <c r="A27" s="51" t="n"/>
+      <c r="B27" s="51" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
+      <c r="A28" s="51" t="n"/>
+      <c r="B28" s="51" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n"/>
-      <c r="B29" s="2" t="n"/>
+      <c r="A29" s="51" t="n"/>
+      <c r="B29" s="51" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
+      <c r="A30" s="51" t="n"/>
+      <c r="B30" s="51" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="51" t="n"/>
+      <c r="B31" s="51" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="51" t="n"/>
+      <c r="B32" s="51" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n"/>
-      <c r="B33" s="2" t="n"/>
+      <c r="A33" s="51" t="n"/>
+      <c r="B33" s="51" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n"/>
-      <c r="B34" s="2" t="n"/>
+      <c r="A34" s="51" t="n"/>
+      <c r="B34" s="51" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="51" t="n"/>
+      <c r="B35" s="51" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="51" t="n"/>
+      <c r="B36" s="51" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n"/>
-      <c r="B37" s="2" t="n"/>
+      <c r="A37" s="51" t="n"/>
+      <c r="B37" s="51" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n"/>
-      <c r="B38" s="2" t="n"/>
+      <c r="A38" s="51" t="n"/>
+      <c r="B38" s="51" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n"/>
-      <c r="B39" s="2" t="n"/>
+      <c r="A39" s="51" t="n"/>
+      <c r="B39" s="51" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n"/>
-      <c r="B40" s="2" t="n"/>
+      <c r="A40" s="51" t="n"/>
+      <c r="B40" s="51" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="51" t="n"/>
+      <c r="B41" s="51" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="51" t="n"/>
+      <c r="B42" s="51" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
+      <c r="A43" s="51" t="n"/>
+      <c r="B43" s="51" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n"/>
-      <c r="B44" s="2" t="n"/>
+      <c r="A44" s="51" t="n"/>
+      <c r="B44" s="51" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="51" t="n"/>
+      <c r="B45" s="51" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="51" t="n"/>
+      <c r="B46" s="51" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n"/>
-      <c r="B47" s="2" t="n"/>
+      <c r="A47" s="51" t="n"/>
+      <c r="B47" s="51" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="51" t="n"/>
+      <c r="B48" s="51" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="51" t="n"/>
+      <c r="B49" s="51" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n"/>
-      <c r="B50" s="2" t="n"/>
+      <c r="A50" s="51" t="n"/>
+      <c r="B50" s="51" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="51" t="n"/>
+      <c r="B51" s="51" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n"/>
-      <c r="B52" s="2" t="n"/>
+      <c r="A52" s="51" t="n"/>
+      <c r="B52" s="51" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n"/>
-      <c r="B53" s="2" t="n"/>
+      <c r="A53" s="51" t="n"/>
+      <c r="B53" s="51" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
-      <c r="B54" s="2" t="n"/>
+      <c r="A54" s="51" t="n"/>
+      <c r="B54" s="51" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n"/>
-      <c r="B55" s="2" t="n"/>
+      <c r="A55" s="51" t="n"/>
+      <c r="B55" s="51" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
+      <c r="A56" s="51" t="n"/>
+      <c r="B56" s="51" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
-      <c r="B57" s="2" t="n"/>
+      <c r="A57" s="51" t="n"/>
+      <c r="B57" s="51" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n"/>
-      <c r="B58" s="2" t="n"/>
+      <c r="A58" s="51" t="n"/>
+      <c r="B58" s="51" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n"/>
-      <c r="B59" s="2" t="n"/>
+      <c r="A59" s="51" t="n"/>
+      <c r="B59" s="51" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
+      <c r="A60" s="51" t="n"/>
+      <c r="B60" s="51" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="2" t="n"/>
+      <c r="A61" s="51" t="n"/>
+      <c r="B61" s="51" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="51" t="n"/>
+      <c r="B62" s="51" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n"/>
-      <c r="B63" s="2" t="n"/>
+      <c r="A63" s="51" t="n"/>
+      <c r="B63" s="51" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n"/>
-      <c r="B64" s="2" t="n"/>
+      <c r="A64" s="51" t="n"/>
+      <c r="B64" s="51" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n"/>
-      <c r="B65" s="2" t="n"/>
+      <c r="A65" s="51" t="n"/>
+      <c r="B65" s="51" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="51" t="n"/>
+      <c r="B66" s="51" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n"/>
-      <c r="B67" s="2" t="n"/>
+      <c r="A67" s="51" t="n"/>
+      <c r="B67" s="51" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n"/>
-      <c r="B68" s="2" t="n"/>
+      <c r="A68" s="51" t="n"/>
+      <c r="B68" s="51" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n"/>
-      <c r="B69" s="2" t="n"/>
+      <c r="A69" s="51" t="n"/>
+      <c r="B69" s="51" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n"/>
-      <c r="B70" s="2" t="n"/>
+      <c r="A70" s="51" t="n"/>
+      <c r="B70" s="51" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n"/>
-      <c r="B71" s="2" t="n"/>
+      <c r="A71" s="51" t="n"/>
+      <c r="B71" s="51" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n"/>
-      <c r="B72" s="2" t="n"/>
+      <c r="A72" s="51" t="n"/>
+      <c r="B72" s="51" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n"/>
-      <c r="B73" s="2" t="n"/>
+      <c r="A73" s="51" t="n"/>
+      <c r="B73" s="51" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n"/>
-      <c r="B74" s="2" t="n"/>
+      <c r="A74" s="51" t="n"/>
+      <c r="B74" s="51" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n"/>
-      <c r="B75" s="2" t="n"/>
+      <c r="A75" s="51" t="n"/>
+      <c r="B75" s="51" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n"/>
-      <c r="B76" s="2" t="n"/>
+      <c r="A76" s="51" t="n"/>
+      <c r="B76" s="51" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n"/>
-      <c r="B77" s="2" t="n"/>
+      <c r="A77" s="51" t="n"/>
+      <c r="B77" s="51" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" s="51" t="n"/>
+      <c r="B78" s="51" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n"/>
-      <c r="B79" s="2" t="n"/>
+      <c r="A79" s="51" t="n"/>
+      <c r="B79" s="51" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n"/>
-      <c r="B80" s="2" t="n"/>
+      <c r="A80" s="51" t="n"/>
+      <c r="B80" s="51" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n"/>
-      <c r="B81" s="2" t="n"/>
+      <c r="A81" s="51" t="n"/>
+      <c r="B81" s="51" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n"/>
-      <c r="B82" s="2" t="n"/>
+      <c r="A82" s="51" t="n"/>
+      <c r="B82" s="51" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n"/>
-      <c r="B83" s="2" t="n"/>
+      <c r="A83" s="51" t="n"/>
+      <c r="B83" s="51" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n"/>
-      <c r="B84" s="2" t="n"/>
+      <c r="A84" s="51" t="n"/>
+      <c r="B84" s="51" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n"/>
-      <c r="B85" s="2" t="n"/>
+      <c r="A85" s="51" t="n"/>
+      <c r="B85" s="51" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n"/>
-      <c r="B86" s="2" t="n"/>
+      <c r="A86" s="51" t="n"/>
+      <c r="B86" s="51" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n"/>
-      <c r="B87" s="2" t="n"/>
+      <c r="A87" s="51" t="n"/>
+      <c r="B87" s="51" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n"/>
-      <c r="B88" s="2" t="n"/>
+      <c r="A88" s="51" t="n"/>
+      <c r="B88" s="51" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n"/>
-      <c r="B89" s="2" t="n"/>
+      <c r="A89" s="51" t="n"/>
+      <c r="B89" s="51" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n"/>
-      <c r="B90" s="2" t="n"/>
+      <c r="A90" s="51" t="n"/>
+      <c r="B90" s="51" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n"/>
-      <c r="B91" s="2" t="n"/>
+      <c r="A91" s="51" t="n"/>
+      <c r="B91" s="51" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n"/>
-      <c r="B92" s="2" t="n"/>
+      <c r="A92" s="51" t="n"/>
+      <c r="B92" s="51" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n"/>
-      <c r="B93" s="2" t="n"/>
+      <c r="A93" s="51" t="n"/>
+      <c r="B93" s="51" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n"/>
-      <c r="B94" s="2" t="n"/>
+      <c r="A94" s="51" t="n"/>
+      <c r="B94" s="51" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n"/>
-      <c r="B95" s="2" t="n"/>
+      <c r="A95" s="51" t="n"/>
+      <c r="B95" s="51" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n"/>
-      <c r="B96" s="2" t="n"/>
+      <c r="A96" s="51" t="n"/>
+      <c r="B96" s="51" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n"/>
-      <c r="B97" s="2" t="n"/>
+      <c r="A97" s="51" t="n"/>
+      <c r="B97" s="51" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n"/>
-      <c r="B98" s="2" t="n"/>
+      <c r="A98" s="51" t="n"/>
+      <c r="B98" s="51" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n"/>
-      <c r="B99" s="2" t="n"/>
+      <c r="A99" s="51" t="n"/>
+      <c r="B99" s="51" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n"/>
-      <c r="B100" s="2" t="n"/>
+      <c r="A100" s="51" t="n"/>
+      <c r="B100" s="51" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n"/>
-      <c r="B101" s="2" t="n"/>
+      <c r="A101" s="51" t="n"/>
+      <c r="B101" s="51" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n"/>
-      <c r="B102" s="2" t="n"/>
+      <c r="A102" s="51" t="n"/>
+      <c r="B102" s="51" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n"/>
-      <c r="B103" s="2" t="n"/>
+      <c r="A103" s="51" t="n"/>
+      <c r="B103" s="51" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n"/>
-      <c r="B104" s="2" t="n"/>
+      <c r="A104" s="51" t="n"/>
+      <c r="B104" s="51" t="n"/>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n"/>
-      <c r="B105" s="2" t="n"/>
+      <c r="A105" s="51" t="n"/>
+      <c r="B105" s="51" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n"/>
-      <c r="B106" s="2" t="n"/>
+      <c r="A106" s="51" t="n"/>
+      <c r="B106" s="51" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n"/>
-      <c r="B107" s="2" t="n"/>
+      <c r="A107" s="51" t="n"/>
+      <c r="B107" s="51" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n"/>
-      <c r="B108" s="2" t="n"/>
+      <c r="A108" s="51" t="n"/>
+      <c r="B108" s="51" t="n"/>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n"/>
-      <c r="B109" s="2" t="n"/>
+      <c r="A109" s="51" t="n"/>
+      <c r="B109" s="51" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n"/>
-      <c r="B110" s="2" t="n"/>
+      <c r="A110" s="51" t="n"/>
+      <c r="B110" s="51" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n"/>
-      <c r="B111" s="2" t="n"/>
+      <c r="A111" s="51" t="n"/>
+      <c r="B111" s="51" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n"/>
-      <c r="B112" s="2" t="n"/>
+      <c r="A112" s="51" t="n"/>
+      <c r="B112" s="51" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n"/>
-      <c r="B113" s="2" t="n"/>
+      <c r="A113" s="51" t="n"/>
+      <c r="B113" s="51" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n"/>
-      <c r="B114" s="2" t="n"/>
+      <c r="A114" s="51" t="n"/>
+      <c r="B114" s="51" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n"/>
-      <c r="B115" s="2" t="n"/>
+      <c r="A115" s="51" t="n"/>
+      <c r="B115" s="51" t="n"/>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n"/>
-      <c r="B116" s="2" t="n"/>
+      <c r="A116" s="51" t="n"/>
+      <c r="B116" s="51" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="G1:G116"/>
@@ -1825,7 +1815,7 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -1834,13 +1824,13 @@
     <col width="14.6640625" customWidth="1" min="1" max="1"/>
     <col width="14.77734375" customWidth="1" min="2" max="2"/>
     <col width="20.44140625" customWidth="1" min="3" max="3"/>
-    <col width="20.33203125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="24.44140625" customWidth="1" style="2" min="5" max="5"/>
-    <col width="29" customWidth="1" style="2" min="6" max="6"/>
-    <col width="16.88671875" customWidth="1" style="2" min="7" max="8"/>
-    <col width="10.109375" bestFit="1" customWidth="1" style="2" min="9" max="9"/>
-    <col width="8.88671875" customWidth="1" style="2" min="10" max="10"/>
-    <col width="14.33203125" customWidth="1" style="2" min="11" max="11"/>
+    <col width="20.33203125" customWidth="1" style="51" min="4" max="4"/>
+    <col width="24.44140625" customWidth="1" style="51" min="5" max="5"/>
+    <col width="29" customWidth="1" style="51" min="6" max="6"/>
+    <col width="16.88671875" customWidth="1" style="51" min="7" max="8"/>
+    <col width="10.109375" bestFit="1" customWidth="1" style="51" min="9" max="9"/>
+    <col width="8.88671875" customWidth="1" style="51" min="10" max="10"/>
+    <col width="14.33203125" customWidth="1" style="51" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" customHeight="1">
@@ -1919,12 +1909,12 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>{'auth_params': ' ', 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': ' ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Chile/EasterIsland', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'username': 'Demo_user1432', 'password': 'Right_1r1s'}</t>
+          <t>{'auth_params': ' ', 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': ' ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Chile/EasterIsland', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'Demo_user1742', 'password': 'Right_1r1s'}</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>{'username': 'Demo_user1432', 'userID': '65154a68be1891535e3c0487', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'Demo_user1742', 'userId': '651689c502302bffd7a8c255'}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -1932,7 +1922,7 @@
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="G2" s="54" t="inlineStr">
+      <c r="G2" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1942,19 +1932,19 @@
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I2" s="38" t="inlineStr">
-        <is>
-          <t>15:11:48</t>
+      <c r="I2" s="35" t="inlineStr">
+        <is>
+          <t>13:54:29</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>15:12:00</t>
+          <t>13:54:35</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -1966,44 +1956,44 @@
         </is>
       </c>
       <c r="C3" s="19" t="n"/>
-      <c r="D3" s="18" t="inlineStr">
-        <is>
-          <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': True, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'username': 'test409613', 'password': 'Right_1r1s'}</t>
-        </is>
-      </c>
-      <c r="E3" s="18" t="inlineStr">
-        <is>
-          <t>{'username': 'test409613', 'userID': '65154a72be1891535e3c04aa', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
-        </is>
-      </c>
-      <c r="F3" s="18" t="inlineStr">
+      <c r="D3" s="49" t="inlineStr">
+        <is>
+          <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': True, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'test409147', 'password': 'Right_1r1s'}</t>
+        </is>
+      </c>
+      <c r="E3" s="49" t="inlineStr">
+        <is>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'test409147', 'userId': '651689cb02302bffd7a8c268'}</t>
+        </is>
+      </c>
+      <c r="F3" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="G3" s="54" t="inlineStr">
+      <c r="G3" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I3" s="18" t="inlineStr">
-        <is>
-          <t>15:12:00</t>
-        </is>
-      </c>
-      <c r="J3" s="18" t="inlineStr">
-        <is>
-          <t>15:12:10</t>
-        </is>
-      </c>
-      <c r="K3" s="18" t="inlineStr">
-        <is>
-          <t>10.0</t>
+      <c r="I3" s="49" t="inlineStr">
+        <is>
+          <t>13:54:35</t>
+        </is>
+      </c>
+      <c r="J3" s="49" t="inlineStr">
+        <is>
+          <t>13:54:42</t>
+        </is>
+      </c>
+      <c r="K3" s="49" t="inlineStr">
+        <is>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -2014,45 +2004,45 @@
           <t>Test_03</t>
         </is>
       </c>
-      <c r="C4" s="18" t="n"/>
-      <c r="D4" s="18" t="inlineStr">
-        <is>
-          <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': False, 'fname': 'testFname', 'mname': None, 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'username': 'Demo_user1992', 'password': 'Right_1r1s'}</t>
-        </is>
-      </c>
-      <c r="E4" s="18" t="inlineStr">
-        <is>
-          <t>{'username': 'Demo_user1992', 'userID': '65154a7fbe1891535e3c04cd', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
-        </is>
-      </c>
-      <c r="F4" s="18" t="inlineStr">
+      <c r="C4" s="49" t="n"/>
+      <c r="D4" s="49" t="inlineStr">
+        <is>
+          <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': False, 'fname': 'testFname', 'mname': None, 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'Demo_user1783', 'password': 'Right_1r1s'}</t>
+        </is>
+      </c>
+      <c r="E4" s="49" t="inlineStr">
+        <is>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'Demo_user1783', 'userId': '651689d102302bffd7a8c27b'}</t>
+        </is>
+      </c>
+      <c r="F4" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="G4" s="54" t="inlineStr">
+      <c r="G4" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H4" s="18" t="inlineStr">
+      <c r="H4" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I4" s="18" t="inlineStr">
-        <is>
-          <t>15:12:11</t>
-        </is>
-      </c>
-      <c r="J4" s="18" t="inlineStr">
-        <is>
-          <t>15:12:22</t>
-        </is>
-      </c>
-      <c r="K4" s="18" t="inlineStr">
-        <is>
-          <t>11.0</t>
+      <c r="I4" s="49" t="inlineStr">
+        <is>
+          <t>13:54:42</t>
+        </is>
+      </c>
+      <c r="J4" s="49" t="inlineStr">
+        <is>
+          <t>13:54:48</t>
+        </is>
+      </c>
+      <c r="K4" s="49" t="inlineStr">
+        <is>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -2063,41 +2053,41 @@
           <t>Test_04</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
-      <c r="D5" s="18" t="inlineStr">
-        <is>
-          <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': False, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'username': 'test409776', 'password': 'Right_1r1s'}</t>
-        </is>
-      </c>
-      <c r="E5" s="18" t="inlineStr">
-        <is>
-          <t>{'username': 'test409776', 'userID': '65154a86be1891535e3c04f0', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
-        </is>
-      </c>
-      <c r="F5" s="18" t="n"/>
-      <c r="G5" s="54" t="inlineStr">
+      <c r="C5" s="49" t="n"/>
+      <c r="D5" s="49" t="inlineStr">
+        <is>
+          <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': False, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'test409715', 'password': 'Right_1r1s'}</t>
+        </is>
+      </c>
+      <c r="E5" s="49" t="inlineStr">
+        <is>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'test409715', 'userId': '651689d702302bffd7a8c28e'}</t>
+        </is>
+      </c>
+      <c r="F5" s="49" t="n"/>
+      <c r="G5" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H5" s="18" t="inlineStr">
+      <c r="H5" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I5" s="18" t="inlineStr">
-        <is>
-          <t>15:12:22</t>
-        </is>
-      </c>
-      <c r="J5" s="18" t="inlineStr">
-        <is>
-          <t>15:12:30</t>
-        </is>
-      </c>
-      <c r="K5" s="18" t="inlineStr">
-        <is>
-          <t>8.0</t>
+      <c r="I5" s="49" t="inlineStr">
+        <is>
+          <t>13:54:48</t>
+        </is>
+      </c>
+      <c r="J5" s="49" t="inlineStr">
+        <is>
+          <t>13:54:54</t>
+        </is>
+      </c>
+      <c r="K5" s="49" t="inlineStr">
+        <is>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -2108,15 +2098,15 @@
           <t>Test_05</t>
         </is>
       </c>
-      <c r="C6" s="36" t="n"/>
-      <c r="D6" s="36" t="n"/>
-      <c r="E6" s="36" t="n"/>
-      <c r="F6" s="36" t="n"/>
-      <c r="G6" s="36" t="n"/>
-      <c r="H6" s="36" t="n"/>
-      <c r="I6" s="36" t="n"/>
-      <c r="J6" s="36" t="n"/>
-      <c r="K6" s="36" t="n"/>
+      <c r="C6" s="33" t="n"/>
+      <c r="D6" s="33" t="n"/>
+      <c r="E6" s="33" t="n"/>
+      <c r="F6" s="33" t="n"/>
+      <c r="G6" s="33" t="n"/>
+      <c r="H6" s="33" t="n"/>
+      <c r="I6" s="33" t="n"/>
+      <c r="J6" s="33" t="n"/>
+      <c r="K6" s="33" t="n"/>
     </row>
     <row r="7" ht="124.8" customHeight="1">
       <c r="A7" s="47" t="n"/>
@@ -2125,45 +2115,45 @@
           <t>Test_06</t>
         </is>
       </c>
-      <c r="C7" s="36" t="n"/>
-      <c r="D7" s="18" t="inlineStr">
-        <is>
-          <t>{'userId': '6512826fe3534b7b91f740d0', 'alertEnabled': True, 'sendSms': True, 'sendMms': True, 'sendEmail': True, 'sendInappNotification': False, 'scheduleDetail': [{'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': False}, {'enabled': False}]}</t>
-        </is>
-      </c>
-      <c r="E7" s="18" t="inlineStr">
+      <c r="C7" s="33" t="n"/>
+      <c r="D7" s="49" t="inlineStr">
+        <is>
+          <t>{'userId': '65166d4a1a1e19a5219d8966', 'alertEnabled': True, 'sendSms': True, 'sendMms': True, 'sendEmail': True, 'sendInappNotification': False, 'scheduleDetail': [{'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': False}, {'enabled': False}]}</t>
+        </is>
+      </c>
+      <c r="E7" s="49" t="inlineStr">
         <is>
           <t>{'data': 'Alert information has been updated.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F7" s="18" t="inlineStr">
+      <c r="F7" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : User  650acb81cd16ba5d940931f1 is updated.</t>
         </is>
       </c>
-      <c r="G7" s="54" t="inlineStr">
+      <c r="G7" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H7" s="18" t="inlineStr">
+      <c r="H7" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Alert information has been updated.</t>
         </is>
       </c>
-      <c r="I7" s="18" t="inlineStr">
-        <is>
-          <t>15:12:31</t>
-        </is>
-      </c>
-      <c r="J7" s="18" t="inlineStr">
-        <is>
-          <t>15:12:45</t>
-        </is>
-      </c>
-      <c r="K7" s="18" t="inlineStr">
-        <is>
-          <t>14.0</t>
+      <c r="I7" s="49" t="inlineStr">
+        <is>
+          <t>13:54:54</t>
+        </is>
+      </c>
+      <c r="J7" s="49" t="inlineStr">
+        <is>
+          <t>13:54:59</t>
+        </is>
+      </c>
+      <c r="K7" s="49" t="inlineStr">
+        <is>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -2174,45 +2164,45 @@
           <t>Test_07</t>
         </is>
       </c>
-      <c r="C8" s="36" t="n"/>
-      <c r="D8" s="18" t="inlineStr">
-        <is>
-          <t>{'accountId': '6512825db5505c9518c38e90', 'addr1': None, 'addr2': None, 'aemail': 'user@gmail.com', 'aphone': None, 'auth_params': None, 'city': None, 'company': None, 'department': None, 'email': 'user@gmail.com', 'enabled': True, 'fname': None, 'fphone': None, 'hphone': None, 'isServiceUser': False, 'lname': None, 'mname': None, 'password': 'Password@123', 'phone_type': 0, 'provider': None, 'pw_current': None, 'pw_new1': None, 'pw_new2': None, 'region_id': '6512825eb5505c9518c38e94', 'state': None, 'timezone': 'Asia/Kolkata', 'title': 'test_title', 'url': None, 'urole_id': '6512825eb5505c9518c38e91', 'user_id': '6512826fe3534b7b91f740d0', 'userName': 'TestUser11', 'wphone': None, 'zip': None}</t>
-        </is>
-      </c>
-      <c r="E8" s="18" t="inlineStr">
-        <is>
-          <t>{'username': 'TestUser11', 'userID': '65154aa0be1891535e3c053c', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
-        </is>
-      </c>
-      <c r="F8" s="18" t="inlineStr">
+      <c r="C8" s="33" t="n"/>
+      <c r="D8" s="49" t="inlineStr">
+        <is>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'addr1': None, 'addr2': None, 'aemail': 'user@gmail.com', 'aphone': None, 'auth_params': None, 'city': None, 'company': None, 'department': None, 'email': 'user@gmail.com', 'enabled': True, 'fname': None, 'fphone': None, 'hphone': None, 'isServiceUser': False, 'lname': None, 'mname': None, 'password': 'Password@123', 'phone_type': 0, 'provider': None, 'pw_current': None, 'pw_new1': None, 'pw_new2': None, 'region_id': '65166d39e119836feb867cec', 'state': None, 'timezone': 'Asia/Kolkata', 'title': 'test_title', 'url': None, 'urole_id': '65166d39e119836feb867ce9', 'user_id': '65166d4a1a1e19a5219d8966', 'userName': 'TestUser702', 'wphone': None, 'zip': None}</t>
+        </is>
+      </c>
+      <c r="E8" s="49" t="inlineStr">
+        <is>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'TestUser702', 'userId': '651689e602302bffd7a8c2b2'}</t>
+        </is>
+      </c>
+      <c r="F8" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G8" s="54" t="inlineStr">
+      <c r="G8" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H8" s="18" t="inlineStr">
+      <c r="H8" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I8" s="18" t="inlineStr">
-        <is>
-          <t>15:12:45</t>
-        </is>
-      </c>
-      <c r="J8" s="18" t="inlineStr">
-        <is>
-          <t>15:12:55</t>
-        </is>
-      </c>
-      <c r="K8" s="18" t="inlineStr">
-        <is>
-          <t>10.0</t>
+      <c r="I8" s="49" t="inlineStr">
+        <is>
+          <t>13:55:00</t>
+        </is>
+      </c>
+      <c r="J8" s="49" t="inlineStr">
+        <is>
+          <t>13:55:08</t>
+        </is>
+      </c>
+      <c r="K8" s="49" t="inlineStr">
+        <is>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -2223,45 +2213,45 @@
           <t>Test_08</t>
         </is>
       </c>
-      <c r="C9" s="36" t="n"/>
-      <c r="D9" s="18" t="inlineStr">
-        <is>
-          <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': '  ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'user_id': '65154aa9be1891535e3c055f', 'pw_current': 'Right_1r1s', 'pw_new1': 'Right_1r1', 'pw_new2': 'Right_1r1'}</t>
-        </is>
-      </c>
-      <c r="E9" s="18" t="inlineStr">
-        <is>
-          <t>{'data': '65154aa9be1891535e3c055f', 'message': 'User  65154aa9be1891535e3c055f is updated.', 'isSuccess': True}</t>
-        </is>
-      </c>
-      <c r="F9" s="18" t="inlineStr">
+      <c r="C9" s="33" t="n"/>
+      <c r="D9" s="49" t="inlineStr">
+        <is>
+          <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': '  ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'user_id': '651689ec02302bffd7a8c2c5', 'pw_current': 'Right_1r1s', 'pw_new1': 'Right_1r1', 'pw_new2': 'Right_1r1'}</t>
+        </is>
+      </c>
+      <c r="E9" s="49" t="inlineStr">
+        <is>
+          <t>{'data': '651689ec02302bffd7a8c2c5', 'message': 'User  651689ec02302bffd7a8c2c5 is updated.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F9" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G9" s="54" t="inlineStr">
+      <c r="G9" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H9" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : User  65154aa9be1891535e3c055f is updated.</t>
-        </is>
-      </c>
-      <c r="I9" s="18" t="inlineStr">
-        <is>
-          <t>15:12:55</t>
-        </is>
-      </c>
-      <c r="J9" s="18" t="inlineStr">
-        <is>
-          <t>15:13:13</t>
-        </is>
-      </c>
-      <c r="K9" s="18" t="inlineStr">
-        <is>
-          <t>18.0</t>
+      <c r="H9" s="49" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : User  651689ec02302bffd7a8c2c5 is updated.</t>
+        </is>
+      </c>
+      <c r="I9" s="49" t="inlineStr">
+        <is>
+          <t>13:55:08</t>
+        </is>
+      </c>
+      <c r="J9" s="49" t="inlineStr">
+        <is>
+          <t>13:55:20</t>
+        </is>
+      </c>
+      <c r="K9" s="49" t="inlineStr">
+        <is>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -2272,43 +2262,43 @@
           <t>Test_08</t>
         </is>
       </c>
-      <c r="C10" s="36" t="n"/>
-      <c r="D10" s="18" t="inlineStr">
+      <c r="C10" s="33" t="n"/>
+      <c r="D10" s="49" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E10" s="18" t="inlineStr">
+      <c r="E10" s="49" t="inlineStr">
         <is>
           <t>{'userInfo': {'users': [{'id': '65094909790679132325377c', 'userID': '65094909790679132325377c', 'username': 'deployment.client', 'serviceUser': False, 'roleId': '65094909790679132325377b', 'userRoleId': '65094909790679132325377b', 'enabled': 1, 'accountId': '6509490800b0398858000031', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6509490800b0398858000035', 'regionName': 'Dmart', 'roleName': 'deployment.client'}]}}</t>
         </is>
       </c>
-      <c r="F10" s="18" t="inlineStr">
+      <c r="F10" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G10" s="37" t="inlineStr">
+      <c r="G10" s="34" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H10" s="18" t="inlineStr">
+      <c r="H10" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I10" s="18" t="inlineStr">
+      <c r="I10" s="49" t="inlineStr">
         <is>
           <t>19:47:17</t>
         </is>
       </c>
-      <c r="J10" s="18" t="inlineStr">
+      <c r="J10" s="49" t="inlineStr">
         <is>
           <t>19:47:23</t>
         </is>
       </c>
-      <c r="K10" s="18" t="inlineStr">
+      <c r="K10" s="49" t="inlineStr">
         <is>
           <t>6.0</t>
         </is>
@@ -2321,45 +2311,45 @@
           <t>Test_10</t>
         </is>
       </c>
-      <c r="C11" s="36" t="n"/>
-      <c r="D11" s="18" t="inlineStr">
-        <is>
-          <t>{'Addr1': None, 'Addr2': None, 'Zip': None, 'Enabled': True, 'Pw_current': None, 'Region_id': '6512825eb5505c9518c38e94', 'Hphone': None, 'AccountId': '6512825db5505c9518c38e90', 'Fphone': None, 'Pw_new1': None, 'Pw_new2': None, 'City': None, 'Phone_type': None, 'Aphone': None, 'Url': None, 'User_id': '65154abcbe1891535e3c05a8', 'Urole_id': '6512825eb5505c9518c38e91', 'State': None, 'Provider': None, 'Fname': None, 'Department': None, 'IsServiceUser': False, 'UserName': None, 'Lname': None, 'Wphone': None, 'Mname': None, 'Title': None, 'Timezone': 'Asia/Kolkata', 'Password': 'Password@123', 'Aemail': 'user@gmail.com', 'Email': 'user@gmail.com', 'Company': None, 'Auth_params': None}</t>
-        </is>
-      </c>
-      <c r="E11" s="18" t="inlineStr">
-        <is>
-          <t>{'data': '65154abcbe1891535e3c05a8', 'message': 'User  65154abcbe1891535e3c05a8 is updated.', 'isSuccess': True}</t>
-        </is>
-      </c>
-      <c r="F11" s="18" t="inlineStr">
+      <c r="C11" s="33" t="n"/>
+      <c r="D11" s="49" t="inlineStr">
+        <is>
+          <t>{'Addr1': None, 'Addr2': None, 'Zip': None, 'Enabled': True, 'Pw_current': None, 'Region_id': '65166d39e119836feb867cec', 'Hphone': None, 'AccountId': '65166d39e119836feb867ce8', 'Fphone': None, 'Pw_new1': None, 'Pw_new2': None, 'City': None, 'Phone_type': None, 'Aphone': None, 'Url': None, 'User_id': '651689f802302bffd7a8c2ee', 'Urole_id': '65166d39e119836feb867ce9', 'State': None, 'Provider': None, 'Fname': None, 'Department': None, 'IsServiceUser': False, 'UserName': None, 'Lname': None, 'Wphone': None, 'Mname': None, 'Title': None, 'Timezone': 'Asia/Kolkata', 'Password': 'Password@123', 'Aemail': 'user@gmail.com', 'Email': 'user@gmail.com', 'Company': None, 'Auth_params': None}</t>
+        </is>
+      </c>
+      <c r="E11" s="49" t="inlineStr">
+        <is>
+          <t>{'data': '651689f802302bffd7a8c2ee', 'message': 'User  651689f802302bffd7a8c2ee is updated.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F11" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Alert information has been updated.</t>
         </is>
       </c>
-      <c r="G11" s="54" t="inlineStr">
+      <c r="G11" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H11" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : User  65154abcbe1891535e3c05a8 is updated.</t>
-        </is>
-      </c>
-      <c r="I11" s="18" t="inlineStr">
-        <is>
-          <t>15:13:13</t>
-        </is>
-      </c>
-      <c r="J11" s="18" t="inlineStr">
-        <is>
-          <t>15:13:38</t>
-        </is>
-      </c>
-      <c r="K11" s="18" t="inlineStr">
-        <is>
-          <t>25.0</t>
+      <c r="H11" s="49" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : User  651689f802302bffd7a8c2ee is updated.</t>
+        </is>
+      </c>
+      <c r="I11" s="49" t="inlineStr">
+        <is>
+          <t>13:55:20</t>
+        </is>
+      </c>
+      <c r="J11" s="49" t="inlineStr">
+        <is>
+          <t>13:55:34</t>
+        </is>
+      </c>
+      <c r="K11" s="49" t="inlineStr">
+        <is>
+          <t>14.0</t>
         </is>
       </c>
     </row>
@@ -2370,409 +2360,409 @@
           <t>Test_11</t>
         </is>
       </c>
-      <c r="C12" s="36" t="n"/>
-      <c r="D12" s="18" t="inlineStr">
+      <c r="C12" s="33" t="n"/>
+      <c r="D12" s="49" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E12" s="18" t="inlineStr">
-        <is>
-          <t>[{'id': '65128268d86a782fa5f5baeb', 'userID': '65128268d86a782fa5f5baeb', 'username': 'deployment.client', 'serviceUser': False, 'roleId': '65128268d86a782fa5f5baea', 'userRoleId': '65128268d86a782fa5f5baea', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '65128303f174a38fadf060ce', 'userID': '65128303f174a38fadf060ce', 'username': 'deployment.server', 'serviceUser': False, 'roleId': '65128303f174a38fadf060cd', 'userRoleId': '65128303f174a38fadf060cd', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '651548d8be1891535e3c015f', 'userID': '651548d8be1891535e3c015f', 'username': 'Demo_user1983', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893720000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548debe1891535e3c0182', 'userID': '651548debe1891535e3c0182', 'username': 'test409515', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893726000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548e4be1891535e3c01a5', 'userID': '651548e4be1891535e3c01a5', 'username': 'Demo_user1679', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893732000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ebbe1891535e3c01c8', 'userID': '651548ebbe1891535e3c01c8', 'username': 'test409431', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893739000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548f8be1891535e3c0214', 'userID': '651548f8be1891535e3c0214', 'username': 'TestUser419', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893752000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ffbe1891535e3c0237', 'userID': '651548ffbe1891535e3c0237', 'username': 'Demo_user1360', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893759000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515490dbe1891535e3c028d', 'userID': '6515490dbe1891535e3c028d', 'username': 'Demo_user120', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893773000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515491cbe1891535e3c02bd', 'userID': '6515491cbe1891535e3c02bd', 'username': 'Demo_user1273', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893788000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515498ebe1891535e3c041a', 'userID': '6515498ebe1891535e3c041a', 'username': 'Demo_user1260', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893902000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651549f3be1891535e3c0457', 'userID': '651549f3be1891535e3c0457', 'username': 'Demo_user1747', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894003000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a68be1891535e3c0487', 'userID': '65154a68be1891535e3c0487', 'username': 'Demo_user1432', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894120000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a72be1891535e3c04aa', 'userID': '65154a72be1891535e3c04aa', 'username': 'test409613', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894130000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a7fbe1891535e3c04cd', 'userID': '65154a7fbe1891535e3c04cd', 'username': 'Demo_user1992', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894143000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a86be1891535e3c04f0', 'userID': '65154a86be1891535e3c04f0', 'username': 'test409776', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894150000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa0be1891535e3c053c', 'userID': '65154aa0be1891535e3c053c', 'username': 'TestUser11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894176000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa9be1891535e3c055f', 'userID': '65154aa9be1891535e3c055f', 'username': 'Demo_user11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894185000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154abcbe1891535e3c05a8', 'userID': '65154abcbe1891535e3c05a8', 'username': 'Demo_user1767', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894204000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}]</t>
-        </is>
-      </c>
-      <c r="F12" s="18" t="inlineStr">
+      <c r="E12" s="49" t="inlineStr">
+        <is>
+          <t>[{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'enabled': 1, 'id': '65166d434e4df05a37a98bea', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d434e4df05a37a98be9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d434e4df05a37a98bea', 'username': 'deployment.client', 'userRoleId': '65166d434e4df05a37a98be9', 'displayName': 'deployment.client, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 4, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'maintenance'}, 'enabled': 1, 'id': '65166dbdd319a18d9ce09bfd', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166dbdd319a18d9ce09bfa', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166dbdd319a18d9ce09bfd', 'username': 'maintenance', 'userRoleId': '65166dbdd319a18d9ce09bfa', 'displayName': 'maintenance, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'enabled': 1, 'id': '65166dbdd319a18d9ce09bff', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166dbdd319a18d9ce09bfe', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166dbdd319a18d9ce09bff', 'username': 'deployment.server', 'userRoleId': '65166dbdd319a18d9ce09bfe', 'displayName': 'deployment.server, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167c6602302bffd7a8baaf', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972454000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c6602302bffd7a8baaf', 'username': 'Demo_user157', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167c7102302bffd7a8bac2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972465000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7102302bffd7a8bac2', 'username': 'test409580', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409580'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167c7b02302bffd7a8bad5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972475000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7b02302bffd7a8bad5', 'username': 'Demo_user147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167c8402302bffd7a8bae8', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972484000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c8402302bffd7a8bae8', 'username': 'test409867', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409867'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167c9f02302bffd7a8bb32', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972511000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c9f02302bffd7a8bb32', 'username': 'TestUser115', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser115'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167caa02302bffd7a8bb77', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972522000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167caa02302bffd7a8bb77', 'username': 'Demo_user1529', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cb402302bffd7a8bba2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972532000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cb402302bffd7a8bba2', 'username': 'Demo_user1409', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ced02302bffd7a8bccc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972589000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ced02302bffd7a8bccc', 'username': 'Demo_user1329', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cf502302bffd7a8bd00', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972597000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cf502302bffd7a8bd00', 'username': 'Demo_user1132', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167d1e02302bffd7a8bd8c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972638000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d1e02302bffd7a8bd8c', 'username': 'Demo_user1337', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'test address', 'address2': 'next address', 'city': 'test city', 'company': 'test comp', 'department': 'test department', 'email': 'test@yopmail.com', 'faxNumber': '12345', 'firstName': 'Ashish', 'homePhone': '9876543210', 'lastName': 'Chandra', 'state': 'test state', 'timezoneID': 'Asia/Kolkata', 'title': 'Test Title', 'workPhone': '9876543210', 'zip': '380005'}, 'enabled': 1, 'id': '65167d7c02302bffd7a8bdb0', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972732000, 'prefs': {'alertEMail': 'test19@yopmail.com', 'alertPhone': '9876543210', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'text.wireless.alltel.com', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d7c02302bffd7a8bdb0', 'username': 'Milo118', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Chandra, Ashish'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'lastName': 'core', 'timezoneID': 'Pacific/Gambier'}, 'enabled': 1, 'id': '65167d9702302bffd7a8bdb7', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972759000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6516746002302bffd7a8b907', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d9702302bffd7a8bdb7', 'username': 'test', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core,'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e1a02302bffd7a8bdde', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972890000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e1a02302bffd7a8bdde', 'username': 'Demo_user1470', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e3e02302bffd7a8bdf1', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972926000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e3e02302bffd7a8bdf1', 'username': 'Demo_user144', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e9f02302bffd7a8be0a', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973023000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e9f02302bffd7a8be0a', 'username': 'Demo_user1327', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ea802302bffd7a8be20', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973032000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ea802302bffd7a8be20', 'username': 'test409885', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409885'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167eb102302bffd7a8be33', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973041000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eb102302bffd7a8be33', 'username': 'Demo_user1684', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167eba02302bffd7a8be46', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973050000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eba02302bffd7a8be46', 'username': 'test409370', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409370'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167ecf02302bffd7a8be6d', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973071000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ecf02302bffd7a8be6d', 'username': 'TestUser113', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser113'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ed802302bffd7a8be83', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973080000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ed802302bffd7a8be83', 'username': 'Demo_user1904', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ee902302bffd7a8beac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973097000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ee902302bffd7a8beac', 'username': 'Demo_user125', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user125'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167f5c02302bffd7a8bfb4', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973212000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167f5c02302bffd7a8bfb4', 'username': 'TestUser898', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser898'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167fb202302bffd7a8bffc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973298000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167fb202302bffd7a8bffc', 'username': 'TestUser719', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser719'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516802502302bffd7a8c00f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973413000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802502302bffd7a8c00f', 'username': 'Demo_user1611', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516802e02302bffd7a8c022', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973422000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802e02302bffd7a8c022', 'username': 'test409585', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409585'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '6516803702302bffd7a8c035', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973431000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516803702302bffd7a8c035', 'username': 'Demo_user1547', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '6516804002302bffd7a8c048', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973440000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516804002302bffd7a8c048', 'username': 'test409969', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409969'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '6516805502302bffd7a8c06c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973461000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805502302bffd7a8c06c', 'username': 'TestUser963', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser963'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516805e02302bffd7a8c07f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973470000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805e02302bffd7a8c07f', 'username': 'Demo_user1312', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516806e02302bffd7a8c0ac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973486000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516806e02302bffd7a8c0ac', 'username': 'Demo_user1212', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user1212'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689c502302bffd7a8c255', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975877000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689c502302bffd7a8c255', 'username': 'Demo_user1742', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651689cb02302bffd7a8c268', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975883000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689cb02302bffd7a8c268', 'username': 'test409147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409147'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '651689d102302bffd7a8c27b', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975889000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d102302bffd7a8c27b', 'username': 'Demo_user1783', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '651689d702302bffd7a8c28e', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975895000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d702302bffd7a8c28e', 'username': 'test409715', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409715'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '651689e602302bffd7a8c2b2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975910000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689e602302bffd7a8c2b2', 'username': 'TestUser702', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser702'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689ec02302bffd7a8c2c5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975916000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.</t>
+        </is>
+      </c>
+      <c r="F12" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="G12" s="54" t="inlineStr">
+      <c r="G12" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H12" s="18" t="inlineStr">
+      <c r="H12" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I12" s="18" t="inlineStr">
-        <is>
-          <t>15:13:38</t>
-        </is>
-      </c>
-      <c r="J12" s="18" t="inlineStr">
-        <is>
-          <t>15:13:43</t>
-        </is>
-      </c>
-      <c r="K12" s="18" t="inlineStr">
-        <is>
-          <t>5.0</t>
+      <c r="I12" s="49" t="inlineStr">
+        <is>
+          <t>13:55:34</t>
+        </is>
+      </c>
+      <c r="J12" s="49" t="inlineStr">
+        <is>
+          <t>13:55:37</t>
+        </is>
+      </c>
+      <c r="K12" s="49" t="inlineStr">
+        <is>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="13" ht="112.8" customHeight="1">
       <c r="A13" s="47" t="n"/>
-      <c r="B13" s="18" t="inlineStr">
+      <c r="B13" s="49" t="inlineStr">
         <is>
           <t>Test_12</t>
         </is>
       </c>
-      <c r="C13" s="18" t="n"/>
-      <c r="D13" s="18" t="inlineStr">
+      <c r="C13" s="49" t="n"/>
+      <c r="D13" s="49" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E13" s="18" t="inlineStr">
-        <is>
-          <t>{'userInfo': {'users': [{'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [{'agroupID': '651545bdbe1891535e3bf164', 'desc': 'test description', 'enrollmentGroupIds': ['651545bbbe1891535e3bf145'], 'name': 'Test_notification_Api531', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}, {'agroupID': '651545dcbe1891535e3bf23f', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api641', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}], 'regionId': '6512825eb5505c9518c38e92', 'regionName': 'Dmart', 'roleName': 'facefirst-user-role'}, {'id': '651548d8be1891535e3c015f', 'userID': '651548d8be1891535e3c015f', 'username': 'Demo_user1983', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893720000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548debe1891535e3c0182', 'userID': '651548debe1891535e3c0182', 'username': 'test409515', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893726000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548e4be1891535e3c01a5', 'userID': '651548e4be1891535e3c01a5', 'username': 'Demo_user1679', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893732000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548ebbe1891535e3c01c8', 'userID': '651548ebbe1891535e3c01c8', 'username': 'test409431', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893739000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548f8be1891535e3c0214', 'userID': '651548f8be1891535e3c0214', 'username': 'TestUser419', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893752000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548ffbe1891535e3c0237', 'userID': '651548ffbe1891535e3c0237', 'username': 'Demo_user1360', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893759000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '6515490dbe1891535e3c028d', 'userID': '6515490dbe1891535e3c028d', 'username': 'Demo_user120', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893773000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '6515491cbe1891535e3c02bd', 'userID': '6515491cbe1891535e3c02bd', 'username': 'Demo_user1273', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893788000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '6515498ebe1891535e3c041a', 'userID': '6515498ebe1891535e3c041a', 'username': 'Demo_user1260', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893902000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651549f3be1891535e3c0457', 'userID': '651549f3be1891535e3c0457', 'username': 'Demo_user1747', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894003000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a68be1891535e3c0487', 'userID': '65154a68be1891535e3c0487', 'username': 'Demo_user1432', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894120000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a72be1891535e3c04aa', 'userID': '65154a72be1891535e3c04aa', 'username': 'test409613', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894130000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a7fbe1891535e3c04cd', 'userID': '65154a7fbe1891535e3c04cd', 'username': 'Demo_user1992', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894143000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a86be1891535e3c04f0', 'userID': '65154a86be1891535e3c04f0', 'username': 'test409776', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894150000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154aa0be1891535e3c053c', 'userID': '65154aa0be1891535e3c053c', 'username': 'TestUser11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894176000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154aa9be1891535e3c055f', 'userID': '65154aa9be1891535e3c055f', 'username': 'Demo_user11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894185000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154abcbe1891535e3c05a8', 'userID': '65154abcbe1891535e3c05a8', 'username': 'Demo_user1767', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894204000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}]}}</t>
-        </is>
-      </c>
-      <c r="F13" s="18" t="inlineStr">
+      <c r="E13" s="49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">{'userInfo': {'users': [{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}, {'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ce702302bffd7a8bca5', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api759', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}], 'badPasswordCount': 4, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'regionName': 'Root', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167c6602302bffd7a8baaf', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972454000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c6602302bffd7a8baaf', 'username': 'Demo_user157', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167c7102302bffd7a8bac2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972465000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7102302bffd7a8bac2', 'username': 'test409580', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409580'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167c7b02302bffd7a8bad5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972475000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7b02302bffd7a8bad5', 'username': 'Demo_user147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167c8402302bffd7a8bae8', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972484000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c8402302bffd7a8bae8', 'username': 'test409867', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409867'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167c9f02302bffd7a8bb32', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972511000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c9f02302bffd7a8bb32', 'username': 'TestUser115', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser115'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167caa02302bffd7a8bb77', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972522000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167caa02302bffd7a8bb77', 'username': 'Demo_user1529', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cb402302bffd7a8bba2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972532000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cb402302bffd7a8bba2', 'username': 'Demo_user1409', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ced02302bffd7a8bccc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972589000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ced02302bffd7a8bccc', 'username': 'Demo_user1329', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cf502302bffd7a8bd00', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972597000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cf502302bffd7a8bd00', 'username': 'Demo_user1132', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167d1e02302bffd7a8bd8c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972638000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d1e02302bffd7a8bd8c', 'username': 'Demo_user1337', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'test address', 'address2': 'next address', 'city': 'test city', 'company': 'test comp', 'department': 'test department', 'email': 'test@yopmail.com', 'faxNumber': '12345', 'firstName': 'Ashish', 'homePhone': '9876543210', 'lastName': 'Chandra', 'state': 'test state', 'timezoneID': 'Asia/Kolkata', 'title': 'Test Title', 'workPhone': '9876543210', 'zip': '380005'}, 'enabled': 1, 'id': '65167d7c02302bffd7a8bdb0', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972732000, 'prefs': {'alertEMail': 'test19@yopmail.com', 'alertPhone': '9876543210', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'text.wireless.alltel.com', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'regionName': 'Root', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d7c02302bffd7a8bdb0', 'username': 'Milo118', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Chandra, Ashish'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'lastName': 'core', 'timezoneID': 'Pacific/Gambier'}, 'enabled': 1, 'id': '65167d9702302bffd7a8bdb7', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972759000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6516746002302bffd7a8b907', 'regionName': 'DESKTOP-660P8Q2', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d9702302bffd7a8bdb7', 'username': 'test', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core,'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e1a02302bffd7a8bdde', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972890000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e1a02302bffd7a8bdde', 'username': 'Demo_user1470', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e3e02302bffd7a8bdf1', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972926000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e3e02302bffd7a8bdf1', 'username': 'Demo_user144', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e9f02302bffd7a8be0a', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973023000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e9f02302bffd7a8be0a', 'username': 'Demo_user1327', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ea802302bffd7a8be20', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973032000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ea802302bffd7a8be20', 'username': 'test409885', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409885'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167eb102302bffd7a8be33', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973041000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eb102302bffd7a8be33', 'username': 'Demo_user1684', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167eba02302bffd7a8be46', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973050000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eba02302bffd7a8be46', 'username': 'test409370', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409370'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167ecf02302bffd7a8be6d', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973071000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ecf02302bffd7a8be6d', 'username': 'TestUser113', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser113'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ed802302bffd7a8be83', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973080000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ed802302bffd7a8be83', 'username': 'Demo_user1904', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ee902302bffd7a8beac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973097000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ee902302bffd7a8beac', 'username': 'Demo_user125', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user125'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167f5c02302bffd7a8bfb4', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973212000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167f5c02302bffd7a8bfb4', 'username': 'TestUser898', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser898'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167fb202302bffd7a8bffc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973298000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167fb202302bffd7a8bffc', 'username': 'TestUser719', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser719'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516802502302bffd7a8c00f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973413000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802502302bffd7a8c00f', 'username': 'Demo_user1611', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516802e02302bffd7a8c022', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973422000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802e02302bffd7a8c022', 'username': 'test409585', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409585'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '6516803702302bffd7a8c035', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973431000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516803702302bffd7a8c035', 'username': 'Demo_user1547', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '6516804002302bffd7a8c048', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973440000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516804002302bffd7a8c048', 'username': 'test409969', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409969'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '6516805502302bffd7a8c06c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973461000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805502302bffd7a8c06c', 'username': 'TestUser963', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser963'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516805e02302bffd7a8c07f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973470000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805e02302bffd7a8c07f', 'username': 'Demo_user1312', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516806e02302bffd7a8c0ac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973486000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516806e02302bffd7a8c0ac', 'username': 'Demo_user1212', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user1212'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689c502302bffd7a8c255', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975877000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689c502302bffd7a8c255', 'username': 'Demo_user1742', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651689cb02302bffd7a8c268', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975883000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689cb02302bffd7a8c268', 'username': 'test409147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409147'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '651689d102302bffd7a8c27b', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975889000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d102302bffd7a8c27b', 'username': 'Demo_user1783', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '651689d702302bffd7a8c28e', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975895000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d702302bffd7a8c28e', 'username': 'test409715', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409715'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '651689e602302bffd7a8c2b2', 'notifyUserOfOldPassword': </t>
+        </is>
+      </c>
+      <c r="F13" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : User  650d6aaa327ea63edec3d38b is updated.</t>
         </is>
       </c>
-      <c r="G13" s="54" t="inlineStr">
+      <c r="G13" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H13" s="18" t="inlineStr">
+      <c r="H13" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I13" s="18" t="inlineStr">
-        <is>
-          <t>15:13:43</t>
-        </is>
-      </c>
-      <c r="J13" s="18" t="inlineStr">
-        <is>
-          <t>15:13:55</t>
-        </is>
-      </c>
-      <c r="K13" s="18" t="inlineStr">
-        <is>
-          <t>12.0</t>
+      <c r="I13" s="49" t="inlineStr">
+        <is>
+          <t>13:55:37</t>
+        </is>
+      </c>
+      <c r="J13" s="49" t="inlineStr">
+        <is>
+          <t>13:55:42</t>
+        </is>
+      </c>
+      <c r="K13" s="49" t="inlineStr">
+        <is>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="14" ht="101.4" customHeight="1">
       <c r="A14" s="47" t="n"/>
-      <c r="B14" s="18" t="inlineStr">
+      <c r="B14" s="49" t="inlineStr">
         <is>
           <t>Test_13</t>
         </is>
       </c>
-      <c r="C14" s="18" t="n"/>
-      <c r="D14" s="18" t="inlineStr">
+      <c r="C14" s="49" t="n"/>
+      <c r="D14" s="49" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E14" s="18" t="inlineStr">
-        <is>
-          <t>{'userInfo': {'users': [{'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [{'agroupID': '651545bdbe1891535e3bf164', 'desc': 'test description', 'enrollmentGroupIds': ['651545bbbe1891535e3bf145'], 'name': 'Test_notification_Api531', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}, {'agroupID': '651545dcbe1891535e3bf23f', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api641', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}], 'regionId': '6512825eb5505c9518c38e92', 'regionName': 'Dmart', 'roleName': 'facefirst-user-role'}]}}</t>
-        </is>
-      </c>
-      <c r="F14" s="18" t="n"/>
-      <c r="G14" s="54" t="inlineStr">
+      <c r="E14" s="49" t="inlineStr">
+        <is>
+          <t>{'userInfo': {'users': [{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}, {'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ce702302bffd7a8bca5', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api759', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}], 'badPasswordCount': 4, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'regionName': 'Root', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}]}}</t>
+        </is>
+      </c>
+      <c r="F14" s="49" t="n"/>
+      <c r="G14" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H14" s="18" t="inlineStr">
+      <c r="H14" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I14" s="18" t="inlineStr">
-        <is>
-          <t>15:13:55</t>
-        </is>
-      </c>
-      <c r="J14" s="18" t="inlineStr">
-        <is>
-          <t>15:14:05</t>
-        </is>
-      </c>
-      <c r="K14" s="18" t="inlineStr">
-        <is>
-          <t>10.0</t>
+      <c r="I14" s="49" t="inlineStr">
+        <is>
+          <t>13:55:42</t>
+        </is>
+      </c>
+      <c r="J14" s="49" t="inlineStr">
+        <is>
+          <t>13:55:47</t>
+        </is>
+      </c>
+      <c r="K14" s="49" t="inlineStr">
+        <is>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="15" ht="74.40000000000001" customHeight="1">
       <c r="A15" s="47" t="n"/>
-      <c r="B15" s="18" t="inlineStr">
+      <c r="B15" s="49" t="inlineStr">
         <is>
           <t>Test_14</t>
         </is>
       </c>
-      <c r="C15" s="18" t="n"/>
-      <c r="D15" s="18" t="inlineStr">
+      <c r="C15" s="49" t="n"/>
+      <c r="D15" s="49" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E15" s="18" t="inlineStr">
-        <is>
-          <t>{'accountId': '6512825db5505c9518c38e90', 'regionId': '6512825eb5505c9518c38e92', 'userName': 'core', 'userId': '6512826fe3534b7b91f740d0', 'userRoleId': '6512825eb5505c9518c38e91'}</t>
-        </is>
-      </c>
-      <c r="F15" s="18" t="n"/>
-      <c r="G15" s="54" t="inlineStr">
+      <c r="E15" s="49" t="inlineStr">
+        <is>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'regionId': '65166d39e119836feb867cea', 'userName': 'core', 'userId': '65166d4a1a1e19a5219d8966', 'userRoleId': '65166d39e119836feb867ce9'}</t>
+        </is>
+      </c>
+      <c r="F15" s="49" t="n"/>
+      <c r="G15" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H15" s="18" t="inlineStr">
+      <c r="H15" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I15" s="18" t="inlineStr">
-        <is>
-          <t>15:14:05</t>
-        </is>
-      </c>
-      <c r="J15" s="18" t="inlineStr">
-        <is>
-          <t>15:14:09</t>
-        </is>
-      </c>
-      <c r="K15" s="18" t="inlineStr">
-        <is>
-          <t>4.0</t>
+      <c r="I15" s="49" t="inlineStr">
+        <is>
+          <t>13:55:47</t>
+        </is>
+      </c>
+      <c r="J15" s="49" t="inlineStr">
+        <is>
+          <t>13:55:50</t>
+        </is>
+      </c>
+      <c r="K15" s="49" t="inlineStr">
+        <is>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="16" ht="71.40000000000001" customHeight="1">
       <c r="A16" s="47" t="n"/>
-      <c r="B16" s="18" t="inlineStr">
+      <c r="B16" s="49" t="inlineStr">
         <is>
           <t>Test_15</t>
         </is>
       </c>
-      <c r="C16" s="18" t="n"/>
-      <c r="D16" s="18" t="inlineStr">
+      <c r="C16" s="49" t="n"/>
+      <c r="D16" s="49" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E16" s="18" t="inlineStr">
-        <is>
-          <t>[{'id': '6512826ee3534b7b91f740b2', 'userID': '6512826ee3534b7b91f740b2', 'username': 'facefirst-service-user', 'serviceUser': True, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'support@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711854000, 'secureLogin': 0, 'prefs': {'alertEMail': 'support@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}]</t>
-        </is>
-      </c>
-      <c r="F16" s="18" t="n"/>
-      <c r="G16" s="54" t="inlineStr">
+      <c r="E16" s="49" t="inlineStr">
+        <is>
+          <t>[{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'support@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d491a1e19a5219d8948', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968585000, 'prefs': {'alertEMail': 'support@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': True, 'userId': '65166d491a1e19a5219d8948', 'username': 'facefirst-service-user', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'facefirst-service-user'}]</t>
+        </is>
+      </c>
+      <c r="F16" s="49" t="n"/>
+      <c r="G16" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H16" s="18" t="inlineStr">
+      <c r="H16" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I16" s="18" t="inlineStr">
-        <is>
-          <t>15:14:09</t>
-        </is>
-      </c>
-      <c r="J16" s="18" t="inlineStr">
-        <is>
-          <t>15:14:14</t>
-        </is>
-      </c>
-      <c r="K16" s="18" t="inlineStr">
-        <is>
-          <t>5.0</t>
+      <c r="I16" s="49" t="inlineStr">
+        <is>
+          <t>13:55:50</t>
+        </is>
+      </c>
+      <c r="J16" s="49" t="inlineStr">
+        <is>
+          <t>13:55:53</t>
+        </is>
+      </c>
+      <c r="K16" s="49" t="inlineStr">
+        <is>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="17" ht="76.8" customHeight="1">
       <c r="A17" s="47" t="n"/>
-      <c r="B17" s="18" t="inlineStr">
+      <c r="B17" s="49" t="inlineStr">
         <is>
           <t>Test_16</t>
         </is>
       </c>
-      <c r="C17" s="18" t="n"/>
-      <c r="D17" s="18" t="inlineStr">
+      <c r="C17" s="49" t="n"/>
+      <c r="D17" s="49" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E17" s="18" t="inlineStr">
-        <is>
-          <t>[{'id': '65128268d86a782fa5f5baeb', 'userID': '65128268d86a782fa5f5baeb', 'username': 'deployment.client', 'serviceUser': False, 'roleId': '65128268d86a782fa5f5baea', 'userRoleId': '65128268d86a782fa5f5baea', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '65128303f174a38fadf060ce', 'userID': '65128303f174a38fadf060ce', 'username': 'deployment.server', 'serviceUser': False, 'roleId': '65128303f174a38fadf060cd', 'userRoleId': '65128303f174a38fadf060cd', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '651548d8be1891535e3c015f', 'userID': '651548d8be1891535e3c015f', 'username': 'Demo_user1983', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893720000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548debe1891535e3c0182', 'userID': '651548debe1891535e3c0182', 'username': 'test409515', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893726000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548e4be1891535e3c01a5', 'userID': '651548e4be1891535e3c01a5', 'username': 'Demo_user1679', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893732000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ebbe1891535e3c01c8', 'userID': '651548ebbe1891535e3c01c8', 'username': 'test409431', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893739000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548f8be1891535e3c0214', 'userID': '651548f8be1891535e3c0214', 'username': 'TestUser419', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893752000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ffbe1891535e3c0237', 'userID': '651548ffbe1891535e3c0237', 'username': 'Demo_user1360', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893759000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515490dbe1891535e3c028d', 'userID': '6515490dbe1891535e3c028d', 'username': 'Demo_user120', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893773000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515491cbe1891535e3c02bd', 'userID': '6515491cbe1891535e3c02bd', 'username': 'Demo_user1273', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893788000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515498ebe1891535e3c041a', 'userID': '6515498ebe1891535e3c041a', 'username': 'Demo_user1260', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893902000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651549f3be1891535e3c0457', 'userID': '651549f3be1891535e3c0457', 'username': 'Demo_user1747', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894003000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a68be1891535e3c0487', 'userID': '65154a68be1891535e3c0487', 'username': 'Demo_user1432', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894120000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a72be1891535e3c04aa', 'userID': '65154a72be1891535e3c04aa', 'username': 'test409613', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894130000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a7fbe1891535e3c04cd', 'userID': '65154a7fbe1891535e3c04cd', 'username': 'Demo_user1992', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894143000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a86be1891535e3c04f0', 'userID': '65154a86be1891535e3c04f0', 'username': 'test409776', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894150000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa0be1891535e3c053c', 'userID': '65154aa0be1891535e3c053c', 'username': 'TestUser11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894176000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa9be1891535e3c055f', 'userID': '65154aa9be1891535e3c055f', 'username': 'Demo_user11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894185000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154abcbe1891535e3c05a8', 'userID': '65154abcbe1891535e3c05a8', 'username': 'Demo_user1767', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894204000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}]</t>
-        </is>
-      </c>
-      <c r="F17" s="18" t="n"/>
-      <c r="G17" s="54" t="inlineStr">
+      <c r="E17" s="49" t="inlineStr">
+        <is>
+          <t>[{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'enabled': 1, 'id': '65166d434e4df05a37a98bea', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d434e4df05a37a98be9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d434e4df05a37a98bea', 'username': 'deployment.client', 'userRoleId': '65166d434e4df05a37a98be9', 'displayName': 'deployment.client, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 4, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'maintenance'}, 'enabled': 1, 'id': '65166dbdd319a18d9ce09bfd', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166dbdd319a18d9ce09bfa', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166dbdd319a18d9ce09bfd', 'username': 'maintenance', 'userRoleId': '65166dbdd319a18d9ce09bfa', 'displayName': 'maintenance, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'enabled': 1, 'id': '65166dbdd319a18d9ce09bff', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166dbdd319a18d9ce09bfe', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166dbdd319a18d9ce09bff', 'username': 'deployment.server', 'userRoleId': '65166dbdd319a18d9ce09bfe', 'displayName': 'deployment.server, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167c6602302bffd7a8baaf', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972454000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c6602302bffd7a8baaf', 'username': 'Demo_user157', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167c7102302bffd7a8bac2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972465000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7102302bffd7a8bac2', 'username': 'test409580', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409580'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167c7b02302bffd7a8bad5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972475000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7b02302bffd7a8bad5', 'username': 'Demo_user147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167c8402302bffd7a8bae8', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972484000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c8402302bffd7a8bae8', 'username': 'test409867', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409867'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167c9f02302bffd7a8bb32', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972511000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c9f02302bffd7a8bb32', 'username': 'TestUser115', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser115'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167caa02302bffd7a8bb77', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972522000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167caa02302bffd7a8bb77', 'username': 'Demo_user1529', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cb402302bffd7a8bba2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972532000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cb402302bffd7a8bba2', 'username': 'Demo_user1409', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ced02302bffd7a8bccc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972589000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ced02302bffd7a8bccc', 'username': 'Demo_user1329', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cf502302bffd7a8bd00', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972597000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cf502302bffd7a8bd00', 'username': 'Demo_user1132', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167d1e02302bffd7a8bd8c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972638000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d1e02302bffd7a8bd8c', 'username': 'Demo_user1337', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'test address', 'address2': 'next address', 'city': 'test city', 'company': 'test comp', 'department': 'test department', 'email': 'test@yopmail.com', 'faxNumber': '12345', 'firstName': 'Ashish', 'homePhone': '9876543210', 'lastName': 'Chandra', 'state': 'test state', 'timezoneID': 'Asia/Kolkata', 'title': 'Test Title', 'workPhone': '9876543210', 'zip': '380005'}, 'enabled': 1, 'id': '65167d7c02302bffd7a8bdb0', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972732000, 'prefs': {'alertEMail': 'test19@yopmail.com', 'alertPhone': '9876543210', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'text.wireless.alltel.com', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d7c02302bffd7a8bdb0', 'username': 'Milo118', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Chandra, Ashish'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'lastName': 'core', 'timezoneID': 'Pacific/Gambier'}, 'enabled': 1, 'id': '65167d9702302bffd7a8bdb7', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972759000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6516746002302bffd7a8b907', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d9702302bffd7a8bdb7', 'username': 'test', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core,'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e1a02302bffd7a8bdde', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972890000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e1a02302bffd7a8bdde', 'username': 'Demo_user1470', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e3e02302bffd7a8bdf1', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972926000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e3e02302bffd7a8bdf1', 'username': 'Demo_user144', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e9f02302bffd7a8be0a', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973023000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e9f02302bffd7a8be0a', 'username': 'Demo_user1327', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ea802302bffd7a8be20', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973032000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ea802302bffd7a8be20', 'username': 'test409885', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409885'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167eb102302bffd7a8be33', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973041000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eb102302bffd7a8be33', 'username': 'Demo_user1684', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167eba02302bffd7a8be46', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973050000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eba02302bffd7a8be46', 'username': 'test409370', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409370'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167ecf02302bffd7a8be6d', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973071000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ecf02302bffd7a8be6d', 'username': 'TestUser113', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser113'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ed802302bffd7a8be83', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973080000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ed802302bffd7a8be83', 'username': 'Demo_user1904', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ee902302bffd7a8beac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973097000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ee902302bffd7a8beac', 'username': 'Demo_user125', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user125'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167f5c02302bffd7a8bfb4', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973212000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167f5c02302bffd7a8bfb4', 'username': 'TestUser898', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser898'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167fb202302bffd7a8bffc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973298000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167fb202302bffd7a8bffc', 'username': 'TestUser719', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser719'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516802502302bffd7a8c00f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973413000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802502302bffd7a8c00f', 'username': 'Demo_user1611', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516802e02302bffd7a8c022', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973422000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802e02302bffd7a8c022', 'username': 'test409585', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409585'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '6516803702302bffd7a8c035', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973431000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516803702302bffd7a8c035', 'username': 'Demo_user1547', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '6516804002302bffd7a8c048', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973440000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516804002302bffd7a8c048', 'username': 'test409969', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409969'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '6516805502302bffd7a8c06c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973461000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805502302bffd7a8c06c', 'username': 'TestUser963', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser963'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516805e02302bffd7a8c07f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973470000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805e02302bffd7a8c07f', 'username': 'Demo_user1312', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516806e02302bffd7a8c0ac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973486000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516806e02302bffd7a8c0ac', 'username': 'Demo_user1212', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user1212'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689c502302bffd7a8c255', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975877000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689c502302bffd7a8c255', 'username': 'Demo_user1742', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651689cb02302bffd7a8c268', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975883000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689cb02302bffd7a8c268', 'username': 'test409147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409147'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '651689d102302bffd7a8c27b', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975889000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d102302bffd7a8c27b', 'username': 'Demo_user1783', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '651689d702302bffd7a8c28e', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975895000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d702302bffd7a8c28e', 'username': 'test409715', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409715'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '651689e602302bffd7a8c2b2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975910000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689e602302bffd7a8c2b2', 'username': 'TestUser702', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser702'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689ec02302bffd7a8c2c5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975916000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.</t>
+        </is>
+      </c>
+      <c r="F17" s="49" t="n"/>
+      <c r="G17" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H17" s="18" t="inlineStr">
+      <c r="H17" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I17" s="18" t="inlineStr">
-        <is>
-          <t>15:14:15</t>
-        </is>
-      </c>
-      <c r="J17" s="18" t="inlineStr">
-        <is>
-          <t>15:14:21</t>
-        </is>
-      </c>
-      <c r="K17" s="18" t="inlineStr">
-        <is>
-          <t>6.0</t>
+      <c r="I17" s="49" t="inlineStr">
+        <is>
+          <t>13:55:53</t>
+        </is>
+      </c>
+      <c r="J17" s="49" t="inlineStr">
+        <is>
+          <t>13:55:56</t>
+        </is>
+      </c>
+      <c r="K17" s="49" t="inlineStr">
+        <is>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="18" ht="105" customHeight="1">
       <c r="A18" s="47" t="n"/>
-      <c r="B18" s="18" t="inlineStr">
+      <c r="B18" s="49" t="inlineStr">
         <is>
           <t>Test_17</t>
         </is>
       </c>
-      <c r="C18" s="18" t="n"/>
-      <c r="D18" s="18" t="inlineStr">
+      <c r="C18" s="49" t="n"/>
+      <c r="D18" s="49" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E18" s="18" t="inlineStr">
-        <is>
-          <t>{'alerts': [], 'sendInAppNotifications': False, 'userID': '65128268d86a782fa5f5baeb', 'sendSMS': False, 'sendMMS': False, 'sendEmail': False, 'enabledAlert': False, 'sendXMLRPC': False}</t>
-        </is>
-      </c>
-      <c r="F18" s="18" t="n"/>
-      <c r="G18" s="54" t="inlineStr">
+      <c r="E18" s="49" t="inlineStr">
+        <is>
+          <t>{'alerts': [], 'sendInAppNotifications': False, 'userID': '65166d434e4df05a37a98bea', 'sendSMS': False, 'sendMMS': False, 'sendEmail': False, 'enabledAlert': False, 'sendXMLRPC': False}</t>
+        </is>
+      </c>
+      <c r="F18" s="49" t="n"/>
+      <c r="G18" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H18" s="18" t="inlineStr">
+      <c r="H18" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I18" s="18" t="inlineStr">
-        <is>
-          <t>15:14:22</t>
-        </is>
-      </c>
-      <c r="J18" s="18" t="inlineStr">
-        <is>
-          <t>15:14:33</t>
-        </is>
-      </c>
-      <c r="K18" s="18" t="inlineStr">
-        <is>
-          <t>11.0</t>
+      <c r="I18" s="49" t="inlineStr">
+        <is>
+          <t>13:55:56</t>
+        </is>
+      </c>
+      <c r="J18" s="49" t="inlineStr">
+        <is>
+          <t>13:56:01</t>
+        </is>
+      </c>
+      <c r="K18" s="49" t="inlineStr">
+        <is>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="19" ht="86.40000000000001" customHeight="1">
       <c r="A19" s="47" t="n"/>
-      <c r="B19" s="18" t="inlineStr">
+      <c r="B19" s="49" t="inlineStr">
         <is>
           <t>Test_18</t>
         </is>
       </c>
-      <c r="C19" s="18" t="n"/>
-      <c r="D19" s="18" t="inlineStr">
+      <c r="C19" s="49" t="n"/>
+      <c r="D19" s="49" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E19" s="18" t="inlineStr">
-        <is>
-          <t>{'data': '65154b0cbe1891535e3c0695', 'message': 'User with UserId: 65154b0cbe1891535e3c0695 was removed.', 'isSuccess': True}</t>
-        </is>
-      </c>
-      <c r="F19" s="18" t="n"/>
-      <c r="G19" s="54" t="inlineStr">
+      <c r="E19" s="49" t="inlineStr">
+        <is>
+          <t>{'data': '65168a2102302bffd7a8c377', 'message': 'User with UserId: 65168a2102302bffd7a8c377 was removed.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F19" s="49" t="n"/>
+      <c r="G19" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H19" s="18" t="inlineStr">
+      <c r="H19" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I19" s="18" t="inlineStr">
-        <is>
-          <t>15:14:33</t>
-        </is>
-      </c>
-      <c r="J19" s="18" t="inlineStr">
-        <is>
-          <t>15:14:46</t>
-        </is>
-      </c>
-      <c r="K19" s="18" t="inlineStr">
-        <is>
-          <t>13.0</t>
+      <c r="I19" s="49" t="inlineStr">
+        <is>
+          <t>13:56:01</t>
+        </is>
+      </c>
+      <c r="J19" s="49" t="inlineStr">
+        <is>
+          <t>13:56:09</t>
+        </is>
+      </c>
+      <c r="K19" s="49" t="inlineStr">
+        <is>
+          <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="20" ht="86.40000000000001" customHeight="1">
       <c r="A20" s="48" t="n"/>
-      <c r="B20" s="18" t="inlineStr">
+      <c r="B20" s="49" t="inlineStr">
         <is>
           <t>Test_19</t>
         </is>
       </c>
-      <c r="C20" s="18" t="n"/>
-      <c r="D20" s="18" t="inlineStr">
+      <c r="C20" s="49" t="n"/>
+      <c r="D20" s="49" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E20" s="18" t="inlineStr">
-        <is>
-          <t>{'data': '65154b18be1891535e3c06cb', 'message': 'User with UserId: 65154b18be1891535e3c06cb was removed.', 'isSuccess': True}</t>
-        </is>
-      </c>
-      <c r="F20" s="18" t="n"/>
-      <c r="G20" s="54" t="inlineStr">
+      <c r="E20" s="49" t="inlineStr">
+        <is>
+          <t>{'data': '65168a2902302bffd7a8c395', 'message': 'User with UserId: 65168a2902302bffd7a8c395 was removed.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F20" s="49" t="n"/>
+      <c r="G20" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H20" s="18" t="inlineStr">
+      <c r="H20" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I20" s="18" t="inlineStr">
-        <is>
-          <t>15:14:46</t>
-        </is>
-      </c>
-      <c r="J20" s="18" t="inlineStr">
-        <is>
-          <t>15:14:59</t>
-        </is>
-      </c>
-      <c r="K20" s="18" t="inlineStr">
-        <is>
-          <t>13.0</t>
+      <c r="I20" s="49" t="inlineStr">
+        <is>
+          <t>13:56:09</t>
+        </is>
+      </c>
+      <c r="J20" s="49" t="inlineStr">
+        <is>
+          <t>13:56:18</t>
+        </is>
+      </c>
+      <c r="K20" s="49" t="inlineStr">
+        <is>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -2785,6 +2775,196 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="15.33203125" customWidth="1" min="3" max="3"/>
+    <col width="23.88671875" customWidth="1" min="4" max="4"/>
+    <col width="26" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="13.5546875" customWidth="1" min="7" max="7"/>
+    <col width="18.6640625" customWidth="1" min="8" max="8"/>
+    <col width="20.33203125" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="57.6" customHeight="1">
+      <c r="A1" s="21" t="inlineStr">
+        <is>
+          <t>Module Name</t>
+        </is>
+      </c>
+      <c r="B1" s="22" t="inlineStr">
+        <is>
+          <t>TestCase</t>
+        </is>
+      </c>
+      <c r="C1" s="23" t="inlineStr">
+        <is>
+          <t>TestCase Description</t>
+        </is>
+      </c>
+      <c r="D1" s="22" t="inlineStr">
+        <is>
+          <t>Request Body</t>
+        </is>
+      </c>
+      <c r="E1" s="22" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="F1" s="23" t="inlineStr">
+        <is>
+          <t>Check_Point/Test_Condition</t>
+        </is>
+      </c>
+      <c r="G1" s="23" t="inlineStr">
+        <is>
+          <t>Result (Pass/Fail)</t>
+        </is>
+      </c>
+      <c r="H1" s="23" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="I1" s="23" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="J1" s="23" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="K1" s="25" t="inlineStr">
+        <is>
+          <t>Total Duration
+(Seconds)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="55.2" customHeight="1">
+      <c r="A2" s="50" t="inlineStr">
+        <is>
+          <t>Identify and enroll</t>
+        </is>
+      </c>
+      <c r="B2" s="51" t="inlineStr">
+        <is>
+          <t>Test_01</t>
+        </is>
+      </c>
+      <c r="C2" s="51" t="n"/>
+      <c r="D2" s="51" t="inlineStr">
+        <is>
+          <t>{'CgroupId': '651bc5a402302bffd7a8d0ca', 'OptOut': False, 'Basis': 1, 'Action': 'call police', 'ActivityType': 'BOMB THREAT', 'BodyMarkings': 'mole on han', 'Build': 'build', 'CaseEventType': 'STORE THREAT', 'CaseNumber': 'theft', 'Enabled': 1, 'Gender': 'MALE', 'HeightType': '5.0-5.5', 'MethodOffence': 'GRAB AND DASH', 'NarrativeDesc': 'narratives', 'ProfileId': '65166d3be119836feb867d23', 'ReportedBy': 'admin', 'ReportedLoss': 5000, 'StoreId': 'pune', 'TimeIncident': '09/29/2023 13:24', 'RegionId': '65166d39e119836feb867cea'}</t>
+        </is>
+      </c>
+      <c r="E2" s="51" t="inlineStr">
+        <is>
+          <t>{'enroll': {'images': [{'confidence': 0.9980553388595581, 'foundEyes': True, 'leftX': 86.5, 'leftY': 109.5, 'maskedFace': 0.19413532316684723, 'nonMaskedFace': 0.805864691734314, 'demographics': {'male': 0.9040898308157921, 'age': 0.4648215174674988, 'indian': 0.002180504845455289, 'white': 0.9902250170707703, 'black': 0.001278943964280188, 'female': 0.09591016918420792, 'other': 0.005713979713618755, 'asian': 0.0006015662220306695, 'unknown': 0, 'ethnicity': 'Unknown'}, 'rightX': 52.5, 'rightY': 116.5, 'sampleQualityTooLow': False}], 'success': True, 'caseId': '651bc5ad02302bffd7a8d0ec'}}</t>
+        </is>
+      </c>
+      <c r="F2" s="51" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="G2" s="53" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="51" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : True</t>
+        </is>
+      </c>
+      <c r="I2" s="51" t="inlineStr">
+        <is>
+          <t>13:11:14</t>
+        </is>
+      </c>
+      <c r="J2" s="51" t="inlineStr">
+        <is>
+          <t>13:11:34</t>
+        </is>
+      </c>
+      <c r="K2" s="51" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="63" customHeight="1">
+      <c r="B3" s="51" t="inlineStr">
+        <is>
+          <t>Test_01</t>
+        </is>
+      </c>
+      <c r="C3" s="51" t="n"/>
+      <c r="D3" s="51" t="inlineStr">
+        <is>
+          <t>{'fields': ['BodyMarkings'], 'caseId': '651bc1d902302bffd7a8d074'}</t>
+        </is>
+      </c>
+      <c r="E3" s="51" t="inlineStr">
+        <is>
+          <t>{'result': {'message': 'Enrollment information has been updated.', 'status': 'ok'}}</t>
+        </is>
+      </c>
+      <c r="F3" s="51" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="G3" s="53" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="51" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I3" s="51" t="inlineStr">
+        <is>
+          <t>12:54:53</t>
+        </is>
+      </c>
+      <c r="J3" s="51" t="inlineStr">
+        <is>
+          <t>12:55:16</t>
+        </is>
+      </c>
+      <c r="K3" s="51" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2880,7 +3060,7 @@
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="39" t="inlineStr">
+      <c r="C2" s="36" t="inlineStr">
         <is>
           <t>Verify create user role</t>
         </is>
@@ -2900,7 +3080,7 @@
           <t>Response Status Code : 200 &amp; Message : Dynamic57</t>
         </is>
       </c>
-      <c r="G2" s="42" t="inlineStr">
+      <c r="G2" s="38" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2910,9 +3090,9 @@
           <t>Response Status Code : 200 &amp; Message : RoleName58</t>
         </is>
       </c>
-      <c r="I2" s="38" t="inlineStr">
-        <is>
-          <t>19:30:17</t>
+      <c r="I2" s="35" t="inlineStr">
+        <is>
+          <t>13:54:17</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -2933,47 +3113,47 @@
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="40" t="inlineStr">
+      <c r="C3" s="37" t="inlineStr">
         <is>
           <t>Verify get all users</t>
         </is>
       </c>
-      <c r="D3" s="18" t="inlineStr">
+      <c r="D3" s="49" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E3" s="18" t="inlineStr">
+      <c r="E3" s="49" t="inlineStr">
         <is>
           <t>{'userRoleInfo': {'userRoles': [{'id': '6509490800b0398858000033', 'roleName': 'facefirst-user-role', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '6509490800b0398858000033'}, {'id': '650dcf09327ea63edec3df4d', 'roleName': 'role', 'description': 'desc', 'enabled': True, 'rights': {'alertGroup': 0, 'profile': 0, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650dcf09327ea63edec3df4d'}, {'id': '650f077a327ea63edec3e171', 'roleName': 'RoleName58', 'description': 'Test Description', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650f077a327ea63edec3e171'}, {'id': '650f0793327ea63edec3e191', 'roleName': 'RoleName55', 'description': 'Test Description', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650f0793327ea63edec3e191'}]}}</t>
         </is>
       </c>
-      <c r="F3" s="18" t="inlineStr">
+      <c r="F3" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 650d7918327ea63edec3d6ac</t>
         </is>
       </c>
-      <c r="G3" s="42" t="inlineStr">
+      <c r="G3" s="38" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 650f0793327ea63edec3e191</t>
         </is>
       </c>
-      <c r="I3" s="18" t="inlineStr">
-        <is>
-          <t>19:30:22</t>
-        </is>
-      </c>
-      <c r="J3" s="18" t="inlineStr">
+      <c r="I3" s="49" t="inlineStr">
+        <is>
+          <t>13:54:20</t>
+        </is>
+      </c>
+      <c r="J3" s="49" t="inlineStr">
         <is>
           <t>21:13:18</t>
         </is>
       </c>
-      <c r="K3" s="18" t="inlineStr">
+      <c r="K3" s="49" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
@@ -2986,47 +3166,47 @@
           <t>Test_03</t>
         </is>
       </c>
-      <c r="C4" s="40" t="inlineStr">
+      <c r="C4" s="37" t="inlineStr">
         <is>
           <t xml:space="preserve">Verify get users id </t>
         </is>
       </c>
-      <c r="D4" s="18" t="inlineStr">
+      <c r="D4" s="49" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E4" s="18" t="inlineStr">
+      <c r="E4" s="49" t="inlineStr">
         <is>
           <t>{'userRoleInfo': {'userRoles': [{'id': '650f07a5327ea63edec3e1b3', 'roleName': 'RoleName10', 'description': 'Test Description', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650f07a5327ea63edec3e1b3'}]}}</t>
         </is>
       </c>
-      <c r="F4" s="18" t="inlineStr">
+      <c r="F4" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 650d7e2e327ea63edec3d7f0</t>
         </is>
       </c>
-      <c r="G4" s="42" t="inlineStr">
+      <c r="G4" s="38" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H4" s="18" t="inlineStr">
+      <c r="H4" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 650f07a5327ea63edec3e1b3</t>
         </is>
       </c>
-      <c r="I4" s="18" t="inlineStr">
-        <is>
-          <t>19:30:30</t>
-        </is>
-      </c>
-      <c r="J4" s="18" t="inlineStr">
+      <c r="I4" s="49" t="inlineStr">
+        <is>
+          <t>13:54:24</t>
+        </is>
+      </c>
+      <c r="J4" s="49" t="inlineStr">
         <is>
           <t>21:13:35</t>
         </is>
       </c>
-      <c r="K4" s="18" t="inlineStr">
+      <c r="K4" s="49" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
@@ -3040,7 +3220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3126,269 +3306,269 @@
       </c>
     </row>
     <row r="2" ht="62.4" customHeight="1">
-      <c r="A2" s="18" t="inlineStr">
+      <c r="A2" s="49" t="inlineStr">
         <is>
           <t>Enrollment Group</t>
         </is>
       </c>
-      <c r="B2" s="18" t="inlineStr">
+      <c r="B2" s="49" t="inlineStr">
         <is>
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="50" t="inlineStr">
+      <c r="C2" s="39" t="inlineStr">
         <is>
           <t>verify the get all enrollment group</t>
         </is>
       </c>
-      <c r="D2" s="18" t="inlineStr">
+      <c r="D2" s="49" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E2" s="18" t="inlineStr">
-        <is>
-          <t>[{'id': '6512826ee3534b7b91f740c0', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '6512a2a9be1891535e3b8703', '6512a24dbe1891535e3b8702', '6512a215be1891535e3b8701'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8a4be1891535e3b87cb', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512bef9be1891535e3b9b10', 'desc': 'b', 'enrollmentGroupIds': ['6512a8a4be1891535e3b87cb'], 'name': 'bb', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512a8aabe1891535e3b87ec', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8b2be1891535e3b8810', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8c1be1891535e3b8859', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8f0be1891535e3b8889', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a985be1891535e3b88a2', 'name': 'test renrollment updated', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aa60be1891535e3b88cd', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aac4be1891535e3b8901', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aafebe1891535e3b8931', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ab92be1891535e3b8a55', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ad95be1891535e3b8ac2', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512adadbe1891535e3b8af2', 'name': 'test enrollment454', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512add9be1891535e3b8b41', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae09be1891535e3b8b71', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae73be1891535e3b8bd8', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae73be1891535e3b8bdb', 'name': 'test enrollment784', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae79be1891535e3b8c0f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae81be1891535e3b8c33', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae90be1891535e3b8c7c', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae9bbe1891535e3b8cb3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b203be1891535e3b8ee7', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b443be1891535e3b9113', 'name': 'test enrollment173', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b797be1891535e3b9589', 'name': 'test enrollment254', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b799be1891535e3b959d', 'desc': 'test description', 'enrollmentGroupIds': ['6512b797be1891535e3b9589'], 'name': 'Test_notification_Api846', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512b7b3be1891535e3b95cc', 'name': 'test enrollment260', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b7b6be1891535e3b95e0', 'desc': 'test description', 'enrollmentGroupIds': ['6512b7b3be1891535e3b95cc'], 'name': 'Test_notification_Api738', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512b8b3be1891535e3b97bd', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b92dbe1891535e3b97ed', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b974be1891535e3b9836', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b9cdbe1891535e3b9886', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ba12be1891535e3b98d3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ba5cbe1891535e3b9920', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bc6ebe1891535e3b997f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bcc5be1891535e3b99d5', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bd1dbe1891535e3b9a36', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bd8dbe1891535e3b9a88', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bf31be1891535e3b9b6d', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c011be1891535e3b9c0e', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c7d2be1891535e3b9dfb', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c7e9be1891535e3b9e56', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c85abe1891535e3b9eb1', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c87fbe1891535e3b9f14', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c92cbe1891535e3b9f76', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ca00be1891535e3b9fe9', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cbfdbe1891535e3ba274', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ce25be1891535e3ba302', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cf13be1891535e3ba37b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cffbbe1891535e3ba410', 'name': 'test enrollment577', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512cfffbe1891535e3ba433', 'desc': 'test description', 'enrollmentGroupIds': ['6512cffbbe1891535e3ba410'], 'name': 'Test_notification_Api231', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d022be1891535e3ba458', 'name': 'test enrollment696', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d027be1891535e3ba47b', 'desc': 'test description', 'enrollmentGroupIds': ['6512d022be1891535e3ba458'], 'name': 'Test_notification_Api831', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d0abbe1891535e3ba4d1', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d0dabe1891535e3ba55f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d150be1891535e3ba683', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d1d9be1891535e3ba75e', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d280be1891535e3ba7cf', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d780be1891535e3ba964', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d7a0be1891535e3ba9d7', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d888be1891535e3baa4a', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d88ebe1891535e3baa6b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d895be1891535e3baa8f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8a5be1891535e3baad8', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8b0be1891535e3bab0f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8b9be1891535e3bab48', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8c6be1891535e3bab95', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8d3be1891535e3babe3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b5d7be1891535e3b935d', 'desc': 'random', 'enrollmentGroupIds': ['6512d8d3be1891535e3babe3'], 'name': 'AA', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d8dfbe1891535e3bac51', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8e5be1891535e3baca6', 'name': 'test enrollment360', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d8e9be1891535e3bacc9', 'desc': 'test description', 'enrollmentGroupIds': ['6512d8e5be1891535e3baca6'], 'name': 'Test_notification_Api580', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d916be1891535e3bad19', 'name': 'test enrollment172', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d919be1891535e3bad2d', 'desc': 'test description', 'enrollmentGroupIds': ['6512d916be1891535e3bad19'], 'name': 'Test_notification_Api631', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d965be1891535e3baf73', 'name': 'test enrollment190', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d969be1891535e3baf96', 'desc': 'test description', 'enrollmentGroupIds': ['6512d965be1891535e3baf73'], 'name': 'Test_notification_Api255', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512fb01be1891535e3bb9cc', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb07be1891535e3bb9e9', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb0fbe1891535e3bba09', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb21be1891535e3bba4a', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb2bbe1891535e3bba7b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb38be1891535e3bbaae', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb45be1891535e3bbaf3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65132350be1891535e3bbed3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}]</t>
-        </is>
-      </c>
-      <c r="F2" s="18" t="inlineStr">
+      <c r="E2" s="49" t="inlineStr">
+        <is>
+          <t>[{'id': '65166d491a1e19a5219d8956', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 2, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167b6402302bffd7a8b98a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b6b02302bffd7a8b997', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b7b02302bffd7a8b9a8', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b8b02302bffd7a8b9ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b9702302bffd7a8b9e3', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167ba302302bffd7a8ba00', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bae02302bffd7a8ba1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bb902302bffd7a8ba3e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167bc702302bffd7a8ba5e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bf002302bffd7a8ba80', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167cb902302bffd7a8bbb5', 'name': 'test enrollment438', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '65167d1702302bffd7a8bd60', 'name': 'test enrollment442', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167d1b02302bffd7a8bd76', 'desc': 'test description', 'enrollmentGroupIds': ['65167d1702302bffd7a8bd60'], 'name': 'Test_notification_Api802', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '6516983902302bffd7a8c3fe', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a2f902302bffd7a8c444', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a35302302bffd7a8c470', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a71e02302bffd7a8c4c7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 2, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aa8902302bffd7a8c572', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aac302302bffd7a8c59e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab0302302bffd7a8c5c6', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab4b02302bffd7a8c5ee', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aba102302bffd7a8c61f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516da5d02302bffd7a8c8d5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db0402302bffd7a8c919', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db6302302bffd7a8c94a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516dd2c02302bffd7a8c999', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e07002302bffd7a8ca27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e1af02302bffd7a8ca89', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e21a02302bffd7a8cabf', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e26602302bffd7a8caf7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3a502302bffd7a8cb36', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3b802302bffd7a8cb67', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb31f02302bffd7a8cce1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}]</t>
+        </is>
+      </c>
+      <c r="F2" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G2" s="54" t="inlineStr">
+      <c r="G2" s="42" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H2" s="18" t="inlineStr">
+      <c r="H2" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I2" s="18" t="inlineStr">
-        <is>
-          <t>19:58:57</t>
-        </is>
-      </c>
-      <c r="J2" s="18" t="inlineStr">
-        <is>
-          <t>19:59:01</t>
-        </is>
-      </c>
-      <c r="K2" s="18" t="inlineStr">
-        <is>
-          <t>4.0</t>
+      <c r="I2" s="49" t="inlineStr">
+        <is>
+          <t>11:53:09</t>
+        </is>
+      </c>
+      <c r="J2" s="49" t="inlineStr">
+        <is>
+          <t>11:53:12</t>
+        </is>
+      </c>
+      <c r="K2" s="49" t="inlineStr">
+        <is>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="3" ht="65.40000000000001" customHeight="1">
       <c r="A3" s="47" t="n"/>
-      <c r="B3" s="18" t="inlineStr">
+      <c r="B3" s="49" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="50" t="inlineStr">
+      <c r="C3" s="39" t="inlineStr">
         <is>
           <t>verify the enrollment groups is created with valid data.</t>
         </is>
       </c>
-      <c r="D3" s="18" t="inlineStr">
+      <c r="D3" s="49" t="inlineStr">
         <is>
           <t>{'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'eventsSuppressionInterval': 0, 'priority': 'Low', 'seriousOffender': 'Low', 'alertHexColor': '#FFFFFF', 'activeThreat': False}</t>
         </is>
       </c>
-      <c r="E3" s="18" t="inlineStr">
-        <is>
-          <t>{'data': '65143c32be1891535e3bdbd4', 'message': 'Enrollment Group 65143c32be1891535e3bdbd4 is created.', 'isSuccess': True}</t>
-        </is>
-      </c>
-      <c r="F3" s="18" t="inlineStr">
+      <c r="E3" s="49" t="inlineStr">
+        <is>
+          <t>{'data': '651bb35402302bffd7a8cd27', 'message': 'Enrollment Group 651bb35402302bffd7a8cd27 is created.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F3" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group 6512d888be1891535e3baa4a is created.</t>
         </is>
       </c>
-      <c r="G3" s="54" t="inlineStr">
+      <c r="G3" s="42" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : Enrollment Group 65143c32be1891535e3bdbd4 is created.</t>
-        </is>
-      </c>
-      <c r="I3" s="18" t="inlineStr">
-        <is>
-          <t>19:59:02</t>
-        </is>
-      </c>
-      <c r="J3" s="18" t="inlineStr">
-        <is>
-          <t>19:59:07</t>
-        </is>
-      </c>
-      <c r="K3" s="18" t="inlineStr">
-        <is>
-          <t>5.0</t>
+      <c r="H3" s="49" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Enrollment Group 651bb35402302bffd7a8cd27 is created.</t>
+        </is>
+      </c>
+      <c r="I3" s="49" t="inlineStr">
+        <is>
+          <t>11:53:12</t>
+        </is>
+      </c>
+      <c r="J3" s="49" t="inlineStr">
+        <is>
+          <t>11:53:15</t>
+        </is>
+      </c>
+      <c r="K3" s="49" t="inlineStr">
+        <is>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="4" ht="87.59999999999999" customHeight="1">
       <c r="A4" s="47" t="n"/>
-      <c r="B4" s="18" t="inlineStr">
+      <c r="B4" s="49" t="inlineStr">
         <is>
           <t>Test_03</t>
         </is>
       </c>
-      <c r="C4" s="50" t="inlineStr">
+      <c r="C4" s="39" t="inlineStr">
         <is>
           <t xml:space="preserve">verify the get single enrollment group </t>
         </is>
       </c>
-      <c r="D4" s="18" t="inlineStr">
-        <is>
-          <t>{'id': '65143c38be1891535e3bdbf1'}</t>
-        </is>
-      </c>
-      <c r="E4" s="18" t="inlineStr">
-        <is>
-          <t>[{'id': '6512826ee3534b7b91f740c0', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '6512a2a9be1891535e3b8703', '6512a24dbe1891535e3b8702', '6512a215be1891535e3b8701'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8a4be1891535e3b87cb', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512bef9be1891535e3b9b10', 'desc': 'b', 'enrollmentGroupIds': ['6512a8a4be1891535e3b87cb'], 'name': 'bb', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512a8aabe1891535e3b87ec', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8b2be1891535e3b8810', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8c1be1891535e3b8859', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8f0be1891535e3b8889', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a985be1891535e3b88a2', 'name': 'test renrollment updated', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aa60be1891535e3b88cd', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aac4be1891535e3b8901', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aafebe1891535e3b8931', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ab92be1891535e3b8a55', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ad95be1891535e3b8ac2', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512adadbe1891535e3b8af2', 'name': 'test enrollment454', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512add9be1891535e3b8b41', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae09be1891535e3b8b71', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae73be1891535e3b8bd8', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae73be1891535e3b8bdb', 'name': 'test enrollment784', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae79be1891535e3b8c0f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae81be1891535e3b8c33', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae90be1891535e3b8c7c', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae9bbe1891535e3b8cb3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b203be1891535e3b8ee7', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b443be1891535e3b9113', 'name': 'test enrollment173', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b797be1891535e3b9589', 'name': 'test enrollment254', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b799be1891535e3b959d', 'desc': 'test description', 'enrollmentGroupIds': ['6512b797be1891535e3b9589'], 'name': 'Test_notification_Api846', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512b7b3be1891535e3b95cc', 'name': 'test enrollment260', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b7b6be1891535e3b95e0', 'desc': 'test description', 'enrollmentGroupIds': ['6512b7b3be1891535e3b95cc'], 'name': 'Test_notification_Api738', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512b8b3be1891535e3b97bd', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b92dbe1891535e3b97ed', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b974be1891535e3b9836', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b9cdbe1891535e3b9886', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ba12be1891535e3b98d3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ba5cbe1891535e3b9920', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bc6ebe1891535e3b997f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bcc5be1891535e3b99d5', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bd1dbe1891535e3b9a36', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bd8dbe1891535e3b9a88', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bf31be1891535e3b9b6d', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c011be1891535e3b9c0e', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c7d2be1891535e3b9dfb', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c7e9be1891535e3b9e56', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c85abe1891535e3b9eb1', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c87fbe1891535e3b9f14', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c92cbe1891535e3b9f76', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ca00be1891535e3b9fe9', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cbfdbe1891535e3ba274', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ce25be1891535e3ba302', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cf13be1891535e3ba37b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cffbbe1891535e3ba410', 'name': 'test enrollment577', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512cfffbe1891535e3ba433', 'desc': 'test description', 'enrollmentGroupIds': ['6512cffbbe1891535e3ba410'], 'name': 'Test_notification_Api231', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d022be1891535e3ba458', 'name': 'test enrollment696', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d027be1891535e3ba47b', 'desc': 'test description', 'enrollmentGroupIds': ['6512d022be1891535e3ba458'], 'name': 'Test_notification_Api831', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d0abbe1891535e3ba4d1', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d0dabe1891535e3ba55f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d150be1891535e3ba683', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d1d9be1891535e3ba75e', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d280be1891535e3ba7cf', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d780be1891535e3ba964', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d7a0be1891535e3ba9d7', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d888be1891535e3baa4a', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d88ebe1891535e3baa6b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d895be1891535e3baa8f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8a5be1891535e3baad8', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8b0be1891535e3bab0f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8b9be1891535e3bab48', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8c6be1891535e3bab95', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8d3be1891535e3babe3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b5d7be1891535e3b935d', 'desc': 'random', 'enrollmentGroupIds': ['6512d8d3be1891535e3babe3'], 'name': 'AA', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d8dfbe1891535e3bac51', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8e5be1891535e3baca6', 'name': 'test enrollment360', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d8e9be1891535e3bacc9', 'desc': 'test description', 'enrollmentGroupIds': ['6512d8e5be1891535e3baca6'], 'name': 'Test_notification_Api580', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d916be1891535e3bad19', 'name': 'test enrollment172', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d919be1891535e3bad2d', 'desc': 'test description', 'enrollmentGroupIds': ['6512d916be1891535e3bad19'], 'name': 'Test_notification_Api631', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d965be1891535e3baf73', 'name': 'test enrollment190', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d969be1891535e3baf96', 'desc': 'test description', 'enrollmentGroupIds': ['6512d965be1891535e3baf73'], 'name': 'Test_notification_Api255', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512fb01be1891535e3bb9cc', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb07be1891535e3bb9e9', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb0fbe1891535e3bba09', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb21be1891535e3bba4a', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb2bbe1891535e3bba7b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb38be1891535e3bbaae', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb45be1891535e3bbaf3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65132350be1891535e3bbed3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65143c32be1891535e3bdbd4', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65143c38be1891535e3bdbf1', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}]</t>
-        </is>
-      </c>
-      <c r="F4" s="18" t="inlineStr">
+      <c r="D4" s="49" t="inlineStr">
+        <is>
+          <t>{'id': '651bb35902302bffd7a8cd34'}</t>
+        </is>
+      </c>
+      <c r="E4" s="49" t="inlineStr">
+        <is>
+          <t>[{'id': '65166d491a1e19a5219d8956', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 2, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167b6402302bffd7a8b98a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b6b02302bffd7a8b997', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b7b02302bffd7a8b9a8', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b8b02302bffd7a8b9ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b9702302bffd7a8b9e3', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167ba302302bffd7a8ba00', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bae02302bffd7a8ba1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bb902302bffd7a8ba3e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167bc702302bffd7a8ba5e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bf002302bffd7a8ba80', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167cb902302bffd7a8bbb5', 'name': 'test enrollment438', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '65167d1702302bffd7a8bd60', 'name': 'test enrollment442', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167d1b02302bffd7a8bd76', 'desc': 'test description', 'enrollmentGroupIds': ['65167d1702302bffd7a8bd60'], 'name': 'Test_notification_Api802', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '6516983902302bffd7a8c3fe', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a2f902302bffd7a8c444', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a35302302bffd7a8c470', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a71e02302bffd7a8c4c7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 2, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aa8902302bffd7a8c572', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aac302302bffd7a8c59e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab0302302bffd7a8c5c6', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab4b02302bffd7a8c5ee', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aba102302bffd7a8c61f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516da5d02302bffd7a8c8d5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db0402302bffd7a8c919', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db6302302bffd7a8c94a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516dd2c02302bffd7a8c999', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e07002302bffd7a8ca27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e1af02302bffd7a8ca89', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e21a02302bffd7a8cabf', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e26602302bffd7a8caf7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3a502302bffd7a8cb36', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3b802302bffd7a8cb67', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb31f02302bffd7a8cce1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35402302bffd7a8cd27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35902302bffd7a8cd34', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}]</t>
+        </is>
+      </c>
+      <c r="F4" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G4" s="54" t="inlineStr">
+      <c r="G4" s="42" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H4" s="18" t="inlineStr">
+      <c r="H4" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I4" s="18" t="inlineStr">
-        <is>
-          <t>19:59:07</t>
-        </is>
-      </c>
-      <c r="J4" s="18" t="inlineStr">
-        <is>
-          <t>19:59:14</t>
-        </is>
-      </c>
-      <c r="K4" s="18" t="inlineStr">
-        <is>
-          <t>7.0</t>
+      <c r="I4" s="49" t="inlineStr">
+        <is>
+          <t>11:53:15</t>
+        </is>
+      </c>
+      <c r="J4" s="49" t="inlineStr">
+        <is>
+          <t>11:53:23</t>
+        </is>
+      </c>
+      <c r="K4" s="49" t="inlineStr">
+        <is>
+          <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="5" ht="89.40000000000001" customHeight="1">
       <c r="A5" s="47" t="n"/>
-      <c r="B5" s="18" t="inlineStr">
+      <c r="B5" s="49" t="inlineStr">
         <is>
           <t>Test_04</t>
         </is>
       </c>
-      <c r="C5" s="50" t="inlineStr">
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>verify the update enrollnment group</t>
         </is>
       </c>
-      <c r="D5" s="18" t="inlineStr">
+      <c r="D5" s="49" t="inlineStr">
         <is>
           <t>{'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'eventsSuppressionInterval': 0, 'priority': 'Low', 'seriousOffender': 'Low', 'alertHexColor': '#FFFFFF', 'activeThreat': False}</t>
         </is>
       </c>
-      <c r="E5" s="18" t="inlineStr">
-        <is>
-          <t>{'data': '65143c3fbe1891535e3bdc11', 'message': 'Enrollment Group is updated', 'isSuccess': True}</t>
-        </is>
-      </c>
-      <c r="F5" s="18" t="inlineStr">
+      <c r="E5" s="49" t="inlineStr">
+        <is>
+          <t>{'data': '651bb36002302bffd7a8cd44', 'message': 'Enrollment Group is updated', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F5" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group is updated</t>
         </is>
       </c>
-      <c r="G5" s="54" t="inlineStr">
+      <c r="G5" s="42" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H5" s="18" t="inlineStr">
+      <c r="H5" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group is updated</t>
         </is>
       </c>
-      <c r="I5" s="18" t="inlineStr">
-        <is>
-          <t>19:59:14</t>
-        </is>
-      </c>
-      <c r="J5" s="18" t="inlineStr">
-        <is>
-          <t>19:59:22</t>
-        </is>
-      </c>
-      <c r="K5" s="18" t="inlineStr">
-        <is>
-          <t>8.0</t>
+      <c r="I5" s="49" t="inlineStr">
+        <is>
+          <t>11:53:23</t>
+        </is>
+      </c>
+      <c r="J5" s="49" t="inlineStr">
+        <is>
+          <t>11:53:28</t>
+        </is>
+      </c>
+      <c r="K5" s="49" t="inlineStr">
+        <is>
+          <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="6" ht="66.59999999999999" customHeight="1">
       <c r="A6" s="47" t="n"/>
-      <c r="B6" s="18" t="inlineStr">
+      <c r="B6" s="49" t="inlineStr">
         <is>
           <t>Test_05</t>
         </is>
       </c>
-      <c r="C6" s="50" t="inlineStr">
+      <c r="C6" s="39" t="inlineStr">
         <is>
           <t>verify remove a single Enrollment Group from collection</t>
         </is>
       </c>
-      <c r="D6" s="18" t="inlineStr">
+      <c r="D6" s="49" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E6" s="18" t="inlineStr">
-        <is>
-          <t>{'data': True, 'message': 'Enrollment Group 65143c47be1891535e3bdc31 is removed.', 'isSuccess': True}</t>
-        </is>
-      </c>
-      <c r="F6" s="18" t="inlineStr">
+      <c r="E6" s="49" t="inlineStr">
+        <is>
+          <t>{'data': True, 'message': 'Enrollment Group 651bb36602302bffd7a8cd54 is removed.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F6" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group 6512d89dbe1891535e3baab3 is removed.</t>
         </is>
       </c>
-      <c r="G6" s="54" t="inlineStr">
+      <c r="G6" s="42" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H6" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : Enrollment Group 65143c47be1891535e3bdc31 is removed.</t>
-        </is>
-      </c>
-      <c r="I6" s="18" t="inlineStr">
-        <is>
-          <t>19:59:22</t>
-        </is>
-      </c>
-      <c r="J6" s="18" t="inlineStr">
-        <is>
-          <t>19:59:29</t>
-        </is>
-      </c>
-      <c r="K6" s="18" t="inlineStr">
+      <c r="H6" s="49" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Enrollment Group 651bb36602302bffd7a8cd54 is removed.</t>
+        </is>
+      </c>
+      <c r="I6" s="49" t="inlineStr">
+        <is>
+          <t>11:53:28</t>
+        </is>
+      </c>
+      <c r="J6" s="49" t="inlineStr">
+        <is>
+          <t>11:53:35</t>
+        </is>
+      </c>
+      <c r="K6" s="49" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>
@@ -3396,319 +3576,319 @@
     </row>
     <row r="7" ht="87.59999999999999" customHeight="1">
       <c r="A7" s="47" t="n"/>
-      <c r="B7" s="18" t="inlineStr">
+      <c r="B7" s="49" t="inlineStr">
         <is>
           <t>Test_06</t>
         </is>
       </c>
-      <c r="C7" s="50" t="inlineStr">
+      <c r="C7" s="39" t="inlineStr">
         <is>
           <t>verify create enrollment group with addCaseGroupZone</t>
         </is>
       </c>
-      <c r="D7" s="18" t="inlineStr">
-        <is>
-          <t>{'cGroupId': '65143c4ebe1891535e3bdc52', 'zoneIds': ['65128303f174a38fadf060cf']}</t>
-        </is>
-      </c>
-      <c r="E7" s="18" t="inlineStr">
-        <is>
-          <t>{'result': {'message': "Zones added to enrollment group id '65143c4ebe1891535e3bdc52' for account 6512825db5505c9518c38e90.", 'status': 'ok'}}</t>
-        </is>
-      </c>
-      <c r="F7" s="18" t="inlineStr">
+      <c r="D7" s="49" t="inlineStr">
+        <is>
+          <t>{'cGroupId': '651bb36e02302bffd7a8cd65', 'zoneIds': ['65166dbed319a18d9ce09c00']}</t>
+        </is>
+      </c>
+      <c r="E7" s="49" t="inlineStr">
+        <is>
+          <t>{'result': {'message': "Zones added to enrollment group id '651bb36e02302bffd7a8cd65' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
+        </is>
+      </c>
+      <c r="F7" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Zones added to enrollment group id '6512d8a5be1891535e3baad8' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G7" s="54" t="inlineStr">
+      <c r="G7" s="42" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H7" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : Zones added to enrollment group id '65143c4ebe1891535e3bdc52' for account 6512825db5505c9518c38e90.</t>
-        </is>
-      </c>
-      <c r="I7" s="18" t="inlineStr">
-        <is>
-          <t>19:59:29</t>
-        </is>
-      </c>
-      <c r="J7" s="18" t="inlineStr">
-        <is>
-          <t>19:59:38</t>
-        </is>
-      </c>
-      <c r="K7" s="18" t="inlineStr">
-        <is>
-          <t>9.0</t>
+      <c r="H7" s="49" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Zones added to enrollment group id '651bb36e02302bffd7a8cd65' for account 65166d39e119836feb867ce8.</t>
+        </is>
+      </c>
+      <c r="I7" s="49" t="inlineStr">
+        <is>
+          <t>11:53:35</t>
+        </is>
+      </c>
+      <c r="J7" s="49" t="inlineStr">
+        <is>
+          <t>11:53:45</t>
+        </is>
+      </c>
+      <c r="K7" s="49" t="inlineStr">
+        <is>
+          <t>10.0</t>
         </is>
       </c>
     </row>
     <row r="8" ht="106.2" customHeight="1">
       <c r="A8" s="47" t="n"/>
-      <c r="B8" s="18" t="inlineStr">
+      <c r="B8" s="49" t="inlineStr">
         <is>
           <t>Test_07</t>
         </is>
       </c>
-      <c r="C8" s="50" t="inlineStr">
+      <c r="C8" s="39" t="inlineStr">
         <is>
           <t>verify removeCaseGroupZone</t>
         </is>
       </c>
-      <c r="D8" s="18" t="inlineStr">
-        <is>
-          <t>{'cGroupId': '65143c58be1891535e3bdc83', 'zoneIds': ['65128303f174a38fadf060cf']}</t>
-        </is>
-      </c>
-      <c r="E8" s="18" t="inlineStr">
-        <is>
-          <t>{'result': {'message': "Zones removed to case group id '65143c58be1891535e3bdc83' for account 6512825db5505c9518c38e90.", 'status': 'ok'}}</t>
-        </is>
-      </c>
-      <c r="F8" s="18" t="inlineStr">
+      <c r="D8" s="49" t="inlineStr">
+        <is>
+          <t>{'cGroupId': '651bb37902302bffd7a8cd7e', 'zoneIds': ['65166dbed319a18d9ce09c00']}</t>
+        </is>
+      </c>
+      <c r="E8" s="49" t="inlineStr">
+        <is>
+          <t>{'result': {'message': "Zones removed to case group id '651bb37902302bffd7a8cd7e' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
+        </is>
+      </c>
+      <c r="F8" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Zones removed to case group id '6512d8b0be1891535e3bab0f' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G8" s="54" t="inlineStr">
+      <c r="G8" s="42" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H8" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : Zones removed to case group id '65143c58be1891535e3bdc83' for account 6512825db5505c9518c38e90.</t>
-        </is>
-      </c>
-      <c r="I8" s="18" t="inlineStr">
-        <is>
-          <t>19:59:39</t>
-        </is>
-      </c>
-      <c r="J8" s="18" t="inlineStr">
-        <is>
-          <t>19:59:48</t>
-        </is>
-      </c>
-      <c r="K8" s="18" t="inlineStr">
-        <is>
-          <t>9.0</t>
+      <c r="H8" s="49" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Zones removed to case group id '651bb37902302bffd7a8cd7e' for account 65166d39e119836feb867ce8.</t>
+        </is>
+      </c>
+      <c r="I8" s="49" t="inlineStr">
+        <is>
+          <t>11:53:46</t>
+        </is>
+      </c>
+      <c r="J8" s="49" t="inlineStr">
+        <is>
+          <t>11:53:56</t>
+        </is>
+      </c>
+      <c r="K8" s="49" t="inlineStr">
+        <is>
+          <t>10.0</t>
         </is>
       </c>
     </row>
     <row r="9" ht="77.40000000000001" customHeight="1">
       <c r="A9" s="47" t="n"/>
-      <c r="B9" s="18" t="inlineStr">
+      <c r="B9" s="49" t="inlineStr">
         <is>
           <t>Test_08</t>
         </is>
       </c>
-      <c r="C9" s="50" t="inlineStr">
+      <c r="C9" s="39" t="inlineStr">
         <is>
           <t>verify update enrollment group using addCaseGroupCase</t>
         </is>
       </c>
-      <c r="D9" s="18" t="inlineStr">
-        <is>
-          <t>{'id': ['6512825db5505c9518c38e90'], 'case_id': '6512b0acbe1891535e3b8ddc', 'cgroup_id': '65143c62be1891535e3bdcb6'}</t>
-        </is>
-      </c>
-      <c r="E9" s="18" t="inlineStr">
-        <is>
-          <t>{'result': {'message': "Enrollment added to enrollment group id '65143c62be1891535e3bdcb6' for account 6512825db5505c9518c38e90.", 'status': 'ok'}}</t>
-        </is>
-      </c>
-      <c r="F9" s="18" t="inlineStr">
+      <c r="D9" s="49" t="inlineStr">
+        <is>
+          <t>{'id': ['65166d39e119836feb867ce8'], 'case_id': '6516a90202302bffd7a8c4fb', 'cgroup_id': '651bb38402302bffd7a8cd99'}</t>
+        </is>
+      </c>
+      <c r="E9" s="49" t="inlineStr">
+        <is>
+          <t>{'result': {'message': "Enrollment added to enrollment group id '651bb38402302bffd7a8cd99' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
+        </is>
+      </c>
+      <c r="F9" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment added to enrollment group id '6512d8b9be1891535e3bab48' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G9" s="54" t="inlineStr">
+      <c r="G9" s="42" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H9" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : Enrollment added to enrollment group id '65143c62be1891535e3bdcb6' for account 6512825db5505c9518c38e90.</t>
-        </is>
-      </c>
-      <c r="I9" s="18" t="inlineStr">
-        <is>
-          <t>19:59:49</t>
-        </is>
-      </c>
-      <c r="J9" s="18" t="inlineStr">
-        <is>
-          <t>20:00:01</t>
-        </is>
-      </c>
-      <c r="K9" s="18" t="inlineStr">
-        <is>
-          <t>12.0</t>
+      <c r="H9" s="49" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Enrollment added to enrollment group id '651bb38402302bffd7a8cd99' for account 65166d39e119836feb867ce8.</t>
+        </is>
+      </c>
+      <c r="I9" s="49" t="inlineStr">
+        <is>
+          <t>11:53:57</t>
+        </is>
+      </c>
+      <c r="J9" s="49" t="inlineStr">
+        <is>
+          <t>11:54:10</t>
+        </is>
+      </c>
+      <c r="K9" s="49" t="inlineStr">
+        <is>
+          <t>13.0</t>
         </is>
       </c>
     </row>
     <row r="10" ht="99.59999999999999" customHeight="1">
       <c r="A10" s="47" t="n"/>
-      <c r="B10" s="18" t="inlineStr">
+      <c r="B10" s="49" t="inlineStr">
         <is>
           <t>Test_09</t>
         </is>
       </c>
-      <c r="C10" s="50" t="inlineStr">
+      <c r="C10" s="39" t="inlineStr">
         <is>
           <t>verify removeCaseGroupCase</t>
         </is>
       </c>
-      <c r="D10" s="18" t="inlineStr">
-        <is>
-          <t>{'id': ['6512825db5505c9518c38e90'], 'case_id': '6512b0acbe1891535e3b8ddc', 'cgroup_id': '65143c6ebe1891535e3bdcfb'}</t>
-        </is>
-      </c>
-      <c r="E10" s="18" t="inlineStr">
-        <is>
-          <t>{'result': {'message': "Enrollment removed from enrollment group id '65143c6ebe1891535e3bdcfb' for account 6512825db5505c9518c38e90.", 'status': 'ok'}}</t>
-        </is>
-      </c>
-      <c r="F10" s="18" t="inlineStr">
+      <c r="D10" s="49" t="inlineStr">
+        <is>
+          <t>{'id': ['65166d39e119836feb867ce8'], 'case_id': '6516a90202302bffd7a8c4fb', 'cgroup_id': '651bb39202302bffd7a8cddc'}</t>
+        </is>
+      </c>
+      <c r="E10" s="49" t="inlineStr">
+        <is>
+          <t>{'result': {'message': "Enrollment removed from enrollment group id '651bb39202302bffd7a8cddc' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
+        </is>
+      </c>
+      <c r="F10" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment removed from enrollment group id '6512d8c6be1891535e3bab95' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G10" s="54" t="inlineStr">
+      <c r="G10" s="42" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H10" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : Enrollment removed from enrollment group id '65143c6ebe1891535e3bdcfb' for account 6512825db5505c9518c38e90.</t>
-        </is>
-      </c>
-      <c r="I10" s="18" t="inlineStr">
-        <is>
-          <t>20:00:01</t>
-        </is>
-      </c>
-      <c r="J10" s="18" t="inlineStr">
-        <is>
-          <t>20:00:13</t>
-        </is>
-      </c>
-      <c r="K10" s="18" t="inlineStr">
-        <is>
-          <t>12.0</t>
+      <c r="H10" s="49" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Enrollment removed from enrollment group id '651bb39202302bffd7a8cddc' for account 65166d39e119836feb867ce8.</t>
+        </is>
+      </c>
+      <c r="I10" s="49" t="inlineStr">
+        <is>
+          <t>11:54:11</t>
+        </is>
+      </c>
+      <c r="J10" s="49" t="inlineStr">
+        <is>
+          <t>11:54:28</t>
+        </is>
+      </c>
+      <c r="K10" s="49" t="inlineStr">
+        <is>
+          <t>17.0</t>
         </is>
       </c>
     </row>
     <row r="11" ht="94.2" customHeight="1">
       <c r="A11" s="47" t="n"/>
-      <c r="B11" s="18" t="inlineStr">
+      <c r="B11" s="49" t="inlineStr">
         <is>
           <t>Test_10</t>
         </is>
       </c>
-      <c r="C11" s="50" t="inlineStr">
+      <c r="C11" s="39" t="inlineStr">
         <is>
           <t>verify update enrollment group using addAlertGroupCase</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
-        <is>
-          <t>{'CGroupID': '65143c7abe1891535e3bdd40', 'AGroupID': '6512b5d7be1891535e3b935d'}</t>
-        </is>
-      </c>
-      <c r="E11" s="18" t="inlineStr">
-        <is>
-          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been added to the alert group with id = 65143c7abe1891535e3bdd40'}}</t>
-        </is>
-      </c>
-      <c r="F11" s="18" t="inlineStr">
+      <c r="D11" s="49" t="inlineStr">
+        <is>
+          <t>{'CGroupID': '651bb3a302302bffd7a8ce1f', 'AGroupID': '65166d491a1e19a5219d895d'}</t>
+        </is>
+      </c>
+      <c r="E11" s="49" t="inlineStr">
+        <is>
+          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been added to the alert group with id = 651bb3a302302bffd7a8ce1f'}}</t>
+        </is>
+      </c>
+      <c r="F11" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been added to the alert group with id = 6512d8d3be1891535e3babe3</t>
         </is>
       </c>
-      <c r="G11" s="54" t="inlineStr">
+      <c r="G11" s="42" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H11" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been added to the alert group with id = 65143c7abe1891535e3bdd40</t>
-        </is>
-      </c>
-      <c r="I11" s="18" t="inlineStr">
-        <is>
-          <t>20:00:13</t>
-        </is>
-      </c>
-      <c r="J11" s="18" t="inlineStr">
-        <is>
-          <t>20:00:22</t>
-        </is>
-      </c>
-      <c r="K11" s="18" t="inlineStr">
-        <is>
-          <t>9.0</t>
+      <c r="H11" s="49" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been added to the alert group with id = 651bb3a302302bffd7a8ce1f</t>
+        </is>
+      </c>
+      <c r="I11" s="49" t="inlineStr">
+        <is>
+          <t>11:54:28</t>
+        </is>
+      </c>
+      <c r="J11" s="49" t="inlineStr">
+        <is>
+          <t>11:54:40</t>
+        </is>
+      </c>
+      <c r="K11" s="49" t="inlineStr">
+        <is>
+          <t>12.0</t>
         </is>
       </c>
     </row>
     <row r="12" ht="94.2" customHeight="1">
       <c r="A12" s="48" t="n"/>
-      <c r="B12" s="18" t="inlineStr">
+      <c r="B12" s="49" t="inlineStr">
         <is>
           <t>Test_11</t>
         </is>
       </c>
-      <c r="C12" s="50" t="inlineStr">
+      <c r="C12" s="39" t="inlineStr">
         <is>
           <t>verify removeAlertGroupCase</t>
         </is>
       </c>
-      <c r="D12" s="18" t="inlineStr">
-        <is>
-          <t>{'CGroupID': '65143c85be1891535e3bddb6', 'AGroupID': '6512b5d7be1891535e3b935d'}</t>
-        </is>
-      </c>
-      <c r="E12" s="18" t="inlineStr">
-        <is>
-          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been removed from the alert group with id = 65143c85be1891535e3bddb6'}}</t>
-        </is>
-      </c>
-      <c r="F12" s="18" t="inlineStr">
+      <c r="D12" s="49" t="inlineStr">
+        <is>
+          <t>{'CGroupID': '651bb3af02302bffd7a8ce4f', 'AGroupID': '65166d491a1e19a5219d895d'}</t>
+        </is>
+      </c>
+      <c r="E12" s="49" t="inlineStr">
+        <is>
+          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been removed from the alert group with id = 651bb3af02302bffd7a8ce4f'}}</t>
+        </is>
+      </c>
+      <c r="F12" s="49" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been removed from the alert group with id = 6512d8dfbe1891535e3bac51</t>
         </is>
       </c>
-      <c r="G12" s="54" t="inlineStr">
+      <c r="G12" s="42" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
-      <c r="H12" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been removed from the alert group with id = 65143c85be1891535e3bddb6</t>
-        </is>
-      </c>
-      <c r="I12" s="18" t="inlineStr">
-        <is>
-          <t>20:00:23</t>
-        </is>
-      </c>
-      <c r="J12" s="18" t="inlineStr">
-        <is>
-          <t>20:00:34</t>
-        </is>
-      </c>
-      <c r="K12" s="18" t="inlineStr">
-        <is>
-          <t>11.0</t>
+      <c r="H12" s="49" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been removed from the alert group with id = 651bb3af02302bffd7a8ce4f</t>
+        </is>
+      </c>
+      <c r="I12" s="49" t="inlineStr">
+        <is>
+          <t>11:54:40</t>
+        </is>
+      </c>
+      <c r="J12" s="49" t="inlineStr">
+        <is>
+          <t>11:54:52</t>
+        </is>
+      </c>
+      <c r="K12" s="49" t="inlineStr">
+        <is>
+          <t>12.0</t>
         </is>
       </c>
     </row>

--- a/Reports/API_Excel_Report/API_excel_report.xlsx
+++ b/Reports/API_Excel_Report/API_excel_report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="1" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="4" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,11 +11,14 @@
     <sheet name="Users_Test_Results" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="User_Role_Test_Results" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Enrollment_Group_Test_Results" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Notification_Groups_Test_Result" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Zones_Test_Result" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Account_Test_Result" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Login_Test_Results'!$G$1:$G$116</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -129,8 +132,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -163,12 +172,6 @@
         <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -439,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -476,9 +479,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -521,32 +521,44 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -559,29 +571,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,57 +1063,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1">
-      <c r="A1" s="21" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>Test No</t>
         </is>
       </c>
-      <c r="B1" s="22" t="inlineStr">
+      <c r="B1" s="21" t="inlineStr">
         <is>
           <t>TestCase</t>
         </is>
       </c>
-      <c r="C1" s="23" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>TestCase Description</t>
         </is>
       </c>
-      <c r="D1" s="22" t="inlineStr">
+      <c r="D1" s="21" t="inlineStr">
         <is>
           <t>Request Body</t>
         </is>
       </c>
-      <c r="E1" s="22" t="inlineStr">
+      <c r="E1" s="21" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="F1" s="23" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>Check_Point/Test_Condition</t>
         </is>
       </c>
-      <c r="G1" s="23" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Result (Pass/Fail)</t>
         </is>
       </c>
-      <c r="H1" s="23" t="inlineStr">
+      <c r="H1" s="22" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="I1" s="24" t="inlineStr">
+      <c r="I1" s="23" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="J1" s="24" t="inlineStr">
+      <c r="J1" s="23" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Total Duration
 (Seconds)</t>
@@ -1103,7 +1121,7 @@
       </c>
     </row>
     <row r="2" ht="58.2" customHeight="1">
-      <c r="A2" s="43" t="inlineStr">
+      <c r="A2" s="46" t="inlineStr">
         <is>
           <t>Login</t>
         </is>
@@ -1133,7 +1151,7 @@
           <t>Validate Status Code : 200 &amp; Message : You have been logged in.</t>
         </is>
       </c>
-      <c r="G2" s="54" t="inlineStr">
+      <c r="G2" s="39" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1153,182 +1171,182 @@
           <t>19:10:39</t>
         </is>
       </c>
-      <c r="K2" s="26" t="inlineStr">
+      <c r="K2" s="25" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="3" ht="62.4" customHeight="1">
-      <c r="A3" s="44" t="n"/>
+      <c r="A3" s="47" t="n"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="19" t="inlineStr">
+      <c r="C3" s="18" t="inlineStr">
         <is>
           <t>To verify the Login API with invalid data.</t>
         </is>
       </c>
-      <c r="D3" s="18" t="inlineStr">
+      <c r="D3" s="52" t="inlineStr">
         <is>
           <t>{'username': ' wrongUsername', 'password': 'Right_1r1s', 'lat': 'undefined', 'lon': 'undefined'}</t>
         </is>
       </c>
-      <c r="E3" s="18" t="inlineStr">
+      <c r="E3" s="52" t="inlineStr">
         <is>
           <t>{'result': {'cookies': '', 'message': "Invalid username ' wrongUsername'"}}</t>
         </is>
       </c>
-      <c r="F3" s="18" t="inlineStr">
+      <c r="F3" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Invalid password</t>
         </is>
       </c>
-      <c r="G3" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="G3" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Invalid username ' wrongUsername'</t>
         </is>
       </c>
-      <c r="I3" s="20" t="inlineStr">
+      <c r="I3" s="19" t="inlineStr">
         <is>
           <t>19:10:39</t>
         </is>
       </c>
-      <c r="J3" s="20" t="inlineStr">
+      <c r="J3" s="19" t="inlineStr">
         <is>
           <t>19:10:40</t>
         </is>
       </c>
-      <c r="K3" s="27" t="inlineStr">
+      <c r="K3" s="26" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="4" ht="43.2" customHeight="1">
-      <c r="A4" s="44" t="n"/>
+      <c r="A4" s="47" t="n"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Test_03</t>
         </is>
       </c>
-      <c r="C4" s="18" t="n"/>
-      <c r="D4" s="18" t="inlineStr">
+      <c r="C4" s="52" t="n"/>
+      <c r="D4" s="52" t="inlineStr">
         <is>
           <t>{'username': 'core', 'password': ' wrongPassowrd', 'lat': 'undefined', 'lon': 'undefined'}</t>
         </is>
       </c>
-      <c r="E4" s="18" t="inlineStr">
+      <c r="E4" s="52" t="inlineStr">
         <is>
           <t>{'result': {'cookies': '', 'message': "Password didn't matched"}}</t>
         </is>
       </c>
-      <c r="F4" s="18" t="inlineStr">
+      <c r="F4" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Password didn't matched</t>
         </is>
       </c>
-      <c r="G4" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H4" s="18" t="inlineStr">
+      <c r="G4" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Password didn't matched</t>
         </is>
       </c>
-      <c r="I4" s="20" t="inlineStr">
+      <c r="I4" s="19" t="inlineStr">
         <is>
           <t>19:10:41</t>
         </is>
       </c>
-      <c r="J4" s="20" t="inlineStr">
+      <c r="J4" s="19" t="inlineStr">
         <is>
           <t>19:10:42</t>
         </is>
       </c>
-      <c r="K4" s="27" t="inlineStr">
+      <c r="K4" s="26" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="5" ht="43.2" customHeight="1">
-      <c r="A5" s="44" t="n"/>
+      <c r="A5" s="47" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Test_04</t>
         </is>
       </c>
-      <c r="C5" s="18" t="n"/>
-      <c r="D5" s="18" t="inlineStr">
+      <c r="C5" s="52" t="n"/>
+      <c r="D5" s="52" t="inlineStr">
         <is>
           <t>{'username': ' wrongUsername', 'password': ' wrongPassowrd', 'lat': 'undefined', 'lon': 'undefined'}</t>
         </is>
       </c>
-      <c r="E5" s="18" t="inlineStr">
+      <c r="E5" s="52" t="inlineStr">
         <is>
           <t>{'result': {'cookies': '', 'message': "Invalid username ' wrongUsername'"}}</t>
         </is>
       </c>
-      <c r="F5" s="18" t="inlineStr">
+      <c r="F5" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Invalid username ' wrongUsername'</t>
         </is>
       </c>
-      <c r="G5" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H5" s="18" t="inlineStr">
+      <c r="G5" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Invalid username ' wrongUsername'</t>
         </is>
       </c>
-      <c r="I5" s="20" t="inlineStr">
+      <c r="I5" s="19" t="inlineStr">
         <is>
           <t>19:10:42</t>
         </is>
       </c>
-      <c r="J5" s="20" t="inlineStr">
+      <c r="J5" s="19" t="inlineStr">
         <is>
           <t>19:10:44</t>
         </is>
       </c>
-      <c r="K5" s="27" t="inlineStr">
+      <c r="K5" s="26" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="6" ht="163.2" customHeight="1" thickBot="1">
-      <c r="A6" s="45" t="n"/>
-      <c r="B6" s="28" t="inlineStr">
+      <c r="A6" s="48" t="n"/>
+      <c r="B6" s="27" t="inlineStr">
         <is>
           <t>Test_05</t>
         </is>
       </c>
-      <c r="C6" s="29" t="n"/>
-      <c r="D6" s="29" t="inlineStr">
+      <c r="C6" s="28" t="n"/>
+      <c r="D6" s="28" t="inlineStr">
         <is>
           <t>{'username': None, 'password': None, 'lat': 'undefined', 'lon': 'undefined'}</t>
         </is>
       </c>
-      <c r="E6" s="29" t="inlineStr">
+      <c r="E6" s="28" t="inlineStr">
         <is>
           <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Username: Missing Username Severity: Error\r\n -- Username: Missing Username Severity: Error\r\n -- Password: Missing Password Severity: Error\r\n -- Password: Missing Password Severity: Error', 'innerException': None, 'requestId': '00-88d3a45f033cf5adeb15f0b7267c7221-223dd93beffe9c38-00', 'requestPath': '/api/login', 'connectionId': '0HMTUBVM2V1KP'}}</t>
         </is>
       </c>
-      <c r="F6" s="29" t="inlineStr">
+      <c r="F6" s="28" t="inlineStr">
         <is>
           <t>Response Status Code : 500 &amp; Message : Validation failed: 
  -- Username: Missing Username Severity: Error
@@ -1337,12 +1355,12 @@
  -- Password: Missing Password Severity: Error</t>
         </is>
       </c>
-      <c r="G6" s="55" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H6" s="29" t="inlineStr">
+      <c r="G6" s="40" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" s="28" t="inlineStr">
         <is>
           <t>Response Status Code : 500 &amp; Message : Validation failed: 
  -- Username: Missing Username Severity: Error
@@ -1351,17 +1369,17 @@
  -- Password: Missing Password Severity: Error</t>
         </is>
       </c>
-      <c r="I6" s="30" t="inlineStr">
+      <c r="I6" s="29" t="inlineStr">
         <is>
           <t>19:10:44</t>
         </is>
       </c>
-      <c r="J6" s="30" t="inlineStr">
+      <c r="J6" s="29" t="inlineStr">
         <is>
           <t>19:10:46</t>
         </is>
       </c>
-      <c r="K6" s="31" t="inlineStr">
+      <c r="K6" s="30" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
@@ -1825,7 +1843,7 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -1844,57 +1862,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.8" customHeight="1">
-      <c r="A1" s="21" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>Test No</t>
         </is>
       </c>
-      <c r="B1" s="22" t="inlineStr">
+      <c r="B1" s="21" t="inlineStr">
         <is>
           <t>TestCase</t>
         </is>
       </c>
-      <c r="C1" s="23" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>TestCase Description</t>
         </is>
       </c>
-      <c r="D1" s="22" t="inlineStr">
+      <c r="D1" s="21" t="inlineStr">
         <is>
           <t>Request Body</t>
         </is>
       </c>
-      <c r="E1" s="22" t="inlineStr">
+      <c r="E1" s="21" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="F1" s="23" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>Check_Point/Test_Condition</t>
         </is>
       </c>
-      <c r="G1" s="23" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Result (Pass/Fail)</t>
         </is>
       </c>
-      <c r="H1" s="23" t="inlineStr">
+      <c r="H1" s="22" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="I1" s="23" t="inlineStr">
+      <c r="I1" s="22" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="J1" s="23" t="inlineStr">
+      <c r="J1" s="22" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Total Duration
 (Seconds)</t>
@@ -1902,7 +1920,7 @@
       </c>
     </row>
     <row r="2" ht="117" customHeight="1">
-      <c r="A2" s="46" t="inlineStr">
+      <c r="A2" s="49" t="inlineStr">
         <is>
           <t>Users</t>
         </is>
@@ -1912,7 +1930,7 @@
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="32" t="inlineStr">
+      <c r="C2" s="31" t="inlineStr">
         <is>
           <t>Verify create user API</t>
         </is>
@@ -1932,7 +1950,7 @@
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="G2" s="54" t="inlineStr">
+      <c r="G2" s="39" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1942,9 +1960,9 @@
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I2" s="38" t="inlineStr">
-        <is>
-          <t>15:11:48</t>
+      <c r="I2" s="34" t="inlineStr">
+        <is>
+          <t>17:04:09</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -1959,818 +1977,818 @@
       </c>
     </row>
     <row r="3" ht="96" customHeight="1">
-      <c r="A3" s="47" t="n"/>
+      <c r="A3" s="50" t="n"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="19" t="n"/>
-      <c r="D3" s="18" t="inlineStr">
+      <c r="C3" s="18" t="n"/>
+      <c r="D3" s="52" t="inlineStr">
         <is>
           <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': True, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'username': 'test409613', 'password': 'Right_1r1s'}</t>
         </is>
       </c>
-      <c r="E3" s="18" t="inlineStr">
+      <c r="E3" s="52" t="inlineStr">
         <is>
           <t>{'username': 'test409613', 'userID': '65154a72be1891535e3c04aa', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
         </is>
       </c>
-      <c r="F3" s="18" t="inlineStr">
+      <c r="F3" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="G3" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="G3" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I3" s="18" t="inlineStr">
+      <c r="I3" s="52" t="inlineStr">
         <is>
           <t>15:12:00</t>
         </is>
       </c>
-      <c r="J3" s="18" t="inlineStr">
+      <c r="J3" s="52" t="inlineStr">
         <is>
           <t>15:12:10</t>
         </is>
       </c>
-      <c r="K3" s="18" t="inlineStr">
+      <c r="K3" s="52" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
     </row>
     <row r="4" ht="72" customHeight="1">
-      <c r="A4" s="47" t="n"/>
+      <c r="A4" s="50" t="n"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Test_03</t>
-        </is>
-      </c>
-      <c r="C4" s="18" t="n"/>
-      <c r="D4" s="18" t="inlineStr">
-        <is>
-          <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': False, 'fname': 'testFname', 'mname': None, 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'username': 'Demo_user1992', 'password': 'Right_1r1s'}</t>
-        </is>
-      </c>
-      <c r="E4" s="18" t="inlineStr">
-        <is>
-          <t>{'username': 'Demo_user1992', 'userID': '65154a7fbe1891535e3c04cd', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
-        </is>
-      </c>
-      <c r="F4" s="18" t="inlineStr">
+          <t>Test_01</t>
+        </is>
+      </c>
+      <c r="C4" s="52" t="n"/>
+      <c r="D4" s="52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" s="52" t="inlineStr">
+        <is>
+          <t>{'zoneInfo': {'zones': [{'description': 'All Devices', 'isDefault': True, 'zoneId': '6512825eb5505c9518c38e94'}, {'accountId': '6512825db5505c9518c38e90', 'description': 'ff-india-qa10', 'isDefault': False, 'zoneId': '65128303f174a38fadf060cf', 'regionId': '6512825eb5505c9518c38e92', 'hostName': 'ff-india-qa10'}, {'accountId': '6512825db5505c9518c38e90', 'description': 'DESKTOP-660P8Q2', 'isDefault': False, 'zoneId': '6512a215be1891535e3b8701', 'regionId': '65129e63be1891535e3b86e4', 'hostName': 'DESKTOP-660P8Q2'}, {'accountId': '6512825db5505c9518c38e90', 'description': 'DESKTOP-75UBP18', 'isDefault': False, 'zoneId': '6512a24dbe1891535e3b8702', 'regionId': '6512a0f5be1891535e3b8700', 'hostName': 'DESKTOP-75UBP18'}, {'accountId': '6512825db5505c9518c38e90', 'description': 'DESKTOP-PTTAM1V', 'isDefault': False, 'zoneId': '6512a2a9be1891535e3b8703', 'regionId': '6512a04bbe1891535e3b86ff', 'hostName': 'DESKTOP-PTTAM1V'}]}}</t>
+        </is>
+      </c>
+      <c r="F4" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="G4" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H4" s="18" t="inlineStr">
+      <c r="G4" s="43" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I4" s="52" t="inlineStr">
+        <is>
+          <t>17:05:41</t>
+        </is>
+      </c>
+      <c r="J4" s="52" t="inlineStr">
+        <is>
+          <t>16:56:06</t>
+        </is>
+      </c>
+      <c r="K4" s="52" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="86.40000000000001" customHeight="1">
+      <c r="A5" s="50" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Test_04</t>
+        </is>
+      </c>
+      <c r="C5" s="52" t="n"/>
+      <c r="D5" s="52" t="inlineStr">
+        <is>
+          <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': False, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'username': 'test409776', 'password': 'Right_1r1s'}</t>
+        </is>
+      </c>
+      <c r="E5" s="52" t="inlineStr">
+        <is>
+          <t>{'username': 'test409776', 'userID': '65154a86be1891535e3c04f0', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
+        </is>
+      </c>
+      <c r="F5" s="52" t="n"/>
+      <c r="G5" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I4" s="18" t="inlineStr">
-        <is>
-          <t>15:12:11</t>
-        </is>
-      </c>
-      <c r="J4" s="18" t="inlineStr">
+      <c r="I5" s="52" t="inlineStr">
         <is>
           <t>15:12:22</t>
         </is>
       </c>
-      <c r="K4" s="18" t="inlineStr">
+      <c r="J5" s="52" t="inlineStr">
+        <is>
+          <t>15:12:30</t>
+        </is>
+      </c>
+      <c r="K5" s="52" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="50" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Test_05</t>
+        </is>
+      </c>
+      <c r="C6" s="32" t="n"/>
+      <c r="D6" s="32" t="n"/>
+      <c r="E6" s="32" t="n"/>
+      <c r="F6" s="32" t="n"/>
+      <c r="G6" s="32" t="n"/>
+      <c r="H6" s="32" t="n"/>
+      <c r="I6" s="32" t="n"/>
+      <c r="J6" s="32" t="n"/>
+      <c r="K6" s="32" t="n"/>
+    </row>
+    <row r="7" ht="124.8" customHeight="1">
+      <c r="A7" s="50" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Test_06</t>
+        </is>
+      </c>
+      <c r="C7" s="32" t="n"/>
+      <c r="D7" s="52" t="inlineStr">
+        <is>
+          <t>{'userId': '6512826fe3534b7b91f740d0', 'alertEnabled': True, 'sendSms': True, 'sendMms': True, 'sendEmail': True, 'sendInappNotification': False, 'scheduleDetail': [{'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': False}, {'enabled': False}]}</t>
+        </is>
+      </c>
+      <c r="E7" s="52" t="inlineStr">
+        <is>
+          <t>{'data': 'Alert information has been updated.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F7" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : User  650acb81cd16ba5d940931f1 is updated.</t>
+        </is>
+      </c>
+      <c r="G7" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H7" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Alert information has been updated.</t>
+        </is>
+      </c>
+      <c r="I7" s="52" t="inlineStr">
+        <is>
+          <t>15:12:31</t>
+        </is>
+      </c>
+      <c r="J7" s="52" t="inlineStr">
+        <is>
+          <t>15:12:45</t>
+        </is>
+      </c>
+      <c r="K7" s="52" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="87.59999999999999" customHeight="1">
+      <c r="A8" s="50" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Test_07</t>
+        </is>
+      </c>
+      <c r="C8" s="32" t="n"/>
+      <c r="D8" s="52" t="inlineStr">
+        <is>
+          <t>{'accountId': '6512825db5505c9518c38e90', 'addr1': None, 'addr2': None, 'aemail': 'user@gmail.com', 'aphone': None, 'auth_params': None, 'city': None, 'company': None, 'department': None, 'email': 'user@gmail.com', 'enabled': True, 'fname': None, 'fphone': None, 'hphone': None, 'isServiceUser': False, 'lname': None, 'mname': None, 'password': 'Password@123', 'phone_type': 0, 'provider': None, 'pw_current': None, 'pw_new1': None, 'pw_new2': None, 'region_id': '6512825eb5505c9518c38e94', 'state': None, 'timezone': 'Asia/Kolkata', 'title': 'test_title', 'url': None, 'urole_id': '6512825eb5505c9518c38e91', 'user_id': '6512826fe3534b7b91f740d0', 'userName': 'TestUser11', 'wphone': None, 'zip': None}</t>
+        </is>
+      </c>
+      <c r="E8" s="52" t="inlineStr">
+        <is>
+          <t>{'username': 'TestUser11', 'userID': '65154aa0be1891535e3c053c', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
+        </is>
+      </c>
+      <c r="F8" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="G8" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H8" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : ok</t>
+        </is>
+      </c>
+      <c r="I8" s="52" t="inlineStr">
+        <is>
+          <t>15:12:45</t>
+        </is>
+      </c>
+      <c r="J8" s="52" t="inlineStr">
+        <is>
+          <t>15:12:55</t>
+        </is>
+      </c>
+      <c r="K8" s="52" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="98.40000000000001" customHeight="1">
+      <c r="A9" s="50" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Test_08</t>
+        </is>
+      </c>
+      <c r="C9" s="32" t="n"/>
+      <c r="D9" s="52" t="inlineStr">
+        <is>
+          <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': '  ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'user_id': '65154aa9be1891535e3c055f', 'pw_current': 'Right_1r1s', 'pw_new1': 'Right_1r1', 'pw_new2': 'Right_1r1'}</t>
+        </is>
+      </c>
+      <c r="E9" s="52" t="inlineStr">
+        <is>
+          <t>{'data': '65154aa9be1891535e3c055f', 'message': 'User  65154aa9be1891535e3c055f is updated.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F9" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="G9" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H9" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : User  65154aa9be1891535e3c055f is updated.</t>
+        </is>
+      </c>
+      <c r="I9" s="52" t="inlineStr">
+        <is>
+          <t>15:12:55</t>
+        </is>
+      </c>
+      <c r="J9" s="52" t="inlineStr">
+        <is>
+          <t>15:13:13</t>
+        </is>
+      </c>
+      <c r="K9" s="52" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="111" customHeight="1">
+      <c r="A10" s="50" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Test_08</t>
+        </is>
+      </c>
+      <c r="C10" s="32" t="n"/>
+      <c r="D10" s="52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E10" s="52" t="inlineStr">
+        <is>
+          <t>{'userInfo': {'users': [{'id': '65094909790679132325377c', 'userID': '65094909790679132325377c', 'username': 'deployment.client', 'serviceUser': False, 'roleId': '65094909790679132325377b', 'userRoleId': '65094909790679132325377b', 'enabled': 1, 'accountId': '6509490800b0398858000031', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6509490800b0398858000035', 'regionName': 'Dmart', 'roleName': 'deployment.client'}]}}</t>
+        </is>
+      </c>
+      <c r="F10" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="G10" s="33" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H10" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I10" s="52" t="inlineStr">
+        <is>
+          <t>19:47:17</t>
+        </is>
+      </c>
+      <c r="J10" s="52" t="inlineStr">
+        <is>
+          <t>19:47:23</t>
+        </is>
+      </c>
+      <c r="K10" s="52" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="137.4" customHeight="1">
+      <c r="A11" s="50" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Test_10</t>
+        </is>
+      </c>
+      <c r="C11" s="32" t="n"/>
+      <c r="D11" s="52" t="inlineStr">
+        <is>
+          <t>{'Addr1': None, 'Addr2': None, 'Zip': None, 'Enabled': True, 'Pw_current': None, 'Region_id': '6512825eb5505c9518c38e94', 'Hphone': None, 'AccountId': '6512825db5505c9518c38e90', 'Fphone': None, 'Pw_new1': None, 'Pw_new2': None, 'City': None, 'Phone_type': None, 'Aphone': None, 'Url': None, 'User_id': '65154abcbe1891535e3c05a8', 'Urole_id': '6512825eb5505c9518c38e91', 'State': None, 'Provider': None, 'Fname': None, 'Department': None, 'IsServiceUser': False, 'UserName': None, 'Lname': None, 'Wphone': None, 'Mname': None, 'Title': None, 'Timezone': 'Asia/Kolkata', 'Password': 'Password@123', 'Aemail': 'user@gmail.com', 'Email': 'user@gmail.com', 'Company': None, 'Auth_params': None}</t>
+        </is>
+      </c>
+      <c r="E11" s="52" t="inlineStr">
+        <is>
+          <t>{'data': '65154abcbe1891535e3c05a8', 'message': 'User  65154abcbe1891535e3c05a8 is updated.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F11" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : Alert information has been updated.</t>
+        </is>
+      </c>
+      <c r="G11" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H11" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : User  65154abcbe1891535e3c05a8 is updated.</t>
+        </is>
+      </c>
+      <c r="I11" s="52" t="inlineStr">
+        <is>
+          <t>15:13:13</t>
+        </is>
+      </c>
+      <c r="J11" s="52" t="inlineStr">
+        <is>
+          <t>15:13:38</t>
+        </is>
+      </c>
+      <c r="K11" s="52" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="109.8" customHeight="1">
+      <c r="A12" s="50" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Test_11</t>
+        </is>
+      </c>
+      <c r="C12" s="32" t="n"/>
+      <c r="D12" s="52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E12" s="52" t="inlineStr">
+        <is>
+          <t>[{'id': '65128268d86a782fa5f5baeb', 'userID': '65128268d86a782fa5f5baeb', 'username': 'deployment.client', 'serviceUser': False, 'roleId': '65128268d86a782fa5f5baea', 'userRoleId': '65128268d86a782fa5f5baea', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '65128303f174a38fadf060ce', 'userID': '65128303f174a38fadf060ce', 'username': 'deployment.server', 'serviceUser': False, 'roleId': '65128303f174a38fadf060cd', 'userRoleId': '65128303f174a38fadf060cd', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '651548d8be1891535e3c015f', 'userID': '651548d8be1891535e3c015f', 'username': 'Demo_user1983', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893720000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548debe1891535e3c0182', 'userID': '651548debe1891535e3c0182', 'username': 'test409515', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893726000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548e4be1891535e3c01a5', 'userID': '651548e4be1891535e3c01a5', 'username': 'Demo_user1679', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893732000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ebbe1891535e3c01c8', 'userID': '651548ebbe1891535e3c01c8', 'username': 'test409431', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893739000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548f8be1891535e3c0214', 'userID': '651548f8be1891535e3c0214', 'username': 'TestUser419', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893752000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ffbe1891535e3c0237', 'userID': '651548ffbe1891535e3c0237', 'username': 'Demo_user1360', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893759000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515490dbe1891535e3c028d', 'userID': '6515490dbe1891535e3c028d', 'username': 'Demo_user120', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893773000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515491cbe1891535e3c02bd', 'userID': '6515491cbe1891535e3c02bd', 'username': 'Demo_user1273', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893788000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515498ebe1891535e3c041a', 'userID': '6515498ebe1891535e3c041a', 'username': 'Demo_user1260', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893902000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651549f3be1891535e3c0457', 'userID': '651549f3be1891535e3c0457', 'username': 'Demo_user1747', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894003000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a68be1891535e3c0487', 'userID': '65154a68be1891535e3c0487', 'username': 'Demo_user1432', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894120000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a72be1891535e3c04aa', 'userID': '65154a72be1891535e3c04aa', 'username': 'test409613', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894130000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a7fbe1891535e3c04cd', 'userID': '65154a7fbe1891535e3c04cd', 'username': 'Demo_user1992', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894143000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a86be1891535e3c04f0', 'userID': '65154a86be1891535e3c04f0', 'username': 'test409776', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894150000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa0be1891535e3c053c', 'userID': '65154aa0be1891535e3c053c', 'username': 'TestUser11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894176000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa9be1891535e3c055f', 'userID': '65154aa9be1891535e3c055f', 'username': 'Demo_user11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894185000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154abcbe1891535e3c05a8', 'userID': '65154abcbe1891535e3c05a8', 'username': 'Demo_user1767', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894204000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}]</t>
+        </is>
+      </c>
+      <c r="F12" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : ok</t>
+        </is>
+      </c>
+      <c r="G12" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H12" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I12" s="52" t="inlineStr">
+        <is>
+          <t>15:13:38</t>
+        </is>
+      </c>
+      <c r="J12" s="52" t="inlineStr">
+        <is>
+          <t>15:13:43</t>
+        </is>
+      </c>
+      <c r="K12" s="52" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="112.8" customHeight="1">
+      <c r="A13" s="50" t="n"/>
+      <c r="B13" s="52" t="inlineStr">
+        <is>
+          <t>Test_12</t>
+        </is>
+      </c>
+      <c r="C13" s="52" t="n"/>
+      <c r="D13" s="52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E13" s="52" t="inlineStr">
+        <is>
+          <t>{'userInfo': {'users': [{'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [{'agroupID': '651545bdbe1891535e3bf164', 'desc': 'test description', 'enrollmentGroupIds': ['651545bbbe1891535e3bf145'], 'name': 'Test_notification_Api531', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}, {'agroupID': '651545dcbe1891535e3bf23f', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api641', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}], 'regionId': '6512825eb5505c9518c38e92', 'regionName': 'Dmart', 'roleName': 'facefirst-user-role'}, {'id': '651548d8be1891535e3c015f', 'userID': '651548d8be1891535e3c015f', 'username': 'Demo_user1983', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893720000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548debe1891535e3c0182', 'userID': '651548debe1891535e3c0182', 'username': 'test409515', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893726000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548e4be1891535e3c01a5', 'userID': '651548e4be1891535e3c01a5', 'username': 'Demo_user1679', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893732000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548ebbe1891535e3c01c8', 'userID': '651548ebbe1891535e3c01c8', 'username': 'test409431', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893739000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548f8be1891535e3c0214', 'userID': '651548f8be1891535e3c0214', 'username': 'TestUser419', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893752000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548ffbe1891535e3c0237', 'userID': '651548ffbe1891535e3c0237', 'username': 'Demo_user1360', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893759000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '6515490dbe1891535e3c028d', 'userID': '6515490dbe1891535e3c028d', 'username': 'Demo_user120', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893773000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '6515491cbe1891535e3c02bd', 'userID': '6515491cbe1891535e3c02bd', 'username': 'Demo_user1273', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893788000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '6515498ebe1891535e3c041a', 'userID': '6515498ebe1891535e3c041a', 'username': 'Demo_user1260', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893902000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651549f3be1891535e3c0457', 'userID': '651549f3be1891535e3c0457', 'username': 'Demo_user1747', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894003000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a68be1891535e3c0487', 'userID': '65154a68be1891535e3c0487', 'username': 'Demo_user1432', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894120000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a72be1891535e3c04aa', 'userID': '65154a72be1891535e3c04aa', 'username': 'test409613', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894130000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a7fbe1891535e3c04cd', 'userID': '65154a7fbe1891535e3c04cd', 'username': 'Demo_user1992', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894143000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a86be1891535e3c04f0', 'userID': '65154a86be1891535e3c04f0', 'username': 'test409776', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894150000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154aa0be1891535e3c053c', 'userID': '65154aa0be1891535e3c053c', 'username': 'TestUser11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894176000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154aa9be1891535e3c055f', 'userID': '65154aa9be1891535e3c055f', 'username': 'Demo_user11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894185000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154abcbe1891535e3c05a8', 'userID': '65154abcbe1891535e3c05a8', 'username': 'Demo_user1767', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894204000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}]}}</t>
+        </is>
+      </c>
+      <c r="F13" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : User  650d6aaa327ea63edec3d38b is updated.</t>
+        </is>
+      </c>
+      <c r="G13" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H13" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I13" s="52" t="inlineStr">
+        <is>
+          <t>15:13:43</t>
+        </is>
+      </c>
+      <c r="J13" s="52" t="inlineStr">
+        <is>
+          <t>15:13:55</t>
+        </is>
+      </c>
+      <c r="K13" s="52" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="101.4" customHeight="1">
+      <c r="A14" s="50" t="n"/>
+      <c r="B14" s="52" t="inlineStr">
+        <is>
+          <t>Test_13</t>
+        </is>
+      </c>
+      <c r="C14" s="52" t="n"/>
+      <c r="D14" s="52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E14" s="52" t="inlineStr">
+        <is>
+          <t>{'userInfo': {'users': [{'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [{'agroupID': '651545bdbe1891535e3bf164', 'desc': 'test description', 'enrollmentGroupIds': ['651545bbbe1891535e3bf145'], 'name': 'Test_notification_Api531', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}, {'agroupID': '651545dcbe1891535e3bf23f', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api641', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}], 'regionId': '6512825eb5505c9518c38e92', 'regionName': 'Dmart', 'roleName': 'facefirst-user-role'}]}}</t>
+        </is>
+      </c>
+      <c r="F14" s="52" t="n"/>
+      <c r="G14" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H14" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I14" s="52" t="inlineStr">
+        <is>
+          <t>15:13:55</t>
+        </is>
+      </c>
+      <c r="J14" s="52" t="inlineStr">
+        <is>
+          <t>15:14:05</t>
+        </is>
+      </c>
+      <c r="K14" s="52" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="74.40000000000001" customHeight="1">
+      <c r="A15" s="50" t="n"/>
+      <c r="B15" s="52" t="inlineStr">
+        <is>
+          <t>Test_14</t>
+        </is>
+      </c>
+      <c r="C15" s="52" t="n"/>
+      <c r="D15" s="52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E15" s="52" t="inlineStr">
+        <is>
+          <t>{'accountId': '6512825db5505c9518c38e90', 'regionId': '6512825eb5505c9518c38e92', 'userName': 'core', 'userId': '6512826fe3534b7b91f740d0', 'userRoleId': '6512825eb5505c9518c38e91'}</t>
+        </is>
+      </c>
+      <c r="F15" s="52" t="n"/>
+      <c r="G15" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H15" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I15" s="52" t="inlineStr">
+        <is>
+          <t>15:14:05</t>
+        </is>
+      </c>
+      <c r="J15" s="52" t="inlineStr">
+        <is>
+          <t>15:14:09</t>
+        </is>
+      </c>
+      <c r="K15" s="52" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="71.40000000000001" customHeight="1">
+      <c r="A16" s="50" t="n"/>
+      <c r="B16" s="52" t="inlineStr">
+        <is>
+          <t>Test_15</t>
+        </is>
+      </c>
+      <c r="C16" s="52" t="n"/>
+      <c r="D16" s="52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E16" s="52" t="inlineStr">
+        <is>
+          <t>[{'id': '6512826ee3534b7b91f740b2', 'userID': '6512826ee3534b7b91f740b2', 'username': 'facefirst-service-user', 'serviceUser': True, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'support@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711854000, 'secureLogin': 0, 'prefs': {'alertEMail': 'support@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}]</t>
+        </is>
+      </c>
+      <c r="F16" s="52" t="n"/>
+      <c r="G16" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H16" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I16" s="52" t="inlineStr">
+        <is>
+          <t>15:14:09</t>
+        </is>
+      </c>
+      <c r="J16" s="52" t="inlineStr">
+        <is>
+          <t>15:14:14</t>
+        </is>
+      </c>
+      <c r="K16" s="52" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="76.8" customHeight="1">
+      <c r="A17" s="50" t="n"/>
+      <c r="B17" s="52" t="inlineStr">
+        <is>
+          <t>Test_16</t>
+        </is>
+      </c>
+      <c r="C17" s="52" t="n"/>
+      <c r="D17" s="52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E17" s="52" t="inlineStr">
+        <is>
+          <t>[{'id': '65128268d86a782fa5f5baeb', 'userID': '65128268d86a782fa5f5baeb', 'username': 'deployment.client', 'serviceUser': False, 'roleId': '65128268d86a782fa5f5baea', 'userRoleId': '65128268d86a782fa5f5baea', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '65128303f174a38fadf060ce', 'userID': '65128303f174a38fadf060ce', 'username': 'deployment.server', 'serviceUser': False, 'roleId': '65128303f174a38fadf060cd', 'userRoleId': '65128303f174a38fadf060cd', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '651548d8be1891535e3c015f', 'userID': '651548d8be1891535e3c015f', 'username': 'Demo_user1983', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893720000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548debe1891535e3c0182', 'userID': '651548debe1891535e3c0182', 'username': 'test409515', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893726000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548e4be1891535e3c01a5', 'userID': '651548e4be1891535e3c01a5', 'username': 'Demo_user1679', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893732000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ebbe1891535e3c01c8', 'userID': '651548ebbe1891535e3c01c8', 'username': 'test409431', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893739000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548f8be1891535e3c0214', 'userID': '651548f8be1891535e3c0214', 'username': 'TestUser419', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893752000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ffbe1891535e3c0237', 'userID': '651548ffbe1891535e3c0237', 'username': 'Demo_user1360', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893759000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515490dbe1891535e3c028d', 'userID': '6515490dbe1891535e3c028d', 'username': 'Demo_user120', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893773000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515491cbe1891535e3c02bd', 'userID': '6515491cbe1891535e3c02bd', 'username': 'Demo_user1273', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893788000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515498ebe1891535e3c041a', 'userID': '6515498ebe1891535e3c041a', 'username': 'Demo_user1260', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893902000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651549f3be1891535e3c0457', 'userID': '651549f3be1891535e3c0457', 'username': 'Demo_user1747', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894003000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a68be1891535e3c0487', 'userID': '65154a68be1891535e3c0487', 'username': 'Demo_user1432', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894120000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a72be1891535e3c04aa', 'userID': '65154a72be1891535e3c04aa', 'username': 'test409613', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894130000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a7fbe1891535e3c04cd', 'userID': '65154a7fbe1891535e3c04cd', 'username': 'Demo_user1992', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894143000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a86be1891535e3c04f0', 'userID': '65154a86be1891535e3c04f0', 'username': 'test409776', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894150000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa0be1891535e3c053c', 'userID': '65154aa0be1891535e3c053c', 'username': 'TestUser11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894176000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa9be1891535e3c055f', 'userID': '65154aa9be1891535e3c055f', 'username': 'Demo_user11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894185000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154abcbe1891535e3c05a8', 'userID': '65154abcbe1891535e3c05a8', 'username': 'Demo_user1767', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894204000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}]</t>
+        </is>
+      </c>
+      <c r="F17" s="52" t="n"/>
+      <c r="G17" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H17" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I17" s="52" t="inlineStr">
+        <is>
+          <t>15:14:15</t>
+        </is>
+      </c>
+      <c r="J17" s="52" t="inlineStr">
+        <is>
+          <t>15:14:21</t>
+        </is>
+      </c>
+      <c r="K17" s="52" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="105" customHeight="1">
+      <c r="A18" s="50" t="n"/>
+      <c r="B18" s="52" t="inlineStr">
+        <is>
+          <t>Test_17</t>
+        </is>
+      </c>
+      <c r="C18" s="52" t="n"/>
+      <c r="D18" s="52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E18" s="52" t="inlineStr">
+        <is>
+          <t>{'alerts': [], 'sendInAppNotifications': False, 'userID': '65128268d86a782fa5f5baeb', 'sendSMS': False, 'sendMMS': False, 'sendEmail': False, 'enabledAlert': False, 'sendXMLRPC': False}</t>
+        </is>
+      </c>
+      <c r="F18" s="52" t="n"/>
+      <c r="G18" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H18" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I18" s="52" t="inlineStr">
+        <is>
+          <t>15:14:22</t>
+        </is>
+      </c>
+      <c r="J18" s="52" t="inlineStr">
+        <is>
+          <t>15:14:33</t>
+        </is>
+      </c>
+      <c r="K18" s="52" t="inlineStr">
         <is>
           <t>11.0</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="86.40000000000001" customHeight="1">
-      <c r="A5" s="47" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Test_04</t>
-        </is>
-      </c>
-      <c r="C5" s="18" t="n"/>
-      <c r="D5" s="18" t="inlineStr">
-        <is>
-          <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': False, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'username': 'test409776', 'password': 'Right_1r1s'}</t>
-        </is>
-      </c>
-      <c r="E5" s="18" t="inlineStr">
-        <is>
-          <t>{'username': 'test409776', 'userID': '65154a86be1891535e3c04f0', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
-        </is>
-      </c>
-      <c r="F5" s="18" t="n"/>
-      <c r="G5" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H5" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : ok</t>
-        </is>
-      </c>
-      <c r="I5" s="18" t="inlineStr">
-        <is>
-          <t>15:12:22</t>
-        </is>
-      </c>
-      <c r="J5" s="18" t="inlineStr">
-        <is>
-          <t>15:12:30</t>
-        </is>
-      </c>
-      <c r="K5" s="18" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="47" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Test_05</t>
-        </is>
-      </c>
-      <c r="C6" s="36" t="n"/>
-      <c r="D6" s="36" t="n"/>
-      <c r="E6" s="36" t="n"/>
-      <c r="F6" s="36" t="n"/>
-      <c r="G6" s="36" t="n"/>
-      <c r="H6" s="36" t="n"/>
-      <c r="I6" s="36" t="n"/>
-      <c r="J6" s="36" t="n"/>
-      <c r="K6" s="36" t="n"/>
-    </row>
-    <row r="7" ht="124.8" customHeight="1">
-      <c r="A7" s="47" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Test_06</t>
-        </is>
-      </c>
-      <c r="C7" s="36" t="n"/>
-      <c r="D7" s="18" t="inlineStr">
-        <is>
-          <t>{'userId': '6512826fe3534b7b91f740d0', 'alertEnabled': True, 'sendSms': True, 'sendMms': True, 'sendEmail': True, 'sendInappNotification': False, 'scheduleDetail': [{'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': False}, {'enabled': False}]}</t>
-        </is>
-      </c>
-      <c r="E7" s="18" t="inlineStr">
-        <is>
-          <t>{'data': 'Alert information has been updated.', 'isSuccess': True}</t>
-        </is>
-      </c>
-      <c r="F7" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : User  650acb81cd16ba5d940931f1 is updated.</t>
-        </is>
-      </c>
-      <c r="G7" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H7" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : Alert information has been updated.</t>
-        </is>
-      </c>
-      <c r="I7" s="18" t="inlineStr">
-        <is>
-          <t>15:12:31</t>
-        </is>
-      </c>
-      <c r="J7" s="18" t="inlineStr">
-        <is>
-          <t>15:12:45</t>
-        </is>
-      </c>
-      <c r="K7" s="18" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="87.59999999999999" customHeight="1">
-      <c r="A8" s="47" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Test_07</t>
-        </is>
-      </c>
-      <c r="C8" s="36" t="n"/>
-      <c r="D8" s="18" t="inlineStr">
-        <is>
-          <t>{'accountId': '6512825db5505c9518c38e90', 'addr1': None, 'addr2': None, 'aemail': 'user@gmail.com', 'aphone': None, 'auth_params': None, 'city': None, 'company': None, 'department': None, 'email': 'user@gmail.com', 'enabled': True, 'fname': None, 'fphone': None, 'hphone': None, 'isServiceUser': False, 'lname': None, 'mname': None, 'password': 'Password@123', 'phone_type': 0, 'provider': None, 'pw_current': None, 'pw_new1': None, 'pw_new2': None, 'region_id': '6512825eb5505c9518c38e94', 'state': None, 'timezone': 'Asia/Kolkata', 'title': 'test_title', 'url': None, 'urole_id': '6512825eb5505c9518c38e91', 'user_id': '6512826fe3534b7b91f740d0', 'userName': 'TestUser11', 'wphone': None, 'zip': None}</t>
-        </is>
-      </c>
-      <c r="E8" s="18" t="inlineStr">
-        <is>
-          <t>{'username': 'TestUser11', 'userID': '65154aa0be1891535e3c053c', 'accountID': '6512825db5505c9518c38e90', 'status': 'ok'}</t>
-        </is>
-      </c>
-      <c r="F8" s="18" t="inlineStr">
+    <row r="19" ht="86.40000000000001" customHeight="1">
+      <c r="A19" s="50" t="n"/>
+      <c r="B19" s="52" t="inlineStr">
+        <is>
+          <t>Test_18</t>
+        </is>
+      </c>
+      <c r="C19" s="52" t="n"/>
+      <c r="D19" s="52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E19" s="52" t="inlineStr">
+        <is>
+          <t>{'data': '65154b0cbe1891535e3c0695', 'message': 'User with UserId: 65154b0cbe1891535e3c0695 was removed.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F19" s="52" t="n"/>
+      <c r="G19" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H19" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G8" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H8" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : ok</t>
-        </is>
-      </c>
-      <c r="I8" s="18" t="inlineStr">
-        <is>
-          <t>15:12:45</t>
-        </is>
-      </c>
-      <c r="J8" s="18" t="inlineStr">
-        <is>
-          <t>15:12:55</t>
-        </is>
-      </c>
-      <c r="K8" s="18" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="98.40000000000001" customHeight="1">
-      <c r="A9" s="47" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Test_08</t>
-        </is>
-      </c>
-      <c r="C9" s="36" t="n"/>
-      <c r="D9" s="18" t="inlineStr">
-        <is>
-          <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': '  ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '6512825eb5505c9518c38e91', 'region_id': '6512825eb5505c9518c38e94', 'user_id': '65154aa9be1891535e3c055f', 'pw_current': 'Right_1r1s', 'pw_new1': 'Right_1r1', 'pw_new2': 'Right_1r1'}</t>
-        </is>
-      </c>
-      <c r="E9" s="18" t="inlineStr">
-        <is>
-          <t>{'data': '65154aa9be1891535e3c055f', 'message': 'User  65154aa9be1891535e3c055f is updated.', 'isSuccess': True}</t>
-        </is>
-      </c>
-      <c r="F9" s="18" t="inlineStr">
+      <c r="I19" s="52" t="inlineStr">
+        <is>
+          <t>15:14:33</t>
+        </is>
+      </c>
+      <c r="J19" s="52" t="inlineStr">
+        <is>
+          <t>15:14:46</t>
+        </is>
+      </c>
+      <c r="K19" s="52" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="86.40000000000001" customHeight="1">
+      <c r="A20" s="51" t="n"/>
+      <c r="B20" s="52" t="inlineStr">
+        <is>
+          <t>Test_19</t>
+        </is>
+      </c>
+      <c r="C20" s="52" t="n"/>
+      <c r="D20" s="52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E20" s="52" t="inlineStr">
+        <is>
+          <t>{'data': '65154b18be1891535e3c06cb', 'message': 'User with UserId: 65154b18be1891535e3c06cb was removed.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F20" s="52" t="n"/>
+      <c r="G20" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H20" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G9" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H9" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : User  65154aa9be1891535e3c055f is updated.</t>
-        </is>
-      </c>
-      <c r="I9" s="18" t="inlineStr">
-        <is>
-          <t>15:12:55</t>
-        </is>
-      </c>
-      <c r="J9" s="18" t="inlineStr">
-        <is>
-          <t>15:13:13</t>
-        </is>
-      </c>
-      <c r="K9" s="18" t="inlineStr">
-        <is>
-          <t>18.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="111" customHeight="1">
-      <c r="A10" s="47" t="n"/>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Test_08</t>
-        </is>
-      </c>
-      <c r="C10" s="36" t="n"/>
-      <c r="D10" s="18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E10" s="18" t="inlineStr">
-        <is>
-          <t>{'userInfo': {'users': [{'id': '65094909790679132325377c', 'userID': '65094909790679132325377c', 'username': 'deployment.client', 'serviceUser': False, 'roleId': '65094909790679132325377b', 'userRoleId': '65094909790679132325377b', 'enabled': 1, 'accountId': '6509490800b0398858000031', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6509490800b0398858000035', 'regionName': 'Dmart', 'roleName': 'deployment.client'}]}}</t>
-        </is>
-      </c>
-      <c r="F10" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : None</t>
-        </is>
-      </c>
-      <c r="G10" s="37" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H10" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : None</t>
-        </is>
-      </c>
-      <c r="I10" s="18" t="inlineStr">
-        <is>
-          <t>19:47:17</t>
-        </is>
-      </c>
-      <c r="J10" s="18" t="inlineStr">
-        <is>
-          <t>19:47:23</t>
-        </is>
-      </c>
-      <c r="K10" s="18" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="137.4" customHeight="1">
-      <c r="A11" s="47" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Test_10</t>
-        </is>
-      </c>
-      <c r="C11" s="36" t="n"/>
-      <c r="D11" s="18" t="inlineStr">
-        <is>
-          <t>{'Addr1': None, 'Addr2': None, 'Zip': None, 'Enabled': True, 'Pw_current': None, 'Region_id': '6512825eb5505c9518c38e94', 'Hphone': None, 'AccountId': '6512825db5505c9518c38e90', 'Fphone': None, 'Pw_new1': None, 'Pw_new2': None, 'City': None, 'Phone_type': None, 'Aphone': None, 'Url': None, 'User_id': '65154abcbe1891535e3c05a8', 'Urole_id': '6512825eb5505c9518c38e91', 'State': None, 'Provider': None, 'Fname': None, 'Department': None, 'IsServiceUser': False, 'UserName': None, 'Lname': None, 'Wphone': None, 'Mname': None, 'Title': None, 'Timezone': 'Asia/Kolkata', 'Password': 'Password@123', 'Aemail': 'user@gmail.com', 'Email': 'user@gmail.com', 'Company': None, 'Auth_params': None}</t>
-        </is>
-      </c>
-      <c r="E11" s="18" t="inlineStr">
-        <is>
-          <t>{'data': '65154abcbe1891535e3c05a8', 'message': 'User  65154abcbe1891535e3c05a8 is updated.', 'isSuccess': True}</t>
-        </is>
-      </c>
-      <c r="F11" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : Alert information has been updated.</t>
-        </is>
-      </c>
-      <c r="G11" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H11" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : User  65154abcbe1891535e3c05a8 is updated.</t>
-        </is>
-      </c>
-      <c r="I11" s="18" t="inlineStr">
-        <is>
-          <t>15:13:13</t>
-        </is>
-      </c>
-      <c r="J11" s="18" t="inlineStr">
-        <is>
-          <t>15:13:38</t>
-        </is>
-      </c>
-      <c r="K11" s="18" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="109.8" customHeight="1">
-      <c r="A12" s="47" t="n"/>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Test_11</t>
-        </is>
-      </c>
-      <c r="C12" s="36" t="n"/>
-      <c r="D12" s="18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E12" s="18" t="inlineStr">
-        <is>
-          <t>[{'id': '65128268d86a782fa5f5baeb', 'userID': '65128268d86a782fa5f5baeb', 'username': 'deployment.client', 'serviceUser': False, 'roleId': '65128268d86a782fa5f5baea', 'userRoleId': '65128268d86a782fa5f5baea', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '65128303f174a38fadf060ce', 'userID': '65128303f174a38fadf060ce', 'username': 'deployment.server', 'serviceUser': False, 'roleId': '65128303f174a38fadf060cd', 'userRoleId': '65128303f174a38fadf060cd', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '651548d8be1891535e3c015f', 'userID': '651548d8be1891535e3c015f', 'username': 'Demo_user1983', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893720000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548debe1891535e3c0182', 'userID': '651548debe1891535e3c0182', 'username': 'test409515', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893726000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548e4be1891535e3c01a5', 'userID': '651548e4be1891535e3c01a5', 'username': 'Demo_user1679', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893732000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ebbe1891535e3c01c8', 'userID': '651548ebbe1891535e3c01c8', 'username': 'test409431', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893739000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548f8be1891535e3c0214', 'userID': '651548f8be1891535e3c0214', 'username': 'TestUser419', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893752000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ffbe1891535e3c0237', 'userID': '651548ffbe1891535e3c0237', 'username': 'Demo_user1360', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893759000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515490dbe1891535e3c028d', 'userID': '6515490dbe1891535e3c028d', 'username': 'Demo_user120', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893773000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515491cbe1891535e3c02bd', 'userID': '6515491cbe1891535e3c02bd', 'username': 'Demo_user1273', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893788000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515498ebe1891535e3c041a', 'userID': '6515498ebe1891535e3c041a', 'username': 'Demo_user1260', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893902000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651549f3be1891535e3c0457', 'userID': '651549f3be1891535e3c0457', 'username': 'Demo_user1747', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894003000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a68be1891535e3c0487', 'userID': '65154a68be1891535e3c0487', 'username': 'Demo_user1432', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894120000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a72be1891535e3c04aa', 'userID': '65154a72be1891535e3c04aa', 'username': 'test409613', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894130000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a7fbe1891535e3c04cd', 'userID': '65154a7fbe1891535e3c04cd', 'username': 'Demo_user1992', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894143000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a86be1891535e3c04f0', 'userID': '65154a86be1891535e3c04f0', 'username': 'test409776', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894150000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa0be1891535e3c053c', 'userID': '65154aa0be1891535e3c053c', 'username': 'TestUser11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894176000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa9be1891535e3c055f', 'userID': '65154aa9be1891535e3c055f', 'username': 'Demo_user11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894185000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154abcbe1891535e3c05a8', 'userID': '65154abcbe1891535e3c05a8', 'username': 'Demo_user1767', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894204000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}]</t>
-        </is>
-      </c>
-      <c r="F12" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : ok</t>
-        </is>
-      </c>
-      <c r="G12" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H12" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : None</t>
-        </is>
-      </c>
-      <c r="I12" s="18" t="inlineStr">
-        <is>
-          <t>15:13:38</t>
-        </is>
-      </c>
-      <c r="J12" s="18" t="inlineStr">
-        <is>
-          <t>15:13:43</t>
-        </is>
-      </c>
-      <c r="K12" s="18" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="112.8" customHeight="1">
-      <c r="A13" s="47" t="n"/>
-      <c r="B13" s="18" t="inlineStr">
-        <is>
-          <t>Test_12</t>
-        </is>
-      </c>
-      <c r="C13" s="18" t="n"/>
-      <c r="D13" s="18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E13" s="18" t="inlineStr">
-        <is>
-          <t>{'userInfo': {'users': [{'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [{'agroupID': '651545bdbe1891535e3bf164', 'desc': 'test description', 'enrollmentGroupIds': ['651545bbbe1891535e3bf145'], 'name': 'Test_notification_Api531', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}, {'agroupID': '651545dcbe1891535e3bf23f', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api641', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}], 'regionId': '6512825eb5505c9518c38e92', 'regionName': 'Dmart', 'roleName': 'facefirst-user-role'}, {'id': '651548d8be1891535e3c015f', 'userID': '651548d8be1891535e3c015f', 'username': 'Demo_user1983', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893720000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548debe1891535e3c0182', 'userID': '651548debe1891535e3c0182', 'username': 'test409515', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893726000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548e4be1891535e3c01a5', 'userID': '651548e4be1891535e3c01a5', 'username': 'Demo_user1679', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893732000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548ebbe1891535e3c01c8', 'userID': '651548ebbe1891535e3c01c8', 'username': 'test409431', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893739000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548f8be1891535e3c0214', 'userID': '651548f8be1891535e3c0214', 'username': 'TestUser419', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893752000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651548ffbe1891535e3c0237', 'userID': '651548ffbe1891535e3c0237', 'username': 'Demo_user1360', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893759000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '6515490dbe1891535e3c028d', 'userID': '6515490dbe1891535e3c028d', 'username': 'Demo_user120', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893773000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '6515491cbe1891535e3c02bd', 'userID': '6515491cbe1891535e3c02bd', 'username': 'Demo_user1273', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893788000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '6515498ebe1891535e3c041a', 'userID': '6515498ebe1891535e3c041a', 'username': 'Demo_user1260', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893902000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '651549f3be1891535e3c0457', 'userID': '651549f3be1891535e3c0457', 'username': 'Demo_user1747', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894003000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a68be1891535e3c0487', 'userID': '65154a68be1891535e3c0487', 'username': 'Demo_user1432', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894120000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a72be1891535e3c04aa', 'userID': '65154a72be1891535e3c04aa', 'username': 'test409613', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894130000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a7fbe1891535e3c04cd', 'userID': '65154a7fbe1891535e3c04cd', 'username': 'Demo_user1992', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894143000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154a86be1891535e3c04f0', 'userID': '65154a86be1891535e3c04f0', 'username': 'test409776', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894150000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154aa0be1891535e3c053c', 'userID': '65154aa0be1891535e3c053c', 'username': 'TestUser11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894176000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154aa9be1891535e3c055f', 'userID': '65154aa9be1891535e3c055f', 'username': 'Demo_user11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894185000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}, {'id': '65154abcbe1891535e3c05a8', 'userID': '65154abcbe1891535e3c05a8', 'username': 'Demo_user1767', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894204000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6512825eb5505c9518c38e94', 'roleName': 'facefirst-user-role'}]}}</t>
-        </is>
-      </c>
-      <c r="F13" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : User  650d6aaa327ea63edec3d38b is updated.</t>
-        </is>
-      </c>
-      <c r="G13" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H13" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : None</t>
-        </is>
-      </c>
-      <c r="I13" s="18" t="inlineStr">
-        <is>
-          <t>15:13:43</t>
-        </is>
-      </c>
-      <c r="J13" s="18" t="inlineStr">
-        <is>
-          <t>15:13:55</t>
-        </is>
-      </c>
-      <c r="K13" s="18" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="101.4" customHeight="1">
-      <c r="A14" s="47" t="n"/>
-      <c r="B14" s="18" t="inlineStr">
-        <is>
-          <t>Test_13</t>
-        </is>
-      </c>
-      <c r="C14" s="18" t="n"/>
-      <c r="D14" s="18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E14" s="18" t="inlineStr">
-        <is>
-          <t>{'userInfo': {'users': [{'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [{'agroupID': '651545bdbe1891535e3bf164', 'desc': 'test description', 'enrollmentGroupIds': ['651545bbbe1891535e3bf145'], 'name': 'Test_notification_Api531', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}, {'agroupID': '651545dcbe1891535e3bf23f', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api641', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}], 'regionId': '6512825eb5505c9518c38e92', 'regionName': 'Dmart', 'roleName': 'facefirst-user-role'}]}}</t>
-        </is>
-      </c>
-      <c r="F14" s="18" t="n"/>
-      <c r="G14" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H14" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : None</t>
-        </is>
-      </c>
-      <c r="I14" s="18" t="inlineStr">
-        <is>
-          <t>15:13:55</t>
-        </is>
-      </c>
-      <c r="J14" s="18" t="inlineStr">
-        <is>
-          <t>15:14:05</t>
-        </is>
-      </c>
-      <c r="K14" s="18" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="74.40000000000001" customHeight="1">
-      <c r="A15" s="47" t="n"/>
-      <c r="B15" s="18" t="inlineStr">
-        <is>
-          <t>Test_14</t>
-        </is>
-      </c>
-      <c r="C15" s="18" t="n"/>
-      <c r="D15" s="18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E15" s="18" t="inlineStr">
-        <is>
-          <t>{'accountId': '6512825db5505c9518c38e90', 'regionId': '6512825eb5505c9518c38e92', 'userName': 'core', 'userId': '6512826fe3534b7b91f740d0', 'userRoleId': '6512825eb5505c9518c38e91'}</t>
-        </is>
-      </c>
-      <c r="F15" s="18" t="n"/>
-      <c r="G15" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H15" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : None</t>
-        </is>
-      </c>
-      <c r="I15" s="18" t="inlineStr">
-        <is>
-          <t>15:14:05</t>
-        </is>
-      </c>
-      <c r="J15" s="18" t="inlineStr">
-        <is>
-          <t>15:14:09</t>
-        </is>
-      </c>
-      <c r="K15" s="18" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="71.40000000000001" customHeight="1">
-      <c r="A16" s="47" t="n"/>
-      <c r="B16" s="18" t="inlineStr">
-        <is>
-          <t>Test_15</t>
-        </is>
-      </c>
-      <c r="C16" s="18" t="n"/>
-      <c r="D16" s="18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E16" s="18" t="inlineStr">
-        <is>
-          <t>[{'id': '6512826ee3534b7b91f740b2', 'userID': '6512826ee3534b7b91f740b2', 'username': 'facefirst-service-user', 'serviceUser': True, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'support@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711854000, 'secureLogin': 0, 'prefs': {'alertEMail': 'support@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}]</t>
-        </is>
-      </c>
-      <c r="F16" s="18" t="n"/>
-      <c r="G16" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H16" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : None</t>
-        </is>
-      </c>
-      <c r="I16" s="18" t="inlineStr">
-        <is>
-          <t>15:14:09</t>
-        </is>
-      </c>
-      <c r="J16" s="18" t="inlineStr">
-        <is>
-          <t>15:14:14</t>
-        </is>
-      </c>
-      <c r="K16" s="18" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="76.8" customHeight="1">
-      <c r="A17" s="47" t="n"/>
-      <c r="B17" s="18" t="inlineStr">
-        <is>
-          <t>Test_16</t>
-        </is>
-      </c>
-      <c r="C17" s="18" t="n"/>
-      <c r="D17" s="18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E17" s="18" t="inlineStr">
-        <is>
-          <t>[{'id': '65128268d86a782fa5f5baeb', 'userID': '65128268d86a782fa5f5baeb', 'username': 'deployment.client', 'serviceUser': False, 'roleId': '65128268d86a782fa5f5baea', 'userRoleId': '65128268d86a782fa5f5baea', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '6512826fe3534b7b91f740d0', 'userID': '6512826fe3534b7b91f740d0', 'username': 'core', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 1, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695711855000, 'secureLogin': 0, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '65128303f174a38fadf060ce', 'userID': '65128303f174a38fadf060ce', 'username': 'deployment.server', 'serviceUser': False, 'roleId': '65128303f174a38fadf060cd', 'userRoleId': '65128303f174a38fadf060cd', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e92'}, {'id': '651548d8be1891535e3c015f', 'userID': '651548d8be1891535e3c015f', 'username': 'Demo_user1983', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893720000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548debe1891535e3c0182', 'userID': '651548debe1891535e3c0182', 'username': 'test409515', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893726000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548e4be1891535e3c01a5', 'userID': '651548e4be1891535e3c01a5', 'username': 'Demo_user1679', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893732000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ebbe1891535e3c01c8', 'userID': '651548ebbe1891535e3c01c8', 'username': 'test409431', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893739000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548f8be1891535e3c0214', 'userID': '651548f8be1891535e3c0214', 'username': 'TestUser419', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893752000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651548ffbe1891535e3c0237', 'userID': '651548ffbe1891535e3c0237', 'username': 'Demo_user1360', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893759000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515490dbe1891535e3c028d', 'userID': '6515490dbe1891535e3c028d', 'username': 'Demo_user120', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893773000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515491cbe1891535e3c02bd', 'userID': '6515491cbe1891535e3c02bd', 'username': 'Demo_user1273', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893788000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '6515498ebe1891535e3c041a', 'userID': '6515498ebe1891535e3c041a', 'username': 'Demo_user1260', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695893902000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '651549f3be1891535e3c0457', 'userID': '651549f3be1891535e3c0457', 'username': 'Demo_user1747', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894003000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a68be1891535e3c0487', 'userID': '65154a68be1891535e3c0487', 'username': 'Demo_user1432', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894120000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a72be1891535e3c04aa', 'userID': '65154a72be1891535e3c04aa', 'username': 'test409613', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894130000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a7fbe1891535e3c04cd', 'userID': '65154a7fbe1891535e3c04cd', 'username': 'Demo_user1992', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894143000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154a86be1891535e3c04f0', 'userID': '65154a86be1891535e3c04f0', 'username': 'test409776', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 0, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894150000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa0be1891535e3c053c', 'userID': '65154aa0be1891535e3c053c', 'username': 'TestUser11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894176000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154aa9be1891535e3c055f', 'userID': '65154aa9be1891535e3c055f', 'username': 'Demo_user11', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894185000, 'secureLogin': 0, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}, {'id': '65154abcbe1891535e3c05a8', 'userID': '65154abcbe1891535e3c05a8', 'username': 'Demo_user1767', 'serviceUser': False, 'roleId': '6512825eb5505c9518c38e91', 'userRoleId': '6512825eb5505c9518c38e91', 'enabled': 1, 'accountId': '6512825db5505c9518c38e90', 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695894204000, 'secureLogin': 0, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '6512825eb5505c9518c38e94'}]</t>
-        </is>
-      </c>
-      <c r="F17" s="18" t="n"/>
-      <c r="G17" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H17" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : None</t>
-        </is>
-      </c>
-      <c r="I17" s="18" t="inlineStr">
-        <is>
-          <t>15:14:15</t>
-        </is>
-      </c>
-      <c r="J17" s="18" t="inlineStr">
-        <is>
-          <t>15:14:21</t>
-        </is>
-      </c>
-      <c r="K17" s="18" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="105" customHeight="1">
-      <c r="A18" s="47" t="n"/>
-      <c r="B18" s="18" t="inlineStr">
-        <is>
-          <t>Test_17</t>
-        </is>
-      </c>
-      <c r="C18" s="18" t="n"/>
-      <c r="D18" s="18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E18" s="18" t="inlineStr">
-        <is>
-          <t>{'alerts': [], 'sendInAppNotifications': False, 'userID': '65128268d86a782fa5f5baeb', 'sendSMS': False, 'sendMMS': False, 'sendEmail': False, 'enabledAlert': False, 'sendXMLRPC': False}</t>
-        </is>
-      </c>
-      <c r="F18" s="18" t="n"/>
-      <c r="G18" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H18" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : None</t>
-        </is>
-      </c>
-      <c r="I18" s="18" t="inlineStr">
-        <is>
-          <t>15:14:22</t>
-        </is>
-      </c>
-      <c r="J18" s="18" t="inlineStr">
-        <is>
-          <t>15:14:33</t>
-        </is>
-      </c>
-      <c r="K18" s="18" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="86.40000000000001" customHeight="1">
-      <c r="A19" s="47" t="n"/>
-      <c r="B19" s="18" t="inlineStr">
-        <is>
-          <t>Test_18</t>
-        </is>
-      </c>
-      <c r="C19" s="18" t="n"/>
-      <c r="D19" s="18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E19" s="18" t="inlineStr">
-        <is>
-          <t>{'data': '65154b0cbe1891535e3c0695', 'message': 'User with UserId: 65154b0cbe1891535e3c0695 was removed.', 'isSuccess': True}</t>
-        </is>
-      </c>
-      <c r="F19" s="18" t="n"/>
-      <c r="G19" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H19" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : None</t>
-        </is>
-      </c>
-      <c r="I19" s="18" t="inlineStr">
-        <is>
-          <t>15:14:33</t>
-        </is>
-      </c>
-      <c r="J19" s="18" t="inlineStr">
+      <c r="I20" s="52" t="inlineStr">
         <is>
           <t>15:14:46</t>
         </is>
       </c>
-      <c r="K19" s="18" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="86.40000000000001" customHeight="1">
-      <c r="A20" s="48" t="n"/>
-      <c r="B20" s="18" t="inlineStr">
-        <is>
-          <t>Test_19</t>
-        </is>
-      </c>
-      <c r="C20" s="18" t="n"/>
-      <c r="D20" s="18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E20" s="18" t="inlineStr">
-        <is>
-          <t>{'data': '65154b18be1891535e3c06cb', 'message': 'User with UserId: 65154b18be1891535e3c06cb was removed.', 'isSuccess': True}</t>
-        </is>
-      </c>
-      <c r="F20" s="18" t="n"/>
-      <c r="G20" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H20" s="18" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : None</t>
-        </is>
-      </c>
-      <c r="I20" s="18" t="inlineStr">
-        <is>
-          <t>15:14:46</t>
-        </is>
-      </c>
-      <c r="J20" s="18" t="inlineStr">
+      <c r="J20" s="52" t="inlineStr">
         <is>
           <t>15:14:59</t>
         </is>
       </c>
-      <c r="K20" s="18" t="inlineStr">
+      <c r="K20" s="52" t="inlineStr">
         <is>
           <t>13.0</t>
         </is>
@@ -2812,57 +2830,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="43.2" customHeight="1">
-      <c r="A1" s="21" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>Test No</t>
         </is>
       </c>
-      <c r="B1" s="22" t="inlineStr">
+      <c r="B1" s="21" t="inlineStr">
         <is>
           <t>TestCase</t>
         </is>
       </c>
-      <c r="C1" s="23" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>TestCase Description</t>
         </is>
       </c>
-      <c r="D1" s="22" t="inlineStr">
+      <c r="D1" s="21" t="inlineStr">
         <is>
           <t>Request Body</t>
         </is>
       </c>
-      <c r="E1" s="22" t="inlineStr">
+      <c r="E1" s="21" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="F1" s="23" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>Check_Point/Test_Condition</t>
         </is>
       </c>
-      <c r="G1" s="23" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Result (Pass/Fail)</t>
         </is>
       </c>
-      <c r="H1" s="23" t="inlineStr">
+      <c r="H1" s="22" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="I1" s="23" t="inlineStr">
+      <c r="I1" s="22" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="J1" s="23" t="inlineStr">
+      <c r="J1" s="22" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Total Duration
 (Seconds)</t>
@@ -2870,7 +2888,7 @@
       </c>
     </row>
     <row r="2" ht="151.8" customHeight="1">
-      <c r="A2" s="46" t="inlineStr">
+      <c r="A2" s="49" t="inlineStr">
         <is>
           <t>Users Role</t>
         </is>
@@ -2880,7 +2898,7 @@
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="39" t="inlineStr">
+      <c r="C2" s="35" t="inlineStr">
         <is>
           <t>Verify create user role</t>
         </is>
@@ -2900,7 +2918,7 @@
           <t>Response Status Code : 200 &amp; Message : Dynamic57</t>
         </is>
       </c>
-      <c r="G2" s="42" t="inlineStr">
+      <c r="G2" s="37" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2910,7 +2928,7 @@
           <t>Response Status Code : 200 &amp; Message : RoleName58</t>
         </is>
       </c>
-      <c r="I2" s="38" t="inlineStr">
+      <c r="I2" s="34" t="inlineStr">
         <is>
           <t>19:30:17</t>
         </is>
@@ -2927,106 +2945,106 @@
       </c>
     </row>
     <row r="3" ht="115.8" customHeight="1">
-      <c r="A3" s="47" t="n"/>
+      <c r="A3" s="50" t="n"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="40" t="inlineStr">
+      <c r="C3" s="36" t="inlineStr">
         <is>
           <t>Verify get all users</t>
         </is>
       </c>
-      <c r="D3" s="18" t="inlineStr">
+      <c r="D3" s="52" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E3" s="18" t="inlineStr">
+      <c r="E3" s="52" t="inlineStr">
         <is>
           <t>{'userRoleInfo': {'userRoles': [{'id': '6509490800b0398858000033', 'roleName': 'facefirst-user-role', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '6509490800b0398858000033'}, {'id': '650dcf09327ea63edec3df4d', 'roleName': 'role', 'description': 'desc', 'enabled': True, 'rights': {'alertGroup': 0, 'profile': 0, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650dcf09327ea63edec3df4d'}, {'id': '650f077a327ea63edec3e171', 'roleName': 'RoleName58', 'description': 'Test Description', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650f077a327ea63edec3e171'}, {'id': '650f0793327ea63edec3e191', 'roleName': 'RoleName55', 'description': 'Test Description', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650f0793327ea63edec3e191'}]}}</t>
         </is>
       </c>
-      <c r="F3" s="18" t="inlineStr">
+      <c r="F3" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 650d7918327ea63edec3d6ac</t>
         </is>
       </c>
-      <c r="G3" s="42" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="G3" s="37" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 650f0793327ea63edec3e191</t>
         </is>
       </c>
-      <c r="I3" s="18" t="inlineStr">
+      <c r="I3" s="52" t="inlineStr">
         <is>
           <t>19:30:22</t>
         </is>
       </c>
-      <c r="J3" s="18" t="inlineStr">
+      <c r="J3" s="52" t="inlineStr">
         <is>
           <t>21:13:18</t>
         </is>
       </c>
-      <c r="K3" s="18" t="inlineStr">
+      <c r="K3" s="52" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="4" ht="94.8" customHeight="1">
-      <c r="A4" s="48" t="n"/>
+      <c r="A4" s="51" t="n"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Test_03</t>
         </is>
       </c>
-      <c r="C4" s="40" t="inlineStr">
+      <c r="C4" s="36" t="inlineStr">
         <is>
           <t xml:space="preserve">Verify get users id </t>
         </is>
       </c>
-      <c r="D4" s="18" t="inlineStr">
+      <c r="D4" s="52" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E4" s="18" t="inlineStr">
+      <c r="E4" s="52" t="inlineStr">
         <is>
           <t>{'userRoleInfo': {'userRoles': [{'id': '650f07a5327ea63edec3e1b3', 'roleName': 'RoleName10', 'description': 'Test Description', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650f07a5327ea63edec3e1b3'}]}}</t>
         </is>
       </c>
-      <c r="F4" s="18" t="inlineStr">
+      <c r="F4" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 650d7e2e327ea63edec3d7f0</t>
         </is>
       </c>
-      <c r="G4" s="42" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H4" s="18" t="inlineStr">
+      <c r="G4" s="37" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 650f07a5327ea63edec3e1b3</t>
         </is>
       </c>
-      <c r="I4" s="18" t="inlineStr">
+      <c r="I4" s="52" t="inlineStr">
         <is>
           <t>19:30:30</t>
         </is>
       </c>
-      <c r="J4" s="18" t="inlineStr">
+      <c r="J4" s="52" t="inlineStr">
         <is>
           <t>21:13:35</t>
         </is>
       </c>
-      <c r="K4" s="18" t="inlineStr">
+      <c r="K4" s="52" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
@@ -3049,7 +3067,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -3068,57 +3086,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.8" customHeight="1">
-      <c r="A1" s="21" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>Test No</t>
         </is>
       </c>
-      <c r="B1" s="22" t="inlineStr">
+      <c r="B1" s="21" t="inlineStr">
         <is>
           <t>TestCase</t>
         </is>
       </c>
-      <c r="C1" s="23" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>TestCase Description</t>
         </is>
       </c>
-      <c r="D1" s="22" t="inlineStr">
+      <c r="D1" s="21" t="inlineStr">
         <is>
           <t>Request Body</t>
         </is>
       </c>
-      <c r="E1" s="22" t="inlineStr">
+      <c r="E1" s="21" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="F1" s="23" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>Check_Point/Test_Condition</t>
         </is>
       </c>
-      <c r="G1" s="23" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>Result (Pass/Fail)</t>
         </is>
       </c>
-      <c r="H1" s="23" t="inlineStr">
+      <c r="H1" s="22" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="I1" s="23" t="inlineStr">
+      <c r="I1" s="22" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="J1" s="23" t="inlineStr">
+      <c r="J1" s="22" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="K1" s="24" t="inlineStr">
         <is>
           <t>Total Duration
 (Seconds)</t>
@@ -3126,587 +3144,587 @@
       </c>
     </row>
     <row r="2" ht="62.4" customHeight="1">
-      <c r="A2" s="18" t="inlineStr">
+      <c r="A2" s="52" t="inlineStr">
         <is>
           <t>Enrollment Group</t>
         </is>
       </c>
-      <c r="B2" s="18" t="inlineStr">
+      <c r="B2" s="52" t="inlineStr">
         <is>
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="50" t="inlineStr">
+      <c r="C2" s="38" t="inlineStr">
         <is>
           <t>verify the get all enrollment group</t>
         </is>
       </c>
-      <c r="D2" s="18" t="inlineStr">
+      <c r="D2" s="52" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E2" s="18" t="inlineStr">
+      <c r="E2" s="52" t="inlineStr">
         <is>
           <t>[{'id': '6512826ee3534b7b91f740c0', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '6512a2a9be1891535e3b8703', '6512a24dbe1891535e3b8702', '6512a215be1891535e3b8701'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8a4be1891535e3b87cb', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512bef9be1891535e3b9b10', 'desc': 'b', 'enrollmentGroupIds': ['6512a8a4be1891535e3b87cb'], 'name': 'bb', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512a8aabe1891535e3b87ec', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8b2be1891535e3b8810', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8c1be1891535e3b8859', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8f0be1891535e3b8889', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a985be1891535e3b88a2', 'name': 'test renrollment updated', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aa60be1891535e3b88cd', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aac4be1891535e3b8901', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aafebe1891535e3b8931', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ab92be1891535e3b8a55', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ad95be1891535e3b8ac2', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512adadbe1891535e3b8af2', 'name': 'test enrollment454', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512add9be1891535e3b8b41', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae09be1891535e3b8b71', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae73be1891535e3b8bd8', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae73be1891535e3b8bdb', 'name': 'test enrollment784', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae79be1891535e3b8c0f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae81be1891535e3b8c33', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae90be1891535e3b8c7c', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae9bbe1891535e3b8cb3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b203be1891535e3b8ee7', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b443be1891535e3b9113', 'name': 'test enrollment173', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b797be1891535e3b9589', 'name': 'test enrollment254', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b799be1891535e3b959d', 'desc': 'test description', 'enrollmentGroupIds': ['6512b797be1891535e3b9589'], 'name': 'Test_notification_Api846', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512b7b3be1891535e3b95cc', 'name': 'test enrollment260', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b7b6be1891535e3b95e0', 'desc': 'test description', 'enrollmentGroupIds': ['6512b7b3be1891535e3b95cc'], 'name': 'Test_notification_Api738', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512b8b3be1891535e3b97bd', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b92dbe1891535e3b97ed', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b974be1891535e3b9836', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b9cdbe1891535e3b9886', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ba12be1891535e3b98d3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ba5cbe1891535e3b9920', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bc6ebe1891535e3b997f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bcc5be1891535e3b99d5', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bd1dbe1891535e3b9a36', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bd8dbe1891535e3b9a88', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bf31be1891535e3b9b6d', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c011be1891535e3b9c0e', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c7d2be1891535e3b9dfb', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c7e9be1891535e3b9e56', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c85abe1891535e3b9eb1', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c87fbe1891535e3b9f14', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c92cbe1891535e3b9f76', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ca00be1891535e3b9fe9', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cbfdbe1891535e3ba274', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ce25be1891535e3ba302', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cf13be1891535e3ba37b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cffbbe1891535e3ba410', 'name': 'test enrollment577', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512cfffbe1891535e3ba433', 'desc': 'test description', 'enrollmentGroupIds': ['6512cffbbe1891535e3ba410'], 'name': 'Test_notification_Api231', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d022be1891535e3ba458', 'name': 'test enrollment696', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d027be1891535e3ba47b', 'desc': 'test description', 'enrollmentGroupIds': ['6512d022be1891535e3ba458'], 'name': 'Test_notification_Api831', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d0abbe1891535e3ba4d1', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d0dabe1891535e3ba55f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d150be1891535e3ba683', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d1d9be1891535e3ba75e', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d280be1891535e3ba7cf', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d780be1891535e3ba964', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d7a0be1891535e3ba9d7', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d888be1891535e3baa4a', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d88ebe1891535e3baa6b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d895be1891535e3baa8f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8a5be1891535e3baad8', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8b0be1891535e3bab0f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8b9be1891535e3bab48', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8c6be1891535e3bab95', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8d3be1891535e3babe3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b5d7be1891535e3b935d', 'desc': 'random', 'enrollmentGroupIds': ['6512d8d3be1891535e3babe3'], 'name': 'AA', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d8dfbe1891535e3bac51', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8e5be1891535e3baca6', 'name': 'test enrollment360', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d8e9be1891535e3bacc9', 'desc': 'test description', 'enrollmentGroupIds': ['6512d8e5be1891535e3baca6'], 'name': 'Test_notification_Api580', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d916be1891535e3bad19', 'name': 'test enrollment172', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d919be1891535e3bad2d', 'desc': 'test description', 'enrollmentGroupIds': ['6512d916be1891535e3bad19'], 'name': 'Test_notification_Api631', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d965be1891535e3baf73', 'name': 'test enrollment190', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d969be1891535e3baf96', 'desc': 'test description', 'enrollmentGroupIds': ['6512d965be1891535e3baf73'], 'name': 'Test_notification_Api255', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512fb01be1891535e3bb9cc', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb07be1891535e3bb9e9', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb0fbe1891535e3bba09', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb21be1891535e3bba4a', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb2bbe1891535e3bba7b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb38be1891535e3bbaae', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb45be1891535e3bbaf3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65132350be1891535e3bbed3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}]</t>
         </is>
       </c>
-      <c r="F2" s="18" t="inlineStr">
+      <c r="F2" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G2" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H2" s="18" t="inlineStr">
+      <c r="G2" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I2" s="18" t="inlineStr">
+      <c r="I2" s="52" t="inlineStr">
         <is>
           <t>19:58:57</t>
         </is>
       </c>
-      <c r="J2" s="18" t="inlineStr">
+      <c r="J2" s="52" t="inlineStr">
         <is>
           <t>19:59:01</t>
         </is>
       </c>
-      <c r="K2" s="18" t="inlineStr">
+      <c r="K2" s="52" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
     </row>
     <row r="3" ht="65.40000000000001" customHeight="1">
-      <c r="A3" s="47" t="n"/>
-      <c r="B3" s="18" t="inlineStr">
+      <c r="A3" s="50" t="n"/>
+      <c r="B3" s="52" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="50" t="inlineStr">
+      <c r="C3" s="38" t="inlineStr">
         <is>
           <t>verify the enrollment groups is created with valid data.</t>
         </is>
       </c>
-      <c r="D3" s="18" t="inlineStr">
+      <c r="D3" s="52" t="inlineStr">
         <is>
           <t>{'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'eventsSuppressionInterval': 0, 'priority': 'Low', 'seriousOffender': 'Low', 'alertHexColor': '#FFFFFF', 'activeThreat': False}</t>
         </is>
       </c>
-      <c r="E3" s="18" t="inlineStr">
+      <c r="E3" s="52" t="inlineStr">
         <is>
           <t>{'data': '65143c32be1891535e3bdbd4', 'message': 'Enrollment Group 65143c32be1891535e3bdbd4 is created.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F3" s="18" t="inlineStr">
+      <c r="F3" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group 6512d888be1891535e3baa4a is created.</t>
         </is>
       </c>
-      <c r="G3" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="G3" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group 65143c32be1891535e3bdbd4 is created.</t>
         </is>
       </c>
-      <c r="I3" s="18" t="inlineStr">
+      <c r="I3" s="52" t="inlineStr">
         <is>
           <t>19:59:02</t>
         </is>
       </c>
-      <c r="J3" s="18" t="inlineStr">
+      <c r="J3" s="52" t="inlineStr">
         <is>
           <t>19:59:07</t>
         </is>
       </c>
-      <c r="K3" s="18" t="inlineStr">
+      <c r="K3" s="52" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
     </row>
     <row r="4" ht="87.59999999999999" customHeight="1">
-      <c r="A4" s="47" t="n"/>
-      <c r="B4" s="18" t="inlineStr">
+      <c r="A4" s="50" t="n"/>
+      <c r="B4" s="52" t="inlineStr">
         <is>
           <t>Test_03</t>
         </is>
       </c>
-      <c r="C4" s="50" t="inlineStr">
+      <c r="C4" s="38" t="inlineStr">
         <is>
           <t xml:space="preserve">verify the get single enrollment group </t>
         </is>
       </c>
-      <c r="D4" s="18" t="inlineStr">
+      <c r="D4" s="52" t="inlineStr">
         <is>
           <t>{'id': '65143c38be1891535e3bdbf1'}</t>
         </is>
       </c>
-      <c r="E4" s="18" t="inlineStr">
+      <c r="E4" s="52" t="inlineStr">
         <is>
           <t>[{'id': '6512826ee3534b7b91f740c0', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '6512a2a9be1891535e3b8703', '6512a24dbe1891535e3b8702', '6512a215be1891535e3b8701'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8a4be1891535e3b87cb', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512bef9be1891535e3b9b10', 'desc': 'b', 'enrollmentGroupIds': ['6512a8a4be1891535e3b87cb'], 'name': 'bb', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512a8aabe1891535e3b87ec', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8b2be1891535e3b8810', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8c1be1891535e3b8859', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a8f0be1891535e3b8889', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512a985be1891535e3b88a2', 'name': 'test renrollment updated', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aa60be1891535e3b88cd', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aac4be1891535e3b8901', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512aafebe1891535e3b8931', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ab92be1891535e3b8a55', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ad95be1891535e3b8ac2', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512adadbe1891535e3b8af2', 'name': 'test enrollment454', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512add9be1891535e3b8b41', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae09be1891535e3b8b71', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae73be1891535e3b8bd8', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae73be1891535e3b8bdb', 'name': 'test enrollment784', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae79be1891535e3b8c0f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae81be1891535e3b8c33', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae90be1891535e3b8c7c', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ae9bbe1891535e3b8cb3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b203be1891535e3b8ee7', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b443be1891535e3b9113', 'name': 'test enrollment173', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b797be1891535e3b9589', 'name': 'test enrollment254', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b799be1891535e3b959d', 'desc': 'test description', 'enrollmentGroupIds': ['6512b797be1891535e3b9589'], 'name': 'Test_notification_Api846', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512b7b3be1891535e3b95cc', 'name': 'test enrollment260', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b7b6be1891535e3b95e0', 'desc': 'test description', 'enrollmentGroupIds': ['6512b7b3be1891535e3b95cc'], 'name': 'Test_notification_Api738', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512b8b3be1891535e3b97bd', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b92dbe1891535e3b97ed', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b974be1891535e3b9836', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512b9cdbe1891535e3b9886', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ba12be1891535e3b98d3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ba5cbe1891535e3b9920', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bc6ebe1891535e3b997f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bcc5be1891535e3b99d5', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bd1dbe1891535e3b9a36', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bd8dbe1891535e3b9a88', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512bf31be1891535e3b9b6d', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c011be1891535e3b9c0e', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c7d2be1891535e3b9dfb', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c7e9be1891535e3b9e56', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c85abe1891535e3b9eb1', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c87fbe1891535e3b9f14', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512c92cbe1891535e3b9f76', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ca00be1891535e3b9fe9', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cbfdbe1891535e3ba274', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512ce25be1891535e3ba302', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cf13be1891535e3ba37b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512cffbbe1891535e3ba410', 'name': 'test enrollment577', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512cfffbe1891535e3ba433', 'desc': 'test description', 'enrollmentGroupIds': ['6512cffbbe1891535e3ba410'], 'name': 'Test_notification_Api231', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d022be1891535e3ba458', 'name': 'test enrollment696', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d027be1891535e3ba47b', 'desc': 'test description', 'enrollmentGroupIds': ['6512d022be1891535e3ba458'], 'name': 'Test_notification_Api831', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d0abbe1891535e3ba4d1', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d0dabe1891535e3ba55f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d150be1891535e3ba683', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d1d9be1891535e3ba75e', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d280be1891535e3ba7cf', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d780be1891535e3ba964', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d7a0be1891535e3ba9d7', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d888be1891535e3baa4a', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d88ebe1891535e3baa6b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d895be1891535e3baa8f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8a5be1891535e3baad8', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8b0be1891535e3bab0f', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8b9be1891535e3bab48', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8c6be1891535e3bab95', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8d3be1891535e3babe3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512b5d7be1891535e3b935d', 'desc': 'random', 'enrollmentGroupIds': ['6512d8d3be1891535e3babe3'], 'name': 'AA', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d8dfbe1891535e3bac51', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512d8e5be1891535e3baca6', 'name': 'test enrollment360', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d8e9be1891535e3bacc9', 'desc': 'test description', 'enrollmentGroupIds': ['6512d8e5be1891535e3baca6'], 'name': 'Test_notification_Api580', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d916be1891535e3bad19', 'name': 'test enrollment172', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d919be1891535e3bad2d', 'desc': 'test description', 'enrollmentGroupIds': ['6512d916be1891535e3bad19'], 'name': 'Test_notification_Api631', 'ownerID': '6512825db5505c9518c38e90', 'userIds': ['6512826fe3534b7b91f740d0'], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512d965be1891535e3baf73', 'name': 'test enrollment190', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '6512d969be1891535e3baf96', 'desc': 'test description', 'enrollmentGroupIds': ['6512d965be1891535e3baf73'], 'name': 'Test_notification_Api255', 'ownerID': '6512825db5505c9518c38e90', 'userIds': [], 'zoneIds': ['6512825eb5505c9518c38e94']}]}, {'id': '6512fb01be1891535e3bb9cc', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb07be1891535e3bb9e9', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb0fbe1891535e3bba09', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb21be1891535e3bba4a', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94', '65128303f174a38fadf060cf'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb2bbe1891535e3bba7b', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb38be1891535e3bbaae', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6512fb45be1891535e3bbaf3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65132350be1891535e3bbed3', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65143c32be1891535e3bdbd4', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65143c38be1891535e3bdbf1', 'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['6512825eb5505c9518c38e94'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}]</t>
         </is>
       </c>
-      <c r="F4" s="18" t="inlineStr">
+      <c r="F4" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G4" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H4" s="18" t="inlineStr">
+      <c r="G4" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I4" s="18" t="inlineStr">
+      <c r="I4" s="52" t="inlineStr">
         <is>
           <t>19:59:07</t>
         </is>
       </c>
-      <c r="J4" s="18" t="inlineStr">
+      <c r="J4" s="52" t="inlineStr">
         <is>
           <t>19:59:14</t>
         </is>
       </c>
-      <c r="K4" s="18" t="inlineStr">
+      <c r="K4" s="52" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>
       </c>
     </row>
     <row r="5" ht="89.40000000000001" customHeight="1">
-      <c r="A5" s="47" t="n"/>
-      <c r="B5" s="18" t="inlineStr">
+      <c r="A5" s="50" t="n"/>
+      <c r="B5" s="52" t="inlineStr">
         <is>
           <t>Test_04</t>
         </is>
       </c>
-      <c r="C5" s="50" t="inlineStr">
+      <c r="C5" s="38" t="inlineStr">
         <is>
           <t>verify the update enrollnment group</t>
         </is>
       </c>
-      <c r="D5" s="18" t="inlineStr">
+      <c r="D5" s="52" t="inlineStr">
         <is>
           <t>{'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'eventsSuppressionInterval': 0, 'priority': 'Low', 'seriousOffender': 'Low', 'alertHexColor': '#FFFFFF', 'activeThreat': False}</t>
         </is>
       </c>
-      <c r="E5" s="18" t="inlineStr">
+      <c r="E5" s="52" t="inlineStr">
         <is>
           <t>{'data': '65143c3fbe1891535e3bdc11', 'message': 'Enrollment Group is updated', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F5" s="18" t="inlineStr">
+      <c r="F5" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group is updated</t>
         </is>
       </c>
-      <c r="G5" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H5" s="18" t="inlineStr">
+      <c r="G5" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group is updated</t>
         </is>
       </c>
-      <c r="I5" s="18" t="inlineStr">
+      <c r="I5" s="52" t="inlineStr">
         <is>
           <t>19:59:14</t>
         </is>
       </c>
-      <c r="J5" s="18" t="inlineStr">
+      <c r="J5" s="52" t="inlineStr">
         <is>
           <t>19:59:22</t>
         </is>
       </c>
-      <c r="K5" s="18" t="inlineStr">
+      <c r="K5" s="52" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="6" ht="66.59999999999999" customHeight="1">
-      <c r="A6" s="47" t="n"/>
-      <c r="B6" s="18" t="inlineStr">
+      <c r="A6" s="50" t="n"/>
+      <c r="B6" s="52" t="inlineStr">
         <is>
           <t>Test_05</t>
         </is>
       </c>
-      <c r="C6" s="50" t="inlineStr">
+      <c r="C6" s="38" t="inlineStr">
         <is>
           <t>verify remove a single Enrollment Group from collection</t>
         </is>
       </c>
-      <c r="D6" s="18" t="inlineStr">
+      <c r="D6" s="52" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E6" s="18" t="inlineStr">
+      <c r="E6" s="52" t="inlineStr">
         <is>
           <t>{'data': True, 'message': 'Enrollment Group 65143c47be1891535e3bdc31 is removed.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F6" s="18" t="inlineStr">
+      <c r="F6" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group 6512d89dbe1891535e3baab3 is removed.</t>
         </is>
       </c>
-      <c r="G6" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H6" s="18" t="inlineStr">
+      <c r="G6" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group 65143c47be1891535e3bdc31 is removed.</t>
         </is>
       </c>
-      <c r="I6" s="18" t="inlineStr">
+      <c r="I6" s="52" t="inlineStr">
         <is>
           <t>19:59:22</t>
         </is>
       </c>
-      <c r="J6" s="18" t="inlineStr">
+      <c r="J6" s="52" t="inlineStr">
         <is>
           <t>19:59:29</t>
         </is>
       </c>
-      <c r="K6" s="18" t="inlineStr">
+      <c r="K6" s="52" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>
       </c>
     </row>
     <row r="7" ht="87.59999999999999" customHeight="1">
-      <c r="A7" s="47" t="n"/>
-      <c r="B7" s="18" t="inlineStr">
+      <c r="A7" s="50" t="n"/>
+      <c r="B7" s="52" t="inlineStr">
         <is>
           <t>Test_06</t>
         </is>
       </c>
-      <c r="C7" s="50" t="inlineStr">
+      <c r="C7" s="38" t="inlineStr">
         <is>
           <t>verify create enrollment group with addCaseGroupZone</t>
         </is>
       </c>
-      <c r="D7" s="18" t="inlineStr">
+      <c r="D7" s="52" t="inlineStr">
         <is>
           <t>{'cGroupId': '65143c4ebe1891535e3bdc52', 'zoneIds': ['65128303f174a38fadf060cf']}</t>
         </is>
       </c>
-      <c r="E7" s="18" t="inlineStr">
+      <c r="E7" s="52" t="inlineStr">
         <is>
           <t>{'result': {'message': "Zones added to enrollment group id '65143c4ebe1891535e3bdc52' for account 6512825db5505c9518c38e90.", 'status': 'ok'}}</t>
         </is>
       </c>
-      <c r="F7" s="18" t="inlineStr">
+      <c r="F7" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Zones added to enrollment group id '6512d8a5be1891535e3baad8' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G7" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H7" s="18" t="inlineStr">
+      <c r="G7" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H7" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Zones added to enrollment group id '65143c4ebe1891535e3bdc52' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="I7" s="18" t="inlineStr">
+      <c r="I7" s="52" t="inlineStr">
         <is>
           <t>19:59:29</t>
         </is>
       </c>
-      <c r="J7" s="18" t="inlineStr">
+      <c r="J7" s="52" t="inlineStr">
         <is>
           <t>19:59:38</t>
         </is>
       </c>
-      <c r="K7" s="18" t="inlineStr">
+      <c r="K7" s="52" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
       </c>
     </row>
     <row r="8" ht="106.2" customHeight="1">
-      <c r="A8" s="47" t="n"/>
-      <c r="B8" s="18" t="inlineStr">
+      <c r="A8" s="50" t="n"/>
+      <c r="B8" s="52" t="inlineStr">
         <is>
           <t>Test_07</t>
         </is>
       </c>
-      <c r="C8" s="50" t="inlineStr">
+      <c r="C8" s="38" t="inlineStr">
         <is>
           <t>verify removeCaseGroupZone</t>
         </is>
       </c>
-      <c r="D8" s="18" t="inlineStr">
+      <c r="D8" s="52" t="inlineStr">
         <is>
           <t>{'cGroupId': '65143c58be1891535e3bdc83', 'zoneIds': ['65128303f174a38fadf060cf']}</t>
         </is>
       </c>
-      <c r="E8" s="18" t="inlineStr">
+      <c r="E8" s="52" t="inlineStr">
         <is>
           <t>{'result': {'message': "Zones removed to case group id '65143c58be1891535e3bdc83' for account 6512825db5505c9518c38e90.", 'status': 'ok'}}</t>
         </is>
       </c>
-      <c r="F8" s="18" t="inlineStr">
+      <c r="F8" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Zones removed to case group id '6512d8b0be1891535e3bab0f' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G8" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H8" s="18" t="inlineStr">
+      <c r="G8" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H8" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Zones removed to case group id '65143c58be1891535e3bdc83' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="I8" s="18" t="inlineStr">
+      <c r="I8" s="52" t="inlineStr">
         <is>
           <t>19:59:39</t>
         </is>
       </c>
-      <c r="J8" s="18" t="inlineStr">
+      <c r="J8" s="52" t="inlineStr">
         <is>
           <t>19:59:48</t>
         </is>
       </c>
-      <c r="K8" s="18" t="inlineStr">
+      <c r="K8" s="52" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
       </c>
     </row>
     <row r="9" ht="77.40000000000001" customHeight="1">
-      <c r="A9" s="47" t="n"/>
-      <c r="B9" s="18" t="inlineStr">
+      <c r="A9" s="50" t="n"/>
+      <c r="B9" s="52" t="inlineStr">
         <is>
           <t>Test_08</t>
         </is>
       </c>
-      <c r="C9" s="50" t="inlineStr">
+      <c r="C9" s="38" t="inlineStr">
         <is>
           <t>verify update enrollment group using addCaseGroupCase</t>
         </is>
       </c>
-      <c r="D9" s="18" t="inlineStr">
+      <c r="D9" s="52" t="inlineStr">
         <is>
           <t>{'id': ['6512825db5505c9518c38e90'], 'case_id': '6512b0acbe1891535e3b8ddc', 'cgroup_id': '65143c62be1891535e3bdcb6'}</t>
         </is>
       </c>
-      <c r="E9" s="18" t="inlineStr">
+      <c r="E9" s="52" t="inlineStr">
         <is>
           <t>{'result': {'message': "Enrollment added to enrollment group id '65143c62be1891535e3bdcb6' for account 6512825db5505c9518c38e90.", 'status': 'ok'}}</t>
         </is>
       </c>
-      <c r="F9" s="18" t="inlineStr">
+      <c r="F9" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment added to enrollment group id '6512d8b9be1891535e3bab48' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G9" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H9" s="18" t="inlineStr">
+      <c r="G9" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H9" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment added to enrollment group id '65143c62be1891535e3bdcb6' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="I9" s="18" t="inlineStr">
+      <c r="I9" s="52" t="inlineStr">
         <is>
           <t>19:59:49</t>
         </is>
       </c>
-      <c r="J9" s="18" t="inlineStr">
+      <c r="J9" s="52" t="inlineStr">
         <is>
           <t>20:00:01</t>
         </is>
       </c>
-      <c r="K9" s="18" t="inlineStr">
+      <c r="K9" s="52" t="inlineStr">
         <is>
           <t>12.0</t>
         </is>
       </c>
     </row>
     <row r="10" ht="99.59999999999999" customHeight="1">
-      <c r="A10" s="47" t="n"/>
-      <c r="B10" s="18" t="inlineStr">
+      <c r="A10" s="50" t="n"/>
+      <c r="B10" s="52" t="inlineStr">
         <is>
           <t>Test_09</t>
         </is>
       </c>
-      <c r="C10" s="50" t="inlineStr">
+      <c r="C10" s="38" t="inlineStr">
         <is>
           <t>verify removeCaseGroupCase</t>
         </is>
       </c>
-      <c r="D10" s="18" t="inlineStr">
+      <c r="D10" s="52" t="inlineStr">
         <is>
           <t>{'id': ['6512825db5505c9518c38e90'], 'case_id': '6512b0acbe1891535e3b8ddc', 'cgroup_id': '65143c6ebe1891535e3bdcfb'}</t>
         </is>
       </c>
-      <c r="E10" s="18" t="inlineStr">
+      <c r="E10" s="52" t="inlineStr">
         <is>
           <t>{'result': {'message': "Enrollment removed from enrollment group id '65143c6ebe1891535e3bdcfb' for account 6512825db5505c9518c38e90.", 'status': 'ok'}}</t>
         </is>
       </c>
-      <c r="F10" s="18" t="inlineStr">
+      <c r="F10" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment removed from enrollment group id '6512d8c6be1891535e3bab95' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G10" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H10" s="18" t="inlineStr">
+      <c r="G10" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H10" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment removed from enrollment group id '65143c6ebe1891535e3bdcfb' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="I10" s="18" t="inlineStr">
+      <c r="I10" s="52" t="inlineStr">
         <is>
           <t>20:00:01</t>
         </is>
       </c>
-      <c r="J10" s="18" t="inlineStr">
+      <c r="J10" s="52" t="inlineStr">
         <is>
           <t>20:00:13</t>
         </is>
       </c>
-      <c r="K10" s="18" t="inlineStr">
+      <c r="K10" s="52" t="inlineStr">
         <is>
           <t>12.0</t>
         </is>
       </c>
     </row>
     <row r="11" ht="94.2" customHeight="1">
-      <c r="A11" s="47" t="n"/>
-      <c r="B11" s="18" t="inlineStr">
+      <c r="A11" s="50" t="n"/>
+      <c r="B11" s="52" t="inlineStr">
         <is>
           <t>Test_10</t>
         </is>
       </c>
-      <c r="C11" s="50" t="inlineStr">
+      <c r="C11" s="38" t="inlineStr">
         <is>
           <t>verify update enrollment group using addAlertGroupCase</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="52" t="inlineStr">
         <is>
           <t>{'CGroupID': '65143c7abe1891535e3bdd40', 'AGroupID': '6512b5d7be1891535e3b935d'}</t>
         </is>
       </c>
-      <c r="E11" s="18" t="inlineStr">
+      <c r="E11" s="52" t="inlineStr">
         <is>
           <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been added to the alert group with id = 65143c7abe1891535e3bdd40'}}</t>
         </is>
       </c>
-      <c r="F11" s="18" t="inlineStr">
+      <c r="F11" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been added to the alert group with id = 6512d8d3be1891535e3babe3</t>
         </is>
       </c>
-      <c r="G11" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H11" s="18" t="inlineStr">
+      <c r="G11" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H11" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been added to the alert group with id = 65143c7abe1891535e3bdd40</t>
         </is>
       </c>
-      <c r="I11" s="18" t="inlineStr">
+      <c r="I11" s="52" t="inlineStr">
         <is>
           <t>20:00:13</t>
         </is>
       </c>
-      <c r="J11" s="18" t="inlineStr">
+      <c r="J11" s="52" t="inlineStr">
         <is>
           <t>20:00:22</t>
         </is>
       </c>
-      <c r="K11" s="18" t="inlineStr">
+      <c r="K11" s="52" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
       </c>
     </row>
     <row r="12" ht="94.2" customHeight="1">
-      <c r="A12" s="48" t="n"/>
-      <c r="B12" s="18" t="inlineStr">
+      <c r="A12" s="51" t="n"/>
+      <c r="B12" s="52" t="inlineStr">
         <is>
           <t>Test_11</t>
         </is>
       </c>
-      <c r="C12" s="50" t="inlineStr">
+      <c r="C12" s="38" t="inlineStr">
         <is>
           <t>verify removeAlertGroupCase</t>
         </is>
       </c>
-      <c r="D12" s="18" t="inlineStr">
+      <c r="D12" s="52" t="inlineStr">
         <is>
           <t>{'CGroupID': '65143c85be1891535e3bddb6', 'AGroupID': '6512b5d7be1891535e3b935d'}</t>
         </is>
       </c>
-      <c r="E12" s="18" t="inlineStr">
+      <c r="E12" s="52" t="inlineStr">
         <is>
           <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been removed from the alert group with id = 65143c85be1891535e3bddb6'}}</t>
         </is>
       </c>
-      <c r="F12" s="18" t="inlineStr">
+      <c r="F12" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been removed from the alert group with id = 6512d8dfbe1891535e3bac51</t>
         </is>
       </c>
-      <c r="G12" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H12" s="18" t="inlineStr">
+      <c r="G12" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H12" s="52" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been removed from the alert group with id = 65143c85be1891535e3bddb6</t>
         </is>
       </c>
-      <c r="I12" s="18" t="inlineStr">
+      <c r="I12" s="52" t="inlineStr">
         <is>
           <t>20:00:23</t>
         </is>
       </c>
-      <c r="J12" s="18" t="inlineStr">
+      <c r="J12" s="52" t="inlineStr">
         <is>
           <t>20:00:34</t>
         </is>
       </c>
-      <c r="K12" s="18" t="inlineStr">
+      <c r="K12" s="52" t="inlineStr">
         <is>
           <t>11.0</t>
         </is>
@@ -3718,4 +3736,959 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="22.21875" customWidth="1" min="1" max="1"/>
+    <col width="18.77734375" customWidth="1" min="2" max="2"/>
+    <col width="18.5546875" customWidth="1" min="3" max="3"/>
+    <col width="32.21875" customWidth="1" min="4" max="4"/>
+    <col width="25.88671875" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="19.33203125" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="19.33203125" customWidth="1" min="9" max="9"/>
+    <col width="14.77734375" customWidth="1" min="10" max="10"/>
+    <col width="19.33203125" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.8" customHeight="1">
+      <c r="A1" s="41" t="inlineStr">
+        <is>
+          <t>Test No</t>
+        </is>
+      </c>
+      <c r="B1" s="41" t="inlineStr">
+        <is>
+          <t>TestCase</t>
+        </is>
+      </c>
+      <c r="C1" s="42" t="inlineStr">
+        <is>
+          <t>TestCase Description</t>
+        </is>
+      </c>
+      <c r="D1" s="41" t="inlineStr">
+        <is>
+          <t>Request Body</t>
+        </is>
+      </c>
+      <c r="E1" s="41" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="F1" s="42" t="inlineStr">
+        <is>
+          <t>Check_Point/Test_Condition</t>
+        </is>
+      </c>
+      <c r="G1" s="42" t="inlineStr">
+        <is>
+          <t>Result (Pass/Fail)</t>
+        </is>
+      </c>
+      <c r="H1" s="42" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="I1" s="42" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="J1" s="42" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="K1" s="42" t="inlineStr">
+        <is>
+          <t>Total Duration
+(Seconds)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="144" customHeight="1">
+      <c r="A2" s="52" t="inlineStr">
+        <is>
+          <t>Notification Group</t>
+        </is>
+      </c>
+      <c r="B2" s="52" t="inlineStr">
+        <is>
+          <t>Test_01</t>
+        </is>
+      </c>
+      <c r="C2" s="52" t="n"/>
+      <c r="D2" s="52" t="inlineStr">
+        <is>
+          <t>{'name': 'Test_notification_Api140', 'description': 'test description', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'caseGroupIdsUserIds': ['65167cb902302bffd7a8bbb5'], 'zoneIds': ['65166d39e119836feb867cec']}</t>
+        </is>
+      </c>
+      <c r="E2" s="52" t="inlineStr">
+        <is>
+          <t>{'data': '65167cbb02302bffd7a8bbbf', 'message': 'AlertGroup 65167cbb02302bffd7a8bbbf was created.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F2" s="52" t="n"/>
+      <c r="G2" s="44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : AlertGroup 65167cbb02302bffd7a8bbbf was created.</t>
+        </is>
+      </c>
+      <c r="I2" s="52" t="inlineStr">
+        <is>
+          <t>12:58:48</t>
+        </is>
+      </c>
+      <c r="J2" s="52" t="inlineStr">
+        <is>
+          <t>12:58:59</t>
+        </is>
+      </c>
+      <c r="K2" s="52" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="100.8" customHeight="1">
+      <c r="A3" s="50" t="n"/>
+      <c r="B3" s="52" t="inlineStr">
+        <is>
+          <t>Test_02</t>
+        </is>
+      </c>
+      <c r="C3" s="52" t="n"/>
+      <c r="D3" s="52" t="inlineStr">
+        <is>
+          <t>{'agroupID': True, 'description': 'test description', 'name': 'Test_notification_Api666', 'ownerID': '65166d39e119836feb867ce8', 'set_cgroups': 0}</t>
+        </is>
+      </c>
+      <c r="E3" s="52" t="inlineStr">
+        <is>
+          <t>{'data': '65167cc202302bffd7a8bbe1', 'message': 'AlertGroup 65167cc202302bffd7a8bbe1 was created.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F3" s="52" t="n"/>
+      <c r="G3" s="44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : AlertGroup 65167cc202302bffd7a8bbe1 was created.</t>
+        </is>
+      </c>
+      <c r="I3" s="52" t="inlineStr">
+        <is>
+          <t>12:59:00</t>
+        </is>
+      </c>
+      <c r="J3" s="52" t="inlineStr">
+        <is>
+          <t>12:59:06</t>
+        </is>
+      </c>
+      <c r="K3" s="52" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="192.6" customHeight="1">
+      <c r="A4" s="50" t="n"/>
+      <c r="B4" s="52" t="inlineStr">
+        <is>
+          <t>Test_03</t>
+        </is>
+      </c>
+      <c r="C4" s="52" t="n"/>
+      <c r="D4" s="52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" s="52" t="inlineStr">
+        <is>
+          <t>{'agroupinfo': {'agroups': [{'agroupID': '65166d491a1e19a5219d895d', 'caseGroups': [{'cgroupID': '65166d491a1e19a5219d8956', 'name': 'DefaultEnrollmentGroup'}, {'cgroupID': '65167bb902302bffd7a8ba3e', 'name': 'GroupName'}], 'desc': 'Default Alert Group', 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '65166d4a1a1e19a5219d8966', 'userName': 'core', 'contact': {'timezoneID': 'Asia/Kolkata', 'email': 'ritesh.kagale@facefirst.com'}}], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}, {'agroupID': '65167cbb02302bffd7a8bbbf', 'caseGroups': [{'cgroupID': '65167cb902302bffd7a8bbb5', 'name': 'test enrollment438'}], 'desc': 'test description', 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '65166d4a1a1e19a5219d8966', 'userName': 'core', 'contact': {'timezoneID': 'Asia/Kolkata', 'email': 'ritesh.kagale@facefirst.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167cc202302bffd7a8bbe1', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api666', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}]}}</t>
+        </is>
+      </c>
+      <c r="F4" s="52" t="n"/>
+      <c r="G4" s="44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I4" s="52" t="inlineStr">
+        <is>
+          <t>12:59:06</t>
+        </is>
+      </c>
+      <c r="J4" s="52" t="inlineStr">
+        <is>
+          <t>12:59:11</t>
+        </is>
+      </c>
+      <c r="K4" s="52" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="158.4" customHeight="1">
+      <c r="A5" s="50" t="n"/>
+      <c r="B5" s="52" t="inlineStr">
+        <is>
+          <t>Test_04</t>
+        </is>
+      </c>
+      <c r="C5" s="52" t="n"/>
+      <c r="D5" s="52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E5" s="52" t="inlineStr">
+        <is>
+          <t>{'agroupinfo': {'agroups': [{'agroupID': '65167ccd02302bffd7a8bc0e', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api973', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}]}}</t>
+        </is>
+      </c>
+      <c r="F5" s="52" t="n"/>
+      <c r="G5" s="44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I5" s="52" t="inlineStr">
+        <is>
+          <t>12:59:11</t>
+        </is>
+      </c>
+      <c r="J5" s="52" t="inlineStr">
+        <is>
+          <t>12:59:20</t>
+        </is>
+      </c>
+      <c r="K5" s="52" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="100.8" customHeight="1">
+      <c r="A6" s="50" t="n"/>
+      <c r="B6" s="52" t="inlineStr">
+        <is>
+          <t>Test_05</t>
+        </is>
+      </c>
+      <c r="C6" s="52" t="n"/>
+      <c r="D6" s="52" t="inlineStr">
+        <is>
+          <t>{'agroupID': '65167cd702302bffd7a8bc43', 'description': 'New Description', 'name': 'Test_notification_Api596', 'ownerID': '65166d4a1a1e19a5219d8966', 'set_cgroups': 0}</t>
+        </is>
+      </c>
+      <c r="E6" s="52" t="inlineStr">
+        <is>
+          <t>{'data': '65167cd702302bffd7a8bc43', 'message': 'Alert group 65167cd702302bffd7a8bc43 is updated.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F6" s="52" t="n"/>
+      <c r="G6" s="44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I6" s="52" t="inlineStr">
+        <is>
+          <t>12:59:21</t>
+        </is>
+      </c>
+      <c r="J6" s="52" t="inlineStr">
+        <is>
+          <t>12:59:34</t>
+        </is>
+      </c>
+      <c r="K6" s="52" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="100.8" customHeight="1">
+      <c r="A7" s="50" t="n"/>
+      <c r="B7" s="52" t="inlineStr">
+        <is>
+          <t>Test_06</t>
+        </is>
+      </c>
+      <c r="C7" s="52" t="n"/>
+      <c r="D7" s="52" t="inlineStr">
+        <is>
+          <t>{'agroupID': '65167ce702302bffd7a8bca5', 'userId': '65166d4a1a1e19a5219d8966'}</t>
+        </is>
+      </c>
+      <c r="E7" s="52" t="inlineStr">
+        <is>
+          <t>{'result': {'status': 'ok', 'message': '65166d4a1a1e19a5219d8966 user have been added to the alert group with id 65167ce702302bffd7a8bca5'}}</t>
+        </is>
+      </c>
+      <c r="F7" s="52" t="n"/>
+      <c r="G7" s="44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H7" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : ok</t>
+        </is>
+      </c>
+      <c r="I7" s="52" t="inlineStr">
+        <is>
+          <t>12:59:34</t>
+        </is>
+      </c>
+      <c r="J7" s="52" t="inlineStr">
+        <is>
+          <t>12:59:47</t>
+        </is>
+      </c>
+      <c r="K7" s="52" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="100.8" customHeight="1">
+      <c r="A8" s="50" t="n"/>
+      <c r="B8" s="52" t="inlineStr">
+        <is>
+          <t>Test_07</t>
+        </is>
+      </c>
+      <c r="C8" s="52" t="n"/>
+      <c r="D8" s="52" t="inlineStr">
+        <is>
+          <t>{'agroupID': '65167cf302302bffd7a8bcf4', 'userId': '65166d4a1a1e19a5219d8966'}</t>
+        </is>
+      </c>
+      <c r="E8" s="52" t="inlineStr">
+        <is>
+          <t>{'result': {'status': 'ok', 'message': '65166d4a1a1e19a5219d8966 user have been removed from alert group with id 65167cf302302bffd7a8bcf4'}}</t>
+        </is>
+      </c>
+      <c r="F8" s="52" t="n"/>
+      <c r="G8" s="44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H8" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : ok</t>
+        </is>
+      </c>
+      <c r="I8" s="52" t="inlineStr">
+        <is>
+          <t>12:59:47</t>
+        </is>
+      </c>
+      <c r="J8" s="52" t="inlineStr">
+        <is>
+          <t>13:00:07</t>
+        </is>
+      </c>
+      <c r="K8" s="52" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="144" customHeight="1">
+      <c r="A9" s="50" t="n"/>
+      <c r="B9" s="52" t="inlineStr">
+        <is>
+          <t>Test_08</t>
+        </is>
+      </c>
+      <c r="C9" s="52" t="n"/>
+      <c r="D9" s="52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E9" s="52" t="inlineStr">
+        <is>
+          <t>{'data': '65167d0502302bffd7a8bd2e', 'message': "The alert group 'Test_notification_Api894' has been deleted (group ID was 65167d0502302bffd7a8bd2e)", 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F9" s="52" t="n"/>
+      <c r="G9" s="44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H9" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : The alert group 'Test_notification_Api894' has been deleted (group ID was 65167d0502302bffd7a8bd2e)</t>
+        </is>
+      </c>
+      <c r="I9" s="52" t="inlineStr">
+        <is>
+          <t>13:00:07</t>
+        </is>
+      </c>
+      <c r="J9" s="52" t="inlineStr">
+        <is>
+          <t>13:00:17</t>
+        </is>
+      </c>
+      <c r="K9" s="52" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="163.2" customHeight="1">
+      <c r="A10" s="50" t="n"/>
+      <c r="B10" s="52" t="inlineStr">
+        <is>
+          <t>Test_09</t>
+        </is>
+      </c>
+      <c r="C10" s="52" t="n"/>
+      <c r="D10" s="52" t="inlineStr">
+        <is>
+          <t>{'agroupID': True, 'description': 'test description', 'name': 'Test_notification_Api19', 'ownerID': '65166d39e119836feb867ce8', 'set_cgroups': 0}</t>
+        </is>
+      </c>
+      <c r="E10" s="52" t="inlineStr">
+        <is>
+          <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Name: Name already exists. Severity: Error', 'innerException': None, 'requestId': '00-9ac3cb5fca583549bb5b64243c3a9164-2c9b4f4de1d82b15-00', 'requestPath': '/api/AlertGroups', 'connectionId': '0HMU0MJPNPAHQ'}}</t>
+        </is>
+      </c>
+      <c r="F10" s="52" t="n"/>
+      <c r="G10" s="44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H10" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 500 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I10" s="52" t="inlineStr">
+        <is>
+          <t>13:00:17</t>
+        </is>
+      </c>
+      <c r="J10" s="52" t="inlineStr">
+        <is>
+          <t>13:00:28</t>
+        </is>
+      </c>
+      <c r="K10" s="52" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="86.40000000000001" customHeight="1">
+      <c r="A11" s="51" t="n"/>
+      <c r="B11" s="52" t="inlineStr">
+        <is>
+          <t>Test_10</t>
+        </is>
+      </c>
+      <c r="C11" s="52" t="n"/>
+      <c r="D11" s="52" t="inlineStr">
+        <is>
+          <t>{'CGroupID': '65167d1702302bffd7a8bd60', 'AGroupID': '65167d1b02302bffd7a8bd76'}</t>
+        </is>
+      </c>
+      <c r="E11" s="52" t="inlineStr">
+        <is>
+          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been added to the alert group with id = 65167d1702302bffd7a8bd60'}}</t>
+        </is>
+      </c>
+      <c r="F11" s="52" t="n"/>
+      <c r="G11" s="44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H11" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : ok</t>
+        </is>
+      </c>
+      <c r="I11" s="52" t="inlineStr">
+        <is>
+          <t>13:00:28</t>
+        </is>
+      </c>
+      <c r="J11" s="52" t="inlineStr">
+        <is>
+          <t>13:00:39</t>
+        </is>
+      </c>
+      <c r="K11" s="52" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="11.33203125" customWidth="1" min="2" max="2"/>
+    <col width="11.5546875" customWidth="1" min="3" max="3"/>
+    <col width="11.21875" customWidth="1" min="4" max="4"/>
+    <col width="17.109375" customWidth="1" min="5" max="5"/>
+    <col width="14.21875" customWidth="1" min="6" max="6"/>
+    <col width="11.6640625" customWidth="1" min="7" max="7"/>
+    <col width="13.109375" customWidth="1" min="8" max="8"/>
+    <col width="11.109375" customWidth="1" min="9" max="9"/>
+    <col width="13.88671875" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="57.6" customHeight="1">
+      <c r="A1" s="41" t="inlineStr">
+        <is>
+          <t>Test No</t>
+        </is>
+      </c>
+      <c r="B1" s="41" t="inlineStr">
+        <is>
+          <t>TestCase</t>
+        </is>
+      </c>
+      <c r="C1" s="42" t="inlineStr">
+        <is>
+          <t>TestCase Description</t>
+        </is>
+      </c>
+      <c r="D1" s="41" t="inlineStr">
+        <is>
+          <t>Request Body</t>
+        </is>
+      </c>
+      <c r="E1" s="41" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="F1" s="42" t="inlineStr">
+        <is>
+          <t>Check_Point/Test_Condition</t>
+        </is>
+      </c>
+      <c r="G1" s="42" t="inlineStr">
+        <is>
+          <t>Result (Pass/Fail)</t>
+        </is>
+      </c>
+      <c r="H1" s="42" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="I1" s="42" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="J1" s="42" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="K1" s="42" t="inlineStr">
+        <is>
+          <t>Total Duration
+(Seconds)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="65.40000000000001" customHeight="1">
+      <c r="A2" s="19" t="inlineStr">
+        <is>
+          <t>Zones</t>
+        </is>
+      </c>
+      <c r="B2" s="19" t="inlineStr">
+        <is>
+          <t>Test_01</t>
+        </is>
+      </c>
+      <c r="C2" s="19" t="n"/>
+      <c r="D2" s="19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E2" s="52" t="inlineStr">
+        <is>
+          <t>{'zoneInfo': {'zones': [{'description': 'All Devices', 'isDefault': True, 'zoneId': '65166d39e119836feb867cec'}, {'accountId': '65166d39e119836feb867ce8', 'description': 'ff-india-qa10', 'isDefault': False, 'zoneId': '65166dbed319a18d9ce09c00', 'regionId': '65166d39e119836feb867cea', 'hostName': 'ff-india-qa10'}, {'accountId': '65166d39e119836feb867ce8', 'description': 'DESKTOP-660P8Q2', 'isDefault': False, 'zoneId': '651675e702302bffd7a8b90f', 'regionId': '6516746002302bffd7a8b907', 'hostName': 'DESKTOP-660P8Q2'}, {'accountId': '65166d39e119836feb867ce8', 'description': 'DESKTOP-75UBP18', 'isDefault': False, 'zoneId': '6516760102302bffd7a8b910', 'regionId': '651672ea02302bffd7a8b905', 'hostName': 'DESKTOP-75UBP18'}, {'accountId': '65166d39e119836feb867ce8', 'description': 'DESKTOP-PTTAM1V', 'isDefault': False, 'zoneId': '6516761c02302bffd7a8b911', 'regionId': '6516732c02302bffd7a8b906', 'hostName': 'DESKTOP-PTTAM1V'}]}}</t>
+        </is>
+      </c>
+      <c r="F2" s="19" t="n"/>
+      <c r="G2" s="55" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I2" s="52" t="inlineStr">
+        <is>
+          <t>12:58:28</t>
+        </is>
+      </c>
+      <c r="J2" s="52" t="inlineStr">
+        <is>
+          <t>12:58:31</t>
+        </is>
+      </c>
+      <c r="K2" s="52" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="83.40000000000001" customHeight="1">
+      <c r="A3" s="51" t="n"/>
+      <c r="B3" s="19" t="inlineStr">
+        <is>
+          <t>Test_02</t>
+        </is>
+      </c>
+      <c r="C3" s="19" t="n"/>
+      <c r="D3" s="19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E3" s="52" t="inlineStr">
+        <is>
+          <t>{'zoneInfo': {'zones': [{'description': 'All Devices', 'isDefault': True, 'zoneId': '65166d39e119836feb867cec'}]}}</t>
+        </is>
+      </c>
+      <c r="F3" s="19" t="n"/>
+      <c r="G3" s="55" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I3" s="52" t="inlineStr">
+        <is>
+          <t>12:58:32</t>
+        </is>
+      </c>
+      <c r="J3" s="52" t="inlineStr">
+        <is>
+          <t>12:58:39</t>
+        </is>
+      </c>
+      <c r="K3" s="52" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="14.6640625" customWidth="1" min="5" max="5"/>
+    <col width="16.33203125" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="57.6" customHeight="1">
+      <c r="A1" s="56" t="inlineStr">
+        <is>
+          <t>Test No</t>
+        </is>
+      </c>
+      <c r="B1" s="56" t="inlineStr">
+        <is>
+          <t>TestCase</t>
+        </is>
+      </c>
+      <c r="C1" s="57" t="inlineStr">
+        <is>
+          <t>TestCase Description</t>
+        </is>
+      </c>
+      <c r="D1" s="56" t="inlineStr">
+        <is>
+          <t>Request Body</t>
+        </is>
+      </c>
+      <c r="E1" s="56" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="F1" s="57" t="inlineStr">
+        <is>
+          <t>Check_Point/Test_Condition</t>
+        </is>
+      </c>
+      <c r="G1" s="57" t="inlineStr">
+        <is>
+          <t>Result (Pass/Fail)</t>
+        </is>
+      </c>
+      <c r="H1" s="57" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="I1" s="57" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="J1" s="57" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="K1" s="57" t="inlineStr">
+        <is>
+          <t>Total Duration
+(Seconds)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="52.2" customHeight="1">
+      <c r="A2" s="19" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="B2" s="19" t="inlineStr">
+        <is>
+          <t>Test_01</t>
+        </is>
+      </c>
+      <c r="C2" s="19" t="n"/>
+      <c r="D2" s="19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E2" s="52" t="inlineStr">
+        <is>
+          <t>[{'accountId': '65166d39e119836feb867ce8', 'aGroupIDs': ['65166d491a1e19a5219d895d', '65167cbb02302bffd7a8bbbf', '65167cc202302bffd7a8bbe1', '65167ccd02302bffd7a8bc0e', '65167ce702302bffd7a8bca5', '65167cf302302bffd7a8bcf4', '65167d0e02302bffd7a8bd4e', '65167d1b02302bffd7a8bd76'], 'authParams': '', 'authType': 0, 'autoThreshold': 0.83, 'caseTTL': 0, 'contact': {'address1': '', 'address2': '', 'city': '', 'company': '', 'department': '', 'email': 'ritesh.kagale@facefirst.com', 'faxNumber': '', 'firstName': 'Company', 'homePhone': '', 'lastName': 'Account', 'middleName': '', 'state': '', 'timezoneID': 'Asia/Kolkata', 'title': '', 'workPhone': '', 'zip': ''}, 'enabled': True, 'cGroupIDs': ['65166d491a1e19a5219d8956', '65167b6402302bffd7a8b98a', '65167b6b02302bffd7a8b997', '65167b7b02302bffd7a8b9a8', '65167b8b02302bffd7a8b9ca', '65167b9702302bffd7a8b9e3', '65167ba302302bffd7a8ba00', '65167bae02302bffd7a8ba1f', '65167bb902302bffd7a8ba3e', '65167bc702302bffd7a8ba5e', '65167bf002302bffd7a8ba80', '65167cb902302bffd7a8bbb5', '65167d1702302bffd7a8bd60', '6516983902302bffd7a8c3fe', '6516a2f902302bffd7a8c444', '6516a35302302bffd7a8c470', '6516a71e02302bffd7a8c4c7', '6516aa8902302bffd7a8c572', '6516aac302302bffd7a8c59e', '6516ab0302302bffd7a8c5c6', '6516ab4b02302bffd7a8c5ee', '6516aba102302bffd7a8c61f'], 'maxEnrollments': 1000000, 'maxFaceNoteTimeDiff': '1800', 'maxInvestigationLength': 1800, 'maxSubusers': 100, 'maxTransactionAge': 86400, 'numCases': 6, 'sessionExpiration': 3600, 'stationIDs': ['DESKTOP-660P8Q2:x01', 'DESKTOP-75UBP18:x01', 'DESKTOP-PTTAM1V:x01'], 'userIDs': ['65166d434e4df05a37a98bea', '65166d491a1e19a5219d8948', '65166d4a1a1e19a5219d8966', '65166dbdd319a18d9ce09bfd', '65166dbdd319a18d9ce09bff', '65167c6602302bffd7a8baaf', '65167c7102302bffd7a8bac2', '65167c7b02302bffd7a8bad5', '65167c8402302bffd7a8bae8', '65167c9f02302bffd7a8bb32', '65167caa02302bffd7a8bb77', '65167cb402302bffd7a8bba2', '65167ced02302bffd7a8bccc', '65167cf502302bffd7a8bd00', '65167d1e02302bffd7a8bd8c', '65167d7c02302bffd7a8bdb0', '65167d9702302bffd7a8bdb7', '65167e1a02302bffd7a8bdde', '65167e3e02302bffd7a8bdf1', '65167e9f02302bffd7a8be0a', '65167ea802302bffd7a8be20', '65167eb102302bffd7a8be33', '65167eba02302bffd7a8be46', '65167ecf02302bffd7a8be6d', '65167ed802302bffd7a8be83', '65167ee902302bffd7a8beac', '65167f5c02302bffd7a8bfb4', '65167fb202302bffd7a8bffc', '6516802502302bffd7a8c00f', '6516802e02302bffd7a8c022', '6516803702302bffd7a8c035', '6516804002302bffd7a8c048', '6516805502302bffd7a8c06c', '6516805e02302bffd7a8c07f', '6516806e02302bffd7a8c0ac', '651689c502302bffd7a8c255', '651689cb02302bffd7a8c268', '651689d102302bffd7a8c27b', '651689d702302bffd7a8c28e', '651689e602302bffd7a8c2b2', '651689ec02302bffd7a8c2c5', '651689f802302bffd7a8c2ee']}]</t>
+        </is>
+      </c>
+      <c r="F2" s="19" t="n"/>
+      <c r="G2" s="61" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I2" s="19" t="inlineStr">
+        <is>
+          <t>19:31:21</t>
+        </is>
+      </c>
+      <c r="J2" s="19" t="inlineStr">
+        <is>
+          <t>19:31:32</t>
+        </is>
+      </c>
+      <c r="K2" s="19" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="50.4" customHeight="1">
+      <c r="A3" s="50" t="n"/>
+      <c r="B3" s="19" t="inlineStr">
+        <is>
+          <t>Test_02</t>
+        </is>
+      </c>
+      <c r="C3" s="19" t="n"/>
+      <c r="D3" s="19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E3" s="52" t="inlineStr">
+        <is>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'aGroupIDs': ['65166d491a1e19a5219d895d', '65167cbb02302bffd7a8bbbf', '65167cc202302bffd7a8bbe1', '65167ccd02302bffd7a8bc0e', '65167ce702302bffd7a8bca5', '65167cf302302bffd7a8bcf4', '65167d0e02302bffd7a8bd4e', '65167d1b02302bffd7a8bd76'], 'authParams': '', 'authType': 0, 'autoThreshold': 0.83, 'caseTTL': 0, 'contact': {'address1': '', 'address2': '', 'city': '', 'company': '', 'department': '', 'email': 'ritesh.kagale@facefirst.com', 'faxNumber': '', 'firstName': 'Company', 'homePhone': '', 'lastName': 'Account', 'middleName': '', 'state': '', 'timezoneID': 'Asia/Kolkata', 'title': '', 'workPhone': '', 'zip': ''}, 'enabled': True, 'cGroupIDs': ['65166d491a1e19a5219d8956', '65167b6402302bffd7a8b98a', '65167b6b02302bffd7a8b997', '65167b7b02302bffd7a8b9a8', '65167b8b02302bffd7a8b9ca', '65167b9702302bffd7a8b9e3', '65167ba302302bffd7a8ba00', '65167bae02302bffd7a8ba1f', '65167bb902302bffd7a8ba3e', '65167bc702302bffd7a8ba5e', '65167bf002302bffd7a8ba80', '65167cb902302bffd7a8bbb5', '65167d1702302bffd7a8bd60', '6516983902302bffd7a8c3fe', '6516a2f902302bffd7a8c444', '6516a35302302bffd7a8c470', '6516a71e02302bffd7a8c4c7', '6516aa8902302bffd7a8c572', '6516aac302302bffd7a8c59e', '6516ab0302302bffd7a8c5c6', '6516ab4b02302bffd7a8c5ee', '6516aba102302bffd7a8c61f'], 'maxEnrollments': 1000000, 'maxFaceNoteTimeDiff': '1800', 'maxInvestigationLength': 1800, 'maxSubusers': 100, 'maxTransactionAge': 86400, 'numCases': 6, 'sessionExpiration': 3600, 'stationIDs': ['DESKTOP-660P8Q2:x01', 'DESKTOP-75UBP18:x01', 'DESKTOP-PTTAM1V:x01'], 'userIDs': ['65166d434e4df05a37a98bea', '65166d491a1e19a5219d8948', '65166d4a1a1e19a5219d8966', '65166dbdd319a18d9ce09bfd', '65166dbdd319a18d9ce09bff', '65167c6602302bffd7a8baaf', '65167c7102302bffd7a8bac2', '65167c7b02302bffd7a8bad5', '65167c8402302bffd7a8bae8', '65167c9f02302bffd7a8bb32', '65167caa02302bffd7a8bb77', '65167cb402302bffd7a8bba2', '65167ced02302bffd7a8bccc', '65167cf502302bffd7a8bd00', '65167d1e02302bffd7a8bd8c', '65167d7c02302bffd7a8bdb0', '65167d9702302bffd7a8bdb7', '65167e1a02302bffd7a8bdde', '65167e3e02302bffd7a8bdf1', '65167e9f02302bffd7a8be0a', '65167ea802302bffd7a8be20', '65167eb102302bffd7a8be33', '65167eba02302bffd7a8be46', '65167ecf02302bffd7a8be6d', '65167ed802302bffd7a8be83', '65167ee902302bffd7a8beac', '65167f5c02302bffd7a8bfb4', '65167fb202302bffd7a8bffc', '6516802502302bffd7a8c00f', '6516802e02302bffd7a8c022', '6516803702302bffd7a8c035', '6516804002302bffd7a8c048', '6516805502302bffd7a8c06c', '6516805e02302bffd7a8c07f', '6516806e02302bffd7a8c0ac', '651689c502302bffd7a8c255', '651689cb02302bffd7a8c268', '651689d102302bffd7a8c27b', '651689d702302bffd7a8c28e', '651689e602302bffd7a8c2b2', '651689ec02302bffd7a8c2c5', '651689f802302bffd7a8c2ee']}</t>
+        </is>
+      </c>
+      <c r="F3" s="19" t="n"/>
+      <c r="G3" s="61" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I3" s="19" t="inlineStr">
+        <is>
+          <t>19:31:32</t>
+        </is>
+      </c>
+      <c r="J3" s="19" t="inlineStr">
+        <is>
+          <t>19:31:39</t>
+        </is>
+      </c>
+      <c r="K3" s="19" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="75.59999999999999" customHeight="1">
+      <c r="A4" s="51" t="n"/>
+      <c r="B4" s="19" t="inlineStr">
+        <is>
+          <t>Test_02</t>
+        </is>
+      </c>
+      <c r="C4" s="19" t="n"/>
+      <c r="D4" s="19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E4" s="52" t="inlineStr">
+        <is>
+          <t>{'stationInfo': {'stations': [{'accountId': '65166d39e119836feb867ce8', 'geo': {'type': 'Point', 'coordinates': [78.36166349999999, 17.5039154]}, 'desc': 'Desktop-660p8q2-8561/v2', 'stream': 'DESKTOP-660P8Q2:x01', 'licActive': 1695970921477, 'zoneIDs': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f'], 'regionId': '6516746002302bffd7a8b907'}, {'accountId': '65166d39e119836feb867ce8', 'geo': {'type': 'Point', 'coordinates': [77.3910265, 28.5355161]}, 'desc': 'Desktop-75ubp18-8562/v2', 'stream': 'DESKTOP-75UBP18:x01', 'licActive': 1695970973034, 'zoneIDs': ['65166d39e119836feb867cec', '6516760102302bffd7a8b910'], 'regionId': '651672ea02302bffd7a8b905'}, {'accountId': '65166d39e119836feb867ce8', 'geo': {'type': 'Point', 'coordinates': [73.8567437, 18.5204303]}, 'desc': 'Desktop-pttam1v-8563/v2', 'stream': 'DESKTOP-PTTAM1V:x01', 'licActive': 1695971052451, 'zoneIDs': ['65166d39e119836feb867cec', '6516761c02302bffd7a8b911'], 'regionId': '6516732c02302bffd7a8b906'}]}}</t>
+        </is>
+      </c>
+      <c r="F4" s="19" t="n"/>
+      <c r="G4" s="61" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="52" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I4" s="19" t="inlineStr">
+        <is>
+          <t>19:31:39</t>
+        </is>
+      </c>
+      <c r="J4" s="19" t="inlineStr">
+        <is>
+          <t>19:31:44</t>
+        </is>
+      </c>
+      <c r="K4" s="19" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Reports/API_Excel_Report/API_excel_report.xlsx
+++ b/Reports/API_Excel_Report/API_excel_report.xlsx
@@ -104,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -159,6 +159,12 @@
         <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -438,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -571,6 +577,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1115,7 +1130,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>{'result': {'cookies': 'CGISESSID=820f1d59fe6645a5ac51e8dc07658917', 'message': 'You have been logged in.', 'status': 'ok', 'token': 'EAAAACx8S4PBuVtkXOTrh1+4B4sHrcuDkIV6BFJ88NKy+R257NF5HGuzJE4gKhZq8O1z+bBFXqE52vthVjB7W8RuSSaRhyksXmq1m4Msnx6SYLQ9X/DviYzYNUjw8WJ7IbiBSww6ld4gXMMAUeaNser2R1Fe/PAeIuBsUTZc8vGSoM4NPXAE2FUCJzcIWr1vuCpyk2ZxEefEqNB+c3s0wX8I63U2xBcMUM0t93xYpskjTeie038fwGXol64NMfVBdpkDo0ngyXED+GX5y2zQ8SDYbXbgo2SQQpEdODKZHXD7T1JeiqJlwuf1KStygusLBDdmofroi5PZ6vpEvDOQZuEleyXXmtFoLn03GYf3UCkiIVM7FmCA6VokK2HseTdLgUGMXRIM7gji1HlNibmKQ7N8EasEgEB6y08ySRJ5Ffj/0uaGdNA45gUx08NffSYpPV0qXzG/m3jPBhHy4UO563+HZ/N5Y2f05CAxri681fLjoFoDPo8HeUhYtzLPvu/hNzW2DMGFXiLeAYfE8NLH7OCMW6n4hkBl7r6ibR2iwjM1sEg7e0l0Dy4gfRQjasDH/yYuZ1o/Z+wnvVMhq7EJ7heyimfOviVfgfNzAIvZQFCxJv7G698XaLKj1JfS0WTKUKCGcbROxOmMKOZjvY4u3D/ak/C9UTTsIU+BelwimZ7yC022Tp0mEznsSlYlyBD8GJsqXnOilkV1I/3qK/bGkHDsvoyek6efWW4bINaKqWFMfEHLFyx1MHdFza9rJcIbSoxPpbTod30Uu0qmcXw1PUpBER1C33S+f2k2FmOuqQTWh0PJr7x7uKPCYr+kkWWHv7r+AcTZesvWYz4gHmQZeKbYPHNs1akjfa8ci6a0KN5xuPwLV+dha0zIxBlYWdxdL3fvIcr0t+D1zyqzqbDbZHyyxghMl8Pq8wGn2CxeqHnVjQfh9m3YgCAt3i/P5LplGrsgp+5kATd0RTQglr/mcrNCfw66VThaC8yKpENGl2L1PQM1sFJBKRF1QOwbeUnm5L09AWuevI/njwHCPPMkyRn3aiKN41x3yyc5b/o2oycgBvn4nNxq3H3vjoDlkV/GTWmY4DFr9SkeEAn/wXVLn5yQFrIHwJzbHUVc/06LkA7SMPvJAKzuwjGnXz2GnlC2k+4ZHt69qZQH1X1AnRUVecbCedFWlBfLbEtooGabRM03APFpjfWhFEtnwP4MVAl7mwGeyyOhI5MFzoHuISKwBfaHbnGeimzzn609qkxvfUZs41XDg6mhcbU1JAzdk7UqqHRfafp/ZzGmqCiA2wN9m2znQfR1Jwah7Pxq35ovlojS34qOvA3zcPZ+VdvSrAM/pnMza5H3ebLRB0pu6OG8Q/em+anJWWkC7986unMzIjdNwQX+mgBPQwOg/DxpPziPriRH3d8vfzDJjLhovXkDmf7dkwsXXHOC2uHHF0EZXpI22exWolnc0sBt48Zaguo89VjJOAM9gqImh41E/ohtasxxL/8U5ecSpjidT/Foz8Zg79kMYYlnxHjuzPam11LyEuQKD5fqaKfo4+Qf7WjOCyxHIPLw4ZqQNb5FEyWSUgPJsey2CDus2t5GTdeqatiKpSYajqPaLM757T2/AX6aVr7lXueLAD4hWLksevqfbs49KXz34LBgNPgvBzwuyMtjV28lscMPk+aEvHpRbeaJWfl1viCt7aAsBmZ13r9EnewXdnoqabBlXCsZ0LJzobg5A72cJ6zepiCik4/1xOUwG+S7rWNWYFptMYmh190ayxbMWyH+T3KiZzqEiFPb3OtKaQs6GGhrLEVwnGlKeqhiOcyCG4Pk8kAGWuMMEN9fYcXxh+EZHbTSIcZUdtbTEqorlhGCaRPjs2H0XRXKyT0ZofYk9iohkjusSQgU8xxZRwjxLmCPr4kdUNcgqCKjQMG1SaYgKL/5ncw3VtyFw5fji0CBnzWx7P5V0ewETI/4ZRmAK+dMcOwqBLbMGxJjBH1c3I8JaAu0HLi5b+S7hIMWN1T0ks6xEkKuWwBfejze0dBZ8lWMLK2qqziz2kyU6933RYFrIHV9OyXjbCbxkR6xigaXL1kQi03Ep370PD+NMaotQD9AIyMirKFmIdND+/+kb9D3H5W3ZaNrrtKrQbJ2Zjk2cqI='}}</t>
+          <t>{'result': {'cookies': '', 'message': 'Account locked out. Please try after 30 minutes or contact administrator.'}}</t>
         </is>
       </c>
       <c r="F2" s="17" t="inlineStr">
@@ -1123,24 +1138,24 @@
           <t>Validate Status Code : 200 &amp; Message : You have been logged in.</t>
         </is>
       </c>
-      <c r="G2" s="40" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="G2" s="56" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : You have been logged in.</t>
+          <t>Response Status Code : 200 &amp; Message : Account locked out. Please try after 30 minutes or contact administrator.</t>
         </is>
       </c>
       <c r="I2" s="4" t="inlineStr">
         <is>
-          <t>13:54:09</t>
+          <t>14:30:26</t>
         </is>
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>13:54:10</t>
+          <t>14:30:27</t>
         </is>
       </c>
       <c r="K2" s="26" t="inlineStr">
@@ -1176,7 +1191,7 @@
           <t>Response Status Code : 200 &amp; Message : Invalid password</t>
         </is>
       </c>
-      <c r="G3" s="40" t="inlineStr">
+      <c r="G3" s="54" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1188,12 +1203,12 @@
       </c>
       <c r="I3" s="20" t="inlineStr">
         <is>
-          <t>13:54:10</t>
+          <t>14:28:54</t>
         </is>
       </c>
       <c r="J3" s="20" t="inlineStr">
         <is>
-          <t>13:54:12</t>
+          <t>14:28:56</t>
         </is>
       </c>
       <c r="K3" s="27" t="inlineStr">
@@ -1217,7 +1232,7 @@
       </c>
       <c r="E4" s="49" t="inlineStr">
         <is>
-          <t>{'result': {'cookies': '', 'message': "Password didn't matched"}}</t>
+          <t>{'result': {'cookies': '', 'message': 'Account locked out. Please try after 30 minutes or contact administrator.'}}</t>
         </is>
       </c>
       <c r="F4" s="49" t="inlineStr">
@@ -1225,24 +1240,24 @@
           <t>Response Status Code : 200 &amp; Message : Password didn't matched</t>
         </is>
       </c>
-      <c r="G4" s="40" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="G4" s="56" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
       <c r="H4" s="49" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Password didn't matched</t>
+          <t>Response Status Code : 200 &amp; Message : Account locked out. Please try after 30 minutes or contact administrator.</t>
         </is>
       </c>
       <c r="I4" s="20" t="inlineStr">
         <is>
-          <t>13:54:12</t>
+          <t>14:28:56</t>
         </is>
       </c>
       <c r="J4" s="20" t="inlineStr">
         <is>
-          <t>13:54:14</t>
+          <t>14:28:58</t>
         </is>
       </c>
       <c r="K4" s="27" t="inlineStr">
@@ -1274,7 +1289,7 @@
           <t>Response Status Code : 200 &amp; Message : Invalid username ' wrongUsername'</t>
         </is>
       </c>
-      <c r="G5" s="40" t="inlineStr">
+      <c r="G5" s="54" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1286,12 +1301,12 @@
       </c>
       <c r="I5" s="20" t="inlineStr">
         <is>
-          <t>13:54:14</t>
+          <t>14:28:58</t>
         </is>
       </c>
       <c r="J5" s="20" t="inlineStr">
         <is>
-          <t>13:54:15</t>
+          <t>14:28:59</t>
         </is>
       </c>
       <c r="K5" s="27" t="inlineStr">
@@ -1315,7 +1330,7 @@
       </c>
       <c r="E6" s="29" t="inlineStr">
         <is>
-          <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Username: Missing Username Severity: Error\r\n -- Username: Missing Username Severity: Error\r\n -- Password: Missing Password Severity: Error\r\n -- Password: Missing Password Severity: Error', 'innerException': None, 'requestId': '00-172eda5b848f499643a8173978521abb-dd969d1758779fe8-00', 'requestPath': '/api/login', 'connectionId': '0HMU0MJPNPAQQ'}}</t>
+          <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Username: Missing Username Severity: Error\r\n -- Username: Missing Username Severity: Error\r\n -- Password: Missing Password Severity: Error\r\n -- Password: Missing Password Severity: Error', 'innerException': None, 'requestId': '00-b4a2083bb8a6a4e69a37359897a1b9f5-465b23ab5d044e9c-00', 'requestPath': '/api/login', 'connectionId': '0HMU0MJPNPESN'}}</t>
         </is>
       </c>
       <c r="F6" s="29" t="inlineStr">
@@ -1327,7 +1342,7 @@
  -- Password: Missing Password Severity: Error</t>
         </is>
       </c>
-      <c r="G6" s="41" t="inlineStr">
+      <c r="G6" s="55" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1343,12 +1358,12 @@
       </c>
       <c r="I6" s="30" t="inlineStr">
         <is>
-          <t>13:54:15</t>
+          <t>14:28:59</t>
         </is>
       </c>
       <c r="J6" s="30" t="inlineStr">
         <is>
-          <t>13:54:17</t>
+          <t>14:29:01</t>
         </is>
       </c>
       <c r="K6" s="31" t="inlineStr">
@@ -1934,7 +1949,7 @@
       </c>
       <c r="I2" s="35" t="inlineStr">
         <is>
-          <t>13:54:29</t>
+          <t>14:28:27</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -1983,7 +1998,7 @@
       </c>
       <c r="I3" s="49" t="inlineStr">
         <is>
-          <t>13:54:35</t>
+          <t>14:28:28</t>
         </is>
       </c>
       <c r="J3" s="49" t="inlineStr">
@@ -2032,7 +2047,7 @@
       </c>
       <c r="I4" s="49" t="inlineStr">
         <is>
-          <t>13:54:42</t>
+          <t>14:28:29</t>
         </is>
       </c>
       <c r="J4" s="49" t="inlineStr">
@@ -2077,7 +2092,7 @@
       </c>
       <c r="I5" s="49" t="inlineStr">
         <is>
-          <t>13:54:48</t>
+          <t>14:28:31</t>
         </is>
       </c>
       <c r="J5" s="49" t="inlineStr">
@@ -2143,7 +2158,7 @@
       </c>
       <c r="I7" s="49" t="inlineStr">
         <is>
-          <t>13:54:54</t>
+          <t>14:28:32</t>
         </is>
       </c>
       <c r="J7" s="49" t="inlineStr">
@@ -2192,7 +2207,7 @@
       </c>
       <c r="I8" s="49" t="inlineStr">
         <is>
-          <t>13:55:00</t>
+          <t>14:28:33</t>
         </is>
       </c>
       <c r="J8" s="49" t="inlineStr">
@@ -2241,7 +2256,7 @@
       </c>
       <c r="I9" s="49" t="inlineStr">
         <is>
-          <t>13:55:08</t>
+          <t>14:28:34</t>
         </is>
       </c>
       <c r="J9" s="49" t="inlineStr">
@@ -2339,7 +2354,7 @@
       </c>
       <c r="I11" s="49" t="inlineStr">
         <is>
-          <t>13:55:20</t>
+          <t>14:28:35</t>
         </is>
       </c>
       <c r="J11" s="49" t="inlineStr">
@@ -2388,7 +2403,7 @@
       </c>
       <c r="I12" s="49" t="inlineStr">
         <is>
-          <t>13:55:34</t>
+          <t>14:28:36</t>
         </is>
       </c>
       <c r="J12" s="49" t="inlineStr">
@@ -2437,7 +2452,7 @@
       </c>
       <c r="I13" s="49" t="inlineStr">
         <is>
-          <t>13:55:37</t>
+          <t>14:28:37</t>
         </is>
       </c>
       <c r="J13" s="49" t="inlineStr">
@@ -2894,7 +2909,7 @@
       </c>
       <c r="I2" s="51" t="inlineStr">
         <is>
-          <t>13:11:14</t>
+          <t>14:28:13</t>
         </is>
       </c>
       <c r="J2" s="51" t="inlineStr">
@@ -2942,7 +2957,7 @@
       </c>
       <c r="I3" s="51" t="inlineStr">
         <is>
-          <t>12:54:53</t>
+          <t>14:28:14</t>
         </is>
       </c>
       <c r="J3" s="51" t="inlineStr">
@@ -3092,7 +3107,7 @@
       </c>
       <c r="I2" s="35" t="inlineStr">
         <is>
-          <t>13:54:17</t>
+          <t>14:28:24</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -3145,7 +3160,7 @@
       </c>
       <c r="I3" s="49" t="inlineStr">
         <is>
-          <t>13:54:20</t>
+          <t>14:28:25</t>
         </is>
       </c>
       <c r="J3" s="49" t="inlineStr">
@@ -3198,7 +3213,7 @@
       </c>
       <c r="I4" s="49" t="inlineStr">
         <is>
-          <t>13:54:24</t>
+          <t>14:28:26</t>
         </is>
       </c>
       <c r="J4" s="49" t="inlineStr">
@@ -3348,7 +3363,7 @@
       </c>
       <c r="I2" s="49" t="inlineStr">
         <is>
-          <t>11:53:09</t>
+          <t>14:28:01</t>
         </is>
       </c>
       <c r="J2" s="49" t="inlineStr">
@@ -3401,7 +3416,7 @@
       </c>
       <c r="I3" s="49" t="inlineStr">
         <is>
-          <t>11:53:12</t>
+          <t>14:28:02</t>
         </is>
       </c>
       <c r="J3" s="49" t="inlineStr">
@@ -3454,7 +3469,7 @@
       </c>
       <c r="I4" s="49" t="inlineStr">
         <is>
-          <t>11:53:15</t>
+          <t>14:28:03</t>
         </is>
       </c>
       <c r="J4" s="49" t="inlineStr">
@@ -3507,7 +3522,7 @@
       </c>
       <c r="I5" s="49" t="inlineStr">
         <is>
-          <t>11:53:23</t>
+          <t>14:28:04</t>
         </is>
       </c>
       <c r="J5" s="49" t="inlineStr">
@@ -3560,7 +3575,7 @@
       </c>
       <c r="I6" s="49" t="inlineStr">
         <is>
-          <t>11:53:28</t>
+          <t>14:28:05</t>
         </is>
       </c>
       <c r="J6" s="49" t="inlineStr">
@@ -3613,7 +3628,7 @@
       </c>
       <c r="I7" s="49" t="inlineStr">
         <is>
-          <t>11:53:35</t>
+          <t>14:28:07</t>
         </is>
       </c>
       <c r="J7" s="49" t="inlineStr">
@@ -3666,7 +3681,7 @@
       </c>
       <c r="I8" s="49" t="inlineStr">
         <is>
-          <t>11:53:46</t>
+          <t>14:28:08</t>
         </is>
       </c>
       <c r="J8" s="49" t="inlineStr">
@@ -3719,7 +3734,7 @@
       </c>
       <c r="I9" s="49" t="inlineStr">
         <is>
-          <t>11:53:57</t>
+          <t>14:28:09</t>
         </is>
       </c>
       <c r="J9" s="49" t="inlineStr">
@@ -3772,7 +3787,7 @@
       </c>
       <c r="I10" s="49" t="inlineStr">
         <is>
-          <t>11:54:11</t>
+          <t>14:28:10</t>
         </is>
       </c>
       <c r="J10" s="49" t="inlineStr">
@@ -3825,7 +3840,7 @@
       </c>
       <c r="I11" s="49" t="inlineStr">
         <is>
-          <t>11:54:28</t>
+          <t>14:28:11</t>
         </is>
       </c>
       <c r="J11" s="49" t="inlineStr">
@@ -3878,7 +3893,7 @@
       </c>
       <c r="I12" s="49" t="inlineStr">
         <is>
-          <t>11:54:40</t>
+          <t>14:28:12</t>
         </is>
       </c>
       <c r="J12" s="49" t="inlineStr">

--- a/Reports/API_Excel_Report/API_excel_report.xlsx
+++ b/Reports/API_Excel_Report/API_excel_report.xlsx
@@ -122,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill/>
     </fill>
@@ -213,6 +213,12 @@
         <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -492,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -672,6 +678,14 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1208,7 +1222,7 @@
       </c>
       <c r="E2" s="65" t="inlineStr">
         <is>
-          <t>{'data': {'id': '651d6704ff1976583faffaa2', 'message': "Note id '651d6704ff1976583faffaa2' successfully added"}, 'isSuccess': True}</t>
+          <t>{'data': {'id': '651d8016ff1976583fb01149', 'message': "Note id '651d8016ff1976583fb01149' successfully added"}, 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F2" s="65" t="n"/>
@@ -1219,22 +1233,22 @@
       </c>
       <c r="H2" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Note id '651d6704ff1976583faffaa2' successfully added</t>
+          <t>Response Status Code : 200 &amp; Message : Note id '651d8016ff1976583fb01149' successfully added</t>
         </is>
       </c>
       <c r="I2" s="65" t="inlineStr">
         <is>
-          <t>18:52:06</t>
+          <t>20:39:00</t>
         </is>
       </c>
       <c r="J2" s="65" t="inlineStr">
         <is>
-          <t>18:52:12</t>
+          <t>20:39:11</t>
         </is>
       </c>
       <c r="K2" s="65" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>11.0</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1267,7 @@
       </c>
       <c r="E3" s="65" t="inlineStr">
         <is>
-          <t>{'notesInfo': {'notes': [{'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole', 'narrativeDesc': 'nsarra', 'action': 'Call Police', 'storeId': 'Pune', 'caseNumber': 'theft one bottle', 'timeIncident': '09/21/2023 07:47', 'reportedBy': 'staff', 'reportedLoss': '8000', 'caseEventType': 'STORE THREAT', 'activityType': 'DOMESTIC VIOLENCE', 'heightType': '5.6-5.9', 'methodOffence': 'GRAB AND DASH'}, 'imageIDs': ['11f0c98574b4230dffc83c0aeb478f7b'], 'ownerID': '65166d39e119836feb867ce8', 'profileID': '65166d3be119836feb867d23', 'userID': '651bee1702302bffd7a8da7b', 'update': 1696425738727, 'numCases': 0, 'create': 1696425738727, 'noteID': '651d670aff1976583faffad3', 'geo': {'coordinates': [73.84841725892831, 18.511004603403823]}}]}}</t>
+          <t>{'notesInfo': {'notes': [{'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole', 'narrativeDesc': 'nsarra', 'action': 'Call Police', 'storeId': 'Pune', 'caseNumber': 'theft one bottle', 'timeIncident': '09/21/2023 07:47', 'reportedBy': 'staff', 'reportedLoss': '8000', 'caseEventType': 'STORE THREAT', 'activityType': 'DOMESTIC VIOLENCE', 'heightType': '5.6-5.9', 'methodOffence': 'GRAB AND DASH'}, 'imageIDs': ['11f0c98574b4230dffc83c0aeb478f7b'], 'ownerID': '65166d39e119836feb867ce8', 'profileID': '65166d3be119836feb867d23', 'userID': '651bee1702302bffd7a8da7b', 'update': 1696432160417, 'numCases': 0, 'create': 1696432160417, 'noteID': '651d8020ff1976583fb01198', 'geo': {'coordinates': [73.84841725892831, 18.511004603403823]}}]}}</t>
         </is>
       </c>
       <c r="F3" s="66" t="n"/>
@@ -1264,22 +1278,22 @@
       </c>
       <c r="H3" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : 651d670aff1976583faffad3</t>
+          <t>Response Status Code : 200 &amp; Message : 651d8020ff1976583fb01198</t>
         </is>
       </c>
       <c r="I3" s="66" t="inlineStr">
         <is>
-          <t>18:52:13</t>
+          <t>20:39:12</t>
         </is>
       </c>
       <c r="J3" s="66" t="inlineStr">
         <is>
-          <t>18:52:21</t>
+          <t>20:39:27</t>
         </is>
       </c>
       <c r="K3" s="66" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>15.0</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1307,7 @@
       <c r="C4" s="30" t="n"/>
       <c r="D4" s="48" t="inlineStr">
         <is>
-          <t>{'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole', 'narrativeDesc': 'nsarra', 'action': 'Call Police', 'storeId': 'Pune', 'caseNumber': 'theft one bottle', 'timeIncident': '09/21/2023 07:47', 'reportedBy': 'staff', 'reportedLoss': '7000', 'caseEventType': 'STORE THREAT', 'activityType': 'DOMESTIC VIOLENCE', 'heightType': '5.6-5.9', 'methodOffence': 'GRAB AND DASH', 'NoteId': '651d6713ff1976583faffafb', 'SetCases': True}</t>
+          <t>{'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole', 'narrativeDesc': 'nsarra', 'action': 'Call Police', 'storeId': 'Pune', 'caseNumber': 'theft one bottle', 'timeIncident': '09/21/2023 07:47', 'reportedBy': 'staff', 'reportedLoss': '7000', 'caseEventType': 'STORE THREAT', 'activityType': 'DOMESTIC VIOLENCE', 'heightType': '5.6-5.9', 'methodOffence': 'GRAB AND DASH', 'NoteId': '651d8032ff1976583fb01204', 'SetCases': True}</t>
         </is>
       </c>
       <c r="E4" s="48" t="inlineStr">
@@ -1314,17 +1328,17 @@
       </c>
       <c r="I4" s="66" t="inlineStr">
         <is>
-          <t>18:52:21</t>
+          <t>20:39:27</t>
         </is>
       </c>
       <c r="J4" s="66" t="inlineStr">
         <is>
-          <t>18:52:31</t>
+          <t>20:39:45</t>
         </is>
       </c>
       <c r="K4" s="66" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>18.0</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1357,7 @@
       </c>
       <c r="E5" s="65" t="inlineStr">
         <is>
-          <t>{'data': '651d671dff1976583faffb29', 'message': 'Note with NoteId: 651d671dff1976583faffb29 was deleted.', 'isSuccess': True}</t>
+          <t>{'data': '651d8042ff1976583fb01257', 'message': 'Note with NoteId: 651d8042ff1976583fb01257 was deleted.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F5" s="66" t="n"/>
@@ -1354,22 +1368,22 @@
       </c>
       <c r="H5" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Note with NoteId: 651d671dff1976583faffb29 was deleted.</t>
+          <t>Response Status Code : 200 &amp; Message : Note with NoteId: 651d8042ff1976583fb01257 was deleted.</t>
         </is>
       </c>
       <c r="I5" s="65" t="inlineStr">
         <is>
-          <t>18:52:31</t>
+          <t>20:39:46</t>
         </is>
       </c>
       <c r="J5" s="66" t="inlineStr">
         <is>
-          <t>18:52:40</t>
+          <t>20:40:02</t>
         </is>
       </c>
       <c r="K5" s="66" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>16.0</t>
         </is>
       </c>
     </row>
@@ -1688,12 +1702,12 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>{'username': 'core', 'password': 'Right_1r1s', 'lat': 'undefined', 'lon': 'undefined'}</t>
+          <t>{'username': 'shubham', 'password': 'Right_1r1s', 'lat': 'undefined', 'lon': 'undefined'}</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>{'result': {'cookies': '', 'message': 'Account locked out. Please try after 30 minutes or contact administrator.'}}</t>
+          <t>{'result': {'cookies': 'CGISESSID=74653f7fe586415cbe405252eec900ee', 'message': 'You have been logged in.', 'status': 'ok', 'token': 'EAAAAGupeA3WgBD7KZvtSKsVpkFc6LVb3w4CYeK5s8VbuC8qDutQ1PCeXjcMFnYnMCbONxH5vLMCIEdydpMITiBozajiM6+VSk6ragEwVZaFNSvp9qtEg+egRSuNL9Y3d51/gC+1wFM2OoLOOmYl57IjBV4ZxKaYipkqTCFjt2f694g2MJ7Q/Mhd0cmTVvMRS/1VM/Fcfr8FZ2jYmzeub/cBEvkLlU2KAqa716iNHEsu0kijEf8/3obP6cbgt8IE6xv0L1RPXsGu+Z5yvTR9gH9aGkH5bGsuCsOfu0njJuwioSL4KTU3nwmUWJKsZXH8SzDKy0EbHvxH+piSRkWWsDedNMYurM/MbOI4sEDFSeQhmFDD4XL6kxdYTl8/+XPtzn3efFnyQo5lkS1Gf78u2VH4NUAUE/C0jnkVIeDcWhka1/AINrM9GsGQnP2Au7yj0T2xcLhlk7Z3mZjmYjepX1vcZRkEmRZrgPPiSNRg/nYCAzyiNFkb7Vu6aEscrVTR7oYmjAqIXdxCP1V3WjrVDgis26l416pAI1dVTsf9iP00vsaQPmyIGQsFLwJBIg07KV9n0UfrUBjtmqnmdrw9ZPt+UpR7Vt3H/jxcgbfbbXx7ZEOvIWYdwvKXuL73T1Mg7EfFCbBoeVOYGLqx9T9ifyxEcq6p7DrGScUsyZ4V1pp9TiKURdsr00Hde7ryFkTtqdLdA0nNZOy/DOlggVq7VWUhSCFUx2q1JHfike/rkNtXZfahFDkm8QNM8ydfQdhswCSEJwJMlifnnCUlYp7Q5zHU2J9wYq8W9LymVNoK4upa7TZp0LQnUR+U2z3MulOwrvY7gA22Yf8h6G/jnZlPpr6Kdy1xusi9f6LQmQZlqjZDGHUJNHCPwfbD1W0Y2J3kyQFx9gVWgel1De7G7w5Y8qAangvLUHzbxUaVVE0zs/eP/4Sa4OxX51xX6Oh+GgtdA3HiEMbXo0Y1u5+m6KYCq8m/vjMlP3W5D6ztquKLnpCRcBR2WHiB88P20qOitJVyz9PrsQAmg5hPvHdNtTqdiYk7GlQ49LWpmAMLDsaINVriP1nAVXNAwXi6h4EuJ+DQwgXTfKSdxbgFBP1bSv368lUE0lOqSOSa1n6vgFXuOkcxbCnZIw7ok0dNaKeqT+f2cqnOGiFWRyhqZI0EzvJlzqrWpvVSi5mlantNe2q/5x5QMZdED+ezIOOZQkWW3zcM62eI65iW81iU5HIMXMr8nXmJCsMcPQz5L0j54egDjBqfw7MPzMthNUfR947zaC3XYnUoeyPQbuYCHlFr1Ql21HzFATZx3qgMy3lLTWj6G1MASk7U48isvMnWWWjEnHhfKRzXVv4N5FcPOnB92IS91OIiXqRl0wzV1HAKQ4elJZazwet0NH8nkbSbFUbHMkA5fiRtSDEOQ1EfcEOFyfUxfNIuUTFtDxib3IDzfrCxlBMIqxRxckCEmQX81MaECZWE6ZY8th1WgRpu/qH6YYHCnAI+ZOKqY6lIRrvisXUvMovz1po0lfyS9+4L9ibaYaZ48yutt6uYi0ZwutfWy+bNbG4mjw1Hk/8Dpk4KO4S+FJcJ+hQrdtrPfpYhlfnZr2xfUjejCzwoQHXGoyGwuvtlIc5/xf79pPhf8kXq9VR41jhDWWuM+ymTgs90bYAcIwUelgfia69/gDgkG42erbqy9aQea0FaravmMSvogEK4leh5UULC8bRAqXmft4RyZ5plNw4IoHfXf8mFwNEF6omhHzwcQbc220XvjZMzeRvoOrW7sYsXNi1yMWkMjKPSR3CWCO13nZMVPMVWveji+0IUya6i/i40rG1J+oZoI7XHx/u34ri92IPslwFkS5NLT5Z1LOmJ6jDWhH59f1XOLFecV7UwOihNwNv+fYWy/tZTaCffCFEAJTjvpz89k8QmlD9Y6ht7or2rY7eI+WnGI1u3jBFwZaDSIL+Twx7iKRkamX7E0gw7X1gDBeOqLP9S0fNIqdeEwcLnS2PB1o0CQcDh/OGyQk6BDy6racM7h36g6ixTHGYeIeSS7tu1Hwd6xtJEE6WDd0nBdRX0KoNz6E+hEazihzyx73A1rg2l8wgYYYBcvWlUhTToHn+Ea05nc5/H+9owRGvhLiATppyVPBi2SuzLzrUEKQMKRAPdeCEYE0RLn2/S'}}</t>
         </is>
       </c>
       <c r="F2" s="16" t="inlineStr">
@@ -1701,29 +1715,29 @@
           <t>Validate Status Code : 200 &amp; Message : You have been logged in.</t>
         </is>
       </c>
-      <c r="G2" s="43" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+      <c r="G2" s="69" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Account locked out. Please try after 30 minutes or contact administrator.</t>
+          <t>Response Status Code : 200 &amp; Message : You have been logged in.</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>14:30:26</t>
+          <t>20:38:37</t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr">
         <is>
-          <t>14:30:27</t>
+          <t>20:38:42</t>
         </is>
       </c>
       <c r="K2" s="23" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -1741,12 +1755,12 @@
       </c>
       <c r="D3" s="65" t="inlineStr">
         <is>
-          <t>{'username': ' wrongUsername', 'password': 'Right_1r1s', 'lat': 'undefined', 'lon': 'undefined'}</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E3" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'cookies': '', 'message': "Invalid username ' wrongUsername'"}}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="F3" s="65" t="inlineStr">
@@ -1754,29 +1768,29 @@
           <t>Response Status Code : 200 &amp; Message : Invalid password</t>
         </is>
       </c>
-      <c r="G3" s="41" t="inlineStr">
+      <c r="G3" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="H3" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Invalid username ' wrongUsername'</t>
+          <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
       <c r="I3" s="66" t="inlineStr">
         <is>
-          <t>14:28:54</t>
+          <t>20:38:42</t>
         </is>
       </c>
       <c r="J3" s="66" t="inlineStr">
         <is>
-          <t>14:28:56</t>
+          <t>20:38:45</t>
         </is>
       </c>
       <c r="K3" s="24" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -1790,12 +1804,12 @@
       <c r="C4" s="65" t="n"/>
       <c r="D4" s="65" t="inlineStr">
         <is>
-          <t>{'username': 'core', 'password': ' wrongPassowrd', 'lat': 'undefined', 'lon': 'undefined'}</t>
+          <t>{'byPassSSO': 'false'}</t>
         </is>
       </c>
       <c r="E4" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'cookies': '', 'message': 'Account locked out. Please try after 30 minutes or contact administrator.'}}</t>
+          <t>{'type': 'ChallengeResponse', 'loginUrl': ''}</t>
         </is>
       </c>
       <c r="F4" s="65" t="inlineStr">
@@ -1803,29 +1817,29 @@
           <t>Response Status Code : 200 &amp; Message : Password didn't matched</t>
         </is>
       </c>
-      <c r="G4" s="43" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+      <c r="G4" s="69" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H4" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Account locked out. Please try after 30 minutes or contact administrator.</t>
+          <t>Response Status Code : 200 &amp; Message : ChallengeResponse</t>
         </is>
       </c>
       <c r="I4" s="66" t="inlineStr">
         <is>
-          <t>14:28:56</t>
+          <t>20:38:45</t>
         </is>
       </c>
       <c r="J4" s="66" t="inlineStr">
         <is>
-          <t>14:28:58</t>
+          <t>20:38:49</t>
         </is>
       </c>
       <c r="K4" s="24" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1853,12 @@
       <c r="C5" s="65" t="n"/>
       <c r="D5" s="65" t="inlineStr">
         <is>
-          <t>{'username': ' wrongUsername', 'password': ' wrongPassowrd', 'lat': 'undefined', 'lon': 'undefined'}</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E5" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'cookies': '', 'message': "Invalid username ' wrongUsername'"}}</t>
+          <t>{'data': 'User was logged out.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F5" s="65" t="inlineStr">
@@ -1852,29 +1866,29 @@
           <t>Response Status Code : 200 &amp; Message : Invalid username ' wrongUsername'</t>
         </is>
       </c>
-      <c r="G5" s="41" t="inlineStr">
+      <c r="G5" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="H5" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Invalid username ' wrongUsername'</t>
+          <t>Response Status Code : 200 &amp; Message : User was logged out.</t>
         </is>
       </c>
       <c r="I5" s="66" t="inlineStr">
         <is>
-          <t>14:28:58</t>
+          <t>20:38:50</t>
         </is>
       </c>
       <c r="J5" s="66" t="inlineStr">
         <is>
-          <t>14:28:59</t>
+          <t>20:38:56</t>
         </is>
       </c>
       <c r="K5" s="24" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1907,7 @@
       </c>
       <c r="E6" s="26" t="inlineStr">
         <is>
-          <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Username: Missing Username Severity: Error\r\n -- Username: Missing Username Severity: Error\r\n -- Password: Missing Password Severity: Error\r\n -- Password: Missing Password Severity: Error', 'innerException': None, 'requestId': '00-b4a2083bb8a6a4e69a37359897a1b9f5-465b23ab5d044e9c-00', 'requestPath': '/api/login', 'connectionId': '0HMU0MJPNPESN'}}</t>
+          <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Username: Missing Username Severity: Error\r\n -- Username: Missing Username Severity: Error\r\n -- Password: Missing Password Severity: Error\r\n -- Password: Missing Password Severity: Error', 'innerException': None, 'requestId': '00-d7254abec1b642c9bd3b1101ef065f02-b210d488760a75da-00', 'requestPath': '/api/login', 'connectionId': '0HMU4LECLPB10'}}</t>
         </is>
       </c>
       <c r="F6" s="26" t="inlineStr">
@@ -1905,7 +1919,7 @@
  -- Password: Missing Password Severity: Error</t>
         </is>
       </c>
-      <c r="G6" s="42" t="inlineStr">
+      <c r="G6" s="73" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1921,17 +1935,17 @@
       </c>
       <c r="I6" s="27" t="inlineStr">
         <is>
-          <t>14:28:59</t>
+          <t>20:38:57</t>
         </is>
       </c>
       <c r="J6" s="27" t="inlineStr">
         <is>
-          <t>14:29:01</t>
+          <t>20:39:00</t>
         </is>
       </c>
       <c r="K6" s="28" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -2487,12 +2501,12 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>{'auth_params': ' ', 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': ' ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Chile/EasterIsland', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'Demo_user1742', 'password': 'Right_1r1s'}</t>
+          <t>{'auth_params': ' ', 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': ' ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Chile/EasterIsland', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'Demo_user1251', 'password': 'Right_1r1s'}</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'Demo_user1742', 'userId': '651689c502302bffd7a8c255'}</t>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'Demo_user1251', 'userId': '651d805aff1976583fb012bf'}</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -2500,7 +2514,7 @@
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="G2" s="37" t="inlineStr">
+      <c r="G2" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2512,17 +2526,17 @@
       </c>
       <c r="I2" s="32" t="inlineStr">
         <is>
-          <t>14:28:27</t>
+          <t>20:40:03</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>13:54:35</t>
+          <t>20:40:20</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>17.0</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2550,12 @@
       <c r="C3" s="17" t="n"/>
       <c r="D3" s="65" t="inlineStr">
         <is>
-          <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': True, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'test409147', 'password': 'Right_1r1s'}</t>
+          <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': True, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'test409125', 'password': 'Right_1r1s'}</t>
         </is>
       </c>
       <c r="E3" s="65" t="inlineStr">
         <is>
-          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'test409147', 'userId': '651689cb02302bffd7a8c268'}</t>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'test409125', 'userId': '651d8068ff1976583fb012ef'}</t>
         </is>
       </c>
       <c r="F3" s="65" t="inlineStr">
@@ -2549,7 +2563,7 @@
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="G3" s="37" t="inlineStr">
+      <c r="G3" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2561,17 +2575,17 @@
       </c>
       <c r="I3" s="65" t="inlineStr">
         <is>
-          <t>14:28:28</t>
+          <t>20:40:20</t>
         </is>
       </c>
       <c r="J3" s="65" t="inlineStr">
         <is>
-          <t>13:54:42</t>
+          <t>20:40:35</t>
         </is>
       </c>
       <c r="K3" s="65" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>15.0</t>
         </is>
       </c>
     </row>
@@ -2585,12 +2599,12 @@
       <c r="C4" s="65" t="n"/>
       <c r="D4" s="65" t="inlineStr">
         <is>
-          <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': False, 'fname': 'testFname', 'mname': None, 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'Demo_user1783', 'password': 'Right_1r1s'}</t>
+          <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': False, 'fname': 'testFname', 'mname': None, 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'Demo_user1756', 'password': 'Right_1r1s'}</t>
         </is>
       </c>
       <c r="E4" s="65" t="inlineStr">
         <is>
-          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'Demo_user1783', 'userId': '651689d102302bffd7a8c27b'}</t>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'Demo_user1756', 'userId': '651d8077ff1976583fb0132d'}</t>
         </is>
       </c>
       <c r="F4" s="65" t="inlineStr">
@@ -2598,7 +2612,7 @@
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="G4" s="37" t="inlineStr">
+      <c r="G4" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2610,17 +2624,17 @@
       </c>
       <c r="I4" s="65" t="inlineStr">
         <is>
-          <t>14:28:29</t>
+          <t>20:40:36</t>
         </is>
       </c>
       <c r="J4" s="65" t="inlineStr">
         <is>
-          <t>13:54:48</t>
+          <t>20:40:49</t>
         </is>
       </c>
       <c r="K4" s="65" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>13.0</t>
         </is>
       </c>
     </row>
@@ -2655,7 +2669,7 @@
       </c>
       <c r="I5" s="65" t="inlineStr">
         <is>
-          <t>14:28:31</t>
+          <t>20:40:50</t>
         </is>
       </c>
       <c r="J5" s="65" t="inlineStr">
@@ -2709,7 +2723,7 @@
           <t>Response Status Code : 200 &amp; Message : User  650acb81cd16ba5d940931f1 is updated.</t>
         </is>
       </c>
-      <c r="G7" s="37" t="inlineStr">
+      <c r="G7" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2721,17 +2735,17 @@
       </c>
       <c r="I7" s="65" t="inlineStr">
         <is>
-          <t>14:28:32</t>
+          <t>20:41:03</t>
         </is>
       </c>
       <c r="J7" s="65" t="inlineStr">
         <is>
-          <t>13:54:59</t>
+          <t>20:41:15</t>
         </is>
       </c>
       <c r="K7" s="65" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -2745,12 +2759,12 @@
       <c r="C8" s="30" t="n"/>
       <c r="D8" s="65" t="inlineStr">
         <is>
-          <t>{'accountId': '65166d39e119836feb867ce8', 'addr1': None, 'addr2': None, 'aemail': 'user@gmail.com', 'aphone': None, 'auth_params': None, 'city': None, 'company': None, 'department': None, 'email': 'user@gmail.com', 'enabled': True, 'fname': None, 'fphone': None, 'hphone': None, 'isServiceUser': False, 'lname': None, 'mname': None, 'password': 'Password@123', 'phone_type': 0, 'provider': None, 'pw_current': None, 'pw_new1': None, 'pw_new2': None, 'region_id': '65166d39e119836feb867cec', 'state': None, 'timezone': 'Asia/Kolkata', 'title': 'test_title', 'url': None, 'urole_id': '65166d39e119836feb867ce9', 'user_id': '65166d4a1a1e19a5219d8966', 'userName': 'TestUser702', 'wphone': None, 'zip': None}</t>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'addr1': None, 'addr2': None, 'aemail': 'user@gmail.com', 'aphone': None, 'auth_params': None, 'city': None, 'company': None, 'department': None, 'email': 'user@gmail.com', 'enabled': True, 'fname': None, 'fphone': None, 'hphone': None, 'isServiceUser': False, 'lname': None, 'mname': None, 'password': 'Password@123', 'phone_type': 0, 'provider': None, 'pw_current': None, 'pw_new1': None, 'pw_new2': None, 'region_id': '65166d39e119836feb867cec', 'state': None, 'timezone': 'Asia/Kolkata', 'title': 'test_title', 'url': None, 'urole_id': '65166d39e119836feb867ce9', 'user_id': '65166d4a1a1e19a5219d8966', 'userName': 'TestUser436', 'wphone': None, 'zip': None}</t>
         </is>
       </c>
       <c r="E8" s="65" t="inlineStr">
         <is>
-          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'TestUser702', 'userId': '651689e602302bffd7a8c2b2'}</t>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'TestUser436', 'userId': '651d80a3ff1976583fb013b9'}</t>
         </is>
       </c>
       <c r="F8" s="65" t="inlineStr">
@@ -2758,7 +2772,7 @@
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G8" s="37" t="inlineStr">
+      <c r="G8" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2770,17 +2784,17 @@
       </c>
       <c r="I8" s="65" t="inlineStr">
         <is>
-          <t>14:28:33</t>
+          <t>20:41:15</t>
         </is>
       </c>
       <c r="J8" s="65" t="inlineStr">
         <is>
-          <t>13:55:08</t>
+          <t>20:41:33</t>
         </is>
       </c>
       <c r="K8" s="65" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>18.0</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2833,7 @@
       </c>
       <c r="I9" s="65" t="inlineStr">
         <is>
-          <t>14:28:34</t>
+          <t>20:41:33</t>
         </is>
       </c>
       <c r="J9" s="65" t="inlineStr">
@@ -2892,12 +2906,12 @@
       <c r="C11" s="30" t="n"/>
       <c r="D11" s="65" t="inlineStr">
         <is>
-          <t>{'Addr1': None, 'Addr2': None, 'Zip': None, 'Enabled': True, 'Pw_current': None, 'Region_id': '65166d39e119836feb867cec', 'Hphone': None, 'AccountId': '65166d39e119836feb867ce8', 'Fphone': None, 'Pw_new1': None, 'Pw_new2': None, 'City': None, 'Phone_type': None, 'Aphone': None, 'Url': None, 'User_id': '651689f802302bffd7a8c2ee', 'Urole_id': '65166d39e119836feb867ce9', 'State': None, 'Provider': None, 'Fname': None, 'Department': None, 'IsServiceUser': False, 'UserName': None, 'Lname': None, 'Wphone': None, 'Mname': None, 'Title': None, 'Timezone': 'Asia/Kolkata', 'Password': 'Password@123', 'Aemail': 'user@gmail.com', 'Email': 'user@gmail.com', 'Company': None, 'Auth_params': None}</t>
+          <t>{'Addr1': None, 'Addr2': None, 'Zip': None, 'Enabled': True, 'Pw_current': None, 'Region_id': '65166d39e119836feb867cec', 'Hphone': None, 'AccountId': '65166d39e119836feb867ce8', 'Fphone': None, 'Pw_new1': None, 'Pw_new2': None, 'City': None, 'Phone_type': None, 'Aphone': None, 'Url': None, 'User_id': '651d80bcff1976583fb01443', 'Urole_id': '65166d39e119836feb867ce9', 'State': None, 'Provider': None, 'Fname': None, 'Department': None, 'IsServiceUser': False, 'UserName': None, 'Lname': None, 'Wphone': None, 'Mname': None, 'Title': None, 'Timezone': 'Asia/Kolkata', 'Password': 'Password@123', 'Aemail': 'user@gmail.com', 'Email': 'user@gmail.com', 'Company': None, 'Auth_params': None}</t>
         </is>
       </c>
       <c r="E11" s="65" t="inlineStr">
         <is>
-          <t>{'data': '651689f802302bffd7a8c2ee', 'message': 'User  651689f802302bffd7a8c2ee is updated.', 'isSuccess': True}</t>
+          <t>{'data': '651d80bcff1976583fb01443', 'message': 'User  651d80bcff1976583fb01443 is updated.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F11" s="65" t="inlineStr">
@@ -2905,29 +2919,29 @@
           <t>Response Status Code : 200 &amp; Message : Alert information has been updated.</t>
         </is>
       </c>
-      <c r="G11" s="37" t="inlineStr">
+      <c r="G11" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="H11" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : User  651689f802302bffd7a8c2ee is updated.</t>
+          <t>Response Status Code : 200 &amp; Message : User  651d80bcff1976583fb01443 is updated.</t>
         </is>
       </c>
       <c r="I11" s="65" t="inlineStr">
         <is>
-          <t>14:28:35</t>
+          <t>20:41:42</t>
         </is>
       </c>
       <c r="J11" s="65" t="inlineStr">
         <is>
-          <t>13:55:34</t>
+          <t>20:42:16</t>
         </is>
       </c>
       <c r="K11" s="65" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>34.0</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2960,7 @@
       </c>
       <c r="E12" s="65" t="inlineStr">
         <is>
-          <t>[{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'enabled': 1, 'id': '65166d434e4df05a37a98bea', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d434e4df05a37a98be9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d434e4df05a37a98bea', 'username': 'deployment.client', 'userRoleId': '65166d434e4df05a37a98be9', 'displayName': 'deployment.client, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 4, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'maintenance'}, 'enabled': 1, 'id': '65166dbdd319a18d9ce09bfd', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166dbdd319a18d9ce09bfa', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166dbdd319a18d9ce09bfd', 'username': 'maintenance', 'userRoleId': '65166dbdd319a18d9ce09bfa', 'displayName': 'maintenance, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'enabled': 1, 'id': '65166dbdd319a18d9ce09bff', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166dbdd319a18d9ce09bfe', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166dbdd319a18d9ce09bff', 'username': 'deployment.server', 'userRoleId': '65166dbdd319a18d9ce09bfe', 'displayName': 'deployment.server, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167c6602302bffd7a8baaf', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972454000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c6602302bffd7a8baaf', 'username': 'Demo_user157', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167c7102302bffd7a8bac2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972465000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7102302bffd7a8bac2', 'username': 'test409580', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409580'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167c7b02302bffd7a8bad5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972475000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7b02302bffd7a8bad5', 'username': 'Demo_user147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167c8402302bffd7a8bae8', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972484000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c8402302bffd7a8bae8', 'username': 'test409867', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409867'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167c9f02302bffd7a8bb32', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972511000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c9f02302bffd7a8bb32', 'username': 'TestUser115', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser115'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167caa02302bffd7a8bb77', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972522000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167caa02302bffd7a8bb77', 'username': 'Demo_user1529', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cb402302bffd7a8bba2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972532000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cb402302bffd7a8bba2', 'username': 'Demo_user1409', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ced02302bffd7a8bccc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972589000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ced02302bffd7a8bccc', 'username': 'Demo_user1329', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cf502302bffd7a8bd00', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972597000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cf502302bffd7a8bd00', 'username': 'Demo_user1132', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167d1e02302bffd7a8bd8c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972638000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d1e02302bffd7a8bd8c', 'username': 'Demo_user1337', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'test address', 'address2': 'next address', 'city': 'test city', 'company': 'test comp', 'department': 'test department', 'email': 'test@yopmail.com', 'faxNumber': '12345', 'firstName': 'Ashish', 'homePhone': '9876543210', 'lastName': 'Chandra', 'state': 'test state', 'timezoneID': 'Asia/Kolkata', 'title': 'Test Title', 'workPhone': '9876543210', 'zip': '380005'}, 'enabled': 1, 'id': '65167d7c02302bffd7a8bdb0', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972732000, 'prefs': {'alertEMail': 'test19@yopmail.com', 'alertPhone': '9876543210', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'text.wireless.alltel.com', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d7c02302bffd7a8bdb0', 'username': 'Milo118', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Chandra, Ashish'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'lastName': 'core', 'timezoneID': 'Pacific/Gambier'}, 'enabled': 1, 'id': '65167d9702302bffd7a8bdb7', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972759000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6516746002302bffd7a8b907', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d9702302bffd7a8bdb7', 'username': 'test', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core,'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e1a02302bffd7a8bdde', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972890000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e1a02302bffd7a8bdde', 'username': 'Demo_user1470', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e3e02302bffd7a8bdf1', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972926000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e3e02302bffd7a8bdf1', 'username': 'Demo_user144', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e9f02302bffd7a8be0a', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973023000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e9f02302bffd7a8be0a', 'username': 'Demo_user1327', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ea802302bffd7a8be20', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973032000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ea802302bffd7a8be20', 'username': 'test409885', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409885'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167eb102302bffd7a8be33', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973041000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eb102302bffd7a8be33', 'username': 'Demo_user1684', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167eba02302bffd7a8be46', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973050000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eba02302bffd7a8be46', 'username': 'test409370', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409370'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167ecf02302bffd7a8be6d', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973071000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ecf02302bffd7a8be6d', 'username': 'TestUser113', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser113'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ed802302bffd7a8be83', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973080000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ed802302bffd7a8be83', 'username': 'Demo_user1904', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ee902302bffd7a8beac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973097000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ee902302bffd7a8beac', 'username': 'Demo_user125', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user125'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167f5c02302bffd7a8bfb4', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973212000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167f5c02302bffd7a8bfb4', 'username': 'TestUser898', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser898'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167fb202302bffd7a8bffc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973298000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167fb202302bffd7a8bffc', 'username': 'TestUser719', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser719'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516802502302bffd7a8c00f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973413000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802502302bffd7a8c00f', 'username': 'Demo_user1611', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516802e02302bffd7a8c022', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973422000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802e02302bffd7a8c022', 'username': 'test409585', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409585'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '6516803702302bffd7a8c035', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973431000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516803702302bffd7a8c035', 'username': 'Demo_user1547', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '6516804002302bffd7a8c048', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973440000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516804002302bffd7a8c048', 'username': 'test409969', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409969'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '6516805502302bffd7a8c06c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973461000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805502302bffd7a8c06c', 'username': 'TestUser963', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser963'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516805e02302bffd7a8c07f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973470000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805e02302bffd7a8c07f', 'username': 'Demo_user1312', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516806e02302bffd7a8c0ac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973486000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516806e02302bffd7a8c0ac', 'username': 'Demo_user1212', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user1212'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689c502302bffd7a8c255', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975877000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689c502302bffd7a8c255', 'username': 'Demo_user1742', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651689cb02302bffd7a8c268', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975883000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689cb02302bffd7a8c268', 'username': 'test409147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409147'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '651689d102302bffd7a8c27b', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975889000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d102302bffd7a8c27b', 'username': 'Demo_user1783', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '651689d702302bffd7a8c28e', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975895000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d702302bffd7a8c28e', 'username': 'test409715', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409715'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '651689e602302bffd7a8c2b2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975910000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689e602302bffd7a8c2b2', 'username': 'TestUser702', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser702'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689ec02302bffd7a8c2c5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975916000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.</t>
+          <t>[{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'enabled': 1, 'id': '65166d434e4df05a37a98bea', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d434e4df05a37a98be9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d434e4df05a37a98bea', 'username': 'deployment.client', 'userRoleId': '65166d434e4df05a37a98be9', 'displayName': 'deployment.client, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'maintenance'}, 'enabled': 1, 'id': '65166dbdd319a18d9ce09bfd', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166dbdd319a18d9ce09bfa', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166dbdd319a18d9ce09bfd', 'username': 'maintenance', 'userRoleId': '65166dbdd319a18d9ce09bfa', 'displayName': 'maintenance, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'enabled': 1, 'id': '65166dbdd319a18d9ce09bff', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166dbdd319a18d9ce09bfe', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166dbdd319a18d9ce09bff', 'username': 'deployment.server', 'userRoleId': '65166dbdd319a18d9ce09bfe', 'displayName': 'deployment.server, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167c6602302bffd7a8baaf', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972454000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c6602302bffd7a8baaf', 'username': 'Demo_user157', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167c7102302bffd7a8bac2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972465000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7102302bffd7a8bac2', 'username': 'test409580', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409580'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167c7b02302bffd7a8bad5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972475000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7b02302bffd7a8bad5', 'username': 'Demo_user147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167c8402302bffd7a8bae8', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972484000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c8402302bffd7a8bae8', 'username': 'test409867', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409867'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167c9f02302bffd7a8bb32', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972511000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c9f02302bffd7a8bb32', 'username': 'TestUser115', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser115'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167caa02302bffd7a8bb77', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972522000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167caa02302bffd7a8bb77', 'username': 'Demo_user1529', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cb402302bffd7a8bba2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972532000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cb402302bffd7a8bba2', 'username': 'Demo_user1409', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ced02302bffd7a8bccc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972589000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ced02302bffd7a8bccc', 'username': 'Demo_user1329', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cf502302bffd7a8bd00', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972597000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cf502302bffd7a8bd00', 'username': 'Demo_user1132', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167d1e02302bffd7a8bd8c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972638000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d1e02302bffd7a8bd8c', 'username': 'Demo_user1337', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'test address', 'address2': 'next address', 'city': 'test city', 'company': 'test comp', 'department': 'test department', 'email': 'test@yopmail.com', 'faxNumber': '12345', 'firstName': 'Ashish', 'homePhone': '9876543210', 'lastName': 'Chandra', 'state': 'test state', 'timezoneID': 'Asia/Kolkata', 'title': 'Test Title', 'workPhone': '9876543210', 'zip': '380005'}, 'enabled': 1, 'id': '65167d7c02302bffd7a8bdb0', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972732000, 'prefs': {'alertEMail': 'test19@yopmail.com', 'alertPhone': '9876543210', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'text.wireless.alltel.com', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d7c02302bffd7a8bdb0', 'username': 'Milo118', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Chandra, Ashish'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'lastName': 'core', 'timezoneID': 'Pacific/Gambier'}, 'enabled': 1, 'id': '65167d9702302bffd7a8bdb7', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972759000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6516746002302bffd7a8b907', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d9702302bffd7a8bdb7', 'username': 'test', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core,'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e1a02302bffd7a8bdde', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972890000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e1a02302bffd7a8bdde', 'username': 'Demo_user1470', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e3e02302bffd7a8bdf1', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972926000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e3e02302bffd7a8bdf1', 'username': 'Demo_user144', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e9f02302bffd7a8be0a', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973023000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e9f02302bffd7a8be0a', 'username': 'Demo_user1327', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ea802302bffd7a8be20', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973032000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ea802302bffd7a8be20', 'username': 'test409885', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409885'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167eb102302bffd7a8be33', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973041000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eb102302bffd7a8be33', 'username': 'Demo_user1684', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167eba02302bffd7a8be46', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973050000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eba02302bffd7a8be46', 'username': 'test409370', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409370'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167ecf02302bffd7a8be6d', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973071000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ecf02302bffd7a8be6d', 'username': 'TestUser113', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser113'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ed802302bffd7a8be83', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973080000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ed802302bffd7a8be83', 'username': 'Demo_user1904', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ee902302bffd7a8beac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973097000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ee902302bffd7a8beac', 'username': 'Demo_user125', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user125'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167f5c02302bffd7a8bfb4', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973212000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167f5c02302bffd7a8bfb4', 'username': 'TestUser898', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser898'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167fb202302bffd7a8bffc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973298000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167fb202302bffd7a8bffc', 'username': 'TestUser719', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser719'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516802502302bffd7a8c00f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973413000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802502302bffd7a8c00f', 'username': 'Demo_user1611', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516802e02302bffd7a8c022', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973422000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802e02302bffd7a8c022', 'username': 'test409585', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409585'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '6516803702302bffd7a8c035', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973431000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516803702302bffd7a8c035', 'username': 'Demo_user1547', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '6516804002302bffd7a8c048', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973440000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516804002302bffd7a8c048', 'username': 'test409969', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409969'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '6516805502302bffd7a8c06c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973461000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805502302bffd7a8c06c', 'username': 'TestUser963', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser963'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516805e02302bffd7a8c07f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973470000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805e02302bffd7a8c07f', 'username': 'Demo_user1312', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516806e02302bffd7a8c0ac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973486000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516806e02302bffd7a8c0ac', 'username': 'Demo_user1212', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user1212'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689c502302bffd7a8c255', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975877000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689c502302bffd7a8c255', 'username': 'Demo_user1742', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651689cb02302bffd7a8c268', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975883000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689cb02302bffd7a8c268', 'username': 'test409147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409147'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '651689d102302bffd7a8c27b', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975889000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d102302bffd7a8c27b', 'username': 'Demo_user1783', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '651689d702302bffd7a8c28e', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975895000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d702302bffd7a8c28e', 'username': 'test409715', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409715'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '651689e602302bffd7a8c2b2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975910000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689e602302bffd7a8c2b2', 'username': 'TestUser702', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser702'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689ec02302bffd7a8c2c5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975916000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.</t>
         </is>
       </c>
       <c r="F12" s="65" t="inlineStr">
@@ -2954,7 +2968,7 @@
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="G12" s="37" t="inlineStr">
+      <c r="G12" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2966,17 +2980,17 @@
       </c>
       <c r="I12" s="65" t="inlineStr">
         <is>
-          <t>14:28:36</t>
+          <t>20:42:17</t>
         </is>
       </c>
       <c r="J12" s="65" t="inlineStr">
         <is>
-          <t>13:55:37</t>
+          <t>20:42:22</t>
         </is>
       </c>
       <c r="K12" s="65" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -2995,7 +3009,7 @@
       </c>
       <c r="E13" s="65" t="inlineStr">
         <is>
-          <t xml:space="preserve">{'userInfo': {'users': [{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}, {'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ce702302bffd7a8bca5', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api759', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}], 'badPasswordCount': 4, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'regionName': 'Root', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167c6602302bffd7a8baaf', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972454000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c6602302bffd7a8baaf', 'username': 'Demo_user157', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167c7102302bffd7a8bac2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972465000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7102302bffd7a8bac2', 'username': 'test409580', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409580'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167c7b02302bffd7a8bad5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972475000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7b02302bffd7a8bad5', 'username': 'Demo_user147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167c8402302bffd7a8bae8', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972484000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c8402302bffd7a8bae8', 'username': 'test409867', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409867'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167c9f02302bffd7a8bb32', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972511000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c9f02302bffd7a8bb32', 'username': 'TestUser115', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser115'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167caa02302bffd7a8bb77', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972522000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167caa02302bffd7a8bb77', 'username': 'Demo_user1529', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cb402302bffd7a8bba2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972532000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cb402302bffd7a8bba2', 'username': 'Demo_user1409', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ced02302bffd7a8bccc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972589000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ced02302bffd7a8bccc', 'username': 'Demo_user1329', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cf502302bffd7a8bd00', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972597000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cf502302bffd7a8bd00', 'username': 'Demo_user1132', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167d1e02302bffd7a8bd8c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972638000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d1e02302bffd7a8bd8c', 'username': 'Demo_user1337', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'test address', 'address2': 'next address', 'city': 'test city', 'company': 'test comp', 'department': 'test department', 'email': 'test@yopmail.com', 'faxNumber': '12345', 'firstName': 'Ashish', 'homePhone': '9876543210', 'lastName': 'Chandra', 'state': 'test state', 'timezoneID': 'Asia/Kolkata', 'title': 'Test Title', 'workPhone': '9876543210', 'zip': '380005'}, 'enabled': 1, 'id': '65167d7c02302bffd7a8bdb0', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972732000, 'prefs': {'alertEMail': 'test19@yopmail.com', 'alertPhone': '9876543210', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'text.wireless.alltel.com', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'regionName': 'Root', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d7c02302bffd7a8bdb0', 'username': 'Milo118', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Chandra, Ashish'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'lastName': 'core', 'timezoneID': 'Pacific/Gambier'}, 'enabled': 1, 'id': '65167d9702302bffd7a8bdb7', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972759000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6516746002302bffd7a8b907', 'regionName': 'DESKTOP-660P8Q2', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d9702302bffd7a8bdb7', 'username': 'test', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core,'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e1a02302bffd7a8bdde', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972890000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e1a02302bffd7a8bdde', 'username': 'Demo_user1470', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e3e02302bffd7a8bdf1', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972926000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e3e02302bffd7a8bdf1', 'username': 'Demo_user144', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e9f02302bffd7a8be0a', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973023000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e9f02302bffd7a8be0a', 'username': 'Demo_user1327', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ea802302bffd7a8be20', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973032000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ea802302bffd7a8be20', 'username': 'test409885', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409885'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167eb102302bffd7a8be33', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973041000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eb102302bffd7a8be33', 'username': 'Demo_user1684', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167eba02302bffd7a8be46', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973050000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eba02302bffd7a8be46', 'username': 'test409370', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409370'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167ecf02302bffd7a8be6d', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973071000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ecf02302bffd7a8be6d', 'username': 'TestUser113', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser113'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ed802302bffd7a8be83', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973080000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ed802302bffd7a8be83', 'username': 'Demo_user1904', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ee902302bffd7a8beac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973097000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ee902302bffd7a8beac', 'username': 'Demo_user125', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user125'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167f5c02302bffd7a8bfb4', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973212000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167f5c02302bffd7a8bfb4', 'username': 'TestUser898', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser898'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167fb202302bffd7a8bffc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973298000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167fb202302bffd7a8bffc', 'username': 'TestUser719', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser719'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516802502302bffd7a8c00f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973413000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802502302bffd7a8c00f', 'username': 'Demo_user1611', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516802e02302bffd7a8c022', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973422000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802e02302bffd7a8c022', 'username': 'test409585', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409585'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '6516803702302bffd7a8c035', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973431000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516803702302bffd7a8c035', 'username': 'Demo_user1547', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '6516804002302bffd7a8c048', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973440000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516804002302bffd7a8c048', 'username': 'test409969', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409969'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '6516805502302bffd7a8c06c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973461000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805502302bffd7a8c06c', 'username': 'TestUser963', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser963'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516805e02302bffd7a8c07f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973470000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805e02302bffd7a8c07f', 'username': 'Demo_user1312', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516806e02302bffd7a8c0ac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973486000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516806e02302bffd7a8c0ac', 'username': 'Demo_user1212', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user1212'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689c502302bffd7a8c255', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975877000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689c502302bffd7a8c255', 'username': 'Demo_user1742', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651689cb02302bffd7a8c268', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975883000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689cb02302bffd7a8c268', 'username': 'test409147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409147'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '651689d102302bffd7a8c27b', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975889000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d102302bffd7a8c27b', 'username': 'Demo_user1783', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '651689d702302bffd7a8c28e', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975895000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d702302bffd7a8c28e', 'username': 'test409715', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409715'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '651689e602302bffd7a8c2b2', 'notifyUserOfOldPassword': </t>
+          <t>{'userInfo': {'users': [{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41', '651d7f20ff1976583fb00b04', '651d7f48ff1976583fb00cd3'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}, {'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ce702302bffd7a8bca5', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api759', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}], 'badPasswordCount': 0, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'regionName': 'Dmart', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167c6602302bffd7a8baaf', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972454000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c6602302bffd7a8baaf', 'username': 'Demo_user157', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167c7102302bffd7a8bac2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972465000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7102302bffd7a8bac2', 'username': 'test409580', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409580'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167c7b02302bffd7a8bad5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972475000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7b02302bffd7a8bad5', 'username': 'Demo_user147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167c8402302bffd7a8bae8', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972484000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c8402302bffd7a8bae8', 'username': 'test409867', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409867'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167c9f02302bffd7a8bb32', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972511000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c9f02302bffd7a8bb32', 'username': 'TestUser115', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser115'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167caa02302bffd7a8bb77', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972522000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167caa02302bffd7a8bb77', 'username': 'Demo_user1529', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cb402302bffd7a8bba2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972532000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cb402302bffd7a8bba2', 'username': 'Demo_user1409', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ced02302bffd7a8bccc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972589000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ced02302bffd7a8bccc', 'username': 'Demo_user1329', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cf502302bffd7a8bd00', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972597000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cf502302bffd7a8bd00', 'username': 'Demo_user1132', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167d1e02302bffd7a8bd8c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972638000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d1e02302bffd7a8bd8c', 'username': 'Demo_user1337', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'test address', 'address2': 'next address', 'city': 'test city', 'company': 'test comp', 'department': 'test department', 'email': 'test@yopmail.com', 'faxNumber': '12345', 'firstName': 'Ashish', 'homePhone': '9876543210', 'lastName': 'Chandra', 'state': 'test state', 'timezoneID': 'Asia/Kolkata', 'title': 'Test Title', 'workPhone': '9876543210', 'zip': '380005'}, 'enabled': 1, 'id': '65167d7c02302bffd7a8bdb0', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972732000, 'prefs': {'alertEMail': 'test19@yopmail.com', 'alertPhone': '9876543210', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'text.wireless.alltel.com', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'regionName': 'Dmart', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d7c02302bffd7a8bdb0', 'username': 'Milo118', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Chandra, Ashish'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'lastName': 'core', 'timezoneID': 'Pacific/Gambier'}, 'enabled': 1, 'id': '65167d9702302bffd7a8bdb7', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972759000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6516746002302bffd7a8b907', 'regionName': 'DESKTOP-660P8Q2', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d9702302bffd7a8bdb7', 'username': 'test', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core,'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e1a02302bffd7a8bdde', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972890000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e1a02302bffd7a8bdde', 'username': 'Demo_user1470', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e3e02302bffd7a8bdf1', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972926000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e3e02302bffd7a8bdf1', 'username': 'Demo_user144', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e9f02302bffd7a8be0a', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973023000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e9f02302bffd7a8be0a', 'username': 'Demo_user1327', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ea802302bffd7a8be20', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973032000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ea802302bffd7a8be20', 'username': 'test409885', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409885'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167eb102302bffd7a8be33', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973041000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eb102302bffd7a8be33', 'username': 'Demo_user1684', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167eba02302bffd7a8be46', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973050000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eba02302bffd7a8be46', 'username': 'test409370', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409370'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167ecf02302bffd7a8be6d', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973071000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ecf02302bffd7a8be6d', 'username': 'TestUser113', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser113'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ed802302bffd7a8be83', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973080000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ed802302bffd7a8be83', 'username': 'Demo_user1904', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ee902302bffd7a8beac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973097000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ee902302bffd7a8beac', 'username': 'Demo_user125', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user125'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167f5c02302bffd7a8bfb4', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973212000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167f5c02302bffd7a8bfb4', 'username': 'TestUser898', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser898'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167fb202302bffd7a8bffc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973298000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167fb202302bffd7a8bffc', 'username': 'TestUser719', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser719'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516802502302bffd7a8c00f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973413000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802502302bffd7a8c00f', 'username': 'Demo_user1611', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516802e02302bffd7a8c022', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973422000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802e02302bffd7a8c022', 'username': 'test409585', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409585'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '6516803702302bffd7a8c035', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973431000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516803702302bffd7a8c035', 'username': 'Demo_user1547', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '6516804002302bffd7a8c048', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973440000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516804002302bffd7a8c048', 'username': 'test409969', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409969'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '6516805502302bffd7a8c06c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973461000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805502302bffd7a8c06c', 'username': 'TestUser963', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser963'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516805e02302bffd7a8c07f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973470000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805e02302bffd7a8c07f', 'username': 'Demo_user1312', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516806e02302bffd7a8c0ac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973486000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516806e02302bffd7a8c0ac', 'username': 'Demo_user1212', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user1212'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689c502302bffd7a8c255', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975877000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689c502302bffd7a8c255', 'username': 'Demo_user1742', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651689cb02302bffd7a8c268', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975883000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689cb02302bffd7a8c268', 'username': 'test409147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409147'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '651689d102302bffd7a8c27b', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975889000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d102302bffd7a8c27b', 'username': 'Demo_user1783', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '651689d702302bffd7a8c28e', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975895000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d702302bffd7a8c28e', 'username': 'test409715', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409715'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user</t>
         </is>
       </c>
       <c r="F13" s="65" t="inlineStr">
@@ -3003,7 +3017,7 @@
           <t>Response Status Code : 200 &amp; Message : User  650d6aaa327ea63edec3d38b is updated.</t>
         </is>
       </c>
-      <c r="G13" s="37" t="inlineStr">
+      <c r="G13" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3015,17 +3029,17 @@
       </c>
       <c r="I13" s="65" t="inlineStr">
         <is>
-          <t>14:28:37</t>
+          <t>20:42:23</t>
         </is>
       </c>
       <c r="J13" s="65" t="inlineStr">
         <is>
-          <t>13:55:42</t>
+          <t>20:42:33</t>
         </is>
       </c>
       <c r="K13" s="65" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -3044,11 +3058,11 @@
       </c>
       <c r="E14" s="65" t="inlineStr">
         <is>
-          <t>{'userInfo': {'users': [{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}, {'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ce702302bffd7a8bca5', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api759', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}], 'badPasswordCount': 4, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'regionName': 'Root', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}]}}</t>
+          <t>{'userInfo': {'users': [{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41', '651d7f20ff1976583fb00b04', '651d7f48ff1976583fb00cd3'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}, {'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ce702302bffd7a8bca5', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api759', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}], 'badPasswordCount': 0, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'regionName': 'Dmart', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}]}}</t>
         </is>
       </c>
       <c r="F14" s="65" t="n"/>
-      <c r="G14" s="37" t="inlineStr">
+      <c r="G14" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3060,17 +3074,17 @@
       </c>
       <c r="I14" s="65" t="inlineStr">
         <is>
-          <t>13:55:42</t>
+          <t>20:42:34</t>
         </is>
       </c>
       <c r="J14" s="65" t="inlineStr">
         <is>
-          <t>13:55:47</t>
+          <t>20:42:41</t>
         </is>
       </c>
       <c r="K14" s="65" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -3089,11 +3103,11 @@
       </c>
       <c r="E15" s="65" t="inlineStr">
         <is>
-          <t>{'accountId': '65166d39e119836feb867ce8', 'regionId': '65166d39e119836feb867cea', 'userName': 'core', 'userId': '65166d4a1a1e19a5219d8966', 'userRoleId': '65166d39e119836feb867ce9'}</t>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'regionId': '65166d39e119836feb867cea', 'userName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'userRoleId': '65166d39e119836feb867ce9'}</t>
         </is>
       </c>
       <c r="F15" s="65" t="n"/>
-      <c r="G15" s="37" t="inlineStr">
+      <c r="G15" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3105,17 +3119,17 @@
       </c>
       <c r="I15" s="65" t="inlineStr">
         <is>
-          <t>13:55:47</t>
+          <t>20:42:42</t>
         </is>
       </c>
       <c r="J15" s="65" t="inlineStr">
         <is>
-          <t>13:55:50</t>
+          <t>20:42:49</t>
         </is>
       </c>
       <c r="K15" s="65" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3152,7 @@
         </is>
       </c>
       <c r="F16" s="65" t="n"/>
-      <c r="G16" s="37" t="inlineStr">
+      <c r="G16" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3150,17 +3164,17 @@
       </c>
       <c r="I16" s="65" t="inlineStr">
         <is>
-          <t>13:55:50</t>
+          <t>20:42:49</t>
         </is>
       </c>
       <c r="J16" s="65" t="inlineStr">
         <is>
-          <t>13:55:53</t>
+          <t>20:42:54</t>
         </is>
       </c>
       <c r="K16" s="65" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -3179,11 +3193,11 @@
       </c>
       <c r="E17" s="65" t="inlineStr">
         <is>
-          <t>[{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'enabled': 1, 'id': '65166d434e4df05a37a98bea', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d434e4df05a37a98be9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d434e4df05a37a98bea', 'username': 'deployment.client', 'userRoleId': '65166d434e4df05a37a98be9', 'displayName': 'deployment.client, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 4, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'maintenance'}, 'enabled': 1, 'id': '65166dbdd319a18d9ce09bfd', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166dbdd319a18d9ce09bfa', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166dbdd319a18d9ce09bfd', 'username': 'maintenance', 'userRoleId': '65166dbdd319a18d9ce09bfa', 'displayName': 'maintenance, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'enabled': 1, 'id': '65166dbdd319a18d9ce09bff', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166dbdd319a18d9ce09bfe', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166dbdd319a18d9ce09bff', 'username': 'deployment.server', 'userRoleId': '65166dbdd319a18d9ce09bfe', 'displayName': 'deployment.server, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167c6602302bffd7a8baaf', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972454000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c6602302bffd7a8baaf', 'username': 'Demo_user157', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167c7102302bffd7a8bac2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972465000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7102302bffd7a8bac2', 'username': 'test409580', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409580'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167c7b02302bffd7a8bad5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972475000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7b02302bffd7a8bad5', 'username': 'Demo_user147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167c8402302bffd7a8bae8', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972484000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c8402302bffd7a8bae8', 'username': 'test409867', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409867'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167c9f02302bffd7a8bb32', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972511000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c9f02302bffd7a8bb32', 'username': 'TestUser115', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser115'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167caa02302bffd7a8bb77', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972522000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167caa02302bffd7a8bb77', 'username': 'Demo_user1529', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cb402302bffd7a8bba2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972532000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cb402302bffd7a8bba2', 'username': 'Demo_user1409', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ced02302bffd7a8bccc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972589000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ced02302bffd7a8bccc', 'username': 'Demo_user1329', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cf502302bffd7a8bd00', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972597000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cf502302bffd7a8bd00', 'username': 'Demo_user1132', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167d1e02302bffd7a8bd8c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972638000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d1e02302bffd7a8bd8c', 'username': 'Demo_user1337', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'test address', 'address2': 'next address', 'city': 'test city', 'company': 'test comp', 'department': 'test department', 'email': 'test@yopmail.com', 'faxNumber': '12345', 'firstName': 'Ashish', 'homePhone': '9876543210', 'lastName': 'Chandra', 'state': 'test state', 'timezoneID': 'Asia/Kolkata', 'title': 'Test Title', 'workPhone': '9876543210', 'zip': '380005'}, 'enabled': 1, 'id': '65167d7c02302bffd7a8bdb0', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972732000, 'prefs': {'alertEMail': 'test19@yopmail.com', 'alertPhone': '9876543210', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'text.wireless.alltel.com', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d7c02302bffd7a8bdb0', 'username': 'Milo118', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Chandra, Ashish'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'lastName': 'core', 'timezoneID': 'Pacific/Gambier'}, 'enabled': 1, 'id': '65167d9702302bffd7a8bdb7', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972759000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6516746002302bffd7a8b907', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d9702302bffd7a8bdb7', 'username': 'test', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core,'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e1a02302bffd7a8bdde', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972890000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e1a02302bffd7a8bdde', 'username': 'Demo_user1470', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e3e02302bffd7a8bdf1', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972926000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e3e02302bffd7a8bdf1', 'username': 'Demo_user144', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e9f02302bffd7a8be0a', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973023000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e9f02302bffd7a8be0a', 'username': 'Demo_user1327', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ea802302bffd7a8be20', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973032000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ea802302bffd7a8be20', 'username': 'test409885', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409885'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167eb102302bffd7a8be33', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973041000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eb102302bffd7a8be33', 'username': 'Demo_user1684', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167eba02302bffd7a8be46', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973050000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eba02302bffd7a8be46', 'username': 'test409370', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409370'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167ecf02302bffd7a8be6d', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973071000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ecf02302bffd7a8be6d', 'username': 'TestUser113', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser113'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ed802302bffd7a8be83', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973080000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ed802302bffd7a8be83', 'username': 'Demo_user1904', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ee902302bffd7a8beac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973097000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ee902302bffd7a8beac', 'username': 'Demo_user125', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user125'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167f5c02302bffd7a8bfb4', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973212000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167f5c02302bffd7a8bfb4', 'username': 'TestUser898', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser898'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167fb202302bffd7a8bffc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973298000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167fb202302bffd7a8bffc', 'username': 'TestUser719', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser719'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516802502302bffd7a8c00f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973413000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802502302bffd7a8c00f', 'username': 'Demo_user1611', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516802e02302bffd7a8c022', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973422000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802e02302bffd7a8c022', 'username': 'test409585', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409585'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '6516803702302bffd7a8c035', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973431000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516803702302bffd7a8c035', 'username': 'Demo_user1547', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '6516804002302bffd7a8c048', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973440000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516804002302bffd7a8c048', 'username': 'test409969', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409969'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '6516805502302bffd7a8c06c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973461000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805502302bffd7a8c06c', 'username': 'TestUser963', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser963'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516805e02302bffd7a8c07f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973470000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805e02302bffd7a8c07f', 'username': 'Demo_user1312', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516806e02302bffd7a8c0ac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973486000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516806e02302bffd7a8c0ac', 'username': 'Demo_user1212', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user1212'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689c502302bffd7a8c255', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975877000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689c502302bffd7a8c255', 'username': 'Demo_user1742', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651689cb02302bffd7a8c268', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975883000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689cb02302bffd7a8c268', 'username': 'test409147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409147'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '651689d102302bffd7a8c27b', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975889000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d102302bffd7a8c27b', 'username': 'Demo_user1783', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '651689d702302bffd7a8c28e', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975895000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d702302bffd7a8c28e', 'username': 'test409715', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409715'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '651689e602302bffd7a8c2b2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975910000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689e602302bffd7a8c2b2', 'username': 'TestUser702', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser702'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689ec02302bffd7a8c2c5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975916000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.</t>
+          <t>[{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'enabled': 1, 'id': '65166d434e4df05a37a98bea', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d434e4df05a37a98be9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d434e4df05a37a98bea', 'username': 'deployment.client', 'userRoleId': '65166d434e4df05a37a98be9', 'displayName': 'deployment.client, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'maintenance'}, 'enabled': 1, 'id': '65166dbdd319a18d9ce09bfd', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166dbdd319a18d9ce09bfa', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166dbdd319a18d9ce09bfd', 'username': 'maintenance', 'userRoleId': '65166dbdd319a18d9ce09bfa', 'displayName': 'maintenance, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'enabled': 1, 'id': '65166dbdd319a18d9ce09bff', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166dbdd319a18d9ce09bfe', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166dbdd319a18d9ce09bff', 'username': 'deployment.server', 'userRoleId': '65166dbdd319a18d9ce09bfe', 'displayName': 'deployment.server, ExternalUser'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167c6602302bffd7a8baaf', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972454000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c6602302bffd7a8baaf', 'username': 'Demo_user157', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167c7102302bffd7a8bac2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972465000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7102302bffd7a8bac2', 'username': 'test409580', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409580'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167c7b02302bffd7a8bad5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972475000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7b02302bffd7a8bad5', 'username': 'Demo_user147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167c8402302bffd7a8bae8', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972484000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c8402302bffd7a8bae8', 'username': 'test409867', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409867'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167c9f02302bffd7a8bb32', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972511000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c9f02302bffd7a8bb32', 'username': 'TestUser115', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser115'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167caa02302bffd7a8bb77', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972522000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167caa02302bffd7a8bb77', 'username': 'Demo_user1529', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cb402302bffd7a8bba2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972532000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cb402302bffd7a8bba2', 'username': 'Demo_user1409', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ced02302bffd7a8bccc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972589000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ced02302bffd7a8bccc', 'username': 'Demo_user1329', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cf502302bffd7a8bd00', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972597000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cf502302bffd7a8bd00', 'username': 'Demo_user1132', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167d1e02302bffd7a8bd8c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972638000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d1e02302bffd7a8bd8c', 'username': 'Demo_user1337', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'test address', 'address2': 'next address', 'city': 'test city', 'company': 'test comp', 'department': 'test department', 'email': 'test@yopmail.com', 'faxNumber': '12345', 'firstName': 'Ashish', 'homePhone': '9876543210', 'lastName': 'Chandra', 'state': 'test state', 'timezoneID': 'Asia/Kolkata', 'title': 'Test Title', 'workPhone': '9876543210', 'zip': '380005'}, 'enabled': 1, 'id': '65167d7c02302bffd7a8bdb0', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972732000, 'prefs': {'alertEMail': 'test19@yopmail.com', 'alertPhone': '9876543210', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'text.wireless.alltel.com', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d7c02302bffd7a8bdb0', 'username': 'Milo118', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Chandra, Ashish'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'lastName': 'core', 'timezoneID': 'Pacific/Gambier'}, 'enabled': 1, 'id': '65167d9702302bffd7a8bdb7', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972759000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6516746002302bffd7a8b907', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d9702302bffd7a8bdb7', 'username': 'test', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core,'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e1a02302bffd7a8bdde', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972890000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e1a02302bffd7a8bdde', 'username': 'Demo_user1470', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e3e02302bffd7a8bdf1', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972926000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e3e02302bffd7a8bdf1', 'username': 'Demo_user144', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e9f02302bffd7a8be0a', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973023000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e9f02302bffd7a8be0a', 'username': 'Demo_user1327', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ea802302bffd7a8be20', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973032000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ea802302bffd7a8be20', 'username': 'test409885', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409885'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167eb102302bffd7a8be33', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973041000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eb102302bffd7a8be33', 'username': 'Demo_user1684', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167eba02302bffd7a8be46', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973050000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eba02302bffd7a8be46', 'username': 'test409370', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409370'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167ecf02302bffd7a8be6d', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973071000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ecf02302bffd7a8be6d', 'username': 'TestUser113', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser113'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ed802302bffd7a8be83', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973080000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ed802302bffd7a8be83', 'username': 'Demo_user1904', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ee902302bffd7a8beac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973097000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ee902302bffd7a8beac', 'username': 'Demo_user125', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user125'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167f5c02302bffd7a8bfb4', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973212000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167f5c02302bffd7a8bfb4', 'username': 'TestUser898', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser898'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167fb202302bffd7a8bffc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973298000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167fb202302bffd7a8bffc', 'username': 'TestUser719', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser719'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516802502302bffd7a8c00f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973413000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802502302bffd7a8c00f', 'username': 'Demo_user1611', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516802e02302bffd7a8c022', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973422000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802e02302bffd7a8c022', 'username': 'test409585', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409585'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '6516803702302bffd7a8c035', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973431000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516803702302bffd7a8c035', 'username': 'Demo_user1547', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '6516804002302bffd7a8c048', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973440000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516804002302bffd7a8c048', 'username': 'test409969', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409969'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '6516805502302bffd7a8c06c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973461000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805502302bffd7a8c06c', 'username': 'TestUser963', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser963'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516805e02302bffd7a8c07f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973470000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805e02302bffd7a8c07f', 'username': 'Demo_user1312', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516806e02302bffd7a8c0ac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973486000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516806e02302bffd7a8c0ac', 'username': 'Demo_user1212', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user1212'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689c502302bffd7a8c255', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975877000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689c502302bffd7a8c255', 'username': 'Demo_user1742', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651689cb02302bffd7a8c268', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975883000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689cb02302bffd7a8c268', 'username': 'test409147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409147'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '651689d102302bffd7a8c27b', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975889000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d102302bffd7a8c27b', 'username': 'Demo_user1783', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '651689d702302bffd7a8c28e', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975895000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d702302bffd7a8c28e', 'username': 'test409715', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409715'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '651689e602302bffd7a8c2b2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975910000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689e602302bffd7a8c2b2', 'username': 'TestUser702', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser702'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689ec02302bffd7a8c2c5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975916000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.</t>
         </is>
       </c>
       <c r="F17" s="65" t="n"/>
-      <c r="G17" s="37" t="inlineStr">
+      <c r="G17" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3195,17 +3209,17 @@
       </c>
       <c r="I17" s="65" t="inlineStr">
         <is>
-          <t>13:55:53</t>
+          <t>20:42:55</t>
         </is>
       </c>
       <c r="J17" s="65" t="inlineStr">
         <is>
-          <t>13:55:56</t>
+          <t>20:43:01</t>
         </is>
       </c>
       <c r="K17" s="65" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3242,7 @@
         </is>
       </c>
       <c r="F18" s="65" t="n"/>
-      <c r="G18" s="37" t="inlineStr">
+      <c r="G18" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3240,17 +3254,17 @@
       </c>
       <c r="I18" s="65" t="inlineStr">
         <is>
-          <t>13:55:56</t>
+          <t>20:43:01</t>
         </is>
       </c>
       <c r="J18" s="65" t="inlineStr">
         <is>
-          <t>13:56:01</t>
+          <t>20:43:13</t>
         </is>
       </c>
       <c r="K18" s="65" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -3269,11 +3283,11 @@
       </c>
       <c r="E19" s="65" t="inlineStr">
         <is>
-          <t>{'data': '65168a2102302bffd7a8c377', 'message': 'User with UserId: 65168a2102302bffd7a8c377 was removed.', 'isSuccess': True}</t>
+          <t>{'data': '651d8114ff1976583fb015a6', 'message': 'User with UserId: 651d8114ff1976583fb015a6 was removed.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F19" s="65" t="n"/>
-      <c r="G19" s="37" t="inlineStr">
+      <c r="G19" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3285,17 +3299,17 @@
       </c>
       <c r="I19" s="65" t="inlineStr">
         <is>
-          <t>13:56:01</t>
+          <t>20:43:13</t>
         </is>
       </c>
       <c r="J19" s="65" t="inlineStr">
         <is>
-          <t>13:56:09</t>
+          <t>20:43:29</t>
         </is>
       </c>
       <c r="K19" s="65" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>16.0</t>
         </is>
       </c>
     </row>
@@ -3314,11 +3328,11 @@
       </c>
       <c r="E20" s="65" t="inlineStr">
         <is>
-          <t>{'data': '65168a2902302bffd7a8c395', 'message': 'User with UserId: 65168a2902302bffd7a8c395 was removed.', 'isSuccess': True}</t>
+          <t>{'data': '651d8124ff1976583fb015da', 'message': 'User with UserId: 651d8124ff1976583fb015da was removed.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F20" s="65" t="n"/>
-      <c r="G20" s="37" t="inlineStr">
+      <c r="G20" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3330,17 +3344,17 @@
       </c>
       <c r="I20" s="65" t="inlineStr">
         <is>
-          <t>13:56:09</t>
+          <t>20:43:29</t>
         </is>
       </c>
       <c r="J20" s="65" t="inlineStr">
         <is>
-          <t>13:56:18</t>
+          <t>20:43:44</t>
         </is>
       </c>
       <c r="K20" s="65" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>15.0</t>
         </is>
       </c>
     </row>
@@ -3358,7 +3372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -3447,12 +3461,12 @@
       <c r="C2" s="39" t="n"/>
       <c r="D2" s="39" t="inlineStr">
         <is>
-          <t>{'CgroupId': '651bc5a402302bffd7a8d0ca', 'OptOut': False, 'Basis': 1, 'Action': 'call police', 'ActivityType': 'BOMB THREAT', 'BodyMarkings': 'mole on han', 'Build': 'build', 'CaseEventType': 'STORE THREAT', 'CaseNumber': 'theft', 'Enabled': 1, 'Gender': 'MALE', 'HeightType': '5.0-5.5', 'MethodOffence': 'GRAB AND DASH', 'NarrativeDesc': 'narratives', 'ProfileId': '65166d3be119836feb867d23', 'ReportedBy': 'admin', 'ReportedLoss': 5000, 'StoreId': 'pune', 'TimeIncident': '09/29/2023 13:24', 'RegionId': '65166d39e119836feb867cea'}</t>
+          <t>{'CgroupId': '651d8416ff1976583fb019f6', 'OptOut': False, 'Basis': 1, 'Action': 'call police', 'ActivityType': 'BOMB THREAT', 'BodyMarkings': 'mole on han', 'Build': 'build', 'CaseEventType': 'STORE THREAT', 'CaseNumber': 'theft', 'Enabled': 1, 'Gender': 'MALE', 'HeightType': '5.0-5.5', 'MethodOffence': 'GRAB AND DASH', 'NarrativeDesc': 'narratives', 'ProfileId': '65166d3be119836feb867d23', 'ReportedBy': 'admin', 'ReportedLoss': 5000, 'StoreId': 'pune', 'TimeIncident': '09/29/2023 13:24', 'RegionId': '65166d39e119836feb867cea'}</t>
         </is>
       </c>
       <c r="E2" s="39" t="inlineStr">
         <is>
-          <t>{'enroll': {'images': [{'confidence': 0.9980553388595581, 'foundEyes': True, 'leftX': 86.5, 'leftY': 109.5, 'maskedFace': 0.19413532316684723, 'nonMaskedFace': 0.805864691734314, 'demographics': {'male': 0.9040898308157921, 'age': 0.4648215174674988, 'indian': 0.002180504845455289, 'white': 0.9902250170707703, 'black': 0.001278943964280188, 'female': 0.09591016918420792, 'other': 0.005713979713618755, 'asian': 0.0006015662220306695, 'unknown': 0, 'ethnicity': 'Unknown'}, 'rightX': 52.5, 'rightY': 116.5, 'sampleQualityTooLow': False}], 'success': True, 'caseId': '651bc5ad02302bffd7a8d0ec'}}</t>
+          <t>{'enroll': {'images': [{'confidence': 0.9980553388595581, 'foundEyes': True, 'leftX': 86.5, 'leftY': 109.5, 'maskedFace': 0.19413532316684723, 'nonMaskedFace': 0.805864691734314, 'demographics': {'male': 0.9040898308157921, 'age': 0.4648215174674988, 'indian': 0.002180504845455289, 'white': 0.9902250170707703, 'black': 0.001278943964280188, 'female': 0.09591016918420792, 'other': 0.005713979713618755, 'asian': 0.0006015662220306695, 'unknown': 0, 'ethnicity': 'Unknown'}, 'rightX': 52.5, 'rightY': 116.5, 'sampleQualityTooLow': False}], 'success': True, 'caseId': '651d841fff1976583fb01a19'}}</t>
         </is>
       </c>
       <c r="F2" s="39" t="inlineStr">
@@ -3460,7 +3474,7 @@
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G2" s="40" t="inlineStr">
+      <c r="G2" s="71" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3472,30 +3486,30 @@
       </c>
       <c r="I2" s="39" t="inlineStr">
         <is>
-          <t>14:28:13</t>
+          <t>20:56:07</t>
         </is>
       </c>
       <c r="J2" s="39" t="inlineStr">
         <is>
-          <t>13:11:34</t>
+          <t>20:56:26</t>
         </is>
       </c>
       <c r="K2" s="39" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>19.0</t>
         </is>
       </c>
     </row>
     <row r="3" ht="63" customHeight="1" s="64">
       <c r="B3" s="39" t="inlineStr">
         <is>
-          <t>Test_01</t>
+          <t>Test_02</t>
         </is>
       </c>
       <c r="C3" s="39" t="n"/>
       <c r="D3" s="39" t="inlineStr">
         <is>
-          <t>{'fields': ['BodyMarkings'], 'caseId': '651bc1d902302bffd7a8d074'}</t>
+          <t>{'fields': ['BodyMarkings'], 'caseId': '651d8432ff1976583fb01a56'}</t>
         </is>
       </c>
       <c r="E3" s="39" t="inlineStr">
@@ -3508,7 +3522,7 @@
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G3" s="40" t="inlineStr">
+      <c r="G3" s="71" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3520,17 +3534,150 @@
       </c>
       <c r="I3" s="39" t="inlineStr">
         <is>
-          <t>14:28:14</t>
+          <t>20:56:26</t>
         </is>
       </c>
       <c r="J3" s="39" t="inlineStr">
         <is>
-          <t>12:55:16</t>
+          <t>20:56:47</t>
         </is>
       </c>
       <c r="K3" s="39" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>21:02:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Test_04</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>{'profiles': [{'availability': 3, 'description': 'Case Profle v2', 'groups': [{'groupID': '65166d3be119836feb867d22', 'fields': [{'use_index': False, 'name': 'GENDER', 'fieldID': '65166d3be119836feb867cf8', 'internal_name': 'gender', 'type': 'choice', 'data': ['Male', 'Female']}, {'name': 'BUILD', 'fieldID': '65166d3be119836feb867cfe', 'internal_name': 'build', 'type': 'text', 'data': []}, {'name': 'BODY MARKINGS', 'fieldID': '65166d3be119836feb867d04', 'internal_name': 'bodyMarkings', 'type': 'text', 'data': []}, {'name': 'NARRATIVES', 'fieldID': '65166d3be119836feb867d08', 'internal_name': 'narrativeDesc', 'type': 'textarea', 'data': []}, {'name': 'ACTION', 'fieldID': '65166d3be119836feb867d0a', 'internal_name': 'action', 'required': True, 'type': 'text', 'data': []}, {'name': 'LOCATION/STORE', 'fieldID': '65166d3be119836feb867d0c', 'internal_name': 'storeId', 'required': True, 'type': 'text', 'data': []}, {'name': 'CASE/SUBJECT', 'fieldID': '65166d3be119836feb867d0e', 'internal_name': 'caseNumber', 'required': True, 'type': 'text', 'data': []}, {'name': 'DATE INCIDENT', 'fieldID': '65166d3be119836feb867d10', 'internal_name': 'timeIncident', 'required': True, 'hint': 'mm/dd/yyyy HH:mm', 'type': 'date', 'data': [], 'output_format': 'MM/dd/yyyy HH:mm'}, {'name': 'REPORTED BY', 'fieldID': '65166d3be119836feb867d12', 'internal_name': 'reportedBy', 'type': 'text', 'data': []}, {'name': 'REPORTED LOSS', 'fieldID': '65166d3be119836feb867d14', 'internal_name': 'reportedLoss', 'required': True, 'type': 'number', 'data': []}, {'use_index': False, 'name': 'CASE EVENT TYPE', 'fieldID': '65166d3be119836feb867d18', 'internal_name': 'caseEventType', 'type': 'choice', 'data': ['Employee threatened/assaulted', 'Store threat', 'Customer threatened/assaulted', 'Armed Robbery', 'Trafficking', 'Arson', 'Restraining Order', 'LE support Case', 'Lewd/Disruptive Conduct', 'Terminated Employee']}, {'use_index': False, 'name': 'ACTIVITY TYPE', 'fieldID': '65166d3be119836feb867d1a', 'internal_name': 'activityType', 'type': 'choice', 'data': ['Push out', 'Bomb threat', 'SCO fraud', 'Threatened associate', 'Gift card fraud', 'ORC', 'Coupon Fraud', 'Arson', 'Domestic Violence']}, {'use_index': False, 'name': 'HEIGHT', 'fieldID': '65166d3be119836feb867d1c', 'internal_name': 'heightType', 'type': 'choice', 'data': ['5.0-5.5', '5.6-5.9', '5.10-6.0', '6.1-6.3', '6.4+']}, {'use_index': False, 'name': 'METHOD OF OFFENSE', 'fieldID': '65166d3be119836feb867d1e', 'internal_name': 'methodOffence', 'type': 'choice', 'data': ['Concealment', 'Product selection', 'Surveillance', 'Distraction', 'Grab and dash', 'Coupons/Gift card', 'Armed', 'Shelf sweep', 'Cart push out']}], 'name': 'Portal_v2', 'internal_name': 'portal2'}], 'internal_name': 'v2', 'list_description': [{'display': 'LOCATION/STORE &amp; CASE/SUBJECT', 'format': '%s %s', 'parameters': ['portal2.storeId', 'portal2.caseNumber']}, {'format': '%s', 'parameters': ['portal2.action']}], 'name': 'Profile v2', 'ownerID': '65166d39e119836feb867ce8', 'profileID': '65166d3be119836feb867d23', 'search_fields': [{'display': 'LOCATION/STORE', 'internal_name': 'storeId'}, {'display': 'CASE/SUBJECT', 'internal_name': 'caseNumber'}], 'visible_groups': False}]}</t>
+        </is>
+      </c>
+      <c r="G5" s="74" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>20:57:07</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>20:57:27</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Test_05</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>{'id': {'processed': {'confidence': 0.9980553388595581, 'foundEyes': True, 'leftX': 86.5, 'leftY': 109.5, 'maskedFace': 0.19413532316684723, 'metrics': [{'pass': True, 'name': 'isEyesOpen', 'score': 0.06381016224622726}, {'pass': True, 'name': 'isEyesOpenV2', 'score': 0.5921568274497986}, {'pass': True, 'name': 'exposureImage', 'score': 0.5369047522544861}, {'pass': True, 'name': 'exposureFace', 'score': 0.8034345507621765}, {'pass': True, 'name': 'exposureImageV2', 'score': 0.754365086555481}, {'pass': True, 'name': 'exposureFaceV2', 'score': 0.9571049213409424}, {'pass': False, 'name': 'isBackgroundUniformBestPractice', 'score': 0.17647618055343628}, {'pass': False, 'name': 'isFrontalBestPractice', 'score': 0.5086395740509033}, {'pass': False, 'name': 'isFrontalBestPracticeV2', 'score': 0.6678302884101868}, {'pass': True, 'name': 'isLightingUniform', 'score': 0.9003337621688843}, {'pass': True, 'name': 'isLightingUniformV2', 'score': 0.9385245442390442}, {'pass': False, 'name': 'isSharpFace', 'score': 0.0029944777488708496}, {'pass': True, 'name': 'isSharpFaceV2', 'score': 0.6978566646575928}, {'pass': True, 'name': 'isSharpFaceV3', 'score': 0.0603606179356575}, {'pass': True, 'name': 'isMouthClosed', 'score': 0.8756683468818665}, {'pass': False, 'name': 'isMouthClosedV2', 'score': 0.5471698045730591}, {'pass': True, 'name': 'resolution', 'score': 0.12197083234786987}, {'pass': True, 'name': 'isHeadPositionCentral', 'score': 0.8840938210487366}, {'pass': True, 'name': 'isDistanceToCameraTooNear', 'score': 0.37474119663238525}, {'pass': True, 'name': 'isDistanceToCameraTooFar', 'score': 0.6252588033676147}, {'pass': True, 'name': 'isFaceRatioBestPractice', 'score': 0.738095223903656}, {'pass': True, 'name': 'noHotSpots', 'score': 1}, {'pass': True, 'name': 'skinPixels', 'score': 0.7421875}, {'pass': True, 'name': 'noGlasses', 'score': 0.8416612148284912}, {'pass': True, 'name': 'noTintedGlasses', 'score': 0.8258835077285767}, {'pass': False, 'name': 'isNonFace', 'score': 0.06287305057048798}, {'pass': False, 'name': 'isMaskedFace', 'score': 0.19413532316684723}, {'pass': True, 'name': 'isNonMaskedFace', 'score': 0.805864691734314}], 'nonMaskedFace': 0.805864691734314, 'demographics': {'male': 0.9040898308157921, 'age': 0.4648215174674988, 'indian': 0.002180504845455289, 'white': 0.9902250170707703, 'black': 0.001278943964280188, 'female': 0.09591016918420792, 'other': 0.005713979713618755, 'asian': 0.0006015662220306695, 'unknown': 0, 'ethnicity': 'Unknown'}, 'rightX': 52.5, 'rightY': 116.5, 'sampleQualityTooLow': False}, 'matches': [{'score': 0.994413435459137, 'caseId': '651d37fdff1976583fafdf94'}, {'score': 0.994413435459137, 'caseId': '651d3b5dff1976583fafe0c8'}, {'score': 0.994413435459137, 'caseId': '651d4674ff1976583fafe6e9'}, {'score': 0.994413435459137, 'caseId': '651d59dfff1976583faff081'}, {'score': 0.994413435459137, 'caseId': '651d585bff1976583fafefc7'}, {'score': 0.994413435459137, 'caseId': '651d598aff1976583faff036'}, {'score': 0.994413435459137, 'caseId': '651d5ce6ff1976583faff3a3'}, {'score': 0.994413435459137, 'caseId': '651d63beff1976583faff6f5'}, {'score': 0.994413435459137, 'caseId': '651d63f5ff1976583faff739'}, {'score': 0.994413435459137, 'caseId': '651d6441ff1976583faff77d'}, {'score': 0.994413435459137, 'caseId': '651d6498ff1976583faff7c1'}, {'score': 0.994413435459137, 'caseId': '651d64bfff1976583faff809'}, {'score': 0.994413435459137, 'caseId': '651d6608ff1976583faff9b4'}, {'score': 0.994413435459137, 'caseId': '651d66d3ff1976583faffa44'}, {'score': 0.994413435459137, 'caseId': '651d6705ff1976583faffaa9'}, {'score': 0.994413435459137, 'caseId': '651d6730ff1976583faffbc7'}, {'score': 0.994413435459137, 'caseId': '651d67b7ff1976583faffc81'}, {'score': 0.994413435459137, 'caseId': '651d682bff1976583faffce1'}, {'score': 0.994413435459137, 'caseId': '651d6860ff1976583faffd29'}, {'score': 0.994413435459137, 'caseId': '651d69acff1976583faffdb1'}, {'score': 0.994413435459137, 'caseId': '651d69e2ff1976583faffe18'}, {'score': 0.994413435459137, 'caseId': '651d6a92ff1976583faffe7f'}, {'score': 0.994413435459137, 'caseId': '651d6ad0ff1976583faffec7'}, {'score': 0.994413435459137, 'caseId': '651d6b13ff1976583fafff2f'}, {'score': 0.994413435459137, 'caseId': '651d6b4eff1976583fafff98'}, {'score': 0.994413435459137, 'caseId': '651d6b8bff1976583fafffe0'}, {'score': 0.994413435459137, 'caseId': '651d6d4fff1976583fb0042c'}, {'score': 0.994413435459137, 'caseId': '651d741aff1976583fb00742'}, {'score': 0.994413435459137, 'caseId': '651d743fff1976583fb007c8'}, {'score': 0.994413435459137, 'caseId': '651d7f53ff1976583fb00d44'}, {'score': 0.994413435459137, 'caseId': '651d7f70ff1976583fb00df6'}, {'score': 0.994413435459137, 'caseId': '651d7f75ff1976583fb00e14'}, {'score': 0.994413435459137, 'caseId': '651d7f8cff1976583fb00e7e'}, {'score': 0.994413435459137, 'caseId': '651d7f8cff1976583fb00e87'}, {'score': 0.994413435459137, 'caseId': '651d7fa2ff1976583fb00f06'}, {'score': 0.994413435459137, 'caseId': '651d7fa6ff1976583fb00f16'}, {'score': 0.994413435459137, 'caseId': '651d7fb5ff1976583fb00f79'}, {'score': 0.994413435459137, 'caseId': '651d7fcbff1976583fb00fcb'}, {'score': 0.994413435459137, 'caseId': '651d7fceff1976583fb00fe2'}, {'score': 0.994413435459137, 'caseId': '651d7fe2ff1976583fb0105a'}, {'score': 0.994413435459137, 'caseId': '651d7fe5ff1976583fb01063'}, {'score': 0.994413435459137, 'caseId': '651d8116ff1976583fb015ac'}, {'score': 0.994413435459137, 'caseId': '651d8174ff1976583fb01636'}, {'score': 0.994413435459137, 'caseId': '651d8191ff1976583fb01673'}, {'score': 0.994413435459137, 'caseId': '651d81aeff1976583fb016b7'}, {'score': 0.994413435459137, 'caseId': '651d81c7ff1976583fb016fb'}, {'score': 0.994413435459137, 'caseId': '651d81e3ff1976583fb01743'}, {'score': 0.994413435459137, 'caseId': '651d81f9ff1976583fb017a6'}, {'score': 0.994413435459137, 'caseId': '651d8200ff1976583fb017d2'}, {'score': 0.994413435459137, 'caseId': '651d8223ff1976583fb01839'}, {'score': 0.994413435459137, 'caseId': '651d841fff1976583fb01a19'}, {'score': 0.994413435459137, 'caseId': '651d8432ff1976583fb01a56'}, {'score': 0.994413435459137, 'caseId': '651d8448ff1976583fb01aa1'}, {'score': 0.994413435459137, 'caseId': '651d845bff1976583fb01ae5'}, {'score': 0.994413435459137, 'caseId': '651d8470ff1976583fb01b29'}], 'matched': [{'caseId': '651d37fdff1976583fafdf94', 'rank': 1, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d37fdff1976583fafdf94', 'approvalDate': '2023-10-04T10:01:33.383Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d37f0ff1976583fafdf61'], 'enabled': 1, 'enrolled': 1696413693383, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T10:01:33.383Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}]}}</t>
+        </is>
+      </c>
+      <c r="G6" s="74" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>20:57:28</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>20:57:50</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Test_06</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{'fields': [{'key': None, 'value': None}], 'count': None, 'ascending': None, 'detailLevel': None, 'isExact': None, 'offset': None, 'orderBy': None, 'startEnrollmentDate': None, 'endEnrollmentDate': None, 'startExpirationDate': None, 'endExpirationDate': None, 'notInCGroup': None, 'searchInOr': None, 'cgroup_id': '651d848eff1976583fb01bff'}</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>{'ExceptionType': 'System.NullReferenceException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Object reference not set to an instance of an object.', 'innerException': None, 'requestId': '00-6a4d320cbfa676246f2d9e3ff35b863d-651d33e995aaedba-00', 'requestPath': '/api/Enrollments/searchEnrollments', 'connectionId': '0HMU4LECLPBHO'}}</t>
+        </is>
+      </c>
+      <c r="G7" s="72" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Response Status Code : 500 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>20:57:51</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>20:58:20</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>29.0</t>
         </is>
       </c>
     </row>
@@ -3906,7 +4053,7 @@
       </c>
       <c r="E2" s="65" t="inlineStr">
         <is>
-          <t>[{'id': '65166d491a1e19a5219d8956', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 2, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167b6402302bffd7a8b98a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b6b02302bffd7a8b997', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b7b02302bffd7a8b9a8', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b8b02302bffd7a8b9ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b9702302bffd7a8b9e3', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167ba302302bffd7a8ba00', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bae02302bffd7a8ba1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bb902302bffd7a8ba3e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167bc702302bffd7a8ba5e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bf002302bffd7a8ba80', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167cb902302bffd7a8bbb5', 'name': 'test enrollment438', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '65167d1702302bffd7a8bd60', 'name': 'test enrollment442', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167d1b02302bffd7a8bd76', 'desc': 'test description', 'enrollmentGroupIds': ['65167d1702302bffd7a8bd60'], 'name': 'Test_notification_Api802', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '6516983902302bffd7a8c3fe', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a2f902302bffd7a8c444', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a35302302bffd7a8c470', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a71e02302bffd7a8c4c7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 2, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aa8902302bffd7a8c572', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aac302302bffd7a8c59e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab0302302bffd7a8c5c6', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab4b02302bffd7a8c5ee', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aba102302bffd7a8c61f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516da5d02302bffd7a8c8d5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db0402302bffd7a8c919', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db6302302bffd7a8c94a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516dd2c02302bffd7a8c999', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e07002302bffd7a8ca27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e1af02302bffd7a8ca89', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e21a02302bffd7a8cabf', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e26602302bffd7a8caf7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3a502302bffd7a8cb36', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3b802302bffd7a8cb67', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb31f02302bffd7a8cce1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}]</t>
+          <t>[{'id': '65166d491a1e19a5219d8956', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 3, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167b6402302bffd7a8b98a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b6b02302bffd7a8b997', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b7b02302bffd7a8b9a8', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b8b02302bffd7a8b9ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b9702302bffd7a8b9e3', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167ba302302bffd7a8ba00', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bae02302bffd7a8ba1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bb902302bffd7a8ba3e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167bc702302bffd7a8ba5e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bf002302bffd7a8ba80', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167cb902302bffd7a8bbb5', 'name': 'test enrollment438', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '65167d1702302bffd7a8bd60', 'name': 'test enrollment442', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167d1b02302bffd7a8bd76', 'desc': 'test description', 'enrollmentGroupIds': ['65167d1702302bffd7a8bd60'], 'name': 'Test_notification_Api802', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '6516983902302bffd7a8c3fe', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a2f902302bffd7a8c444', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a35302302bffd7a8c470', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a71e02302bffd7a8c4c7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aa8902302bffd7a8c572', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aac302302bffd7a8c59e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab0302302bffd7a8c5c6', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab4b02302bffd7a8c5ee', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aba102302bffd7a8c61f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516da5d02302bffd7a8c8d5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db0402302bffd7a8c919', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db6302302bffd7a8c94a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516dd2c02302bffd7a8c999', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e07002302bffd7a8ca27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e1af02302bffd7a8ca89', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e21a02302bffd7a8cabf', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e26602302bffd7a8caf7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3a502302bffd7a8cb36', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3b802302bffd7a8cb67', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb31f02302bffd7a8cce1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35402302bffd7a8cd27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35902302bffd7a8cd34', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb36002302bffd7a8cd44', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb36e02302bffd7a8cd65', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb37902302bffd7a8cd7e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb38402302bffd7a8cd99', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb39202302bffd7a8cddc', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb3a302302bffd7a8ce1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '651bb3af02302bffd7a8ce4f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbcfa02302bffd7a8ce86', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbdda02302bffd7a8ceb1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbe1002302bffd7a8ced7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbe8a02302bffd7a8cefd', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbed502302bffd7a8cf23', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf0102302bffd7a8cf49', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf7502302bffd7a8cf6f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf9402302bffd7a8cfa0', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc12b02302bffd7a8cfdd', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc18602302bffd7a8d01a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc1cf02302bffd7a8d057', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc1eb02302bffd7a8d094', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc5a402302bffd7a8d0ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5b702302bffd7a8d477', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5bd02302bffd7a8d484', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5c302302bffd7a8d494', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5cf02302bffd7a8d4b5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5d902302bffd7a8d4ce', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5e302302bffd7a8d4e9', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5ed02302bffd7a8d53a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5f902302bffd7a8d58b', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '651be60402302bffd7a8d5bb', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be61102302bffd7a8d5f0', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be62402302bffd7a8d621', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be64702302bffd7a8d668', 'name': 'test enrollment470', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651be64a02302bffd7a8d672', 'desc': 'test description', 'enrollmentGroupIds': ['651be64702302bffd7a8d668'], 'name': 'Test_notification_Api573', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '651be6ac02302bffd7a8d765', 'name': 'test enrollment813', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651be6b402302bffd7a8d774', 'desc': 'test description', 'enrollmentGroupIds': ['651be6ac02302bffd7a8d765'], 'name': 'Test_notification_Api320', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '651bf19d02302bffd7a8daf9', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1a802302bffd7a8db0a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1b602302bffd7a8db1e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1d102302bffd7a8db47', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceTh</t>
         </is>
       </c>
       <c r="F2" s="65" t="inlineStr">
@@ -3914,7 +4061,7 @@
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G2" s="38" t="inlineStr">
+      <c r="G2" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3926,17 +4073,17 @@
       </c>
       <c r="I2" s="65" t="inlineStr">
         <is>
-          <t>14:28:01</t>
+          <t>20:33:26</t>
         </is>
       </c>
       <c r="J2" s="65" t="inlineStr">
         <is>
-          <t>11:53:12</t>
+          <t>20:33:32</t>
         </is>
       </c>
       <c r="K2" s="65" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -3959,7 +4106,7 @@
       </c>
       <c r="E3" s="65" t="inlineStr">
         <is>
-          <t>{'data': '651bb35402302bffd7a8cd27', 'message': 'Enrollment Group 651bb35402302bffd7a8cd27 is created.', 'isSuccess': True}</t>
+          <t>{'data': '651d7ec8ff1976583fb008f8', 'message': 'Enrollment Group 651d7ec8ff1976583fb008f8 is created.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F3" s="65" t="inlineStr">
@@ -3967,29 +4114,29 @@
           <t>Response Status Code : 200 &amp; Message : Enrollment Group 6512d888be1891535e3baa4a is created.</t>
         </is>
       </c>
-      <c r="G3" s="38" t="inlineStr">
+      <c r="G3" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="H3" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Enrollment Group 651bb35402302bffd7a8cd27 is created.</t>
+          <t>Response Status Code : 200 &amp; Message : Enrollment Group 651d7ec8ff1976583fb008f8 is created.</t>
         </is>
       </c>
       <c r="I3" s="65" t="inlineStr">
         <is>
-          <t>14:28:02</t>
+          <t>20:33:33</t>
         </is>
       </c>
       <c r="J3" s="65" t="inlineStr">
         <is>
-          <t>11:53:15</t>
+          <t>20:33:37</t>
         </is>
       </c>
       <c r="K3" s="65" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -4007,12 +4154,12 @@
       </c>
       <c r="D4" s="65" t="inlineStr">
         <is>
-          <t>{'id': '651bb35902302bffd7a8cd34'}</t>
+          <t>{'id': '651d7eceff1976583fb00910'}</t>
         </is>
       </c>
       <c r="E4" s="65" t="inlineStr">
         <is>
-          <t>[{'id': '65166d491a1e19a5219d8956', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 2, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167b6402302bffd7a8b98a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b6b02302bffd7a8b997', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b7b02302bffd7a8b9a8', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b8b02302bffd7a8b9ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b9702302bffd7a8b9e3', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167ba302302bffd7a8ba00', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bae02302bffd7a8ba1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bb902302bffd7a8ba3e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167bc702302bffd7a8ba5e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bf002302bffd7a8ba80', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167cb902302bffd7a8bbb5', 'name': 'test enrollment438', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '65167d1702302bffd7a8bd60', 'name': 'test enrollment442', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167d1b02302bffd7a8bd76', 'desc': 'test description', 'enrollmentGroupIds': ['65167d1702302bffd7a8bd60'], 'name': 'Test_notification_Api802', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '6516983902302bffd7a8c3fe', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a2f902302bffd7a8c444', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a35302302bffd7a8c470', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a71e02302bffd7a8c4c7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 2, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aa8902302bffd7a8c572', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aac302302bffd7a8c59e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab0302302bffd7a8c5c6', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab4b02302bffd7a8c5ee', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aba102302bffd7a8c61f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516da5d02302bffd7a8c8d5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db0402302bffd7a8c919', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db6302302bffd7a8c94a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516dd2c02302bffd7a8c999', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e07002302bffd7a8ca27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e1af02302bffd7a8ca89', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e21a02302bffd7a8cabf', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e26602302bffd7a8caf7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3a502302bffd7a8cb36', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3b802302bffd7a8cb67', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb31f02302bffd7a8cce1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35402302bffd7a8cd27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35902302bffd7a8cd34', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}]</t>
+          <t>[{'id': '65166d491a1e19a5219d8956', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 3, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167b6402302bffd7a8b98a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b6b02302bffd7a8b997', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b7b02302bffd7a8b9a8', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b8b02302bffd7a8b9ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b9702302bffd7a8b9e3', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167ba302302bffd7a8ba00', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bae02302bffd7a8ba1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bb902302bffd7a8ba3e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167bc702302bffd7a8ba5e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bf002302bffd7a8ba80', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167cb902302bffd7a8bbb5', 'name': 'test enrollment438', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '65167d1702302bffd7a8bd60', 'name': 'test enrollment442', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167d1b02302bffd7a8bd76', 'desc': 'test description', 'enrollmentGroupIds': ['65167d1702302bffd7a8bd60'], 'name': 'Test_notification_Api802', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '6516983902302bffd7a8c3fe', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a2f902302bffd7a8c444', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a35302302bffd7a8c470', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a71e02302bffd7a8c4c7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aa8902302bffd7a8c572', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aac302302bffd7a8c59e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab0302302bffd7a8c5c6', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab4b02302bffd7a8c5ee', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aba102302bffd7a8c61f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516da5d02302bffd7a8c8d5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db0402302bffd7a8c919', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db6302302bffd7a8c94a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516dd2c02302bffd7a8c999', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e07002302bffd7a8ca27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e1af02302bffd7a8ca89', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e21a02302bffd7a8cabf', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e26602302bffd7a8caf7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3a502302bffd7a8cb36', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3b802302bffd7a8cb67', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb31f02302bffd7a8cce1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35402302bffd7a8cd27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35902302bffd7a8cd34', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb36002302bffd7a8cd44', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb36e02302bffd7a8cd65', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb37902302bffd7a8cd7e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb38402302bffd7a8cd99', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb39202302bffd7a8cddc', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb3a302302bffd7a8ce1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '651bb3af02302bffd7a8ce4f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbcfa02302bffd7a8ce86', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbdda02302bffd7a8ceb1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbe1002302bffd7a8ced7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbe8a02302bffd7a8cefd', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbed502302bffd7a8cf23', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf0102302bffd7a8cf49', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf7502302bffd7a8cf6f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf9402302bffd7a8cfa0', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc12b02302bffd7a8cfdd', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc18602302bffd7a8d01a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc1cf02302bffd7a8d057', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc1eb02302bffd7a8d094', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc5a402302bffd7a8d0ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5b702302bffd7a8d477', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5bd02302bffd7a8d484', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5c302302bffd7a8d494', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5cf02302bffd7a8d4b5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5d902302bffd7a8d4ce', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5e302302bffd7a8d4e9', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5ed02302bffd7a8d53a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5f902302bffd7a8d58b', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '651be60402302bffd7a8d5bb', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be61102302bffd7a8d5f0', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be62402302bffd7a8d621', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be64702302bffd7a8d668', 'name': 'test enrollment470', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651be64a02302bffd7a8d672', 'desc': 'test description', 'enrollmentGroupIds': ['651be64702302bffd7a8d668'], 'name': 'Test_notification_Api573', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '651be6ac02302bffd7a8d765', 'name': 'test enrollment813', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651be6b402302bffd7a8d774', 'desc': 'test description', 'enrollmentGroupIds': ['651be6ac02302bffd7a8d765'], 'name': 'Test_notification_Api320', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '651bf19d02302bffd7a8daf9', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1a802302bffd7a8db0a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1b602302bffd7a8db1e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1d102302bffd7a8db47', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceTh</t>
         </is>
       </c>
       <c r="F4" s="65" t="inlineStr">
@@ -4020,7 +4167,7 @@
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G4" s="38" t="inlineStr">
+      <c r="G4" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -4032,17 +4179,17 @@
       </c>
       <c r="I4" s="65" t="inlineStr">
         <is>
-          <t>14:28:03</t>
+          <t>20:33:38</t>
         </is>
       </c>
       <c r="J4" s="65" t="inlineStr">
         <is>
-          <t>11:53:23</t>
+          <t>20:33:45</t>
         </is>
       </c>
       <c r="K4" s="65" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4212,7 @@
       </c>
       <c r="E5" s="65" t="inlineStr">
         <is>
-          <t>{'data': '651bb36002302bffd7a8cd44', 'message': 'Enrollment Group is updated', 'isSuccess': True}</t>
+          <t>{'data': '651d7ed8ff1976583fb00934', 'message': 'Enrollment Group is updated', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F5" s="65" t="inlineStr">
@@ -4073,7 +4220,7 @@
           <t>Response Status Code : 200 &amp; Message : Enrollment Group is updated</t>
         </is>
       </c>
-      <c r="G5" s="38" t="inlineStr">
+      <c r="G5" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -4085,17 +4232,17 @@
       </c>
       <c r="I5" s="65" t="inlineStr">
         <is>
-          <t>14:28:04</t>
+          <t>20:33:46</t>
         </is>
       </c>
       <c r="J5" s="65" t="inlineStr">
         <is>
-          <t>11:53:28</t>
+          <t>20:33:56</t>
         </is>
       </c>
       <c r="K5" s="65" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4265,7 @@
       </c>
       <c r="E6" s="65" t="inlineStr">
         <is>
-          <t>{'data': True, 'message': 'Enrollment Group 651bb36602302bffd7a8cd54 is removed.', 'isSuccess': True}</t>
+          <t>{'data': True, 'message': 'Enrollment Group 651d7ee1ff1976583fb00948 is removed.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F6" s="65" t="inlineStr">
@@ -4126,29 +4273,29 @@
           <t>Response Status Code : 200 &amp; Message : Enrollment Group 6512d89dbe1891535e3baab3 is removed.</t>
         </is>
       </c>
-      <c r="G6" s="38" t="inlineStr">
+      <c r="G6" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="H6" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Enrollment Group 651bb36602302bffd7a8cd54 is removed.</t>
+          <t>Response Status Code : 200 &amp; Message : Enrollment Group 651d7ee1ff1976583fb00948 is removed.</t>
         </is>
       </c>
       <c r="I6" s="65" t="inlineStr">
         <is>
-          <t>14:28:05</t>
+          <t>20:33:56</t>
         </is>
       </c>
       <c r="J6" s="65" t="inlineStr">
         <is>
-          <t>11:53:35</t>
+          <t>20:34:04</t>
         </is>
       </c>
       <c r="K6" s="65" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -4166,12 +4313,12 @@
       </c>
       <c r="D7" s="65" t="inlineStr">
         <is>
-          <t>{'cGroupId': '651bb36e02302bffd7a8cd65', 'zoneIds': ['65166dbed319a18d9ce09c00']}</t>
+          <t>{'cGroupId': '651d7ee9ff1976583fb0095d', 'zoneIds': ['65166dbed319a18d9ce09c00']}</t>
         </is>
       </c>
       <c r="E7" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'message': "Zones added to enrollment group id '651bb36e02302bffd7a8cd65' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
+          <t>{'result': {'message': "Zones added to enrollment group id '651d7ee9ff1976583fb0095d' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
         </is>
       </c>
       <c r="F7" s="65" t="inlineStr">
@@ -4179,29 +4326,29 @@
           <t>Response Status Code : 200 &amp; Message : Zones added to enrollment group id '6512d8a5be1891535e3baad8' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G7" s="38" t="inlineStr">
+      <c r="G7" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="H7" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Zones added to enrollment group id '651bb36e02302bffd7a8cd65' for account 65166d39e119836feb867ce8.</t>
+          <t>Response Status Code : 200 &amp; Message : Zones added to enrollment group id '651d7ee9ff1976583fb0095d' for account 65166d39e119836feb867ce8.</t>
         </is>
       </c>
       <c r="I7" s="65" t="inlineStr">
         <is>
-          <t>14:28:07</t>
+          <t>20:34:04</t>
         </is>
       </c>
       <c r="J7" s="65" t="inlineStr">
         <is>
-          <t>11:53:45</t>
+          <t>20:34:13</t>
         </is>
       </c>
       <c r="K7" s="65" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -4219,12 +4366,12 @@
       </c>
       <c r="D8" s="65" t="inlineStr">
         <is>
-          <t>{'cGroupId': '651bb37902302bffd7a8cd7e', 'zoneIds': ['65166dbed319a18d9ce09c00']}</t>
+          <t>{'cGroupId': '651d7ef2ff1976583fb00991', 'zoneIds': ['65166dbed319a18d9ce09c00']}</t>
         </is>
       </c>
       <c r="E8" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'message': "Zones removed to case group id '651bb37902302bffd7a8cd7e' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
+          <t>{'result': {'message': "Zones removed to case group id '651d7ef2ff1976583fb00991' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
         </is>
       </c>
       <c r="F8" s="65" t="inlineStr">
@@ -4232,24 +4379,24 @@
           <t>Response Status Code : 200 &amp; Message : Zones removed to case group id '6512d8b0be1891535e3bab0f' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G8" s="38" t="inlineStr">
+      <c r="G8" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="H8" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Zones removed to case group id '651bb37902302bffd7a8cd7e' for account 65166d39e119836feb867ce8.</t>
+          <t>Response Status Code : 200 &amp; Message : Zones removed to case group id '651d7ef2ff1976583fb00991' for account 65166d39e119836feb867ce8.</t>
         </is>
       </c>
       <c r="I8" s="65" t="inlineStr">
         <is>
-          <t>14:28:08</t>
+          <t>20:34:14</t>
         </is>
       </c>
       <c r="J8" s="65" t="inlineStr">
         <is>
-          <t>11:53:56</t>
+          <t>20:34:24</t>
         </is>
       </c>
       <c r="K8" s="65" t="inlineStr">
@@ -4272,12 +4419,12 @@
       </c>
       <c r="D9" s="65" t="inlineStr">
         <is>
-          <t>{'id': ['65166d39e119836feb867ce8'], 'case_id': '6516a90202302bffd7a8c4fb', 'cgroup_id': '651bb38402302bffd7a8cd99'}</t>
+          <t>{'id': ['65166d39e119836feb867ce8'], 'case_id': '651d5c89ff1976583faff2be', 'cgroup_id': '651d7efdff1976583fb009cb'}</t>
         </is>
       </c>
       <c r="E9" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'message': "Enrollment added to enrollment group id '651bb38402302bffd7a8cd99' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
+          <t>{'result': {'message': "Enrollment added to enrollment group id '651d7efdff1976583fb009cb' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
         </is>
       </c>
       <c r="F9" s="65" t="inlineStr">
@@ -4285,29 +4432,29 @@
           <t>Response Status Code : 200 &amp; Message : Enrollment added to enrollment group id '6512d8b9be1891535e3bab48' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G9" s="38" t="inlineStr">
+      <c r="G9" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="H9" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Enrollment added to enrollment group id '651bb38402302bffd7a8cd99' for account 65166d39e119836feb867ce8.</t>
+          <t>Response Status Code : 200 &amp; Message : Enrollment added to enrollment group id '651d7efdff1976583fb009cb' for account 65166d39e119836feb867ce8.</t>
         </is>
       </c>
       <c r="I9" s="65" t="inlineStr">
         <is>
-          <t>14:28:09</t>
+          <t>20:34:25</t>
         </is>
       </c>
       <c r="J9" s="65" t="inlineStr">
         <is>
-          <t>11:54:10</t>
+          <t>20:34:39</t>
         </is>
       </c>
       <c r="K9" s="65" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>14.0</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4472,12 @@
       </c>
       <c r="D10" s="65" t="inlineStr">
         <is>
-          <t>{'id': ['65166d39e119836feb867ce8'], 'case_id': '6516a90202302bffd7a8c4fb', 'cgroup_id': '651bb39202302bffd7a8cddc'}</t>
+          <t>{'id': ['65166d39e119836feb867ce8'], 'case_id': '651d5c89ff1976583faff2be', 'cgroup_id': '651d7f0fff1976583fb00a67'}</t>
         </is>
       </c>
       <c r="E10" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'message': "Enrollment removed from enrollment group id '651bb39202302bffd7a8cddc' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
+          <t>{'result': {'message': "Enrollment removed from enrollment group id '651d7f0fff1976583fb00a67' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
         </is>
       </c>
       <c r="F10" s="65" t="inlineStr">
@@ -4338,29 +4485,29 @@
           <t>Response Status Code : 200 &amp; Message : Enrollment removed from enrollment group id '6512d8c6be1891535e3bab95' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G10" s="38" t="inlineStr">
+      <c r="G10" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="H10" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Enrollment removed from enrollment group id '651bb39202302bffd7a8cddc' for account 65166d39e119836feb867ce8.</t>
+          <t>Response Status Code : 200 &amp; Message : Enrollment removed from enrollment group id '651d7f0fff1976583fb00a67' for account 65166d39e119836feb867ce8.</t>
         </is>
       </c>
       <c r="I10" s="65" t="inlineStr">
         <is>
-          <t>14:28:10</t>
+          <t>20:34:40</t>
         </is>
       </c>
       <c r="J10" s="65" t="inlineStr">
         <is>
-          <t>11:54:28</t>
+          <t>20:34:59</t>
         </is>
       </c>
       <c r="K10" s="65" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>19.0</t>
         </is>
       </c>
     </row>
@@ -4378,12 +4525,12 @@
       </c>
       <c r="D11" s="65" t="inlineStr">
         <is>
-          <t>{'CGroupID': '651bb3a302302bffd7a8ce1f', 'AGroupID': '65166d491a1e19a5219d895d'}</t>
+          <t>{'CGroupID': '651d7f20ff1976583fb00b04', 'AGroupID': '65166d491a1e19a5219d895d'}</t>
         </is>
       </c>
       <c r="E11" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been added to the alert group with id = 651bb3a302302bffd7a8ce1f'}}</t>
+          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been added to the alert group with id = 651d7f20ff1976583fb00b04'}}</t>
         </is>
       </c>
       <c r="F11" s="65" t="inlineStr">
@@ -4391,29 +4538,29 @@
           <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been added to the alert group with id = 6512d8d3be1891535e3babe3</t>
         </is>
       </c>
-      <c r="G11" s="38" t="inlineStr">
+      <c r="G11" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="H11" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been added to the alert group with id = 651bb3a302302bffd7a8ce1f</t>
+          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been added to the alert group with id = 651d7f20ff1976583fb00b04</t>
         </is>
       </c>
       <c r="I11" s="65" t="inlineStr">
         <is>
-          <t>14:28:11</t>
+          <t>20:35:00</t>
         </is>
       </c>
       <c r="J11" s="65" t="inlineStr">
         <is>
-          <t>11:54:40</t>
+          <t>20:35:11</t>
         </is>
       </c>
       <c r="K11" s="65" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>11.0</t>
         </is>
       </c>
     </row>
@@ -4431,12 +4578,12 @@
       </c>
       <c r="D12" s="65" t="inlineStr">
         <is>
-          <t>{'CGroupID': '651bb3af02302bffd7a8ce4f', 'AGroupID': '65166d491a1e19a5219d895d'}</t>
+          <t>{'CGroupID': '651d7f31ff1976583fb00b95', 'AGroupID': '65166d491a1e19a5219d895d'}</t>
         </is>
       </c>
       <c r="E12" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been removed from the alert group with id = 651bb3af02302bffd7a8ce4f'}}</t>
+          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been removed from the alert group with id = 651d7f31ff1976583fb00b95'}}</t>
         </is>
       </c>
       <c r="F12" s="65" t="inlineStr">
@@ -4444,29 +4591,29 @@
           <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been removed from the alert group with id = 6512d8dfbe1891535e3bac51</t>
         </is>
       </c>
-      <c r="G12" s="38" t="inlineStr">
+      <c r="G12" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="H12" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been removed from the alert group with id = 651bb3af02302bffd7a8ce4f</t>
+          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been removed from the alert group with id = 651d7f31ff1976583fb00b95</t>
         </is>
       </c>
       <c r="I12" s="65" t="inlineStr">
         <is>
-          <t>14:28:12</t>
+          <t>20:35:11</t>
         </is>
       </c>
       <c r="J12" s="65" t="inlineStr">
         <is>
-          <t>11:54:52</t>
+          <t>20:35:31</t>
         </is>
       </c>
       <c r="K12" s="65" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>20.0</t>
         </is>
       </c>
     </row>
@@ -4564,38 +4711,38 @@
       <c r="C2" s="65" t="n"/>
       <c r="D2" s="65" t="inlineStr">
         <is>
-          <t>{'name': 'Test_notification_Api140', 'description': 'test description', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'caseGroupIdsUserIds': ['65167cb902302bffd7a8bbb5'], 'zoneIds': ['65166d39e119836feb867cec']}</t>
+          <t>{'name': 'Test_notification_Api654', 'description': 'test description', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['651bee1702302bffd7a8da7b'], 'caseGroupIdsUserIds': ['651d8231ff1976583fb0185a'], 'zoneIds': ['65166d39e119836feb867cec']}</t>
         </is>
       </c>
       <c r="E2" s="65" t="inlineStr">
         <is>
-          <t>{'data': '65167cbb02302bffd7a8bbbf', 'message': 'AlertGroup 65167cbb02302bffd7a8bbbf was created.', 'isSuccess': True}</t>
+          <t>{'data': '651d8234ff1976583fb01866', 'message': 'AlertGroup 651d8234ff1976583fb01866 was created.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F2" s="65" t="n"/>
-      <c r="G2" s="41" t="inlineStr">
+      <c r="G2" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="H2" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : AlertGroup 65167cbb02302bffd7a8bbbf was created.</t>
+          <t>Response Status Code : 200 &amp; Message : AlertGroup 651d8234ff1976583fb01866 was created.</t>
         </is>
       </c>
       <c r="I2" s="65" t="inlineStr">
         <is>
-          <t>12:58:48</t>
+          <t>20:48:01</t>
         </is>
       </c>
       <c r="J2" s="65" t="inlineStr">
         <is>
-          <t>12:58:59</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="K2" s="65" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>13.0</t>
         </is>
       </c>
     </row>
@@ -4609,38 +4756,38 @@
       <c r="C3" s="65" t="n"/>
       <c r="D3" s="65" t="inlineStr">
         <is>
-          <t>{'agroupID': True, 'description': 'test description', 'name': 'Test_notification_Api666', 'ownerID': '65166d39e119836feb867ce8', 'set_cgroups': 0}</t>
+          <t>{'agroupID': True, 'description': 'test description', 'name': 'Test_notification_Api105', 'ownerID': '65166d39e119836feb867ce8', 'set_cgroups': 0}</t>
         </is>
       </c>
       <c r="E3" s="65" t="inlineStr">
         <is>
-          <t>{'data': '65167cc202302bffd7a8bbe1', 'message': 'AlertGroup 65167cc202302bffd7a8bbe1 was created.', 'isSuccess': True}</t>
+          <t>{'data': '651d823cff1976583fb01878', 'message': 'AlertGroup 651d823cff1976583fb01878 was created.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F3" s="65" t="n"/>
-      <c r="G3" s="41" t="inlineStr">
+      <c r="G3" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="H3" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : AlertGroup 65167cc202302bffd7a8bbe1 was created.</t>
+          <t>Response Status Code : 200 &amp; Message : AlertGroup 651d823cff1976583fb01878 was created.</t>
         </is>
       </c>
       <c r="I3" s="65" t="inlineStr">
         <is>
-          <t>12:59:00</t>
+          <t>20:48:14</t>
         </is>
       </c>
       <c r="J3" s="65" t="inlineStr">
         <is>
-          <t>12:59:06</t>
+          <t>20:48:21</t>
         </is>
       </c>
       <c r="K3" s="65" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -4659,11 +4806,11 @@
       </c>
       <c r="E4" s="65" t="inlineStr">
         <is>
-          <t>{'agroupinfo': {'agroups': [{'agroupID': '65166d491a1e19a5219d895d', 'caseGroups': [{'cgroupID': '65166d491a1e19a5219d8956', 'name': 'DefaultEnrollmentGroup'}, {'cgroupID': '65167bb902302bffd7a8ba3e', 'name': 'GroupName'}], 'desc': 'Default Alert Group', 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '65166d4a1a1e19a5219d8966', 'userName': 'core', 'contact': {'timezoneID': 'Asia/Kolkata', 'email': 'ritesh.kagale@facefirst.com'}}], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}, {'agroupID': '65167cbb02302bffd7a8bbbf', 'caseGroups': [{'cgroupID': '65167cb902302bffd7a8bbb5', 'name': 'test enrollment438'}], 'desc': 'test description', 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '65166d4a1a1e19a5219d8966', 'userName': 'core', 'contact': {'timezoneID': 'Asia/Kolkata', 'email': 'ritesh.kagale@facefirst.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167cc202302bffd7a8bbe1', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api666', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}]}}</t>
+          <t>{'agroupinfo': {'agroups': [{'agroupID': '65166d491a1e19a5219d895d', 'caseGroups': [{'cgroupID': '65166d491a1e19a5219d8956', 'name': 'DefaultEnrollmentGroup'}, {'cgroupID': '65167bb902302bffd7a8ba3e', 'name': 'GroupName'}, {'cgroupID': '651bb3a302302bffd7a8ce1f', 'name': 'GroupName'}, {'cgroupID': '651be5f902302bffd7a8d58b', 'name': 'GroupName'}, {'cgroupID': '651bf21602302bffd7a8dc41', 'name': 'GroupName'}, {'cgroupID': '651d7f20ff1976583fb00b04', 'name': 'GroupName'}, {'cgroupID': '651d7f48ff1976583fb00cd3', 'name': 'GroupName'}], 'desc': 'Default Alert Group', 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '65166d4a1a1e19a5219d8966', 'userName': 'core', 'contact': {'timezoneID': 'Asia/Kolkata', 'email': 'ritesh.kagale@facefirst.com'}}], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}, {'agroupID': '65167cbb02302bffd7a8bbbf', 'caseGroups': [{'cgroupID': '65167cb902302bffd7a8bbb5', 'name': 'test enrollment438'}], 'desc': 'test description', 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '65166d4a1a1e19a5219d8966', 'userName': 'core', 'contact': {'timezoneID': 'Asia/Kolkata', 'email': 'ritesh.kagale@facefirst.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167cc202302bffd7a8bbe1', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api666', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ccd02302bffd7a8bc0e', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api973', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167cd702302bffd7a8bc43', 'caseGroups': [], 'desc': 'New Description', 'name': 'Test_notification_Api596', 'ownerID': '65166d4a1a1e19a5219d8966', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ce702302bffd7a8bca5', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api759', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '65166d4a1a1e19a5219d8966', 'userName': 'core', 'contact': {'timezoneID': 'Asia/Kolkata', 'email': 'ritesh.kagale@facefirst.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167cf302302bffd7a8bcf4', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api292', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167d0e02302bffd7a8bd4e', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api19', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167d1b02302bffd7a8bd76', 'caseGroups': [{'cgroupID': '65167d1702302bffd7a8bd60', 'name': 'test enrollment442'}], 'desc': 'test description', 'name': 'Test_notification_Api802', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be64a02302bffd7a8d672', 'caseGroups': [{'cgroupID': '651be64702302bffd7a8d668', 'name': 'test enrollment470'}], 'desc': 'test description', 'name': 'Test_notification_Api573', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be65002302bffd7a8d680', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api918', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be65d02302bffd7a8d6ab', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api821', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be66602302bffd7a8d6c3', 'caseGroups': [], 'desc': 'New Description', 'name': 'Test_notification_Api451', 'ownerID': '651bdd9a02302bffd7a8d29c', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be67402302bffd7a8d6e5', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api31', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be68102302bffd7a8d707', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api579', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be6a102302bffd7a8d753', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api270', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be6b402302bffd7a8d774', 'caseGroups': [{'cgroupID': '651be6ac02302bffd7a8d765', 'name': 'test enrollment813'}], 'desc': 'test description', 'name': 'Test_notification_Api320', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf28402302bffd7a8ddab', 'caseGroups': [{'cgroupID': '651bf28002302bffd7a8dd9f', 'name': 'test enrollment930'}], 'desc': 'test description', 'name': 'Test_notification_Api938', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '651bee1702302bffd7a8da7b', 'userName': 'shubham', 'contact': {'lastName': 'c', 'timezoneID': 'Asia/Kolkata', 'firstName': 'shubham', 'email': 'admin@gmail.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf28d02302bffd7a8ddbd', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api752', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf2a002302bffd7a8ddfe', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api126', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf2ae02302bffd7a8de1c', 'caseGroups': [], 'desc': 'New Description', 'name': 'Test_notification_Api223', 'ownerID': '651bee1702302bffd7a8da7b', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf2c402302bffd7a8de48', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api155', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '651bee1702302bffd7a8da7b', 'userName': 'shubham', 'contact': {'lastName': 'c', 'timezoneID': 'Asia/Kolkata', 'firstName': 'shubham', 'email': 'admin@gmail.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf2d902302bffd7a8de89', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api967', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf30202302bffd7a8dee9', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api940', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf31702302bffd7a8df14', 'caseGroups': [{'cgroupID': '651bf31002302bffd7a8df01', 'name': 'test enrollment930'}], 'desc': 'test description', 'name': 'Test_notification_Api506', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651d8234ff1976583fb01866', 'caseGroups': [{'cgroupID': '651d8231ff1976583fb0185a', 'name': 'test enrollment488'}], 'desc': 'test description', 'name': 'Test_notification_Api654', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '651bee1702302bffd7a8da7b', 'userName': 'shubham', 'contact': {'lastName': 'c', 'timezoneID': 'Asia/Kolkata', 'firstName': 'shubham', 'email': 'admin@gmail.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651d823cff1976583fb01878', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api105', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}]}}</t>
         </is>
       </c>
       <c r="F4" s="65" t="n"/>
-      <c r="G4" s="41" t="inlineStr">
+      <c r="G4" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -4675,12 +4822,12 @@
       </c>
       <c r="I4" s="65" t="inlineStr">
         <is>
-          <t>12:59:06</t>
+          <t>20:48:22</t>
         </is>
       </c>
       <c r="J4" s="65" t="inlineStr">
         <is>
-          <t>12:59:11</t>
+          <t>20:48:27</t>
         </is>
       </c>
       <c r="K4" s="65" t="inlineStr">
@@ -4704,11 +4851,11 @@
       </c>
       <c r="E5" s="65" t="inlineStr">
         <is>
-          <t>{'agroupinfo': {'agroups': [{'agroupID': '65167ccd02302bffd7a8bc0e', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api973', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}]}}</t>
+          <t>{'agroupinfo': {'agroups': [{'agroupID': '651d8249ff1976583fb018c9', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api184', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}]}}</t>
         </is>
       </c>
       <c r="F5" s="65" t="n"/>
-      <c r="G5" s="41" t="inlineStr">
+      <c r="G5" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -4720,17 +4867,17 @@
       </c>
       <c r="I5" s="65" t="inlineStr">
         <is>
-          <t>12:59:11</t>
+          <t>20:48:27</t>
         </is>
       </c>
       <c r="J5" s="65" t="inlineStr">
         <is>
-          <t>12:59:20</t>
+          <t>20:48:40</t>
         </is>
       </c>
       <c r="K5" s="65" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>13.0</t>
         </is>
       </c>
     </row>
@@ -4744,16 +4891,16 @@
       <c r="C6" s="65" t="n"/>
       <c r="D6" s="65" t="inlineStr">
         <is>
-          <t>{'agroupID': '65167cd702302bffd7a8bc43', 'description': 'New Description', 'name': 'Test_notification_Api596', 'ownerID': '65166d4a1a1e19a5219d8966', 'set_cgroups': 0}</t>
+          <t>{'agroupID': '651d8258ff1976583fb018e7', 'description': 'New Description', 'name': 'Test_notification_Api258', 'ownerID': '651bee1702302bffd7a8da7b', 'set_cgroups': 0}</t>
         </is>
       </c>
       <c r="E6" s="65" t="inlineStr">
         <is>
-          <t>{'data': '65167cd702302bffd7a8bc43', 'message': 'Alert group 65167cd702302bffd7a8bc43 is updated.', 'isSuccess': True}</t>
+          <t>{'data': '651d8258ff1976583fb018e7', 'message': 'Alert group 651d8258ff1976583fb018e7 is updated.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F6" s="65" t="n"/>
-      <c r="G6" s="41" t="inlineStr">
+      <c r="G6" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -4765,17 +4912,17 @@
       </c>
       <c r="I6" s="65" t="inlineStr">
         <is>
-          <t>12:59:21</t>
+          <t>20:48:40</t>
         </is>
       </c>
       <c r="J6" s="65" t="inlineStr">
         <is>
-          <t>12:59:34</t>
+          <t>20:48:55</t>
         </is>
       </c>
       <c r="K6" s="65" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>15.0</t>
         </is>
       </c>
     </row>
@@ -4789,16 +4936,16 @@
       <c r="C7" s="65" t="n"/>
       <c r="D7" s="65" t="inlineStr">
         <is>
-          <t>{'agroupID': '65167ce702302bffd7a8bca5', 'userId': '65166d4a1a1e19a5219d8966'}</t>
+          <t>{'agroupID': '651d8267ff1976583fb01913', 'userId': '651bee1702302bffd7a8da7b'}</t>
         </is>
       </c>
       <c r="E7" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'status': 'ok', 'message': '65166d4a1a1e19a5219d8966 user have been added to the alert group with id 65167ce702302bffd7a8bca5'}}</t>
+          <t>{'result': {'status': 'ok', 'message': '651bee1702302bffd7a8da7b user have been added to the alert group with id 651d8267ff1976583fb01913'}}</t>
         </is>
       </c>
       <c r="F7" s="65" t="n"/>
-      <c r="G7" s="41" t="inlineStr">
+      <c r="G7" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -4810,17 +4957,17 @@
       </c>
       <c r="I7" s="65" t="inlineStr">
         <is>
-          <t>12:59:34</t>
+          <t>20:48:56</t>
         </is>
       </c>
       <c r="J7" s="65" t="inlineStr">
         <is>
-          <t>12:59:47</t>
+          <t>20:49:16</t>
         </is>
       </c>
       <c r="K7" s="65" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>20.0</t>
         </is>
       </c>
     </row>
@@ -4834,16 +4981,16 @@
       <c r="C8" s="65" t="n"/>
       <c r="D8" s="65" t="inlineStr">
         <is>
-          <t>{'agroupID': '65167cf302302bffd7a8bcf4', 'userId': '65166d4a1a1e19a5219d8966'}</t>
+          <t>{'agroupID': '651d827eff1976583fb0193f', 'userId': '651bee1702302bffd7a8da7b'}</t>
         </is>
       </c>
       <c r="E8" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'status': 'ok', 'message': '65166d4a1a1e19a5219d8966 user have been removed from alert group with id 65167cf302302bffd7a8bcf4'}}</t>
+          <t>{'result': {'status': 'ok', 'message': '651bee1702302bffd7a8da7b user have been removed from alert group with id 651d827eff1976583fb0193f'}}</t>
         </is>
       </c>
       <c r="F8" s="65" t="n"/>
-      <c r="G8" s="41" t="inlineStr">
+      <c r="G8" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -4855,17 +5002,17 @@
       </c>
       <c r="I8" s="65" t="inlineStr">
         <is>
-          <t>12:59:47</t>
+          <t>20:49:16</t>
         </is>
       </c>
       <c r="J8" s="65" t="inlineStr">
         <is>
-          <t>13:00:07</t>
+          <t>20:49:40</t>
         </is>
       </c>
       <c r="K8" s="65" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>24.0</t>
         </is>
       </c>
     </row>
@@ -4884,33 +5031,33 @@
       </c>
       <c r="E9" s="65" t="inlineStr">
         <is>
-          <t>{'data': '65167d0502302bffd7a8bd2e', 'message': "The alert group 'Test_notification_Api894' has been deleted (group ID was 65167d0502302bffd7a8bd2e)", 'isSuccess': True}</t>
+          <t>{'data': '651d8292ff1976583fb01977', 'message': "The alert group 'Test_notification_Api381' has been deleted (group ID was 651d8292ff1976583fb01977)", 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F9" s="65" t="n"/>
-      <c r="G9" s="41" t="inlineStr">
+      <c r="G9" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="H9" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : The alert group 'Test_notification_Api894' has been deleted (group ID was 65167d0502302bffd7a8bd2e)</t>
+          <t>Response Status Code : 200 &amp; Message : The alert group 'Test_notification_Api381' has been deleted (group ID was 651d8292ff1976583fb01977)</t>
         </is>
       </c>
       <c r="I9" s="65" t="inlineStr">
         <is>
-          <t>13:00:07</t>
+          <t>20:49:41</t>
         </is>
       </c>
       <c r="J9" s="65" t="inlineStr">
         <is>
-          <t>13:00:17</t>
+          <t>20:49:53</t>
         </is>
       </c>
       <c r="K9" s="65" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -4924,16 +5071,16 @@
       <c r="C10" s="65" t="n"/>
       <c r="D10" s="65" t="inlineStr">
         <is>
-          <t>{'agroupID': True, 'description': 'test description', 'name': 'Test_notification_Api19', 'ownerID': '65166d39e119836feb867ce8', 'set_cgroups': 0}</t>
+          <t>{'agroupID': True, 'description': 'test description', 'name': 'Test_notification_Api824', 'ownerID': '65166d39e119836feb867ce8', 'set_cgroups': 0}</t>
         </is>
       </c>
       <c r="E10" s="65" t="inlineStr">
         <is>
-          <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Name: Name already exists. Severity: Error', 'innerException': None, 'requestId': '00-9ac3cb5fca583549bb5b64243c3a9164-2c9b4f4de1d82b15-00', 'requestPath': '/api/AlertGroups', 'connectionId': '0HMU0MJPNPAHQ'}}</t>
+          <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Name: Name already exists. Severity: Error', 'innerException': None, 'requestId': '00-c58680bf4cac3f1ee826f1225db26c63-abf158c0c0424bfe-00', 'requestPath': '/api/AlertGroups', 'connectionId': '0HMU4LECLPBEA'}}</t>
         </is>
       </c>
       <c r="F10" s="65" t="n"/>
-      <c r="G10" s="41" t="inlineStr">
+      <c r="G10" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -4945,17 +5092,17 @@
       </c>
       <c r="I10" s="65" t="inlineStr">
         <is>
-          <t>13:00:17</t>
+          <t>20:49:54</t>
         </is>
       </c>
       <c r="J10" s="65" t="inlineStr">
         <is>
-          <t>13:00:28</t>
+          <t>20:50:06</t>
         </is>
       </c>
       <c r="K10" s="65" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -4969,16 +5116,16 @@
       <c r="C11" s="65" t="n"/>
       <c r="D11" s="65" t="inlineStr">
         <is>
-          <t>{'CGroupID': '65167d1702302bffd7a8bd60', 'AGroupID': '65167d1b02302bffd7a8bd76'}</t>
+          <t>{'CGroupID': '651d82a9ff1976583fb019b7', 'AGroupID': '651d82b0ff1976583fb019ca'}</t>
         </is>
       </c>
       <c r="E11" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been added to the alert group with id = 65167d1702302bffd7a8bd60'}}</t>
+          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been added to the alert group with id = 651d82a9ff1976583fb019b7'}}</t>
         </is>
       </c>
       <c r="F11" s="65" t="n"/>
-      <c r="G11" s="41" t="inlineStr">
+      <c r="G11" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -4990,17 +5137,17 @@
       </c>
       <c r="I11" s="65" t="inlineStr">
         <is>
-          <t>13:00:28</t>
+          <t>20:50:07</t>
         </is>
       </c>
       <c r="J11" s="65" t="inlineStr">
         <is>
-          <t>13:00:39</t>
+          <t>20:50:21</t>
         </is>
       </c>
       <c r="K11" s="65" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>14.0</t>
         </is>
       </c>
     </row>
@@ -5107,7 +5254,7 @@
         </is>
       </c>
       <c r="F2" s="66" t="n"/>
-      <c r="G2" s="46" t="inlineStr">
+      <c r="G2" s="70" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -5119,17 +5266,17 @@
       </c>
       <c r="I2" s="65" t="inlineStr">
         <is>
-          <t>12:58:28</t>
+          <t>20:43:45</t>
         </is>
       </c>
       <c r="J2" s="65" t="inlineStr">
         <is>
-          <t>12:58:31</t>
+          <t>20:43:51</t>
         </is>
       </c>
       <c r="K2" s="65" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -5152,7 +5299,7 @@
         </is>
       </c>
       <c r="F3" s="66" t="n"/>
-      <c r="G3" s="46" t="inlineStr">
+      <c r="G3" s="70" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -5164,17 +5311,17 @@
       </c>
       <c r="I3" s="65" t="inlineStr">
         <is>
-          <t>12:58:32</t>
+          <t>20:43:52</t>
         </is>
       </c>
       <c r="J3" s="65" t="inlineStr">
         <is>
-          <t>12:58:39</t>
+          <t>20:44:00</t>
         </is>
       </c>
       <c r="K3" s="65" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -5277,11 +5424,11 @@
       </c>
       <c r="E2" s="65" t="inlineStr">
         <is>
-          <t>[{'accountId': '65166d39e119836feb867ce8', 'aGroupIDs': ['65166d491a1e19a5219d895d', '65167cbb02302bffd7a8bbbf', '65167cc202302bffd7a8bbe1', '65167ccd02302bffd7a8bc0e', '65167ce702302bffd7a8bca5', '65167cf302302bffd7a8bcf4', '65167d0e02302bffd7a8bd4e', '65167d1b02302bffd7a8bd76'], 'authParams': '', 'authType': 0, 'autoThreshold': 0.83, 'caseTTL': 0, 'contact': {'address1': '', 'address2': '', 'city': '', 'company': '', 'department': '', 'email': 'ritesh.kagale@facefirst.com', 'faxNumber': '', 'firstName': 'Company', 'homePhone': '', 'lastName': 'Account', 'middleName': '', 'state': '', 'timezoneID': 'Asia/Kolkata', 'title': '', 'workPhone': '', 'zip': ''}, 'enabled': True, 'cGroupIDs': ['65166d491a1e19a5219d8956', '65167b6402302bffd7a8b98a', '65167b6b02302bffd7a8b997', '65167b7b02302bffd7a8b9a8', '65167b8b02302bffd7a8b9ca', '65167b9702302bffd7a8b9e3', '65167ba302302bffd7a8ba00', '65167bae02302bffd7a8ba1f', '65167bb902302bffd7a8ba3e', '65167bc702302bffd7a8ba5e', '65167bf002302bffd7a8ba80', '65167cb902302bffd7a8bbb5', '65167d1702302bffd7a8bd60', '6516983902302bffd7a8c3fe', '6516a2f902302bffd7a8c444', '6516a35302302bffd7a8c470', '6516a71e02302bffd7a8c4c7', '6516aa8902302bffd7a8c572', '6516aac302302bffd7a8c59e', '6516ab0302302bffd7a8c5c6', '6516ab4b02302bffd7a8c5ee', '6516aba102302bffd7a8c61f'], 'maxEnrollments': 1000000, 'maxFaceNoteTimeDiff': '1800', 'maxInvestigationLength': 1800, 'maxSubusers': 100, 'maxTransactionAge': 86400, 'numCases': 6, 'sessionExpiration': 3600, 'stationIDs': ['DESKTOP-660P8Q2:x01', 'DESKTOP-75UBP18:x01', 'DESKTOP-PTTAM1V:x01'], 'userIDs': ['65166d434e4df05a37a98bea', '65166d491a1e19a5219d8948', '65166d4a1a1e19a5219d8966', '65166dbdd319a18d9ce09bfd', '65166dbdd319a18d9ce09bff', '65167c6602302bffd7a8baaf', '65167c7102302bffd7a8bac2', '65167c7b02302bffd7a8bad5', '65167c8402302bffd7a8bae8', '65167c9f02302bffd7a8bb32', '65167caa02302bffd7a8bb77', '65167cb402302bffd7a8bba2', '65167ced02302bffd7a8bccc', '65167cf502302bffd7a8bd00', '65167d1e02302bffd7a8bd8c', '65167d7c02302bffd7a8bdb0', '65167d9702302bffd7a8bdb7', '65167e1a02302bffd7a8bdde', '65167e3e02302bffd7a8bdf1', '65167e9f02302bffd7a8be0a', '65167ea802302bffd7a8be20', '65167eb102302bffd7a8be33', '65167eba02302bffd7a8be46', '65167ecf02302bffd7a8be6d', '65167ed802302bffd7a8be83', '65167ee902302bffd7a8beac', '65167f5c02302bffd7a8bfb4', '65167fb202302bffd7a8bffc', '6516802502302bffd7a8c00f', '6516802e02302bffd7a8c022', '6516803702302bffd7a8c035', '6516804002302bffd7a8c048', '6516805502302bffd7a8c06c', '6516805e02302bffd7a8c07f', '6516806e02302bffd7a8c0ac', '651689c502302bffd7a8c255', '651689cb02302bffd7a8c268', '651689d102302bffd7a8c27b', '651689d702302bffd7a8c28e', '651689e602302bffd7a8c2b2', '651689ec02302bffd7a8c2c5', '651689f802302bffd7a8c2ee']}]</t>
+          <t>[{'accountId': '65166d39e119836feb867ce8', 'aGroupIDs': ['65166d491a1e19a5219d895d', '65167cbb02302bffd7a8bbbf', '65167cc202302bffd7a8bbe1', '65167ccd02302bffd7a8bc0e', '65167ce702302bffd7a8bca5', '65167cf302302bffd7a8bcf4', '65167d0e02302bffd7a8bd4e', '65167d1b02302bffd7a8bd76', '651be64a02302bffd7a8d672', '651be65002302bffd7a8d680', '651be65d02302bffd7a8d6ab', '651be67402302bffd7a8d6e5', '651be68102302bffd7a8d707', '651be6a102302bffd7a8d753', '651be6b402302bffd7a8d774', '651bf28402302bffd7a8ddab', '651bf28d02302bffd7a8ddbd', '651bf2a002302bffd7a8ddfe', '651bf2c402302bffd7a8de48', '651bf2d902302bffd7a8de89', '651bf30202302bffd7a8dee9', '651bf31702302bffd7a8df14'], 'authParams': '', 'authType': 0, 'autoThreshold': 0.83, 'caseTTL': 0, 'contact': {'address1': '', 'address2': '', 'city': '', 'company': '', 'department': '', 'email': 'ritesh.kagale@facefirst.com', 'faxNumber': '', 'firstName': 'Company', 'homePhone': '', 'lastName': 'Account', 'middleName': '', 'state': '', 'timezoneID': 'Asia/Kolkata', 'title': '', 'workPhone': '', 'zip': ''}, 'enabled': True, 'cGroupIDs': ['65166d491a1e19a5219d8956', '65167b6402302bffd7a8b98a', '65167b6b02302bffd7a8b997', '65167b7b02302bffd7a8b9a8', '65167b8b02302bffd7a8b9ca', '65167b9702302bffd7a8b9e3', '65167ba302302bffd7a8ba00', '65167bae02302bffd7a8ba1f', '65167bb902302bffd7a8ba3e', '65167bc702302bffd7a8ba5e', '65167bf002302bffd7a8ba80', '65167cb902302bffd7a8bbb5', '65167d1702302bffd7a8bd60', '6516983902302bffd7a8c3fe', '6516a2f902302bffd7a8c444', '6516a35302302bffd7a8c470', '6516a71e02302bffd7a8c4c7', '6516aa8902302bffd7a8c572', '6516aac302302bffd7a8c59e', '6516ab0302302bffd7a8c5c6', '6516ab4b02302bffd7a8c5ee', '6516aba102302bffd7a8c61f', '6516da5d02302bffd7a8c8d5', '6516db0402302bffd7a8c919', '6516db6302302bffd7a8c94a', '6516dd2c02302bffd7a8c999', '6516e07002302bffd7a8ca27', '6516e1af02302bffd7a8ca89', '6516e21a02302bffd7a8cabf', '6516e26602302bffd7a8caf7', '6516e3a502302bffd7a8cb36', '6516e3b802302bffd7a8cb67', '651bb31f02302bffd7a8cce1', '651bb35402302bffd7a8cd27', '651bb35902302bffd7a8cd34', '651bb36002302bffd7a8cd44', '651bb36e02302bffd7a8cd65', '651bb37902302bffd7a8cd7e', '651bb38402302bffd7a8cd99', '651bb39202302bffd7a8cddc', '651bb3a302302bffd7a8ce1f', '651bb3af02302bffd7a8ce4f', '651bbcfa02302bffd7a8ce86', '651bbdda02302bffd7a8ceb1', '651bbe1002302bffd7a8ced7', '651bbe8a02302bffd7a8cefd', '651bbed502302bffd7a8cf23', '651bbf0102302bffd7a8cf49', '651bbf7502302bffd7a8cf6f', '651bbf9402302bffd7a8cfa0', '651bc12b02302bffd7a8cfdd', '651bc18602302bffd7a8d01a', '651bc1cf02302bffd7a8d057', '651bc1eb02302bffd7a8d094', '651bc5a402302bffd7a8d0ca', '651be5b702302bffd7a8d477', '651be5bd02302bffd7a8d484', '651be5c302302bffd7a8d494', '651be5cf02302bffd7a8d4b5', '651be5d902302bffd7a8d4ce', '651be5e302302bffd7a8d4e9', '651be5ed02302bffd7a8d53a', '651be5f902302bffd7a8d58b', '651be60402302bffd7a8d5bb', '651be61102302bffd7a8d5f0', '651be62402302bffd7a8d621', '651be64702302bffd7a8d668', '651be6ac02302bffd7a8d765', '651bf19d02302bffd7a8daf9', '651bf1a802302bffd7a8db0a', '651bf1b602302bffd7a8db1e', '651bf1d102302bffd7a8db47', '651bf1e102302bffd7a8db66', '651bf1f102302bffd7a8db87', '651bf20502302bffd7a8dbe4', '651bf21602302bffd7a8dc41', '651bf22702302bffd7a8dcc2', '651bf23b02302bffd7a8dd0f', '651bf25702302bffd7a8dd4c', '651bf28002302bffd7a8dd9f', '651bf31002302bffd7a8df01', '651c0c1902302bffd7a8e491', '651c0c2d02302bffd7a8e4ce', '651c189a02302bffd7a8e5bf', '651c19d002302bffd7a8e6da', '651c1ab902302bffd7a8e78d', '651c232302302bffd7a8e7e3', '651c233d02302bffd7a8e820', '651c235402302bffd7a8e86b', '651c236d02302bffd7a8e8b3', '651c24f602302bffd7a8e915', '651c250b02302bffd7a8e952', '651c252602302bffd7a8e99d', '651c253d02302bffd7a8e9e5', '651c25b202302bffd7a8ea29', '651c26e202302bffd7a8ea6d', '651c26f802302bffd7a8eaaa', '651c271002302bffd7a8eaf5', '651c272902302bffd7a8eb3d', '651cfa6702302bffd7a8ef12', '651d02e502302bffd7a8f003', '651d37f0ff1976583fafdf61', '651d3b50ff1976583fafe0a5', '651d4668ff1976583fafe6bf', '651d584eff1976583fafef98', '651d597dff1976583faff00c', '651d59d3ff1976583faff057', '651d5cdbff1976583faff37b', '651d63b3ff1976583faff6d2', '651d63ebff1976583faff716', '651d6436ff1976583faff75a', '651d648eff1976583faff79e', '651d64b4ff1976583faff7e6', '651d65fdff1976583faff991', '651d66c8ff1976583faffa21', '651d66fbff1976583faffa69', '651d6725ff1976583faffb6a', '651d67abff1976583faffc5e', '651d67e6ff1976583faffca6', '651d6821ff1976583faffcbe', '651d6856ff1976583faffd06', '651d699eff1976583faffd8e', '651d69b3ff1976583faffdcb', '651d69d5ff1976583faffdf5', '651d69e8ff1976583faffe32', '651d6a84ff1976583faffe5c', '651d6ac4ff1976583faffea4', '651d6b05ff1976583fafff0c', '651d6b42ff1976583fafff75', '651d6b7fff1976583fafffbd', '651d6b92ff1976583faffffa', '651d6d44ff1976583fb00409', '651d6d57ff1976583fb00446', '651d7410ff1976583fb0071f', '651d7432ff1976583fb007a5', '651d7446ff1976583fb007e2'], 'maxEnrollments': 1000000, 'maxFaceNoteTimeDiff': '1800', 'maxInvestigationLength': 1800, 'maxSubusers': 100, 'maxTransactionAge': 86400, 'numCases': 33, 'sessionExpiration': 3600, 'stationIDs': ['DESKTOP-PTTAM1V:x01', 'DESKTOP-660P8Q2:x01', 'DESKTOP-75UBP18:x01'], 'userIDs': ['65166d434e4df05a37a98bea', '65166d491a1e19a5219d8948', '65166d4a1a1e19a5219d8966', '65166dbdd319a18d9ce09bfd', '65166dbdd319a18d9ce09bff', '65167c6602302bffd7a8baaf', '65167c7102302bffd7a8bac2', '65167c7b02302bffd7a8bad5', '65167c8402302bffd7a8bae8', '65167c9f02302bffd7a8bb32', '65167caa02302bffd7a8bb77', '65167cb402302bffd7a8bba2', '65167ced02302bffd7a8bccc', '65167cf502302bffd7a8bd00', '65167d1e02302bffd7a8bd8c', '65167d7c02302bffd7a8bdb0', '65167d9702302bffd7a8bdb7', '65167e1a02302bffd7a8bdde', '65167e3e02302bffd7a8bdf1', '65167e9f02302bffd7a8be0a', '65167ea802302bffd7a8be20', '65167eb102302bffd7a8be33', '65167eba02302bffd7a8be46', '65167ecf02302bffd7a8be6d', '65167ed802302bffd7a8be83', '65167ee902302bffd7a8beac', '65167f5c02302bffd7a8bfb4', '65167fb202302bffd7a8bffc', '6516802502302bffd7a8c00f', '6516802e02302bffd7a8c022', '6516803702302bffd7a8c035', '6516804002302bffd7a8c048', '6516805502302bffd7a8c06c', '6516805e02302bffd7a8c07f', '6516806e02302bffd7a8c0ac', '651689c502302bffd7a8c255', '651689cb02302bffd7a8c268', '651689d102302bffd7a8c27b', '651689d702302bffd7a8c28e', '651689e602302bffd7a8c2b2', '651689ec02302bffd7a8c2c5', '651689f802302bffd7a8c2ee', '651bde5702302bffd7a8d376', '651bde5a02302bffd7a8d3ac', '651be6d102302bffd7a8d7b4', '651be6d902302bffd7a8d7c7', '651be6e602302bffd7a8d7da', '651be6f002302bffd7a8d7ed', '651be70402302bffd7a8d811', '651be70d02302bffd7a8d824', '651be71c02302bffd7a8d84d', '651bee1702302bffd7a8da7b', '651bf32a02302bffd7a8df37', '651bf33a02302bffd7a8df4e', '651bf34802302bffd7a8df65', '651bf35802302bffd7a8df7c', '651bf37902302bffd7a8dfb0', '651bf38802302bffd7a8dfc7', '651bf3a502302bffd7a8dffd', '651d12ca02302bffd7a8f0d0']}]</t>
         </is>
       </c>
       <c r="F2" s="65" t="n"/>
-      <c r="G2" s="41" t="inlineStr">
+      <c r="G2" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -5293,17 +5440,17 @@
       </c>
       <c r="I2" s="65" t="inlineStr">
         <is>
-          <t>19:31:21</t>
+          <t>20:33:03</t>
         </is>
       </c>
       <c r="J2" s="65" t="inlineStr">
         <is>
-          <t>19:31:32</t>
+          <t>20:33:07</t>
         </is>
       </c>
       <c r="K2" s="65" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -5322,11 +5469,11 @@
       </c>
       <c r="E3" s="65" t="inlineStr">
         <is>
-          <t>{'accountId': '65166d39e119836feb867ce8', 'aGroupIDs': ['65166d491a1e19a5219d895d', '65167cbb02302bffd7a8bbbf', '65167cc202302bffd7a8bbe1', '65167ccd02302bffd7a8bc0e', '65167ce702302bffd7a8bca5', '65167cf302302bffd7a8bcf4', '65167d0e02302bffd7a8bd4e', '65167d1b02302bffd7a8bd76'], 'authParams': '', 'authType': 0, 'autoThreshold': 0.83, 'caseTTL': 0, 'contact': {'address1': '', 'address2': '', 'city': '', 'company': '', 'department': '', 'email': 'ritesh.kagale@facefirst.com', 'faxNumber': '', 'firstName': 'Company', 'homePhone': '', 'lastName': 'Account', 'middleName': '', 'state': '', 'timezoneID': 'Asia/Kolkata', 'title': '', 'workPhone': '', 'zip': ''}, 'enabled': True, 'cGroupIDs': ['65166d491a1e19a5219d8956', '65167b6402302bffd7a8b98a', '65167b6b02302bffd7a8b997', '65167b7b02302bffd7a8b9a8', '65167b8b02302bffd7a8b9ca', '65167b9702302bffd7a8b9e3', '65167ba302302bffd7a8ba00', '65167bae02302bffd7a8ba1f', '65167bb902302bffd7a8ba3e', '65167bc702302bffd7a8ba5e', '65167bf002302bffd7a8ba80', '65167cb902302bffd7a8bbb5', '65167d1702302bffd7a8bd60', '6516983902302bffd7a8c3fe', '6516a2f902302bffd7a8c444', '6516a35302302bffd7a8c470', '6516a71e02302bffd7a8c4c7', '6516aa8902302bffd7a8c572', '6516aac302302bffd7a8c59e', '6516ab0302302bffd7a8c5c6', '6516ab4b02302bffd7a8c5ee', '6516aba102302bffd7a8c61f'], 'maxEnrollments': 1000000, 'maxFaceNoteTimeDiff': '1800', 'maxInvestigationLength': 1800, 'maxSubusers': 100, 'maxTransactionAge': 86400, 'numCases': 6, 'sessionExpiration': 3600, 'stationIDs': ['DESKTOP-660P8Q2:x01', 'DESKTOP-75UBP18:x01', 'DESKTOP-PTTAM1V:x01'], 'userIDs': ['65166d434e4df05a37a98bea', '65166d491a1e19a5219d8948', '65166d4a1a1e19a5219d8966', '65166dbdd319a18d9ce09bfd', '65166dbdd319a18d9ce09bff', '65167c6602302bffd7a8baaf', '65167c7102302bffd7a8bac2', '65167c7b02302bffd7a8bad5', '65167c8402302bffd7a8bae8', '65167c9f02302bffd7a8bb32', '65167caa02302bffd7a8bb77', '65167cb402302bffd7a8bba2', '65167ced02302bffd7a8bccc', '65167cf502302bffd7a8bd00', '65167d1e02302bffd7a8bd8c', '65167d7c02302bffd7a8bdb0', '65167d9702302bffd7a8bdb7', '65167e1a02302bffd7a8bdde', '65167e3e02302bffd7a8bdf1', '65167e9f02302bffd7a8be0a', '65167ea802302bffd7a8be20', '65167eb102302bffd7a8be33', '65167eba02302bffd7a8be46', '65167ecf02302bffd7a8be6d', '65167ed802302bffd7a8be83', '65167ee902302bffd7a8beac', '65167f5c02302bffd7a8bfb4', '65167fb202302bffd7a8bffc', '6516802502302bffd7a8c00f', '6516802e02302bffd7a8c022', '6516803702302bffd7a8c035', '6516804002302bffd7a8c048', '6516805502302bffd7a8c06c', '6516805e02302bffd7a8c07f', '6516806e02302bffd7a8c0ac', '651689c502302bffd7a8c255', '651689cb02302bffd7a8c268', '651689d102302bffd7a8c27b', '651689d702302bffd7a8c28e', '651689e602302bffd7a8c2b2', '651689ec02302bffd7a8c2c5', '651689f802302bffd7a8c2ee']}</t>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'aGroupIDs': ['65166d491a1e19a5219d895d', '65167cbb02302bffd7a8bbbf', '65167cc202302bffd7a8bbe1', '65167ccd02302bffd7a8bc0e', '65167ce702302bffd7a8bca5', '65167cf302302bffd7a8bcf4', '65167d0e02302bffd7a8bd4e', '65167d1b02302bffd7a8bd76', '651be64a02302bffd7a8d672', '651be65002302bffd7a8d680', '651be65d02302bffd7a8d6ab', '651be67402302bffd7a8d6e5', '651be68102302bffd7a8d707', '651be6a102302bffd7a8d753', '651be6b402302bffd7a8d774', '651bf28402302bffd7a8ddab', '651bf28d02302bffd7a8ddbd', '651bf2a002302bffd7a8ddfe', '651bf2c402302bffd7a8de48', '651bf2d902302bffd7a8de89', '651bf30202302bffd7a8dee9', '651bf31702302bffd7a8df14'], 'authParams': '', 'authType': 0, 'autoThreshold': 0.83, 'caseTTL': 0, 'contact': {'address1': '', 'address2': '', 'city': '', 'company': '', 'department': '', 'email': 'ritesh.kagale@facefirst.com', 'faxNumber': '', 'firstName': 'Company', 'homePhone': '', 'lastName': 'Account', 'middleName': '', 'state': '', 'timezoneID': 'Asia/Kolkata', 'title': '', 'workPhone': '', 'zip': ''}, 'enabled': True, 'cGroupIDs': ['65166d491a1e19a5219d8956', '65167b6402302bffd7a8b98a', '65167b6b02302bffd7a8b997', '65167b7b02302bffd7a8b9a8', '65167b8b02302bffd7a8b9ca', '65167b9702302bffd7a8b9e3', '65167ba302302bffd7a8ba00', '65167bae02302bffd7a8ba1f', '65167bb902302bffd7a8ba3e', '65167bc702302bffd7a8ba5e', '65167bf002302bffd7a8ba80', '65167cb902302bffd7a8bbb5', '65167d1702302bffd7a8bd60', '6516983902302bffd7a8c3fe', '6516a2f902302bffd7a8c444', '6516a35302302bffd7a8c470', '6516a71e02302bffd7a8c4c7', '6516aa8902302bffd7a8c572', '6516aac302302bffd7a8c59e', '6516ab0302302bffd7a8c5c6', '6516ab4b02302bffd7a8c5ee', '6516aba102302bffd7a8c61f', '6516da5d02302bffd7a8c8d5', '6516db0402302bffd7a8c919', '6516db6302302bffd7a8c94a', '6516dd2c02302bffd7a8c999', '6516e07002302bffd7a8ca27', '6516e1af02302bffd7a8ca89', '6516e21a02302bffd7a8cabf', '6516e26602302bffd7a8caf7', '6516e3a502302bffd7a8cb36', '6516e3b802302bffd7a8cb67', '651bb31f02302bffd7a8cce1', '651bb35402302bffd7a8cd27', '651bb35902302bffd7a8cd34', '651bb36002302bffd7a8cd44', '651bb36e02302bffd7a8cd65', '651bb37902302bffd7a8cd7e', '651bb38402302bffd7a8cd99', '651bb39202302bffd7a8cddc', '651bb3a302302bffd7a8ce1f', '651bb3af02302bffd7a8ce4f', '651bbcfa02302bffd7a8ce86', '651bbdda02302bffd7a8ceb1', '651bbe1002302bffd7a8ced7', '651bbe8a02302bffd7a8cefd', '651bbed502302bffd7a8cf23', '651bbf0102302bffd7a8cf49', '651bbf7502302bffd7a8cf6f', '651bbf9402302bffd7a8cfa0', '651bc12b02302bffd7a8cfdd', '651bc18602302bffd7a8d01a', '651bc1cf02302bffd7a8d057', '651bc1eb02302bffd7a8d094', '651bc5a402302bffd7a8d0ca', '651be5b702302bffd7a8d477', '651be5bd02302bffd7a8d484', '651be5c302302bffd7a8d494', '651be5cf02302bffd7a8d4b5', '651be5d902302bffd7a8d4ce', '651be5e302302bffd7a8d4e9', '651be5ed02302bffd7a8d53a', '651be5f902302bffd7a8d58b', '651be60402302bffd7a8d5bb', '651be61102302bffd7a8d5f0', '651be62402302bffd7a8d621', '651be64702302bffd7a8d668', '651be6ac02302bffd7a8d765', '651bf19d02302bffd7a8daf9', '651bf1a802302bffd7a8db0a', '651bf1b602302bffd7a8db1e', '651bf1d102302bffd7a8db47', '651bf1e102302bffd7a8db66', '651bf1f102302bffd7a8db87', '651bf20502302bffd7a8dbe4', '651bf21602302bffd7a8dc41', '651bf22702302bffd7a8dcc2', '651bf23b02302bffd7a8dd0f', '651bf25702302bffd7a8dd4c', '651bf28002302bffd7a8dd9f', '651bf31002302bffd7a8df01', '651c0c1902302bffd7a8e491', '651c0c2d02302bffd7a8e4ce', '651c189a02302bffd7a8e5bf', '651c19d002302bffd7a8e6da', '651c1ab902302bffd7a8e78d', '651c232302302bffd7a8e7e3', '651c233d02302bffd7a8e820', '651c235402302bffd7a8e86b', '651c236d02302bffd7a8e8b3', '651c24f602302bffd7a8e915', '651c250b02302bffd7a8e952', '651c252602302bffd7a8e99d', '651c253d02302bffd7a8e9e5', '651c25b202302bffd7a8ea29', '651c26e202302bffd7a8ea6d', '651c26f802302bffd7a8eaaa', '651c271002302bffd7a8eaf5', '651c272902302bffd7a8eb3d', '651cfa6702302bffd7a8ef12', '651d02e502302bffd7a8f003', '651d37f0ff1976583fafdf61', '651d3b50ff1976583fafe0a5', '651d4668ff1976583fafe6bf', '651d584eff1976583fafef98', '651d597dff1976583faff00c', '651d59d3ff1976583faff057', '651d5cdbff1976583faff37b', '651d63b3ff1976583faff6d2', '651d63ebff1976583faff716', '651d6436ff1976583faff75a', '651d648eff1976583faff79e', '651d64b4ff1976583faff7e6', '651d65fdff1976583faff991', '651d66c8ff1976583faffa21', '651d66fbff1976583faffa69', '651d6725ff1976583faffb6a', '651d67abff1976583faffc5e', '651d67e6ff1976583faffca6', '651d6821ff1976583faffcbe', '651d6856ff1976583faffd06', '651d699eff1976583faffd8e', '651d69b3ff1976583faffdcb', '651d69d5ff1976583faffdf5', '651d69e8ff1976583faffe32', '651d6a84ff1976583faffe5c', '651d6ac4ff1976583faffea4', '651d6b05ff1976583fafff0c', '651d6b42ff1976583fafff75', '651d6b7fff1976583fafffbd', '651d6b92ff1976583faffffa', '651d6d44ff1976583fb00409', '651d6d57ff1976583fb00446', '651d7410ff1976583fb0071f', '651d7432ff1976583fb007a5', '651d7446ff1976583fb007e2'], 'maxEnrollments': 1000000, 'maxFaceNoteTimeDiff': '1800', 'maxInvestigationLength': 1800, 'maxSubusers': 100, 'maxTransactionAge': 86400, 'numCases': 33, 'sessionExpiration': 3600, 'stationIDs': ['DESKTOP-PTTAM1V:x01', 'DESKTOP-660P8Q2:x01', 'DESKTOP-75UBP18:x01'], 'userIDs': ['65166d434e4df05a37a98bea', '65166d491a1e19a5219d8948', '65166d4a1a1e19a5219d8966', '65166dbdd319a18d9ce09bfd', '65166dbdd319a18d9ce09bff', '65167c6602302bffd7a8baaf', '65167c7102302bffd7a8bac2', '65167c7b02302bffd7a8bad5', '65167c8402302bffd7a8bae8', '65167c9f02302bffd7a8bb32', '65167caa02302bffd7a8bb77', '65167cb402302bffd7a8bba2', '65167ced02302bffd7a8bccc', '65167cf502302bffd7a8bd00', '65167d1e02302bffd7a8bd8c', '65167d7c02302bffd7a8bdb0', '65167d9702302bffd7a8bdb7', '65167e1a02302bffd7a8bdde', '65167e3e02302bffd7a8bdf1', '65167e9f02302bffd7a8be0a', '65167ea802302bffd7a8be20', '65167eb102302bffd7a8be33', '65167eba02302bffd7a8be46', '65167ecf02302bffd7a8be6d', '65167ed802302bffd7a8be83', '65167ee902302bffd7a8beac', '65167f5c02302bffd7a8bfb4', '65167fb202302bffd7a8bffc', '6516802502302bffd7a8c00f', '6516802e02302bffd7a8c022', '6516803702302bffd7a8c035', '6516804002302bffd7a8c048', '6516805502302bffd7a8c06c', '6516805e02302bffd7a8c07f', '6516806e02302bffd7a8c0ac', '651689c502302bffd7a8c255', '651689cb02302bffd7a8c268', '651689d102302bffd7a8c27b', '651689d702302bffd7a8c28e', '651689e602302bffd7a8c2b2', '651689ec02302bffd7a8c2c5', '651689f802302bffd7a8c2ee', '651bde5702302bffd7a8d376', '651bde5a02302bffd7a8d3ac', '651be6d102302bffd7a8d7b4', '651be6d902302bffd7a8d7c7', '651be6e602302bffd7a8d7da', '651be6f002302bffd7a8d7ed', '651be70402302bffd7a8d811', '651be70d02302bffd7a8d824', '651be71c02302bffd7a8d84d', '651bee1702302bffd7a8da7b', '651bf32a02302bffd7a8df37', '651bf33a02302bffd7a8df4e', '651bf34802302bffd7a8df65', '651bf35802302bffd7a8df7c', '651bf37902302bffd7a8dfb0', '651bf38802302bffd7a8dfc7', '651bf3a502302bffd7a8dffd', '651d12ca02302bffd7a8f0d0']}</t>
         </is>
       </c>
       <c r="F3" s="65" t="n"/>
-      <c r="G3" s="41" t="inlineStr">
+      <c r="G3" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -5338,17 +5485,17 @@
       </c>
       <c r="I3" s="65" t="inlineStr">
         <is>
-          <t>19:31:32</t>
+          <t>20:33:08</t>
         </is>
       </c>
       <c r="J3" s="65" t="inlineStr">
         <is>
-          <t>19:31:39</t>
+          <t>20:33:16</t>
         </is>
       </c>
       <c r="K3" s="65" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -5367,11 +5514,11 @@
       </c>
       <c r="E4" s="65" t="inlineStr">
         <is>
-          <t>{'stationInfo': {'stations': [{'accountId': '65166d39e119836feb867ce8', 'geo': {'type': 'Point', 'coordinates': [78.36166349999999, 17.5039154]}, 'desc': 'Desktop-660p8q2-8561/v2', 'stream': 'DESKTOP-660P8Q2:x01', 'licActive': 1695970921477, 'zoneIDs': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f'], 'regionId': '6516746002302bffd7a8b907'}, {'accountId': '65166d39e119836feb867ce8', 'geo': {'type': 'Point', 'coordinates': [77.3910265, 28.5355161]}, 'desc': 'Desktop-75ubp18-8562/v2', 'stream': 'DESKTOP-75UBP18:x01', 'licActive': 1695970973034, 'zoneIDs': ['65166d39e119836feb867cec', '6516760102302bffd7a8b910'], 'regionId': '651672ea02302bffd7a8b905'}, {'accountId': '65166d39e119836feb867ce8', 'geo': {'type': 'Point', 'coordinates': [73.8567437, 18.5204303]}, 'desc': 'Desktop-pttam1v-8563/v2', 'stream': 'DESKTOP-PTTAM1V:x01', 'licActive': 1695971052451, 'zoneIDs': ['65166d39e119836feb867cec', '6516761c02302bffd7a8b911'], 'regionId': '6516732c02302bffd7a8b906'}]}}</t>
+          <t>{'stationInfo': {'stations': [{'accountId': '65166d39e119836feb867ce8', 'geo': {'type': 'Point', 'coordinates': [73.8567437, 18.5204303]}, 'desc': 'Desktop-pttam1v-8563/v2', 'stream': 'DESKTOP-PTTAM1V:x01', 'licActive': 1695971052451, 'zoneIDs': ['65166d39e119836feb867cec', '6516761c02302bffd7a8b911'], 'regionId': '6516732c02302bffd7a8b906'}, {'accountId': '65166d39e119836feb867ce8', 'geo': {'type': 'Point', 'coordinates': [78.36166349999999, 17.5039154]}, 'desc': 'Desktop-660p8q2-8561/v2', 'stream': 'DESKTOP-660P8Q2:x01', 'licActive': 1695970921477, 'zoneIDs': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f'], 'regionId': '6516746002302bffd7a8b907'}, {'accountId': '65166d39e119836feb867ce8', 'geo': {'type': 'Point', 'coordinates': [77.3910265, 28.5355161]}, 'desc': 'Desktop-75ubp18-8562/v2', 'stream': 'DESKTOP-75UBP18:x01', 'licActive': 1695970973034, 'zoneIDs': ['65166d39e119836feb867cec', '6516760102302bffd7a8b910'], 'regionId': '651672ea02302bffd7a8b905'}]}}</t>
         </is>
       </c>
       <c r="F4" s="65" t="n"/>
-      <c r="G4" s="41" t="inlineStr">
+      <c r="G4" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -5383,17 +5530,17 @@
       </c>
       <c r="I4" s="65" t="inlineStr">
         <is>
-          <t>19:31:39</t>
+          <t>20:33:17</t>
         </is>
       </c>
       <c r="J4" s="65" t="inlineStr">
         <is>
-          <t>19:31:44</t>
+          <t>20:33:25</t>
         </is>
       </c>
       <c r="K4" s="65" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>

--- a/Reports/API_Excel_Report/API_excel_report.xlsx
+++ b/Reports/API_Excel_Report/API_excel_report.xlsx
@@ -1222,7 +1222,7 @@
       </c>
       <c r="E2" s="65" t="inlineStr">
         <is>
-          <t>{'data': {'id': '651d8016ff1976583fb01149', 'message': "Note id '651d8016ff1976583fb01149' successfully added"}, 'isSuccess': True}</t>
+          <t>{'data': {'id': '651d8adcff1976583fb02983', 'message': "Note id '651d8adcff1976583fb02983' successfully added"}, 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F2" s="65" t="n"/>
@@ -1233,22 +1233,22 @@
       </c>
       <c r="H2" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Note id '651d8016ff1976583fb01149' successfully added</t>
+          <t>Response Status Code : 200 &amp; Message : Note id '651d8adcff1976583fb02983' successfully added</t>
         </is>
       </c>
       <c r="I2" s="65" t="inlineStr">
         <is>
-          <t>20:39:00</t>
+          <t>21:25:00</t>
         </is>
       </c>
       <c r="J2" s="65" t="inlineStr">
         <is>
-          <t>20:39:11</t>
+          <t>21:25:09</t>
         </is>
       </c>
       <c r="K2" s="65" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="E3" s="65" t="inlineStr">
         <is>
-          <t>{'notesInfo': {'notes': [{'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole', 'narrativeDesc': 'nsarra', 'action': 'Call Police', 'storeId': 'Pune', 'caseNumber': 'theft one bottle', 'timeIncident': '09/21/2023 07:47', 'reportedBy': 'staff', 'reportedLoss': '8000', 'caseEventType': 'STORE THREAT', 'activityType': 'DOMESTIC VIOLENCE', 'heightType': '5.6-5.9', 'methodOffence': 'GRAB AND DASH'}, 'imageIDs': ['11f0c98574b4230dffc83c0aeb478f7b'], 'ownerID': '65166d39e119836feb867ce8', 'profileID': '65166d3be119836feb867d23', 'userID': '651bee1702302bffd7a8da7b', 'update': 1696432160417, 'numCases': 0, 'create': 1696432160417, 'noteID': '651d8020ff1976583fb01198', 'geo': {'coordinates': [73.84841725892831, 18.511004603403823]}}]}}</t>
+          <t>{'notesInfo': {'notes': [{'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole', 'narrativeDesc': 'nsarra', 'action': 'Call Police', 'storeId': 'Pune', 'caseNumber': 'theft one bottle', 'timeIncident': '09/21/2023 07:47', 'reportedBy': 'staff', 'reportedLoss': '8000', 'caseEventType': 'STORE THREAT', 'activityType': 'DOMESTIC VIOLENCE', 'heightType': '5.6-5.9', 'methodOffence': 'GRAB AND DASH'}, 'imageIDs': ['11f0c98574b4230dffc83c0aeb478f7b'], 'ownerID': '65166d39e119836feb867ce8', 'profileID': '65166d3be119836feb867d23', 'userID': '651bee1702302bffd7a8da7b', 'update': 1696434918273, 'numCases': 0, 'create': 1696434918273, 'noteID': '651d8ae6ff1976583fb029a0', 'geo': {'coordinates': [73.84841725892831, 18.511004603403823]}}]}}</t>
         </is>
       </c>
       <c r="F3" s="66" t="n"/>
@@ -1278,22 +1278,22 @@
       </c>
       <c r="H3" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : 651d8020ff1976583fb01198</t>
+          <t>Response Status Code : 200 &amp; Message : 651d8ae6ff1976583fb029a0</t>
         </is>
       </c>
       <c r="I3" s="66" t="inlineStr">
         <is>
-          <t>20:39:12</t>
+          <t>21:25:09</t>
         </is>
       </c>
       <c r="J3" s="66" t="inlineStr">
         <is>
-          <t>20:39:27</t>
+          <t>21:25:20</t>
         </is>
       </c>
       <c r="K3" s="66" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>11.0</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       <c r="C4" s="30" t="n"/>
       <c r="D4" s="48" t="inlineStr">
         <is>
-          <t>{'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole', 'narrativeDesc': 'nsarra', 'action': 'Call Police', 'storeId': 'Pune', 'caseNumber': 'theft one bottle', 'timeIncident': '09/21/2023 07:47', 'reportedBy': 'staff', 'reportedLoss': '7000', 'caseEventType': 'STORE THREAT', 'activityType': 'DOMESTIC VIOLENCE', 'heightType': '5.6-5.9', 'methodOffence': 'GRAB AND DASH', 'NoteId': '651d8032ff1976583fb01204', 'SetCases': True}</t>
+          <t>{'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole', 'narrativeDesc': 'nsarra', 'action': 'Call Police', 'storeId': 'Pune', 'caseNumber': 'theft one bottle', 'timeIncident': '09/21/2023 07:47', 'reportedBy': 'staff', 'reportedLoss': '7000', 'caseEventType': 'STORE THREAT', 'activityType': 'DOMESTIC VIOLENCE', 'heightType': '5.6-5.9', 'methodOffence': 'GRAB AND DASH', 'NoteId': '651d8aefff1976583fb029c8', 'SetCases': True}</t>
         </is>
       </c>
       <c r="E4" s="48" t="inlineStr">
@@ -1328,17 +1328,17 @@
       </c>
       <c r="I4" s="66" t="inlineStr">
         <is>
-          <t>20:39:27</t>
+          <t>21:25:20</t>
         </is>
       </c>
       <c r="J4" s="66" t="inlineStr">
         <is>
-          <t>20:39:45</t>
+          <t>21:25:30</t>
         </is>
       </c>
       <c r="K4" s="66" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="E5" s="65" t="inlineStr">
         <is>
-          <t>{'data': '651d8042ff1976583fb01257', 'message': 'Note with NoteId: 651d8042ff1976583fb01257 was deleted.', 'isSuccess': True}</t>
+          <t>{'data': '651d8afaff1976583fb029f6', 'message': 'Note with NoteId: 651d8afaff1976583fb029f6 was deleted.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F5" s="66" t="n"/>
@@ -1368,22 +1368,22 @@
       </c>
       <c r="H5" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Note with NoteId: 651d8042ff1976583fb01257 was deleted.</t>
+          <t>Response Status Code : 200 &amp; Message : Note with NoteId: 651d8afaff1976583fb029f6 was deleted.</t>
         </is>
       </c>
       <c r="I5" s="65" t="inlineStr">
         <is>
-          <t>20:39:46</t>
+          <t>21:25:31</t>
         </is>
       </c>
       <c r="J5" s="66" t="inlineStr">
         <is>
-          <t>20:40:02</t>
+          <t>21:25:40</t>
         </is>
       </c>
       <c r="K5" s="66" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>{'result': {'cookies': 'CGISESSID=74653f7fe586415cbe405252eec900ee', 'message': 'You have been logged in.', 'status': 'ok', 'token': 'EAAAAGupeA3WgBD7KZvtSKsVpkFc6LVb3w4CYeK5s8VbuC8qDutQ1PCeXjcMFnYnMCbONxH5vLMCIEdydpMITiBozajiM6+VSk6ragEwVZaFNSvp9qtEg+egRSuNL9Y3d51/gC+1wFM2OoLOOmYl57IjBV4ZxKaYipkqTCFjt2f694g2MJ7Q/Mhd0cmTVvMRS/1VM/Fcfr8FZ2jYmzeub/cBEvkLlU2KAqa716iNHEsu0kijEf8/3obP6cbgt8IE6xv0L1RPXsGu+Z5yvTR9gH9aGkH5bGsuCsOfu0njJuwioSL4KTU3nwmUWJKsZXH8SzDKy0EbHvxH+piSRkWWsDedNMYurM/MbOI4sEDFSeQhmFDD4XL6kxdYTl8/+XPtzn3efFnyQo5lkS1Gf78u2VH4NUAUE/C0jnkVIeDcWhka1/AINrM9GsGQnP2Au7yj0T2xcLhlk7Z3mZjmYjepX1vcZRkEmRZrgPPiSNRg/nYCAzyiNFkb7Vu6aEscrVTR7oYmjAqIXdxCP1V3WjrVDgis26l416pAI1dVTsf9iP00vsaQPmyIGQsFLwJBIg07KV9n0UfrUBjtmqnmdrw9ZPt+UpR7Vt3H/jxcgbfbbXx7ZEOvIWYdwvKXuL73T1Mg7EfFCbBoeVOYGLqx9T9ifyxEcq6p7DrGScUsyZ4V1pp9TiKURdsr00Hde7ryFkTtqdLdA0nNZOy/DOlggVq7VWUhSCFUx2q1JHfike/rkNtXZfahFDkm8QNM8ydfQdhswCSEJwJMlifnnCUlYp7Q5zHU2J9wYq8W9LymVNoK4upa7TZp0LQnUR+U2z3MulOwrvY7gA22Yf8h6G/jnZlPpr6Kdy1xusi9f6LQmQZlqjZDGHUJNHCPwfbD1W0Y2J3kyQFx9gVWgel1De7G7w5Y8qAangvLUHzbxUaVVE0zs/eP/4Sa4OxX51xX6Oh+GgtdA3HiEMbXo0Y1u5+m6KYCq8m/vjMlP3W5D6ztquKLnpCRcBR2WHiB88P20qOitJVyz9PrsQAmg5hPvHdNtTqdiYk7GlQ49LWpmAMLDsaINVriP1nAVXNAwXi6h4EuJ+DQwgXTfKSdxbgFBP1bSv368lUE0lOqSOSa1n6vgFXuOkcxbCnZIw7ok0dNaKeqT+f2cqnOGiFWRyhqZI0EzvJlzqrWpvVSi5mlantNe2q/5x5QMZdED+ezIOOZQkWW3zcM62eI65iW81iU5HIMXMr8nXmJCsMcPQz5L0j54egDjBqfw7MPzMthNUfR947zaC3XYnUoeyPQbuYCHlFr1Ql21HzFATZx3qgMy3lLTWj6G1MASk7U48isvMnWWWjEnHhfKRzXVv4N5FcPOnB92IS91OIiXqRl0wzV1HAKQ4elJZazwet0NH8nkbSbFUbHMkA5fiRtSDEOQ1EfcEOFyfUxfNIuUTFtDxib3IDzfrCxlBMIqxRxckCEmQX81MaECZWE6ZY8th1WgRpu/qH6YYHCnAI+ZOKqY6lIRrvisXUvMovz1po0lfyS9+4L9ibaYaZ48yutt6uYi0ZwutfWy+bNbG4mjw1Hk/8Dpk4KO4S+FJcJ+hQrdtrPfpYhlfnZr2xfUjejCzwoQHXGoyGwuvtlIc5/xf79pPhf8kXq9VR41jhDWWuM+ymTgs90bYAcIwUelgfia69/gDgkG42erbqy9aQea0FaravmMSvogEK4leh5UULC8bRAqXmft4RyZ5plNw4IoHfXf8mFwNEF6omhHzwcQbc220XvjZMzeRvoOrW7sYsXNi1yMWkMjKPSR3CWCO13nZMVPMVWveji+0IUya6i/i40rG1J+oZoI7XHx/u34ri92IPslwFkS5NLT5Z1LOmJ6jDWhH59f1XOLFecV7UwOihNwNv+fYWy/tZTaCffCFEAJTjvpz89k8QmlD9Y6ht7or2rY7eI+WnGI1u3jBFwZaDSIL+Twx7iKRkamX7E0gw7X1gDBeOqLP9S0fNIqdeEwcLnS2PB1o0CQcDh/OGyQk6BDy6racM7h36g6ixTHGYeIeSS7tu1Hwd6xtJEE6WDd0nBdRX0KoNz6E+hEazihzyx73A1rg2l8wgYYYBcvWlUhTToHn+Ea05nc5/H+9owRGvhLiATppyVPBi2SuzLzrUEKQMKRAPdeCEYE0RLn2/S'}}</t>
+          <t>{'result': {'cookies': 'CGISESSID=ccd3de995eda49c69e51004b26178a63', 'message': 'You have been logged in.', 'status': 'ok', 'token': 'EAAAADtpuDIsC+LUWPUNRuYNmMufzA7ki4Z39tL9y7fNLqDXjEkd/VwKv933FPQl3cQ8ocltB+s2AyLLFjab8UllLQlKbqL/79kFj5llrt9GurVT9alSyMOmGKyZhg36U5rVoIHz9OVMnXjWaroRbzivpuBO0O7kVMgImP2S7goaVjO+2KKYvJ/yyu1CWH39BzPTeF2P6vomkFxV9Sa99iKU6eJeMH6hQrA+XZi8Z7X2cVBZJFabawVvm5mCdv69Brq3hCzeHmXNZKdZgDSQIDGPcQrn/ILznhqvMpu7rQkcrZeXZ9zKtsLo1RAPEpYg7kDyxJRPcWKzYOd1EKDmG4z0tF7QoN9w9ibSPs8GKff4GyRsl+fVNEzFz7xdFw5Zi5Zwqerp9uDx2HCZWq3jOHR1dKpM+Gp572lIDiOGB+qB7OOerPlnYsVYHlK+lhV6QZEvx6bMlkHswDgBhy01b3+Sl2MHXvVVzh+3+YE4JtNoTZb1PS3nDnQ1WXrVpZ6TP9/ZWEw5iK7tYmaCtVS8FCKI/4XdT40O7ZX4zuw8sWLjsjvHfNHBqBx1d5bsRRursKzvDvdNC626EhnNIxxvFpN0iDOeO5e02LLln9CnGZTQ05ichMTbNrHpuceD2M1U4B26cMD88YwnI9nIQuSIWFIfeYN+DU8QKmxXW6GK953fnf9hmEqS276k2uPX5TBfYJYysTlZ6BVvqmvm4+fESXHyaioKbCK6Qv733t3/kB5MnJFNhOv9Gw9LmrYIYo4FXWCH09t6tf2a9L14kAGk2LaMxH+sWjRgFy8fltqX8/6wrghvGl1cKDUzQEtGOsYoIfYy7mljhdUYxXOz4yVwoKxHe5PryivEg7x/jlo3bZ7ILF2J3bI4Nhfd+Wfc7pVcYEbiyWt1O+eYLIbwfHjuIXtLj0LH4VS3jmWhYPT1lpMLCpCGXEIu9E10r5HwufAVXNTP1JSwH4r/e/T2DSE0VEK01QrQJ6ykFj5837a3sZWSTujPP3r/Pn4FEddxRRkc/E6eLt1wALtrlR/njwtBNQp7SmlKXU6BCNNnnC8pqWnySVJqNF+fu9KK158ZP0E1vUJGEeieL5c4RHuZXSdvWu0ULM79ZWppFQAzk6OugInd3TGGbuNRVXv/FHixMkJcLkLkSY3MnKGaxqed9lWo0rPZrT1qCj1yP/1u+fXhYYj7TB1jyqKlcpaGWkzMr7aBmYJrbbDA+xLKArzVG2G7e/vuSqw1sP/ecV9se27T7xNS0Mpf4dMrNTAR6AmkMxaV9CF8b9yKdQe2/mBkrLxMJ8zLwfydSuA1MEjcJDsWlVhByh926aX7d/USTrC5hBQaXAtiNHLgMhUfUibQ21A+FfNEhja+Hx6f34DaM74l21W8BYPMDVfNAdsFUEd5hsvuh4c5ViWlzbq2xKkNuNvEFHLqKXP0I4ZaaPgXWBk1gQNiTxhfsHT1LnrZsHIXP3rgVaNAYtYNkq+59R3+2baMA4pAeecORvfv7eNL3G5lccbS7SlUadTuKwfL67BmuNNiM4Kxs58Sgt3grW/RE8Dx1Yl0llEcLyFGu2W+OKAhV89LaFy5op9wmU1irQlzMM7LK4OLfk5pk4o1e8CVXzFUVnyysnw0FsbELBkljOu4XnIMo3EHX01CEpFPXl/oXdW0atwTKrXRLYcyA2xrhs91rLtftWdME6lrizmqbLP1uATo09mE0hHCBWaN+jcUvOy+pVSrWsnaf6ZXRYYaiT3tFSKP7V6eK28TREO7hs1KmAMFqAXmjrfyAKYs4fSUKBJYZGc0D4N/v7QhWosMfbHtpypBFMIemd8b//sUjuwVIOWa6q84NMAbZThIbUIJb3ATBC8ptbTrbuawKEWc/DWjowHpi7hqstfn6KE1MqiPRzxp7Nb1IePPPddm2/2iD/g+ISIRTjj46e81F1Av8or7JhHfyTnTeekgfo/2ZxgrIqjZBMSu8iSoXtU0KCDszWyaLAJUtDnxo24m+ia/YjFNOmmQSZFJKPDq+DneaQbyWpetwduHYUFgFXH6Bc7k0FS0ajNS1MuBBfzsUE4Sr2TjBsdsDIy+MeuUjfjySqMFx5QSW2oMWY6rhTUXOnYlyFdEUbsBj9Y4vCwe52TIxxleq4QyZMz4/yy9c2vhgkxktHfsx66i'}}</t>
         </is>
       </c>
       <c r="F2" s="16" t="inlineStr">
@@ -1727,17 +1727,17 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>20:38:37</t>
+          <t>21:24:46</t>
         </is>
       </c>
       <c r="J2" s="4" t="inlineStr">
         <is>
-          <t>20:38:42</t>
+          <t>21:24:48</t>
         </is>
       </c>
       <c r="K2" s="23" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -1780,17 +1780,17 @@
       </c>
       <c r="I3" s="66" t="inlineStr">
         <is>
-          <t>20:38:42</t>
+          <t>21:24:48</t>
         </is>
       </c>
       <c r="J3" s="66" t="inlineStr">
         <is>
-          <t>20:38:45</t>
+          <t>21:24:50</t>
         </is>
       </c>
       <c r="K3" s="24" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -1829,17 +1829,17 @@
       </c>
       <c r="I4" s="66" t="inlineStr">
         <is>
-          <t>20:38:45</t>
+          <t>21:24:50</t>
         </is>
       </c>
       <c r="J4" s="66" t="inlineStr">
         <is>
-          <t>20:38:49</t>
+          <t>21:24:52</t>
         </is>
       </c>
       <c r="K4" s="24" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
@@ -1878,17 +1878,17 @@
       </c>
       <c r="I5" s="66" t="inlineStr">
         <is>
-          <t>20:38:50</t>
+          <t>21:24:52</t>
         </is>
       </c>
       <c r="J5" s="66" t="inlineStr">
         <is>
-          <t>20:38:56</t>
+          <t>21:24:56</t>
         </is>
       </c>
       <c r="K5" s="24" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="E6" s="26" t="inlineStr">
         <is>
-          <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Username: Missing Username Severity: Error\r\n -- Username: Missing Username Severity: Error\r\n -- Password: Missing Password Severity: Error\r\n -- Password: Missing Password Severity: Error', 'innerException': None, 'requestId': '00-d7254abec1b642c9bd3b1101ef065f02-b210d488760a75da-00', 'requestPath': '/api/login', 'connectionId': '0HMU4LECLPB10'}}</t>
+          <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Username: Missing Username Severity: Error\r\n -- Username: Missing Username Severity: Error\r\n -- Password: Missing Password Severity: Error\r\n -- Password: Missing Password Severity: Error', 'innerException': None, 'requestId': '00-c66efe2f411b2cbc731c7f8842ea4d06-58df25813f9e9ff4-00', 'requestPath': '/api/login', 'connectionId': '0HMU4LECLPC00'}}</t>
         </is>
       </c>
       <c r="F6" s="26" t="inlineStr">
@@ -1935,12 +1935,12 @@
       </c>
       <c r="I6" s="27" t="inlineStr">
         <is>
-          <t>20:38:57</t>
+          <t>21:24:57</t>
         </is>
       </c>
       <c r="J6" s="27" t="inlineStr">
         <is>
-          <t>20:39:00</t>
+          <t>21:25:00</t>
         </is>
       </c>
       <c r="K6" s="28" t="inlineStr">
@@ -2501,12 +2501,12 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>{'auth_params': ' ', 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': ' ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Chile/EasterIsland', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'Demo_user1251', 'password': 'Right_1r1s'}</t>
+          <t>{'auth_params': ' ', 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': ' ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Chile/EasterIsland', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'Demo_user1468', 'password': 'Right_1r1s'}</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'Demo_user1251', 'userId': '651d805aff1976583fb012bf'}</t>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'Demo_user1468', 'userId': '651d8b77ff1976583fb02bcc'}</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -2526,17 +2526,17 @@
       </c>
       <c r="I2" s="32" t="inlineStr">
         <is>
-          <t>20:40:03</t>
+          <t>21:27:34</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>20:40:20</t>
+          <t>21:27:44</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -2550,12 +2550,12 @@
       <c r="C3" s="17" t="n"/>
       <c r="D3" s="65" t="inlineStr">
         <is>
-          <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': True, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'test409125', 'password': 'Right_1r1s'}</t>
+          <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': True, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'test409101', 'password': 'Right_1r1s'}</t>
         </is>
       </c>
       <c r="E3" s="65" t="inlineStr">
         <is>
-          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'test409125', 'userId': '651d8068ff1976583fb012ef'}</t>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'test409101', 'userId': '651d8b82ff1976583fb02be3'}</t>
         </is>
       </c>
       <c r="F3" s="65" t="inlineStr">
@@ -2575,17 +2575,17 @@
       </c>
       <c r="I3" s="65" t="inlineStr">
         <is>
-          <t>20:40:20</t>
+          <t>21:27:44</t>
         </is>
       </c>
       <c r="J3" s="65" t="inlineStr">
         <is>
-          <t>20:40:35</t>
+          <t>21:27:54</t>
         </is>
       </c>
       <c r="K3" s="65" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       <c r="C4" s="65" t="n"/>
       <c r="D4" s="65" t="inlineStr">
         <is>
-          <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': False, 'fname': 'testFname', 'mname': None, 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'Demo_user1756', 'password': 'Right_1r1s'}</t>
+          <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': False, 'fname': 'testFname', 'mname': None, 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'Demo_user1994', 'password': 'Right_1r1s'}</t>
         </is>
       </c>
       <c r="E4" s="65" t="inlineStr">
         <is>
-          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'Demo_user1756', 'userId': '651d8077ff1976583fb0132d'}</t>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'Demo_user1994', 'userId': '651d8b89ff1976583fb02bfa'}</t>
         </is>
       </c>
       <c r="F4" s="65" t="inlineStr">
@@ -2624,17 +2624,17 @@
       </c>
       <c r="I4" s="65" t="inlineStr">
         <is>
-          <t>20:40:36</t>
+          <t>21:27:54</t>
         </is>
       </c>
       <c r="J4" s="65" t="inlineStr">
         <is>
-          <t>20:40:49</t>
+          <t>21:28:01</t>
         </is>
       </c>
       <c r="K4" s="65" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -2648,16 +2648,16 @@
       <c r="C5" s="65" t="n"/>
       <c r="D5" s="65" t="inlineStr">
         <is>
-          <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': False, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'test409715', 'password': 'Right_1r1s'}</t>
+          <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': False, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'username': 'test409206', 'password': 'Right_1r1s'}</t>
         </is>
       </c>
       <c r="E5" s="65" t="inlineStr">
         <is>
-          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'test409715', 'userId': '651689d702302bffd7a8c28e'}</t>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'test409206', 'userId': '651d8b91ff1976583fb02c11'}</t>
         </is>
       </c>
       <c r="F5" s="65" t="n"/>
-      <c r="G5" s="37" t="inlineStr">
+      <c r="G5" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2669,17 +2669,17 @@
       </c>
       <c r="I5" s="65" t="inlineStr">
         <is>
-          <t>20:40:50</t>
+          <t>21:28:02</t>
         </is>
       </c>
       <c r="J5" s="65" t="inlineStr">
         <is>
-          <t>13:54:54</t>
+          <t>21:28:09</t>
         </is>
       </c>
       <c r="K5" s="65" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -2735,17 +2735,17 @@
       </c>
       <c r="I7" s="65" t="inlineStr">
         <is>
-          <t>20:41:03</t>
+          <t>21:28:09</t>
         </is>
       </c>
       <c r="J7" s="65" t="inlineStr">
         <is>
-          <t>20:41:15</t>
+          <t>21:28:17</t>
         </is>
       </c>
       <c r="K7" s="65" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -2759,12 +2759,12 @@
       <c r="C8" s="30" t="n"/>
       <c r="D8" s="65" t="inlineStr">
         <is>
-          <t>{'accountId': '65166d39e119836feb867ce8', 'addr1': None, 'addr2': None, 'aemail': 'user@gmail.com', 'aphone': None, 'auth_params': None, 'city': None, 'company': None, 'department': None, 'email': 'user@gmail.com', 'enabled': True, 'fname': None, 'fphone': None, 'hphone': None, 'isServiceUser': False, 'lname': None, 'mname': None, 'password': 'Password@123', 'phone_type': 0, 'provider': None, 'pw_current': None, 'pw_new1': None, 'pw_new2': None, 'region_id': '65166d39e119836feb867cec', 'state': None, 'timezone': 'Asia/Kolkata', 'title': 'test_title', 'url': None, 'urole_id': '65166d39e119836feb867ce9', 'user_id': '65166d4a1a1e19a5219d8966', 'userName': 'TestUser436', 'wphone': None, 'zip': None}</t>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'addr1': None, 'addr2': None, 'aemail': 'user@gmail.com', 'aphone': None, 'auth_params': None, 'city': None, 'company': None, 'department': None, 'email': 'user@gmail.com', 'enabled': True, 'fname': None, 'fphone': None, 'hphone': None, 'isServiceUser': False, 'lname': None, 'mname': None, 'password': 'Password@123', 'phone_type': 0, 'provider': None, 'pw_current': None, 'pw_new1': None, 'pw_new2': None, 'region_id': '65166d39e119836feb867cec', 'state': None, 'timezone': 'Asia/Kolkata', 'title': 'test_title', 'url': None, 'urole_id': '65166d39e119836feb867ce9', 'user_id': '65166d4a1a1e19a5219d8966', 'userName': 'TestUser568', 'wphone': None, 'zip': None}</t>
         </is>
       </c>
       <c r="E8" s="65" t="inlineStr">
         <is>
-          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'TestUser436', 'userId': '651d80a3ff1976583fb013b9'}</t>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'status': 'ok', 'userName': 'TestUser568', 'userId': '651d8ba6ff1976583fb02c3f'}</t>
         </is>
       </c>
       <c r="F8" s="65" t="inlineStr">
@@ -2784,17 +2784,17 @@
       </c>
       <c r="I8" s="65" t="inlineStr">
         <is>
-          <t>20:41:15</t>
+          <t>21:28:18</t>
         </is>
       </c>
       <c r="J8" s="65" t="inlineStr">
         <is>
-          <t>20:41:33</t>
+          <t>21:28:31</t>
         </is>
       </c>
       <c r="K8" s="65" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>13.0</t>
         </is>
       </c>
     </row>
@@ -2808,12 +2808,12 @@
       <c r="C9" s="30" t="n"/>
       <c r="D9" s="65" t="inlineStr">
         <is>
-          <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': '  ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'user_id': '651689ec02302bffd7a8c2c5', 'pw_current': 'Right_1r1s', 'pw_new1': 'Right_1r1', 'pw_new2': 'Right_1r1'}</t>
+          <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': '  ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '65166d39e119836feb867ce9', 'region_id': '65166d39e119836feb867cec', 'user_id': '651d8bafff1976583fb02c56', 'pw_current': 'Right_1r1s', 'pw_new1': 'Right_1r1', 'pw_new2': 'Right_1r1'}</t>
         </is>
       </c>
       <c r="E9" s="65" t="inlineStr">
         <is>
-          <t>{'data': '651689ec02302bffd7a8c2c5', 'message': 'User  651689ec02302bffd7a8c2c5 is updated.', 'isSuccess': True}</t>
+          <t>{'data': '651d8bafff1976583fb02c56', 'message': 'User  651d8bafff1976583fb02c56 is updated.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F9" s="65" t="inlineStr">
@@ -2821,29 +2821,29 @@
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G9" s="37" t="inlineStr">
+      <c r="G9" s="69" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="H9" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : User  651689ec02302bffd7a8c2c5 is updated.</t>
+          <t>Response Status Code : 200 &amp; Message : User  651d8bafff1976583fb02c56 is updated.</t>
         </is>
       </c>
       <c r="I9" s="65" t="inlineStr">
         <is>
-          <t>20:41:33</t>
+          <t>21:28:31</t>
         </is>
       </c>
       <c r="J9" s="65" t="inlineStr">
         <is>
-          <t>13:55:20</t>
+          <t>21:28:48</t>
         </is>
       </c>
       <c r="K9" s="65" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>17.0</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       <c r="C11" s="30" t="n"/>
       <c r="D11" s="65" t="inlineStr">
         <is>
-          <t>{'Addr1': None, 'Addr2': None, 'Zip': None, 'Enabled': True, 'Pw_current': None, 'Region_id': '65166d39e119836feb867cec', 'Hphone': None, 'AccountId': '65166d39e119836feb867ce8', 'Fphone': None, 'Pw_new1': None, 'Pw_new2': None, 'City': None, 'Phone_type': None, 'Aphone': None, 'Url': None, 'User_id': '651d80bcff1976583fb01443', 'Urole_id': '65166d39e119836feb867ce9', 'State': None, 'Provider': None, 'Fname': None, 'Department': None, 'IsServiceUser': False, 'UserName': None, 'Lname': None, 'Wphone': None, 'Mname': None, 'Title': None, 'Timezone': 'Asia/Kolkata', 'Password': 'Password@123', 'Aemail': 'user@gmail.com', 'Email': 'user@gmail.com', 'Company': None, 'Auth_params': None}</t>
+          <t>{'Addr1': None, 'Addr2': None, 'Zip': None, 'Enabled': True, 'Pw_current': None, 'Region_id': '65166d39e119836feb867cec', 'Hphone': None, 'AccountId': '65166d39e119836feb867ce8', 'Fphone': None, 'Pw_new1': None, 'Pw_new2': None, 'City': None, 'Phone_type': None, 'Aphone': None, 'Url': None, 'User_id': '651d8bbfff1976583fb02c87', 'Urole_id': '65166d39e119836feb867ce9', 'State': None, 'Provider': None, 'Fname': None, 'Department': None, 'IsServiceUser': False, 'UserName': None, 'Lname': None, 'Wphone': None, 'Mname': None, 'Title': None, 'Timezone': 'Asia/Kolkata', 'Password': 'Password@123', 'Aemail': 'user@gmail.com', 'Email': 'user@gmail.com', 'Company': None, 'Auth_params': None}</t>
         </is>
       </c>
       <c r="E11" s="65" t="inlineStr">
         <is>
-          <t>{'data': '651d80bcff1976583fb01443', 'message': 'User  651d80bcff1976583fb01443 is updated.', 'isSuccess': True}</t>
+          <t>{'data': '651d8bbfff1976583fb02c87', 'message': 'User  651d8bbfff1976583fb02c87 is updated.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F11" s="65" t="inlineStr">
@@ -2926,22 +2926,22 @@
       </c>
       <c r="H11" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : User  651d80bcff1976583fb01443 is updated.</t>
+          <t>Response Status Code : 200 &amp; Message : User  651d8bbfff1976583fb02c87 is updated.</t>
         </is>
       </c>
       <c r="I11" s="65" t="inlineStr">
         <is>
-          <t>20:41:42</t>
+          <t>21:28:48</t>
         </is>
       </c>
       <c r="J11" s="65" t="inlineStr">
         <is>
-          <t>20:42:16</t>
+          <t>21:29:08</t>
         </is>
       </c>
       <c r="K11" s="65" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>20.0</t>
         </is>
       </c>
     </row>
@@ -2980,17 +2980,17 @@
       </c>
       <c r="I12" s="65" t="inlineStr">
         <is>
-          <t>20:42:17</t>
+          <t>21:29:08</t>
         </is>
       </c>
       <c r="J12" s="65" t="inlineStr">
         <is>
-          <t>20:42:22</t>
+          <t>21:29:14</t>
         </is>
       </c>
       <c r="K12" s="65" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="E13" s="65" t="inlineStr">
         <is>
-          <t>{'userInfo': {'users': [{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41', '651d7f20ff1976583fb00b04', '651d7f48ff1976583fb00cd3'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}, {'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ce702302bffd7a8bca5', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api759', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}], 'badPasswordCount': 0, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'regionName': 'Dmart', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167c6602302bffd7a8baaf', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972454000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c6602302bffd7a8baaf', 'username': 'Demo_user157', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167c7102302bffd7a8bac2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972465000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7102302bffd7a8bac2', 'username': 'test409580', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409580'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167c7b02302bffd7a8bad5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972475000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7b02302bffd7a8bad5', 'username': 'Demo_user147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167c8402302bffd7a8bae8', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972484000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c8402302bffd7a8bae8', 'username': 'test409867', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409867'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167c9f02302bffd7a8bb32', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972511000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c9f02302bffd7a8bb32', 'username': 'TestUser115', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser115'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167caa02302bffd7a8bb77', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972522000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167caa02302bffd7a8bb77', 'username': 'Demo_user1529', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cb402302bffd7a8bba2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972532000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cb402302bffd7a8bba2', 'username': 'Demo_user1409', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ced02302bffd7a8bccc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972589000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ced02302bffd7a8bccc', 'username': 'Demo_user1329', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cf502302bffd7a8bd00', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972597000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cf502302bffd7a8bd00', 'username': 'Demo_user1132', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167d1e02302bffd7a8bd8c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972638000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d1e02302bffd7a8bd8c', 'username': 'Demo_user1337', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'test address', 'address2': 'next address', 'city': 'test city', 'company': 'test comp', 'department': 'test department', 'email': 'test@yopmail.com', 'faxNumber': '12345', 'firstName': 'Ashish', 'homePhone': '9876543210', 'lastName': 'Chandra', 'state': 'test state', 'timezoneID': 'Asia/Kolkata', 'title': 'Test Title', 'workPhone': '9876543210', 'zip': '380005'}, 'enabled': 1, 'id': '65167d7c02302bffd7a8bdb0', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972732000, 'prefs': {'alertEMail': 'test19@yopmail.com', 'alertPhone': '9876543210', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'text.wireless.alltel.com', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'regionName': 'Dmart', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d7c02302bffd7a8bdb0', 'username': 'Milo118', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Chandra, Ashish'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'lastName': 'core', 'timezoneID': 'Pacific/Gambier'}, 'enabled': 1, 'id': '65167d9702302bffd7a8bdb7', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972759000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6516746002302bffd7a8b907', 'regionName': 'DESKTOP-660P8Q2', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d9702302bffd7a8bdb7', 'username': 'test', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core,'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e1a02302bffd7a8bdde', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972890000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e1a02302bffd7a8bdde', 'username': 'Demo_user1470', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e3e02302bffd7a8bdf1', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972926000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e3e02302bffd7a8bdf1', 'username': 'Demo_user144', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e9f02302bffd7a8be0a', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973023000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e9f02302bffd7a8be0a', 'username': 'Demo_user1327', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ea802302bffd7a8be20', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973032000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ea802302bffd7a8be20', 'username': 'test409885', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409885'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167eb102302bffd7a8be33', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973041000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eb102302bffd7a8be33', 'username': 'Demo_user1684', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167eba02302bffd7a8be46', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973050000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eba02302bffd7a8be46', 'username': 'test409370', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409370'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167ecf02302bffd7a8be6d', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973071000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ecf02302bffd7a8be6d', 'username': 'TestUser113', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser113'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ed802302bffd7a8be83', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973080000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ed802302bffd7a8be83', 'username': 'Demo_user1904', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ee902302bffd7a8beac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973097000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ee902302bffd7a8beac', 'username': 'Demo_user125', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user125'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167f5c02302bffd7a8bfb4', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973212000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167f5c02302bffd7a8bfb4', 'username': 'TestUser898', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser898'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167fb202302bffd7a8bffc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973298000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167fb202302bffd7a8bffc', 'username': 'TestUser719', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser719'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516802502302bffd7a8c00f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973413000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802502302bffd7a8c00f', 'username': 'Demo_user1611', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516802e02302bffd7a8c022', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973422000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802e02302bffd7a8c022', 'username': 'test409585', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409585'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '6516803702302bffd7a8c035', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973431000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516803702302bffd7a8c035', 'username': 'Demo_user1547', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '6516804002302bffd7a8c048', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973440000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516804002302bffd7a8c048', 'username': 'test409969', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409969'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '6516805502302bffd7a8c06c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973461000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805502302bffd7a8c06c', 'username': 'TestUser963', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser963'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516805e02302bffd7a8c07f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973470000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805e02302bffd7a8c07f', 'username': 'Demo_user1312', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516806e02302bffd7a8c0ac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973486000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516806e02302bffd7a8c0ac', 'username': 'Demo_user1212', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user1212'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689c502302bffd7a8c255', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975877000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689c502302bffd7a8c255', 'username': 'Demo_user1742', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651689cb02302bffd7a8c268', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975883000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689cb02302bffd7a8c268', 'username': 'test409147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409147'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '651689d102302bffd7a8c27b', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975889000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d102302bffd7a8c27b', 'username': 'Demo_user1783', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '651689d702302bffd7a8c28e', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975895000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d702302bffd7a8c28e', 'username': 'test409715', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409715'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user</t>
+          <t>{'userInfo': {'users': [{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41', '651d7f20ff1976583fb00b04', '651d7f48ff1976583fb00cd3', '651d8a20ff1976583fb025e7'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}, {'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ce702302bffd7a8bca5', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api759', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}], 'badPasswordCount': 0, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'regionName': 'Dmart', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167c6602302bffd7a8baaf', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972454000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c6602302bffd7a8baaf', 'username': 'Demo_user157', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167c7102302bffd7a8bac2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972465000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7102302bffd7a8bac2', 'username': 'test409580', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409580'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167c7b02302bffd7a8bad5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972475000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c7b02302bffd7a8bad5', 'username': 'Demo_user147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167c8402302bffd7a8bae8', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972484000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c8402302bffd7a8bae8', 'username': 'test409867', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409867'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167c9f02302bffd7a8bb32', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972511000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167c9f02302bffd7a8bb32', 'username': 'TestUser115', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser115'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167caa02302bffd7a8bb77', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972522000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167caa02302bffd7a8bb77', 'username': 'Demo_user1529', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cb402302bffd7a8bba2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972532000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cb402302bffd7a8bba2', 'username': 'Demo_user1409', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ced02302bffd7a8bccc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972589000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ced02302bffd7a8bccc', 'username': 'Demo_user1329', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167cf502302bffd7a8bd00', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972597000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167cf502302bffd7a8bd00', 'username': 'Demo_user1132', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167d1e02302bffd7a8bd8c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972638000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d1e02302bffd7a8bd8c', 'username': 'Demo_user1337', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'test address', 'address2': 'next address', 'city': 'test city', 'company': 'test comp', 'department': 'test department', 'email': 'test@yopmail.com', 'faxNumber': '12345', 'firstName': 'Ashish', 'homePhone': '9876543210', 'lastName': 'Chandra', 'state': 'test state', 'timezoneID': 'Asia/Kolkata', 'title': 'Test Title', 'workPhone': '9876543210', 'zip': '380005'}, 'enabled': 1, 'id': '65167d7c02302bffd7a8bdb0', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972732000, 'prefs': {'alertEMail': 'test19@yopmail.com', 'alertPhone': '9876543210', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'text.wireless.alltel.com', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'regionName': 'Dmart', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d7c02302bffd7a8bdb0', 'username': 'Milo118', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Chandra, Ashish'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'lastName': 'core', 'timezoneID': 'Pacific/Gambier'}, 'enabled': 1, 'id': '65167d9702302bffd7a8bdb7', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972759000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '6516746002302bffd7a8b907', 'regionName': 'DESKTOP-660P8Q2', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167d9702302bffd7a8bdb7', 'username': 'test', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core,'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e1a02302bffd7a8bdde', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972890000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e1a02302bffd7a8bdde', 'username': 'Demo_user1470', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e3e02302bffd7a8bdf1', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695972926000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e3e02302bffd7a8bdf1', 'username': 'Demo_user144', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167e9f02302bffd7a8be0a', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973023000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167e9f02302bffd7a8be0a', 'username': 'Demo_user1327', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ea802302bffd7a8be20', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973032000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ea802302bffd7a8be20', 'username': 'test409885', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409885'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '65167eb102302bffd7a8be33', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973041000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eb102302bffd7a8be33', 'username': 'Demo_user1684', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '65167eba02302bffd7a8be46', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973050000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167eba02302bffd7a8be46', 'username': 'test409370', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409370'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167ecf02302bffd7a8be6d', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973071000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ecf02302bffd7a8be6d', 'username': 'TestUser113', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser113'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '65167ed802302bffd7a8be83', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973080000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ed802302bffd7a8be83', 'username': 'Demo_user1904', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65167ee902302bffd7a8beac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973097000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167ee902302bffd7a8beac', 'username': 'Demo_user125', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user125'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167f5c02302bffd7a8bfb4', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973212000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167f5c02302bffd7a8bfb4', 'username': 'TestUser898', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser898'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '65167fb202302bffd7a8bffc', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973298000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65167fb202302bffd7a8bffc', 'username': 'TestUser719', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser719'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516802502302bffd7a8c00f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973413000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802502302bffd7a8c00f', 'username': 'Demo_user1611', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516802e02302bffd7a8c022', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973422000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516802e02302bffd7a8c022', 'username': 'test409585', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409585'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '6516803702302bffd7a8c035', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973431000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516803702302bffd7a8c035', 'username': 'Demo_user1547', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '6516804002302bffd7a8c048', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973440000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516804002302bffd7a8c048', 'username': 'test409969', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409969'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '6516805502302bffd7a8c06c', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973461000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805502302bffd7a8c06c', 'username': 'TestUser963', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'TestUser963'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '6516805e02302bffd7a8c07f', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973470000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516805e02302bffd7a8c07f', 'username': 'Demo_user1312', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '6516806e02302bffd7a8c0ac', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695973486000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '6516806e02302bffd7a8c0ac', 'username': 'Demo_user1212', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'Demo_user1212'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651689c502302bffd7a8c255', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975877000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689c502302bffd7a8c255', 'username': 'Demo_user1742', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651689cb02302bffd7a8c268', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975883000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689cb02302bffd7a8c268', 'username': 'test409147', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409147'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '651689d102302bffd7a8c27b', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975889000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d102302bffd7a8c27b', 'username': 'Demo_user1783', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'testLname, testFname'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '651689d702302bffd7a8c28e', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695975895000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cec', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651689d702302bffd7a8c28e', 'username': 'test409715', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'test409715'}, {'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0</t>
         </is>
       </c>
       <c r="F13" s="65" t="inlineStr">
@@ -3029,12 +3029,12 @@
       </c>
       <c r="I13" s="65" t="inlineStr">
         <is>
-          <t>20:42:23</t>
+          <t>21:29:14</t>
         </is>
       </c>
       <c r="J13" s="65" t="inlineStr">
         <is>
-          <t>20:42:33</t>
+          <t>21:29:24</t>
         </is>
       </c>
       <c r="K13" s="65" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="E14" s="65" t="inlineStr">
         <is>
-          <t>{'userInfo': {'users': [{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41', '651d7f20ff1976583fb00b04', '651d7f48ff1976583fb00cd3'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}, {'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ce702302bffd7a8bca5', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api759', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}], 'badPasswordCount': 0, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'regionName': 'Dmart', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}]}}</t>
+          <t>{'userInfo': {'users': [{'accountId': '65166d39e119836feb867ce8', 'accountLockedOut': 0, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41', '651d7f20ff1976583fb00b04', '651d7f48ff1976583fb00cd3', '651d8a20ff1976583fb025e7'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}, {'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ce702302bffd7a8bca5', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api759', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}], 'badPasswordCount': 0, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '65166d4a1a1e19a5219d8966', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1695968586000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '65166d39e119836feb867cea', 'regionName': 'Dmart', 'roleId': '65166d39e119836feb867ce9', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '65166d4a1a1e19a5219d8966', 'username': 'core', 'userRoleId': '65166d39e119836feb867ce9', 'displayName': 'core'}]}}</t>
         </is>
       </c>
       <c r="F14" s="65" t="n"/>
@@ -3074,17 +3074,17 @@
       </c>
       <c r="I14" s="65" t="inlineStr">
         <is>
-          <t>20:42:34</t>
+          <t>21:29:25</t>
         </is>
       </c>
       <c r="J14" s="65" t="inlineStr">
         <is>
-          <t>20:42:41</t>
+          <t>21:29:31</t>
         </is>
       </c>
       <c r="K14" s="65" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -3119,17 +3119,17 @@
       </c>
       <c r="I15" s="65" t="inlineStr">
         <is>
-          <t>20:42:42</t>
+          <t>21:29:31</t>
         </is>
       </c>
       <c r="J15" s="65" t="inlineStr">
         <is>
-          <t>20:42:49</t>
+          <t>21:29:35</t>
         </is>
       </c>
       <c r="K15" s="65" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -3164,17 +3164,17 @@
       </c>
       <c r="I16" s="65" t="inlineStr">
         <is>
-          <t>20:42:49</t>
+          <t>21:29:35</t>
         </is>
       </c>
       <c r="J16" s="65" t="inlineStr">
         <is>
-          <t>20:42:54</t>
+          <t>21:29:39</t>
         </is>
       </c>
       <c r="K16" s="65" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -3209,17 +3209,17 @@
       </c>
       <c r="I17" s="65" t="inlineStr">
         <is>
-          <t>20:42:55</t>
+          <t>21:29:39</t>
         </is>
       </c>
       <c r="J17" s="65" t="inlineStr">
         <is>
-          <t>20:43:01</t>
+          <t>21:29:42</t>
         </is>
       </c>
       <c r="K17" s="65" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -3254,17 +3254,17 @@
       </c>
       <c r="I18" s="65" t="inlineStr">
         <is>
-          <t>20:43:01</t>
+          <t>21:29:43</t>
         </is>
       </c>
       <c r="J18" s="65" t="inlineStr">
         <is>
-          <t>20:43:13</t>
+          <t>21:29:51</t>
         </is>
       </c>
       <c r="K18" s="65" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="E19" s="65" t="inlineStr">
         <is>
-          <t>{'data': '651d8114ff1976583fb015a6', 'message': 'User with UserId: 651d8114ff1976583fb015a6 was removed.', 'isSuccess': True}</t>
+          <t>{'data': '651d8bfeff1976583fb02d5b', 'message': 'User with UserId: 651d8bfeff1976583fb02d5b was removed.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F19" s="65" t="n"/>
@@ -3299,17 +3299,17 @@
       </c>
       <c r="I19" s="65" t="inlineStr">
         <is>
-          <t>20:43:13</t>
+          <t>21:29:51</t>
         </is>
       </c>
       <c r="J19" s="65" t="inlineStr">
         <is>
-          <t>20:43:29</t>
+          <t>21:30:01</t>
         </is>
       </c>
       <c r="K19" s="65" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="E20" s="65" t="inlineStr">
         <is>
-          <t>{'data': '651d8124ff1976583fb015da', 'message': 'User with UserId: 651d8124ff1976583fb015da was removed.', 'isSuccess': True}</t>
+          <t>{'data': '651d8c09ff1976583fb02d7f', 'message': 'User with UserId: 651d8c09ff1976583fb02d7f was removed.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F20" s="65" t="n"/>
@@ -3344,17 +3344,17 @@
       </c>
       <c r="I20" s="65" t="inlineStr">
         <is>
-          <t>20:43:29</t>
+          <t>21:30:01</t>
         </is>
       </c>
       <c r="J20" s="65" t="inlineStr">
         <is>
-          <t>20:43:44</t>
+          <t>21:30:12</t>
         </is>
       </c>
       <c r="K20" s="65" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>11.0</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3461,12 @@
       <c r="C2" s="39" t="n"/>
       <c r="D2" s="39" t="inlineStr">
         <is>
-          <t>{'CgroupId': '651d8416ff1976583fb019f6', 'OptOut': False, 'Basis': 1, 'Action': 'call police', 'ActivityType': 'BOMB THREAT', 'BodyMarkings': 'mole on han', 'Build': 'build', 'CaseEventType': 'STORE THREAT', 'CaseNumber': 'theft', 'Enabled': 1, 'Gender': 'MALE', 'HeightType': '5.0-5.5', 'MethodOffence': 'GRAB AND DASH', 'NarrativeDesc': 'narratives', 'ProfileId': '65166d3be119836feb867d23', 'ReportedBy': 'admin', 'ReportedLoss': 5000, 'StoreId': 'pune', 'TimeIncident': '09/29/2023 13:24', 'RegionId': '65166d39e119836feb867cea'}</t>
+          <t>{'CgroupId': '651d8a37ff1976583fb026bc', 'OptOut': False, 'Basis': 1, 'Action': 'call police', 'ActivityType': 'BOMB THREAT', 'BodyMarkings': 'mole on han', 'Build': 'build', 'CaseEventType': 'STORE THREAT', 'CaseNumber': 'theft', 'Enabled': 1, 'Gender': 'MALE', 'HeightType': '5.0-5.5', 'MethodOffence': 'GRAB AND DASH', 'NarrativeDesc': 'narratives', 'ProfileId': '65166d3be119836feb867d23', 'ReportedBy': 'admin', 'ReportedLoss': 5000, 'StoreId': 'pune', 'TimeIncident': '09/29/2023 13:24', 'RegionId': '65166d39e119836feb867cea'}</t>
         </is>
       </c>
       <c r="E2" s="39" t="inlineStr">
         <is>
-          <t>{'enroll': {'images': [{'confidence': 0.9980553388595581, 'foundEyes': True, 'leftX': 86.5, 'leftY': 109.5, 'maskedFace': 0.19413532316684723, 'nonMaskedFace': 0.805864691734314, 'demographics': {'male': 0.9040898308157921, 'age': 0.4648215174674988, 'indian': 0.002180504845455289, 'white': 0.9902250170707703, 'black': 0.001278943964280188, 'female': 0.09591016918420792, 'other': 0.005713979713618755, 'asian': 0.0006015662220306695, 'unknown': 0, 'ethnicity': 'Unknown'}, 'rightX': 52.5, 'rightY': 116.5, 'sampleQualityTooLow': False}], 'success': True, 'caseId': '651d841fff1976583fb01a19'}}</t>
+          <t>{'enroll': {'images': [{'confidence': 0.9980553388595581, 'foundEyes': True, 'leftX': 86.5, 'leftY': 109.5, 'maskedFace': 0.19413532316684723, 'nonMaskedFace': 0.805864691734314, 'demographics': {'male': 0.9040898308157921, 'age': 0.4648215174674988, 'indian': 0.002180504845455289, 'white': 0.9902250170707703, 'black': 0.001278943964280188, 'female': 0.09591016918420792, 'other': 0.005713979713618755, 'asian': 0.0006015662220306695, 'unknown': 0, 'ethnicity': 'Unknown'}, 'rightX': 52.5, 'rightY': 116.5, 'sampleQualityTooLow': False}], 'success': True, 'caseId': '651d8a40ff1976583fb026df'}}</t>
         </is>
       </c>
       <c r="F2" s="39" t="inlineStr">
@@ -3486,12 +3486,12 @@
       </c>
       <c r="I2" s="39" t="inlineStr">
         <is>
-          <t>20:56:07</t>
+          <t>21:22:15</t>
         </is>
       </c>
       <c r="J2" s="39" t="inlineStr">
         <is>
-          <t>20:56:26</t>
+          <t>21:22:34</t>
         </is>
       </c>
       <c r="K2" s="39" t="inlineStr">
@@ -3509,7 +3509,7 @@
       <c r="C3" s="39" t="n"/>
       <c r="D3" s="39" t="inlineStr">
         <is>
-          <t>{'fields': ['BodyMarkings'], 'caseId': '651d8432ff1976583fb01a56'}</t>
+          <t>{'fields': ['BodyMarkings'], 'caseId': '651d8a57ff1976583fb0271c'}</t>
         </is>
       </c>
       <c r="E3" s="39" t="inlineStr">
@@ -3534,24 +3534,59 @@
       </c>
       <c r="I3" s="39" t="inlineStr">
         <is>
-          <t>20:56:26</t>
+          <t>21:22:34</t>
         </is>
       </c>
       <c r="J3" s="39" t="inlineStr">
         <is>
-          <t>20:56:47</t>
+          <t>21:22:59</t>
         </is>
       </c>
       <c r="K3" s="39" t="inlineStr">
         <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Test_03</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'caseId': '651d8a6cff1976583fb02767'}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>{'faceInfo': {'caseId': '651d8a6cff1976583fb02767', 'faces': [{'confidence': 0.9980553388595581, 'create': 0, 'eyelx': 86.5, 'eyely': 109.5, 'eyerx': 52.5, 'eyery': 116.5, 'faceId': '11f0c98574b4230dffc83c0aeb478f7b', 'maskedFace': 0.19413532316684723, 'ncases': 98, 'nonMaskedFace': 0.805864691734314, 'update': 1696434797339, 'geocode': []}]}}</t>
+        </is>
+      </c>
+      <c r="G4" s="74" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>21:22:59</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>21:23:20</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>21.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>21:02:12</t>
         </is>
       </c>
     </row>
@@ -3583,17 +3618,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>20:57:07</t>
+          <t>21:23:20</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20:57:27</t>
+          <t>21:23:51</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>31.0</t>
         </is>
       </c>
     </row>
@@ -3610,7 +3645,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'id': {'processed': {'confidence': 0.9980553388595581, 'foundEyes': True, 'leftX': 86.5, 'leftY': 109.5, 'maskedFace': 0.19413532316684723, 'metrics': [{'pass': True, 'name': 'isEyesOpen', 'score': 0.06381016224622726}, {'pass': True, 'name': 'isEyesOpenV2', 'score': 0.5921568274497986}, {'pass': True, 'name': 'exposureImage', 'score': 0.5369047522544861}, {'pass': True, 'name': 'exposureFace', 'score': 0.8034345507621765}, {'pass': True, 'name': 'exposureImageV2', 'score': 0.754365086555481}, {'pass': True, 'name': 'exposureFaceV2', 'score': 0.9571049213409424}, {'pass': False, 'name': 'isBackgroundUniformBestPractice', 'score': 0.17647618055343628}, {'pass': False, 'name': 'isFrontalBestPractice', 'score': 0.5086395740509033}, {'pass': False, 'name': 'isFrontalBestPracticeV2', 'score': 0.6678302884101868}, {'pass': True, 'name': 'isLightingUniform', 'score': 0.9003337621688843}, {'pass': True, 'name': 'isLightingUniformV2', 'score': 0.9385245442390442}, {'pass': False, 'name': 'isSharpFace', 'score': 0.0029944777488708496}, {'pass': True, 'name': 'isSharpFaceV2', 'score': 0.6978566646575928}, {'pass': True, 'name': 'isSharpFaceV3', 'score': 0.0603606179356575}, {'pass': True, 'name': 'isMouthClosed', 'score': 0.8756683468818665}, {'pass': False, 'name': 'isMouthClosedV2', 'score': 0.5471698045730591}, {'pass': True, 'name': 'resolution', 'score': 0.12197083234786987}, {'pass': True, 'name': 'isHeadPositionCentral', 'score': 0.8840938210487366}, {'pass': True, 'name': 'isDistanceToCameraTooNear', 'score': 0.37474119663238525}, {'pass': True, 'name': 'isDistanceToCameraTooFar', 'score': 0.6252588033676147}, {'pass': True, 'name': 'isFaceRatioBestPractice', 'score': 0.738095223903656}, {'pass': True, 'name': 'noHotSpots', 'score': 1}, {'pass': True, 'name': 'skinPixels', 'score': 0.7421875}, {'pass': True, 'name': 'noGlasses', 'score': 0.8416612148284912}, {'pass': True, 'name': 'noTintedGlasses', 'score': 0.8258835077285767}, {'pass': False, 'name': 'isNonFace', 'score': 0.06287305057048798}, {'pass': False, 'name': 'isMaskedFace', 'score': 0.19413532316684723}, {'pass': True, 'name': 'isNonMaskedFace', 'score': 0.805864691734314}], 'nonMaskedFace': 0.805864691734314, 'demographics': {'male': 0.9040898308157921, 'age': 0.4648215174674988, 'indian': 0.002180504845455289, 'white': 0.9902250170707703, 'black': 0.001278943964280188, 'female': 0.09591016918420792, 'other': 0.005713979713618755, 'asian': 0.0006015662220306695, 'unknown': 0, 'ethnicity': 'Unknown'}, 'rightX': 52.5, 'rightY': 116.5, 'sampleQualityTooLow': False}, 'matches': [{'score': 0.994413435459137, 'caseId': '651d37fdff1976583fafdf94'}, {'score': 0.994413435459137, 'caseId': '651d3b5dff1976583fafe0c8'}, {'score': 0.994413435459137, 'caseId': '651d4674ff1976583fafe6e9'}, {'score': 0.994413435459137, 'caseId': '651d59dfff1976583faff081'}, {'score': 0.994413435459137, 'caseId': '651d585bff1976583fafefc7'}, {'score': 0.994413435459137, 'caseId': '651d598aff1976583faff036'}, {'score': 0.994413435459137, 'caseId': '651d5ce6ff1976583faff3a3'}, {'score': 0.994413435459137, 'caseId': '651d63beff1976583faff6f5'}, {'score': 0.994413435459137, 'caseId': '651d63f5ff1976583faff739'}, {'score': 0.994413435459137, 'caseId': '651d6441ff1976583faff77d'}, {'score': 0.994413435459137, 'caseId': '651d6498ff1976583faff7c1'}, {'score': 0.994413435459137, 'caseId': '651d64bfff1976583faff809'}, {'score': 0.994413435459137, 'caseId': '651d6608ff1976583faff9b4'}, {'score': 0.994413435459137, 'caseId': '651d66d3ff1976583faffa44'}, {'score': 0.994413435459137, 'caseId': '651d6705ff1976583faffaa9'}, {'score': 0.994413435459137, 'caseId': '651d6730ff1976583faffbc7'}, {'score': 0.994413435459137, 'caseId': '651d67b7ff1976583faffc81'}, {'score': 0.994413435459137, 'caseId': '651d682bff1976583faffce1'}, {'score': 0.994413435459137, 'caseId': '651d6860ff1976583faffd29'}, {'score': 0.994413435459137, 'caseId': '651d69acff1976583faffdb1'}, {'score': 0.994413435459137, 'caseId': '651d69e2ff1976583faffe18'}, {'score': 0.994413435459137, 'caseId': '651d6a92ff1976583faffe7f'}, {'score': 0.994413435459137, 'caseId': '651d6ad0ff1976583faffec7'}, {'score': 0.994413435459137, 'caseId': '651d6b13ff1976583fafff2f'}, {'score': 0.994413435459137, 'caseId': '651d6b4eff1976583fafff98'}, {'score': 0.994413435459137, 'caseId': '651d6b8bff1976583fafffe0'}, {'score': 0.994413435459137, 'caseId': '651d6d4fff1976583fb0042c'}, {'score': 0.994413435459137, 'caseId': '651d741aff1976583fb00742'}, {'score': 0.994413435459137, 'caseId': '651d743fff1976583fb007c8'}, {'score': 0.994413435459137, 'caseId': '651d7f53ff1976583fb00d44'}, {'score': 0.994413435459137, 'caseId': '651d7f70ff1976583fb00df6'}, {'score': 0.994413435459137, 'caseId': '651d7f75ff1976583fb00e14'}, {'score': 0.994413435459137, 'caseId': '651d7f8cff1976583fb00e7e'}, {'score': 0.994413435459137, 'caseId': '651d7f8cff1976583fb00e87'}, {'score': 0.994413435459137, 'caseId': '651d7fa2ff1976583fb00f06'}, {'score': 0.994413435459137, 'caseId': '651d7fa6ff1976583fb00f16'}, {'score': 0.994413435459137, 'caseId': '651d7fb5ff1976583fb00f79'}, {'score': 0.994413435459137, 'caseId': '651d7fcbff1976583fb00fcb'}, {'score': 0.994413435459137, 'caseId': '651d7fceff1976583fb00fe2'}, {'score': 0.994413435459137, 'caseId': '651d7fe2ff1976583fb0105a'}, {'score': 0.994413435459137, 'caseId': '651d7fe5ff1976583fb01063'}, {'score': 0.994413435459137, 'caseId': '651d8116ff1976583fb015ac'}, {'score': 0.994413435459137, 'caseId': '651d8174ff1976583fb01636'}, {'score': 0.994413435459137, 'caseId': '651d8191ff1976583fb01673'}, {'score': 0.994413435459137, 'caseId': '651d81aeff1976583fb016b7'}, {'score': 0.994413435459137, 'caseId': '651d81c7ff1976583fb016fb'}, {'score': 0.994413435459137, 'caseId': '651d81e3ff1976583fb01743'}, {'score': 0.994413435459137, 'caseId': '651d81f9ff1976583fb017a6'}, {'score': 0.994413435459137, 'caseId': '651d8200ff1976583fb017d2'}, {'score': 0.994413435459137, 'caseId': '651d8223ff1976583fb01839'}, {'score': 0.994413435459137, 'caseId': '651d841fff1976583fb01a19'}, {'score': 0.994413435459137, 'caseId': '651d8432ff1976583fb01a56'}, {'score': 0.994413435459137, 'caseId': '651d8448ff1976583fb01aa1'}, {'score': 0.994413435459137, 'caseId': '651d845bff1976583fb01ae5'}, {'score': 0.994413435459137, 'caseId': '651d8470ff1976583fb01b29'}], 'matched': [{'caseId': '651d37fdff1976583fafdf94', 'rank': 1, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d37fdff1976583fafdf94', 'approvalDate': '2023-10-04T10:01:33.383Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d37f0ff1976583fafdf61'], 'enabled': 1, 'enrolled': 1696413693383, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T10:01:33.383Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}]}}</t>
+          <t>{'id': {'processed': {'confidence': 0.9980553388595581, 'foundEyes': True, 'leftX': 86.5, 'leftY': 109.5, 'maskedFace': 0.19413532316684723, 'metrics': [{'pass': True, 'name': 'isEyesOpen', 'score': 0.06381016224622726}, {'pass': True, 'name': 'isEyesOpenV2', 'score': 0.5921568274497986}, {'pass': True, 'name': 'exposureImage', 'score': 0.5369047522544861}, {'pass': True, 'name': 'exposureFace', 'score': 0.8034345507621765}, {'pass': True, 'name': 'exposureImageV2', 'score': 0.754365086555481}, {'pass': True, 'name': 'exposureFaceV2', 'score': 0.9571049213409424}, {'pass': False, 'name': 'isBackgroundUniformBestPractice', 'score': 0.17647618055343628}, {'pass': False, 'name': 'isFrontalBestPractice', 'score': 0.5086395740509033}, {'pass': False, 'name': 'isFrontalBestPracticeV2', 'score': 0.6678302884101868}, {'pass': True, 'name': 'isLightingUniform', 'score': 0.9003337621688843}, {'pass': True, 'name': 'isLightingUniformV2', 'score': 0.9385245442390442}, {'pass': False, 'name': 'isSharpFace', 'score': 0.0029944777488708496}, {'pass': True, 'name': 'isSharpFaceV2', 'score': 0.6978566646575928}, {'pass': True, 'name': 'isSharpFaceV3', 'score': 0.0603606179356575}, {'pass': True, 'name': 'isMouthClosed', 'score': 0.8756683468818665}, {'pass': False, 'name': 'isMouthClosedV2', 'score': 0.5471698045730591}, {'pass': True, 'name': 'resolution', 'score': 0.12197083234786987}, {'pass': True, 'name': 'isHeadPositionCentral', 'score': 0.8840938210487366}, {'pass': True, 'name': 'isDistanceToCameraTooNear', 'score': 0.37474119663238525}, {'pass': True, 'name': 'isDistanceToCameraTooFar', 'score': 0.6252588033676147}, {'pass': True, 'name': 'isFaceRatioBestPractice', 'score': 0.738095223903656}, {'pass': True, 'name': 'noHotSpots', 'score': 1}, {'pass': True, 'name': 'skinPixels', 'score': 0.7421875}, {'pass': True, 'name': 'noGlasses', 'score': 0.8416612148284912}, {'pass': True, 'name': 'noTintedGlasses', 'score': 0.8258835077285767}, {'pass': False, 'name': 'isNonFace', 'score': 0.06287305057048798}, {'pass': False, 'name': 'isMaskedFace', 'score': 0.19413532316684723}, {'pass': True, 'name': 'isNonMaskedFace', 'score': 0.805864691734314}], 'nonMaskedFace': 0.805864691734314, 'demographics': {'male': 0.9040898308157921, 'age': 0.4648215174674988, 'indian': 0.002180504845455289, 'white': 0.9902250170707703, 'black': 0.001278943964280188, 'female': 0.09591016918420792, 'other': 0.005713979713618755, 'asian': 0.0006015662220306695, 'unknown': 0, 'ethnicity': 'Unknown'}, 'rightX': 52.5, 'rightY': 116.5, 'sampleQualityTooLow': False}, 'matches': [{'score': 0.994413435459137, 'caseId': '651d37fdff1976583fafdf94'}, {'score': 0.994413435459137, 'caseId': '651d3b5dff1976583fafe0c8'}, {'score': 0.994413435459137, 'caseId': '651d4674ff1976583fafe6e9'}, {'score': 0.994413435459137, 'caseId': '651d59dfff1976583faff081'}, {'score': 0.994413435459137, 'caseId': '651d86c8ff1976583fb01d5c'}, {'score': 0.994413435459137, 'caseId': '651d585bff1976583fafefc7'}, {'score': 0.994413435459137, 'caseId': '651d598aff1976583faff036'}, {'score': 0.994413435459137, 'caseId': '651d5ce6ff1976583faff3a3'}, {'score': 0.994413435459137, 'caseId': '651d63beff1976583faff6f5'}, {'score': 0.994413435459137, 'caseId': '651d63f5ff1976583faff739'}, {'score': 0.994413435459137, 'caseId': '651d6441ff1976583faff77d'}, {'score': 0.994413435459137, 'caseId': '651d6498ff1976583faff7c1'}, {'score': 0.994413435459137, 'caseId': '651d64bfff1976583faff809'}, {'score': 0.994413435459137, 'caseId': '651d6608ff1976583faff9b4'}, {'score': 0.994413435459137, 'caseId': '651d66d3ff1976583faffa44'}, {'score': 0.994413435459137, 'caseId': '651d6705ff1976583faffaa9'}, {'score': 0.994413435459137, 'caseId': '651d6730ff1976583faffbc7'}, {'score': 0.994413435459137, 'caseId': '651d67b7ff1976583faffc81'}, {'score': 0.994413435459137, 'caseId': '651d682bff1976583faffce1'}, {'score': 0.994413435459137, 'caseId': '651d6860ff1976583faffd29'}, {'score': 0.994413435459137, 'caseId': '651d69acff1976583faffdb1'}, {'score': 0.994413435459137, 'caseId': '651d69e2ff1976583faffe18'}, {'score': 0.994413435459137, 'caseId': '651d6a92ff1976583faffe7f'}, {'score': 0.994413435459137, 'caseId': '651d6ad0ff1976583faffec7'}, {'score': 0.994413435459137, 'caseId': '651d6b13ff1976583fafff2f'}, {'score': 0.994413435459137, 'caseId': '651d6b4eff1976583fafff98'}, {'score': 0.994413435459137, 'caseId': '651d6b8bff1976583fafffe0'}, {'score': 0.994413435459137, 'caseId': '651d6d4fff1976583fb0042c'}, {'score': 0.994413435459137, 'caseId': '651d741aff1976583fb00742'}, {'score': 0.994413435459137, 'caseId': '651d743fff1976583fb007c8'}, {'score': 0.994413435459137, 'caseId': '651d7f53ff1976583fb00d44'}, {'score': 0.994413435459137, 'caseId': '651d7f70ff1976583fb00df6'}, {'score': 0.994413435459137, 'caseId': '651d7f75ff1976583fb00e14'}, {'score': 0.994413435459137, 'caseId': '651d7f8cff1976583fb00e7e'}, {'score': 0.994413435459137, 'caseId': '651d7f8cff1976583fb00e87'}, {'score': 0.994413435459137, 'caseId': '651d7fa2ff1976583fb00f06'}, {'score': 0.994413435459137, 'caseId': '651d7fa6ff1976583fb00f16'}, {'score': 0.994413435459137, 'caseId': '651d7fb5ff1976583fb00f79'}, {'score': 0.994413435459137, 'caseId': '651d7fcbff1976583fb00fcb'}, {'score': 0.994413435459137, 'caseId': '651d7fceff1976583fb00fe2'}, {'score': 0.994413435459137, 'caseId': '651d7fe2ff1976583fb0105a'}, {'score': 0.994413435459137, 'caseId': '651d7fe5ff1976583fb01063'}, {'score': 0.994413435459137, 'caseId': '651d8116ff1976583fb015ac'}, {'score': 0.994413435459137, 'caseId': '651d8174ff1976583fb01636'}, {'score': 0.994413435459137, 'caseId': '651d8191ff1976583fb01673'}, {'score': 0.994413435459137, 'caseId': '651d81aeff1976583fb016b7'}, {'score': 0.994413435459137, 'caseId': '651d81c7ff1976583fb016fb'}, {'score': 0.994413435459137, 'caseId': '651d81e3ff1976583fb01743'}, {'score': 0.994413435459137, 'caseId': '651d81f9ff1976583fb017a6'}, {'score': 0.994413435459137, 'caseId': '651d8200ff1976583fb017d2'}, {'score': 0.994413435459137, 'caseId': '651d8223ff1976583fb01839'}, {'score': 0.994413435459137, 'caseId': '651d841fff1976583fb01a19'}, {'score': 0.994413435459137, 'caseId': '651d8432ff1976583fb01a56'}, {'score': 0.994413435459137, 'caseId': '651d8448ff1976583fb01aa1'}, {'score': 0.994413435459137, 'caseId': '651d845bff1976583fb01ae5'}, {'score': 0.994413435459137, 'caseId': '651d8470ff1976583fb01b29'}, {'score': 0.994413435459137, 'caseId': '651d8487ff1976583fb01be5'}, {'score': 0.994413435459137, 'caseId': '651d84c2ff1976583fb01c4c'}, {'score': 0.994413435459137, 'caseId': '651d858cff1976583fb01c90'}, {'score': 0.994413435459137, 'caseId': '651d86a4ff1976583fb01cd4'}, {'score': 0.994413435459137, 'caseId': '651d86b4ff1976583fb01d11'}, {'score': 0.994413435459137, 'caseId': '651d86d9ff1976583fb01da0'}, {'score': 0.994413435459137, 'caseId': '651d86ecff1976583fb01de4'}, {'score': 0.994413435459137, 'caseId': '651d8701ff1976583fb01eb0'}, {'score': 0.994413435459137, 'caseId': '651d8788ff1976583fb01f60'}, {'score': 0.994413435459137, 'caseId': '651d87eeff1976583fb01fa4'}, {'score': 0.994413435459137, 'caseId': '651d886dff1976583fb02122'}, {'score': 0.994413435459137, 'caseId': '651d8a40ff1976583fb026df'}, {'score': 0.994413435459137, 'caseId': '651d8a57ff1976583fb0271c'}, {'score': 0.994413435459137, 'caseId': '651d8a6cff1976583fb02767'}, {'score': 0.994413435459137, 'caseId': '651d8a8bff1976583fb027af'}, {'score': 0.994413435459137, 'caseId': '651d8aa1ff1976583fb027f3'}], 'matched': [{'caseId': '651d37fdff1976583fafdf94', 'rank': 1, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d37fdff1976583fafdf94', 'approvalDate': '2023-10-04T10:01:33.383Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d37f0ff1976583fafdf61'], 'enabled': 1, 'enrolled': 1696413693383, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T10:01:33.383Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d3b5dff1976583fafe0c8', 'rank': 2, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d3b5dff1976583fafe0c8', 'approvalDate': '2023-10-04T10:15:57.195Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d3b50ff1976583fafe0a5'], 'enabled': 1, 'enrolled': 1696414557195, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T10:15:57.195Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d4674ff1976583fafe6e9', 'rank': 3, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d4674ff1976583fafe6e9', 'approvalDate': '2023-10-04T11:03:16.659Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d4668ff1976583fafe6bf'], 'enabled': 1, 'enrolled': 1696417396659, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T11:03:16.659Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d59dfff1976583faff081', 'rank': 4, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d59dfff1976583faff081', 'approvalDate': '2023-10-04T12:26:07.212Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d59d3ff1976583faff057'], 'enabled': 1, 'enrolled': 1696422367212, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T12:26:07.212Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d86c8ff1976583fb01d5c', 'rank': 5, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d86c8ff1976583fb01d5c', 'approvalDate': '2023-10-04T15:37:44.019Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d86beff1976583fb01d39'], 'enabled': 1, 'enrolled': 1696433864019, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T15:37:44.019Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d585bff1976583fafefc7', 'rank': 6, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d585bff1976583fafefc7', 'approvalDate': '2023-10-04T12:19:39.723Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d584eff1976583fafef98'], 'enabled': 1, 'enrolled': 1696421979723, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T12:19:39.723Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d598aff1976583faff036', 'rank': 7, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d598aff1976583faff036', 'approvalDate': '2023-10-04T12:24:42.529Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d597dff1976583faff00c'], 'enabled': 1, 'enrolled': 1696422282529, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T12:24:42.529Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d5ce6ff1976583faff3a3', 'rank': 8, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d5ce6ff1976583faff3a3', 'approvalDate': '2023-10-04T12:39:02.289Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d5cdbff1976583faff37b'], 'enabled': 1, 'enrolled': 1696423142289, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T12:39:02.289Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d63beff1976583faff6f5', 'rank': 9, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d63beff1976583faff6f5', 'approvalDate': '2023-10-04T13:08:14.47Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d63b3ff1976583faff6d2'], 'enabled': 1, 'enrolled': 1696424894470, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T13:08:14.47Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d63f5ff1976583faff739', 'rank': 10, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d63f5ff1976583faff739', 'approvalDate': '2023-10-04T13:09:09.662Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d63ebff1976583faff716'], 'enabled': 1, 'enrolled': 1696424949662, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T13:09:09.662Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d6441ff1976583faff77d', 'rank': 11, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d6441ff1976583faff77d', 'approvalDate': '2023-10-04T13:10:25.645Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d6436ff1976583faff75a'], 'enabled': 1, 'enrolled': 1696425025645, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T13:10:25.645Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d6498ff1976583faff7c1', 'rank': 12, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d6498ff1976583faff7c1', 'approvalDate': '2023-10-04T13:11:52.425Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d648eff1976583faff79e'], 'enabled': 1, 'enrolled': 1696425112425, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T13:11:52.425Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d64bfff1976583faff809', 'rank': 13, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d64bfff1976583faff809', 'approvalDate': '2023-10-04T13:12:31.196Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d64b4ff1976583faff7e6'], 'enabled': 1, 'enrolled': 1696425151196, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T13:12:31.196Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d6608ff1976583faff9b4', 'rank': 14, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d6608ff1976583faff9b4', 'approvalDate': '2023-10-04T13:18:00.161Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d65fdff1976583faff991'], 'enabled': 1, 'enrolled': 1696425480161, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T13:18:00.161Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d66d3ff1976583faffa44', 'rank': 15, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d66d3ff1976583faffa44', 'approvalDate': '2023-10-04T13:21:23.176Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d66c8ff1976583faffa21'], 'enabled': 1, 'enrolled': 1696425683176, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T13:21:23.176Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d6705ff1976583faffaa9', 'rank': 16, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d6705ff1976583faffaa9', 'approvalDate': '2023-10-04T13:22:13.162Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d66fbff1976583faffa69'], 'enabled': 1, 'enrolled': 1696425733162, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T13:22:13.162Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d6730ff1976583faffbc7', 'rank': 17, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d6730ff1976583faffbc7', 'approvalDate': '2023-10-04T13:22:56.385Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d6725ff1976583faffb6a'], 'enabled': 1, 'enrolled': 1696425776385, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T13:22:56.385Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d67b7ff1976583faffc81', 'rank': 18, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d67b7ff1976583faffc81', 'approvalDate': '2023-10-04T13:25:11.824Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d67abff1976583faffc5e'], 'enabled': 1, 'enrolled': 1696425911824, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T13:25:11.824Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d682bff1976583faffce1', 'rank': 19, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d682bff1976583faffce1', 'approvalDate': '2023-10-04T13:27:07.548Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d6821ff1976583faffcbe'], 'enabled': 1, 'enrolled': 1696426027548, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T13:27:07.548Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d6860ff1976583faffd29', 'rank': 20, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d6860ff1976583faffd29', 'approvalDate': '2023-10-04T13:28:00.197Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d6856ff1976583faffd06'], 'enabled': 1, 'enrolled': 1696426080197, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T13:28:00.197Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d69acff1976583faffdb1', 'rank': 21, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651d69acff1976583faffdb1', 'approvalDate': '2023-10-04T13:33:32.17Z', 'approverId': '651bee1702302bffd7a8da7b', 'canEdit': True, 'cGroupIds': ['651d699eff1976583faffd8e'], 'enabled': 1, 'enrolled': 1696426412170, 'enrollerId': '651bee1702302bffd7a8da7b', 'enrollmentDate': '2023-10-04T13:33:32.17Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'output': 0, 'ownerId': '65166d39e119836feb867ce8', 'profileId': '65166d3be119836feb867d23', 'userFirstName': 'shubham', 'userId': '651bee1702302bffd7a8da7b', 'region': {'id': '65166d39e119836feb867cea', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651d69e2ff1976583faffe18', 'rank': 22, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE</t>
         </is>
       </c>
       <c r="G6" s="74" t="inlineStr">
@@ -3625,17 +3660,17 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>20:57:28</t>
+          <t>21:23:51</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20:57:50</t>
+          <t>21:24:15</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>24.0</t>
         </is>
       </c>
     </row>
@@ -3647,37 +3682,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'fields': [{'key': None, 'value': None}], 'count': None, 'ascending': None, 'detailLevel': None, 'isExact': None, 'offset': None, 'orderBy': None, 'startEnrollmentDate': None, 'endEnrollmentDate': None, 'startExpirationDate': None, 'endExpirationDate': None, 'notInCGroup': None, 'searchInOr': None, 'cgroup_id': '651d848eff1976583fb01bff'}</t>
+          <t>{'fields': [{'key': 'storeId', 'value': 'pune'}], 'count': 20, 'ascending': 1, 'detailLevel': 3, 'isExact': False, 'offset': 0, 'orderBy': None, 'startEnrollmentDate': 0, 'endEnrollmentDate': 0, 'startExpirationDate': 0, 'endExpirationDate': 0, 'notInCGroup': True, 'searchInOr': True, 'cgroup_id': '651d8ac0ff1976583fb028eb'}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'ExceptionType': 'System.NullReferenceException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Object reference not set to an instance of an object.', 'innerException': None, 'requestId': '00-6a4d320cbfa676246f2d9e3ff35b863d-651d33e995aaedba-00', 'requestPath': '/api/Enrollments/searchEnrollments', 'connectionId': '0HMU4LECLPBHO'}}</t>
-        </is>
-      </c>
-      <c r="G7" s="72" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+          <t>{'caseInfo': {'cases': [], 'page': {'totalCount': 0, 'subSetStart': 0, 'subSetCount': 20}}}</t>
+        </is>
+      </c>
+      <c r="G7" s="74" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Response Status Code : 500 &amp; Message : None</t>
+          <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>20:57:51</t>
+          <t>21:24:15</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20:58:20</t>
+          <t>21:24:46</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>31.0</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4088,7 @@
       </c>
       <c r="E2" s="65" t="inlineStr">
         <is>
-          <t>[{'id': '65166d491a1e19a5219d8956', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 3, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167b6402302bffd7a8b98a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b6b02302bffd7a8b997', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b7b02302bffd7a8b9a8', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b8b02302bffd7a8b9ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b9702302bffd7a8b9e3', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167ba302302bffd7a8ba00', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bae02302bffd7a8ba1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bb902302bffd7a8ba3e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167bc702302bffd7a8ba5e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bf002302bffd7a8ba80', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167cb902302bffd7a8bbb5', 'name': 'test enrollment438', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '65167d1702302bffd7a8bd60', 'name': 'test enrollment442', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167d1b02302bffd7a8bd76', 'desc': 'test description', 'enrollmentGroupIds': ['65167d1702302bffd7a8bd60'], 'name': 'Test_notification_Api802', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '6516983902302bffd7a8c3fe', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a2f902302bffd7a8c444', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a35302302bffd7a8c470', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a71e02302bffd7a8c4c7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aa8902302bffd7a8c572', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aac302302bffd7a8c59e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab0302302bffd7a8c5c6', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab4b02302bffd7a8c5ee', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aba102302bffd7a8c61f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516da5d02302bffd7a8c8d5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db0402302bffd7a8c919', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db6302302bffd7a8c94a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516dd2c02302bffd7a8c999', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e07002302bffd7a8ca27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e1af02302bffd7a8ca89', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e21a02302bffd7a8cabf', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e26602302bffd7a8caf7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3a502302bffd7a8cb36', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3b802302bffd7a8cb67', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb31f02302bffd7a8cce1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35402302bffd7a8cd27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35902302bffd7a8cd34', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb36002302bffd7a8cd44', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb36e02302bffd7a8cd65', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb37902302bffd7a8cd7e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb38402302bffd7a8cd99', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb39202302bffd7a8cddc', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb3a302302bffd7a8ce1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '651bb3af02302bffd7a8ce4f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbcfa02302bffd7a8ce86', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbdda02302bffd7a8ceb1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbe1002302bffd7a8ced7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbe8a02302bffd7a8cefd', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbed502302bffd7a8cf23', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf0102302bffd7a8cf49', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf7502302bffd7a8cf6f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf9402302bffd7a8cfa0', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc12b02302bffd7a8cfdd', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc18602302bffd7a8d01a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc1cf02302bffd7a8d057', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc1eb02302bffd7a8d094', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc5a402302bffd7a8d0ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5b702302bffd7a8d477', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5bd02302bffd7a8d484', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5c302302bffd7a8d494', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5cf02302bffd7a8d4b5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5d902302bffd7a8d4ce', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5e302302bffd7a8d4e9', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5ed02302bffd7a8d53a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5f902302bffd7a8d58b', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '651be60402302bffd7a8d5bb', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be61102302bffd7a8d5f0', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be62402302bffd7a8d621', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be64702302bffd7a8d668', 'name': 'test enrollment470', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651be64a02302bffd7a8d672', 'desc': 'test description', 'enrollmentGroupIds': ['651be64702302bffd7a8d668'], 'name': 'Test_notification_Api573', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '651be6ac02302bffd7a8d765', 'name': 'test enrollment813', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651be6b402302bffd7a8d774', 'desc': 'test description', 'enrollmentGroupIds': ['651be6ac02302bffd7a8d765'], 'name': 'Test_notification_Api320', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '651bf19d02302bffd7a8daf9', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1a802302bffd7a8db0a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1b602302bffd7a8db1e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1d102302bffd7a8db47', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceTh</t>
+          <t>[{'id': '65166d491a1e19a5219d8956', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 3, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41', '651d7f20ff1976583fb00b04', '651d7f48ff1976583fb00cd3'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167b6402302bffd7a8b98a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b6b02302bffd7a8b997', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b7b02302bffd7a8b9a8', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b8b02302bffd7a8b9ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b9702302bffd7a8b9e3', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167ba302302bffd7a8ba00', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bae02302bffd7a8ba1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bb902302bffd7a8ba3e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41', '651d7f20ff1976583fb00b04', '651d7f48ff1976583fb00cd3'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167bc702302bffd7a8ba5e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bf002302bffd7a8ba80', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167cb902302bffd7a8bbb5', 'name': 'test enrollment438', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '65167d1702302bffd7a8bd60', 'name': 'test enrollment442', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167d1b02302bffd7a8bd76', 'desc': 'test description', 'enrollmentGroupIds': ['65167d1702302bffd7a8bd60'], 'name': 'Test_notification_Api802', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '6516983902302bffd7a8c3fe', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a2f902302bffd7a8c444', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a35302302bffd7a8c470', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a71e02302bffd7a8c4c7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aa8902302bffd7a8c572', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aac302302bffd7a8c59e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab0302302bffd7a8c5c6', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab4b02302bffd7a8c5ee', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aba102302bffd7a8c61f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516da5d02302bffd7a8c8d5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db0402302bffd7a8c919', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db6302302bffd7a8c94a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516dd2c02302bffd7a8c999', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e07002302bffd7a8ca27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e1af02302bffd7a8ca89', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e21a02302bffd7a8cabf', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e26602302bffd7a8caf7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3a502302bffd7a8cb36', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3b802302bffd7a8cb67', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb31f02302bffd7a8cce1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35402302bffd7a8cd27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35902302bffd7a8cd34', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb36002302bffd7a8cd44', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb36e02302bffd7a8cd65', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb37902302bffd7a8cd7e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb38402302bffd7a8cd99', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb39202302bffd7a8cddc', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb3a302302bffd7a8ce1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41', '651d7f20ff1976583fb00b04', '651d7f48ff1976583fb00cd3'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '651bb3af02302bffd7a8ce4f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbcfa02302bffd7a8ce86', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbdda02302bffd7a8ceb1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbe1002302bffd7a8ced7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbe8a02302bffd7a8cefd', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbed502302bffd7a8cf23', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf0102302bffd7a8cf49', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf7502302bffd7a8cf6f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf9402302bffd7a8cfa0', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc12b02302bffd7a8cfdd', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc18602302bffd7a8d01a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc1cf02302bffd7a8d057', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc1eb02302bffd7a8d094', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc5a402302bffd7a8d0ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5b702302bffd7a8d477', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5bd02302bffd7a8d484', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5c302302bffd7a8d494', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5cf02302bffd7a8d4b5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5d902302bffd7a8d4ce', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5e302302bffd7a8d4e9', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5ed02302bffd7a8d53a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5f902302bffd7a8d58b', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41', '651d7f20ff1976583fb00b04', '651d7f48ff1976583fb00cd3'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '651be60402302bffd7a8d5bb', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be61102302bffd7a8d5f0', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be62402302bffd7a8d621', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be64702302bffd7a8d668', 'name': 'test enrollment470', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651be64a02302bffd7a8d672', 'desc': 'test description', 'enrollmentGroupIds': ['651be64702302bffd7a8d668'], 'name': 'Test_notification_Api573', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '651be6ac02302bffd7a8d765', 'name': 'test enrollment813', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651be6b402302bffd7a8d774', 'desc': 'test description', 'enrollmentGroupIds': ['651be6ac02302bffd7a8d765'], 'name': 'Test_notification_Api320', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '651bf19d02302bffd7a8daf9', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1a802302bffd7a8db0a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1b602302bffd7a8db1e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor'</t>
         </is>
       </c>
       <c r="F2" s="65" t="inlineStr">
@@ -4073,17 +4108,17 @@
       </c>
       <c r="I2" s="65" t="inlineStr">
         <is>
-          <t>20:33:26</t>
+          <t>21:20:26</t>
         </is>
       </c>
       <c r="J2" s="65" t="inlineStr">
         <is>
-          <t>20:33:32</t>
+          <t>21:20:30</t>
         </is>
       </c>
       <c r="K2" s="65" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>4.0</t>
         </is>
       </c>
     </row>
@@ -4106,7 +4141,7 @@
       </c>
       <c r="E3" s="65" t="inlineStr">
         <is>
-          <t>{'data': '651d7ec8ff1976583fb008f8', 'message': 'Enrollment Group 651d7ec8ff1976583fb008f8 is created.', 'isSuccess': True}</t>
+          <t>{'data': '651d89caff1976583fb023e7', 'message': 'Enrollment Group 651d89caff1976583fb023e7 is created.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F3" s="65" t="inlineStr">
@@ -4121,22 +4156,22 @@
       </c>
       <c r="H3" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Enrollment Group 651d7ec8ff1976583fb008f8 is created.</t>
+          <t>Response Status Code : 200 &amp; Message : Enrollment Group 651d89caff1976583fb023e7 is created.</t>
         </is>
       </c>
       <c r="I3" s="65" t="inlineStr">
         <is>
-          <t>20:33:33</t>
+          <t>21:20:31</t>
         </is>
       </c>
       <c r="J3" s="65" t="inlineStr">
         <is>
-          <t>20:33:37</t>
+          <t>21:20:34</t>
         </is>
       </c>
       <c r="K3" s="65" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -4154,12 +4189,12 @@
       </c>
       <c r="D4" s="65" t="inlineStr">
         <is>
-          <t>{'id': '651d7eceff1976583fb00910'}</t>
+          <t>{'id': '651d89d0ff1976583fb023f8'}</t>
         </is>
       </c>
       <c r="E4" s="65" t="inlineStr">
         <is>
-          <t>[{'id': '65166d491a1e19a5219d8956', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 3, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167b6402302bffd7a8b98a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b6b02302bffd7a8b997', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b7b02302bffd7a8b9a8', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b8b02302bffd7a8b9ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b9702302bffd7a8b9e3', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167ba302302bffd7a8ba00', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bae02302bffd7a8ba1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bb902302bffd7a8ba3e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167bc702302bffd7a8ba5e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bf002302bffd7a8ba80', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167cb902302bffd7a8bbb5', 'name': 'test enrollment438', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '65167d1702302bffd7a8bd60', 'name': 'test enrollment442', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167d1b02302bffd7a8bd76', 'desc': 'test description', 'enrollmentGroupIds': ['65167d1702302bffd7a8bd60'], 'name': 'Test_notification_Api802', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '6516983902302bffd7a8c3fe', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a2f902302bffd7a8c444', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a35302302bffd7a8c470', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a71e02302bffd7a8c4c7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aa8902302bffd7a8c572', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aac302302bffd7a8c59e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab0302302bffd7a8c5c6', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab4b02302bffd7a8c5ee', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aba102302bffd7a8c61f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516da5d02302bffd7a8c8d5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db0402302bffd7a8c919', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db6302302bffd7a8c94a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516dd2c02302bffd7a8c999', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e07002302bffd7a8ca27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e1af02302bffd7a8ca89', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e21a02302bffd7a8cabf', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e26602302bffd7a8caf7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3a502302bffd7a8cb36', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3b802302bffd7a8cb67', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb31f02302bffd7a8cce1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35402302bffd7a8cd27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35902302bffd7a8cd34', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb36002302bffd7a8cd44', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb36e02302bffd7a8cd65', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb37902302bffd7a8cd7e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb38402302bffd7a8cd99', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb39202302bffd7a8cddc', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb3a302302bffd7a8ce1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '651bb3af02302bffd7a8ce4f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbcfa02302bffd7a8ce86', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbdda02302bffd7a8ceb1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbe1002302bffd7a8ced7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbe8a02302bffd7a8cefd', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbed502302bffd7a8cf23', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf0102302bffd7a8cf49', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf7502302bffd7a8cf6f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf9402302bffd7a8cfa0', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc12b02302bffd7a8cfdd', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc18602302bffd7a8d01a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc1cf02302bffd7a8d057', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc1eb02302bffd7a8d094', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc5a402302bffd7a8d0ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5b702302bffd7a8d477', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5bd02302bffd7a8d484', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5c302302bffd7a8d494', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5cf02302bffd7a8d4b5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5d902302bffd7a8d4ce', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5e302302bffd7a8d4e9', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5ed02302bffd7a8d53a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5f902302bffd7a8d58b', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '651be60402302bffd7a8d5bb', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be61102302bffd7a8d5f0', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be62402302bffd7a8d621', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be64702302bffd7a8d668', 'name': 'test enrollment470', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651be64a02302bffd7a8d672', 'desc': 'test description', 'enrollmentGroupIds': ['651be64702302bffd7a8d668'], 'name': 'Test_notification_Api573', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '651be6ac02302bffd7a8d765', 'name': 'test enrollment813', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651be6b402302bffd7a8d774', 'desc': 'test description', 'enrollmentGroupIds': ['651be6ac02302bffd7a8d765'], 'name': 'Test_notification_Api320', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '651bf19d02302bffd7a8daf9', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1a802302bffd7a8db0a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1b602302bffd7a8db1e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1d102302bffd7a8db47', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceTh</t>
+          <t>[{'id': '65166d491a1e19a5219d8956', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 3, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41', '651d7f20ff1976583fb00b04', '651d7f48ff1976583fb00cd3'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167b6402302bffd7a8b98a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b6b02302bffd7a8b997', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b7b02302bffd7a8b9a8', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b8b02302bffd7a8b9ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167b9702302bffd7a8b9e3', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167ba302302bffd7a8ba00', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bae02302bffd7a8ba1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bb902302bffd7a8ba3e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41', '651d7f20ff1976583fb00b04', '651d7f48ff1976583fb00cd3'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '65167bc702302bffd7a8ba5e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167bf002302bffd7a8ba80', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '65167cb902302bffd7a8bbb5', 'name': 'test enrollment438', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167cbb02302bffd7a8bbbf', 'desc': 'test description', 'enrollmentGroupIds': ['65167cb902302bffd7a8bbb5'], 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '65167d1702302bffd7a8bd60', 'name': 'test enrollment442', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65167d1b02302bffd7a8bd76', 'desc': 'test description', 'enrollmentGroupIds': ['65167d1702302bffd7a8bd60'], 'name': 'Test_notification_Api802', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '6516983902302bffd7a8c3fe', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a2f902302bffd7a8c444', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a35302302bffd7a8c470', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516a71e02302bffd7a8c4c7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aa8902302bffd7a8c572', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aac302302bffd7a8c59e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab0302302bffd7a8c5c6', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516ab4b02302bffd7a8c5ee', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516aba102302bffd7a8c61f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516da5d02302bffd7a8c8d5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db0402302bffd7a8c919', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516db6302302bffd7a8c94a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516dd2c02302bffd7a8c999', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e07002302bffd7a8ca27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e1af02302bffd7a8ca89', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e21a02302bffd7a8cabf', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e26602302bffd7a8caf7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3a502302bffd7a8cb36', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '6516e3b802302bffd7a8cb67', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb31f02302bffd7a8cce1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35402302bffd7a8cd27', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb35902302bffd7a8cd34', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb36002302bffd7a8cd44', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb36e02302bffd7a8cd65', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb37902302bffd7a8cd7e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb38402302bffd7a8cd99', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb39202302bffd7a8cddc', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bb3a302302bffd7a8ce1f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41', '651d7f20ff1976583fb00b04', '651d7f48ff1976583fb00cd3'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '651bb3af02302bffd7a8ce4f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbcfa02302bffd7a8ce86', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbdda02302bffd7a8ceb1', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbe1002302bffd7a8ced7', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbe8a02302bffd7a8cefd', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbed502302bffd7a8cf23', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf0102302bffd7a8cf49', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf7502302bffd7a8cf6f', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bbf9402302bffd7a8cfa0', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc12b02302bffd7a8cfdd', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc18602302bffd7a8d01a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc1cf02302bffd7a8d057', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc1eb02302bffd7a8d094', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bc5a402302bffd7a8d0ca', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5b702302bffd7a8d477', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5bd02302bffd7a8d484', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5c302302bffd7a8d494', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5cf02302bffd7a8d4b5', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5d902302bffd7a8d4ce', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5e302302bffd7a8d4e9', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5ed02302bffd7a8d53a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be5f902302bffd7a8d58b', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '65166d491a1e19a5219d895d', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['65166d491a1e19a5219d8956', '65167bb902302bffd7a8ba3e', '651bb3a302302bffd7a8ce1f', '651be5f902302bffd7a8d58b', '651bf21602302bffd7a8dc41', '651d7f20ff1976583fb00b04', '651d7f48ff1976583fb00cd3'], 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['65166d4a1a1e19a5219d8966'], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}]}, {'id': '651be60402302bffd7a8d5bb', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be61102302bffd7a8d5f0', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be62402302bffd7a8d621', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec', '65166dbed319a18d9ce09c00'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651be64702302bffd7a8d668', 'name': 'test enrollment470', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651be64a02302bffd7a8d672', 'desc': 'test description', 'enrollmentGroupIds': ['651be64702302bffd7a8d668'], 'name': 'Test_notification_Api573', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '651be6ac02302bffd7a8d765', 'name': 'test enrollment813', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651be6b402302bffd7a8d774', 'desc': 'test description', 'enrollmentGroupIds': ['651be6ac02302bffd7a8d765'], 'name': 'Test_notification_Api320', 'ownerID': '65166d39e119836feb867ce8', 'userIds': [], 'zoneIds': ['65166d39e119836feb867cec']}]}, {'id': '651bf19d02302bffd7a8daf9', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1a802302bffd7a8db0a', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651bf1b602302bffd7a8db1e', 'name': 'GroupName', 'description': 'test description', 'accountId': '65166d39e119836feb867ce8', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['65166d39e119836feb867cec'], 'eventsSuppressionInterval': 0, 'alertHexColor'</t>
         </is>
       </c>
       <c r="F4" s="65" t="inlineStr">
@@ -4179,17 +4214,17 @@
       </c>
       <c r="I4" s="65" t="inlineStr">
         <is>
-          <t>20:33:38</t>
+          <t>21:20:34</t>
         </is>
       </c>
       <c r="J4" s="65" t="inlineStr">
         <is>
-          <t>20:33:45</t>
+          <t>21:20:44</t>
         </is>
       </c>
       <c r="K4" s="65" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4247,7 @@
       </c>
       <c r="E5" s="65" t="inlineStr">
         <is>
-          <t>{'data': '651d7ed8ff1976583fb00934', 'message': 'Enrollment Group is updated', 'isSuccess': True}</t>
+          <t>{'data': '651d89daff1976583fb0240c', 'message': 'Enrollment Group is updated', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F5" s="65" t="inlineStr">
@@ -4232,17 +4267,17 @@
       </c>
       <c r="I5" s="65" t="inlineStr">
         <is>
-          <t>20:33:46</t>
+          <t>21:20:44</t>
         </is>
       </c>
       <c r="J5" s="65" t="inlineStr">
         <is>
-          <t>20:33:56</t>
+          <t>21:20:55</t>
         </is>
       </c>
       <c r="K5" s="65" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>11.0</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4300,7 @@
       </c>
       <c r="E6" s="65" t="inlineStr">
         <is>
-          <t>{'data': True, 'message': 'Enrollment Group 651d7ee1ff1976583fb00948 is removed.', 'isSuccess': True}</t>
+          <t>{'data': True, 'message': 'Enrollment Group 651d89e5ff1976583fb02420 is removed.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F6" s="65" t="inlineStr">
@@ -4280,22 +4315,22 @@
       </c>
       <c r="H6" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Enrollment Group 651d7ee1ff1976583fb00948 is removed.</t>
+          <t>Response Status Code : 200 &amp; Message : Enrollment Group 651d89e5ff1976583fb02420 is removed.</t>
         </is>
       </c>
       <c r="I6" s="65" t="inlineStr">
         <is>
-          <t>20:33:56</t>
+          <t>21:20:55</t>
         </is>
       </c>
       <c r="J6" s="65" t="inlineStr">
         <is>
-          <t>20:34:04</t>
+          <t>21:21:02</t>
         </is>
       </c>
       <c r="K6" s="65" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -4313,12 +4348,12 @@
       </c>
       <c r="D7" s="65" t="inlineStr">
         <is>
-          <t>{'cGroupId': '651d7ee9ff1976583fb0095d', 'zoneIds': ['65166dbed319a18d9ce09c00']}</t>
+          <t>{'cGroupId': '651d89ebff1976583fb02435', 'zoneIds': ['65166dbed319a18d9ce09c00']}</t>
         </is>
       </c>
       <c r="E7" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'message': "Zones added to enrollment group id '651d7ee9ff1976583fb0095d' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
+          <t>{'result': {'message': "Zones added to enrollment group id '651d89ebff1976583fb02435' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
         </is>
       </c>
       <c r="F7" s="65" t="inlineStr">
@@ -4333,22 +4368,22 @@
       </c>
       <c r="H7" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Zones added to enrollment group id '651d7ee9ff1976583fb0095d' for account 65166d39e119836feb867ce8.</t>
+          <t>Response Status Code : 200 &amp; Message : Zones added to enrollment group id '651d89ebff1976583fb02435' for account 65166d39e119836feb867ce8.</t>
         </is>
       </c>
       <c r="I7" s="65" t="inlineStr">
         <is>
-          <t>20:34:04</t>
+          <t>21:21:03</t>
         </is>
       </c>
       <c r="J7" s="65" t="inlineStr">
         <is>
-          <t>20:34:13</t>
+          <t>21:21:11</t>
         </is>
       </c>
       <c r="K7" s="65" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>8.0</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4401,12 @@
       </c>
       <c r="D8" s="65" t="inlineStr">
         <is>
-          <t>{'cGroupId': '651d7ef2ff1976583fb00991', 'zoneIds': ['65166dbed319a18d9ce09c00']}</t>
+          <t>{'cGroupId': '651d89f7ff1976583fb02454', 'zoneIds': ['65166dbed319a18d9ce09c00']}</t>
         </is>
       </c>
       <c r="E8" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'message': "Zones removed to case group id '651d7ef2ff1976583fb00991' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
+          <t>{'result': {'message': "Zones removed to case group id '651d89f7ff1976583fb02454' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
         </is>
       </c>
       <c r="F8" s="65" t="inlineStr">
@@ -4386,22 +4421,22 @@
       </c>
       <c r="H8" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Zones removed to case group id '651d7ef2ff1976583fb00991' for account 65166d39e119836feb867ce8.</t>
+          <t>Response Status Code : 200 &amp; Message : Zones removed to case group id '651d89f7ff1976583fb02454' for account 65166d39e119836feb867ce8.</t>
         </is>
       </c>
       <c r="I8" s="65" t="inlineStr">
         <is>
-          <t>20:34:14</t>
+          <t>21:21:11</t>
         </is>
       </c>
       <c r="J8" s="65" t="inlineStr">
         <is>
-          <t>20:34:24</t>
+          <t>21:21:24</t>
         </is>
       </c>
       <c r="K8" s="65" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>13.0</t>
         </is>
       </c>
     </row>
@@ -4419,12 +4454,12 @@
       </c>
       <c r="D9" s="65" t="inlineStr">
         <is>
-          <t>{'id': ['65166d39e119836feb867ce8'], 'case_id': '651d5c89ff1976583faff2be', 'cgroup_id': '651d7efdff1976583fb009cb'}</t>
+          <t>{'id': ['65166d39e119836feb867ce8'], 'case_id': '651d5c89ff1976583faff2be', 'cgroup_id': '651d8a01ff1976583fb02475'}</t>
         </is>
       </c>
       <c r="E9" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'message': "Enrollment added to enrollment group id '651d7efdff1976583fb009cb' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
+          <t>{'result': {'message': "Enrollment added to enrollment group id '651d8a01ff1976583fb02475' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
         </is>
       </c>
       <c r="F9" s="65" t="inlineStr">
@@ -4439,22 +4474,22 @@
       </c>
       <c r="H9" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Enrollment added to enrollment group id '651d7efdff1976583fb009cb' for account 65166d39e119836feb867ce8.</t>
+          <t>Response Status Code : 200 &amp; Message : Enrollment added to enrollment group id '651d8a01ff1976583fb02475' for account 65166d39e119836feb867ce8.</t>
         </is>
       </c>
       <c r="I9" s="65" t="inlineStr">
         <is>
-          <t>20:34:25</t>
+          <t>21:21:24</t>
         </is>
       </c>
       <c r="J9" s="65" t="inlineStr">
         <is>
-          <t>20:34:39</t>
+          <t>21:21:39</t>
         </is>
       </c>
       <c r="K9" s="65" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>15.0</t>
         </is>
       </c>
     </row>
@@ -4472,12 +4507,12 @@
       </c>
       <c r="D10" s="65" t="inlineStr">
         <is>
-          <t>{'id': ['65166d39e119836feb867ce8'], 'case_id': '651d5c89ff1976583faff2be', 'cgroup_id': '651d7f0fff1976583fb00a67'}</t>
+          <t>{'id': ['65166d39e119836feb867ce8'], 'case_id': '651d5c89ff1976583faff2be', 'cgroup_id': '651d8a11ff1976583fb0252e'}</t>
         </is>
       </c>
       <c r="E10" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'message': "Enrollment removed from enrollment group id '651d7f0fff1976583fb00a67' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
+          <t>{'result': {'message': "Enrollment removed from enrollment group id '651d8a11ff1976583fb0252e' for account 65166d39e119836feb867ce8.", 'status': 'ok'}}</t>
         </is>
       </c>
       <c r="F10" s="65" t="inlineStr">
@@ -4492,22 +4527,22 @@
       </c>
       <c r="H10" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : Enrollment removed from enrollment group id '651d7f0fff1976583fb00a67' for account 65166d39e119836feb867ce8.</t>
+          <t>Response Status Code : 200 &amp; Message : Enrollment removed from enrollment group id '651d8a11ff1976583fb0252e' for account 65166d39e119836feb867ce8.</t>
         </is>
       </c>
       <c r="I10" s="65" t="inlineStr">
         <is>
-          <t>20:34:40</t>
+          <t>21:21:39</t>
         </is>
       </c>
       <c r="J10" s="65" t="inlineStr">
         <is>
-          <t>20:34:59</t>
+          <t>21:21:54</t>
         </is>
       </c>
       <c r="K10" s="65" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>15.0</t>
         </is>
       </c>
     </row>
@@ -4525,12 +4560,12 @@
       </c>
       <c r="D11" s="65" t="inlineStr">
         <is>
-          <t>{'CGroupID': '651d7f20ff1976583fb00b04', 'AGroupID': '65166d491a1e19a5219d895d'}</t>
+          <t>{'CGroupID': '651d8a20ff1976583fb025e7', 'AGroupID': '65166d491a1e19a5219d895d'}</t>
         </is>
       </c>
       <c r="E11" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been added to the alert group with id = 651d7f20ff1976583fb00b04'}}</t>
+          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been added to the alert group with id = 651d8a20ff1976583fb025e7'}}</t>
         </is>
       </c>
       <c r="F11" s="65" t="inlineStr">
@@ -4545,22 +4580,22 @@
       </c>
       <c r="H11" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been added to the alert group with id = 651d7f20ff1976583fb00b04</t>
+          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been added to the alert group with id = 651d8a20ff1976583fb025e7</t>
         </is>
       </c>
       <c r="I11" s="65" t="inlineStr">
         <is>
-          <t>20:35:00</t>
+          <t>21:21:55</t>
         </is>
       </c>
       <c r="J11" s="65" t="inlineStr">
         <is>
-          <t>20:35:11</t>
+          <t>21:22:04</t>
         </is>
       </c>
       <c r="K11" s="65" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.0</t>
         </is>
       </c>
     </row>
@@ -4578,12 +4613,12 @@
       </c>
       <c r="D12" s="65" t="inlineStr">
         <is>
-          <t>{'CGroupID': '651d7f31ff1976583fb00b95', 'AGroupID': '65166d491a1e19a5219d895d'}</t>
+          <t>{'CGroupID': '651d8a2aff1976583fb0264f', 'AGroupID': '65166d491a1e19a5219d895d'}</t>
         </is>
       </c>
       <c r="E12" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been removed from the alert group with id = 651d7f31ff1976583fb00b95'}}</t>
+          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been removed from the alert group with id = 651d8a2aff1976583fb0264f'}}</t>
         </is>
       </c>
       <c r="F12" s="65" t="inlineStr">
@@ -4598,22 +4633,22 @@
       </c>
       <c r="H12" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been removed from the alert group with id = 651d7f31ff1976583fb00b95</t>
+          <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been removed from the alert group with id = 651d8a2aff1976583fb0264f</t>
         </is>
       </c>
       <c r="I12" s="65" t="inlineStr">
         <is>
-          <t>20:35:11</t>
+          <t>21:22:05</t>
         </is>
       </c>
       <c r="J12" s="65" t="inlineStr">
         <is>
-          <t>20:35:31</t>
+          <t>21:22:15</t>
         </is>
       </c>
       <c r="K12" s="65" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -4711,12 +4746,12 @@
       <c r="C2" s="65" t="n"/>
       <c r="D2" s="65" t="inlineStr">
         <is>
-          <t>{'name': 'Test_notification_Api654', 'description': 'test description', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['651bee1702302bffd7a8da7b'], 'caseGroupIdsUserIds': ['651d8231ff1976583fb0185a'], 'zoneIds': ['65166d39e119836feb867cec']}</t>
+          <t>{'name': 'Test_notification_Api840', 'description': 'test description', 'ownerID': '65166d39e119836feb867ce8', 'userIds': ['651bee1702302bffd7a8da7b'], 'caseGroupIdsUserIds': ['651d8b05ff1976583fb02a29'], 'zoneIds': ['65166d39e119836feb867cec']}</t>
         </is>
       </c>
       <c r="E2" s="65" t="inlineStr">
         <is>
-          <t>{'data': '651d8234ff1976583fb01866', 'message': 'AlertGroup 651d8234ff1976583fb01866 was created.', 'isSuccess': True}</t>
+          <t>{'data': '651d8b08ff1976583fb02a35', 'message': 'AlertGroup 651d8b08ff1976583fb02a35 was created.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F2" s="65" t="n"/>
@@ -4727,22 +4762,22 @@
       </c>
       <c r="H2" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : AlertGroup 651d8234ff1976583fb01866 was created.</t>
+          <t>Response Status Code : 200 &amp; Message : AlertGroup 651d8b08ff1976583fb02a35 was created.</t>
         </is>
       </c>
       <c r="I2" s="65" t="inlineStr">
         <is>
-          <t>20:48:01</t>
+          <t>21:25:40</t>
         </is>
       </c>
       <c r="J2" s="65" t="inlineStr">
         <is>
-          <t>20:48:14</t>
+          <t>21:25:52</t>
         </is>
       </c>
       <c r="K2" s="65" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4791,12 @@
       <c r="C3" s="65" t="n"/>
       <c r="D3" s="65" t="inlineStr">
         <is>
-          <t>{'agroupID': True, 'description': 'test description', 'name': 'Test_notification_Api105', 'ownerID': '65166d39e119836feb867ce8', 'set_cgroups': 0}</t>
+          <t>{'agroupID': True, 'description': 'test description', 'name': 'Test_notification_Api163', 'ownerID': '65166d39e119836feb867ce8', 'set_cgroups': 0}</t>
         </is>
       </c>
       <c r="E3" s="65" t="inlineStr">
         <is>
-          <t>{'data': '651d823cff1976583fb01878', 'message': 'AlertGroup 651d823cff1976583fb01878 was created.', 'isSuccess': True}</t>
+          <t>{'data': '651d8b0eff1976583fb02a47', 'message': 'AlertGroup 651d8b0eff1976583fb02a47 was created.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F3" s="65" t="n"/>
@@ -4772,22 +4807,22 @@
       </c>
       <c r="H3" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : AlertGroup 651d823cff1976583fb01878 was created.</t>
+          <t>Response Status Code : 200 &amp; Message : AlertGroup 651d8b0eff1976583fb02a47 was created.</t>
         </is>
       </c>
       <c r="I3" s="65" t="inlineStr">
         <is>
-          <t>20:48:14</t>
+          <t>21:25:52</t>
         </is>
       </c>
       <c r="J3" s="65" t="inlineStr">
         <is>
-          <t>20:48:21</t>
+          <t>21:25:58</t>
         </is>
       </c>
       <c r="K3" s="65" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4841,7 @@
       </c>
       <c r="E4" s="65" t="inlineStr">
         <is>
-          <t>{'agroupinfo': {'agroups': [{'agroupID': '65166d491a1e19a5219d895d', 'caseGroups': [{'cgroupID': '65166d491a1e19a5219d8956', 'name': 'DefaultEnrollmentGroup'}, {'cgroupID': '65167bb902302bffd7a8ba3e', 'name': 'GroupName'}, {'cgroupID': '651bb3a302302bffd7a8ce1f', 'name': 'GroupName'}, {'cgroupID': '651be5f902302bffd7a8d58b', 'name': 'GroupName'}, {'cgroupID': '651bf21602302bffd7a8dc41', 'name': 'GroupName'}, {'cgroupID': '651d7f20ff1976583fb00b04', 'name': 'GroupName'}, {'cgroupID': '651d7f48ff1976583fb00cd3', 'name': 'GroupName'}], 'desc': 'Default Alert Group', 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '65166d4a1a1e19a5219d8966', 'userName': 'core', 'contact': {'timezoneID': 'Asia/Kolkata', 'email': 'ritesh.kagale@facefirst.com'}}], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}, {'agroupID': '65167cbb02302bffd7a8bbbf', 'caseGroups': [{'cgroupID': '65167cb902302bffd7a8bbb5', 'name': 'test enrollment438'}], 'desc': 'test description', 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '65166d4a1a1e19a5219d8966', 'userName': 'core', 'contact': {'timezoneID': 'Asia/Kolkata', 'email': 'ritesh.kagale@facefirst.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167cc202302bffd7a8bbe1', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api666', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ccd02302bffd7a8bc0e', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api973', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167cd702302bffd7a8bc43', 'caseGroups': [], 'desc': 'New Description', 'name': 'Test_notification_Api596', 'ownerID': '65166d4a1a1e19a5219d8966', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ce702302bffd7a8bca5', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api759', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '65166d4a1a1e19a5219d8966', 'userName': 'core', 'contact': {'timezoneID': 'Asia/Kolkata', 'email': 'ritesh.kagale@facefirst.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167cf302302bffd7a8bcf4', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api292', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167d0e02302bffd7a8bd4e', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api19', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167d1b02302bffd7a8bd76', 'caseGroups': [{'cgroupID': '65167d1702302bffd7a8bd60', 'name': 'test enrollment442'}], 'desc': 'test description', 'name': 'Test_notification_Api802', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be64a02302bffd7a8d672', 'caseGroups': [{'cgroupID': '651be64702302bffd7a8d668', 'name': 'test enrollment470'}], 'desc': 'test description', 'name': 'Test_notification_Api573', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be65002302bffd7a8d680', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api918', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be65d02302bffd7a8d6ab', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api821', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be66602302bffd7a8d6c3', 'caseGroups': [], 'desc': 'New Description', 'name': 'Test_notification_Api451', 'ownerID': '651bdd9a02302bffd7a8d29c', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be67402302bffd7a8d6e5', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api31', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be68102302bffd7a8d707', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api579', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be6a102302bffd7a8d753', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api270', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be6b402302bffd7a8d774', 'caseGroups': [{'cgroupID': '651be6ac02302bffd7a8d765', 'name': 'test enrollment813'}], 'desc': 'test description', 'name': 'Test_notification_Api320', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf28402302bffd7a8ddab', 'caseGroups': [{'cgroupID': '651bf28002302bffd7a8dd9f', 'name': 'test enrollment930'}], 'desc': 'test description', 'name': 'Test_notification_Api938', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '651bee1702302bffd7a8da7b', 'userName': 'shubham', 'contact': {'lastName': 'c', 'timezoneID': 'Asia/Kolkata', 'firstName': 'shubham', 'email': 'admin@gmail.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf28d02302bffd7a8ddbd', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api752', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf2a002302bffd7a8ddfe', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api126', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf2ae02302bffd7a8de1c', 'caseGroups': [], 'desc': 'New Description', 'name': 'Test_notification_Api223', 'ownerID': '651bee1702302bffd7a8da7b', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf2c402302bffd7a8de48', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api155', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '651bee1702302bffd7a8da7b', 'userName': 'shubham', 'contact': {'lastName': 'c', 'timezoneID': 'Asia/Kolkata', 'firstName': 'shubham', 'email': 'admin@gmail.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf2d902302bffd7a8de89', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api967', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf30202302bffd7a8dee9', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api940', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf31702302bffd7a8df14', 'caseGroups': [{'cgroupID': '651bf31002302bffd7a8df01', 'name': 'test enrollment930'}], 'desc': 'test description', 'name': 'Test_notification_Api506', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651d8234ff1976583fb01866', 'caseGroups': [{'cgroupID': '651d8231ff1976583fb0185a', 'name': 'test enrollment488'}], 'desc': 'test description', 'name': 'Test_notification_Api654', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '651bee1702302bffd7a8da7b', 'userName': 'shubham', 'contact': {'lastName': 'c', 'timezoneID': 'Asia/Kolkata', 'firstName': 'shubham', 'email': 'admin@gmail.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651d823cff1976583fb01878', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api105', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}]}}</t>
+          <t>{'agroupinfo': {'agroups': [{'agroupID': '65166d491a1e19a5219d895d', 'caseGroups': [{'cgroupID': '65166d491a1e19a5219d8956', 'name': 'DefaultEnrollmentGroup'}, {'cgroupID': '65167bb902302bffd7a8ba3e', 'name': 'GroupName'}, {'cgroupID': '651bb3a302302bffd7a8ce1f', 'name': 'GroupName'}, {'cgroupID': '651be5f902302bffd7a8d58b', 'name': 'GroupName'}, {'cgroupID': '651bf21602302bffd7a8dc41', 'name': 'GroupName'}, {'cgroupID': '651d7f20ff1976583fb00b04', 'name': 'GroupName'}, {'cgroupID': '651d7f48ff1976583fb00cd3', 'name': 'GroupName'}, {'cgroupID': '651d8a20ff1976583fb025e7', 'name': 'GroupName'}], 'desc': 'Default Alert Group', 'name': 'DefaultAlertGroup', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '65166d4a1a1e19a5219d8966', 'userName': 'core', 'contact': {'timezoneID': 'Asia/Kolkata', 'email': 'ritesh.kagale@facefirst.com'}}], 'zoneIds': ['65166d39e119836feb867cec', '651675e702302bffd7a8b90f', '6516760102302bffd7a8b910', '6516761c02302bffd7a8b911']}, {'agroupID': '65167cbb02302bffd7a8bbbf', 'caseGroups': [{'cgroupID': '65167cb902302bffd7a8bbb5', 'name': 'test enrollment438'}], 'desc': 'test description', 'name': 'Test_notification_Api140', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '65166d4a1a1e19a5219d8966', 'userName': 'core', 'contact': {'timezoneID': 'Asia/Kolkata', 'email': 'ritesh.kagale@facefirst.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167cc202302bffd7a8bbe1', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api666', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ccd02302bffd7a8bc0e', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api973', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167cd702302bffd7a8bc43', 'caseGroups': [], 'desc': 'New Description', 'name': 'Test_notification_Api596', 'ownerID': '65166d4a1a1e19a5219d8966', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167ce702302bffd7a8bca5', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api759', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '65166d4a1a1e19a5219d8966', 'userName': 'core', 'contact': {'timezoneID': 'Asia/Kolkata', 'email': 'ritesh.kagale@facefirst.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167cf302302bffd7a8bcf4', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api292', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167d0e02302bffd7a8bd4e', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api19', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '65167d1b02302bffd7a8bd76', 'caseGroups': [{'cgroupID': '65167d1702302bffd7a8bd60', 'name': 'test enrollment442'}], 'desc': 'test description', 'name': 'Test_notification_Api802', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be64a02302bffd7a8d672', 'caseGroups': [{'cgroupID': '651be64702302bffd7a8d668', 'name': 'test enrollment470'}], 'desc': 'test description', 'name': 'Test_notification_Api573', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be65002302bffd7a8d680', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api918', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be65d02302bffd7a8d6ab', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api821', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be66602302bffd7a8d6c3', 'caseGroups': [], 'desc': 'New Description', 'name': 'Test_notification_Api451', 'ownerID': '651bdd9a02302bffd7a8d29c', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be67402302bffd7a8d6e5', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api31', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be68102302bffd7a8d707', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api579', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be6a102302bffd7a8d753', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api270', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651be6b402302bffd7a8d774', 'caseGroups': [{'cgroupID': '651be6ac02302bffd7a8d765', 'name': 'test enrollment813'}], 'desc': 'test description', 'name': 'Test_notification_Api320', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf28402302bffd7a8ddab', 'caseGroups': [{'cgroupID': '651bf28002302bffd7a8dd9f', 'name': 'test enrollment930'}], 'desc': 'test description', 'name': 'Test_notification_Api938', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '651bee1702302bffd7a8da7b', 'userName': 'shubham', 'contact': {'lastName': 'c', 'timezoneID': 'Asia/Kolkata', 'firstName': 'shubham', 'email': 'admin@gmail.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf28d02302bffd7a8ddbd', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api752', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf2a002302bffd7a8ddfe', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api126', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf2ae02302bffd7a8de1c', 'caseGroups': [], 'desc': 'New Description', 'name': 'Test_notification_Api223', 'ownerID': '651bee1702302bffd7a8da7b', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf2c402302bffd7a8de48', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api155', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '651bee1702302bffd7a8da7b', 'userName': 'shubham', 'contact': {'lastName': 'c', 'timezoneID': 'Asia/Kolkata', 'firstName': 'shubham', 'email': 'admin@gmail.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf2d902302bffd7a8de89', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api967', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf30202302bffd7a8dee9', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api940', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651bf31702302bffd7a8df14', 'caseGroups': [{'cgroupID': '651bf31002302bffd7a8df01', 'name': 'test enrollment930'}], 'desc': 'test description', 'name': 'Test_notification_Api506', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651d8234ff1976583fb01866', 'caseGroups': [{'cgroupID': '651d8231ff1976583fb0185a', 'name': 'test enrollment488'}], 'desc': 'test description', 'name': 'Test_notification_Api654', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '651bee1702302bffd7a8da7b', 'userName': 'shubham', 'contact': {'lastName': 'c', 'timezoneID': 'Asia/Kolkata', 'firstName': 'shubham', 'email': 'admin@gmail.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651d823cff1976583fb01878', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api105', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651d8249ff1976583fb018c9', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api184', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651d8258ff1976583fb018e7', 'caseGroups': [], 'desc': 'New Description', 'name': 'Test_notification_Api258', 'ownerID': '651bee1702302bffd7a8da7b', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651d8267ff1976583fb01913', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api236', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '651bee1702302bffd7a8da7b', 'userName': 'shubham', 'contact': {'lastName': 'c', 'timezoneID': 'Asia/Kolkata', 'firstName': 'shubham', 'email': 'admin@gmail.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651d827eff1976583fb0193f', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api771', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651d829fff1976583fb0199f', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api824', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651d82b0ff1976583fb019ca', 'caseGroups': [{'cgroupID': '651d82a9ff1976583fb019b7', 'name': 'test enrollment176'}], 'desc': 'test description', 'name': 'Test_notification_Api981', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651d8b08ff1976583fb02a35', 'caseGroups': [{'cgroupID': '651d8b05ff1976583fb02a29', 'name': 'test enrollment908'}], 'desc': 'test description', 'name': 'Test_notification_Api840', 'ownerID': '65166d39e119836feb867ce8', 'users': [{'userID': '651bee1702302bffd7a8da7b', 'userName': 'shubham', 'contact': {'lastName': 'c', 'timezoneID': 'Asia/Kolkata', 'firstName': 'shubham', 'email': 'admin@gmail.com'}}], 'zoneIds': ['65166d39e119836feb867cec']}, {'agroupID': '651d8b0eff1976583fb02a47', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api163', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}]}}</t>
         </is>
       </c>
       <c r="F4" s="65" t="n"/>
@@ -4822,17 +4857,17 @@
       </c>
       <c r="I4" s="65" t="inlineStr">
         <is>
-          <t>20:48:22</t>
+          <t>21:25:58</t>
         </is>
       </c>
       <c r="J4" s="65" t="inlineStr">
         <is>
-          <t>20:48:27</t>
+          <t>21:26:01</t>
         </is>
       </c>
       <c r="K4" s="65" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4886,7 @@
       </c>
       <c r="E5" s="65" t="inlineStr">
         <is>
-          <t>{'agroupinfo': {'agroups': [{'agroupID': '651d8249ff1976583fb018c9', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api184', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}]}}</t>
+          <t>{'agroupinfo': {'agroups': [{'agroupID': '651d8b17ff1976583fb02aa8', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api754', 'ownerID': '65166d39e119836feb867ce8', 'users': [], 'zoneIds': ['65166d39e119836feb867cec']}]}}</t>
         </is>
       </c>
       <c r="F5" s="65" t="n"/>
@@ -4867,17 +4902,17 @@
       </c>
       <c r="I5" s="65" t="inlineStr">
         <is>
-          <t>20:48:27</t>
+          <t>21:26:02</t>
         </is>
       </c>
       <c r="J5" s="65" t="inlineStr">
         <is>
-          <t>20:48:40</t>
+          <t>21:26:09</t>
         </is>
       </c>
       <c r="K5" s="65" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -4891,12 +4926,12 @@
       <c r="C6" s="65" t="n"/>
       <c r="D6" s="65" t="inlineStr">
         <is>
-          <t>{'agroupID': '651d8258ff1976583fb018e7', 'description': 'New Description', 'name': 'Test_notification_Api258', 'ownerID': '651bee1702302bffd7a8da7b', 'set_cgroups': 0}</t>
+          <t>{'agroupID': '651d8b20ff1976583fb02ac6', 'description': 'New Description', 'name': 'Test_notification_Api156', 'ownerID': '651bee1702302bffd7a8da7b', 'set_cgroups': 0}</t>
         </is>
       </c>
       <c r="E6" s="65" t="inlineStr">
         <is>
-          <t>{'data': '651d8258ff1976583fb018e7', 'message': 'Alert group 651d8258ff1976583fb018e7 is updated.', 'isSuccess': True}</t>
+          <t>{'data': '651d8b20ff1976583fb02ac6', 'message': 'Alert group 651d8b20ff1976583fb02ac6 is updated.', 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F6" s="65" t="n"/>
@@ -4912,17 +4947,17 @@
       </c>
       <c r="I6" s="65" t="inlineStr">
         <is>
-          <t>20:48:40</t>
+          <t>21:26:10</t>
         </is>
       </c>
       <c r="J6" s="65" t="inlineStr">
         <is>
-          <t>20:48:55</t>
+          <t>21:26:22</t>
         </is>
       </c>
       <c r="K6" s="65" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -4936,12 +4971,12 @@
       <c r="C7" s="65" t="n"/>
       <c r="D7" s="65" t="inlineStr">
         <is>
-          <t>{'agroupID': '651d8267ff1976583fb01913', 'userId': '651bee1702302bffd7a8da7b'}</t>
+          <t>{'agroupID': '651d8b2dff1976583fb02af2', 'userId': '651bee1702302bffd7a8da7b'}</t>
         </is>
       </c>
       <c r="E7" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'status': 'ok', 'message': '651bee1702302bffd7a8da7b user have been added to the alert group with id 651d8267ff1976583fb01913'}}</t>
+          <t>{'result': {'status': 'ok', 'message': '651bee1702302bffd7a8da7b user have been added to the alert group with id 651d8b2dff1976583fb02af2'}}</t>
         </is>
       </c>
       <c r="F7" s="65" t="n"/>
@@ -4957,17 +4992,17 @@
       </c>
       <c r="I7" s="65" t="inlineStr">
         <is>
-          <t>20:48:56</t>
+          <t>21:26:22</t>
         </is>
       </c>
       <c r="J7" s="65" t="inlineStr">
         <is>
-          <t>20:49:16</t>
+          <t>21:26:37</t>
         </is>
       </c>
       <c r="K7" s="65" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>15.0</t>
         </is>
       </c>
     </row>
@@ -4981,12 +5016,12 @@
       <c r="C8" s="65" t="n"/>
       <c r="D8" s="65" t="inlineStr">
         <is>
-          <t>{'agroupID': '651d827eff1976583fb0193f', 'userId': '651bee1702302bffd7a8da7b'}</t>
+          <t>{'agroupID': '651d8b3dff1976583fb02b1e', 'userId': '651bee1702302bffd7a8da7b'}</t>
         </is>
       </c>
       <c r="E8" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'status': 'ok', 'message': '651bee1702302bffd7a8da7b user have been removed from alert group with id 651d827eff1976583fb0193f'}}</t>
+          <t>{'result': {'status': 'ok', 'message': '651bee1702302bffd7a8da7b user have been removed from alert group with id 651d8b3dff1976583fb02b1e'}}</t>
         </is>
       </c>
       <c r="F8" s="65" t="n"/>
@@ -5002,17 +5037,17 @@
       </c>
       <c r="I8" s="65" t="inlineStr">
         <is>
-          <t>20:49:16</t>
+          <t>21:26:37</t>
         </is>
       </c>
       <c r="J8" s="65" t="inlineStr">
         <is>
-          <t>20:49:40</t>
+          <t>21:26:59</t>
         </is>
       </c>
       <c r="K8" s="65" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>22.0</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5066,7 @@
       </c>
       <c r="E9" s="65" t="inlineStr">
         <is>
-          <t>{'data': '651d8292ff1976583fb01977', 'message': "The alert group 'Test_notification_Api381' has been deleted (group ID was 651d8292ff1976583fb01977)", 'isSuccess': True}</t>
+          <t>{'data': '651d8b51ff1976583fb02b56', 'message': "The alert group 'Test_notification_Api636' has been deleted (group ID was 651d8b51ff1976583fb02b56)", 'isSuccess': True}</t>
         </is>
       </c>
       <c r="F9" s="65" t="n"/>
@@ -5042,22 +5077,22 @@
       </c>
       <c r="H9" s="65" t="inlineStr">
         <is>
-          <t>Response Status Code : 200 &amp; Message : The alert group 'Test_notification_Api381' has been deleted (group ID was 651d8292ff1976583fb01977)</t>
+          <t>Response Status Code : 200 &amp; Message : The alert group 'Test_notification_Api636' has been deleted (group ID was 651d8b51ff1976583fb02b56)</t>
         </is>
       </c>
       <c r="I9" s="65" t="inlineStr">
         <is>
-          <t>20:49:41</t>
+          <t>21:26:59</t>
         </is>
       </c>
       <c r="J9" s="65" t="inlineStr">
         <is>
-          <t>20:49:53</t>
+          <t>21:27:10</t>
         </is>
       </c>
       <c r="K9" s="65" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>11.0</t>
         </is>
       </c>
     </row>
@@ -5071,12 +5106,12 @@
       <c r="C10" s="65" t="n"/>
       <c r="D10" s="65" t="inlineStr">
         <is>
-          <t>{'agroupID': True, 'description': 'test description', 'name': 'Test_notification_Api824', 'ownerID': '65166d39e119836feb867ce8', 'set_cgroups': 0}</t>
+          <t>{'agroupID': True, 'description': 'test description', 'name': 'Test_notification_Api830', 'ownerID': '65166d39e119836feb867ce8', 'set_cgroups': 0}</t>
         </is>
       </c>
       <c r="E10" s="65" t="inlineStr">
         <is>
-          <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Name: Name already exists. Severity: Error', 'innerException': None, 'requestId': '00-c58680bf4cac3f1ee826f1225db26c63-abf158c0c0424bfe-00', 'requestPath': '/api/AlertGroups', 'connectionId': '0HMU4LECLPBEA'}}</t>
+          <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Name: Name already exists. Severity: Error', 'innerException': None, 'requestId': '00-952d8598cf22110fc258290d4cbea705-70b0e905d898246a-00', 'requestPath': '/api/AlertGroups', 'connectionId': '0HMU4LECLPC2S'}}</t>
         </is>
       </c>
       <c r="F10" s="65" t="n"/>
@@ -5092,17 +5127,17 @@
       </c>
       <c r="I10" s="65" t="inlineStr">
         <is>
-          <t>20:49:54</t>
+          <t>21:27:11</t>
         </is>
       </c>
       <c r="J10" s="65" t="inlineStr">
         <is>
-          <t>20:50:06</t>
+          <t>21:27:21</t>
         </is>
       </c>
       <c r="K10" s="65" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -5116,12 +5151,12 @@
       <c r="C11" s="65" t="n"/>
       <c r="D11" s="65" t="inlineStr">
         <is>
-          <t>{'CGroupID': '651d82a9ff1976583fb019b7', 'AGroupID': '651d82b0ff1976583fb019ca'}</t>
+          <t>{'CGroupID': '651d8b64ff1976583fb02b96', 'AGroupID': '651d8b69ff1976583fb02ba9'}</t>
         </is>
       </c>
       <c r="E11" s="65" t="inlineStr">
         <is>
-          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been added to the alert group with id = 651d82a9ff1976583fb019b7'}}</t>
+          <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been added to the alert group with id = 651d8b64ff1976583fb02b96'}}</t>
         </is>
       </c>
       <c r="F11" s="65" t="n"/>
@@ -5137,17 +5172,17 @@
       </c>
       <c r="I11" s="65" t="inlineStr">
         <is>
-          <t>20:50:07</t>
+          <t>21:27:21</t>
         </is>
       </c>
       <c r="J11" s="65" t="inlineStr">
         <is>
-          <t>20:50:21</t>
+          <t>21:27:33</t>
         </is>
       </c>
       <c r="K11" s="65" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -5266,17 +5301,17 @@
       </c>
       <c r="I2" s="65" t="inlineStr">
         <is>
-          <t>20:43:45</t>
+          <t>21:30:12</t>
         </is>
       </c>
       <c r="J2" s="65" t="inlineStr">
         <is>
-          <t>20:43:51</t>
+          <t>21:30:15</t>
         </is>
       </c>
       <c r="K2" s="65" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -5311,17 +5346,17 @@
       </c>
       <c r="I3" s="65" t="inlineStr">
         <is>
-          <t>20:43:52</t>
+          <t>21:30:15</t>
         </is>
       </c>
       <c r="J3" s="65" t="inlineStr">
         <is>
-          <t>20:44:00</t>
+          <t>21:30:21</t>
         </is>
       </c>
       <c r="K3" s="65" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>
@@ -5424,7 +5459,7 @@
       </c>
       <c r="E2" s="65" t="inlineStr">
         <is>
-          <t>[{'accountId': '65166d39e119836feb867ce8', 'aGroupIDs': ['65166d491a1e19a5219d895d', '65167cbb02302bffd7a8bbbf', '65167cc202302bffd7a8bbe1', '65167ccd02302bffd7a8bc0e', '65167ce702302bffd7a8bca5', '65167cf302302bffd7a8bcf4', '65167d0e02302bffd7a8bd4e', '65167d1b02302bffd7a8bd76', '651be64a02302bffd7a8d672', '651be65002302bffd7a8d680', '651be65d02302bffd7a8d6ab', '651be67402302bffd7a8d6e5', '651be68102302bffd7a8d707', '651be6a102302bffd7a8d753', '651be6b402302bffd7a8d774', '651bf28402302bffd7a8ddab', '651bf28d02302bffd7a8ddbd', '651bf2a002302bffd7a8ddfe', '651bf2c402302bffd7a8de48', '651bf2d902302bffd7a8de89', '651bf30202302bffd7a8dee9', '651bf31702302bffd7a8df14'], 'authParams': '', 'authType': 0, 'autoThreshold': 0.83, 'caseTTL': 0, 'contact': {'address1': '', 'address2': '', 'city': '', 'company': '', 'department': '', 'email': 'ritesh.kagale@facefirst.com', 'faxNumber': '', 'firstName': 'Company', 'homePhone': '', 'lastName': 'Account', 'middleName': '', 'state': '', 'timezoneID': 'Asia/Kolkata', 'title': '', 'workPhone': '', 'zip': ''}, 'enabled': True, 'cGroupIDs': ['65166d491a1e19a5219d8956', '65167b6402302bffd7a8b98a', '65167b6b02302bffd7a8b997', '65167b7b02302bffd7a8b9a8', '65167b8b02302bffd7a8b9ca', '65167b9702302bffd7a8b9e3', '65167ba302302bffd7a8ba00', '65167bae02302bffd7a8ba1f', '65167bb902302bffd7a8ba3e', '65167bc702302bffd7a8ba5e', '65167bf002302bffd7a8ba80', '65167cb902302bffd7a8bbb5', '65167d1702302bffd7a8bd60', '6516983902302bffd7a8c3fe', '6516a2f902302bffd7a8c444', '6516a35302302bffd7a8c470', '6516a71e02302bffd7a8c4c7', '6516aa8902302bffd7a8c572', '6516aac302302bffd7a8c59e', '6516ab0302302bffd7a8c5c6', '6516ab4b02302bffd7a8c5ee', '6516aba102302bffd7a8c61f', '6516da5d02302bffd7a8c8d5', '6516db0402302bffd7a8c919', '6516db6302302bffd7a8c94a', '6516dd2c02302bffd7a8c999', '6516e07002302bffd7a8ca27', '6516e1af02302bffd7a8ca89', '6516e21a02302bffd7a8cabf', '6516e26602302bffd7a8caf7', '6516e3a502302bffd7a8cb36', '6516e3b802302bffd7a8cb67', '651bb31f02302bffd7a8cce1', '651bb35402302bffd7a8cd27', '651bb35902302bffd7a8cd34', '651bb36002302bffd7a8cd44', '651bb36e02302bffd7a8cd65', '651bb37902302bffd7a8cd7e', '651bb38402302bffd7a8cd99', '651bb39202302bffd7a8cddc', '651bb3a302302bffd7a8ce1f', '651bb3af02302bffd7a8ce4f', '651bbcfa02302bffd7a8ce86', '651bbdda02302bffd7a8ceb1', '651bbe1002302bffd7a8ced7', '651bbe8a02302bffd7a8cefd', '651bbed502302bffd7a8cf23', '651bbf0102302bffd7a8cf49', '651bbf7502302bffd7a8cf6f', '651bbf9402302bffd7a8cfa0', '651bc12b02302bffd7a8cfdd', '651bc18602302bffd7a8d01a', '651bc1cf02302bffd7a8d057', '651bc1eb02302bffd7a8d094', '651bc5a402302bffd7a8d0ca', '651be5b702302bffd7a8d477', '651be5bd02302bffd7a8d484', '651be5c302302bffd7a8d494', '651be5cf02302bffd7a8d4b5', '651be5d902302bffd7a8d4ce', '651be5e302302bffd7a8d4e9', '651be5ed02302bffd7a8d53a', '651be5f902302bffd7a8d58b', '651be60402302bffd7a8d5bb', '651be61102302bffd7a8d5f0', '651be62402302bffd7a8d621', '651be64702302bffd7a8d668', '651be6ac02302bffd7a8d765', '651bf19d02302bffd7a8daf9', '651bf1a802302bffd7a8db0a', '651bf1b602302bffd7a8db1e', '651bf1d102302bffd7a8db47', '651bf1e102302bffd7a8db66', '651bf1f102302bffd7a8db87', '651bf20502302bffd7a8dbe4', '651bf21602302bffd7a8dc41', '651bf22702302bffd7a8dcc2', '651bf23b02302bffd7a8dd0f', '651bf25702302bffd7a8dd4c', '651bf28002302bffd7a8dd9f', '651bf31002302bffd7a8df01', '651c0c1902302bffd7a8e491', '651c0c2d02302bffd7a8e4ce', '651c189a02302bffd7a8e5bf', '651c19d002302bffd7a8e6da', '651c1ab902302bffd7a8e78d', '651c232302302bffd7a8e7e3', '651c233d02302bffd7a8e820', '651c235402302bffd7a8e86b', '651c236d02302bffd7a8e8b3', '651c24f602302bffd7a8e915', '651c250b02302bffd7a8e952', '651c252602302bffd7a8e99d', '651c253d02302bffd7a8e9e5', '651c25b202302bffd7a8ea29', '651c26e202302bffd7a8ea6d', '651c26f802302bffd7a8eaaa', '651c271002302bffd7a8eaf5', '651c272902302bffd7a8eb3d', '651cfa6702302bffd7a8ef12', '651d02e502302bffd7a8f003', '651d37f0ff1976583fafdf61', '651d3b50ff1976583fafe0a5', '651d4668ff1976583fafe6bf', '651d584eff1976583fafef98', '651d597dff1976583faff00c', '651d59d3ff1976583faff057', '651d5cdbff1976583faff37b', '651d63b3ff1976583faff6d2', '651d63ebff1976583faff716', '651d6436ff1976583faff75a', '651d648eff1976583faff79e', '651d64b4ff1976583faff7e6', '651d65fdff1976583faff991', '651d66c8ff1976583faffa21', '651d66fbff1976583faffa69', '651d6725ff1976583faffb6a', '651d67abff1976583faffc5e', '651d67e6ff1976583faffca6', '651d6821ff1976583faffcbe', '651d6856ff1976583faffd06', '651d699eff1976583faffd8e', '651d69b3ff1976583faffdcb', '651d69d5ff1976583faffdf5', '651d69e8ff1976583faffe32', '651d6a84ff1976583faffe5c', '651d6ac4ff1976583faffea4', '651d6b05ff1976583fafff0c', '651d6b42ff1976583fafff75', '651d6b7fff1976583fafffbd', '651d6b92ff1976583faffffa', '651d6d44ff1976583fb00409', '651d6d57ff1976583fb00446', '651d7410ff1976583fb0071f', '651d7432ff1976583fb007a5', '651d7446ff1976583fb007e2'], 'maxEnrollments': 1000000, 'maxFaceNoteTimeDiff': '1800', 'maxInvestigationLength': 1800, 'maxSubusers': 100, 'maxTransactionAge': 86400, 'numCases': 33, 'sessionExpiration': 3600, 'stationIDs': ['DESKTOP-PTTAM1V:x01', 'DESKTOP-660P8Q2:x01', 'DESKTOP-75UBP18:x01'], 'userIDs': ['65166d434e4df05a37a98bea', '65166d491a1e19a5219d8948', '65166d4a1a1e19a5219d8966', '65166dbdd319a18d9ce09bfd', '65166dbdd319a18d9ce09bff', '65167c6602302bffd7a8baaf', '65167c7102302bffd7a8bac2', '65167c7b02302bffd7a8bad5', '65167c8402302bffd7a8bae8', '65167c9f02302bffd7a8bb32', '65167caa02302bffd7a8bb77', '65167cb402302bffd7a8bba2', '65167ced02302bffd7a8bccc', '65167cf502302bffd7a8bd00', '65167d1e02302bffd7a8bd8c', '65167d7c02302bffd7a8bdb0', '65167d9702302bffd7a8bdb7', '65167e1a02302bffd7a8bdde', '65167e3e02302bffd7a8bdf1', '65167e9f02302bffd7a8be0a', '65167ea802302bffd7a8be20', '65167eb102302bffd7a8be33', '65167eba02302bffd7a8be46', '65167ecf02302bffd7a8be6d', '65167ed802302bffd7a8be83', '65167ee902302bffd7a8beac', '65167f5c02302bffd7a8bfb4', '65167fb202302bffd7a8bffc', '6516802502302bffd7a8c00f', '6516802e02302bffd7a8c022', '6516803702302bffd7a8c035', '6516804002302bffd7a8c048', '6516805502302bffd7a8c06c', '6516805e02302bffd7a8c07f', '6516806e02302bffd7a8c0ac', '651689c502302bffd7a8c255', '651689cb02302bffd7a8c268', '651689d102302bffd7a8c27b', '651689d702302bffd7a8c28e', '651689e602302bffd7a8c2b2', '651689ec02302bffd7a8c2c5', '651689f802302bffd7a8c2ee', '651bde5702302bffd7a8d376', '651bde5a02302bffd7a8d3ac', '651be6d102302bffd7a8d7b4', '651be6d902302bffd7a8d7c7', '651be6e602302bffd7a8d7da', '651be6f002302bffd7a8d7ed', '651be70402302bffd7a8d811', '651be70d02302bffd7a8d824', '651be71c02302bffd7a8d84d', '651bee1702302bffd7a8da7b', '651bf32a02302bffd7a8df37', '651bf33a02302bffd7a8df4e', '651bf34802302bffd7a8df65', '651bf35802302bffd7a8df7c', '651bf37902302bffd7a8dfb0', '651bf38802302bffd7a8dfc7', '651bf3a502302bffd7a8dffd', '651d12ca02302bffd7a8f0d0']}]</t>
+          <t>[{'accountId': '65166d39e119836feb867ce8', 'aGroupIDs': ['65166d491a1e19a5219d895d', '65167cbb02302bffd7a8bbbf', '65167cc202302bffd7a8bbe1', '65167ccd02302bffd7a8bc0e', '65167ce702302bffd7a8bca5', '65167cf302302bffd7a8bcf4', '65167d0e02302bffd7a8bd4e', '65167d1b02302bffd7a8bd76', '651be64a02302bffd7a8d672', '651be65002302bffd7a8d680', '651be65d02302bffd7a8d6ab', '651be67402302bffd7a8d6e5', '651be68102302bffd7a8d707', '651be6a102302bffd7a8d753', '651be6b402302bffd7a8d774', '651bf28402302bffd7a8ddab', '651bf28d02302bffd7a8ddbd', '651bf2a002302bffd7a8ddfe', '651bf2c402302bffd7a8de48', '651bf2d902302bffd7a8de89', '651bf30202302bffd7a8dee9', '651bf31702302bffd7a8df14', '651d8234ff1976583fb01866', '651d823cff1976583fb01878', '651d8249ff1976583fb018c9', '651d8267ff1976583fb01913', '651d827eff1976583fb0193f', '651d829fff1976583fb0199f', '651d82b0ff1976583fb019ca'], 'authParams': '', 'authType': 0, 'autoThreshold': 0.83, 'caseTTL': 0, 'contact': {'address1': '', 'address2': '', 'city': '', 'company': '', 'department': '', 'email': 'ritesh.kagale@facefirst.com', 'faxNumber': '', 'firstName': 'Company', 'homePhone': '', 'lastName': 'Account', 'middleName': '', 'state': '', 'timezoneID': 'Asia/Kolkata', 'title': '', 'workPhone': '', 'zip': ''}, 'enabled': True, 'cGroupIDs': ['65166d491a1e19a5219d8956', '65167b6402302bffd7a8b98a', '65167b6b02302bffd7a8b997', '65167b7b02302bffd7a8b9a8', '65167b8b02302bffd7a8b9ca', '65167b9702302bffd7a8b9e3', '65167ba302302bffd7a8ba00', '65167bae02302bffd7a8ba1f', '65167bb902302bffd7a8ba3e', '65167bc702302bffd7a8ba5e', '65167bf002302bffd7a8ba80', '65167cb902302bffd7a8bbb5', '65167d1702302bffd7a8bd60', '6516983902302bffd7a8c3fe', '6516a2f902302bffd7a8c444', '6516a35302302bffd7a8c470', '6516a71e02302bffd7a8c4c7', '6516aa8902302bffd7a8c572', '6516aac302302bffd7a8c59e', '6516ab0302302bffd7a8c5c6', '6516ab4b02302bffd7a8c5ee', '6516aba102302bffd7a8c61f', '6516da5d02302bffd7a8c8d5', '6516db0402302bffd7a8c919', '6516db6302302bffd7a8c94a', '6516dd2c02302bffd7a8c999', '6516e07002302bffd7a8ca27', '6516e1af02302bffd7a8ca89', '6516e21a02302bffd7a8cabf', '6516e26602302bffd7a8caf7', '6516e3a502302bffd7a8cb36', '6516e3b802302bffd7a8cb67', '651bb31f02302bffd7a8cce1', '651bb35402302bffd7a8cd27', '651bb35902302bffd7a8cd34', '651bb36002302bffd7a8cd44', '651bb36e02302bffd7a8cd65', '651bb37902302bffd7a8cd7e', '651bb38402302bffd7a8cd99', '651bb39202302bffd7a8cddc', '651bb3a302302bffd7a8ce1f', '651bb3af02302bffd7a8ce4f', '651bbcfa02302bffd7a8ce86', '651bbdda02302bffd7a8ceb1', '651bbe1002302bffd7a8ced7', '651bbe8a02302bffd7a8cefd', '651bbed502302bffd7a8cf23', '651bbf0102302bffd7a8cf49', '651bbf7502302bffd7a8cf6f', '651bbf9402302bffd7a8cfa0', '651bc12b02302bffd7a8cfdd', '651bc18602302bffd7a8d01a', '651bc1cf02302bffd7a8d057', '651bc1eb02302bffd7a8d094', '651bc5a402302bffd7a8d0ca', '651be5b702302bffd7a8d477', '651be5bd02302bffd7a8d484', '651be5c302302bffd7a8d494', '651be5cf02302bffd7a8d4b5', '651be5d902302bffd7a8d4ce', '651be5e302302bffd7a8d4e9', '651be5ed02302bffd7a8d53a', '651be5f902302bffd7a8d58b', '651be60402302bffd7a8d5bb', '651be61102302bffd7a8d5f0', '651be62402302bffd7a8d621', '651be64702302bffd7a8d668', '651be6ac02302bffd7a8d765', '651bf19d02302bffd7a8daf9', '651bf1a802302bffd7a8db0a', '651bf1b602302bffd7a8db1e', '651bf1d102302bffd7a8db47', '651bf1e102302bffd7a8db66', '651bf1f102302bffd7a8db87', '651bf20502302bffd7a8dbe4', '651bf21602302bffd7a8dc41', '651bf22702302bffd7a8dcc2', '651bf23b02302bffd7a8dd0f', '651bf25702302bffd7a8dd4c', '651bf28002302bffd7a8dd9f', '651bf31002302bffd7a8df01', '651c0c1902302bffd7a8e491', '651c0c2d02302bffd7a8e4ce', '651c189a02302bffd7a8e5bf', '651c19d002302bffd7a8e6da', '651c1ab902302bffd7a8e78d', '651c232302302bffd7a8e7e3', '651c233d02302bffd7a8e820', '651c235402302bffd7a8e86b', '651c236d02302bffd7a8e8b3', '651c24f602302bffd7a8e915', '651c250b02302bffd7a8e952', '651c252602302bffd7a8e99d', '651c253d02302bffd7a8e9e5', '651c25b202302bffd7a8ea29', '651c26e202302bffd7a8ea6d', '651c26f802302bffd7a8eaaa', '651c271002302bffd7a8eaf5', '651c272902302bffd7a8eb3d', '651cfa6702302bffd7a8ef12', '651d02e502302bffd7a8f003', '651d37f0ff1976583fafdf61', '651d3b50ff1976583fafe0a5', '651d4668ff1976583fafe6bf', '651d584eff1976583fafef98', '651d597dff1976583faff00c', '651d59d3ff1976583faff057', '651d5cdbff1976583faff37b', '651d63b3ff1976583faff6d2', '651d63ebff1976583faff716', '651d6436ff1976583faff75a', '651d648eff1976583faff79e', '651d64b4ff1976583faff7e6', '651d65fdff1976583faff991', '651d66c8ff1976583faffa21', '651d66fbff1976583faffa69', '651d6725ff1976583faffb6a', '651d67abff1976583faffc5e', '651d67e6ff1976583faffca6', '651d6821ff1976583faffcbe', '651d6856ff1976583faffd06', '651d699eff1976583faffd8e', '651d69b3ff1976583faffdcb', '651d69d5ff1976583faffdf5', '651d69e8ff1976583faffe32', '651d6a84ff1976583faffe5c', '651d6ac4ff1976583faffea4', '651d6b05ff1976583fafff0c', '651d6b42ff1976583fafff75', '651d6b7fff1976583fafffbd', '651d6b92ff1976583faffffa', '651d6d44ff1976583fb00409', '651d6d57ff1976583fb00446', '651d7410ff1976583fb0071f', '651d7432ff1976583fb007a5', '651d7446ff1976583fb007e2', '651d7ec8ff1976583fb008f8', '651d7eceff1976583fb00910', '651d7ed8ff1976583fb00934', '651d7ee9ff1976583fb0095d', '651d7ef2ff1976583fb00991', '651d7efdff1976583fb009cb', '651d7f00ff1976583fb009dc', '651d7f06ff1976583fb00a3e', '651d7f0eff1976583fb00a64', '651d7f0fff1976583fb00a67', '651d7f1cff1976583fb00aec', '651d7f20ff1976583fb00b04', '651d7f26ff1976583fb00b5c', '651d7f31ff1976583fb00b92', '651d7f31ff1976583fb00b95', '651d7f3eff1976583fb00c47', '651d7f45ff1976583fb00cbb', '651d7f48ff1976583fb00cd3', '651d7f54ff1976583fb00d46', '651d7f65ff1976583fb00db4', '651d7f68ff1976583fb00dc5', '651d7f7dff1976583fb00e3c', '651d7f7dff1976583fb00e3f', '651d7f95ff1976583fb00eb6', '651d7f99ff1976583fb00ece', '651d7fabff1976583fb00f37', '651d7fb3ff1976583fb00f6b', '651d7fc3ff1976583fb00fa5', '651d7fd8ff1976583fb01018', '651d7fd9ff1976583fb0101b', '651d7febff1976583fb01092', '651d7fecff1976583fb01095', '651d8107ff1976583fb01572', '651d8167ff1976583fb01613', '651d8180ff1976583fb01650', '651d81a0ff1976583fb01694', '651d81bbff1976583fb016d8', '651d81d6ff1976583fb0171c', '651d81ecff1976583fb01764', '651d81f5ff1976583fb01791', '651d8202ff1976583fb017de', '651d8219ff1976583fb01816', '651d8231ff1976583fb0185a', '651d82a9ff1976583fb019b7', '651d8416ff1976583fb019f6', '651d8429ff1976583fb01a33', '651d843eff1976583fb01a7e', '651d8451ff1976583fb01ac2', '651d8467ff1976583fb01b06', '651d847dff1976583fb01bc2', '651d848eff1976583fb01bff', '651d84b7ff1976583fb01c29', '651d8582ff1976583fb01c6d', '651d869cff1976583fb01cb1', '651d86acff1976583fb01cee', '651d86beff1976583fb01d39', '651d86d1ff1976583fb01d7d', '651d86e3ff1976583fb01dc1', '651d86f8ff1976583fb01e8d', '651d8707ff1976583fb01eca', '651d8778ff1976583fb01f3d', '651d87e0ff1976583fb01f81', '651d8862ff1976583fb020ff'], 'maxEnrollments': 1000000, 'maxFaceNoteTimeDiff': '1800', 'maxInvestigationLength': 1800, 'maxSubusers': 100, 'maxTransactionAge': 86400, 'numCases': 71, 'sessionExpiration': 3600, 'stationIDs': ['DESKTOP-PTTAM1V:x01', 'DESKTOP-660P8Q2:x01', 'DESKTOP-75UBP18:x01'], 'userIDs': ['65166d434e4df05a37a98bea', '65166d491a1e19a5219d8948', '65166d4a1a1e19a5219d8966', '65166dbdd319a18d9ce09bfd', '65166dbdd319a18d9ce09bff', '65167c6602302bffd7a8baaf', '65167c7102302bffd7a8bac2', '65167c7b02302bffd7a8bad5', '65167c8402302bffd7a8bae8', '65167c9f02302bffd7a8bb32', '65167caa02302bffd7a8bb77', '65167cb402302bffd7a8bba2', '65167ced02302bffd7a8bccc', '65167cf502302bffd7a8bd00', '65167d1e02302bffd7a8bd8c', '65167d7c02302bffd7a8bdb0', '65167d9702302bffd7a8bdb7', '65167e1a02302bffd7a8bdde', '65167e3e02302bffd7a8bdf1', '65167e9f02302bffd7a8be0a', '65167ea802302bffd7a8be20', '65167eb102302bffd7a8be33', '65167eba02302bffd7a8be46', '65167ecf02302bffd7a8be6d', '65167ed802302bffd7a8be83', '65167ee902302bffd7a8beac', '65167f5c02302bffd7a8bfb4', '65167fb202302bffd7a8bffc', '6516802502302bffd7a8c00f', '6516802e02302bffd7a8c022', '6516803702302bffd7a8c035', '6516804002302bffd7a8c048', '6516805502302bffd7a8c06c', '6516805e02302bffd7a8c07f', '6516806e02302bffd7a8c0ac', '651689c502302bffd7a8c255', '651689cb02302bffd7a8c268', '651689d102302bffd7a8c27b', '651689d702302bffd7a8c28e', '651689e602302bffd7a8c2b2', '651689ec02302bffd7a8c2c5', '651689f802302bffd7a8c2ee', '651bde5702302bffd7a8d376', '651bde5a02302bffd7a8d3ac', '651be6d102302bffd7a8d7b4', '651be6d902302bffd7a8d7c7', '651be6e602302bffd7a8d7da', '651be6f002302bffd7a8d7ed', '651be70402302bffd7a8d811', '651be70d02302bffd7a8d824', '651be71c02302bffd7a8d84d', '651bee1702302bffd7a8da7b', '651bf32a02302bffd7a8df37', '651bf33a02302bffd7a8df4e', '651bf34802302bffd7a8df65', '651bf35802302bffd7a8df7c', '651bf37902302bffd7a8dfb0', '651bf38802302bffd7a8dfc7', '651bf3a502302bffd7a8dffd', '651d12ca02302bffd7a8f0d0', '651d8036ff1976583fb01213', '651d803fff1976583fb01242', '651d8048ff1976583fb0126f', '651d8052ff1976583fb012a1', '651d805aff1976583fb012bf', '651d8068ff1976583fb012ef', '651d8069ff1976583fb012f6', '651d8074ff1976583fb01318', '651d8077ff1976583fb0132d', '651d8093ff1976583fb01375', '651d80a3ff1976583fb013b9', '651d80bcff1976583fb01443', '651d88aaff1976583fb0217e', '651d88c9ff1976583fb021e0', '651d88ddff1976583fb021f7', '651d88e9ff1976583fb0220e', '651d88f2ff1976583fb02225', '651d88feff1976583fb0223c', '651d8918ff1976583fb0226a', '651d8923ff1976583fb02281', '651d8932ff1976583fb022b2']}]</t>
         </is>
       </c>
       <c r="F2" s="65" t="n"/>
@@ -5440,12 +5475,12 @@
       </c>
       <c r="I2" s="65" t="inlineStr">
         <is>
-          <t>20:33:03</t>
+          <t>21:20:08</t>
         </is>
       </c>
       <c r="J2" s="65" t="inlineStr">
         <is>
-          <t>20:33:07</t>
+          <t>21:20:12</t>
         </is>
       </c>
       <c r="K2" s="65" t="inlineStr">
@@ -5469,7 +5504,7 @@
       </c>
       <c r="E3" s="65" t="inlineStr">
         <is>
-          <t>{'accountId': '65166d39e119836feb867ce8', 'aGroupIDs': ['65166d491a1e19a5219d895d', '65167cbb02302bffd7a8bbbf', '65167cc202302bffd7a8bbe1', '65167ccd02302bffd7a8bc0e', '65167ce702302bffd7a8bca5', '65167cf302302bffd7a8bcf4', '65167d0e02302bffd7a8bd4e', '65167d1b02302bffd7a8bd76', '651be64a02302bffd7a8d672', '651be65002302bffd7a8d680', '651be65d02302bffd7a8d6ab', '651be67402302bffd7a8d6e5', '651be68102302bffd7a8d707', '651be6a102302bffd7a8d753', '651be6b402302bffd7a8d774', '651bf28402302bffd7a8ddab', '651bf28d02302bffd7a8ddbd', '651bf2a002302bffd7a8ddfe', '651bf2c402302bffd7a8de48', '651bf2d902302bffd7a8de89', '651bf30202302bffd7a8dee9', '651bf31702302bffd7a8df14'], 'authParams': '', 'authType': 0, 'autoThreshold': 0.83, 'caseTTL': 0, 'contact': {'address1': '', 'address2': '', 'city': '', 'company': '', 'department': '', 'email': 'ritesh.kagale@facefirst.com', 'faxNumber': '', 'firstName': 'Company', 'homePhone': '', 'lastName': 'Account', 'middleName': '', 'state': '', 'timezoneID': 'Asia/Kolkata', 'title': '', 'workPhone': '', 'zip': ''}, 'enabled': True, 'cGroupIDs': ['65166d491a1e19a5219d8956', '65167b6402302bffd7a8b98a', '65167b6b02302bffd7a8b997', '65167b7b02302bffd7a8b9a8', '65167b8b02302bffd7a8b9ca', '65167b9702302bffd7a8b9e3', '65167ba302302bffd7a8ba00', '65167bae02302bffd7a8ba1f', '65167bb902302bffd7a8ba3e', '65167bc702302bffd7a8ba5e', '65167bf002302bffd7a8ba80', '65167cb902302bffd7a8bbb5', '65167d1702302bffd7a8bd60', '6516983902302bffd7a8c3fe', '6516a2f902302bffd7a8c444', '6516a35302302bffd7a8c470', '6516a71e02302bffd7a8c4c7', '6516aa8902302bffd7a8c572', '6516aac302302bffd7a8c59e', '6516ab0302302bffd7a8c5c6', '6516ab4b02302bffd7a8c5ee', '6516aba102302bffd7a8c61f', '6516da5d02302bffd7a8c8d5', '6516db0402302bffd7a8c919', '6516db6302302bffd7a8c94a', '6516dd2c02302bffd7a8c999', '6516e07002302bffd7a8ca27', '6516e1af02302bffd7a8ca89', '6516e21a02302bffd7a8cabf', '6516e26602302bffd7a8caf7', '6516e3a502302bffd7a8cb36', '6516e3b802302bffd7a8cb67', '651bb31f02302bffd7a8cce1', '651bb35402302bffd7a8cd27', '651bb35902302bffd7a8cd34', '651bb36002302bffd7a8cd44', '651bb36e02302bffd7a8cd65', '651bb37902302bffd7a8cd7e', '651bb38402302bffd7a8cd99', '651bb39202302bffd7a8cddc', '651bb3a302302bffd7a8ce1f', '651bb3af02302bffd7a8ce4f', '651bbcfa02302bffd7a8ce86', '651bbdda02302bffd7a8ceb1', '651bbe1002302bffd7a8ced7', '651bbe8a02302bffd7a8cefd', '651bbed502302bffd7a8cf23', '651bbf0102302bffd7a8cf49', '651bbf7502302bffd7a8cf6f', '651bbf9402302bffd7a8cfa0', '651bc12b02302bffd7a8cfdd', '651bc18602302bffd7a8d01a', '651bc1cf02302bffd7a8d057', '651bc1eb02302bffd7a8d094', '651bc5a402302bffd7a8d0ca', '651be5b702302bffd7a8d477', '651be5bd02302bffd7a8d484', '651be5c302302bffd7a8d494', '651be5cf02302bffd7a8d4b5', '651be5d902302bffd7a8d4ce', '651be5e302302bffd7a8d4e9', '651be5ed02302bffd7a8d53a', '651be5f902302bffd7a8d58b', '651be60402302bffd7a8d5bb', '651be61102302bffd7a8d5f0', '651be62402302bffd7a8d621', '651be64702302bffd7a8d668', '651be6ac02302bffd7a8d765', '651bf19d02302bffd7a8daf9', '651bf1a802302bffd7a8db0a', '651bf1b602302bffd7a8db1e', '651bf1d102302bffd7a8db47', '651bf1e102302bffd7a8db66', '651bf1f102302bffd7a8db87', '651bf20502302bffd7a8dbe4', '651bf21602302bffd7a8dc41', '651bf22702302bffd7a8dcc2', '651bf23b02302bffd7a8dd0f', '651bf25702302bffd7a8dd4c', '651bf28002302bffd7a8dd9f', '651bf31002302bffd7a8df01', '651c0c1902302bffd7a8e491', '651c0c2d02302bffd7a8e4ce', '651c189a02302bffd7a8e5bf', '651c19d002302bffd7a8e6da', '651c1ab902302bffd7a8e78d', '651c232302302bffd7a8e7e3', '651c233d02302bffd7a8e820', '651c235402302bffd7a8e86b', '651c236d02302bffd7a8e8b3', '651c24f602302bffd7a8e915', '651c250b02302bffd7a8e952', '651c252602302bffd7a8e99d', '651c253d02302bffd7a8e9e5', '651c25b202302bffd7a8ea29', '651c26e202302bffd7a8ea6d', '651c26f802302bffd7a8eaaa', '651c271002302bffd7a8eaf5', '651c272902302bffd7a8eb3d', '651cfa6702302bffd7a8ef12', '651d02e502302bffd7a8f003', '651d37f0ff1976583fafdf61', '651d3b50ff1976583fafe0a5', '651d4668ff1976583fafe6bf', '651d584eff1976583fafef98', '651d597dff1976583faff00c', '651d59d3ff1976583faff057', '651d5cdbff1976583faff37b', '651d63b3ff1976583faff6d2', '651d63ebff1976583faff716', '651d6436ff1976583faff75a', '651d648eff1976583faff79e', '651d64b4ff1976583faff7e6', '651d65fdff1976583faff991', '651d66c8ff1976583faffa21', '651d66fbff1976583faffa69', '651d6725ff1976583faffb6a', '651d67abff1976583faffc5e', '651d67e6ff1976583faffca6', '651d6821ff1976583faffcbe', '651d6856ff1976583faffd06', '651d699eff1976583faffd8e', '651d69b3ff1976583faffdcb', '651d69d5ff1976583faffdf5', '651d69e8ff1976583faffe32', '651d6a84ff1976583faffe5c', '651d6ac4ff1976583faffea4', '651d6b05ff1976583fafff0c', '651d6b42ff1976583fafff75', '651d6b7fff1976583fafffbd', '651d6b92ff1976583faffffa', '651d6d44ff1976583fb00409', '651d6d57ff1976583fb00446', '651d7410ff1976583fb0071f', '651d7432ff1976583fb007a5', '651d7446ff1976583fb007e2'], 'maxEnrollments': 1000000, 'maxFaceNoteTimeDiff': '1800', 'maxInvestigationLength': 1800, 'maxSubusers': 100, 'maxTransactionAge': 86400, 'numCases': 33, 'sessionExpiration': 3600, 'stationIDs': ['DESKTOP-PTTAM1V:x01', 'DESKTOP-660P8Q2:x01', 'DESKTOP-75UBP18:x01'], 'userIDs': ['65166d434e4df05a37a98bea', '65166d491a1e19a5219d8948', '65166d4a1a1e19a5219d8966', '65166dbdd319a18d9ce09bfd', '65166dbdd319a18d9ce09bff', '65167c6602302bffd7a8baaf', '65167c7102302bffd7a8bac2', '65167c7b02302bffd7a8bad5', '65167c8402302bffd7a8bae8', '65167c9f02302bffd7a8bb32', '65167caa02302bffd7a8bb77', '65167cb402302bffd7a8bba2', '65167ced02302bffd7a8bccc', '65167cf502302bffd7a8bd00', '65167d1e02302bffd7a8bd8c', '65167d7c02302bffd7a8bdb0', '65167d9702302bffd7a8bdb7', '65167e1a02302bffd7a8bdde', '65167e3e02302bffd7a8bdf1', '65167e9f02302bffd7a8be0a', '65167ea802302bffd7a8be20', '65167eb102302bffd7a8be33', '65167eba02302bffd7a8be46', '65167ecf02302bffd7a8be6d', '65167ed802302bffd7a8be83', '65167ee902302bffd7a8beac', '65167f5c02302bffd7a8bfb4', '65167fb202302bffd7a8bffc', '6516802502302bffd7a8c00f', '6516802e02302bffd7a8c022', '6516803702302bffd7a8c035', '6516804002302bffd7a8c048', '6516805502302bffd7a8c06c', '6516805e02302bffd7a8c07f', '6516806e02302bffd7a8c0ac', '651689c502302bffd7a8c255', '651689cb02302bffd7a8c268', '651689d102302bffd7a8c27b', '651689d702302bffd7a8c28e', '651689e602302bffd7a8c2b2', '651689ec02302bffd7a8c2c5', '651689f802302bffd7a8c2ee', '651bde5702302bffd7a8d376', '651bde5a02302bffd7a8d3ac', '651be6d102302bffd7a8d7b4', '651be6d902302bffd7a8d7c7', '651be6e602302bffd7a8d7da', '651be6f002302bffd7a8d7ed', '651be70402302bffd7a8d811', '651be70d02302bffd7a8d824', '651be71c02302bffd7a8d84d', '651bee1702302bffd7a8da7b', '651bf32a02302bffd7a8df37', '651bf33a02302bffd7a8df4e', '651bf34802302bffd7a8df65', '651bf35802302bffd7a8df7c', '651bf37902302bffd7a8dfb0', '651bf38802302bffd7a8dfc7', '651bf3a502302bffd7a8dffd', '651d12ca02302bffd7a8f0d0']}</t>
+          <t>{'accountId': '65166d39e119836feb867ce8', 'aGroupIDs': ['65166d491a1e19a5219d895d', '65167cbb02302bffd7a8bbbf', '65167cc202302bffd7a8bbe1', '65167ccd02302bffd7a8bc0e', '65167ce702302bffd7a8bca5', '65167cf302302bffd7a8bcf4', '65167d0e02302bffd7a8bd4e', '65167d1b02302bffd7a8bd76', '651be64a02302bffd7a8d672', '651be65002302bffd7a8d680', '651be65d02302bffd7a8d6ab', '651be67402302bffd7a8d6e5', '651be68102302bffd7a8d707', '651be6a102302bffd7a8d753', '651be6b402302bffd7a8d774', '651bf28402302bffd7a8ddab', '651bf28d02302bffd7a8ddbd', '651bf2a002302bffd7a8ddfe', '651bf2c402302bffd7a8de48', '651bf2d902302bffd7a8de89', '651bf30202302bffd7a8dee9', '651bf31702302bffd7a8df14', '651d8234ff1976583fb01866', '651d823cff1976583fb01878', '651d8249ff1976583fb018c9', '651d8267ff1976583fb01913', '651d827eff1976583fb0193f', '651d829fff1976583fb0199f', '651d82b0ff1976583fb019ca'], 'authParams': '', 'authType': 0, 'autoThreshold': 0.83, 'caseTTL': 0, 'contact': {'address1': '', 'address2': '', 'city': '', 'company': '', 'department': '', 'email': 'ritesh.kagale@facefirst.com', 'faxNumber': '', 'firstName': 'Company', 'homePhone': '', 'lastName': 'Account', 'middleName': '', 'state': '', 'timezoneID': 'Asia/Kolkata', 'title': '', 'workPhone': '', 'zip': ''}, 'enabled': True, 'cGroupIDs': ['65166d491a1e19a5219d8956', '65167b6402302bffd7a8b98a', '65167b6b02302bffd7a8b997', '65167b7b02302bffd7a8b9a8', '65167b8b02302bffd7a8b9ca', '65167b9702302bffd7a8b9e3', '65167ba302302bffd7a8ba00', '65167bae02302bffd7a8ba1f', '65167bb902302bffd7a8ba3e', '65167bc702302bffd7a8ba5e', '65167bf002302bffd7a8ba80', '65167cb902302bffd7a8bbb5', '65167d1702302bffd7a8bd60', '6516983902302bffd7a8c3fe', '6516a2f902302bffd7a8c444', '6516a35302302bffd7a8c470', '6516a71e02302bffd7a8c4c7', '6516aa8902302bffd7a8c572', '6516aac302302bffd7a8c59e', '6516ab0302302bffd7a8c5c6', '6516ab4b02302bffd7a8c5ee', '6516aba102302bffd7a8c61f', '6516da5d02302bffd7a8c8d5', '6516db0402302bffd7a8c919', '6516db6302302bffd7a8c94a', '6516dd2c02302bffd7a8c999', '6516e07002302bffd7a8ca27', '6516e1af02302bffd7a8ca89', '6516e21a02302bffd7a8cabf', '6516e26602302bffd7a8caf7', '6516e3a502302bffd7a8cb36', '6516e3b802302bffd7a8cb67', '651bb31f02302bffd7a8cce1', '651bb35402302bffd7a8cd27', '651bb35902302bffd7a8cd34', '651bb36002302bffd7a8cd44', '651bb36e02302bffd7a8cd65', '651bb37902302bffd7a8cd7e', '651bb38402302bffd7a8cd99', '651bb39202302bffd7a8cddc', '651bb3a302302bffd7a8ce1f', '651bb3af02302bffd7a8ce4f', '651bbcfa02302bffd7a8ce86', '651bbdda02302bffd7a8ceb1', '651bbe1002302bffd7a8ced7', '651bbe8a02302bffd7a8cefd', '651bbed502302bffd7a8cf23', '651bbf0102302bffd7a8cf49', '651bbf7502302bffd7a8cf6f', '651bbf9402302bffd7a8cfa0', '651bc12b02302bffd7a8cfdd', '651bc18602302bffd7a8d01a', '651bc1cf02302bffd7a8d057', '651bc1eb02302bffd7a8d094', '651bc5a402302bffd7a8d0ca', '651be5b702302bffd7a8d477', '651be5bd02302bffd7a8d484', '651be5c302302bffd7a8d494', '651be5cf02302bffd7a8d4b5', '651be5d902302bffd7a8d4ce', '651be5e302302bffd7a8d4e9', '651be5ed02302bffd7a8d53a', '651be5f902302bffd7a8d58b', '651be60402302bffd7a8d5bb', '651be61102302bffd7a8d5f0', '651be62402302bffd7a8d621', '651be64702302bffd7a8d668', '651be6ac02302bffd7a8d765', '651bf19d02302bffd7a8daf9', '651bf1a802302bffd7a8db0a', '651bf1b602302bffd7a8db1e', '651bf1d102302bffd7a8db47', '651bf1e102302bffd7a8db66', '651bf1f102302bffd7a8db87', '651bf20502302bffd7a8dbe4', '651bf21602302bffd7a8dc41', '651bf22702302bffd7a8dcc2', '651bf23b02302bffd7a8dd0f', '651bf25702302bffd7a8dd4c', '651bf28002302bffd7a8dd9f', '651bf31002302bffd7a8df01', '651c0c1902302bffd7a8e491', '651c0c2d02302bffd7a8e4ce', '651c189a02302bffd7a8e5bf', '651c19d002302bffd7a8e6da', '651c1ab902302bffd7a8e78d', '651c232302302bffd7a8e7e3', '651c233d02302bffd7a8e820', '651c235402302bffd7a8e86b', '651c236d02302bffd7a8e8b3', '651c24f602302bffd7a8e915', '651c250b02302bffd7a8e952', '651c252602302bffd7a8e99d', '651c253d02302bffd7a8e9e5', '651c25b202302bffd7a8ea29', '651c26e202302bffd7a8ea6d', '651c26f802302bffd7a8eaaa', '651c271002302bffd7a8eaf5', '651c272902302bffd7a8eb3d', '651cfa6702302bffd7a8ef12', '651d02e502302bffd7a8f003', '651d37f0ff1976583fafdf61', '651d3b50ff1976583fafe0a5', '651d4668ff1976583fafe6bf', '651d584eff1976583fafef98', '651d597dff1976583faff00c', '651d59d3ff1976583faff057', '651d5cdbff1976583faff37b', '651d63b3ff1976583faff6d2', '651d63ebff1976583faff716', '651d6436ff1976583faff75a', '651d648eff1976583faff79e', '651d64b4ff1976583faff7e6', '651d65fdff1976583faff991', '651d66c8ff1976583faffa21', '651d66fbff1976583faffa69', '651d6725ff1976583faffb6a', '651d67abff1976583faffc5e', '651d67e6ff1976583faffca6', '651d6821ff1976583faffcbe', '651d6856ff1976583faffd06', '651d699eff1976583faffd8e', '651d69b3ff1976583faffdcb', '651d69d5ff1976583faffdf5', '651d69e8ff1976583faffe32', '651d6a84ff1976583faffe5c', '651d6ac4ff1976583faffea4', '651d6b05ff1976583fafff0c', '651d6b42ff1976583fafff75', '651d6b7fff1976583fafffbd', '651d6b92ff1976583faffffa', '651d6d44ff1976583fb00409', '651d6d57ff1976583fb00446', '651d7410ff1976583fb0071f', '651d7432ff1976583fb007a5', '651d7446ff1976583fb007e2', '651d7ec8ff1976583fb008f8', '651d7eceff1976583fb00910', '651d7ed8ff1976583fb00934', '651d7ee9ff1976583fb0095d', '651d7ef2ff1976583fb00991', '651d7efdff1976583fb009cb', '651d7f00ff1976583fb009dc', '651d7f06ff1976583fb00a3e', '651d7f0eff1976583fb00a64', '651d7f0fff1976583fb00a67', '651d7f1cff1976583fb00aec', '651d7f20ff1976583fb00b04', '651d7f26ff1976583fb00b5c', '651d7f31ff1976583fb00b92', '651d7f31ff1976583fb00b95', '651d7f3eff1976583fb00c47', '651d7f45ff1976583fb00cbb', '651d7f48ff1976583fb00cd3', '651d7f54ff1976583fb00d46', '651d7f65ff1976583fb00db4', '651d7f68ff1976583fb00dc5', '651d7f7dff1976583fb00e3c', '651d7f7dff1976583fb00e3f', '651d7f95ff1976583fb00eb6', '651d7f99ff1976583fb00ece', '651d7fabff1976583fb00f37', '651d7fb3ff1976583fb00f6b', '651d7fc3ff1976583fb00fa5', '651d7fd8ff1976583fb01018', '651d7fd9ff1976583fb0101b', '651d7febff1976583fb01092', '651d7fecff1976583fb01095', '651d8107ff1976583fb01572', '651d8167ff1976583fb01613', '651d8180ff1976583fb01650', '651d81a0ff1976583fb01694', '651d81bbff1976583fb016d8', '651d81d6ff1976583fb0171c', '651d81ecff1976583fb01764', '651d81f5ff1976583fb01791', '651d8202ff1976583fb017de', '651d8219ff1976583fb01816', '651d8231ff1976583fb0185a', '651d82a9ff1976583fb019b7', '651d8416ff1976583fb019f6', '651d8429ff1976583fb01a33', '651d843eff1976583fb01a7e', '651d8451ff1976583fb01ac2', '651d8467ff1976583fb01b06', '651d847dff1976583fb01bc2', '651d848eff1976583fb01bff', '651d84b7ff1976583fb01c29', '651d8582ff1976583fb01c6d', '651d869cff1976583fb01cb1', '651d86acff1976583fb01cee', '651d86beff1976583fb01d39', '651d86d1ff1976583fb01d7d', '651d86e3ff1976583fb01dc1', '651d86f8ff1976583fb01e8d', '651d8707ff1976583fb01eca', '651d8778ff1976583fb01f3d', '651d87e0ff1976583fb01f81', '651d8862ff1976583fb020ff'], 'maxEnrollments': 1000000, 'maxFaceNoteTimeDiff': '1800', 'maxInvestigationLength': 1800, 'maxSubusers': 100, 'maxTransactionAge': 86400, 'numCases': 71, 'sessionExpiration': 3600, 'stationIDs': ['DESKTOP-PTTAM1V:x01', 'DESKTOP-660P8Q2:x01', 'DESKTOP-75UBP18:x01'], 'userIDs': ['65166d434e4df05a37a98bea', '65166d491a1e19a5219d8948', '65166d4a1a1e19a5219d8966', '65166dbdd319a18d9ce09bfd', '65166dbdd319a18d9ce09bff', '65167c6602302bffd7a8baaf', '65167c7102302bffd7a8bac2', '65167c7b02302bffd7a8bad5', '65167c8402302bffd7a8bae8', '65167c9f02302bffd7a8bb32', '65167caa02302bffd7a8bb77', '65167cb402302bffd7a8bba2', '65167ced02302bffd7a8bccc', '65167cf502302bffd7a8bd00', '65167d1e02302bffd7a8bd8c', '65167d7c02302bffd7a8bdb0', '65167d9702302bffd7a8bdb7', '65167e1a02302bffd7a8bdde', '65167e3e02302bffd7a8bdf1', '65167e9f02302bffd7a8be0a', '65167ea802302bffd7a8be20', '65167eb102302bffd7a8be33', '65167eba02302bffd7a8be46', '65167ecf02302bffd7a8be6d', '65167ed802302bffd7a8be83', '65167ee902302bffd7a8beac', '65167f5c02302bffd7a8bfb4', '65167fb202302bffd7a8bffc', '6516802502302bffd7a8c00f', '6516802e02302bffd7a8c022', '6516803702302bffd7a8c035', '6516804002302bffd7a8c048', '6516805502302bffd7a8c06c', '6516805e02302bffd7a8c07f', '6516806e02302bffd7a8c0ac', '651689c502302bffd7a8c255', '651689cb02302bffd7a8c268', '651689d102302bffd7a8c27b', '651689d702302bffd7a8c28e', '651689e602302bffd7a8c2b2', '651689ec02302bffd7a8c2c5', '651689f802302bffd7a8c2ee', '651bde5702302bffd7a8d376', '651bde5a02302bffd7a8d3ac', '651be6d102302bffd7a8d7b4', '651be6d902302bffd7a8d7c7', '651be6e602302bffd7a8d7da', '651be6f002302bffd7a8d7ed', '651be70402302bffd7a8d811', '651be70d02302bffd7a8d824', '651be71c02302bffd7a8d84d', '651bee1702302bffd7a8da7b', '651bf32a02302bffd7a8df37', '651bf33a02302bffd7a8df4e', '651bf34802302bffd7a8df65', '651bf35802302bffd7a8df7c', '651bf37902302bffd7a8dfb0', '651bf38802302bffd7a8dfc7', '651bf3a502302bffd7a8dffd', '651d12ca02302bffd7a8f0d0', '651d8036ff1976583fb01213', '651d803fff1976583fb01242', '651d8048ff1976583fb0126f', '651d8052ff1976583fb012a1', '651d805aff1976583fb012bf', '651d8068ff1976583fb012ef', '651d8069ff1976583fb012f6', '651d8074ff1976583fb01318', '651d8077ff1976583fb0132d', '651d8093ff1976583fb01375', '651d80a3ff1976583fb013b9', '651d80bcff1976583fb01443', '651d88aaff1976583fb0217e', '651d88c9ff1976583fb021e0', '651d88ddff1976583fb021f7', '651d88e9ff1976583fb0220e', '651d88f2ff1976583fb02225', '651d88feff1976583fb0223c', '651d8918ff1976583fb0226a', '651d8923ff1976583fb02281', '651d8932ff1976583fb022b2']}</t>
         </is>
       </c>
       <c r="F3" s="65" t="n"/>
@@ -5485,17 +5520,17 @@
       </c>
       <c r="I3" s="65" t="inlineStr">
         <is>
-          <t>20:33:08</t>
+          <t>21:20:12</t>
         </is>
       </c>
       <c r="J3" s="65" t="inlineStr">
         <is>
-          <t>20:33:16</t>
+          <t>21:20:19</t>
         </is>
       </c>
       <c r="K3" s="65" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>7.0</t>
         </is>
       </c>
     </row>
@@ -5530,17 +5565,17 @@
       </c>
       <c r="I4" s="65" t="inlineStr">
         <is>
-          <t>20:33:17</t>
+          <t>21:20:20</t>
         </is>
       </c>
       <c r="J4" s="65" t="inlineStr">
         <is>
-          <t>20:33:25</t>
+          <t>21:20:26</t>
         </is>
       </c>
       <c r="K4" s="65" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>6.0</t>
         </is>
       </c>
     </row>

--- a/Reports/API_Excel_Report/API_excel_report.xlsx
+++ b/Reports/API_Excel_Report/API_excel_report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="9" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="3" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,11 +16,13 @@
     <sheet name="Zones_Test_Result" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Account_Test_Result" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Notes_Test_Result" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Tags_Test_Results" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Detect_Face_Test_Results" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Login_Test_Results'!$G$1:$G$116</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -73,7 +75,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -100,8 +102,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -116,14 +136,8 @@
         <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -374,6 +388,45 @@
       <left/>
       <right/>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -401,11 +454,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -475,9 +525,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -487,40 +534,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -528,24 +606,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -892,89 +973,89 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="20.5" customWidth="1" style="53" min="1" max="1"/>
-    <col width="16.375" customWidth="1" style="53" min="2" max="2"/>
-    <col width="18.25" customWidth="1" style="53" min="3" max="3"/>
-    <col width="20.375" customWidth="1" style="53" min="4" max="4"/>
+    <col width="20.44140625" customWidth="1" style="63" min="1" max="1"/>
+    <col width="16.33203125" customWidth="1" style="63" min="2" max="2"/>
+    <col width="18.21875" customWidth="1" style="63" min="3" max="3"/>
+    <col width="20.33203125" customWidth="1" style="63" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="53">
-      <c r="A1" s="5" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="63">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Module Name</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>No of API</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>API_PASS</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>API_FAIL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>Login API</t>
         </is>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <f>ROWS(Login_Test_Results!B2:B6)</f>
         <v/>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <f>COUNTIF(Login_Test_Results!G2:G6,"PASS")</f>
         <v/>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <f>COUNTIF(Login_Test_Results!G2:G6,"FAIL")</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="53">
-      <c r="A3" s="11" t="inlineStr">
+    <row r="3" ht="15" customHeight="1" s="63">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>User API</t>
         </is>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <f>ROWS(Users_Test_Results!B2:B7)</f>
         <v/>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <f>COUNTIF(Users_Test_Results!G2:G6,"PASS")</f>
         <v/>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <f>COUNTIF(Users_Test_Results!G2:G6,"FAIL")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="53">
-      <c r="A4" s="13" t="inlineStr">
+    <row r="4" ht="15" customHeight="1" s="63">
+      <c r="A4" s="12" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <f>SUM(B2:B3)</f>
         <v/>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <f>SUM(C2:C3)</f>
         <v/>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f>SUM(D2:D3)</f>
         <v/>
       </c>
@@ -992,473 +1073,850 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.5" customWidth="1" style="53" min="2" max="2"/>
-    <col width="16.625" customWidth="1" style="53" min="3" max="3"/>
-    <col width="13.25" customWidth="1" style="53" min="4" max="4"/>
-    <col width="13.25" customWidth="1" style="53" min="6" max="6"/>
-    <col width="10.625" customWidth="1" style="53" min="7" max="7"/>
-    <col width="18.125" customWidth="1" style="53" min="8" max="8"/>
-    <col width="11.5" customWidth="1" style="53" min="9" max="9"/>
+    <col width="13.44140625" customWidth="1" style="63" min="2" max="2"/>
+    <col width="16.6640625" customWidth="1" style="63" min="3" max="3"/>
+    <col width="13.21875" customWidth="1" style="63" min="4" max="4"/>
+    <col width="13.21875" customWidth="1" style="63" min="6" max="6"/>
+    <col width="10.6640625" customWidth="1" style="63" min="7" max="7"/>
+    <col width="18.109375" customWidth="1" style="63" min="8" max="8"/>
+    <col width="11.44140625" customWidth="1" style="63" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57.6" customHeight="1" s="53">
-      <c r="A1" s="32" t="inlineStr">
+    <row r="1" ht="57.6" customHeight="1" s="63">
+      <c r="A1" s="30" t="inlineStr">
         <is>
           <t>Test No</t>
         </is>
       </c>
-      <c r="B1" s="32" t="inlineStr">
+      <c r="B1" s="30" t="inlineStr">
         <is>
           <t>TestCase</t>
         </is>
       </c>
-      <c r="C1" s="33" t="inlineStr">
+      <c r="C1" s="31" t="inlineStr">
         <is>
           <t>TestCase Description</t>
         </is>
       </c>
-      <c r="D1" s="32" t="inlineStr">
+      <c r="D1" s="30" t="inlineStr">
         <is>
           <t>Request Body</t>
         </is>
       </c>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="E1" s="30" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="F1" s="33" t="inlineStr">
+      <c r="F1" s="31" t="inlineStr">
         <is>
           <t>Check_Point/Test_Condition</t>
         </is>
       </c>
-      <c r="G1" s="33" t="inlineStr">
+      <c r="G1" s="31" t="inlineStr">
         <is>
           <t>Result (Pass/Fail)</t>
         </is>
       </c>
-      <c r="H1" s="33" t="inlineStr">
+      <c r="H1" s="31" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="I1" s="33" t="inlineStr">
+      <c r="I1" s="31" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="J1" s="33" t="inlineStr">
+      <c r="J1" s="31" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="K1" s="33" t="inlineStr">
+      <c r="K1" s="31" t="inlineStr">
         <is>
           <t>Total Duration
 (Seconds)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="72" customHeight="1" s="53">
-      <c r="A2" s="44" t="inlineStr">
+    <row r="2" ht="72" customHeight="1" s="63">
+      <c r="A2" s="65" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="B2" s="44" t="inlineStr">
+      <c r="B2" s="65" t="inlineStr">
         <is>
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="43" t="n"/>
-      <c r="D2" s="43" t="inlineStr">
+      <c r="C2" s="64" t="n"/>
+      <c r="D2" s="64" t="inlineStr">
         <is>
           <t>{'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole', 'narrativeDesc': 'nsarra', 'action': 'Call Police', 'storeId': 'Pune', 'caseNumber': 'theft one bottle', 'timeIncident': '09/21/2023 07:47', 'reportedBy': 'staff', 'reportedLoss': 8000, 'caseEventType': 'STORE THREAT', 'activityType': 'DOMESTIC VIOLENCE', 'heightType': '5.6-5.9', 'methodOffence': 'GRAB AND DASH', 'ProfileId': '651e6e50d10453bbc689ec40', 'ClearGeo': True, 'geo': '73.84841725892831,18.511004603403823'}</t>
         </is>
       </c>
-      <c r="E2" s="43" t="inlineStr">
+      <c r="E2" s="64" t="inlineStr">
         <is>
           <t>{'data': {'id': '651e9e1c7751dc6faf3002c3', 'message': "Note id '651e9e1c7751dc6faf3002c3' successfully added"}, 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F2" s="43" t="n"/>
-      <c r="G2" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H2" s="43" t="inlineStr">
+      <c r="F2" s="64" t="n"/>
+      <c r="G2" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Note id '651e9e1c7751dc6faf3002c3' successfully added</t>
         </is>
       </c>
-      <c r="I2" s="43" t="inlineStr">
+      <c r="I2" s="64" t="inlineStr">
         <is>
           <t>16:59:25</t>
         </is>
       </c>
-      <c r="J2" s="43" t="inlineStr">
+      <c r="J2" s="64" t="inlineStr">
         <is>
           <t>16:59:31</t>
         </is>
       </c>
-      <c r="K2" s="43" t="inlineStr">
+      <c r="K2" s="64" t="inlineStr">
         <is>
           <t>6.0</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="61.9" customHeight="1" s="53">
-      <c r="A3" s="49" t="n"/>
-      <c r="B3" s="37" t="inlineStr">
+    <row r="3" ht="61.95" customHeight="1" s="63">
+      <c r="A3" s="60" t="n"/>
+      <c r="B3" s="33" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="44" t="n"/>
-      <c r="D3" s="44" t="inlineStr">
+      <c r="C3" s="65" t="n"/>
+      <c r="D3" s="65" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E3" s="43" t="inlineStr">
+      <c r="E3" s="64" t="inlineStr">
         <is>
           <t>{'notesInfo': {'notes': [{'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole', 'narrativeDesc': 'nsarra', 'action': 'Call Police', 'storeId': 'Pune', 'caseNumber': 'theft one bottle', 'timeIncident': '09/21/2023 07:47', 'reportedBy': 'staff', 'reportedLoss': '8000', 'caseEventType': 'STORE THREAT', 'activityType': 'DOMESTIC VIOLENCE', 'heightType': '5.6-5.9', 'methodOffence': 'GRAB AND DASH'}, 'imageIDs': ['11f0c98574b4230dffc83c0aeb478f7b'], 'ownerID': '651e6e4dd10453bbc689ec05', 'profileID': '651e6e50d10453bbc689ec40', 'userID': '651e9cf27751dc6faf2fffaa', 'update': 1696505378826, 'numCases': 0, 'create': 1696505378826, 'noteID': '651e9e227751dc6faf3002de', 'geo': {'coordinates': [73.84841725892831, 18.511004603403823]}}]}}</t>
         </is>
       </c>
-      <c r="F3" s="44" t="n"/>
-      <c r="G3" s="58" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="43" t="inlineStr">
+      <c r="F3" s="65" t="n"/>
+      <c r="G3" s="42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 651e9e227751dc6faf3002de</t>
         </is>
       </c>
-      <c r="I3" s="44" t="inlineStr">
+      <c r="I3" s="65" t="inlineStr">
         <is>
           <t>16:59:31</t>
         </is>
       </c>
-      <c r="J3" s="44" t="inlineStr">
+      <c r="J3" s="65" t="inlineStr">
         <is>
           <t>16:59:40</t>
         </is>
       </c>
-      <c r="K3" s="44" t="inlineStr">
+      <c r="K3" s="65" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="62.45" customHeight="1" s="53">
-      <c r="A4" s="49" t="n"/>
-      <c r="B4" s="44" t="inlineStr">
+    <row r="4" ht="62.4" customHeight="1" s="63">
+      <c r="A4" s="60" t="n"/>
+      <c r="B4" s="65" t="inlineStr">
         <is>
           <t>Test_03</t>
         </is>
       </c>
-      <c r="C4" s="27" t="n"/>
-      <c r="D4" s="34" t="inlineStr">
+      <c r="C4" s="26" t="n"/>
+      <c r="D4" s="32" t="inlineStr">
         <is>
           <t>{'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole', 'narrativeDesc': 'nsarra', 'action': 'Call Police', 'storeId': 'Pune', 'caseNumber': 'theft one bottle', 'timeIncident': '09/21/2023 07:47', 'reportedBy': 'staff', 'reportedLoss': '7000', 'caseEventType': 'STORE THREAT', 'activityType': 'DOMESTIC VIOLENCE', 'heightType': '5.6-5.9', 'methodOffence': 'GRAB AND DASH', 'NoteId': '651e9e2c7751dc6faf300303', 'SetCases': True}</t>
         </is>
       </c>
-      <c r="E4" s="34" t="inlineStr">
+      <c r="E4" s="32" t="inlineStr">
         <is>
           <t>{'result': {'status': 'ok', 'message': 'Note information has been updated.'}}</t>
         </is>
       </c>
-      <c r="F4" s="27" t="n"/>
-      <c r="G4" s="58" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H4" s="34" t="inlineStr">
+      <c r="F4" s="26" t="n"/>
+      <c r="G4" s="42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="32" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Note information has been updated.</t>
         </is>
       </c>
-      <c r="I4" s="44" t="inlineStr">
+      <c r="I4" s="65" t="inlineStr">
         <is>
           <t>16:59:40</t>
         </is>
       </c>
-      <c r="J4" s="44" t="inlineStr">
+      <c r="J4" s="65" t="inlineStr">
         <is>
           <t>16:59:51</t>
         </is>
       </c>
-      <c r="K4" s="44" t="inlineStr">
+      <c r="K4" s="65" t="inlineStr">
         <is>
           <t>11.0</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="64.90000000000001" customHeight="1" s="53">
-      <c r="A5" s="49" t="n"/>
-      <c r="B5" s="44" t="inlineStr">
+    <row r="5" ht="64.95" customHeight="1" s="63">
+      <c r="A5" s="60" t="n"/>
+      <c r="B5" s="65" t="inlineStr">
         <is>
           <t>Test_04</t>
         </is>
       </c>
-      <c r="C5" s="44" t="n"/>
-      <c r="D5" s="44" t="inlineStr">
+      <c r="C5" s="65" t="n"/>
+      <c r="D5" s="65" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E5" s="43" t="inlineStr">
+      <c r="E5" s="64" t="inlineStr">
         <is>
           <t>{'data': '651e9e377751dc6faf30032e', 'message': 'Note with NoteId: 651e9e377751dc6faf30032e was deleted.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F5" s="44" t="n"/>
-      <c r="G5" s="58" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H5" s="43" t="inlineStr">
+      <c r="F5" s="65" t="n"/>
+      <c r="G5" s="42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Note with NoteId: 651e9e377751dc6faf30032e was deleted.</t>
         </is>
       </c>
-      <c r="I5" s="43" t="inlineStr">
+      <c r="I5" s="64" t="inlineStr">
         <is>
           <t>16:59:51</t>
         </is>
       </c>
-      <c r="J5" s="44" t="inlineStr">
+      <c r="J5" s="65" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="K5" s="44" t="inlineStr">
+      <c r="K5" s="65" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="52.9" customHeight="1" s="53">
-      <c r="A6" s="49" t="n"/>
-      <c r="B6" s="43" t="inlineStr">
+    <row r="6" ht="52.95" customHeight="1" s="63">
+      <c r="A6" s="60" t="n"/>
+      <c r="B6" s="64" t="inlineStr">
         <is>
           <t>Test_05</t>
         </is>
       </c>
-      <c r="C6" s="43" t="n"/>
-      <c r="D6" s="43" t="inlineStr">
+      <c r="C6" s="64" t="n"/>
+      <c r="D6" s="64" t="inlineStr">
         <is>
           <t>{'fields': ['build'], 'NoteId': '651d6726ff1976583faffb79'}</t>
         </is>
       </c>
-      <c r="E6" s="43" t="inlineStr">
+      <c r="E6" s="64" t="inlineStr">
         <is>
           <t>{'result': {'status': 'ok', 'message': 'Note information has been updated'}}</t>
         </is>
       </c>
-      <c r="F6" s="43" t="n"/>
-      <c r="G6" s="39" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H6" s="43" t="inlineStr">
+      <c r="F6" s="64" t="n"/>
+      <c r="G6" s="35" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Note information has been updated</t>
         </is>
       </c>
-      <c r="I6" s="43" t="inlineStr">
+      <c r="I6" s="64" t="inlineStr">
         <is>
           <t>18:52:40</t>
         </is>
       </c>
-      <c r="J6" s="43" t="inlineStr">
+      <c r="J6" s="64" t="inlineStr">
         <is>
           <t>18:52:50</t>
         </is>
       </c>
-      <c r="K6" s="43" t="inlineStr">
+      <c r="K6" s="64" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="64.15000000000001" customHeight="1" s="53">
-      <c r="A7" s="49" t="n"/>
-      <c r="B7" s="44" t="inlineStr">
+    <row r="7" ht="64.2" customHeight="1" s="63">
+      <c r="A7" s="60" t="n"/>
+      <c r="B7" s="65" t="inlineStr">
         <is>
           <t>Test_06</t>
         </is>
       </c>
-      <c r="C7" s="44" t="n"/>
-      <c r="D7" s="43" t="inlineStr">
+      <c r="C7" s="65" t="n"/>
+      <c r="D7" s="64" t="inlineStr">
         <is>
           <t>{'NoteId': '651d672fff1976583faffbc0'}</t>
         </is>
       </c>
-      <c r="E7" s="37" t="inlineStr">
+      <c r="E7" s="33" t="inlineStr">
         <is>
           <t>{'result': {'status': 'ok', 'message': '1 images added to note id 651d672fff1976583faffbc0 (12c61e07e3903298a05e12b5d1ebf5b0).'}}</t>
         </is>
       </c>
-      <c r="F7" s="44" t="n"/>
-      <c r="G7" s="40" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H7" s="43" t="inlineStr">
+      <c r="F7" s="65" t="n"/>
+      <c r="G7" s="36" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H7" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I7" s="44" t="inlineStr">
+      <c r="I7" s="65" t="inlineStr">
         <is>
           <t>18:52:50</t>
         </is>
       </c>
-      <c r="J7" s="44" t="inlineStr">
+      <c r="J7" s="65" t="inlineStr">
         <is>
           <t>18:52:59</t>
         </is>
       </c>
-      <c r="K7" s="44" t="inlineStr">
+      <c r="K7" s="65" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="46.15" customHeight="1" s="53">
-      <c r="A8" s="49" t="n"/>
-      <c r="B8" s="44" t="inlineStr">
+    <row r="8" ht="46.2" customHeight="1" s="63">
+      <c r="A8" s="60" t="n"/>
+      <c r="B8" s="65" t="inlineStr">
         <is>
           <t>Test_07</t>
         </is>
       </c>
-      <c r="C8" s="44" t="n"/>
-      <c r="D8" s="44" t="inlineStr">
+      <c r="C8" s="65" t="n"/>
+      <c r="D8" s="65" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E8" s="44" t="inlineStr">
+      <c r="E8" s="65" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F8" s="44" t="n"/>
-      <c r="G8" s="40" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H8" s="43" t="inlineStr">
+      <c r="F8" s="65" t="n"/>
+      <c r="G8" s="36" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H8" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I8" s="44" t="inlineStr">
+      <c r="I8" s="65" t="inlineStr">
         <is>
           <t>18:53:00</t>
         </is>
       </c>
-      <c r="J8" s="44" t="inlineStr">
+      <c r="J8" s="65" t="inlineStr">
         <is>
           <t>18:53:08</t>
         </is>
       </c>
-      <c r="K8" s="44" t="inlineStr">
+      <c r="K8" s="65" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="49" t="n"/>
-      <c r="B9" s="27" t="inlineStr">
+      <c r="A9" s="60" t="n"/>
+      <c r="B9" s="26" t="inlineStr">
         <is>
           <t>Test_08</t>
         </is>
       </c>
-      <c r="C9" s="27" t="n"/>
-      <c r="D9" s="27" t="inlineStr">
+      <c r="C9" s="26" t="n"/>
+      <c r="D9" s="26" t="inlineStr">
         <is>
           <t>{'noteId': '651d6742ff1976583faffc25', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b']}</t>
         </is>
       </c>
-      <c r="E9" s="27" t="inlineStr">
+      <c r="E9" s="26" t="inlineStr">
         <is>
           <t>{'data': '651d6742ff1976583faffc25', 'message': 'Note image 651d6742ff1976583faffc25 was removed.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F9" s="27" t="n"/>
-      <c r="G9" s="38" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H9" s="27" t="inlineStr">
+      <c r="F9" s="26" t="n"/>
+      <c r="G9" s="34" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H9" s="26" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Note image 651d6742ff1976583faffc25 was removed.</t>
         </is>
       </c>
-      <c r="I9" s="27" t="inlineStr">
+      <c r="I9" s="26" t="inlineStr">
         <is>
           <t>18:53:09</t>
         </is>
       </c>
-      <c r="J9" s="27" t="inlineStr">
+      <c r="J9" s="26" t="inlineStr">
         <is>
           <t>18:53:20</t>
         </is>
       </c>
-      <c r="K9" s="27" t="inlineStr">
+      <c r="K9" s="26" t="inlineStr">
         <is>
           <t>11.0</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="n"/>
-      <c r="B10" s="27" t="n"/>
-      <c r="C10" s="27" t="n"/>
-      <c r="D10" s="27" t="n"/>
-      <c r="E10" s="27" t="n"/>
-      <c r="F10" s="27" t="n"/>
-      <c r="G10" s="27" t="n"/>
-      <c r="H10" s="27" t="n"/>
-      <c r="I10" s="27" t="n"/>
-      <c r="J10" s="27" t="n"/>
-      <c r="K10" s="27" t="n"/>
+      <c r="A10" s="60" t="n"/>
+      <c r="B10" s="26" t="n"/>
+      <c r="C10" s="26" t="n"/>
+      <c r="D10" s="26" t="n"/>
+      <c r="E10" s="26" t="n"/>
+      <c r="F10" s="26" t="n"/>
+      <c r="G10" s="26" t="n"/>
+      <c r="H10" s="26" t="n"/>
+      <c r="I10" s="26" t="n"/>
+      <c r="J10" s="26" t="n"/>
+      <c r="K10" s="26" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="50" t="n"/>
-      <c r="B11" s="27" t="n"/>
-      <c r="C11" s="27" t="n"/>
-      <c r="D11" s="27" t="n"/>
-      <c r="E11" s="27" t="n"/>
-      <c r="F11" s="27" t="n"/>
-      <c r="G11" s="27" t="n"/>
-      <c r="H11" s="27" t="n"/>
-      <c r="I11" s="27" t="n"/>
-      <c r="J11" s="27" t="n"/>
-      <c r="K11" s="27" t="n"/>
+      <c r="A11" s="61" t="n"/>
+      <c r="B11" s="26" t="n"/>
+      <c r="C11" s="26" t="n"/>
+      <c r="D11" s="26" t="n"/>
+      <c r="E11" s="26" t="n"/>
+      <c r="F11" s="26" t="n"/>
+      <c r="G11" s="26" t="n"/>
+      <c r="H11" s="26" t="n"/>
+      <c r="I11" s="26" t="n"/>
+      <c r="J11" s="26" t="n"/>
+      <c r="K11" s="26" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A11"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" ht="57.6" customHeight="1" s="63">
+      <c r="A1" s="43" t="inlineStr">
+        <is>
+          <t>Module Name</t>
+        </is>
+      </c>
+      <c r="B1" s="44" t="inlineStr">
+        <is>
+          <t>TestCase</t>
+        </is>
+      </c>
+      <c r="C1" s="45" t="inlineStr">
+        <is>
+          <t>TestCase Description</t>
+        </is>
+      </c>
+      <c r="D1" s="44" t="inlineStr">
+        <is>
+          <t>Request Body</t>
+        </is>
+      </c>
+      <c r="E1" s="44" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="F1" s="45" t="inlineStr">
+        <is>
+          <t>Check_Point/Test_Condition</t>
+        </is>
+      </c>
+      <c r="G1" s="45" t="inlineStr">
+        <is>
+          <t>Result (Pass/Fail)</t>
+        </is>
+      </c>
+      <c r="H1" s="45" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="I1" s="45" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="J1" s="45" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="K1" s="46" t="inlineStr">
+        <is>
+          <t>Total Duration
+(Seconds)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="66" t="inlineStr">
+        <is>
+          <t>Tags</t>
+        </is>
+      </c>
+      <c r="B2" s="47" t="inlineStr">
+        <is>
+          <t>Test_05</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{'result': {'status': 'ok', 'message': "The tag 'TagNames398' has been created for type event."}}</t>
+        </is>
+      </c>
+      <c r="G2" s="49" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>19:01:00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>19:01:04</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Test_02</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>{'tags': [{'id': '651e6ec5694c7c51a9b4a7ed', 'seriousEvent': False, 'tagName': 'deterred', 'type': 'event'}, {'id': '651e9c8e7751dc6faf2fff94', 'seriousEvent': True, 'tagName': 'test name1', 'type': 'event'}, {'id': '651ea0047751dc6faf300833', 'seriousEvent': False, 'tagName': 'tagnames919', 'type': 'event'}, {'id': '651eb7197751dc6faf300e54', 'seriousEvent': False, 'tagName': 'tagnames780', 'type': 'event'}, {'id': '651eb7207751dc6faf300e64', 'seriousEvent': False, 'tagName': 'testnewname', 'type': 'event'}, {'id': '651eb7297751dc6faf300e83', 'seriousEvent': False, 'tagName': 'tagnames347', 'type': 'event'}, {'id': '651eb72f7751dc6faf300e96', 'seriousEvent': False, 'tagName': 'tagnames916', 'type': 'event'}, {'id': '651eb7437751dc6faf300e9e', 'seriousEvent': False, 'tagName': 'tagnames410', 'type': 'event'}, {'id': '651eb7fe7751dc6faf300ea6', 'seriousEvent': False, 'tagName': 'tagnames365', 'type': 'event'}, {'id': '651eb81b7751dc6faf300eae', 'seriousEvent': False, 'tagName': 'tagnames804', 'type': 'event'}, {'id': '651eb8257751dc6faf300ebe', 'seriousEvent': False, 'tagName': 'testnewname', 'type': 'event'}, {'id': '651eb8317751dc6faf300edd', 'seriousEvent': False, 'tagName': 'tagnames642', 'type': 'event'}, {'id': '651eb8387751dc6faf300ef0', 'seriousEvent': False, 'tagName': 'tagnames918', 'type': 'event'}, {'id': '651eb9037751dc6faf300ef8', 'seriousEvent': False, 'tagName': 'tagnames750', 'type': 'event'}, {'id': '651eb90e7751dc6faf300f08', 'seriousEvent': False, 'tagName': 'testnewname', 'type': 'event'}, {'id': '651eb9197751dc6faf300f27', 'seriousEvent': False, 'tagName': 'tagnames738', 'type': 'event'}, {'id': '651eb9227751dc6faf300f3a', 'seriousEvent': False, 'tagName': 'tagnames614', 'type': 'event'}, {'id': '651eba6a7751dc6faf300f6e', 'seriousEvent': False, 'tagName': 'tagnames513', 'type': 'event'}]}</t>
+        </is>
+      </c>
+      <c r="G3" s="49" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>19:00:37</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>19:00:41</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Test_03</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'id': '651eba737751dc6faf300f7e', 'seriousEvent': False, 'newName': 'Testnewname', 'type': 'event'}</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>{'result': {'status': 'ok', 'message': "The tag 'tagnames792' for type 'event' have been renamed to Testnewname."}}</t>
+        </is>
+      </c>
+      <c r="G4" s="49" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>19:00:41</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>19:00:50</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Test_04</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>{'result': {'status': 'ok', 'message': "The tag '651ea0047751dc6faf300833' and 0 occurences for type 'event' have been deleted."}}</t>
+        </is>
+      </c>
+      <c r="G5" s="49" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>19:00:51</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>19:00:59</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" ht="57.6" customHeight="1" s="63">
+      <c r="A1" s="43" t="inlineStr">
+        <is>
+          <t>Module Name</t>
+        </is>
+      </c>
+      <c r="B1" s="44" t="inlineStr">
+        <is>
+          <t>TestCase</t>
+        </is>
+      </c>
+      <c r="C1" s="45" t="inlineStr">
+        <is>
+          <t>TestCase Description</t>
+        </is>
+      </c>
+      <c r="D1" s="44" t="inlineStr">
+        <is>
+          <t>Request Body</t>
+        </is>
+      </c>
+      <c r="E1" s="44" t="inlineStr">
+        <is>
+          <t>Response</t>
+        </is>
+      </c>
+      <c r="F1" s="45" t="inlineStr">
+        <is>
+          <t>Check_Point/Test_Condition</t>
+        </is>
+      </c>
+      <c r="G1" s="45" t="inlineStr">
+        <is>
+          <t>Result (Pass/Fail)</t>
+        </is>
+      </c>
+      <c r="H1" s="45" t="inlineStr">
+        <is>
+          <t>Actual Result</t>
+        </is>
+      </c>
+      <c r="I1" s="45" t="inlineStr">
+        <is>
+          <t>Start Time</t>
+        </is>
+      </c>
+      <c r="J1" s="45" t="inlineStr">
+        <is>
+          <t>End Time</t>
+        </is>
+      </c>
+      <c r="K1" s="46" t="inlineStr">
+        <is>
+          <t>Total Duration
+(Seconds)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Detect Face</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Test_01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>{'faces': [{'confidence': 0.5000154972076416, 'eyelx': 52.5, 'eyely': 116.5, 'eyerx': 86.5, 'eyery': 109.5, 'faceh': 124.94074969770254, 'facew': 102, 'facex': 18.5, 'facey': 51.02938814993954, 'metrics': []}]}</t>
+        </is>
+      </c>
+      <c r="G2" s="48" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>18:26:22</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>18:26:28</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1475,304 +1933,304 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="21.75" customWidth="1" style="1" min="1" max="2"/>
-    <col width="28.375" customWidth="1" style="30" min="3" max="3"/>
-    <col width="40" customWidth="1" style="30" min="4" max="4"/>
-    <col width="37.625" customWidth="1" style="30" min="5" max="6"/>
-    <col width="15.25" customWidth="1" style="30" min="7" max="7"/>
-    <col width="25.5" customWidth="1" style="30" min="8" max="8"/>
-    <col width="15.5" customWidth="1" style="1" min="9" max="9"/>
-    <col width="12.625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="17.375" customWidth="1" style="30" min="11" max="11"/>
+    <col width="21.77734375" customWidth="1" style="66" min="1" max="2"/>
+    <col width="28.33203125" customWidth="1" style="29" min="3" max="3"/>
+    <col width="40" customWidth="1" style="29" min="4" max="4"/>
+    <col width="37.6640625" customWidth="1" style="29" min="5" max="6"/>
+    <col width="15.21875" customWidth="1" style="29" min="7" max="7"/>
+    <col width="25.44140625" customWidth="1" style="29" min="8" max="8"/>
+    <col width="15.44140625" customWidth="1" style="66" min="9" max="9"/>
+    <col width="12.6640625" customWidth="1" style="66" min="10" max="10"/>
+    <col width="17.33203125" customWidth="1" style="29" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" s="53">
-      <c r="A1" s="16" t="inlineStr">
+    <row r="1" ht="27" customHeight="1" s="63">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>Test No</t>
         </is>
       </c>
-      <c r="B1" s="17" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>TestCase</t>
         </is>
       </c>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>TestCase Description</t>
         </is>
       </c>
-      <c r="D1" s="17" t="inlineStr">
+      <c r="D1" s="16" t="inlineStr">
         <is>
           <t>Request Body</t>
         </is>
       </c>
-      <c r="E1" s="17" t="inlineStr">
+      <c r="E1" s="16" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="F1" s="18" t="inlineStr">
+      <c r="F1" s="17" t="inlineStr">
         <is>
           <t>Check_Point/Test_Condition</t>
         </is>
       </c>
-      <c r="G1" s="18" t="inlineStr">
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>Result (Pass/Fail)</t>
         </is>
       </c>
-      <c r="H1" s="18" t="inlineStr">
+      <c r="H1" s="17" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="I1" s="19" t="inlineStr">
+      <c r="I1" s="18" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="J1" s="19" t="inlineStr">
+      <c r="J1" s="18" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="K1" s="20" t="inlineStr">
+      <c r="K1" s="19" t="inlineStr">
         <is>
           <t>Total Duration
 (Seconds)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="58.15" customHeight="1" s="53">
-      <c r="A2" s="41" t="inlineStr">
+    <row r="2" ht="58.2" customHeight="1" s="63">
+      <c r="A2" s="56" t="inlineStr">
         <is>
           <t>Login</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="45" t="inlineStr">
+      <c r="C2" s="37" t="inlineStr">
         <is>
           <t>To verify the Login API with valid data.</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>{'username': 'shubham', 'password': 'Right_1r1s', 'lat': 'undefined', 'lon': 'undefined'}</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>{'result': {'cookies': 'CGISESSID=46485939270e4851bf9f9f64617971fe', 'message': 'You have been logged in.', 'status': 'ok', 'token': 'EAAAAABtcPsgy3GpFFJ2mZSk9glLZU+tqh/4PC0/zI6MOB/9jkcVBJ18MDzJb99l3h+cLyclJosJQk+2AGKx5wZ/fyfXiuEgMPW0uFVvzRnKoL/6rZetkKOfKtfIFz4OIIJHr5cKzo4pTwCGOESJAWMXNOAzHQG/u6MxPbdvUohL2rc+4RvwkDbShAxYTH4rZumqdiVY7YrEu8GbeZL4JSUuzL4qH9PYXvG30/eboP2CPuJaZuKX3DqxCC10Hh/3qToKgrckNSCdNtXfgiL236OWN3d7YL8nt0y3/4vq/q+dKEtP0kl/3DROaG3kmrNxFnlRt+Rw1UhblKarxWRVxIlYyfuN9gGIHfGWHQA1RYcbR67nN6WikM+Ej5MaPIYImXrg2HdFeTGVEO8yd+rjNQuAPGWNgCeLUgW2JT1xBqBc4KY2EdS0MPvuwIWvn/2RqyKv4HOqNIyDWjLKZDKLm67l2xpmFtsDl/6Ppfpn0lzo1K4B4KqE3lSLbRqElvX7ye30eoK/6HFuh0WMnwarYqtntDFJcFZfJLKTc6aWpK3lmAuTBHx4tN7toXMuFCPbASaZcS2nC0LX/kfzz6Yknmh2W8v0/7cnS/GTLVGUZh77pqRLuEpQhHIdP7QgqiJzZoct6RgfhvmAzrFElJ0pGtCIwgXPhDit/bq1AVcmbR/9doEwR04SWfCkB8k+AEALm+j2NdUqNpuFfq/Ez1KhalhZykG4Xbv5M26+o2E5knd0GE6Ifo1iWyP8TNEvUsWsSs61pK4tYOPexypcdm48KbILAxQrH1T+hpRd57ieG72rPgvAhPlD6xApE6sX8VGpr15ck0229oedOieR/aljInidpwc+1HkABsdOjMxJJTXs7KPvgow2tQTwJjYSPb9sDYKtcawXWw5NZXZ7kF/NBiGgX7QppS+CsCvxq42efv9jW2AUy8Fx6Eozgz+WFJkWDbkG/5qNIoOgSd67keyBZK/tvNf2QcDRniNzeRyfh3duafukezmVL+L/B2egCBzDbcgI+qUANXYT/BZvTuFK6M/3fGnyGTtmuoY5ndzFKy1sbSyxZP2jTYCCOSy/7/guHCsXP5/SfyZRIaLGZry/h0MMJMY+nOU+LY/eTrQmcqLcV/UEwDTAo4f4Db7FJjcYzQOlEl9gyrpeIAgPubtQWq2y97c1rwXFLQEr0P4MYYNlomPJDZ7zvuegil/iLd2XYDjZCovCB3ATFOSLcsH+NseyIM2mNFzQAaxGgPX6qi4FgwSXEQWBBnhknkBRfJbRBoGRW76DQlKeXMXY/Woo5WtEW139TlSykw4TDwJxD50vul4pyXSfpYAq+1TvDd4l84jqMcv9jrmVwBmCeOGOMejO0IFUY4AjZQFfhPQ/iVJDpriSPZvUoCx0lmlAsK5Hchhj05RLzuCoDuvvEacYGFedBZAtaa2HT4jhOoaa+Cf2of0flPYu9VLjpGsYD2k91HgmJUM+Y8eAENIOea2iKYN0T+fRunlDaJstJjSaWVCPq2U3uSJ1YfBZx5DDv+6Bb2wD+Tuu/InHwhhz8WL2RymySjI8zXiQ/rpfuHRtBfugdqsRVOJ31nM5W+jEUecx4tABQ9Kcijln6e1zJMKuIHI8SHGJHM/U7k1ZSU9KW+IP+QT+MZttx4eC+4b+tRRqR7MJWTDRSNLQ8sfJ2/pnvEcjOQe8vffttW5cXrNLEfZNFVjwfiI9t6lI/+zHragDqh+vao0BL01Dfa08T9Q9mfi94S9Dux709KyKtQVghh3DX/dHJFeZbVHApRwQBpCv2VceCI36LK2GKba3C0y/isubiFN2jLRCc0+QxuqMHHCeyuQO1O+brlo7w56HK4CJTv+u02tB7rr8PGnzdBka6d2tIzMbVF1pm4yem5ImsUi8OXb14pAidzYeJSxzL7X2iTSry3TzQWrI0Ayu0KTQ9MBt5D46OJ4+CwyH+GYdyWHsx/4VKgaexxiTMRAbE8KOS5v869X+xMr/HXLj0/cBUW9scheIJml2m1omvWxmYUi5Rybafwl1NRp+itMfRA/F1PHlh/xYphEau26De9SrgA5FH+cdTocRUFeankdd3bjeQ6tOZl429czdVDj54DGjphchqsIpACwkNdsZ/lsWnTUefE6lIhmQlVo0av9EXBiTejpF'}}</t>
         </is>
       </c>
-      <c r="F2" s="45" t="inlineStr">
+      <c r="F2" s="37" t="inlineStr">
         <is>
           <t>Validate Status Code : 200 &amp; Message : You have been logged in.</t>
         </is>
       </c>
-      <c r="G2" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="G2" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : You have been logged in.</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>16:59:12</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>16:59:14</t>
         </is>
       </c>
-      <c r="K2" s="21" t="inlineStr">
+      <c r="K2" s="20" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="62.45" customHeight="1" s="53">
-      <c r="A3" s="46" t="n"/>
-      <c r="B3" s="2" t="inlineStr">
+    <row r="3" ht="62.4" customHeight="1" s="63">
+      <c r="A3" s="57" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="45" t="inlineStr">
+      <c r="C3" s="37" t="inlineStr">
         <is>
           <t>To verify the Login API with invalid data.</t>
         </is>
       </c>
-      <c r="D3" s="43" t="inlineStr">
+      <c r="D3" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E3" s="43" t="inlineStr">
+      <c r="E3" s="64" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="F3" s="43" t="inlineStr">
+      <c r="F3" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Invalid password</t>
         </is>
       </c>
-      <c r="G3" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="43" t="inlineStr">
+      <c r="G3" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I3" s="44" t="inlineStr">
+      <c r="I3" s="65" t="inlineStr">
         <is>
           <t>16:59:15</t>
         </is>
       </c>
-      <c r="J3" s="44" t="inlineStr">
+      <c r="J3" s="65" t="inlineStr">
         <is>
           <t>16:59:16</t>
         </is>
       </c>
-      <c r="K3" s="22" t="inlineStr">
+      <c r="K3" s="21" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="43.15" customHeight="1" s="53">
-      <c r="A4" s="46" t="n"/>
-      <c r="B4" s="2" t="inlineStr">
+    <row r="4" ht="43.2" customHeight="1" s="63">
+      <c r="A4" s="57" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>Test_03</t>
         </is>
       </c>
-      <c r="C4" s="43" t="n"/>
-      <c r="D4" s="43" t="inlineStr">
+      <c r="C4" s="64" t="n"/>
+      <c r="D4" s="64" t="inlineStr">
         <is>
           <t>{'byPassSSO': 'false'}</t>
         </is>
       </c>
-      <c r="E4" s="43" t="inlineStr">
+      <c r="E4" s="64" t="inlineStr">
         <is>
           <t>{'type': 'ChallengeResponse', 'loginUrl': ''}</t>
         </is>
       </c>
-      <c r="F4" s="43" t="inlineStr">
+      <c r="F4" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Password didn't matched</t>
         </is>
       </c>
-      <c r="G4" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H4" s="43" t="inlineStr">
+      <c r="G4" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ChallengeResponse</t>
         </is>
       </c>
-      <c r="I4" s="44" t="inlineStr">
+      <c r="I4" s="65" t="inlineStr">
         <is>
           <t>16:59:17</t>
         </is>
       </c>
-      <c r="J4" s="44" t="inlineStr">
+      <c r="J4" s="65" t="inlineStr">
         <is>
           <t>16:59:18</t>
         </is>
       </c>
-      <c r="K4" s="22" t="inlineStr">
+      <c r="K4" s="21" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="43.15" customHeight="1" s="53">
-      <c r="A5" s="46" t="n"/>
-      <c r="B5" s="2" t="inlineStr">
+    <row r="5" ht="43.2" customHeight="1" s="63">
+      <c r="A5" s="57" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Test_04</t>
         </is>
       </c>
-      <c r="C5" s="43" t="n"/>
-      <c r="D5" s="43" t="inlineStr">
+      <c r="C5" s="64" t="n"/>
+      <c r="D5" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E5" s="43" t="inlineStr">
+      <c r="E5" s="64" t="inlineStr">
         <is>
           <t>{'data': 'User was logged out.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F5" s="43" t="inlineStr">
+      <c r="F5" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Invalid username ' wrongUsername'</t>
         </is>
       </c>
-      <c r="G5" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H5" s="43" t="inlineStr">
+      <c r="G5" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : User was logged out.</t>
         </is>
       </c>
-      <c r="I5" s="44" t="inlineStr">
+      <c r="I5" s="65" t="inlineStr">
         <is>
           <t>16:59:18</t>
         </is>
       </c>
-      <c r="J5" s="44" t="inlineStr">
+      <c r="J5" s="65" t="inlineStr">
         <is>
           <t>16:59:22</t>
         </is>
       </c>
-      <c r="K5" s="22" t="inlineStr">
+      <c r="K5" s="21" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="163.15" customHeight="1" s="53" thickBot="1">
-      <c r="A6" s="47" t="n"/>
-      <c r="B6" s="23" t="inlineStr">
+    <row r="6" ht="163.2" customHeight="1" s="63" thickBot="1">
+      <c r="A6" s="58" t="n"/>
+      <c r="B6" s="22" t="inlineStr">
         <is>
           <t>Test_05</t>
         </is>
       </c>
-      <c r="C6" s="24" t="n"/>
-      <c r="D6" s="24" t="inlineStr">
+      <c r="C6" s="23" t="n"/>
+      <c r="D6" s="23" t="inlineStr">
         <is>
           <t>{'username': None, 'password': None, 'lat': 'undefined', 'lon': 'undefined'}</t>
         </is>
       </c>
-      <c r="E6" s="24" t="inlineStr">
+      <c r="E6" s="23" t="inlineStr">
         <is>
           <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Username: Missing Username Severity: Error\r\n -- Username: Missing Username Severity: Error\r\n -- Password: Missing Password Severity: Error\r\n -- Password: Missing Password Severity: Error', 'innerException': None, 'requestId': '00-e67e5af49a1e0890a748be53322687ed-d3ab4a9164961096-00', 'requestPath': '/api/login', 'connectionId': '0HMU5HMGR4MSS'}}</t>
         </is>
       </c>
-      <c r="F6" s="24" t="inlineStr">
+      <c r="F6" s="23" t="inlineStr">
         <is>
           <t>Response Status Code : 500 &amp; Message : Validation failed: 
  -- Username: Missing Username Severity: Error
@@ -1781,12 +2239,12 @@
  -- Password: Missing Password Severity: Error</t>
         </is>
       </c>
-      <c r="G6" s="57" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H6" s="24" t="inlineStr">
+      <c r="G6" s="41" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" s="23" t="inlineStr">
         <is>
           <t>Response Status Code : 500 &amp; Message : Validation failed: 
  -- Username: Missing Username Severity: Error
@@ -1795,461 +2253,461 @@
  -- Password: Missing Password Severity: Error</t>
         </is>
       </c>
-      <c r="I6" s="25" t="inlineStr">
+      <c r="I6" s="24" t="inlineStr">
         <is>
           <t>16:59:23</t>
         </is>
       </c>
-      <c r="J6" s="25" t="inlineStr">
+      <c r="J6" s="24" t="inlineStr">
         <is>
           <t>16:59:25</t>
         </is>
       </c>
-      <c r="K6" s="26" t="inlineStr">
+      <c r="K6" s="25" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="30" t="n"/>
-      <c r="B7" s="30" t="n"/>
+      <c r="A7" s="29" t="n"/>
+      <c r="B7" s="29" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="30" t="n"/>
-      <c r="B8" s="30" t="n"/>
+      <c r="A8" s="29" t="n"/>
+      <c r="B8" s="29" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="30" t="n"/>
-      <c r="B9" s="30" t="n"/>
+      <c r="A9" s="29" t="n"/>
+      <c r="B9" s="29" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="30" t="n"/>
-      <c r="B10" s="30" t="n"/>
+      <c r="A10" s="29" t="n"/>
+      <c r="B10" s="29" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="30" t="n"/>
-      <c r="B11" s="30" t="n"/>
+      <c r="A11" s="29" t="n"/>
+      <c r="B11" s="29" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="30" t="n"/>
-      <c r="B12" s="30" t="n"/>
+      <c r="A12" s="29" t="n"/>
+      <c r="B12" s="29" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="30" t="n"/>
-      <c r="B13" s="30" t="n"/>
+      <c r="A13" s="29" t="n"/>
+      <c r="B13" s="29" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="30" t="n"/>
-      <c r="B14" s="30" t="n"/>
+      <c r="A14" s="29" t="n"/>
+      <c r="B14" s="29" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="30" t="n"/>
-      <c r="B15" s="30" t="n"/>
+      <c r="A15" s="29" t="n"/>
+      <c r="B15" s="29" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="30" t="n"/>
-      <c r="B16" s="30" t="n"/>
+      <c r="A16" s="29" t="n"/>
+      <c r="B16" s="29" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="30" t="n"/>
-      <c r="B17" s="30" t="n"/>
+      <c r="A17" s="29" t="n"/>
+      <c r="B17" s="29" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="30" t="n"/>
-      <c r="B18" s="30" t="n"/>
+      <c r="A18" s="29" t="n"/>
+      <c r="B18" s="29" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="30" t="n"/>
-      <c r="B19" s="30" t="n"/>
+      <c r="A19" s="29" t="n"/>
+      <c r="B19" s="29" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="30" t="n"/>
-      <c r="B20" s="30" t="n"/>
+      <c r="A20" s="29" t="n"/>
+      <c r="B20" s="29" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="30" t="n"/>
-      <c r="B21" s="30" t="n"/>
+      <c r="A21" s="29" t="n"/>
+      <c r="B21" s="29" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="30" t="n"/>
-      <c r="B22" s="30" t="n"/>
+      <c r="A22" s="29" t="n"/>
+      <c r="B22" s="29" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="30" t="n"/>
-      <c r="B23" s="30" t="n"/>
+      <c r="A23" s="29" t="n"/>
+      <c r="B23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="30" t="n"/>
-      <c r="B24" s="30" t="n"/>
+      <c r="A24" s="29" t="n"/>
+      <c r="B24" s="29" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="30" t="n"/>
-      <c r="B25" s="30" t="n"/>
+      <c r="A25" s="29" t="n"/>
+      <c r="B25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="30" t="n"/>
-      <c r="B26" s="30" t="n"/>
+      <c r="A26" s="29" t="n"/>
+      <c r="B26" s="29" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="30" t="n"/>
-      <c r="B27" s="30" t="n"/>
+      <c r="A27" s="29" t="n"/>
+      <c r="B27" s="29" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="30" t="n"/>
-      <c r="B28" s="30" t="n"/>
+      <c r="A28" s="29" t="n"/>
+      <c r="B28" s="29" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="30" t="n"/>
-      <c r="B29" s="30" t="n"/>
+      <c r="A29" s="29" t="n"/>
+      <c r="B29" s="29" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="30" t="n"/>
-      <c r="B30" s="30" t="n"/>
+      <c r="A30" s="29" t="n"/>
+      <c r="B30" s="29" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="30" t="n"/>
-      <c r="B31" s="30" t="n"/>
+      <c r="A31" s="29" t="n"/>
+      <c r="B31" s="29" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="30" t="n"/>
-      <c r="B32" s="30" t="n"/>
+      <c r="A32" s="29" t="n"/>
+      <c r="B32" s="29" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="30" t="n"/>
-      <c r="B33" s="30" t="n"/>
+      <c r="A33" s="29" t="n"/>
+      <c r="B33" s="29" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="30" t="n"/>
-      <c r="B34" s="30" t="n"/>
+      <c r="A34" s="29" t="n"/>
+      <c r="B34" s="29" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="30" t="n"/>
-      <c r="B35" s="30" t="n"/>
+      <c r="A35" s="29" t="n"/>
+      <c r="B35" s="29" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="30" t="n"/>
-      <c r="B36" s="30" t="n"/>
+      <c r="A36" s="29" t="n"/>
+      <c r="B36" s="29" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="30" t="n"/>
-      <c r="B37" s="30" t="n"/>
+      <c r="A37" s="29" t="n"/>
+      <c r="B37" s="29" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="30" t="n"/>
-      <c r="B38" s="30" t="n"/>
+      <c r="A38" s="29" t="n"/>
+      <c r="B38" s="29" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="30" t="n"/>
-      <c r="B39" s="30" t="n"/>
+      <c r="A39" s="29" t="n"/>
+      <c r="B39" s="29" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="30" t="n"/>
-      <c r="B40" s="30" t="n"/>
+      <c r="A40" s="29" t="n"/>
+      <c r="B40" s="29" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="30" t="n"/>
-      <c r="B41" s="30" t="n"/>
+      <c r="A41" s="29" t="n"/>
+      <c r="B41" s="29" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="30" t="n"/>
-      <c r="B42" s="30" t="n"/>
+      <c r="A42" s="29" t="n"/>
+      <c r="B42" s="29" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="30" t="n"/>
-      <c r="B43" s="30" t="n"/>
+      <c r="A43" s="29" t="n"/>
+      <c r="B43" s="29" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="30" t="n"/>
-      <c r="B44" s="30" t="n"/>
+      <c r="A44" s="29" t="n"/>
+      <c r="B44" s="29" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="30" t="n"/>
-      <c r="B45" s="30" t="n"/>
+      <c r="A45" s="29" t="n"/>
+      <c r="B45" s="29" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="30" t="n"/>
-      <c r="B46" s="30" t="n"/>
+      <c r="A46" s="29" t="n"/>
+      <c r="B46" s="29" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="30" t="n"/>
-      <c r="B47" s="30" t="n"/>
+      <c r="A47" s="29" t="n"/>
+      <c r="B47" s="29" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="30" t="n"/>
-      <c r="B48" s="30" t="n"/>
+      <c r="A48" s="29" t="n"/>
+      <c r="B48" s="29" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="30" t="n"/>
-      <c r="B49" s="30" t="n"/>
+      <c r="A49" s="29" t="n"/>
+      <c r="B49" s="29" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="30" t="n"/>
-      <c r="B50" s="30" t="n"/>
+      <c r="A50" s="29" t="n"/>
+      <c r="B50" s="29" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="30" t="n"/>
-      <c r="B51" s="30" t="n"/>
+      <c r="A51" s="29" t="n"/>
+      <c r="B51" s="29" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="30" t="n"/>
-      <c r="B52" s="30" t="n"/>
+      <c r="A52" s="29" t="n"/>
+      <c r="B52" s="29" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="30" t="n"/>
-      <c r="B53" s="30" t="n"/>
+      <c r="A53" s="29" t="n"/>
+      <c r="B53" s="29" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="30" t="n"/>
-      <c r="B54" s="30" t="n"/>
+      <c r="A54" s="29" t="n"/>
+      <c r="B54" s="29" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="30" t="n"/>
-      <c r="B55" s="30" t="n"/>
+      <c r="A55" s="29" t="n"/>
+      <c r="B55" s="29" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="30" t="n"/>
-      <c r="B56" s="30" t="n"/>
+      <c r="A56" s="29" t="n"/>
+      <c r="B56" s="29" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="30" t="n"/>
-      <c r="B57" s="30" t="n"/>
+      <c r="A57" s="29" t="n"/>
+      <c r="B57" s="29" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="30" t="n"/>
-      <c r="B58" s="30" t="n"/>
+      <c r="A58" s="29" t="n"/>
+      <c r="B58" s="29" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="30" t="n"/>
-      <c r="B59" s="30" t="n"/>
+      <c r="A59" s="29" t="n"/>
+      <c r="B59" s="29" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="30" t="n"/>
-      <c r="B60" s="30" t="n"/>
+      <c r="A60" s="29" t="n"/>
+      <c r="B60" s="29" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="30" t="n"/>
-      <c r="B61" s="30" t="n"/>
+      <c r="A61" s="29" t="n"/>
+      <c r="B61" s="29" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="30" t="n"/>
-      <c r="B62" s="30" t="n"/>
+      <c r="A62" s="29" t="n"/>
+      <c r="B62" s="29" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="30" t="n"/>
-      <c r="B63" s="30" t="n"/>
+      <c r="A63" s="29" t="n"/>
+      <c r="B63" s="29" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="30" t="n"/>
-      <c r="B64" s="30" t="n"/>
+      <c r="A64" s="29" t="n"/>
+      <c r="B64" s="29" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="30" t="n"/>
-      <c r="B65" s="30" t="n"/>
+      <c r="A65" s="29" t="n"/>
+      <c r="B65" s="29" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="30" t="n"/>
-      <c r="B66" s="30" t="n"/>
+      <c r="A66" s="29" t="n"/>
+      <c r="B66" s="29" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="30" t="n"/>
-      <c r="B67" s="30" t="n"/>
+      <c r="A67" s="29" t="n"/>
+      <c r="B67" s="29" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="30" t="n"/>
-      <c r="B68" s="30" t="n"/>
+      <c r="A68" s="29" t="n"/>
+      <c r="B68" s="29" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="30" t="n"/>
-      <c r="B69" s="30" t="n"/>
+      <c r="A69" s="29" t="n"/>
+      <c r="B69" s="29" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="30" t="n"/>
-      <c r="B70" s="30" t="n"/>
+      <c r="A70" s="29" t="n"/>
+      <c r="B70" s="29" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="30" t="n"/>
-      <c r="B71" s="30" t="n"/>
+      <c r="A71" s="29" t="n"/>
+      <c r="B71" s="29" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="30" t="n"/>
-      <c r="B72" s="30" t="n"/>
+      <c r="A72" s="29" t="n"/>
+      <c r="B72" s="29" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="30" t="n"/>
-      <c r="B73" s="30" t="n"/>
+      <c r="A73" s="29" t="n"/>
+      <c r="B73" s="29" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="30" t="n"/>
-      <c r="B74" s="30" t="n"/>
+      <c r="A74" s="29" t="n"/>
+      <c r="B74" s="29" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="30" t="n"/>
-      <c r="B75" s="30" t="n"/>
+      <c r="A75" s="29" t="n"/>
+      <c r="B75" s="29" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="30" t="n"/>
-      <c r="B76" s="30" t="n"/>
+      <c r="A76" s="29" t="n"/>
+      <c r="B76" s="29" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="30" t="n"/>
-      <c r="B77" s="30" t="n"/>
+      <c r="A77" s="29" t="n"/>
+      <c r="B77" s="29" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="30" t="n"/>
-      <c r="B78" s="30" t="n"/>
+      <c r="A78" s="29" t="n"/>
+      <c r="B78" s="29" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="30" t="n"/>
-      <c r="B79" s="30" t="n"/>
+      <c r="A79" s="29" t="n"/>
+      <c r="B79" s="29" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="30" t="n"/>
-      <c r="B80" s="30" t="n"/>
+      <c r="A80" s="29" t="n"/>
+      <c r="B80" s="29" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="30" t="n"/>
-      <c r="B81" s="30" t="n"/>
+      <c r="A81" s="29" t="n"/>
+      <c r="B81" s="29" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="30" t="n"/>
-      <c r="B82" s="30" t="n"/>
+      <c r="A82" s="29" t="n"/>
+      <c r="B82" s="29" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="30" t="n"/>
-      <c r="B83" s="30" t="n"/>
+      <c r="A83" s="29" t="n"/>
+      <c r="B83" s="29" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="30" t="n"/>
-      <c r="B84" s="30" t="n"/>
+      <c r="A84" s="29" t="n"/>
+      <c r="B84" s="29" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="30" t="n"/>
-      <c r="B85" s="30" t="n"/>
+      <c r="A85" s="29" t="n"/>
+      <c r="B85" s="29" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="30" t="n"/>
-      <c r="B86" s="30" t="n"/>
+      <c r="A86" s="29" t="n"/>
+      <c r="B86" s="29" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="30" t="n"/>
-      <c r="B87" s="30" t="n"/>
+      <c r="A87" s="29" t="n"/>
+      <c r="B87" s="29" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="30" t="n"/>
-      <c r="B88" s="30" t="n"/>
+      <c r="A88" s="29" t="n"/>
+      <c r="B88" s="29" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="30" t="n"/>
-      <c r="B89" s="30" t="n"/>
+      <c r="A89" s="29" t="n"/>
+      <c r="B89" s="29" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="30" t="n"/>
-      <c r="B90" s="30" t="n"/>
+      <c r="A90" s="29" t="n"/>
+      <c r="B90" s="29" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="30" t="n"/>
-      <c r="B91" s="30" t="n"/>
+      <c r="A91" s="29" t="n"/>
+      <c r="B91" s="29" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="30" t="n"/>
-      <c r="B92" s="30" t="n"/>
+      <c r="A92" s="29" t="n"/>
+      <c r="B92" s="29" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="30" t="n"/>
-      <c r="B93" s="30" t="n"/>
+      <c r="A93" s="29" t="n"/>
+      <c r="B93" s="29" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="30" t="n"/>
-      <c r="B94" s="30" t="n"/>
+      <c r="A94" s="29" t="n"/>
+      <c r="B94" s="29" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="30" t="n"/>
-      <c r="B95" s="30" t="n"/>
+      <c r="A95" s="29" t="n"/>
+      <c r="B95" s="29" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="30" t="n"/>
-      <c r="B96" s="30" t="n"/>
+      <c r="A96" s="29" t="n"/>
+      <c r="B96" s="29" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="30" t="n"/>
-      <c r="B97" s="30" t="n"/>
+      <c r="A97" s="29" t="n"/>
+      <c r="B97" s="29" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="30" t="n"/>
-      <c r="B98" s="30" t="n"/>
+      <c r="A98" s="29" t="n"/>
+      <c r="B98" s="29" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="30" t="n"/>
-      <c r="B99" s="30" t="n"/>
+      <c r="A99" s="29" t="n"/>
+      <c r="B99" s="29" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="30" t="n"/>
-      <c r="B100" s="30" t="n"/>
+      <c r="A100" s="29" t="n"/>
+      <c r="B100" s="29" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="30" t="n"/>
-      <c r="B101" s="30" t="n"/>
+      <c r="A101" s="29" t="n"/>
+      <c r="B101" s="29" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="30" t="n"/>
-      <c r="B102" s="30" t="n"/>
+      <c r="A102" s="29" t="n"/>
+      <c r="B102" s="29" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="30" t="n"/>
-      <c r="B103" s="30" t="n"/>
+      <c r="A103" s="29" t="n"/>
+      <c r="B103" s="29" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="30" t="n"/>
-      <c r="B104" s="30" t="n"/>
+      <c r="A104" s="29" t="n"/>
+      <c r="B104" s="29" t="n"/>
     </row>
     <row r="105">
-      <c r="A105" s="30" t="n"/>
-      <c r="B105" s="30" t="n"/>
+      <c r="A105" s="29" t="n"/>
+      <c r="B105" s="29" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="30" t="n"/>
-      <c r="B106" s="30" t="n"/>
+      <c r="A106" s="29" t="n"/>
+      <c r="B106" s="29" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="30" t="n"/>
-      <c r="B107" s="30" t="n"/>
+      <c r="A107" s="29" t="n"/>
+      <c r="B107" s="29" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" s="30" t="n"/>
-      <c r="B108" s="30" t="n"/>
+      <c r="A108" s="29" t="n"/>
+      <c r="B108" s="29" t="n"/>
     </row>
     <row r="109">
-      <c r="A109" s="30" t="n"/>
-      <c r="B109" s="30" t="n"/>
+      <c r="A109" s="29" t="n"/>
+      <c r="B109" s="29" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" s="30" t="n"/>
-      <c r="B110" s="30" t="n"/>
+      <c r="A110" s="29" t="n"/>
+      <c r="B110" s="29" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" s="30" t="n"/>
-      <c r="B111" s="30" t="n"/>
+      <c r="A111" s="29" t="n"/>
+      <c r="B111" s="29" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="30" t="n"/>
-      <c r="B112" s="30" t="n"/>
+      <c r="A112" s="29" t="n"/>
+      <c r="B112" s="29" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" s="30" t="n"/>
-      <c r="B113" s="30" t="n"/>
+      <c r="A113" s="29" t="n"/>
+      <c r="B113" s="29" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="30" t="n"/>
-      <c r="B114" s="30" t="n"/>
+      <c r="A114" s="29" t="n"/>
+      <c r="B114" s="29" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="30" t="n"/>
-      <c r="B115" s="30" t="n"/>
+      <c r="A115" s="29" t="n"/>
+      <c r="B115" s="29" t="n"/>
     </row>
     <row r="116">
-      <c r="A116" s="30" t="n"/>
-      <c r="B116" s="30" t="n"/>
+      <c r="A116" s="29" t="n"/>
+      <c r="B116" s="29" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="G1:G116"/>
@@ -2273,948 +2731,948 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="14.625" customWidth="1" style="53" min="1" max="1"/>
-    <col width="14.75" customWidth="1" style="53" min="2" max="2"/>
-    <col width="20.5" customWidth="1" style="53" min="3" max="3"/>
-    <col width="20.375" customWidth="1" style="30" min="4" max="4"/>
-    <col width="24.5" customWidth="1" style="30" min="5" max="5"/>
-    <col width="29" customWidth="1" style="30" min="6" max="6"/>
-    <col width="16.875" customWidth="1" style="30" min="7" max="8"/>
-    <col width="10.125" bestFit="1" customWidth="1" style="30" min="9" max="9"/>
-    <col width="8.875" customWidth="1" style="30" min="10" max="10"/>
-    <col width="14.375" customWidth="1" style="30" min="11" max="11"/>
+    <col width="14.6640625" customWidth="1" style="63" min="1" max="1"/>
+    <col width="14.77734375" customWidth="1" style="63" min="2" max="2"/>
+    <col width="20.44140625" customWidth="1" style="63" min="3" max="3"/>
+    <col width="20.33203125" customWidth="1" style="29" min="4" max="4"/>
+    <col width="24.44140625" customWidth="1" style="29" min="5" max="5"/>
+    <col width="29" customWidth="1" style="29" min="6" max="6"/>
+    <col width="16.88671875" customWidth="1" style="29" min="7" max="8"/>
+    <col width="10.109375" bestFit="1" customWidth="1" style="29" min="9" max="9"/>
+    <col width="8.88671875" customWidth="1" style="29" min="10" max="10"/>
+    <col width="14.33203125" customWidth="1" style="29" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.9" customHeight="1" s="53">
-      <c r="A1" s="16" t="inlineStr">
+    <row r="1" ht="28.95" customHeight="1" s="63">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>Test No</t>
         </is>
       </c>
-      <c r="B1" s="17" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>TestCase</t>
         </is>
       </c>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>TestCase Description</t>
         </is>
       </c>
-      <c r="D1" s="17" t="inlineStr">
+      <c r="D1" s="16" t="inlineStr">
         <is>
           <t>Request Body</t>
         </is>
       </c>
-      <c r="E1" s="17" t="inlineStr">
+      <c r="E1" s="16" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="F1" s="18" t="inlineStr">
+      <c r="F1" s="17" t="inlineStr">
         <is>
           <t>Check_Point/Test_Condition</t>
         </is>
       </c>
-      <c r="G1" s="18" t="inlineStr">
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>Result (Pass/Fail)</t>
         </is>
       </c>
-      <c r="H1" s="18" t="inlineStr">
+      <c r="H1" s="17" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="I1" s="18" t="inlineStr">
+      <c r="I1" s="17" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="J1" s="18" t="inlineStr">
+      <c r="J1" s="17" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="K1" s="20" t="inlineStr">
+      <c r="K1" s="19" t="inlineStr">
         <is>
           <t>Total Duration
 (Seconds)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="117" customHeight="1" s="53">
-      <c r="A2" s="42" t="inlineStr">
+    <row r="2" ht="117" customHeight="1" s="63">
+      <c r="A2" s="59" t="inlineStr">
         <is>
           <t>Users</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="45" t="inlineStr">
+      <c r="C2" s="37" t="inlineStr">
         <is>
           <t>Verify create user API</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>{'auth_params': ' ', 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': ' ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Chile/EasterIsland', 'urole_id': '651e6e4ed10453bbc689ec06', 'region_id': '651e6e4ed10453bbc689ec09', 'username': 'Demo_user1314', 'password': 'Right_1r1s'}</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>{'accountId': '651e6e4dd10453bbc689ec05', 'status': 'ok', 'userName': 'Demo_user1314', 'userId': '651e9eaa7751dc6faf30049b'}</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="G2" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="G2" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I2" s="28" t="inlineStr">
+      <c r="I2" s="27" t="inlineStr">
         <is>
           <t>17:01:44</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>17:01:53</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="96" customHeight="1" s="53">
-      <c r="A3" s="49" t="n"/>
-      <c r="B3" s="2" t="inlineStr">
+    <row r="3" ht="96" customHeight="1" s="63">
+      <c r="A3" s="60" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="45" t="n"/>
-      <c r="D3" s="43" t="inlineStr">
+      <c r="C3" s="37" t="n"/>
+      <c r="D3" s="64" t="inlineStr">
         <is>
           <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': True, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '651e6e4ed10453bbc689ec06', 'region_id': '651e6e4ed10453bbc689ec09', 'username': 'test409770', 'password': 'Right_1r1s'}</t>
         </is>
       </c>
-      <c r="E3" s="43" t="inlineStr">
+      <c r="E3" s="64" t="inlineStr">
         <is>
           <t>{'accountId': '651e6e4dd10453bbc689ec05', 'status': 'ok', 'userName': 'test409770', 'userId': '651e9eb17751dc6faf3004b0'}</t>
         </is>
       </c>
-      <c r="F3" s="43" t="inlineStr">
+      <c r="F3" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="G3" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="43" t="inlineStr">
+      <c r="G3" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I3" s="43" t="inlineStr">
+      <c r="I3" s="64" t="inlineStr">
         <is>
           <t>17:01:53</t>
         </is>
       </c>
-      <c r="J3" s="43" t="inlineStr">
+      <c r="J3" s="64" t="inlineStr">
         <is>
           <t>17:02:01</t>
         </is>
       </c>
-      <c r="K3" s="43" t="inlineStr">
+      <c r="K3" s="64" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="72" customHeight="1" s="53">
-      <c r="A4" s="49" t="n"/>
-      <c r="B4" s="2" t="inlineStr">
+    <row r="4" ht="72" customHeight="1" s="63">
+      <c r="A4" s="60" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>Test_03</t>
         </is>
       </c>
-      <c r="C4" s="43" t="n"/>
-      <c r="D4" s="43" t="inlineStr">
+      <c r="C4" s="64" t="n"/>
+      <c r="D4" s="64" t="inlineStr">
         <is>
           <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': False, 'fname': 'testFname', 'mname': None, 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '651e6e4ed10453bbc689ec06', 'region_id': '651e6e4ed10453bbc689ec09', 'username': 'Demo_user1512', 'password': 'Right_1r1s'}</t>
         </is>
       </c>
-      <c r="E4" s="43" t="inlineStr">
+      <c r="E4" s="64" t="inlineStr">
         <is>
           <t>{'accountId': '651e6e4dd10453bbc689ec05', 'status': 'ok', 'userName': 'Demo_user1512', 'userId': '651e9eba7751dc6faf3004c5'}</t>
         </is>
       </c>
-      <c r="F4" s="43" t="inlineStr">
+      <c r="F4" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="G4" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H4" s="43" t="inlineStr">
+      <c r="G4" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I4" s="43" t="inlineStr">
+      <c r="I4" s="64" t="inlineStr">
         <is>
           <t>17:02:01</t>
         </is>
       </c>
-      <c r="J4" s="43" t="inlineStr">
+      <c r="J4" s="64" t="inlineStr">
         <is>
           <t>17:02:10</t>
         </is>
       </c>
-      <c r="K4" s="43" t="inlineStr">
+      <c r="K4" s="64" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="86.45" customHeight="1" s="53">
-      <c r="A5" s="49" t="n"/>
-      <c r="B5" s="2" t="inlineStr">
+    <row r="5" ht="86.40000000000001" customHeight="1" s="63">
+      <c r="A5" s="60" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>Test_04</t>
         </is>
       </c>
-      <c r="C5" s="43" t="n"/>
-      <c r="D5" s="43" t="inlineStr">
+      <c r="C5" s="64" t="n"/>
+      <c r="D5" s="64" t="inlineStr">
         <is>
           <t>{'auth_params': None, 'company': None, 'title': ' ', 'department': ' ', 'enabled': False, 'fname': ' ', 'mname': ' ', 'lname': ' ', 'addr1': ' ', 'addr2': ' ', 'city': ' ', 'state': ' ', 'zip': ' ', 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': ' ', 'wphone': ' ', 'fphone': ' ', 'aphone': ' ', 'phone_type': ' ', 'provider': ' ', 'timezone': 'Asia/Kolkata', 'urole_id': '651e6e4ed10453bbc689ec06', 'region_id': '651e6e4ed10453bbc689ec09', 'username': 'test409299', 'password': 'Right_1r1s'}</t>
         </is>
       </c>
-      <c r="E5" s="43" t="inlineStr">
+      <c r="E5" s="64" t="inlineStr">
         <is>
           <t>{'accountId': '651e6e4dd10453bbc689ec05', 'status': 'ok', 'userName': 'test409299', 'userId': '651e9ec27751dc6faf3004da'}</t>
         </is>
       </c>
-      <c r="F5" s="43" t="n"/>
-      <c r="G5" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H5" s="43" t="inlineStr">
+      <c r="F5" s="64" t="n"/>
+      <c r="G5" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I5" s="43" t="inlineStr">
+      <c r="I5" s="64" t="inlineStr">
         <is>
           <t>17:02:10</t>
         </is>
       </c>
-      <c r="J5" s="43" t="inlineStr">
+      <c r="J5" s="64" t="inlineStr">
         <is>
           <t>17:02:17</t>
         </is>
       </c>
-      <c r="K5" s="43" t="inlineStr">
+      <c r="K5" s="64" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49" t="n"/>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="A6" s="60" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>Test_05</t>
         </is>
       </c>
-      <c r="C6" s="27" t="n"/>
-      <c r="D6" s="27" t="n"/>
-      <c r="E6" s="27" t="n"/>
-      <c r="F6" s="27" t="n"/>
-      <c r="G6" s="27" t="n"/>
-      <c r="H6" s="27" t="n"/>
-      <c r="I6" s="27" t="n"/>
-      <c r="J6" s="27" t="n"/>
-      <c r="K6" s="27" t="n"/>
-    </row>
-    <row r="7" ht="124.9" customHeight="1" s="53">
-      <c r="A7" s="49" t="n"/>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="C6" s="26" t="n"/>
+      <c r="D6" s="26" t="n"/>
+      <c r="E6" s="26" t="n"/>
+      <c r="F6" s="26" t="n"/>
+      <c r="G6" s="26" t="n"/>
+      <c r="H6" s="26" t="n"/>
+      <c r="I6" s="26" t="n"/>
+      <c r="J6" s="26" t="n"/>
+      <c r="K6" s="26" t="n"/>
+    </row>
+    <row r="7" ht="124.95" customHeight="1" s="63">
+      <c r="A7" s="60" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>Test_06</t>
         </is>
       </c>
-      <c r="C7" s="27" t="n"/>
-      <c r="D7" s="43" t="inlineStr">
+      <c r="C7" s="26" t="n"/>
+      <c r="D7" s="64" t="inlineStr">
         <is>
           <t>{'userId': '651e6e5e4329bcab67b01b77', 'alertEnabled': True, 'sendSms': True, 'sendMms': True, 'sendEmail': True, 'sendInappNotification': False, 'scheduleDetail': [{'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': True, 'startTime': 0, 'endTime': 2359}, {'enabled': False}, {'enabled': False}]}</t>
         </is>
       </c>
-      <c r="E7" s="43" t="inlineStr">
+      <c r="E7" s="64" t="inlineStr">
         <is>
           <t>{'data': 'Alert information has been updated.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F7" s="43" t="inlineStr">
+      <c r="F7" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : User  650acb81cd16ba5d940931f1 is updated.</t>
         </is>
       </c>
-      <c r="G7" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H7" s="43" t="inlineStr">
+      <c r="G7" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H7" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Alert information has been updated.</t>
         </is>
       </c>
-      <c r="I7" s="43" t="inlineStr">
+      <c r="I7" s="64" t="inlineStr">
         <is>
           <t>17:02:17</t>
         </is>
       </c>
-      <c r="J7" s="43" t="inlineStr">
+      <c r="J7" s="64" t="inlineStr">
         <is>
           <t>17:02:23</t>
         </is>
       </c>
-      <c r="K7" s="43" t="inlineStr">
+      <c r="K7" s="64" t="inlineStr">
         <is>
           <t>6.0</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="87.59999999999999" customHeight="1" s="53">
-      <c r="A8" s="49" t="n"/>
-      <c r="B8" s="2" t="inlineStr">
+    <row r="8" ht="87.59999999999999" customHeight="1" s="63">
+      <c r="A8" s="60" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>Test_07</t>
         </is>
       </c>
-      <c r="C8" s="27" t="n"/>
-      <c r="D8" s="43" t="inlineStr">
+      <c r="C8" s="26" t="n"/>
+      <c r="D8" s="64" t="inlineStr">
         <is>
           <t>{'accountId': '651e6e4dd10453bbc689ec05', 'addr1': None, 'addr2': None, 'aemail': 'user@gmail.com', 'aphone': None, 'auth_params': None, 'city': None, 'company': None, 'department': None, 'email': 'user@gmail.com', 'enabled': True, 'fname': None, 'fphone': None, 'hphone': None, 'isServiceUser': False, 'lname': None, 'mname': None, 'password': 'Password@123', 'phone_type': 0, 'provider': None, 'pw_current': None, 'pw_new1': None, 'pw_new2': None, 'region_id': '651e6e4ed10453bbc689ec09', 'state': None, 'timezone': 'Asia/Kolkata', 'title': 'test_title', 'url': None, 'urole_id': '651e6e4ed10453bbc689ec06', 'user_id': '651e6e5e4329bcab67b01b77', 'userName': 'TestUser243', 'wphone': None, 'zip': None}</t>
         </is>
       </c>
-      <c r="E8" s="43" t="inlineStr">
+      <c r="E8" s="64" t="inlineStr">
         <is>
           <t>{'accountId': '651e6e4dd10453bbc689ec05', 'status': 'ok', 'userName': 'TestUser243', 'userId': '651e9ed27751dc6faf300502'}</t>
         </is>
       </c>
-      <c r="F8" s="43" t="inlineStr">
+      <c r="F8" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G8" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H8" s="43" t="inlineStr">
+      <c r="G8" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H8" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I8" s="43" t="inlineStr">
+      <c r="I8" s="64" t="inlineStr">
         <is>
           <t>17:02:23</t>
         </is>
       </c>
-      <c r="J8" s="43" t="inlineStr">
+      <c r="J8" s="64" t="inlineStr">
         <is>
           <t>17:02:33</t>
         </is>
       </c>
-      <c r="K8" s="43" t="inlineStr">
+      <c r="K8" s="64" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="98.45" customHeight="1" s="53">
-      <c r="A9" s="49" t="n"/>
-      <c r="B9" s="2" t="inlineStr">
+    <row r="9" ht="98.40000000000001" customHeight="1" s="63">
+      <c r="A9" s="60" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>Test_08</t>
         </is>
       </c>
-      <c r="C9" s="27" t="n"/>
-      <c r="D9" s="43" t="inlineStr">
+      <c r="C9" s="26" t="n"/>
+      <c r="D9" s="64" t="inlineStr">
         <is>
           <t>{'auth_params': None, 'company': 'testCompany', 'title': 'testTitle', 'department': 'testing', 'enabled': True, 'fname': 'testFname', 'mname': '  ', 'lname': 'testLname', 'addr1': 'Memnager', 'addr2': 'Memnager', 'city': 'Pune', 'state': 'Maharashtra', 'zip': 12345, 'email': 'admin@gmail.com', 'aemail': 'admin@gmail.com', 'hphone': 123456789, 'wphone': 123456789, 'fphone': 123456789, 'aphone': 123456789, 'phone_type': 0, 'provider': 'att.net', 'timezone': 'Asia/Kolkata', 'urole_id': '651e6e4ed10453bbc689ec06', 'region_id': '651e6e4ed10453bbc689ec09', 'user_id': '651e9eda7751dc6faf300517', 'pw_current': 'Right_1r1s', 'pw_new1': 'Right_1r1', 'pw_new2': 'Right_1r1'}</t>
         </is>
       </c>
-      <c r="E9" s="43" t="inlineStr">
+      <c r="E9" s="64" t="inlineStr">
         <is>
           <t>{'data': '651e9eda7751dc6faf300517', 'message': 'User  651e9eda7751dc6faf300517 is updated.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F9" s="43" t="inlineStr">
+      <c r="F9" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G9" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H9" s="43" t="inlineStr">
+      <c r="G9" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H9" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : User  651e9eda7751dc6faf300517 is updated.</t>
         </is>
       </c>
-      <c r="I9" s="43" t="inlineStr">
+      <c r="I9" s="64" t="inlineStr">
         <is>
           <t>17:02:34</t>
         </is>
       </c>
-      <c r="J9" s="43" t="inlineStr">
+      <c r="J9" s="64" t="inlineStr">
         <is>
           <t>17:02:49</t>
         </is>
       </c>
-      <c r="K9" s="43" t="inlineStr">
+      <c r="K9" s="64" t="inlineStr">
         <is>
           <t>15.0</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="111" customHeight="1" s="53">
-      <c r="A10" s="49" t="n"/>
-      <c r="B10" s="2" t="inlineStr">
+    <row r="10" ht="111" customHeight="1" s="63">
+      <c r="A10" s="60" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>Test_08</t>
         </is>
       </c>
-      <c r="C10" s="27" t="n"/>
-      <c r="D10" s="43" t="inlineStr">
+      <c r="C10" s="26" t="n"/>
+      <c r="D10" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E10" s="43" t="inlineStr">
+      <c r="E10" s="64" t="inlineStr">
         <is>
           <t>{'userInfo': {'users': [{'id': '65094909790679132325377c', 'userID': '65094909790679132325377c', 'username': 'deployment.client', 'serviceUser': False, 'roleId': '65094909790679132325377b', 'userRoleId': '65094909790679132325377b', 'enabled': 1, 'accountId': '6509490800b0398858000031', 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'accountLockedOut': 0, 'badPasswordCount': 0, 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'secureLogin': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'alertGroups': [], 'regionId': '6509490800b0398858000035', 'regionName': 'Dmart', 'roleName': 'deployment.client'}]}}</t>
         </is>
       </c>
-      <c r="F10" s="43" t="inlineStr">
+      <c r="F10" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G10" s="39" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H10" s="43" t="inlineStr">
+      <c r="G10" s="35" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H10" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I10" s="43" t="inlineStr">
+      <c r="I10" s="64" t="inlineStr">
         <is>
           <t>19:47:17</t>
         </is>
       </c>
-      <c r="J10" s="43" t="inlineStr">
+      <c r="J10" s="64" t="inlineStr">
         <is>
           <t>19:47:23</t>
         </is>
       </c>
-      <c r="K10" s="43" t="inlineStr">
+      <c r="K10" s="64" t="inlineStr">
         <is>
           <t>6.0</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="137.45" customHeight="1" s="53">
-      <c r="A11" s="49" t="n"/>
-      <c r="B11" s="2" t="inlineStr">
+    <row r="11" ht="137.4" customHeight="1" s="63">
+      <c r="A11" s="60" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Test_10</t>
         </is>
       </c>
-      <c r="C11" s="27" t="n"/>
-      <c r="D11" s="43" t="inlineStr">
+      <c r="C11" s="26" t="n"/>
+      <c r="D11" s="64" t="inlineStr">
         <is>
           <t>{'Addr1': None, 'Addr2': None, 'Zip': None, 'Enabled': True, 'Pw_current': None, 'Region_id': '651e6e4ed10453bbc689ec09', 'Hphone': None, 'AccountId': '651e6e4dd10453bbc689ec05', 'Fphone': None, 'Pw_new1': None, 'Pw_new2': None, 'City': None, 'Phone_type': None, 'Aphone': None, 'Url': None, 'User_id': '651e9ee97751dc6faf300544', 'Urole_id': '651e6e4ed10453bbc689ec06', 'State': None, 'Provider': None, 'Fname': None, 'Department': None, 'IsServiceUser': False, 'UserName': None, 'Lname': None, 'Wphone': None, 'Mname': None, 'Title': None, 'Timezone': 'Asia/Kolkata', 'Password': 'Password@123', 'Aemail': 'user@gmail.com', 'Email': 'user@gmail.com', 'Company': None, 'Auth_params': None}</t>
         </is>
       </c>
-      <c r="E11" s="43" t="inlineStr">
+      <c r="E11" s="64" t="inlineStr">
         <is>
           <t>{'data': '651e9ee97751dc6faf300544', 'message': 'User  651e9ee97751dc6faf300544 is updated.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F11" s="43" t="inlineStr">
+      <c r="F11" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Alert information has been updated.</t>
         </is>
       </c>
-      <c r="G11" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H11" s="43" t="inlineStr">
+      <c r="G11" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H11" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : User  651e9ee97751dc6faf300544 is updated.</t>
         </is>
       </c>
-      <c r="I11" s="43" t="inlineStr">
+      <c r="I11" s="64" t="inlineStr">
         <is>
           <t>17:02:49</t>
         </is>
       </c>
-      <c r="J11" s="43" t="inlineStr">
+      <c r="J11" s="64" t="inlineStr">
         <is>
           <t>17:03:06</t>
         </is>
       </c>
-      <c r="K11" s="43" t="inlineStr">
+      <c r="K11" s="64" t="inlineStr">
         <is>
           <t>17.0</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="109.9" customHeight="1" s="53">
-      <c r="A12" s="49" t="n"/>
-      <c r="B12" s="2" t="inlineStr">
+    <row r="12" ht="109.95" customHeight="1" s="63">
+      <c r="A12" s="60" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>Test_11</t>
         </is>
       </c>
-      <c r="C12" s="27" t="n"/>
-      <c r="D12" s="43" t="inlineStr">
+      <c r="C12" s="26" t="n"/>
+      <c r="D12" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E12" s="43" t="inlineStr">
+      <c r="E12" s="64" t="inlineStr">
         <is>
           <t>[{'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'enabled': 1, 'id': '651e6e58977a0183e7460ed2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec07', 'roleId': '651e6e58977a0183e7460ed1', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e6e58977a0183e7460ed2', 'username': 'deployment.client', 'userRoleId': '651e6e58977a0183e7460ed1', 'displayName': 'deployment.client, ExternalUser'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651e6e5e4329bcab67b01b77', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696493150000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec07', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e6e5e4329bcab67b01b77', 'username': 'core', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'core'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'maintenance'}, 'enabled': 1, 'id': '651e6ed1694c7c51a9b4a7f4', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec07', 'roleId': '651e6ed1694c7c51a9b4a7f2', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e6ed1694c7c51a9b4a7f4', 'username': 'maintenance', 'userRoleId': '651e6ed1694c7c51a9b4a7f2', 'displayName': 'maintenance, ExternalUser'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'enabled': 1, 'id': '651e6ed2694c7c51a9b4a7f6', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec07', 'roleId': '651e6ed2694c7c51a9b4a7f5', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e6ed2694c7c51a9b4a7f6', 'username': 'deployment.server', 'userRoleId': '651e6ed2694c7c51a9b4a7f5', 'displayName': 'deployment.server, ExternalUser'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'firstName': 'shubham', 'lastName': 'c', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651e9cf27751dc6faf2fffaa', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505074000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec07', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9cf27751dc6faf2fffaa', 'username': 'shubham', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'c, shubham'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651e9eaa7751dc6faf30049b', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505514000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9eaa7751dc6faf30049b', 'username': 'Demo_user1314', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'testLname, testFname'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651e9eb17751dc6faf3004b0', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505521000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9eb17751dc6faf3004b0', 'username': 'test409770', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'test409770'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '651e9eba7751dc6faf3004c5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505530000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9eba7751dc6faf3004c5', 'username': 'Demo_user1512', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'testLname, testFname'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '651e9ec27751dc6faf3004da', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505538000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9ec27751dc6faf3004da', 'username': 'test409299', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'test409299'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '651e9ed27751dc6faf300502', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505554000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9ed27751dc6faf300502', 'username': 'TestUser243', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'TestUser243'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651e9eda7751dc6faf300517', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505562000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9eda7751dc6faf300517', 'username': 'Demo_user1200', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'testLname, testFname'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651e9ee97751dc6faf300544', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505577000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9ee97751dc6faf300544', 'username': 'Demo_user1756', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'Demo_user1756'}]</t>
         </is>
       </c>
-      <c r="F12" s="43" t="inlineStr">
+      <c r="F12" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="G12" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H12" s="43" t="inlineStr">
+      <c r="G12" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H12" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I12" s="43" t="inlineStr">
+      <c r="I12" s="64" t="inlineStr">
         <is>
           <t>17:03:06</t>
         </is>
       </c>
-      <c r="J12" s="43" t="inlineStr">
+      <c r="J12" s="64" t="inlineStr">
         <is>
           <t>17:03:09</t>
         </is>
       </c>
-      <c r="K12" s="43" t="inlineStr">
+      <c r="K12" s="64" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="112.9" customHeight="1" s="53">
-      <c r="A13" s="49" t="n"/>
-      <c r="B13" s="43" t="inlineStr">
+    <row r="13" ht="112.95" customHeight="1" s="63">
+      <c r="A13" s="60" t="n"/>
+      <c r="B13" s="64" t="inlineStr">
         <is>
           <t>Test_12</t>
         </is>
       </c>
-      <c r="C13" s="43" t="n"/>
-      <c r="D13" s="43" t="inlineStr">
+      <c r="C13" s="64" t="n"/>
+      <c r="D13" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E13" s="43" t="inlineStr">
+      <c r="E13" s="64" t="inlineStr">
         <is>
           <t>{'userInfo': {'users': [{'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'alertGroups': [{'agroupID': '651e6e5e4329bcab67b01b6e', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['651e6e5e4329bcab67b01b67', '651e9d667751dc6faf3000a9'], 'name': 'DefaultAlertGroup', 'ownerID': '651e6e4dd10453bbc689ec05', 'userIds': ['651e6e5e4329bcab67b01b77'], 'zoneIds': ['651e6e4ed10453bbc689ec09', '651e8b121b0bb5918035486f', '651e8b8d1b0bb59180354883', '651e8d191b0bb59180354897']}], 'badPasswordCount': 0, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651e6e5e4329bcab67b01b77', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696493150000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec07', 'regionName': 'Dmart', 'roleId': '651e6e4ed10453bbc689ec06', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e6e5e4329bcab67b01b77', 'username': 'core', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'core'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'alertGroups': [{'agroupID': '651e9e447751dc6faf300368', 'desc': 'test description', 'enrollmentGroupIds': ['651e9e427751dc6faf30035d'], 'name': 'Test_notification_Api250', 'ownerID': '651e6e4dd10453bbc689ec05', 'userIds': ['651e9cf27751dc6faf2fffaa'], 'zoneIds': ['651e6e4ed10453bbc689ec09']}, {'agroupID': '651e9e667751dc6faf3003d8', 'desc': 'test description', 'enrollmentGroupIds': [], 'name': 'Test_notification_Api252', 'ownerID': '651e6e4dd10453bbc689ec05', 'userIds': ['651e9cf27751dc6faf2fffaa'], 'zoneIds': ['651e6e4ed10453bbc689ec09']}], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'firstName': 'shubham', 'lastName': 'c', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651e9cf27751dc6faf2fffaa', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505074000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec07', 'regionName': 'Dmart', 'roleId': '651e6e4ed10453bbc689ec06', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9cf27751dc6faf2fffaa', 'username': 'shubham', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'c, shubham'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651e9eaa7751dc6faf30049b', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505514000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9eaa7751dc6faf30049b', 'username': 'Demo_user1314', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'testLname, testFname'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651e9eb17751dc6faf3004b0', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505521000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9eb17751dc6faf3004b0', 'username': 'test409770', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'test409770'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '651e9eba7751dc6faf3004c5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505530000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9eba7751dc6faf3004c5', 'username': 'Demo_user1512', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'testLname, testFname'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '651e9ec27751dc6faf3004da', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505538000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9ec27751dc6faf3004da', 'username': 'test409299', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'test409299'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '651e9ed27751dc6faf300502', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505554000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9ed27751dc6faf300502', 'username': 'TestUser243', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'TestUser243'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651e9eda7751dc6faf300517', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505562000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9eda7751dc6faf300517', 'username': 'Demo_user1200', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'testLname, testFname'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'alertGroups': [], 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651e9ee97751dc6faf300544', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505577000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9ee97751dc6faf300544', 'username': 'Demo_user1756', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'Demo_user1756'}]}}</t>
         </is>
       </c>
-      <c r="F13" s="43" t="inlineStr">
+      <c r="F13" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : User  650d6aaa327ea63edec3d38b is updated.</t>
         </is>
       </c>
-      <c r="G13" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H13" s="43" t="inlineStr">
+      <c r="G13" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H13" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I13" s="43" t="inlineStr">
+      <c r="I13" s="64" t="inlineStr">
         <is>
           <t>17:03:09</t>
         </is>
       </c>
-      <c r="J13" s="43" t="inlineStr">
+      <c r="J13" s="64" t="inlineStr">
         <is>
           <t>17:03:14</t>
         </is>
       </c>
-      <c r="K13" s="43" t="inlineStr">
+      <c r="K13" s="64" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="101.45" customHeight="1" s="53">
-      <c r="A14" s="49" t="n"/>
-      <c r="B14" s="43" t="inlineStr">
+    <row r="14" ht="101.4" customHeight="1" s="63">
+      <c r="A14" s="60" t="n"/>
+      <c r="B14" s="64" t="inlineStr">
         <is>
           <t>Test_13</t>
         </is>
       </c>
-      <c r="C14" s="43" t="n"/>
-      <c r="D14" s="43" t="inlineStr">
+      <c r="C14" s="64" t="n"/>
+      <c r="D14" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E14" s="43" t="inlineStr">
+      <c r="E14" s="64" t="inlineStr">
         <is>
           <t>{'userInfo': {'users': [{'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'alertGroups': [{'agroupID': '651e6e5e4329bcab67b01b6e', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['651e6e5e4329bcab67b01b67', '651e9d667751dc6faf3000a9'], 'name': 'DefaultAlertGroup', 'ownerID': '651e6e4dd10453bbc689ec05', 'userIds': ['651e6e5e4329bcab67b01b77'], 'zoneIds': ['651e6e4ed10453bbc689ec09', '651e8b121b0bb5918035486f', '651e8b8d1b0bb59180354883', '651e8d191b0bb59180354897']}], 'badPasswordCount': 0, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651e6e5e4329bcab67b01b77', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696493150000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec07', 'regionName': 'Dmart', 'roleId': '651e6e4ed10453bbc689ec06', 'roleName': 'facefirst-user-role', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e6e5e4329bcab67b01b77', 'username': 'core', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'core'}]}}</t>
         </is>
       </c>
-      <c r="F14" s="43" t="n"/>
-      <c r="G14" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H14" s="43" t="inlineStr">
+      <c r="F14" s="64" t="n"/>
+      <c r="G14" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H14" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I14" s="43" t="inlineStr">
+      <c r="I14" s="64" t="inlineStr">
         <is>
           <t>17:03:14</t>
         </is>
       </c>
-      <c r="J14" s="43" t="inlineStr">
+      <c r="J14" s="64" t="inlineStr">
         <is>
           <t>17:03:20</t>
         </is>
       </c>
-      <c r="K14" s="43" t="inlineStr">
+      <c r="K14" s="64" t="inlineStr">
         <is>
           <t>6.0</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="74.45" customHeight="1" s="53">
-      <c r="A15" s="49" t="n"/>
-      <c r="B15" s="43" t="inlineStr">
+    <row r="15" ht="74.40000000000001" customHeight="1" s="63">
+      <c r="A15" s="60" t="n"/>
+      <c r="B15" s="64" t="inlineStr">
         <is>
           <t>Test_14</t>
         </is>
       </c>
-      <c r="C15" s="43" t="n"/>
-      <c r="D15" s="43" t="inlineStr">
+      <c r="C15" s="64" t="n"/>
+      <c r="D15" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E15" s="43" t="inlineStr">
+      <c r="E15" s="64" t="inlineStr">
         <is>
           <t>{'accountId': '651e6e4dd10453bbc689ec05', 'regionId': '651e6e4ed10453bbc689ec07', 'userName': 'shubham', 'userId': '651e9cf27751dc6faf2fffaa', 'userRoleId': '651e6e4ed10453bbc689ec06'}</t>
         </is>
       </c>
-      <c r="F15" s="43" t="n"/>
-      <c r="G15" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H15" s="43" t="inlineStr">
+      <c r="F15" s="64" t="n"/>
+      <c r="G15" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H15" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I15" s="43" t="inlineStr">
+      <c r="I15" s="64" t="inlineStr">
         <is>
           <t>17:03:20</t>
         </is>
       </c>
-      <c r="J15" s="43" t="inlineStr">
+      <c r="J15" s="64" t="inlineStr">
         <is>
           <t>17:03:23</t>
         </is>
       </c>
-      <c r="K15" s="43" t="inlineStr">
+      <c r="K15" s="64" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="71.45" customHeight="1" s="53">
-      <c r="A16" s="49" t="n"/>
-      <c r="B16" s="43" t="inlineStr">
+    <row r="16" ht="71.40000000000001" customHeight="1" s="63">
+      <c r="A16" s="60" t="n"/>
+      <c r="B16" s="64" t="inlineStr">
         <is>
           <t>Test_15</t>
         </is>
       </c>
-      <c r="C16" s="43" t="n"/>
-      <c r="D16" s="43" t="inlineStr">
+      <c r="C16" s="64" t="n"/>
+      <c r="D16" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E16" s="43" t="inlineStr">
+      <c r="E16" s="64" t="inlineStr">
         <is>
           <t>[{'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'support@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651e6e5e4329bcab67b01b59', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696493150000, 'prefs': {'alertEMail': 'support@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec07', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': True, 'userId': '651e6e5e4329bcab67b01b59', 'username': 'facefirst-service-user', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'facefirst-service-user'}]</t>
         </is>
       </c>
-      <c r="F16" s="43" t="n"/>
-      <c r="G16" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H16" s="43" t="inlineStr">
+      <c r="F16" s="64" t="n"/>
+      <c r="G16" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H16" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I16" s="43" t="inlineStr">
+      <c r="I16" s="64" t="inlineStr">
         <is>
           <t>17:03:23</t>
         </is>
       </c>
-      <c r="J16" s="43" t="inlineStr">
+      <c r="J16" s="64" t="inlineStr">
         <is>
           <t>17:03:26</t>
         </is>
       </c>
-      <c r="K16" s="43" t="inlineStr">
+      <c r="K16" s="64" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="76.90000000000001" customHeight="1" s="53">
-      <c r="A17" s="49" t="n"/>
-      <c r="B17" s="43" t="inlineStr">
+    <row r="17" ht="76.95" customHeight="1" s="63">
+      <c r="A17" s="60" t="n"/>
+      <c r="B17" s="64" t="inlineStr">
         <is>
           <t>Test_16</t>
         </is>
       </c>
-      <c r="C17" s="43" t="n"/>
-      <c r="D17" s="43" t="inlineStr">
+      <c r="C17" s="64" t="n"/>
+      <c r="D17" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E17" s="43" t="inlineStr">
+      <c r="E17" s="64" t="inlineStr">
         <is>
           <t>[{'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.client'}, 'enabled': 1, 'id': '651e6e58977a0183e7460ed2', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec07', 'roleId': '651e6e58977a0183e7460ed1', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e6e58977a0183e7460ed2', 'username': 'deployment.client', 'userRoleId': '651e6e58977a0183e7460ed1', 'displayName': 'deployment.client, ExternalUser'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'ritesh.kagale@facefirst.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651e6e5e4329bcab67b01b77', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696493150000, 'prefs': {'alertEMail': 'ritesh.kagale@facefirst.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec07', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e6e5e4329bcab67b01b77', 'username': 'core', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'core'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'maintenance'}, 'enabled': 1, 'id': '651e6ed1694c7c51a9b4a7f4', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec07', 'roleId': '651e6ed1694c7c51a9b4a7f2', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e6ed1694c7c51a9b4a7f4', 'username': 'maintenance', 'userRoleId': '651e6ed1694c7c51a9b4a7f2', 'displayName': 'maintenance, ExternalUser'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'firstName': 'ExternalUser', 'lastName': 'deployment.server'}, 'enabled': 1, 'id': '651e6ed2694c7c51a9b4a7f6', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 0, 'prefs': {'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec07', 'roleId': '651e6ed2694c7c51a9b4a7f5', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e6ed2694c7c51a9b4a7f6', 'username': 'deployment.server', 'userRoleId': '651e6ed2694c7c51a9b4a7f5', 'displayName': 'deployment.server, ExternalUser'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'firstName': 'shubham', 'lastName': 'c', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651e9cf27751dc6faf2fffaa', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505074000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec07', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9cf27751dc6faf2fffaa', 'username': 'shubham', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'c, shubham'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Chile/EasterIsland', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651e9eaa7751dc6faf30049b', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505514000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9eaa7751dc6faf30049b', 'username': 'Demo_user1314', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'testLname, testFname'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651e9eb17751dc6faf3004b0', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505521000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9eb17751dc6faf3004b0', 'username': 'test409770', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'test409770'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 0, 'id': '651e9eba7751dc6faf3004c5', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505530000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9eba7751dc6faf3004c5', 'username': 'Demo_user1512', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'testLname, testFname'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'admin@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 0, 'id': '651e9ec27751dc6faf3004da', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505538000, 'prefs': {'alertEMail': 'admin@gmail.com', 'authParams': '', 'phoneTypeStr': '', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9ec27751dc6faf3004da', 'username': 'test409299', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'test409299'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata', 'title': 'test_title'}, 'enabled': 1, 'id': '651e9ed27751dc6faf300502', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505554000, 'prefs': {'alertEMail': 'user@gmail.com', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9ed27751dc6faf300502', 'username': 'TestUser243', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'TestUser243'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'address1': 'Memnager', 'address2': 'Memnager', 'city': 'Pune', 'company': 'testCompany', 'department': 'testing', 'email': 'admin@gmail.com', 'faxNumber': '123456789', 'firstName': 'testFname', 'homePhone': '123456789', 'lastName': 'testLname', 'state': 'Maharashtra', 'timezoneID': 'Asia/Kolkata', 'title': 'testTitle', 'workPhone': '123456789', 'zip': '12345'}, 'enabled': 1, 'id': '651e9eda7751dc6faf300517', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505562000, 'prefs': {'alertEMail': 'admin@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9eda7751dc6faf300517', 'username': 'Demo_user1200', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'testLname, testFname'}, {'accountId': '651e6e4dd10453bbc689ec05', 'accountLockedOut': 0, 'badPasswordCount': 0, 'contact': {'email': 'user@gmail.com', 'timezoneID': 'Asia/Kolkata'}, 'enabled': 1, 'id': '651e9ee97751dc6faf300544', 'notifyUserOfOldPassword': 0, 'passwordLastSetDT': 1696505577000, 'prefs': {'alertEMail': 'user@gmail.com', 'alertPhone': '123456789', 'authParams': '', 'phoneType': 0, 'phoneTypeStr': 'Other', 'provider': 'att.net', 'secureLogin': False}, 'regionId': '651e6e4ed10453bbc689ec09', 'roleId': '651e6e4ed10453bbc689ec06', 'secureLogin': 0, 'serviceUser': False, 'userId': '651e9ee97751dc6faf300544', 'username': 'Demo_user1756', 'userRoleId': '651e6e4ed10453bbc689ec06', 'displayName': 'Demo_user1756'}]</t>
         </is>
       </c>
-      <c r="F17" s="43" t="n"/>
-      <c r="G17" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H17" s="43" t="inlineStr">
+      <c r="F17" s="64" t="n"/>
+      <c r="G17" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H17" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I17" s="43" t="inlineStr">
+      <c r="I17" s="64" t="inlineStr">
         <is>
           <t>17:03:26</t>
         </is>
       </c>
-      <c r="J17" s="43" t="inlineStr">
+      <c r="J17" s="64" t="inlineStr">
         <is>
           <t>17:03:30</t>
         </is>
       </c>
-      <c r="K17" s="43" t="inlineStr">
+      <c r="K17" s="64" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="105" customHeight="1" s="53">
-      <c r="A18" s="49" t="n"/>
-      <c r="B18" s="43" t="inlineStr">
+    <row r="18" ht="105" customHeight="1" s="63">
+      <c r="A18" s="60" t="n"/>
+      <c r="B18" s="64" t="inlineStr">
         <is>
           <t>Test_17</t>
         </is>
       </c>
-      <c r="C18" s="43" t="n"/>
-      <c r="D18" s="43" t="inlineStr">
+      <c r="C18" s="64" t="n"/>
+      <c r="D18" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E18" s="43" t="inlineStr">
+      <c r="E18" s="64" t="inlineStr">
         <is>
           <t>{'alerts': [], 'sendInAppNotifications': False, 'userID': '651e6e58977a0183e7460ed2', 'sendSMS': False, 'sendMMS': False, 'sendEmail': False, 'enabledAlert': False, 'sendXMLRPC': False}</t>
         </is>
       </c>
-      <c r="F18" s="43" t="n"/>
-      <c r="G18" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H18" s="43" t="inlineStr">
+      <c r="F18" s="64" t="n"/>
+      <c r="G18" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H18" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I18" s="43" t="inlineStr">
+      <c r="I18" s="64" t="inlineStr">
         <is>
           <t>17:03:31</t>
         </is>
       </c>
-      <c r="J18" s="43" t="inlineStr">
+      <c r="J18" s="64" t="inlineStr">
         <is>
           <t>17:03:36</t>
         </is>
       </c>
-      <c r="K18" s="43" t="inlineStr">
+      <c r="K18" s="64" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="86.45" customHeight="1" s="53">
-      <c r="A19" s="49" t="n"/>
-      <c r="B19" s="43" t="inlineStr">
+    <row r="19" ht="86.40000000000001" customHeight="1" s="63">
+      <c r="A19" s="60" t="n"/>
+      <c r="B19" s="64" t="inlineStr">
         <is>
           <t>Test_18</t>
         </is>
       </c>
-      <c r="C19" s="43" t="n"/>
-      <c r="D19" s="43" t="inlineStr">
+      <c r="C19" s="64" t="n"/>
+      <c r="D19" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E19" s="43" t="inlineStr">
+      <c r="E19" s="64" t="inlineStr">
         <is>
           <t>{'data': '651e9f187751dc6faf3005bf', 'message': 'User with UserId: 651e9f187751dc6faf3005bf was removed.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F19" s="43" t="n"/>
-      <c r="G19" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H19" s="43" t="inlineStr">
+      <c r="F19" s="64" t="n"/>
+      <c r="G19" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H19" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I19" s="43" t="inlineStr">
+      <c r="I19" s="64" t="inlineStr">
         <is>
           <t>17:03:36</t>
         </is>
       </c>
-      <c r="J19" s="43" t="inlineStr">
+      <c r="J19" s="64" t="inlineStr">
         <is>
           <t>17:03:46</t>
         </is>
       </c>
-      <c r="K19" s="43" t="inlineStr">
+      <c r="K19" s="64" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="86.45" customHeight="1" s="53">
-      <c r="A20" s="50" t="n"/>
-      <c r="B20" s="43" t="inlineStr">
+    <row r="20" ht="86.40000000000001" customHeight="1" s="63">
+      <c r="A20" s="61" t="n"/>
+      <c r="B20" s="64" t="inlineStr">
         <is>
           <t>Test_19</t>
         </is>
       </c>
-      <c r="C20" s="43" t="n"/>
-      <c r="D20" s="43" t="inlineStr">
+      <c r="C20" s="64" t="n"/>
+      <c r="D20" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E20" s="43" t="inlineStr">
+      <c r="E20" s="64" t="inlineStr">
         <is>
           <t>{'data': '651e9f227751dc6faf3005e0', 'message': 'User with UserId: 651e9f227751dc6faf3005e0 was removed.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F20" s="43" t="n"/>
-      <c r="G20" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H20" s="43" t="inlineStr">
+      <c r="F20" s="64" t="n"/>
+      <c r="G20" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H20" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I20" s="43" t="inlineStr">
+      <c r="I20" s="64" t="inlineStr">
         <is>
           <t>17:03:46</t>
         </is>
       </c>
-      <c r="J20" s="43" t="inlineStr">
+      <c r="J20" s="64" t="inlineStr">
         <is>
           <t>17:03:56</t>
         </is>
       </c>
-      <c r="K20" s="43" t="inlineStr">
+      <c r="K20" s="64" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
@@ -3240,171 +3698,171 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="15.375" customWidth="1" style="53" min="3" max="3"/>
-    <col width="23.875" customWidth="1" style="53" min="4" max="4"/>
-    <col width="26" customWidth="1" style="53" min="5" max="5"/>
-    <col width="19" customWidth="1" style="53" min="6" max="6"/>
-    <col width="13.5" customWidth="1" style="53" min="7" max="7"/>
-    <col width="18.625" customWidth="1" style="53" min="8" max="8"/>
-    <col width="20.375" customWidth="1" style="53" min="11" max="11"/>
+    <col width="15.33203125" customWidth="1" style="63" min="3" max="3"/>
+    <col width="23.88671875" customWidth="1" style="63" min="4" max="4"/>
+    <col width="26" customWidth="1" style="63" min="5" max="5"/>
+    <col width="19" customWidth="1" style="63" min="6" max="6"/>
+    <col width="13.44140625" customWidth="1" style="63" min="7" max="7"/>
+    <col width="18.6640625" customWidth="1" style="63" min="8" max="8"/>
+    <col width="20.33203125" customWidth="1" style="63" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57.6" customHeight="1" s="53">
-      <c r="A1" s="16" t="inlineStr">
+    <row r="1" ht="57.6" customHeight="1" s="63">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>Module Name</t>
         </is>
       </c>
-      <c r="B1" s="17" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>TestCase</t>
         </is>
       </c>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>TestCase Description</t>
         </is>
       </c>
-      <c r="D1" s="17" t="inlineStr">
+      <c r="D1" s="16" t="inlineStr">
         <is>
           <t>Request Body</t>
         </is>
       </c>
-      <c r="E1" s="17" t="inlineStr">
+      <c r="E1" s="16" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="F1" s="18" t="inlineStr">
+      <c r="F1" s="17" t="inlineStr">
         <is>
           <t>Check_Point/Test_Condition</t>
         </is>
       </c>
-      <c r="G1" s="18" t="inlineStr">
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>Result (Pass/Fail)</t>
         </is>
       </c>
-      <c r="H1" s="18" t="inlineStr">
+      <c r="H1" s="17" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="I1" s="18" t="inlineStr">
+      <c r="I1" s="17" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="J1" s="18" t="inlineStr">
+      <c r="J1" s="17" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="K1" s="20" t="inlineStr">
+      <c r="K1" s="19" t="inlineStr">
         <is>
           <t>Total Duration
 (Seconds)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="55.15" customHeight="1" s="53">
-      <c r="A2" s="51" t="inlineStr">
+    <row r="2" ht="55.2" customHeight="1" s="63">
+      <c r="A2" s="62" t="inlineStr">
         <is>
           <t>Identify and enroll</t>
         </is>
       </c>
-      <c r="B2" s="30" t="inlineStr">
+      <c r="B2" s="29" t="inlineStr">
         <is>
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="30" t="n"/>
-      <c r="D2" s="30" t="inlineStr">
+      <c r="C2" s="29" t="n"/>
+      <c r="D2" s="29" t="inlineStr">
         <is>
           <t>{'CgroupId': '651e9d817751dc6faf3000f6', 'OptOut': False, 'Basis': 1, 'Action': 'call police', 'ActivityType': 'BOMB THREAT', 'BodyMarkings': 'mole on han', 'Build': 'build', 'CaseEventType': 'STORE THREAT', 'CaseNumber': 'theft', 'Enabled': 1, 'Gender': 'MALE', 'HeightType': '5.0-5.5', 'MethodOffence': 'GRAB AND DASH', 'NarrativeDesc': 'narratives', 'ProfileId': '651e6e50d10453bbc689ec40', 'ReportedBy': 'admin', 'ReportedLoss': 5000, 'StoreId': 'pune', 'TimeIncident': '09/29/2023 13:24', 'RegionId': '651e6e4ed10453bbc689ec07'}</t>
         </is>
       </c>
-      <c r="E2" s="30" t="inlineStr">
+      <c r="E2" s="29" t="inlineStr">
         <is>
           <t>{'enroll': {'images': [{'confidence': 0.9980553388595581, 'foundEyes': True, 'leftX': 86.5, 'leftY': 109.5, 'maskedFace': 0.19413532316684723, 'nonMaskedFace': 0.805864691734314, 'demographics': {'male': 0.9040898308157921, 'age': 0.4648215174674988, 'indian': 0.002180504845455289, 'white': 0.9902250170707703, 'black': 0.001278943964280188, 'female': 0.09591016918420792, 'other': 0.005713979713618755, 'asian': 0.0006015662220306695, 'unknown': 0, 'ethnicity': 'Unknown'}, 'rightX': 52.5, 'rightY': 116.5, 'sampleQualityTooLow': False}], 'success': True, 'caseId': '651e9d8b7751dc6faf300116'}}</t>
         </is>
       </c>
-      <c r="F2" s="30" t="inlineStr">
+      <c r="F2" s="29" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G2" s="55" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H2" s="30" t="inlineStr">
+      <c r="G2" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="29" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : True</t>
         </is>
       </c>
-      <c r="I2" s="30" t="inlineStr">
+      <c r="I2" s="29" t="inlineStr">
         <is>
           <t>16:56:50</t>
         </is>
       </c>
-      <c r="J2" s="30" t="inlineStr">
+      <c r="J2" s="29" t="inlineStr">
         <is>
           <t>16:57:14</t>
         </is>
       </c>
-      <c r="K2" s="30" t="inlineStr">
+      <c r="K2" s="29" t="inlineStr">
         <is>
           <t>24.0</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="63" customHeight="1" s="53">
-      <c r="B3" s="30" t="inlineStr">
+    <row r="3" ht="63" customHeight="1" s="63">
+      <c r="B3" s="29" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="30" t="n"/>
-      <c r="D3" s="30" t="inlineStr">
+      <c r="C3" s="29" t="n"/>
+      <c r="D3" s="29" t="inlineStr">
         <is>
           <t>{'fields': ['BodyMarkings'], 'caseId': '651e9da47751dc6faf30014d'}</t>
         </is>
       </c>
-      <c r="E3" s="30" t="inlineStr">
+      <c r="E3" s="29" t="inlineStr">
         <is>
           <t>{'result': {'message': 'Enrollment information has been updated.', 'status': 'ok'}}</t>
         </is>
       </c>
-      <c r="F3" s="30" t="inlineStr">
+      <c r="F3" s="29" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G3" s="55" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="30" t="inlineStr">
+      <c r="G3" s="39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="29" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I3" s="30" t="inlineStr">
+      <c r="I3" s="29" t="inlineStr">
         <is>
           <t>16:57:14</t>
         </is>
       </c>
-      <c r="J3" s="30" t="inlineStr">
+      <c r="J3" s="29" t="inlineStr">
         <is>
           <t>16:57:34</t>
         </is>
       </c>
-      <c r="K3" s="30" t="inlineStr">
+      <c r="K3" s="29" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
@@ -3426,7 +3884,7 @@
           <t>{'faceInfo': {'caseId': '651e9db87751dc6faf300191', 'faces': [{'confidence': 0.9980553388595581, 'create': 0, 'eyelx': 86.5, 'eyely': 109.5, 'eyerx': 52.5, 'eyery': 116.5, 'faceId': '11f0c98574b4230dffc83c0aeb478f7b', 'maskedFace': 0.19413532316684723, 'ncases': 3, 'nonMaskedFace': 0.805864691734314, 'update': 1696505272851, 'geocode': []}]}}</t>
         </is>
       </c>
-      <c r="G4" s="56" t="inlineStr">
+      <c r="G4" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3468,7 +3926,7 @@
           <t>{'profiles': [{'availability': 3, 'description': 'Case Profle v2', 'groups': [{'groupID': '651e6e50d10453bbc689ec3f', 'fields': [{'use_index': False, 'name': 'GENDER', 'fieldID': '651e6e50d10453bbc689ec15', 'internal_name': 'gender', 'type': 'choice', 'data': ['Male', 'Female']}, {'name': 'BUILD', 'fieldID': '651e6e50d10453bbc689ec1b', 'internal_name': 'build', 'type': 'text', 'data': []}, {'name': 'BODY MARKINGS', 'fieldID': '651e6e50d10453bbc689ec21', 'internal_name': 'bodyMarkings', 'type': 'text', 'data': []}, {'name': 'NARRATIVES', 'fieldID': '651e6e50d10453bbc689ec25', 'internal_name': 'narrativeDesc', 'type': 'textarea', 'data': []}, {'name': 'ACTION', 'fieldID': '651e6e50d10453bbc689ec27', 'internal_name': 'action', 'required': True, 'type': 'text', 'data': []}, {'name': 'LOCATION/STORE', 'fieldID': '651e6e50d10453bbc689ec29', 'internal_name': 'storeId', 'required': True, 'type': 'text', 'data': []}, {'name': 'CASE/SUBJECT', 'fieldID': '651e6e50d10453bbc689ec2b', 'internal_name': 'caseNumber', 'required': True, 'type': 'text', 'data': []}, {'name': 'DATE INCIDENT', 'fieldID': '651e6e50d10453bbc689ec2d', 'internal_name': 'timeIncident', 'required': True, 'hint': 'mm/dd/yyyy HH:mm', 'type': 'date', 'data': [], 'output_format': 'MM/dd/yyyy HH:mm'}, {'name': 'REPORTED BY', 'fieldID': '651e6e50d10453bbc689ec2f', 'internal_name': 'reportedBy', 'type': 'text', 'data': []}, {'name': 'REPORTED LOSS', 'fieldID': '651e6e50d10453bbc689ec31', 'internal_name': 'reportedLoss', 'required': True, 'type': 'number', 'data': []}, {'use_index': False, 'name': 'CASE EVENT TYPE', 'fieldID': '651e6e50d10453bbc689ec35', 'internal_name': 'caseEventType', 'type': 'choice', 'data': ['Employee threatened/assaulted', 'Store threat', 'Customer threatened/assaulted', 'Armed Robbery', 'Trafficking', 'Arson', 'Restraining Order', 'LE support Case', 'Lewd/Disruptive Conduct', 'Terminated Employee']}, {'use_index': False, 'name': 'ACTIVITY TYPE', 'fieldID': '651e6e50d10453bbc689ec37', 'internal_name': 'activityType', 'type': 'choice', 'data': ['Push out', 'Bomb threat', 'SCO fraud', 'Threatened associate', 'Gift card fraud', 'ORC', 'Coupon Fraud', 'Arson', 'Domestic Violence']}, {'use_index': False, 'name': 'HEIGHT', 'fieldID': '651e6e50d10453bbc689ec39', 'internal_name': 'heightType', 'type': 'choice', 'data': ['5.0-5.5', '5.6-5.9', '5.10-6.0', '6.1-6.3', '6.4+']}, {'use_index': False, 'name': 'METHOD OF OFFENSE', 'fieldID': '651e6e50d10453bbc689ec3b', 'internal_name': 'methodOffence', 'type': 'choice', 'data': ['Concealment', 'Product selection', 'Surveillance', 'Distraction', 'Grab and dash', 'Coupons/Gift card', 'Armed', 'Shelf sweep', 'Cart push out']}], 'name': 'Portal_v2', 'internal_name': 'portal2'}], 'internal_name': 'v2', 'list_description': [{'display': 'LOCATION/STORE &amp; CASE/SUBJECT', 'format': '%s %s', 'parameters': ['portal2.storeId', 'portal2.caseNumber']}, {'format': '%s', 'parameters': ['portal2.action']}], 'name': 'Profile v2', 'ownerID': '651e6e4dd10453bbc689ec05', 'profileID': '651e6e50d10453bbc689ec40', 'search_fields': [{'display': 'LOCATION/STORE', 'internal_name': 'storeId'}, {'display': 'CASE/SUBJECT', 'internal_name': 'caseNumber'}], 'visible_groups': False}]}</t>
         </is>
       </c>
-      <c r="G5" s="56" t="inlineStr">
+      <c r="G5" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3510,7 +3968,7 @@
           <t>{'id': {'processed': {'confidence': 0.9980553388595581, 'foundEyes': True, 'leftX': 86.5, 'leftY': 109.5, 'maskedFace': 0.19413532316684723, 'metrics': [{'pass': True, 'name': 'isEyesOpen', 'score': 0.06381016224622726}, {'pass': True, 'name': 'isEyesOpenV2', 'score': 0.5921568274497986}, {'pass': True, 'name': 'exposureImage', 'score': 0.5369047522544861}, {'pass': True, 'name': 'exposureFace', 'score': 0.8034345507621765}, {'pass': True, 'name': 'exposureImageV2', 'score': 0.754365086555481}, {'pass': True, 'name': 'exposureFaceV2', 'score': 0.9571049213409424}, {'pass': False, 'name': 'isBackgroundUniformBestPractice', 'score': 0.17647618055343628}, {'pass': False, 'name': 'isFrontalBestPractice', 'score': 0.5086395740509033}, {'pass': False, 'name': 'isFrontalBestPracticeV2', 'score': 0.6678302884101868}, {'pass': True, 'name': 'isLightingUniform', 'score': 0.9003337621688843}, {'pass': True, 'name': 'isLightingUniformV2', 'score': 0.9385245442390442}, {'pass': False, 'name': 'isSharpFace', 'score': 0.0029944777488708496}, {'pass': True, 'name': 'isSharpFaceV2', 'score': 0.6978566646575928}, {'pass': True, 'name': 'isSharpFaceV3', 'score': 0.0603606179356575}, {'pass': True, 'name': 'isMouthClosed', 'score': 0.8756683468818665}, {'pass': False, 'name': 'isMouthClosedV2', 'score': 0.5471698045730591}, {'pass': True, 'name': 'resolution', 'score': 0.12197083234786987}, {'pass': True, 'name': 'isHeadPositionCentral', 'score': 0.8840938210487366}, {'pass': True, 'name': 'isDistanceToCameraTooNear', 'score': 0.37474119663238525}, {'pass': True, 'name': 'isDistanceToCameraTooFar', 'score': 0.6252588033676147}, {'pass': True, 'name': 'isFaceRatioBestPractice', 'score': 0.738095223903656}, {'pass': True, 'name': 'noHotSpots', 'score': 1}, {'pass': True, 'name': 'skinPixels', 'score': 0.7421875}, {'pass': True, 'name': 'noGlasses', 'score': 0.8416612148284912}, {'pass': True, 'name': 'noTintedGlasses', 'score': 0.8258835077285767}, {'pass': False, 'name': 'isNonFace', 'score': 0.06287305057048798}, {'pass': False, 'name': 'isMaskedFace', 'score': 0.19413532316684723}, {'pass': True, 'name': 'isNonMaskedFace', 'score': 0.805864691734314}], 'nonMaskedFace': 0.805864691734314, 'demographics': {'male': 0.9040898308157921, 'age': 0.4648215174674988, 'indian': 0.002180504845455289, 'white': 0.9902250170707703, 'black': 0.001278943964280188, 'female': 0.09591016918420792, 'other': 0.005713979713618755, 'asian': 0.0006015662220306695, 'unknown': 0, 'ethnicity': 'Unknown'}, 'rightX': 52.5, 'rightY': 116.5, 'sampleQualityTooLow': False}, 'matches': [{'score': 0.994413435459137, 'caseId': '651e9d8b7751dc6faf300116'}, {'score': 0.994413435459137, 'caseId': '651e9da47751dc6faf30014d'}, {'score': 0.994413435459137, 'caseId': '651e9db87751dc6faf300191'}, {'score': 0.994413435459137, 'caseId': '651e9dca7751dc6faf3001d2'}, {'score': 0.994413435459137, 'caseId': '651e9de57751dc6faf30020f'}], 'matched': [{'caseId': '651e9d8b7751dc6faf300116', 'rank': 1, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651e9d8b7751dc6faf300116', 'approvalDate': '2023-10-05T11:27:06.921Z', 'approverId': '651e9cf27751dc6faf2fffaa', 'canEdit': True, 'cGroupIds': ['651e9d817751dc6faf3000f6'], 'enabled': 1, 'enrolled': 1696505226921, 'enrollerId': '651e9cf27751dc6faf2fffaa', 'enrollmentDate': '2023-10-05T11:27:06.921Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'optOut': 0, 'ownerId': '651e6e4dd10453bbc689ec05', 'profileId': '651e6e50d10453bbc689ec40', 'userFirstName': 'shubham', 'userId': '651e9cf27751dc6faf2fffaa', 'region': {'id': '651e6e4ed10453bbc689ec07', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651e9da47751dc6faf30014d', 'rank': 2, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651e9da47751dc6faf30014d', 'approvalDate': '2023-10-05T11:27:32.133Z', 'approverId': '651e9cf27751dc6faf2fffaa', 'canEdit': True, 'cGroupIds': ['651e9d997751dc6faf30012d'], 'enabled': 1, 'enrolled': 1696505252133, 'enrollerId': '651e9cf27751dc6faf2fffaa', 'enrollmentDate': '2023-10-05T11:27:32.133Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'optOut': 0, 'ownerId': '651e6e4dd10453bbc689ec05', 'profileId': '651e6e50d10453bbc689ec40', 'userFirstName': 'shubham', 'userId': '651e9cf27751dc6faf2fffaa', 'region': {'id': '651e6e4ed10453bbc689ec07', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651e9db87751dc6faf300191', 'rank': 3, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651e9db87751dc6faf300191', 'approvalDate': '2023-10-05T11:27:52.258Z', 'approverId': '651e9cf27751dc6faf2fffaa', 'canEdit': True, 'cGroupIds': ['651e9dae7751dc6faf300171'], 'enabled': 1, 'enrolled': 1696505272258, 'enrollerId': '651e9cf27751dc6faf2fffaa', 'enrollmentDate': '2023-10-05T11:27:52.258Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'optOut': 0, 'ownerId': '651e6e4dd10453bbc689ec05', 'profileId': '651e6e50d10453bbc689ec40', 'userFirstName': 'shubham', 'userId': '651e9cf27751dc6faf2fffaa', 'region': {'id': '651e6e4ed10453bbc689ec07', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651e9dca7751dc6faf3001d2', 'rank': 4, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651e9dca7751dc6faf3001d2', 'approvalDate': '2023-10-05T11:28:10.692Z', 'approverId': '651e9cf27751dc6faf2fffaa', 'canEdit': True, 'cGroupIds': ['651e9dc17751dc6faf3001b2'], 'enabled': 1, 'enrolled': 1696505290692, 'enrollerId': '651e9cf27751dc6faf2fffaa', 'enrollmentDate': '2023-10-05T11:28:10.692Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'optOut': 0, 'ownerId': '651e6e4dd10453bbc689ec05', 'profileId': '651e6e50d10453bbc689ec40', 'userFirstName': 'shubham', 'userId': '651e9cf27751dc6faf2fffaa', 'region': {'id': '651e6e4ed10453bbc689ec07', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}, {'caseId': '651e9de57751dc6faf30020f', 'rank': 5, 'score': 0.994413435459137, 'alert': False, 'enabled': True, 'info': {'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole on han', 'narrativeDesc': 'narratives', 'action': 'call police', 'storeId': 'pune', 'caseNumber': 'theft', 'timeIncident': '09/29/2023 13:24', 'reportedBy': 'admin', 'reportedLoss': '5000', 'caseEventType': 'STORE THREAT', 'activityType': 'BOMB THREAT', 'heightType': '5.0-5.5', 'methodOffence': 'GRAB AND DASH'}, 'userLastName': 'c', 'caseId': '651e9de57751dc6faf30020f', 'approvalDate': '2023-10-05T11:28:37.807Z', 'approverId': '651e9cf27751dc6faf2fffaa', 'canEdit': True, 'cGroupIds': ['651e9dd87751dc6faf3001ef'], 'enabled': 1, 'enrolled': 1696505317807, 'enrollerId': '651e9cf27751dc6faf2fffaa', 'enrollmentDate': '2023-10-05T11:28:37.807Z', 'imageIds': ['11f0c98574b4230dffc83c0aeb478f7b'], 'isSubscription': False, 'optOut': 0, 'ownerId': '651e6e4dd10453bbc689ec05', 'profileId': '651e6e50d10453bbc689ec40', 'userFirstName': 'shubham', 'userId': '651e9cf27751dc6faf2fffaa', 'region': {'id': '651e6e4ed10453bbc689ec07', 'name': 'Dmart', 'type': 'Unknown', 'cameras': []}, 'basis': 1}}]}}</t>
         </is>
       </c>
-      <c r="G6" s="56" t="inlineStr">
+      <c r="G6" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3552,7 +4010,7 @@
           <t>{'caseInfo': {'cases': [], 'page': {'totalCount': 0, 'subSetStart': 0, 'subSetCount': 20}}}</t>
         </is>
       </c>
-      <c r="G7" s="56" t="inlineStr">
+      <c r="G7" s="40" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3592,251 +4050,358 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K1"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="14.875" customWidth="1" style="53" min="1" max="1"/>
-    <col width="10.5" customWidth="1" style="53" min="2" max="2"/>
-    <col width="21.5" customWidth="1" style="53" min="3" max="3"/>
-    <col width="21.75" customWidth="1" style="53" min="4" max="4"/>
-    <col width="21.625" customWidth="1" style="53" min="5" max="5"/>
-    <col width="16.875" customWidth="1" style="53" min="6" max="6"/>
-    <col width="12.5" customWidth="1" style="53" min="7" max="7"/>
-    <col width="16.125" customWidth="1" style="53" min="8" max="8"/>
-    <col width="14.25" customWidth="1" style="53" min="9" max="9"/>
-    <col width="12.625" customWidth="1" style="53" min="10" max="10"/>
-    <col width="11.875" customWidth="1" style="53" min="11" max="11"/>
+    <col width="14.88671875" customWidth="1" style="63" min="1" max="1"/>
+    <col width="10.44140625" customWidth="1" style="63" min="2" max="2"/>
+    <col width="21.44140625" customWidth="1" style="63" min="3" max="3"/>
+    <col width="21.77734375" customWidth="1" style="63" min="4" max="4"/>
+    <col width="21.6640625" customWidth="1" style="63" min="5" max="5"/>
+    <col width="16.88671875" customWidth="1" style="63" min="6" max="6"/>
+    <col width="12.44140625" customWidth="1" style="63" min="7" max="7"/>
+    <col width="16.109375" customWidth="1" style="63" min="8" max="8"/>
+    <col width="14.21875" customWidth="1" style="63" min="9" max="9"/>
+    <col width="12.6640625" customWidth="1" style="63" min="10" max="10"/>
+    <col width="11.88671875" customWidth="1" style="63" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="43.15" customHeight="1" s="53">
-      <c r="A1" s="16" t="inlineStr">
+    <row r="1" ht="43.2" customHeight="1" s="63">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>Test No</t>
         </is>
       </c>
-      <c r="B1" s="17" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>TestCase</t>
         </is>
       </c>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>TestCase Description</t>
         </is>
       </c>
-      <c r="D1" s="17" t="inlineStr">
+      <c r="D1" s="16" t="inlineStr">
         <is>
           <t>Request Body</t>
         </is>
       </c>
-      <c r="E1" s="17" t="inlineStr">
+      <c r="E1" s="16" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="F1" s="18" t="inlineStr">
+      <c r="F1" s="17" t="inlineStr">
         <is>
           <t>Check_Point/Test_Condition</t>
         </is>
       </c>
-      <c r="G1" s="18" t="inlineStr">
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>Result (Pass/Fail)</t>
         </is>
       </c>
-      <c r="H1" s="18" t="inlineStr">
+      <c r="H1" s="17" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="I1" s="18" t="inlineStr">
+      <c r="I1" s="17" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="J1" s="18" t="inlineStr">
+      <c r="J1" s="17" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="K1" s="20" t="inlineStr">
+      <c r="K1" s="19" t="inlineStr">
         <is>
           <t>Total Duration
 (Seconds)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="151.9" customHeight="1" s="53">
-      <c r="A2" s="42" t="inlineStr">
+    <row r="2" ht="151.95" customHeight="1" s="63">
+      <c r="A2" s="59" t="inlineStr">
         <is>
           <t>Users Role</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="45" t="inlineStr">
+      <c r="C2" s="37" t="inlineStr">
         <is>
           <t>Verify create user role</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>{"rolename": "RoleName58", "enabled": true, "description": "Test Description", "permissions": {"user": 15, "alert": 15, "alertGroup": 15, "station": 15, "blob": 15, "case": 15, "caseGroup": 15, "subscription": 15, "investigation": 15, "publication": 15, "userRole": 15, "visionAware": 15, "notifier": 15, "analytics": 15, "enrollmentReview": 15, "auditLog": 15, "account": 15, "devices": 15, "zone": 15, "notes": 15, "alien": 15, "profile": 15, "tag": 15, "face": 15}}</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>{'id': '650f077a327ea63edec3e171', 'roleName': 'RoleName58', 'description': 'Test Description', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650f077a327ea63edec3e171'}</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>{"rolename": "RoleName43", "enabled": true, "description": "Description1", "permissions": {"user": 15, "alert": 15, "alertGroup": 15, "station": 15, "blob": 15, "case": 15, "caseGroup": 15, "subscription": 15, "investigation": 15, "publication": 15, "userRole": 15, "visionAware": 15, "notifier": 15, "analytics": 15, "enrollmentReview": 15, "auditLog": 15, "account": 15, "devices": 15, "zone": 15, "notes": 15, "alien": 15, "profile": 15, "tag": 15, "face": 15}}</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>{'id': '651f96247751dc6faf302790', 'roleName': 'RoleName43', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651f96247751dc6faf302790'}</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Dynamic57</t>
         </is>
       </c>
-      <c r="G2" s="39" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : RoleName58</t>
-        </is>
-      </c>
-      <c r="I2" s="28" t="inlineStr">
-        <is>
-          <t>14:28:24</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>21:12:50</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="115.9" customHeight="1" s="53">
-      <c r="A3" s="49" t="n"/>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Test_02</t>
-        </is>
-      </c>
-      <c r="C3" s="37" t="inlineStr">
+      <c r="G2" s="71" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : RoleName43</t>
+        </is>
+      </c>
+      <c r="I2" s="27" t="inlineStr">
+        <is>
+          <t>10:38:01</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>10:38:07</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="115.95" customHeight="1" s="63">
+      <c r="A3" s="60" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Test_06</t>
+        </is>
+      </c>
+      <c r="C3" s="33" t="inlineStr">
         <is>
           <t>Verify get all users</t>
         </is>
       </c>
-      <c r="D3" s="43" t="inlineStr">
+      <c r="D3" s="64" t="inlineStr">
+        <is>
+          <t>{"rolename": "RoleName38", "enabled": false, "description": "Test Description", "permissions": {"user": 15, "alert": 15, "alertGroup": 15, "station": 15, "blob": 15, "case": 15, "caseGroup": 15, "subscription": 15, "investigation": 15, "publication": 15, "userRole": 15, "visionAware": 15, "notifier": 15, "analytics": 15, "enrollmentReview": 15, "auditLog": 15, "account": 15, "devices": 15, "zone": 15, "notes": 15, "alien": 15, "profile": 15, "tag": 15, "face": 15}}</t>
+        </is>
+      </c>
+      <c r="E3" s="64" t="inlineStr">
+        <is>
+          <t>{'id': '651f96517751dc6faf3027f0', 'roleName': 'RoleName38', 'description': 'Test Description', 'enabled': False, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651f96517751dc6faf3027f0'}</t>
+        </is>
+      </c>
+      <c r="F3" s="64" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : 650d7918327ea63edec3d6ac</t>
+        </is>
+      </c>
+      <c r="G3" s="71" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="64" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : RoleName38</t>
+        </is>
+      </c>
+      <c r="I3" s="64" t="inlineStr">
+        <is>
+          <t>10:38:46</t>
+        </is>
+      </c>
+      <c r="J3" s="64" t="inlineStr">
+        <is>
+          <t>10:38:52</t>
+        </is>
+      </c>
+      <c r="K3" s="64" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="94.95" customHeight="1" s="63">
+      <c r="A4" s="60" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Test_03</t>
+        </is>
+      </c>
+      <c r="C4" s="33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Verify get users id </t>
+        </is>
+      </c>
+      <c r="D4" s="64" t="inlineStr">
+        <is>
+          <t>{"rolename": "RoleName", "enabled": true, "description": "Desc Test", "permissions": {"user": 15, "alert": 15, "alertGroup": 15, "station": 15, "blob": 15, "case": 15, "caseGroup": 15, "subscription": 15, "investigation": 15, "publication": 15, "userRole": 15, "visionAware": 15, "notifier": 15, "analytics": 15, "enrollmentReview": 15, "auditLog": 15, "account": 15, "devices": 15, "zone": 15, "notes": 15, "alien": 15, "profile": 15, "tag": 15, "face": 15}}</t>
+        </is>
+      </c>
+      <c r="E4" s="64" t="inlineStr">
+        <is>
+          <t>{'roleName': 'RoleName', 'description': 'Desc Test', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}}</t>
+        </is>
+      </c>
+      <c r="F4" s="64" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : 650d7e2e327ea63edec3d7f0</t>
+        </is>
+      </c>
+      <c r="G4" s="71" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="64" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : RoleName</t>
+        </is>
+      </c>
+      <c r="I4" s="64" t="inlineStr">
+        <is>
+          <t>10:38:16</t>
+        </is>
+      </c>
+      <c r="J4" s="64" t="inlineStr">
+        <is>
+          <t>10:38:27</t>
+        </is>
+      </c>
+      <c r="K4" s="64" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="60" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Test_04</t>
+        </is>
+      </c>
+      <c r="C5" s="26" t="n"/>
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E3" s="43" t="inlineStr">
-        <is>
-          <t>{'userRoleInfo': {'userRoles': [{'id': '6509490800b0398858000033', 'roleName': 'facefirst-user-role', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '6509490800b0398858000033'}, {'id': '650dcf09327ea63edec3df4d', 'roleName': 'role', 'description': 'desc', 'enabled': True, 'rights': {'alertGroup': 0, 'profile': 0, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650dcf09327ea63edec3df4d'}, {'id': '650f077a327ea63edec3e171', 'roleName': 'RoleName58', 'description': 'Test Description', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650f077a327ea63edec3e171'}, {'id': '650f0793327ea63edec3e191', 'roleName': 'RoleName55', 'description': 'Test Description', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650f0793327ea63edec3e191'}]}}</t>
-        </is>
-      </c>
-      <c r="F3" s="43" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : 650d7918327ea63edec3d6ac</t>
-        </is>
-      </c>
-      <c r="G3" s="39" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="43" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : 650f0793327ea63edec3e191</t>
-        </is>
-      </c>
-      <c r="I3" s="43" t="inlineStr">
-        <is>
-          <t>14:28:25</t>
-        </is>
-      </c>
-      <c r="J3" s="43" t="inlineStr">
-        <is>
-          <t>21:13:18</t>
-        </is>
-      </c>
-      <c r="K3" s="43" t="inlineStr">
+      <c r="E5" s="26" t="inlineStr">
+        <is>
+          <t>{'data': '651f96417751dc6faf3027d5', 'message': 'UserRole with UserRoleId: 651f96417751dc6faf3027d5 was removed.', 'isSuccess': True}</t>
+        </is>
+      </c>
+      <c r="F5" s="26" t="n"/>
+      <c r="G5" s="70" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" s="26" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : None</t>
+        </is>
+      </c>
+      <c r="I5" s="26" t="inlineStr">
+        <is>
+          <t>10:38:27</t>
+        </is>
+      </c>
+      <c r="J5" s="26" t="inlineStr">
+        <is>
+          <t>10:38:36</t>
+        </is>
+      </c>
+      <c r="K5" s="26" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="60" t="n"/>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>Test_05</t>
+        </is>
+      </c>
+      <c r="C6" s="26" t="n"/>
+      <c r="D6" s="26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E6" s="26" t="inlineStr">
+        <is>
+          <t>{'userRoleInfo': {'userRoles': [{'id': '651e6e4ed10453bbc689ec06', 'roleName': 'facefirst-user-role', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 2}, 'userRoleId': '651e6e4ed10453bbc689ec06'}, {'id': '651e89801b0bb59180354854', 'roleName': 'TEst', 'description': 'desc', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651e89801b0bb59180354854'}, {'id': '651e9f6d7751dc6faf30063a', 'roleName': 'RoleName25', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651e9f6d7751dc6faf30063a'}, {'id': '651e9f737751dc6faf30065a', 'roleName': 'RoleName76', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651e9f737751dc6faf30065a'}, {'id': '651e9f797751dc6faf300676', 'roleName': 'RoleName88', 'description': 'Desc Test', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651e9f797751dc6faf300676'}, {'id': '651e9f8b7751dc6faf3006e8', 'roleName': 'RoleName48', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651e9f8b7751dc6faf3006e8'}, {'id': '651e9f917751dc6faf3006ff', 'roleName': 'RoleName80', 'description': 'Test Description', 'enabled': False, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651e9f917751dc6faf3006ff'}, {'id': '651ed9a47751dc6faf302654', 'roleName': 'RoleName34', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651ed9a47751dc6faf302654'}, {'id': '651edab47751dc6faf30265c', 'roleName': 'RoleName30', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651edab47751dc6faf30265c'}, {'id': '651edabc7751dc6faf30266a', 'roleName': 'RoleName55', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651edabc7751dc6faf30266a'}, {'id': '651edac57751dc6faf302674', 'roleName': 'RoleName31', 'description': 'Desc Test', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651edac57751dc6faf302674'}, {'id': '651edace7751dc6faf302688', 'roleName': 'RoleName1', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651edace7751dc6faf302688'}, {'id': '651edad47751dc6faf302696', 'roleName': 'RoleName81', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651edad47751dc6faf302696'}, {'id': '651edad97751dc6faf30269e', 'roleName': 'RoleName73', 'description': 'Test Description', 'enabled': False, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651edad97751dc6faf30269e'}, {'id': '651edb7c7751dc6faf3026b8', 'roleName': 'RoleName57', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651edb7c7751dc6faf3026b8'}, {'id': '651edbcc7751dc6faf3026c6', 'roleName': 'RoleName18', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651edbcc7751dc6faf3026c6'}, {'id': '651edc607751dc6faf3026ce', 'roleName': 'RoleName29', 'description': 'Desc Test', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651edc607751dc6faf3026ce'}, {'id': '651edcc47751dc6faf3026dc', 'roleName': 'RoleName78', 'description': 'Desc Test', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651edcc47751dc6faf3026dc'}, {'id': '651f05fa7751dc6faf30270c', 'roleName': 'RoleName61', 'description': 'Test Description', 'enabled': False, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651f05fa7751dc6faf30270c'}, {'id': '651f06bd7751dc6faf302714', 'roleName': 'RoleName51', 'description': 'Test Description', 'enabled': False, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651f06bd7751dc6faf302714'}, {'id': '651f076f7751dc6faf30271c', 'roleName': 'RoleName37', 'description': 'Test Description', 'enabled': False, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651f076f7751dc6faf30271c'}, {'id': '651f07b47751dc6faf30272a', 'roleName': 'RoleName16', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651f07b47751dc6faf30272a'}, {'id': '651f0a6c7751dc6faf30273d', 'roleName': 'RoleName63', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651f0a6c7751dc6faf30273d'}, {'id': '651f0aac7751dc6faf30274b', 'roleName': 'RoleName98', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651f0aac7751dc6faf30274b'}, {'id': '651f0b367751dc6faf302759', 'roleName': 'RoleName69', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651f0b367751dc6faf302759'}, {'id': '651f95f57751dc6faf30277e', 'roleName': 'RoleName60', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651f95f57751dc6faf30277e'}, {'id': '651f96057751dc6faf302788', 'roleName': 'RoleName33', 'description': 'Test Description', 'enabled': False, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651f96057751dc6faf302788'}, {'id': '651f96247751dc6faf302790', 'roleName': 'RoleName43', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651f96247751dc6faf302790'}, {'id': '651f962c7751dc6faf30279e', 'roleName': 'RoleName35', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651f962c7751dc6faf30279e'}, {'id': '651f96347751dc6faf3027a8', 'roleName': 'RoleName56', 'description': 'Desc Test', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651f96347751dc6faf3027a8'}, {'id': '651f964a7751dc6faf3027e6', 'roleName': 'RoleName66', 'description': 'Description1', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '651f964a7751dc6faf3027e6'}]}}</t>
+        </is>
+      </c>
+      <c r="F6" s="26" t="n"/>
+      <c r="G6" s="70" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" s="26" t="inlineStr">
+        <is>
+          <t>Response Status Code : 200 &amp; Message : 651f964a7751dc6faf3027e6</t>
+        </is>
+      </c>
+      <c r="I6" s="26" t="inlineStr">
+        <is>
+          <t>10:38:37</t>
+        </is>
+      </c>
+      <c r="J6" s="26" t="inlineStr">
+        <is>
+          <t>10:38:45</t>
+        </is>
+      </c>
+      <c r="K6" s="26" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="94.90000000000001" customHeight="1" s="53">
-      <c r="A4" s="50" t="n"/>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Test_03</t>
-        </is>
-      </c>
-      <c r="C4" s="37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Verify get users id </t>
-        </is>
-      </c>
-      <c r="D4" s="43" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="E4" s="43" t="inlineStr">
-        <is>
-          <t>{'userRoleInfo': {'userRoles': [{'id': '650f07a5327ea63edec3e1b3', 'roleName': 'RoleName10', 'description': 'Test Description', 'enabled': True, 'rights': {'alertGroup': 15, 'profile': 15, 'zone': 15, 'case': 15, 'face': 15, 'alien': 15, 'user': 15, 'userRole': 15, 'tag': 15, 'subscription': 15, 'investigation': 15, 'alert': 15, 'station': 15, 'account': 15, 'blob': 15, 'devices': 15, 'notes': 15, 'publication': 15, 'caseGroup': 15, 'notifier': 15, 'analytics': 15, 'visionAware': 15, 'enrollmentReview': 15, 'auditLog': 15}, 'userRoleId': '650f07a5327ea63edec3e1b3'}]}}</t>
-        </is>
-      </c>
-      <c r="F4" s="43" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : 650d7e2e327ea63edec3d7f0</t>
-        </is>
-      </c>
-      <c r="G4" s="39" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H4" s="43" t="inlineStr">
-        <is>
-          <t>Response Status Code : 200 &amp; Message : 650f07a5327ea63edec3e1b3</t>
-        </is>
-      </c>
-      <c r="I4" s="43" t="inlineStr">
-        <is>
-          <t>14:28:26</t>
-        </is>
-      </c>
-      <c r="J4" s="43" t="inlineStr">
-        <is>
-          <t>21:13:35</t>
-        </is>
-      </c>
-      <c r="K4" s="43" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
+    <row r="7">
+      <c r="A7" s="61" t="n"/>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Test_06</t>
+        </is>
+      </c>
+      <c r="C7" s="26" t="n"/>
+      <c r="D7" s="26" t="n"/>
+      <c r="E7" s="26" t="n"/>
+      <c r="F7" s="26" t="n"/>
+      <c r="G7" s="26" t="n"/>
+      <c r="H7" s="26" t="n"/>
+      <c r="I7" s="26" t="n"/>
+      <c r="J7" s="26" t="n"/>
+      <c r="K7" s="26" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3854,661 +4419,661 @@
       <selection activeCell="A1" sqref="A1:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="21.75" customWidth="1" style="53" min="1" max="1"/>
-    <col width="9.875" customWidth="1" style="53" min="2" max="2"/>
-    <col width="35" customWidth="1" style="53" min="3" max="3"/>
-    <col width="26.625" customWidth="1" style="53" min="4" max="4"/>
-    <col width="32.375" customWidth="1" style="53" min="5" max="5"/>
-    <col width="27.5" customWidth="1" style="53" min="6" max="6"/>
-    <col width="15.5" customWidth="1" style="53" min="7" max="7"/>
-    <col width="17.875" customWidth="1" style="53" min="8" max="8"/>
-    <col width="22" customWidth="1" style="53" min="9" max="9"/>
-    <col width="22.5" customWidth="1" style="53" min="10" max="10"/>
-    <col width="23.375" customWidth="1" style="53" min="11" max="11"/>
+    <col width="21.77734375" customWidth="1" style="63" min="1" max="1"/>
+    <col width="9.88671875" customWidth="1" style="63" min="2" max="2"/>
+    <col width="35" customWidth="1" style="63" min="3" max="3"/>
+    <col width="26.6640625" customWidth="1" style="63" min="4" max="4"/>
+    <col width="32.33203125" customWidth="1" style="63" min="5" max="5"/>
+    <col width="27.44140625" customWidth="1" style="63" min="6" max="6"/>
+    <col width="15.44140625" customWidth="1" style="63" min="7" max="7"/>
+    <col width="17.88671875" customWidth="1" style="63" min="8" max="8"/>
+    <col width="22" customWidth="1" style="63" min="9" max="9"/>
+    <col width="22.44140625" customWidth="1" style="63" min="10" max="10"/>
+    <col width="23.33203125" customWidth="1" style="63" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.9" customHeight="1" s="53">
-      <c r="A1" s="16" t="inlineStr">
+    <row r="1" ht="28.95" customHeight="1" s="63">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>Test No</t>
         </is>
       </c>
-      <c r="B1" s="17" t="inlineStr">
+      <c r="B1" s="16" t="inlineStr">
         <is>
           <t>TestCase</t>
         </is>
       </c>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>TestCase Description</t>
         </is>
       </c>
-      <c r="D1" s="17" t="inlineStr">
+      <c r="D1" s="16" t="inlineStr">
         <is>
           <t>Request Body</t>
         </is>
       </c>
-      <c r="E1" s="17" t="inlineStr">
+      <c r="E1" s="16" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="F1" s="18" t="inlineStr">
+      <c r="F1" s="17" t="inlineStr">
         <is>
           <t>Check_Point/Test_Condition</t>
         </is>
       </c>
-      <c r="G1" s="18" t="inlineStr">
+      <c r="G1" s="17" t="inlineStr">
         <is>
           <t>Result (Pass/Fail)</t>
         </is>
       </c>
-      <c r="H1" s="18" t="inlineStr">
+      <c r="H1" s="17" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="I1" s="18" t="inlineStr">
+      <c r="I1" s="17" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="J1" s="18" t="inlineStr">
+      <c r="J1" s="17" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="K1" s="20" t="inlineStr">
+      <c r="K1" s="19" t="inlineStr">
         <is>
           <t>Total Duration
 (Seconds)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="62.45" customHeight="1" s="53">
-      <c r="A2" s="43" t="inlineStr">
+    <row r="2" ht="62.4" customHeight="1" s="63">
+      <c r="A2" s="64" t="inlineStr">
         <is>
           <t>Enrollment Group</t>
         </is>
       </c>
-      <c r="B2" s="43" t="inlineStr">
+      <c r="B2" s="64" t="inlineStr">
         <is>
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="29" t="inlineStr">
+      <c r="C2" s="28" t="inlineStr">
         <is>
           <t>verify the get all enrollment group</t>
         </is>
       </c>
-      <c r="D2" s="43" t="inlineStr">
+      <c r="D2" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E2" s="43" t="inlineStr">
+      <c r="E2" s="64" t="inlineStr">
         <is>
           <t>[{'id': '651e6e5e4329bcab67b01b67', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 0, 'numAlerts': 1, 'zones': ['651e6e4ed10453bbc689ec09', '651e8b121b0bb5918035486f', '651e8b8d1b0bb59180354883', '651e8d191b0bb59180354897'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651e6e5e4329bcab67b01b6e', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['651e6e5e4329bcab67b01b67', '651e9d667751dc6faf3000a9'], 'name': 'DefaultAlertGroup', 'ownerID': '651e6e4dd10453bbc689ec05', 'userIds': ['651e6e5e4329bcab67b01b77'], 'zoneIds': ['651e6e4ed10453bbc689ec09', '651e8b121b0bb5918035486f', '651e8b8d1b0bb59180354883', '651e8d191b0bb59180354897']}]}, {'id': '651e9d1a7751dc6faf2fffe3', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d247751dc6faf2ffff2', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d2e7751dc6faf300004', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d3f7751dc6faf300029', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d487751dc6faf300045', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d527751dc6faf300063', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d5d7751dc6faf300086', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d667751dc6faf3000a9', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651e6e5e4329bcab67b01b6e', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['651e6e5e4329bcab67b01b67', '651e9d667751dc6faf3000a9'], 'name': 'DefaultAlertGroup', 'ownerID': '651e6e4dd10453bbc689ec05', 'userIds': ['651e6e5e4329bcab67b01b77'], 'zoneIds': ['651e6e4ed10453bbc689ec09', '651e8b121b0bb5918035486f', '651e8b8d1b0bb59180354883', '651e8d191b0bb59180354897']}]}, {'id': '651e9d747751dc6faf3000cd', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d817751dc6faf3000f6', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d997751dc6faf30012d', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9dae7751dc6faf300171', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9dc17751dc6faf3001b2', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9dd87751dc6faf3001ef', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9df37751dc6faf300240', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9e027751dc6faf300277', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9e427751dc6faf30035d', 'name': 'test enrollment346', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651e9e447751dc6faf300368', 'desc': 'test description', 'enrollmentGroupIds': ['651e9e427751dc6faf30035d'], 'name': 'Test_notification_Api250', 'ownerID': '651e6e4dd10453bbc689ec05', 'userIds': ['651e9cf27751dc6faf2fffaa'], 'zoneIds': ['651e6e4ed10453bbc689ec09']}]}, {'id': '651e9e997751dc6faf30046a', 'name': 'test enrollment216', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651e9e9e7751dc6faf30047b', 'desc': 'test description', 'enrollmentGroupIds': ['651e9e997751dc6faf30046a'], 'name': 'Test_notification_Api746', 'ownerID': '651e6e4dd10453bbc689ec05', 'userIds': [], 'zoneIds': ['651e6e4ed10453bbc689ec09']}]}, {'id': '651e9f5c7751dc6faf30060c', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}]</t>
         </is>
       </c>
-      <c r="F2" s="43" t="inlineStr">
+      <c r="F2" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G2" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H2" s="43" t="inlineStr">
+      <c r="G2" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I2" s="43" t="inlineStr">
+      <c r="I2" s="64" t="inlineStr">
         <is>
           <t>17:05:06</t>
         </is>
       </c>
-      <c r="J2" s="43" t="inlineStr">
+      <c r="J2" s="64" t="inlineStr">
         <is>
           <t>17:05:10</t>
         </is>
       </c>
-      <c r="K2" s="43" t="inlineStr">
+      <c r="K2" s="64" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="65.45" customHeight="1" s="53">
-      <c r="A3" s="49" t="n"/>
-      <c r="B3" s="43" t="inlineStr">
+    <row r="3" ht="65.40000000000001" customHeight="1" s="63">
+      <c r="A3" s="60" t="n"/>
+      <c r="B3" s="64" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="29" t="inlineStr">
+      <c r="C3" s="28" t="inlineStr">
         <is>
           <t>verify the enrollment groups is created with valid data.</t>
         </is>
       </c>
-      <c r="D3" s="43" t="inlineStr">
+      <c r="D3" s="64" t="inlineStr">
         <is>
           <t>{'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'eventsSuppressionInterval': 0, 'priority': 'Low', 'seriousOffender': 'Low', 'alertHexColor': '#FFFFFF', 'activeThreat': False}</t>
         </is>
       </c>
-      <c r="E3" s="43" t="inlineStr">
+      <c r="E3" s="64" t="inlineStr">
         <is>
           <t>{'data': '651e9f737751dc6faf300656', 'message': 'Enrollment Group 651e9f737751dc6faf300656 is created.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F3" s="43" t="inlineStr">
+      <c r="F3" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group 6512d888be1891535e3baa4a is created.</t>
         </is>
       </c>
-      <c r="G3" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="43" t="inlineStr">
+      <c r="G3" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group 651e9f737751dc6faf300656 is created.</t>
         </is>
       </c>
-      <c r="I3" s="43" t="inlineStr">
+      <c r="I3" s="64" t="inlineStr">
         <is>
           <t>17:05:10</t>
         </is>
       </c>
-      <c r="J3" s="43" t="inlineStr">
+      <c r="J3" s="64" t="inlineStr">
         <is>
           <t>17:05:14</t>
         </is>
       </c>
-      <c r="K3" s="43" t="inlineStr">
+      <c r="K3" s="64" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="87.59999999999999" customHeight="1" s="53">
-      <c r="A4" s="49" t="n"/>
-      <c r="B4" s="43" t="inlineStr">
+    <row r="4" ht="87.59999999999999" customHeight="1" s="63">
+      <c r="A4" s="60" t="n"/>
+      <c r="B4" s="64" t="inlineStr">
         <is>
           <t>Test_03</t>
         </is>
       </c>
-      <c r="C4" s="29" t="inlineStr">
+      <c r="C4" s="28" t="inlineStr">
         <is>
           <t xml:space="preserve">verify the get single enrollment group </t>
         </is>
       </c>
-      <c r="D4" s="43" t="inlineStr">
+      <c r="D4" s="64" t="inlineStr">
         <is>
           <t>{'id': '651e9f787751dc6faf30066f'}</t>
         </is>
       </c>
-      <c r="E4" s="43" t="inlineStr">
+      <c r="E4" s="64" t="inlineStr">
         <is>
           <t>[{'id': '651e6e5e4329bcab67b01b67', 'name': 'DefaultEnrollmentGroup', 'description': 'Default Enrollment Group', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'None', 'numCases': 0, 'numAlerts': 1, 'zones': ['651e6e4ed10453bbc689ec09', '651e8b121b0bb5918035486f', '651e8b8d1b0bb59180354883', '651e8d191b0bb59180354897'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651e6e5e4329bcab67b01b6e', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['651e6e5e4329bcab67b01b67', '651e9d667751dc6faf3000a9'], 'name': 'DefaultAlertGroup', 'ownerID': '651e6e4dd10453bbc689ec05', 'userIds': ['651e6e5e4329bcab67b01b77'], 'zoneIds': ['651e6e4ed10453bbc689ec09', '651e8b121b0bb5918035486f', '651e8b8d1b0bb59180354883', '651e8d191b0bb59180354897']}]}, {'id': '651e9d1a7751dc6faf2fffe3', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d247751dc6faf2ffff2', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d2e7751dc6faf300004', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d3f7751dc6faf300029', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d487751dc6faf300045', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d527751dc6faf300063', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d5d7751dc6faf300086', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d667751dc6faf3000a9', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651e6e5e4329bcab67b01b6e', 'desc': 'Default Alert Group', 'enrollmentGroupIds': ['651e6e5e4329bcab67b01b67', '651e9d667751dc6faf3000a9'], 'name': 'DefaultAlertGroup', 'ownerID': '651e6e4dd10453bbc689ec05', 'userIds': ['651e6e5e4329bcab67b01b77'], 'zoneIds': ['651e6e4ed10453bbc689ec09', '651e8b121b0bb5918035486f', '651e8b8d1b0bb59180354883', '651e8d191b0bb59180354897']}]}, {'id': '651e9d747751dc6faf3000cd', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d817751dc6faf3000f6', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9d997751dc6faf30012d', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9dae7751dc6faf300171', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9dc17751dc6faf3001b2', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9dd87751dc6faf3001ef', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9df37751dc6faf300240', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9e027751dc6faf300277', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09', '651e6ed2694c7c51a9b4a7f7'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9e427751dc6faf30035d', 'name': 'test enrollment346', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651e9e447751dc6faf300368', 'desc': 'test description', 'enrollmentGroupIds': ['651e9e427751dc6faf30035d'], 'name': 'Test_notification_Api250', 'ownerID': '651e6e4dd10453bbc689ec05', 'userIds': ['651e9cf27751dc6faf2fffaa'], 'zoneIds': ['651e6e4ed10453bbc689ec09']}]}, {'id': '651e9e997751dc6faf30046a', 'name': 'test enrollment216', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 1, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': [{'agroupID': '651e9e9e7751dc6faf30047b', 'desc': 'test description', 'enrollmentGroupIds': ['651e9e997751dc6faf30046a'], 'name': 'Test_notification_Api746', 'ownerID': '651e6e4dd10453bbc689ec05', 'userIds': [], 'zoneIds': ['651e6e4ed10453bbc689ec09']}]}, {'id': '651e9f5c7751dc6faf30060c', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 1, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9f737751dc6faf300656', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}, {'id': '651e9f787751dc6faf30066f', 'name': 'GroupName', 'description': 'test description', 'accountId': '651e6e4dd10453bbc689ec05', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'priority': 'Low', 'seriousOffender': 'Low', 'numCases': 0, 'numAlerts': 0, 'zones': ['651e6e4ed10453bbc689ec09'], 'eventsSuppressionInterval': 0, 'alertHexColor': '#FFFFFF', 'activeThreat': False, 'alertGroups': []}]</t>
         </is>
       </c>
-      <c r="F4" s="43" t="inlineStr">
+      <c r="F4" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="G4" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H4" s="43" t="inlineStr">
+      <c r="G4" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I4" s="43" t="inlineStr">
+      <c r="I4" s="64" t="inlineStr">
         <is>
           <t>17:05:14</t>
         </is>
       </c>
-      <c r="J4" s="43" t="inlineStr">
+      <c r="J4" s="64" t="inlineStr">
         <is>
           <t>17:05:20</t>
         </is>
       </c>
-      <c r="K4" s="43" t="inlineStr">
+      <c r="K4" s="64" t="inlineStr">
         <is>
           <t>6.0</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="89.45" customHeight="1" s="53">
-      <c r="A5" s="49" t="n"/>
-      <c r="B5" s="43" t="inlineStr">
+    <row r="5" ht="89.40000000000001" customHeight="1" s="63">
+      <c r="A5" s="60" t="n"/>
+      <c r="B5" s="64" t="inlineStr">
         <is>
           <t>Test_04</t>
         </is>
       </c>
-      <c r="C5" s="29" t="inlineStr">
+      <c r="C5" s="28" t="inlineStr">
         <is>
           <t>verify the update enrollnment group</t>
         </is>
       </c>
-      <c r="D5" s="43" t="inlineStr">
+      <c r="D5" s="64" t="inlineStr">
         <is>
           <t>{'name': 'GroupName', 'description': 'test description', 'faceThreshold': 0.83, 'maskedFaceThreshold': 0.83, 'eventsSuppressionInterval': 0, 'priority': 'Low', 'seriousOffender': 'Low', 'alertHexColor': '#FFFFFF', 'activeThreat': False}</t>
         </is>
       </c>
-      <c r="E5" s="43" t="inlineStr">
+      <c r="E5" s="64" t="inlineStr">
         <is>
           <t>{'data': '651e9f7d7751dc6faf3006a2', 'message': 'Enrollment Group is updated', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F5" s="43" t="inlineStr">
+      <c r="F5" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group is updated</t>
         </is>
       </c>
-      <c r="G5" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H5" s="43" t="inlineStr">
+      <c r="G5" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group is updated</t>
         </is>
       </c>
-      <c r="I5" s="43" t="inlineStr">
+      <c r="I5" s="64" t="inlineStr">
         <is>
           <t>17:05:20</t>
         </is>
       </c>
-      <c r="J5" s="43" t="inlineStr">
+      <c r="J5" s="64" t="inlineStr">
         <is>
           <t>17:05:27</t>
         </is>
       </c>
-      <c r="K5" s="43" t="inlineStr">
+      <c r="K5" s="64" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="66.59999999999999" customHeight="1" s="53">
-      <c r="A6" s="49" t="n"/>
-      <c r="B6" s="43" t="inlineStr">
+    <row r="6" ht="66.59999999999999" customHeight="1" s="63">
+      <c r="A6" s="60" t="n"/>
+      <c r="B6" s="64" t="inlineStr">
         <is>
           <t>Test_05</t>
         </is>
       </c>
-      <c r="C6" s="29" t="inlineStr">
+      <c r="C6" s="28" t="inlineStr">
         <is>
           <t>verify remove a single Enrollment Group from collection</t>
         </is>
       </c>
-      <c r="D6" s="43" t="inlineStr">
+      <c r="D6" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E6" s="43" t="inlineStr">
+      <c r="E6" s="64" t="inlineStr">
         <is>
           <t>{'data': True, 'message': 'Enrollment Group 651e9f847751dc6faf3006c2 is removed.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F6" s="43" t="inlineStr">
+      <c r="F6" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group 6512d89dbe1891535e3baab3 is removed.</t>
         </is>
       </c>
-      <c r="G6" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H6" s="43" t="inlineStr">
+      <c r="G6" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment Group 651e9f847751dc6faf3006c2 is removed.</t>
         </is>
       </c>
-      <c r="I6" s="43" t="inlineStr">
+      <c r="I6" s="64" t="inlineStr">
         <is>
           <t>17:05:27</t>
         </is>
       </c>
-      <c r="J6" s="43" t="inlineStr">
+      <c r="J6" s="64" t="inlineStr">
         <is>
           <t>17:05:32</t>
         </is>
       </c>
-      <c r="K6" s="43" t="inlineStr">
+      <c r="K6" s="64" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="87.59999999999999" customHeight="1" s="53">
-      <c r="A7" s="49" t="n"/>
-      <c r="B7" s="43" t="inlineStr">
+    <row r="7" ht="87.59999999999999" customHeight="1" s="63">
+      <c r="A7" s="60" t="n"/>
+      <c r="B7" s="64" t="inlineStr">
         <is>
           <t>Test_06</t>
         </is>
       </c>
-      <c r="C7" s="29" t="inlineStr">
+      <c r="C7" s="28" t="inlineStr">
         <is>
           <t>verify create enrollment group with addCaseGroupZone</t>
         </is>
       </c>
-      <c r="D7" s="43" t="inlineStr">
+      <c r="D7" s="64" t="inlineStr">
         <is>
           <t>{'cGroupId': '651e9f8b7751dc6faf3006e4', 'zoneIds': ['651e6ed2694c7c51a9b4a7f7']}</t>
         </is>
       </c>
-      <c r="E7" s="43" t="inlineStr">
+      <c r="E7" s="64" t="inlineStr">
         <is>
           <t>{'result': {'message': "Zones added to enrollment group id '651e9f8b7751dc6faf3006e4' for account 651e6e4dd10453bbc689ec05.", 'status': 'ok'}}</t>
         </is>
       </c>
-      <c r="F7" s="43" t="inlineStr">
+      <c r="F7" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Zones added to enrollment group id '6512d8a5be1891535e3baad8' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G7" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H7" s="43" t="inlineStr">
+      <c r="G7" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H7" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Zones added to enrollment group id '651e9f8b7751dc6faf3006e4' for account 651e6e4dd10453bbc689ec05.</t>
         </is>
       </c>
-      <c r="I7" s="43" t="inlineStr">
+      <c r="I7" s="64" t="inlineStr">
         <is>
           <t>17:05:33</t>
         </is>
       </c>
-      <c r="J7" s="43" t="inlineStr">
+      <c r="J7" s="64" t="inlineStr">
         <is>
           <t>17:05:43</t>
         </is>
       </c>
-      <c r="K7" s="43" t="inlineStr">
+      <c r="K7" s="64" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="106.15" customHeight="1" s="53">
-      <c r="A8" s="49" t="n"/>
-      <c r="B8" s="43" t="inlineStr">
+    <row r="8" ht="106.2" customHeight="1" s="63">
+      <c r="A8" s="60" t="n"/>
+      <c r="B8" s="64" t="inlineStr">
         <is>
           <t>Test_07</t>
         </is>
       </c>
-      <c r="C8" s="29" t="inlineStr">
+      <c r="C8" s="28" t="inlineStr">
         <is>
           <t>verify removeCaseGroupZone</t>
         </is>
       </c>
-      <c r="D8" s="43" t="inlineStr">
+      <c r="D8" s="64" t="inlineStr">
         <is>
           <t>{'cGroupId': '651e9f957751dc6faf30070c', 'zoneIds': ['651e6ed2694c7c51a9b4a7f7']}</t>
         </is>
       </c>
-      <c r="E8" s="43" t="inlineStr">
+      <c r="E8" s="64" t="inlineStr">
         <is>
           <t>{'result': {'message': "Zones removed to case group id '651e9f957751dc6faf30070c' for account 651e6e4dd10453bbc689ec05.", 'status': 'ok'}}</t>
         </is>
       </c>
-      <c r="F8" s="43" t="inlineStr">
+      <c r="F8" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Zones removed to case group id '6512d8b0be1891535e3bab0f' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G8" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H8" s="43" t="inlineStr">
+      <c r="G8" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H8" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Zones removed to case group id '651e9f957751dc6faf30070c' for account 651e6e4dd10453bbc689ec05.</t>
         </is>
       </c>
-      <c r="I8" s="43" t="inlineStr">
+      <c r="I8" s="64" t="inlineStr">
         <is>
           <t>17:05:43</t>
         </is>
       </c>
-      <c r="J8" s="43" t="inlineStr">
+      <c r="J8" s="64" t="inlineStr">
         <is>
           <t>17:05:52</t>
         </is>
       </c>
-      <c r="K8" s="43" t="inlineStr">
+      <c r="K8" s="64" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="77.45" customHeight="1" s="53">
-      <c r="A9" s="49" t="n"/>
-      <c r="B9" s="43" t="inlineStr">
+    <row r="9" ht="77.40000000000001" customHeight="1" s="63">
+      <c r="A9" s="60" t="n"/>
+      <c r="B9" s="64" t="inlineStr">
         <is>
           <t>Test_08</t>
         </is>
       </c>
-      <c r="C9" s="29" t="inlineStr">
+      <c r="C9" s="28" t="inlineStr">
         <is>
           <t>verify update enrollment group using addCaseGroupCase</t>
         </is>
       </c>
-      <c r="D9" s="43" t="inlineStr">
+      <c r="D9" s="64" t="inlineStr">
         <is>
           <t>{'id': ['651e6e4dd10453bbc689ec05'], 'case_id': '651e9d8b7751dc6faf300116', 'cgroup_id': '651e9f9e7751dc6faf30072a'}</t>
         </is>
       </c>
-      <c r="E9" s="43" t="inlineStr">
+      <c r="E9" s="64" t="inlineStr">
         <is>
           <t>{'result': {'message': "Enrollment added to enrollment group id '651e9f9e7751dc6faf30072a' for account 651e6e4dd10453bbc689ec05.", 'status': 'ok'}}</t>
         </is>
       </c>
-      <c r="F9" s="43" t="inlineStr">
+      <c r="F9" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment added to enrollment group id '6512d8b9be1891535e3bab48' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G9" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H9" s="43" t="inlineStr">
+      <c r="G9" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H9" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment added to enrollment group id '651e9f9e7751dc6faf30072a' for account 651e6e4dd10453bbc689ec05.</t>
         </is>
       </c>
-      <c r="I9" s="43" t="inlineStr">
+      <c r="I9" s="64" t="inlineStr">
         <is>
           <t>17:05:52</t>
         </is>
       </c>
-      <c r="J9" s="43" t="inlineStr">
+      <c r="J9" s="64" t="inlineStr">
         <is>
           <t>17:06:05</t>
         </is>
       </c>
-      <c r="K9" s="43" t="inlineStr">
+      <c r="K9" s="64" t="inlineStr">
         <is>
           <t>13.0</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="99.59999999999999" customHeight="1" s="53">
-      <c r="A10" s="49" t="n"/>
-      <c r="B10" s="43" t="inlineStr">
+    <row r="10" ht="99.59999999999999" customHeight="1" s="63">
+      <c r="A10" s="60" t="n"/>
+      <c r="B10" s="64" t="inlineStr">
         <is>
           <t>Test_09</t>
         </is>
       </c>
-      <c r="C10" s="29" t="inlineStr">
+      <c r="C10" s="28" t="inlineStr">
         <is>
           <t>verify removeCaseGroupCase</t>
         </is>
       </c>
-      <c r="D10" s="43" t="inlineStr">
+      <c r="D10" s="64" t="inlineStr">
         <is>
           <t>{'id': ['651e6e4dd10453bbc689ec05'], 'case_id': '651e9d8b7751dc6faf300116', 'cgroup_id': '651e9fab7751dc6faf30075d'}</t>
         </is>
       </c>
-      <c r="E10" s="43" t="inlineStr">
+      <c r="E10" s="64" t="inlineStr">
         <is>
           <t>{'result': {'message': "Enrollment removed from enrollment group id '651e9fab7751dc6faf30075d' for account 651e6e4dd10453bbc689ec05.", 'status': 'ok'}}</t>
         </is>
       </c>
-      <c r="F10" s="43" t="inlineStr">
+      <c r="F10" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment removed from enrollment group id '6512d8c6be1891535e3bab95' for account 6512825db5505c9518c38e90.</t>
         </is>
       </c>
-      <c r="G10" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H10" s="43" t="inlineStr">
+      <c r="G10" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H10" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Enrollment removed from enrollment group id '651e9fab7751dc6faf30075d' for account 651e6e4dd10453bbc689ec05.</t>
         </is>
       </c>
-      <c r="I10" s="43" t="inlineStr">
+      <c r="I10" s="64" t="inlineStr">
         <is>
           <t>17:06:05</t>
         </is>
       </c>
-      <c r="J10" s="43" t="inlineStr">
+      <c r="J10" s="64" t="inlineStr">
         <is>
           <t>17:06:16</t>
         </is>
       </c>
-      <c r="K10" s="43" t="inlineStr">
+      <c r="K10" s="64" t="inlineStr">
         <is>
           <t>11.0</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="94.15000000000001" customHeight="1" s="53">
-      <c r="A11" s="49" t="n"/>
-      <c r="B11" s="43" t="inlineStr">
+    <row r="11" ht="94.2" customHeight="1" s="63">
+      <c r="A11" s="60" t="n"/>
+      <c r="B11" s="64" t="inlineStr">
         <is>
           <t>Test_10</t>
         </is>
       </c>
-      <c r="C11" s="29" t="inlineStr">
+      <c r="C11" s="28" t="inlineStr">
         <is>
           <t>verify update enrollment group using addAlertGroupCase</t>
         </is>
       </c>
-      <c r="D11" s="43" t="inlineStr">
+      <c r="D11" s="64" t="inlineStr">
         <is>
           <t>{'CGroupID': '651e9fb67751dc6faf300790', 'AGroupID': '651e6e5e4329bcab67b01b6e'}</t>
         </is>
       </c>
-      <c r="E11" s="43" t="inlineStr">
+      <c r="E11" s="64" t="inlineStr">
         <is>
           <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been added to the alert group with id = 651e9fb67751dc6faf300790'}}</t>
         </is>
       </c>
-      <c r="F11" s="43" t="inlineStr">
+      <c r="F11" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been added to the alert group with id = 6512d8d3be1891535e3babe3</t>
         </is>
       </c>
-      <c r="G11" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H11" s="43" t="inlineStr">
+      <c r="G11" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H11" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been added to the alert group with id = 651e9fb67751dc6faf300790</t>
         </is>
       </c>
-      <c r="I11" s="43" t="inlineStr">
+      <c r="I11" s="64" t="inlineStr">
         <is>
           <t>17:06:17</t>
         </is>
       </c>
-      <c r="J11" s="43" t="inlineStr">
+      <c r="J11" s="64" t="inlineStr">
         <is>
           <t>17:06:26</t>
         </is>
       </c>
-      <c r="K11" s="43" t="inlineStr">
+      <c r="K11" s="64" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="94.15000000000001" customHeight="1" s="53">
-      <c r="A12" s="50" t="n"/>
-      <c r="B12" s="43" t="inlineStr">
+    <row r="12" ht="94.2" customHeight="1" s="63">
+      <c r="A12" s="61" t="n"/>
+      <c r="B12" s="64" t="inlineStr">
         <is>
           <t>Test_11</t>
         </is>
       </c>
-      <c r="C12" s="29" t="inlineStr">
+      <c r="C12" s="28" t="inlineStr">
         <is>
           <t>verify removeAlertGroupCase</t>
         </is>
       </c>
-      <c r="D12" s="43" t="inlineStr">
+      <c r="D12" s="64" t="inlineStr">
         <is>
           <t>{'CGroupID': '651e9fc07751dc6faf3007c4', 'AGroupID': '651e6e5e4329bcab67b01b6e'}</t>
         </is>
       </c>
-      <c r="E12" s="43" t="inlineStr">
+      <c r="E12" s="64" t="inlineStr">
         <is>
           <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been removed from the alert group with id = 651e9fc07751dc6faf3007c4'}}</t>
         </is>
       </c>
-      <c r="F12" s="43" t="inlineStr">
+      <c r="F12" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been removed from the alert group with id = 6512d8dfbe1891535e3bac51</t>
         </is>
       </c>
-      <c r="G12" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H12" s="43" t="inlineStr">
+      <c r="G12" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H12" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 1 enrollment groups have been removed from the alert group with id = 651e9fc07751dc6faf3007c4</t>
         </is>
       </c>
-      <c r="I12" s="43" t="inlineStr">
+      <c r="I12" s="64" t="inlineStr">
         <is>
           <t>17:06:26</t>
         </is>
       </c>
-      <c r="J12" s="43" t="inlineStr">
+      <c r="J12" s="64" t="inlineStr">
         <is>
           <t>17:06:37</t>
         </is>
       </c>
-      <c r="K12" s="43" t="inlineStr">
+      <c r="K12" s="64" t="inlineStr">
         <is>
           <t>11.0</t>
         </is>
@@ -4534,515 +5099,515 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="57.6" customHeight="1" s="53">
-      <c r="A1" s="32" t="inlineStr">
+    <row r="1" ht="57.6" customHeight="1" s="63">
+      <c r="A1" s="30" t="inlineStr">
         <is>
           <t>Test No</t>
         </is>
       </c>
-      <c r="B1" s="32" t="inlineStr">
+      <c r="B1" s="30" t="inlineStr">
         <is>
           <t>TestCase</t>
         </is>
       </c>
-      <c r="C1" s="33" t="inlineStr">
+      <c r="C1" s="31" t="inlineStr">
         <is>
           <t>TestCase Description</t>
         </is>
       </c>
-      <c r="D1" s="32" t="inlineStr">
+      <c r="D1" s="30" t="inlineStr">
         <is>
           <t>Request Body</t>
         </is>
       </c>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="E1" s="30" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="F1" s="33" t="inlineStr">
+      <c r="F1" s="31" t="inlineStr">
         <is>
           <t>Check_Point/Test_Condition</t>
         </is>
       </c>
-      <c r="G1" s="33" t="inlineStr">
+      <c r="G1" s="31" t="inlineStr">
         <is>
           <t>Result (Pass/Fail)</t>
         </is>
       </c>
-      <c r="H1" s="33" t="inlineStr">
+      <c r="H1" s="31" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="I1" s="33" t="inlineStr">
+      <c r="I1" s="31" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="J1" s="33" t="inlineStr">
+      <c r="J1" s="31" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="K1" s="33" t="inlineStr">
+      <c r="K1" s="31" t="inlineStr">
         <is>
           <t>Total Duration
 (Seconds)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="409.6" customHeight="1" s="53">
-      <c r="A2" s="43" t="inlineStr">
+    <row r="2" ht="409.6" customHeight="1" s="63">
+      <c r="A2" s="64" t="inlineStr">
         <is>
           <t>Notification Group</t>
         </is>
       </c>
-      <c r="B2" s="43" t="inlineStr">
+      <c r="B2" s="64" t="inlineStr">
         <is>
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="43" t="n"/>
-      <c r="D2" s="43" t="inlineStr">
+      <c r="C2" s="64" t="n"/>
+      <c r="D2" s="64" t="inlineStr">
         <is>
           <t>{'name': 'Test_notification_Api250', 'description': 'test description', 'ownerID': '651e6e4dd10453bbc689ec05', 'userIds': ['651e9cf27751dc6faf2fffaa'], 'caseGroupIdsUserIds': ['651e9e427751dc6faf30035d'], 'zoneIds': ['651e6e4ed10453bbc689ec09']}</t>
         </is>
       </c>
-      <c r="E2" s="43" t="inlineStr">
+      <c r="E2" s="64" t="inlineStr">
         <is>
           <t>{'data': '651e9e447751dc6faf300368', 'message': 'AlertGroup 651e9e447751dc6faf300368 was created.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F2" s="43" t="n"/>
-      <c r="G2" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H2" s="43" t="inlineStr">
+      <c r="F2" s="64" t="n"/>
+      <c r="G2" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : AlertGroup 651e9e447751dc6faf300368 was created.</t>
         </is>
       </c>
-      <c r="I2" s="43" t="inlineStr">
+      <c r="I2" s="64" t="inlineStr">
         <is>
           <t>17:00:01</t>
         </is>
       </c>
-      <c r="J2" s="43" t="inlineStr">
+      <c r="J2" s="64" t="inlineStr">
         <is>
           <t>17:00:12</t>
         </is>
       </c>
-      <c r="K2" s="43" t="inlineStr">
+      <c r="K2" s="64" t="inlineStr">
         <is>
           <t>11.0</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="259.15" customHeight="1" s="53">
-      <c r="A3" s="49" t="n"/>
-      <c r="B3" s="43" t="inlineStr">
+    <row r="3" ht="259.2" customHeight="1" s="63">
+      <c r="A3" s="60" t="n"/>
+      <c r="B3" s="64" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="43" t="n"/>
-      <c r="D3" s="43" t="inlineStr">
+      <c r="C3" s="64" t="n"/>
+      <c r="D3" s="64" t="inlineStr">
         <is>
           <t>{'agroupID': True, 'description': 'test description', 'name': 'Test_notification_Api975', 'ownerID': '651e6e4dd10453bbc689ec05', 'set_cgroups': 0}</t>
         </is>
       </c>
-      <c r="E3" s="43" t="inlineStr">
+      <c r="E3" s="64" t="inlineStr">
         <is>
           <t>{'data': '651e9e4a7751dc6faf300378', 'message': 'AlertGroup 651e9e4a7751dc6faf300378 was created.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F3" s="43" t="n"/>
-      <c r="G3" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="43" t="inlineStr">
+      <c r="F3" s="64" t="n"/>
+      <c r="G3" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : AlertGroup 651e9e4a7751dc6faf300378 was created.</t>
         </is>
       </c>
-      <c r="I3" s="43" t="inlineStr">
+      <c r="I3" s="64" t="inlineStr">
         <is>
           <t>17:00:12</t>
         </is>
       </c>
-      <c r="J3" s="43" t="inlineStr">
+      <c r="J3" s="64" t="inlineStr">
         <is>
           <t>17:00:18</t>
         </is>
       </c>
-      <c r="K3" s="43" t="inlineStr">
+      <c r="K3" s="64" t="inlineStr">
         <is>
           <t>6.0</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="409.6" customHeight="1" s="53">
-      <c r="A4" s="49" t="n"/>
-      <c r="B4" s="43" t="inlineStr">
+    <row r="4" ht="409.6" customHeight="1" s="63">
+      <c r="A4" s="60" t="n"/>
+      <c r="B4" s="64" t="inlineStr">
         <is>
           <t>Test_03</t>
         </is>
       </c>
-      <c r="C4" s="43" t="n"/>
-      <c r="D4" s="43" t="inlineStr">
+      <c r="C4" s="64" t="n"/>
+      <c r="D4" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E4" s="43" t="inlineStr">
+      <c r="E4" s="64" t="inlineStr">
         <is>
           <t>{'agroupinfo': {'agroups': [{'agroupID': '651e6e5e4329bcab67b01b6e', 'caseGroups': [{'cgroupID': '651e6e5e4329bcab67b01b67', 'name': 'DefaultEnrollmentGroup'}, {'cgroupID': '651e9d667751dc6faf3000a9', 'name': 'GroupName'}], 'desc': 'Default Alert Group', 'name': 'DefaultAlertGroup', 'ownerID': '651e6e4dd10453bbc689ec05', 'users': [{'userId': '651e6e5e4329bcab67b01b77', 'userName': 'core', 'contact': {'timezoneID': 'Asia/Kolkata', 'email': 'ritesh.kagale@facefirst.com'}}], 'zoneIds': ['651e6e4ed10453bbc689ec09', '651e8b121b0bb5918035486f', '651e8b8d1b0bb59180354883', '651e8d191b0bb59180354897']}, {'agroupID': '651e9e447751dc6faf300368', 'caseGroups': [{'cgroupID': '651e9e427751dc6faf30035d', 'name': 'test enrollment346'}], 'desc': 'test description', 'name': 'Test_notification_Api250', 'ownerID': '651e6e4dd10453bbc689ec05', 'users': [{'userId': '651e9cf27751dc6faf2fffaa', 'userName': 'shubham', 'contact': {'lastName': 'c', 'timezoneID': 'Asia/Kolkata', 'firstName': 'shubham', 'email': 'admin@gmail.com'}}], 'zoneIds': ['651e6e4ed10453bbc689ec09']}, {'agroupID': '651e9e4a7751dc6faf300378', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api975', 'ownerID': '651e6e4dd10453bbc689ec05', 'users': [], 'zoneIds': ['651e6e4ed10453bbc689ec09']}]}}</t>
         </is>
       </c>
-      <c r="F4" s="43" t="n"/>
-      <c r="G4" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H4" s="43" t="inlineStr">
+      <c r="F4" s="64" t="n"/>
+      <c r="G4" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I4" s="43" t="inlineStr">
+      <c r="I4" s="64" t="inlineStr">
         <is>
           <t>17:00:18</t>
         </is>
       </c>
-      <c r="J4" s="43" t="inlineStr">
+      <c r="J4" s="64" t="inlineStr">
         <is>
           <t>17:00:21</t>
         </is>
       </c>
-      <c r="K4" s="43" t="inlineStr">
+      <c r="K4" s="64" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="409.6" customHeight="1" s="53">
-      <c r="A5" s="49" t="n"/>
-      <c r="B5" s="43" t="inlineStr">
+    <row r="5" ht="409.6" customHeight="1" s="63">
+      <c r="A5" s="60" t="n"/>
+      <c r="B5" s="64" t="inlineStr">
         <is>
           <t>Test_04</t>
         </is>
       </c>
-      <c r="C5" s="43" t="n"/>
-      <c r="D5" s="43" t="inlineStr">
+      <c r="C5" s="64" t="n"/>
+      <c r="D5" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E5" s="43" t="inlineStr">
+      <c r="E5" s="64" t="inlineStr">
         <is>
           <t>{'agroupinfo': {'agroups': [{'agroupID': '651e9e537751dc6faf300396', 'caseGroups': [], 'desc': 'test description', 'name': 'Test_notification_Api566', 'ownerID': '651e6e4dd10453bbc689ec05', 'users': [], 'zoneIds': ['651e6e4ed10453bbc689ec09']}]}}</t>
         </is>
       </c>
-      <c r="F5" s="43" t="n"/>
-      <c r="G5" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H5" s="43" t="inlineStr">
+      <c r="F5" s="64" t="n"/>
+      <c r="G5" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I5" s="43" t="inlineStr">
+      <c r="I5" s="64" t="inlineStr">
         <is>
           <t>17:00:21</t>
         </is>
       </c>
-      <c r="J5" s="43" t="inlineStr">
+      <c r="J5" s="64" t="inlineStr">
         <is>
           <t>17:00:28</t>
         </is>
       </c>
-      <c r="K5" s="43" t="inlineStr">
+      <c r="K5" s="64" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="316.9" customHeight="1" s="53">
-      <c r="A6" s="49" t="n"/>
-      <c r="B6" s="43" t="inlineStr">
+    <row r="6" ht="316.95" customHeight="1" s="63">
+      <c r="A6" s="60" t="n"/>
+      <c r="B6" s="64" t="inlineStr">
         <is>
           <t>Test_05</t>
         </is>
       </c>
-      <c r="C6" s="43" t="n"/>
-      <c r="D6" s="43" t="inlineStr">
+      <c r="C6" s="64" t="n"/>
+      <c r="D6" s="64" t="inlineStr">
         <is>
           <t>{'agroupID': '651e9e5a7751dc6faf3003b1', 'description': 'New Description', 'name': 'Test_notification_Api619', 'ownerID': '651e9cf27751dc6faf2fffaa', 'set_cgroups': 0}</t>
         </is>
       </c>
-      <c r="E6" s="43" t="inlineStr">
+      <c r="E6" s="64" t="inlineStr">
         <is>
           <t>{'data': '651e9e5a7751dc6faf3003b1', 'message': 'Alert group 651e9e5a7751dc6faf3003b1 is updated.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F6" s="43" t="n"/>
-      <c r="G6" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H6" s="43" t="inlineStr">
+      <c r="F6" s="64" t="n"/>
+      <c r="G6" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I6" s="43" t="inlineStr">
+      <c r="I6" s="64" t="inlineStr">
         <is>
           <t>17:00:28</t>
         </is>
       </c>
-      <c r="J6" s="43" t="inlineStr">
+      <c r="J6" s="64" t="inlineStr">
         <is>
           <t>17:00:38</t>
         </is>
       </c>
-      <c r="K6" s="43" t="inlineStr">
+      <c r="K6" s="64" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="273.6" customHeight="1" s="53">
-      <c r="A7" s="49" t="n"/>
-      <c r="B7" s="43" t="inlineStr">
+    <row r="7" ht="273.6" customHeight="1" s="63">
+      <c r="A7" s="60" t="n"/>
+      <c r="B7" s="64" t="inlineStr">
         <is>
           <t>Test_06</t>
         </is>
       </c>
-      <c r="C7" s="43" t="n"/>
-      <c r="D7" s="43" t="inlineStr">
+      <c r="C7" s="64" t="n"/>
+      <c r="D7" s="64" t="inlineStr">
         <is>
           <t>{'agroupID': '651e9e667751dc6faf3003d8', 'userId': '651e9cf27751dc6faf2fffaa'}</t>
         </is>
       </c>
-      <c r="E7" s="43" t="inlineStr">
+      <c r="E7" s="64" t="inlineStr">
         <is>
           <t>{'result': {'status': 'ok', 'message': '651e9cf27751dc6faf2fffaa user have been added to the alert group with id 651e9e667751dc6faf3003d8'}}</t>
         </is>
       </c>
-      <c r="F7" s="43" t="n"/>
-      <c r="G7" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H7" s="43" t="inlineStr">
+      <c r="F7" s="64" t="n"/>
+      <c r="G7" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H7" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I7" s="43" t="inlineStr">
+      <c r="I7" s="64" t="inlineStr">
         <is>
           <t>17:00:38</t>
         </is>
       </c>
-      <c r="J7" s="43" t="inlineStr">
+      <c r="J7" s="64" t="inlineStr">
         <is>
           <t>17:00:51</t>
         </is>
       </c>
-      <c r="K7" s="43" t="inlineStr">
+      <c r="K7" s="64" t="inlineStr">
         <is>
           <t>13.0</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="288" customHeight="1" s="53">
-      <c r="A8" s="49" t="n"/>
-      <c r="B8" s="43" t="inlineStr">
+    <row r="8" ht="288" customHeight="1" s="63">
+      <c r="A8" s="60" t="n"/>
+      <c r="B8" s="64" t="inlineStr">
         <is>
           <t>Test_07</t>
         </is>
       </c>
-      <c r="C8" s="43" t="n"/>
-      <c r="D8" s="43" t="inlineStr">
+      <c r="C8" s="64" t="n"/>
+      <c r="D8" s="64" t="inlineStr">
         <is>
           <t>{'agroupID': '651e9e757751dc6faf3003ff', 'userId': '651e9cf27751dc6faf2fffaa'}</t>
         </is>
       </c>
-      <c r="E8" s="43" t="inlineStr">
+      <c r="E8" s="64" t="inlineStr">
         <is>
           <t>{'result': {'status': 'ok', 'message': '651e9cf27751dc6faf2fffaa user have been removed from alert group with id 651e9e757751dc6faf3003ff'}}</t>
         </is>
       </c>
-      <c r="F8" s="43" t="n"/>
-      <c r="G8" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H8" s="43" t="inlineStr">
+      <c r="F8" s="64" t="n"/>
+      <c r="G8" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H8" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I8" s="43" t="inlineStr">
+      <c r="I8" s="64" t="inlineStr">
         <is>
           <t>17:00:51</t>
         </is>
       </c>
-      <c r="J8" s="43" t="inlineStr">
+      <c r="J8" s="64" t="inlineStr">
         <is>
           <t>17:01:10</t>
         </is>
       </c>
-      <c r="K8" s="43" t="inlineStr">
+      <c r="K8" s="64" t="inlineStr">
         <is>
           <t>19.0</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="316.9" customHeight="1" s="53">
-      <c r="A9" s="49" t="n"/>
-      <c r="B9" s="43" t="inlineStr">
+    <row r="9" ht="316.95" customHeight="1" s="63">
+      <c r="A9" s="60" t="n"/>
+      <c r="B9" s="64" t="inlineStr">
         <is>
           <t>Test_08</t>
         </is>
       </c>
-      <c r="C9" s="43" t="n"/>
-      <c r="D9" s="43" t="inlineStr">
+      <c r="C9" s="64" t="n"/>
+      <c r="D9" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E9" s="43" t="inlineStr">
+      <c r="E9" s="64" t="inlineStr">
         <is>
           <t>{'data': '651e9e857751dc6faf300431', 'message': "The alert group 'Test_notification_Api902' has been deleted (group ID was 651e9e857751dc6faf300431)", 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F9" s="43" t="n"/>
-      <c r="G9" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H9" s="43" t="inlineStr">
+      <c r="F9" s="64" t="n"/>
+      <c r="G9" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H9" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : The alert group 'Test_notification_Api902' has been deleted (group ID was 651e9e857751dc6faf300431)</t>
         </is>
       </c>
-      <c r="I9" s="43" t="inlineStr">
+      <c r="I9" s="64" t="inlineStr">
         <is>
           <t>17:01:11</t>
         </is>
       </c>
-      <c r="J9" s="43" t="inlineStr">
+      <c r="J9" s="64" t="inlineStr">
         <is>
           <t>17:01:21</t>
         </is>
       </c>
-      <c r="K9" s="43" t="inlineStr">
+      <c r="K9" s="64" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="409.6" customHeight="1" s="53">
-      <c r="A10" s="49" t="n"/>
-      <c r="B10" s="43" t="inlineStr">
+    <row r="10" ht="409.6" customHeight="1" s="63">
+      <c r="A10" s="60" t="n"/>
+      <c r="B10" s="64" t="inlineStr">
         <is>
           <t>Test_09</t>
         </is>
       </c>
-      <c r="C10" s="43" t="n"/>
-      <c r="D10" s="43" t="inlineStr">
+      <c r="C10" s="64" t="n"/>
+      <c r="D10" s="64" t="inlineStr">
         <is>
           <t>{'agroupID': True, 'description': 'test description', 'name': 'Test_notification_Api144', 'ownerID': '651e6e4dd10453bbc689ec05', 'set_cgroups': 0}</t>
         </is>
       </c>
-      <c r="E10" s="43" t="inlineStr">
+      <c r="E10" s="64" t="inlineStr">
         <is>
           <t>{'ExceptionType': 'FluentValidation.ValidationException', 'Message': 'An unhandled exception has occured while executing the request.', 'Data': {'exceptionMessage': 'Validation failed: \r\n -- Name: Name already exists. Severity: Error', 'innerException': None, 'requestId': '00-0ebf8caaca8d6e2458ae84d3e825589f-396fc682e8716a9f-00', 'requestPath': '/api/AlertGroups', 'connectionId': '0HMU5HMGR4MVN'}}</t>
         </is>
       </c>
-      <c r="F10" s="43" t="n"/>
-      <c r="G10" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H10" s="43" t="inlineStr">
+      <c r="F10" s="64" t="n"/>
+      <c r="G10" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H10" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 500 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I10" s="43" t="inlineStr">
+      <c r="I10" s="64" t="inlineStr">
         <is>
           <t>17:01:21</t>
         </is>
       </c>
-      <c r="J10" s="43" t="inlineStr">
+      <c r="J10" s="64" t="inlineStr">
         <is>
           <t>17:01:33</t>
         </is>
       </c>
-      <c r="K10" s="43" t="inlineStr">
+      <c r="K10" s="64" t="inlineStr">
         <is>
           <t>12.0</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="244.9" customHeight="1" s="53">
-      <c r="A11" s="50" t="n"/>
-      <c r="B11" s="43" t="inlineStr">
+    <row r="11" ht="244.95" customHeight="1" s="63">
+      <c r="A11" s="61" t="n"/>
+      <c r="B11" s="64" t="inlineStr">
         <is>
           <t>Test_10</t>
         </is>
       </c>
-      <c r="C11" s="43" t="n"/>
-      <c r="D11" s="43" t="inlineStr">
+      <c r="C11" s="64" t="n"/>
+      <c r="D11" s="64" t="inlineStr">
         <is>
           <t>{'CGroupID': '651e9e997751dc6faf30046a', 'AGroupID': '651e9e9e7751dc6faf30047b'}</t>
         </is>
       </c>
-      <c r="E11" s="43" t="inlineStr">
+      <c r="E11" s="64" t="inlineStr">
         <is>
           <t>{'result': {'status': 'ok', 'message': '1 enrollment groups have been added to the alert group with id = 651e9e997751dc6faf30046a'}}</t>
         </is>
       </c>
-      <c r="F11" s="43" t="n"/>
-      <c r="G11" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H11" s="43" t="inlineStr">
+      <c r="F11" s="64" t="n"/>
+      <c r="G11" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H11" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : ok</t>
         </is>
       </c>
-      <c r="I11" s="43" t="inlineStr">
+      <c r="I11" s="64" t="inlineStr">
         <is>
           <t>17:01:33</t>
         </is>
       </c>
-      <c r="J11" s="43" t="inlineStr">
+      <c r="J11" s="64" t="inlineStr">
         <is>
           <t>17:01:43</t>
         </is>
       </c>
-      <c r="K11" s="43" t="inlineStr">
+      <c r="K11" s="64" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
@@ -5068,155 +5633,155 @@
       <selection activeCell="A1" sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="57.6" customHeight="1" s="53">
-      <c r="A1" s="32" t="inlineStr">
+    <row r="1" ht="57.6" customHeight="1" s="63">
+      <c r="A1" s="30" t="inlineStr">
         <is>
           <t>Test No</t>
         </is>
       </c>
-      <c r="B1" s="32" t="inlineStr">
+      <c r="B1" s="30" t="inlineStr">
         <is>
           <t>TestCase</t>
         </is>
       </c>
-      <c r="C1" s="33" t="inlineStr">
+      <c r="C1" s="31" t="inlineStr">
         <is>
           <t>TestCase Description</t>
         </is>
       </c>
-      <c r="D1" s="32" t="inlineStr">
+      <c r="D1" s="30" t="inlineStr">
         <is>
           <t>Request Body</t>
         </is>
       </c>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="E1" s="30" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="F1" s="33" t="inlineStr">
+      <c r="F1" s="31" t="inlineStr">
         <is>
           <t>Check_Point/Test_Condition</t>
         </is>
       </c>
-      <c r="G1" s="33" t="inlineStr">
+      <c r="G1" s="31" t="inlineStr">
         <is>
           <t>Result (Pass/Fail)</t>
         </is>
       </c>
-      <c r="H1" s="33" t="inlineStr">
+      <c r="H1" s="31" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="I1" s="33" t="inlineStr">
+      <c r="I1" s="31" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="J1" s="33" t="inlineStr">
+      <c r="J1" s="31" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="K1" s="33" t="inlineStr">
+      <c r="K1" s="31" t="inlineStr">
         <is>
           <t>Total Duration
 (Seconds)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="409.6" customHeight="1" s="53">
-      <c r="A2" s="44" t="inlineStr">
+    <row r="2" ht="409.6" customHeight="1" s="63">
+      <c r="A2" s="65" t="inlineStr">
         <is>
           <t>Zones</t>
         </is>
       </c>
-      <c r="B2" s="44" t="inlineStr">
+      <c r="B2" s="65" t="inlineStr">
         <is>
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="44" t="n"/>
-      <c r="D2" s="44" t="inlineStr">
+      <c r="C2" s="65" t="n"/>
+      <c r="D2" s="65" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E2" s="43" t="inlineStr">
+      <c r="E2" s="64" t="inlineStr">
         <is>
           <t>{'zoneInfo': {'zones': [{'description': 'All Devices', 'isDefault': True, 'zoneId': '651e6e4ed10453bbc689ec09'}, {'accountId': '651e6e4dd10453bbc689ec05', 'description': 'ff-india-qa10', 'isDefault': False, 'zoneId': '651e6ed2694c7c51a9b4a7f7', 'regionId': '651e6e4ed10453bbc689ec07', 'hostName': 'ff-india-qa10'}, {'accountId': '651e6e4dd10453bbc689ec05', 'description': 'DESKTOP-660P8Q2', 'isDefault': False, 'zoneId': '651e8b121b0bb5918035486f', 'regionId': '651e796b1b0bb591803547ea', 'hostName': 'DESKTOP-660P8Q2'}, {'accountId': '651e6e4dd10453bbc689ec05', 'description': 'DESKTOP-75UBP18', 'isDefault': False, 'zoneId': '651e8b8d1b0bb59180354883', 'regionId': '651e7a9f1b0bb591803547eb', 'hostName': 'DESKTOP-75UBP18'}, {'accountId': '651e6e4dd10453bbc689ec05', 'description': 'DESKTOP-PTTAM1V', 'isDefault': False, 'zoneId': '651e8d191b0bb59180354897', 'regionId': '651e7b8c1b0bb591803547ec', 'hostName': 'DESKTOP-PTTAM1V'}]}}</t>
         </is>
       </c>
-      <c r="F2" s="44" t="n"/>
-      <c r="G2" s="58" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H2" s="43" t="inlineStr">
+      <c r="F2" s="65" t="n"/>
+      <c r="G2" s="42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I2" s="43" t="inlineStr">
+      <c r="I2" s="64" t="inlineStr">
         <is>
           <t>17:03:56</t>
         </is>
       </c>
-      <c r="J2" s="43" t="inlineStr">
+      <c r="J2" s="64" t="inlineStr">
         <is>
           <t>17:03:59</t>
         </is>
       </c>
-      <c r="K2" s="43" t="inlineStr">
+      <c r="K2" s="64" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="187.15" customHeight="1" s="53">
-      <c r="A3" s="50" t="n"/>
-      <c r="B3" s="44" t="inlineStr">
+    <row r="3" ht="187.2" customHeight="1" s="63">
+      <c r="A3" s="61" t="n"/>
+      <c r="B3" s="65" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="44" t="n"/>
-      <c r="D3" s="44" t="inlineStr">
+      <c r="C3" s="65" t="n"/>
+      <c r="D3" s="65" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E3" s="43" t="inlineStr">
+      <c r="E3" s="64" t="inlineStr">
         <is>
           <t>{'zoneInfo': {'zones': [{'description': 'All Devices', 'isDefault': True, 'zoneId': '651e6e4ed10453bbc689ec09'}]}}</t>
         </is>
       </c>
-      <c r="F3" s="44" t="n"/>
-      <c r="G3" s="58" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="43" t="inlineStr">
+      <c r="F3" s="65" t="n"/>
+      <c r="G3" s="42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I3" s="43" t="inlineStr">
+      <c r="I3" s="64" t="inlineStr">
         <is>
           <t>17:03:59</t>
         </is>
       </c>
-      <c r="J3" s="43" t="inlineStr">
+      <c r="J3" s="64" t="inlineStr">
         <is>
           <t>17:04:05</t>
         </is>
       </c>
-      <c r="K3" s="43" t="inlineStr">
+      <c r="K3" s="64" t="inlineStr">
         <is>
           <t>6.0</t>
         </is>
@@ -5242,200 +5807,200 @@
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="57.6" customHeight="1" s="53">
-      <c r="A1" s="32" t="inlineStr">
+    <row r="1" ht="57.6" customHeight="1" s="63">
+      <c r="A1" s="30" t="inlineStr">
         <is>
           <t>Test No</t>
         </is>
       </c>
-      <c r="B1" s="32" t="inlineStr">
+      <c r="B1" s="30" t="inlineStr">
         <is>
           <t>TestCase</t>
         </is>
       </c>
-      <c r="C1" s="33" t="inlineStr">
+      <c r="C1" s="31" t="inlineStr">
         <is>
           <t>TestCase Description</t>
         </is>
       </c>
-      <c r="D1" s="32" t="inlineStr">
+      <c r="D1" s="30" t="inlineStr">
         <is>
           <t>Request Body</t>
         </is>
       </c>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="E1" s="30" t="inlineStr">
         <is>
           <t>Response</t>
         </is>
       </c>
-      <c r="F1" s="33" t="inlineStr">
+      <c r="F1" s="31" t="inlineStr">
         <is>
           <t>Check_Point/Test_Condition</t>
         </is>
       </c>
-      <c r="G1" s="33" t="inlineStr">
+      <c r="G1" s="31" t="inlineStr">
         <is>
           <t>Result (Pass/Fail)</t>
         </is>
       </c>
-      <c r="H1" s="33" t="inlineStr">
+      <c r="H1" s="31" t="inlineStr">
         <is>
           <t>Actual Result</t>
         </is>
       </c>
-      <c r="I1" s="33" t="inlineStr">
+      <c r="I1" s="31" t="inlineStr">
         <is>
           <t>Start Time</t>
         </is>
       </c>
-      <c r="J1" s="33" t="inlineStr">
+      <c r="J1" s="31" t="inlineStr">
         <is>
           <t>End Time</t>
         </is>
       </c>
-      <c r="K1" s="33" t="inlineStr">
+      <c r="K1" s="31" t="inlineStr">
         <is>
           <t>Total Duration
 (Seconds)</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="233.45" customHeight="1" s="53">
-      <c r="A2" s="43" t="inlineStr">
+    <row r="2" ht="233.4" customHeight="1" s="63">
+      <c r="A2" s="64" t="inlineStr">
         <is>
           <t>Account</t>
         </is>
       </c>
-      <c r="B2" s="43" t="inlineStr">
+      <c r="B2" s="64" t="inlineStr">
         <is>
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="43" t="n"/>
-      <c r="D2" s="43" t="inlineStr">
+      <c r="C2" s="64" t="n"/>
+      <c r="D2" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E2" s="43" t="inlineStr">
+      <c r="E2" s="64" t="inlineStr">
         <is>
           <t>[{'accountId': '651e6e4dd10453bbc689ec05', 'aGroupIDs': ['651e6e5e4329bcab67b01b6e'], 'authParams': '', 'authType': 0, 'autoThreshold': 0.83, 'caseTTL': 0, 'contact': {'address1': '', 'address2': '', 'city': '', 'company': '', 'department': '', 'email': 'ritesh.kagale@facefirst.com', 'faxNumber': '', 'firstName': 'Company', 'homePhone': '', 'lastName': 'Account', 'middleName': '', 'state': '', 'timezoneID': 'Asia/Kolkata', 'title': '', 'workPhone': '', 'zip': ''}, 'enabled': True, 'cGroupIDs': ['651e6e5e4329bcab67b01b67'], 'maxEnrollments': 1000000, 'maxFaceNoteTimeDiff': '1800', 'maxInvestigationLength': 1800, 'maxSubusers': 100, 'maxTransactionAge': 86400, 'numCases': 0, 'sessionExpiration': 3600, 'stationIDs': ['DESKTOP-660P8Q2:x01', 'DESKTOP-75UBP18:x01', 'DESKTOP-PTTAM1V:x01'], 'userIDs': ['651e6e58977a0183e7460ed2', '651e6e5e4329bcab67b01b59', '651e6e5e4329bcab67b01b77', '651e6ed1694c7c51a9b4a7f4', '651e6ed2694c7c51a9b4a7f6', '651e9cf27751dc6faf2fffaa']}]</t>
         </is>
       </c>
-      <c r="F2" s="43" t="n"/>
-      <c r="G2" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H2" s="43" t="inlineStr">
+      <c r="F2" s="64" t="n"/>
+      <c r="G2" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I2" s="43" t="inlineStr">
+      <c r="I2" s="64" t="inlineStr">
         <is>
           <t>16:54:42</t>
         </is>
       </c>
-      <c r="J2" s="43" t="inlineStr">
+      <c r="J2" s="64" t="inlineStr">
         <is>
           <t>16:54:47</t>
         </is>
       </c>
-      <c r="K2" s="43" t="inlineStr">
+      <c r="K2" s="64" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="409.6" customHeight="1" s="53">
-      <c r="A3" s="49" t="n"/>
-      <c r="B3" s="43" t="inlineStr">
+    <row r="3" ht="409.6" customHeight="1" s="63">
+      <c r="A3" s="60" t="n"/>
+      <c r="B3" s="64" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="43" t="n"/>
-      <c r="D3" s="43" t="inlineStr">
+      <c r="C3" s="64" t="n"/>
+      <c r="D3" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E3" s="43" t="inlineStr">
+      <c r="E3" s="64" t="inlineStr">
         <is>
           <t>{'accountId': '651e6e4dd10453bbc689ec05', 'aGroupIDs': ['651e6e5e4329bcab67b01b6e'], 'authParams': '', 'authType': 0, 'autoThreshold': 0.83, 'caseTTL': 0, 'contact': {'address1': '', 'address2': '', 'city': '', 'company': '', 'department': '', 'email': 'ritesh.kagale@facefirst.com', 'faxNumber': '', 'firstName': 'Company', 'homePhone': '', 'lastName': 'Account', 'middleName': '', 'state': '', 'timezoneID': 'Asia/Kolkata', 'title': '', 'workPhone': '', 'zip': ''}, 'enabled': True, 'cGroupIDs': ['651e6e5e4329bcab67b01b67'], 'maxEnrollments': 1000000, 'maxFaceNoteTimeDiff': '1800', 'maxInvestigationLength': 1800, 'maxSubusers': 100, 'maxTransactionAge': 86400, 'numCases': 0, 'sessionExpiration': 3600, 'stationIDs': ['DESKTOP-660P8Q2:x01', 'DESKTOP-75UBP18:x01', 'DESKTOP-PTTAM1V:x01'], 'userIDs': ['651e6e58977a0183e7460ed2', '651e6e5e4329bcab67b01b59', '651e6e5e4329bcab67b01b77', '651e6ed1694c7c51a9b4a7f4', '651e6ed2694c7c51a9b4a7f6', '651e9cf27751dc6faf2fffaa']}</t>
         </is>
       </c>
-      <c r="F3" s="43" t="n"/>
-      <c r="G3" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="43" t="inlineStr">
+      <c r="F3" s="64" t="n"/>
+      <c r="G3" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I3" s="43" t="inlineStr">
+      <c r="I3" s="64" t="inlineStr">
         <is>
           <t>16:54:48</t>
         </is>
       </c>
-      <c r="J3" s="43" t="inlineStr">
+      <c r="J3" s="64" t="inlineStr">
         <is>
           <t>16:54:56</t>
         </is>
       </c>
-      <c r="K3" s="43" t="inlineStr">
+      <c r="K3" s="64" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="409.6" customHeight="1" s="53">
-      <c r="A4" s="50" t="n"/>
-      <c r="B4" s="43" t="inlineStr">
+    <row r="4" ht="409.6" customHeight="1" s="63">
+      <c r="A4" s="61" t="n"/>
+      <c r="B4" s="64" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C4" s="43" t="n"/>
-      <c r="D4" s="43" t="inlineStr">
+      <c r="C4" s="64" t="n"/>
+      <c r="D4" s="64" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E4" s="43" t="inlineStr">
+      <c r="E4" s="64" t="inlineStr">
         <is>
           <t>{'stationInfo': {'stations': [{'accountId': '651e6e4dd10453bbc689ec05', 'geo': {'type': 'Point', 'coordinates': [78.36166349999999, 17.5039154]}, 'desc': 'DESKTOP-660P8Q2-8561/v2', 'stream': 'DESKTOP-660P8Q2:x01', 'licActive': 1696500528920, 'zoneIDs': ['651e6e4ed10453bbc689ec09', '651e8b121b0bb5918035486f'], 'regionId': '651e796b1b0bb591803547ea'}, {'accountId': '651e6e4dd10453bbc689ec05', 'geo': {'type': 'Point', 'coordinates': [93.90626879999999, 24.6637173]}, 'desc': 'DESKTOP-75UBP18-8562/v2', 'stream': 'DESKTOP-75UBP18:x01', 'licActive': 1696500858178, 'zoneIDs': ['651e6e4ed10453bbc689ec09', '651e8b8d1b0bb59180354883'], 'regionId': '651e7a9f1b0bb591803547eb'}, {'accountId': '651e6e4dd10453bbc689ec05', 'geo': {'type': 'Point', 'coordinates': [73.8567437, 18.5204303]}, 'desc': 'DESKTOP-PTTAM1V-8563/v2', 'stream': 'DESKTOP-PTTAM1V:x01', 'licActive': 1696501053193, 'zoneIDs': ['651e6e4ed10453bbc689ec09', '651e8d191b0bb59180354897'], 'regionId': '651e7b8c1b0bb591803547ec'}]}}</t>
         </is>
       </c>
-      <c r="F4" s="43" t="n"/>
-      <c r="G4" s="54" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H4" s="43" t="inlineStr">
+      <c r="F4" s="64" t="n"/>
+      <c r="G4" s="38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" s="64" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : None</t>
         </is>
       </c>
-      <c r="I4" s="43" t="inlineStr">
+      <c r="I4" s="64" t="inlineStr">
         <is>
           <t>16:54:56</t>
         </is>
       </c>
-      <c r="J4" s="43" t="inlineStr">
+      <c r="J4" s="64" t="inlineStr">
         <is>
           <t>16:55:03</t>
         </is>
       </c>
-      <c r="K4" s="43" t="inlineStr">
+      <c r="K4" s="64" t="inlineStr">
         <is>
           <t>7.0</t>
         </is>

--- a/Reports/API_Excel_Report/API_excel_report.xlsx
+++ b/Reports/API_Excel_Report/API_excel_report.xlsx
@@ -73,7 +73,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -106,20 +106,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-        <bgColor rgb="00FF0000"/>
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -500,16 +506,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -525,30 +534,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,13 +895,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col width="20.44140625" customWidth="1" min="1" max="1"/>
-    <col width="16.33203125" customWidth="1" min="2" max="2"/>
-    <col width="18.21875" customWidth="1" min="3" max="3"/>
-    <col width="20.33203125" customWidth="1" min="4" max="4"/>
+    <col width="20.44140625" customWidth="1" style="52" min="1" max="1"/>
+    <col width="16.33203125" customWidth="1" style="52" min="2" max="2"/>
+    <col width="18.21875" customWidth="1" style="52" min="3" max="3"/>
+    <col width="20.33203125" customWidth="1" style="52" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" s="52">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Module Name</t>
@@ -942,7 +942,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" s="52">
       <c r="A3" s="11" t="inlineStr">
         <is>
           <t>User API</t>
@@ -961,7 +961,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" s="52">
       <c r="A4" s="13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -999,16 +999,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.44140625" customWidth="1" min="2" max="2"/>
-    <col width="16.6640625" customWidth="1" min="3" max="3"/>
-    <col width="13.21875" customWidth="1" min="4" max="4"/>
-    <col width="13.21875" customWidth="1" min="6" max="6"/>
-    <col width="10.6640625" customWidth="1" min="7" max="7"/>
-    <col width="18.109375" customWidth="1" min="8" max="8"/>
-    <col width="11.44140625" customWidth="1" min="9" max="9"/>
+    <col width="13.44140625" customWidth="1" style="52" min="2" max="2"/>
+    <col width="16.6640625" customWidth="1" style="52" min="3" max="3"/>
+    <col width="13.21875" customWidth="1" style="52" min="4" max="4"/>
+    <col width="13.21875" customWidth="1" style="52" min="6" max="6"/>
+    <col width="10.6640625" customWidth="1" style="52" min="7" max="7"/>
+    <col width="18.109375" customWidth="1" style="52" min="8" max="8"/>
+    <col width="11.44140625" customWidth="1" style="52" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57.6" customHeight="1">
+    <row r="1" ht="57.6" customHeight="1" s="52">
       <c r="A1" s="31" t="inlineStr">
         <is>
           <t>Test No</t>
@@ -1066,103 +1066,103 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="72" customHeight="1">
-      <c r="A2" s="52" t="inlineStr">
+    <row r="2" ht="72" customHeight="1" s="52">
+      <c r="A2" s="54" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="B2" s="52" t="inlineStr">
+      <c r="B2" s="54" t="inlineStr">
         <is>
           <t>Test_01</t>
         </is>
       </c>
-      <c r="C2" s="51" t="n"/>
-      <c r="D2" s="51" t="inlineStr">
+      <c r="C2" s="53" t="n"/>
+      <c r="D2" s="53" t="inlineStr">
         <is>
           <t>{'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole', 'narrativeDesc': 'nsarra', 'action': 'Call Police', 'storeId': 'Pune', 'caseNumber': 'theft one bottle', 'timeIncident': '09/21/2023 07:47', 'reportedBy': 'staff', 'reportedLoss': 8000, 'caseEventType': 'STORE THREAT', 'activityType': 'DOMESTIC VIOLENCE', 'heightType': '5.6-5.9', 'methodOffence': 'GRAB AND DASH', 'ProfileId': '651e6e50d10453bbc689ec40', 'ClearGeo': True, 'geo': '73.84841725892831,18.511004603403823'}</t>
         </is>
       </c>
-      <c r="E2" s="51" t="inlineStr">
+      <c r="E2" s="53" t="inlineStr">
         <is>
           <t>{'data': {'id': '651ed4467751dc6faf30226c', 'message': "Note id '651ed4467751dc6faf30226c' successfully added"}, 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F2" s="51" t="n"/>
-      <c r="G2" s="55" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H2" s="51" t="inlineStr">
+      <c r="F2" s="53" t="n"/>
+      <c r="G2" s="41" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" s="53" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Note id '651ed4467751dc6faf30226c' successfully added</t>
         </is>
       </c>
-      <c r="I2" s="51" t="inlineStr">
+      <c r="I2" s="53" t="inlineStr">
         <is>
           <t>20:50:28</t>
         </is>
       </c>
-      <c r="J2" s="51" t="inlineStr">
+      <c r="J2" s="53" t="inlineStr">
         <is>
           <t>20:50:38</t>
         </is>
       </c>
-      <c r="K2" s="51" t="inlineStr">
+      <c r="K2" s="53" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="61.95" customHeight="1">
-      <c r="A3" s="48" t="n"/>
+    <row r="3" ht="61.95" customHeight="1" s="52">
+      <c r="A3" s="49" t="n"/>
       <c r="B3" s="36" t="inlineStr">
         <is>
           <t>Test_02</t>
         </is>
       </c>
-      <c r="C3" s="52" t="n"/>
-      <c r="D3" s="52" t="inlineStr">
+      <c r="C3" s="54" t="n"/>
+      <c r="D3" s="54" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E3" s="51" t="inlineStr">
+      <c r="E3" s="53" t="inlineStr">
         <is>
           <t>{'notesInfo': {'notes': [{'metaData': {'gender': 'MALE', 'build': 'build', 'bodyMarkings': 'mole', 'narrativeDesc': 'nsarra', 'action': 'Call Police', 'storeId': 'Pune', 'caseNumber': 'theft one bottle', 'timeIncident': '09/21/2023 07:47', 'reportedBy': 'staff', 'reportedLoss': '8000', 'caseEventType': 'STORE THREAT', 'activityType': 'DOMESTIC VIOLENCE', 'heightType': '5.6-5.9', 'methodOffence': 'GRAB AND DASH'}, 'imageIDs': ['11f0c98574b4230dffc83c0aeb478f7b'], 'ownerID': '651e6e4dd10453bbc689ec05', 'profileID': '651e6e50d10453bbc689ec40', 'userID': '651e9cf27751dc6faf2fffaa', 'update': 1696519251013, 'numCases': 0, 'create': 1696519251013, 'noteID': '651ed4537751dc6faf302287', 'geo': {'coordinates': [73.84841725892831, 18.511004603403823]}}]}}</t>
         </is>
       </c>
-      <c r="F3" s="52" t="n"/>
-      <c r="G3" s="58" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="51" t="inlineStr">
+      <c r="F3" s="54" t="n"/>
+      <c r="G3" s="44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" s="53" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : 651ed4537751dc6faf302287</t>
         </is>
       </c>
-      <c r="I3" s="52" t="inlineStr">
+      <c r="I3" s="54" t="inlineStr">
         <is>
           <t>20:50:39</t>
         </is>
       </c>
-      <c r="J3" s="52" t="inlineStr">
+      <c r="J3" s="54" t="inlineStr">
         <is>
           <t>20:50:54</t>
         </is>
       </c>
-      <c r="K3" s="52" t="inlineStr">
+      <c r="K3" s="54" t="inlineStr">
         <is>
           <t>15.0</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="62.4" customHeight="1">
-      <c r="A4" s="48" t="n"/>
-      <c r="B4" s="52" t="inlineStr">
+    <row r="4" ht="62.4" customHeight="1" s="52">
+      <c r="A4" s="49" t="n"/>
+      <c r="B4" s="54" t="inlineStr">
         <is>
           <t>Test_03</t>
         </is>
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="F4" s="27" t="n"/>
-      <c r="G4" s="58" t="inlineStr">
+      <c r="G4" s="44" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1189,121 +1189,121 @@
           <t>Response Status Code : 200 &amp; Message : Note information has been updated.</t>
         </is>
       </c>
-      <c r="I4" s="52" t="inlineStr">
+      <c r="I4" s="54" t="inlineStr">
         <is>
           <t>20:50:55</t>
         </is>
       </c>
-      <c r="J4" s="52" t="inlineStr">
+      <c r="J4" s="54" t="inlineStr">
         <is>
           <t>20:51:19</t>
         </is>
       </c>
-      <c r="K4" s="52" t="inlineStr">
+      <c r="K4" s="54" t="inlineStr">
         <is>
           <t>24.0</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="64.95" customHeight="1">
-      <c r="A5" s="48" t="n"/>
-      <c r="B5" s="52" t="inlineStr">
+    <row r="5" ht="64.95" customHeight="1" s="52">
+      <c r="A5" s="49" t="n"/>
+      <c r="B5" s="54" t="inlineStr">
         <is>
           <t>Test_04</t>
         </is>
       </c>
-      <c r="C5" s="52" t="n"/>
-      <c r="D5" s="52" t="inlineStr">
+      <c r="C5" s="54" t="n"/>
+      <c r="D5" s="54" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="E5" s="51" t="inlineStr">
+      <c r="E5" s="53" t="inlineStr">
         <is>
           <t>{'data': '651ed4797751dc6faf3022d7', 'message': 'Note with NoteId: 651ed4797751dc6faf3022d7 was deleted.', 'isSuccess': True}</t>
         </is>
       </c>
-      <c r="F5" s="52" t="n"/>
-      <c r="G5" s="58" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H5" s="51" t="inlineStr">
+      <c r="F5" s="54" t="n"/>
+      <c r="G5" s="44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" s="53" t="inlineStr">
         <is>
           <t>Response Status Code : 200 &amp; Message : Note with NoteId: 651ed4797751dc6faf3022d7 was deleted.</t>
         </is>
       </c>
-      <c r="I5" s="51" t="inlineStr">
+      <c r="I5" s="53" t="inlineStr">
         <is>
           <t>20:51:19</t>
         </is>
       </c>
-      <c r="J5" s="52" t="inlineStr">
+      <c r="J5" s="54" t="inlineStr">
         <is>
           <t>20:51:33</t>
         </is>
       </c>
-      <c r="K5" s="52" t="inlineStr">
+      <c r="K5" s="54" t="inlineStr">
         <is>
           <t>14.0</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="52.95" customHeight="1">
-      <c r="A6" s="48" t="n"/>
-      <c r="B6" s="51" t="inlineStr">
+    <row r="6" ht="52.95" customHeight="1" s="52">
+      <c r="A6" s="49" t="n"/>
+      <c r="B6" s="53" t="inlineStr">
         <is>
           <t>Test_05</t>
         </is>
       </c>
-      <c r="C6" s="51" t="n"/>
-      <c r="D6" s="51" t="inlineStr">
+      <c r="C6" s="53" t="n"/>
+      <c r="D6" s="53" t="inlineStr">
         <is>
           <t>{'fields': ['build'], 'NoteId': '651ed4877751dc6faf30230c'}</t>
         </is>
       </c>
-      <c r="E6" s="51" t="inlineStr">
+      <c r="E6" s="53" t="inlineStr">
        